--- a/FACModel/Modelled RIHT2.xlsx
+++ b/FACModel/Modelled RIHT2.xlsx
@@ -19,12 +19,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="5">
   <si>
-    <t>Delta RIHT</t>
+    <t>DP leakage</t>
   </si>
   <si>
-    <t>RIHT</t>
+    <t>Delta RIHT_2</t>
+  </si>
+  <si>
+    <t>RIHT_2</t>
   </si>
   <si>
     <t>Steam quality</t>
@@ -394,18 +397,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="4" width="13.7109375" customWidth="1"/>
+    <col min="4" max="5" width="13.7109375" customWidth="1"/>
+    <col min="5" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -416,173 +422,1725 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>30414</v>
       </c>
       <c r="B2">
-        <v>0.04859501379633002</v>
+        <v>0.03045833333333333</v>
       </c>
       <c r="C2">
-        <v>261.843677557819</v>
+        <v>0.05015783118506079</v>
       </c>
       <c r="D2">
-        <v>0.009790272652762362</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>261.8440597705786</v>
+      </c>
+      <c r="E2">
+        <v>0.009791998717485406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>30444</v>
       </c>
       <c r="B3">
-        <v>0.06944659776627304</v>
+        <v>0.03091666666666667</v>
       </c>
       <c r="C3">
-        <v>261.8922725716153</v>
+        <v>0.07175498635729127</v>
       </c>
       <c r="D3">
-        <v>0.01000972670529825</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>261.8942176017637</v>
+      </c>
+      <c r="E3">
+        <v>0.01001851042023139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>30475</v>
       </c>
       <c r="B4">
-        <v>0.07408233696492061</v>
+        <v>0.031375</v>
       </c>
       <c r="C4">
-        <v>261.9617191693816</v>
+        <v>0.07587502821365888</v>
       </c>
       <c r="D4">
-        <v>0.01032334606917989</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>261.965972588121</v>
+      </c>
+      <c r="E4">
+        <v>0.0103425544180736</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>30505</v>
       </c>
       <c r="B5">
-        <v>0.07421710683570382</v>
+        <v>0.03183333333333333</v>
       </c>
       <c r="C5">
-        <v>262.0358015063465</v>
+        <v>0.07644353032344497</v>
       </c>
       <c r="D5">
-        <v>0.01065790033304775</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>262.0418476163346</v>
+      </c>
+      <c r="E5">
+        <v>0.01068520443763202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>30536</v>
       </c>
       <c r="B6">
-        <v>0.07390035815762985</v>
+        <v>0.03229166666666666</v>
       </c>
       <c r="C6">
-        <v>262.1100186131822</v>
+        <v>0.07687629107840621</v>
       </c>
       <c r="D6">
-        <v>0.01099306321479602</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>262.1182911466581</v>
+      </c>
+      <c r="E6">
+        <v>0.01103042180067127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>30567</v>
       </c>
       <c r="B7">
-        <v>0.07452931790828643</v>
+        <v>0.03274999999999999</v>
       </c>
       <c r="C7">
-        <v>262.1839189713398</v>
+        <v>0.0786876710907336</v>
       </c>
       <c r="D7">
-        <v>0.01132679566622639</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>262.1951674377365</v>
+      </c>
+      <c r="E7">
+        <v>0.01137759350210926</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>30597</v>
       </c>
       <c r="B8">
-        <v>0.07468971272453473</v>
+        <v>0.03320833333333333</v>
       </c>
       <c r="C8">
-        <v>262.2584482892481</v>
+        <v>0.07752973292622301</v>
       </c>
       <c r="D8">
-        <v>0.01166336848656241</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>262.2738551088272</v>
+      </c>
+      <c r="E8">
+        <v>0.01173294535729834</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>30628</v>
       </c>
       <c r="B9">
-        <v>0.07298364976702487</v>
+        <v>0.03366666666666666</v>
       </c>
       <c r="C9">
-        <v>262.3331380019727</v>
+        <v>0.07500930541732487</v>
       </c>
       <c r="D9">
-        <v>0.01200066564648992</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>262.3513848417534</v>
+      </c>
+      <c r="E9">
+        <v>0.01208306798827416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>30658</v>
       </c>
       <c r="B10">
-        <v>0.07423213702031717</v>
+        <v>0.03412499999999999</v>
       </c>
       <c r="C10">
-        <v>262.4061216517397</v>
+        <v>0.0760707614228977</v>
       </c>
       <c r="D10">
-        <v>0.01233025826225403</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>262.4263941471708</v>
+      </c>
+      <c r="E10">
+        <v>0.01242180842202993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>30689</v>
       </c>
       <c r="B11">
-        <v>0.07469563990957795</v>
+        <v>0.03458333333333332</v>
       </c>
       <c r="C11">
-        <v>262.48035378876</v>
+        <v>0.07810538954390722</v>
       </c>
       <c r="D11">
-        <v>0.01266548901999754</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>262.5024649085937</v>
+      </c>
+      <c r="E11">
+        <v>0.01276534236861353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>30720</v>
       </c>
       <c r="B12">
-        <v>0.07694470874776016</v>
+        <v>0.03504166666666665</v>
       </c>
       <c r="C12">
-        <v>262.5550494286696</v>
+        <v>0.07598961311055064</v>
       </c>
       <c r="D12">
-        <v>0.013002812946967</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>262.5805702981376</v>
+      </c>
+      <c r="E12">
+        <v>0.01311806465267608</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>30749</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.03549999999999998</v>
       </c>
       <c r="C13">
-        <v>262.6319941374173</v>
+        <v>0.0497854511247624</v>
       </c>
       <c r="D13">
-        <v>0.01335029362115004</v>
+        <v>262.6565599112481</v>
+      </c>
+      <c r="E13">
+        <v>0.01346123213520086</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>30841</v>
+      </c>
+      <c r="B14">
+        <v>0.03595833333333331</v>
+      </c>
+      <c r="C14">
+        <v>0.5320105142091052</v>
+      </c>
+      <c r="D14">
+        <v>262.162348121081</v>
+      </c>
+      <c r="E14">
+        <v>0.01122938216356143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>30871</v>
+      </c>
+      <c r="B15">
+        <v>0.03641666666666665</v>
+      </c>
+      <c r="C15">
+        <v>0.1710824395654527</v>
+      </c>
+      <c r="D15">
+        <v>262.6943586352901</v>
+      </c>
+      <c r="E15">
+        <v>0.01363193037198824</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>30902</v>
+      </c>
+      <c r="B16">
+        <v>0.03687499999999998</v>
+      </c>
+      <c r="C16">
+        <v>0.09711162298992804</v>
+      </c>
+      <c r="D16">
+        <v>262.8654410748555</v>
+      </c>
+      <c r="E16">
+        <v>0.01440453504368783</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>30933</v>
+      </c>
+      <c r="B17">
+        <v>0.03733333333333331</v>
+      </c>
+      <c r="C17">
+        <v>0.08268783117375733</v>
+      </c>
+      <c r="D17">
+        <v>262.9625526978455</v>
+      </c>
+      <c r="E17">
+        <v>0.01484308907523498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>30963</v>
+      </c>
+      <c r="B18">
+        <v>0.03779166666666664</v>
+      </c>
+      <c r="C18">
+        <v>0.08039929953190494</v>
+      </c>
+      <c r="D18">
+        <v>263.0452405290192</v>
+      </c>
+      <c r="E18">
+        <v>0.01521650556859224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
+        <v>30994</v>
+      </c>
+      <c r="B19">
+        <v>0.03824999999999997</v>
+      </c>
+      <c r="C19">
+        <v>0.07845547395675112</v>
+      </c>
+      <c r="D19">
+        <v>263.1256398285511</v>
+      </c>
+      <c r="E19">
+        <v>0.01557958710155099</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>31024</v>
+      </c>
+      <c r="B20">
+        <v>0.0387083333333333</v>
+      </c>
+      <c r="C20">
+        <v>0.07706258736038762</v>
+      </c>
+      <c r="D20">
+        <v>263.2040953025079</v>
+      </c>
+      <c r="E20">
+        <v>0.01593389035940338</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
+        <v>31055</v>
+      </c>
+      <c r="B21">
+        <v>0.03916666666666663</v>
+      </c>
+      <c r="C21">
+        <v>0.07852569943338494</v>
+      </c>
+      <c r="D21">
+        <v>263.2811578898683</v>
+      </c>
+      <c r="E21">
+        <v>0.01628190337090305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
+        <v>31086</v>
+      </c>
+      <c r="B22">
+        <v>0.03962499999999997</v>
+      </c>
+      <c r="C22">
+        <v>0.08046678196285484</v>
+      </c>
+      <c r="D22">
+        <v>263.3596835893017</v>
+      </c>
+      <c r="E22">
+        <v>0.01663652376551992</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
+        <v>31114</v>
+      </c>
+      <c r="B23">
+        <v>0.0400833333333333</v>
+      </c>
+      <c r="C23">
+        <v>0.07862686056421353</v>
+      </c>
+      <c r="D23">
+        <v>263.4401503712645</v>
+      </c>
+      <c r="E23">
+        <v>0.01699991004770667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
+        <v>31145</v>
+      </c>
+      <c r="B24">
+        <v>0.04054166666666663</v>
+      </c>
+      <c r="C24">
+        <v>0.07927311346793431</v>
+      </c>
+      <c r="D24">
+        <v>263.5187772318287</v>
+      </c>
+      <c r="E24">
+        <v>0.01735498728384661</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
+        <v>31175</v>
+      </c>
+      <c r="B25">
+        <v>0.04099999999999996</v>
+      </c>
+      <c r="C25">
+        <v>0.07814768655055104</v>
+      </c>
+      <c r="D25">
+        <v>263.5980503452967</v>
+      </c>
+      <c r="E25">
+        <v>0.01771298298440515</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
+        <v>31206</v>
+      </c>
+      <c r="B26">
+        <v>0.04145833333333329</v>
+      </c>
+      <c r="C26">
+        <v>0.07929311571479047</v>
+      </c>
+      <c r="D26">
+        <v>263.6761980318472</v>
+      </c>
+      <c r="E26">
+        <v>0.0180658962808535</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2">
+        <v>31236</v>
+      </c>
+      <c r="B27">
+        <v>0.04191666666666662</v>
+      </c>
+      <c r="C27">
+        <v>0.07996896597649084</v>
+      </c>
+      <c r="D27">
+        <v>263.755491147562</v>
+      </c>
+      <c r="E27">
+        <v>0.01842398231113503</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2">
+        <v>31267</v>
+      </c>
+      <c r="B28">
+        <v>0.04237499999999995</v>
+      </c>
+      <c r="C28">
+        <v>0.07959220181658111</v>
+      </c>
+      <c r="D28">
+        <v>263.8354601135385</v>
+      </c>
+      <c r="E28">
+        <v>0.01878512046687658</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2">
+        <v>31298</v>
+      </c>
+      <c r="B29">
+        <v>0.04283333333333329</v>
+      </c>
+      <c r="C29">
+        <v>0.08121864742986418</v>
+      </c>
+      <c r="D29">
+        <v>263.9150523153551</v>
+      </c>
+      <c r="E29">
+        <v>0.0191445571636559</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2">
+        <v>31328</v>
+      </c>
+      <c r="B30">
+        <v>0.04329166666666662</v>
+      </c>
+      <c r="C30">
+        <v>0.08416924116045266</v>
+      </c>
+      <c r="D30">
+        <v>263.9962709627849</v>
+      </c>
+      <c r="E30">
+        <v>0.0195113388543589</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2">
+        <v>31359</v>
+      </c>
+      <c r="B31">
+        <v>0.04374999999999995</v>
+      </c>
+      <c r="C31">
+        <v>0.08274851209830558</v>
+      </c>
+      <c r="D31">
+        <v>264.0804402039454</v>
+      </c>
+      <c r="E31">
+        <v>0.01989144536382391</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2">
+        <v>31389</v>
+      </c>
+      <c r="B32">
+        <v>0.04420833333333328</v>
+      </c>
+      <c r="C32">
+        <v>0.08244254102658033</v>
+      </c>
+      <c r="D32">
+        <v>264.1631887160437</v>
+      </c>
+      <c r="E32">
+        <v>0.02026513589095061</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2">
+        <v>31420</v>
+      </c>
+      <c r="B33">
+        <v>0.04466666666666661</v>
+      </c>
+      <c r="C33">
+        <v>0.08238614409071943</v>
+      </c>
+      <c r="D33">
+        <v>264.2456312570703</v>
+      </c>
+      <c r="E33">
+        <v>0.02063744465920116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2">
+        <v>31451</v>
+      </c>
+      <c r="B34">
+        <v>0.04512499999999994</v>
+      </c>
+      <c r="C34">
+        <v>0.08204121668291009</v>
+      </c>
+      <c r="D34">
+        <v>264.328017401161</v>
+      </c>
+      <c r="E34">
+        <v>0.02100949874008451</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2">
+        <v>31479</v>
+      </c>
+      <c r="B35">
+        <v>0.04558333333333327</v>
+      </c>
+      <c r="C35">
+        <v>0.08145003708568765</v>
+      </c>
+      <c r="D35">
+        <v>264.4100586178439</v>
+      </c>
+      <c r="E35">
+        <v>0.02137999513610354</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2">
+        <v>31510</v>
+      </c>
+      <c r="B36">
+        <v>0.04604166666666661</v>
+      </c>
+      <c r="C36">
+        <v>0.0540348385161451</v>
+      </c>
+      <c r="D36">
+        <v>264.4915086549296</v>
+      </c>
+      <c r="E36">
+        <v>0.02174782177758914</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
+        <v>31571</v>
+      </c>
+      <c r="B37">
+        <v>0.04649999999999994</v>
+      </c>
+      <c r="C37">
+        <v>0.91148249997525</v>
+      </c>
+      <c r="D37">
+        <v>263.4790900049385</v>
+      </c>
+      <c r="E37">
+        <v>0.0171757606082154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>31601</v>
+      </c>
+      <c r="B38">
+        <v>0.04695833333333327</v>
+      </c>
+      <c r="C38">
+        <v>0.281988160954711</v>
+      </c>
+      <c r="D38">
+        <v>264.3905725049137</v>
+      </c>
+      <c r="E38">
+        <v>0.02129199626303771</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>31632</v>
+      </c>
+      <c r="B39">
+        <v>0.0474166666666666</v>
+      </c>
+      <c r="C39">
+        <v>0.129444757350484</v>
+      </c>
+      <c r="D39">
+        <v>264.6725606658684</v>
+      </c>
+      <c r="E39">
+        <v>0.02256544882234755</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>31663</v>
+      </c>
+      <c r="B40">
+        <v>0.04787499999999993</v>
+      </c>
+      <c r="C40">
+        <v>0.09278948265568943</v>
+      </c>
+      <c r="D40">
+        <v>264.8020054232189</v>
+      </c>
+      <c r="E40">
+        <v>0.02315001860350118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2">
+        <v>31693</v>
+      </c>
+      <c r="B41">
+        <v>0.04833333333333326</v>
+      </c>
+      <c r="C41">
+        <v>0.08528420708694284</v>
+      </c>
+      <c r="D41">
+        <v>264.8947949058746</v>
+      </c>
+      <c r="E41">
+        <v>0.02356905394088845</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
+        <v>31724</v>
+      </c>
+      <c r="B42">
+        <v>0.04879166666666659</v>
+      </c>
+      <c r="C42">
+        <v>0.08301208209195465</v>
+      </c>
+      <c r="D42">
+        <v>264.9800791129616</v>
+      </c>
+      <c r="E42">
+        <v>0.02395419561285039</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2">
+        <v>31754</v>
+      </c>
+      <c r="B43">
+        <v>0.04924999999999993</v>
+      </c>
+      <c r="C43">
+        <v>0.08352370698730738</v>
+      </c>
+      <c r="D43">
+        <v>265.0630911950535</v>
+      </c>
+      <c r="E43">
+        <v>0.0243290764164833</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2">
+        <v>31785</v>
+      </c>
+      <c r="B44">
+        <v>0.04970833333333326</v>
+      </c>
+      <c r="C44">
+        <v>0.08404388793417183</v>
+      </c>
+      <c r="D44">
+        <v>265.1466149020408</v>
+      </c>
+      <c r="E44">
+        <v>0.02470626770730178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2">
+        <v>31816</v>
+      </c>
+      <c r="B45">
+        <v>0.05016666666666659</v>
+      </c>
+      <c r="C45">
+        <v>0.08536462415531787</v>
+      </c>
+      <c r="D45">
+        <v>265.230658789975</v>
+      </c>
+      <c r="E45">
+        <v>0.02508580812425307</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2">
+        <v>31844</v>
+      </c>
+      <c r="B46">
+        <v>0.05062499999999992</v>
+      </c>
+      <c r="C46">
+        <v>0.06016232353988471</v>
+      </c>
+      <c r="D46">
+        <v>265.3160234141303</v>
+      </c>
+      <c r="E46">
+        <v>0.02547131295799172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2">
+        <v>31905</v>
+      </c>
+      <c r="B47">
+        <v>0.05108333333333325</v>
+      </c>
+      <c r="C47">
+        <v>1.080019576750146</v>
+      </c>
+      <c r="D47">
+        <v>264.0261042234227</v>
+      </c>
+      <c r="E47">
+        <v>0.01964606522720792</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2">
+        <v>31936</v>
+      </c>
+      <c r="B48">
+        <v>0.05154166666666658</v>
+      </c>
+      <c r="C48">
+        <v>0.3156716324392619</v>
+      </c>
+      <c r="D48">
+        <v>265.1061238001729</v>
+      </c>
+      <c r="E48">
+        <v>0.02452341074930593</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2">
+        <v>31966</v>
+      </c>
+      <c r="B49">
+        <v>0.05199999999999991</v>
+      </c>
+      <c r="C49">
+        <v>0.1260570026404366</v>
+      </c>
+      <c r="D49">
+        <v>265.4217954326122</v>
+      </c>
+      <c r="E49">
+        <v>0.02594897715205938</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2">
+        <v>31997</v>
+      </c>
+      <c r="B50">
+        <v>0.05245833333333325</v>
+      </c>
+      <c r="C50">
+        <v>0.07669956028826164</v>
+      </c>
+      <c r="D50">
+        <v>265.5478524352526</v>
+      </c>
+      <c r="E50">
+        <v>0.02651824790473171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2">
+        <v>32028</v>
+      </c>
+      <c r="B51">
+        <v>0.05291666666666658</v>
+      </c>
+      <c r="C51">
+        <v>0.06416821351274393</v>
+      </c>
+      <c r="D51">
+        <v>265.6245519955409</v>
+      </c>
+      <c r="E51">
+        <v>0.02686462149366661</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2">
+        <v>32058</v>
+      </c>
+      <c r="B52">
+        <v>0.05337499999999991</v>
+      </c>
+      <c r="C52">
+        <v>0.06388777329664208</v>
+      </c>
+      <c r="D52">
+        <v>265.6887202090536</v>
+      </c>
+      <c r="E52">
+        <v>0.02715440378611277</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>32089</v>
+      </c>
+      <c r="B53">
+        <v>0.05383333333333324</v>
+      </c>
+      <c r="C53">
+        <v>0.0626807837686556</v>
+      </c>
+      <c r="D53">
+        <v>265.7526079823502</v>
+      </c>
+      <c r="E53">
+        <v>0.02744291961648579</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>32119</v>
+      </c>
+      <c r="B54">
+        <v>0.05429166666666657</v>
+      </c>
+      <c r="C54">
+        <v>0.0607206303006933</v>
+      </c>
+      <c r="D54">
+        <v>265.8152887661189</v>
+      </c>
+      <c r="E54">
+        <v>0.02772598470772765</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="2">
+        <v>32150</v>
+      </c>
+      <c r="B55">
+        <v>0.0547499999999999</v>
+      </c>
+      <c r="C55">
+        <v>0.06053060012641254</v>
+      </c>
+      <c r="D55">
+        <v>265.8760093964196</v>
+      </c>
+      <c r="E55">
+        <v>0.02800019778744529</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="2">
+        <v>32181</v>
+      </c>
+      <c r="B56">
+        <v>0.05520833333333323</v>
+      </c>
+      <c r="C56">
+        <v>0.0607833220556131</v>
+      </c>
+      <c r="D56">
+        <v>265.936539996546</v>
+      </c>
+      <c r="E56">
+        <v>0.02827355269492284</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="2">
+        <v>32210</v>
+      </c>
+      <c r="B57">
+        <v>0.05566666666666657</v>
+      </c>
+      <c r="C57">
+        <v>-0.7949311580347285</v>
+      </c>
+      <c r="D57">
+        <v>265.9973233186016</v>
+      </c>
+      <c r="E57">
+        <v>0.02854804888927719</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="2">
+        <v>32271</v>
+      </c>
+      <c r="B58">
+        <v>0.0561249999999999</v>
+      </c>
+      <c r="C58">
+        <v>0.9714709399851245</v>
+      </c>
+      <c r="D58">
+        <v>263.7285901987012</v>
+      </c>
+      <c r="E58">
+        <v>0.0183024981961331</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="2">
+        <v>32302</v>
+      </c>
+      <c r="B59">
+        <v>0.05658333333333323</v>
+      </c>
+      <c r="C59">
+        <v>0.2800621243441128</v>
+      </c>
+      <c r="D59">
+        <v>264.7000611386864</v>
+      </c>
+      <c r="E59">
+        <v>0.02268964037483538</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="2">
+        <v>32363</v>
+      </c>
+      <c r="B60">
+        <v>0.05704166666666656</v>
+      </c>
+      <c r="C60">
+        <v>0.9985082383151394</v>
+      </c>
+      <c r="D60">
+        <v>263.8149084194674</v>
+      </c>
+      <c r="E60">
+        <v>0.01869230945195889</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="2">
+        <v>32394</v>
+      </c>
+      <c r="B61">
+        <v>0.05749999999999989</v>
+      </c>
+      <c r="C61">
+        <v>0.2897141910592609</v>
+      </c>
+      <c r="D61">
+        <v>264.8134166577826</v>
+      </c>
+      <c r="E61">
+        <v>0.02320155149697701</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="2">
+        <v>32455</v>
+      </c>
+      <c r="B62">
+        <v>0.05795833333333322</v>
+      </c>
+      <c r="C62">
+        <v>1.028248152728338</v>
+      </c>
+      <c r="D62">
+        <v>263.9000967064911</v>
+      </c>
+      <c r="E62">
+        <v>0.01907701795094797</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="2">
+        <v>32485</v>
+      </c>
+      <c r="B63">
+        <v>0.05841666666666655</v>
+      </c>
+      <c r="C63">
+        <v>0.3033869920013785</v>
+      </c>
+      <c r="D63">
+        <v>264.9283448592195</v>
+      </c>
+      <c r="E63">
+        <v>0.02372056481924262</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="2">
+        <v>32516</v>
+      </c>
+      <c r="B64">
+        <v>0.05887499999999989</v>
+      </c>
+      <c r="C64">
+        <v>0.1213831496720559</v>
+      </c>
+      <c r="D64">
+        <v>265.2317318512208</v>
+      </c>
+      <c r="E64">
+        <v>0.02509065404610022</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="2">
+        <v>32547</v>
+      </c>
+      <c r="B65">
+        <v>0.05933333333333322</v>
+      </c>
+      <c r="C65">
+        <v>0.07618614958369108</v>
+      </c>
+      <c r="D65">
+        <v>265.3531150008929</v>
+      </c>
+      <c r="E65">
+        <v>0.02563881777781032</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="2">
+        <v>32575</v>
+      </c>
+      <c r="B66">
+        <v>0.05979166666666655</v>
+      </c>
+      <c r="C66">
+        <v>0.06550400709988935</v>
+      </c>
+      <c r="D66">
+        <v>265.4293011504766</v>
+      </c>
+      <c r="E66">
+        <v>0.02598287281488278</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="2">
+        <v>32606</v>
+      </c>
+      <c r="B67">
+        <v>0.06024999999999988</v>
+      </c>
+      <c r="C67">
+        <v>0.06325743695015262</v>
+      </c>
+      <c r="D67">
+        <v>265.4948051575765</v>
+      </c>
+      <c r="E67">
+        <v>0.02627868752286196</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="2">
+        <v>32636</v>
+      </c>
+      <c r="B68">
+        <v>0.06070833333333321</v>
+      </c>
+      <c r="C68">
+        <v>0.05819852115246249</v>
+      </c>
+      <c r="D68">
+        <v>265.5580625945266</v>
+      </c>
+      <c r="E68">
+        <v>0.02656435676765159</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="2">
+        <v>32697</v>
+      </c>
+      <c r="B69">
+        <v>0.06116666666666654</v>
+      </c>
+      <c r="C69">
+        <v>1.129019064949603</v>
+      </c>
+      <c r="D69">
+        <v>264.190460345987</v>
+      </c>
+      <c r="E69">
+        <v>0.02038829399386657</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="2">
+        <v>32728</v>
+      </c>
+      <c r="B70">
+        <v>0.06162499999999987</v>
+      </c>
+      <c r="C70">
+        <v>0.3337013418390598</v>
+      </c>
+      <c r="D70">
+        <v>265.3194794109367</v>
+      </c>
+      <c r="E70">
+        <v>0.02548692016633382</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="2">
+        <v>32759</v>
+      </c>
+      <c r="B71">
+        <v>0.06208333333333321</v>
+      </c>
+      <c r="C71">
+        <v>0.1298741274254098</v>
+      </c>
+      <c r="D71">
+        <v>265.6531807527757</v>
+      </c>
+      <c r="E71">
+        <v>0.02699390835467234</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="2">
+        <v>32789</v>
+      </c>
+      <c r="B72">
+        <v>0.06254166666666654</v>
+      </c>
+      <c r="C72">
+        <v>0.07944433463057976</v>
+      </c>
+      <c r="D72">
+        <v>265.7830548802011</v>
+      </c>
+      <c r="E72">
+        <v>0.02758041716198551</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="2">
+        <v>32820</v>
+      </c>
+      <c r="B73">
+        <v>0.06299999999999988</v>
+      </c>
+      <c r="C73">
+        <v>0.066111478543462</v>
+      </c>
+      <c r="D73">
+        <v>265.8624992148317</v>
+      </c>
+      <c r="E73">
+        <v>0.02793918609368627</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="2">
+        <v>32850</v>
+      </c>
+      <c r="B74">
+        <v>0.06345833333333321</v>
+      </c>
+      <c r="C74">
+        <v>0.06329735390841051</v>
+      </c>
+      <c r="D74">
+        <v>265.9286106933752</v>
+      </c>
+      <c r="E74">
+        <v>0.02823774412983174</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="2">
+        <v>32881</v>
+      </c>
+      <c r="B75">
+        <v>0.06391666666666655</v>
+      </c>
+      <c r="C75">
+        <v>0.05929775369372692</v>
+      </c>
+      <c r="D75">
+        <v>265.9919080472836</v>
+      </c>
+      <c r="E75">
+        <v>0.02852359363875908</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="2">
+        <v>32940</v>
+      </c>
+      <c r="B76">
+        <v>0.06437499999999989</v>
+      </c>
+      <c r="C76">
+        <v>1.229312957721163</v>
+      </c>
+      <c r="D76">
+        <v>264.4766543977652</v>
+      </c>
+      <c r="E76">
+        <v>0.02168074026700861</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="2">
+        <v>33001</v>
+      </c>
+      <c r="B77">
+        <v>0.06483333333333323</v>
+      </c>
+      <c r="C77">
+        <v>1.249547720390751</v>
+      </c>
+      <c r="D77">
+        <v>264.5222486963013</v>
+      </c>
+      <c r="E77">
+        <v>0.02188664315301687</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="2">
+        <v>33032</v>
+      </c>
+      <c r="B78">
+        <v>0.06529166666666657</v>
+      </c>
+      <c r="C78">
+        <v>0.3730063015372025</v>
+      </c>
+      <c r="D78">
+        <v>265.771796416692</v>
+      </c>
+      <c r="E78">
+        <v>0.02752957417935474</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="2">
+        <v>33062</v>
+      </c>
+      <c r="B79">
+        <v>0.06574999999999991</v>
+      </c>
+      <c r="C79">
+        <v>0.1434178509005051</v>
+      </c>
+      <c r="D79">
+        <v>266.1448027182292</v>
+      </c>
+      <c r="E79">
+        <v>0.02921406273278552</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="2">
+        <v>33093</v>
+      </c>
+      <c r="B80">
+        <v>0.06620833333333324</v>
+      </c>
+      <c r="C80">
+        <v>0.08415010476983298</v>
+      </c>
+      <c r="D80">
+        <v>266.2882205691297</v>
+      </c>
+      <c r="E80">
+        <v>0.0298617347083096</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="2">
+        <v>33124</v>
+      </c>
+      <c r="B81">
+        <v>0.06666666666666658</v>
+      </c>
+      <c r="C81">
+        <v>0.06883728042282655</v>
+      </c>
+      <c r="D81">
+        <v>266.3723706738996</v>
+      </c>
+      <c r="E81">
+        <v>0.03024175479824005</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="2">
+        <v>33154</v>
+      </c>
+      <c r="B82">
+        <v>0.06712499999999992</v>
+      </c>
+      <c r="C82">
+        <v>0.0645953803178827</v>
+      </c>
+      <c r="D82">
+        <v>266.4412079543224</v>
+      </c>
+      <c r="E82">
+        <v>0.0305526224979108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="2">
+        <v>33185</v>
+      </c>
+      <c r="B83">
+        <v>0.06758333333333326</v>
+      </c>
+      <c r="C83">
+        <v>0.06410930194977027</v>
+      </c>
+      <c r="D83">
+        <v>266.5058033346403</v>
+      </c>
+      <c r="E83">
+        <v>0.03084433386659703</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="2">
+        <v>33215</v>
+      </c>
+      <c r="B84">
+        <v>0.0680416666666666</v>
+      </c>
+      <c r="C84">
+        <v>0.06411089136838655</v>
+      </c>
+      <c r="D84">
+        <v>266.5699126365901</v>
+      </c>
+      <c r="E84">
+        <v>0.03113385011567323</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="2">
+        <v>33246</v>
+      </c>
+      <c r="B85">
+        <v>0.06849999999999994</v>
+      </c>
+      <c r="C85">
+        <v>0.06483197510658556</v>
+      </c>
+      <c r="D85">
+        <v>266.6340235279584</v>
+      </c>
+      <c r="E85">
+        <v>0.03142337354253014</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="2">
+        <v>33277</v>
+      </c>
+      <c r="B86">
+        <v>0.06895833333333327</v>
+      </c>
+      <c r="C86">
+        <v>0.06445784365951113</v>
+      </c>
+      <c r="D86">
+        <v>266.698855503065</v>
+      </c>
+      <c r="E86">
+        <v>0.03171615336826845</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="2">
+        <v>33305</v>
+      </c>
+      <c r="B87">
+        <v>0.06941666666666661</v>
+      </c>
+      <c r="C87">
+        <v>0.06375244257094437</v>
+      </c>
+      <c r="D87">
+        <v>266.7633133467245</v>
+      </c>
+      <c r="E87">
+        <v>0.03200724362431989</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="2">
+        <v>33336</v>
+      </c>
+      <c r="B88">
+        <v>0.06987499999999995</v>
+      </c>
+      <c r="C88">
+        <v>0.06199103701646891</v>
+      </c>
+      <c r="D88">
+        <v>266.8270657892955</v>
+      </c>
+      <c r="E88">
+        <v>0.03229514830400347</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="2">
+        <v>33366</v>
+      </c>
+      <c r="B89">
+        <v>0.07033333333333329</v>
+      </c>
+      <c r="C89">
+        <v>0.0624083359175529</v>
+      </c>
+      <c r="D89">
+        <v>266.889056826312</v>
+      </c>
+      <c r="E89">
+        <v>0.03257509851352856</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="2">
+        <v>33397</v>
+      </c>
+      <c r="B90">
+        <v>0.07079166666666663</v>
+      </c>
+      <c r="C90">
+        <v>0.06311421089094438</v>
+      </c>
+      <c r="D90">
+        <v>266.9514651622295</v>
+      </c>
+      <c r="E90">
+        <v>0.0328569332360481</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="2">
+        <v>33427</v>
+      </c>
+      <c r="B91">
+        <v>0.07124999999999997</v>
+      </c>
+      <c r="C91">
+        <v>0.05965977063806349</v>
+      </c>
+      <c r="D91">
+        <v>267.0145793731205</v>
+      </c>
+      <c r="E91">
+        <v>0.03314195567498949</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="2">
+        <v>33519</v>
+      </c>
+      <c r="B92">
+        <v>0.0717083333333333</v>
+      </c>
+      <c r="C92">
+        <v>1.476431826416615</v>
+      </c>
+      <c r="D92">
+        <v>265.1303511145455</v>
+      </c>
+      <c r="E92">
+        <v>0.02463282078761605</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="2">
+        <v>33550</v>
+      </c>
+      <c r="B93">
+        <v>0.07216666666666664</v>
+      </c>
+      <c r="C93">
+        <v>0.456932931270444</v>
+      </c>
+      <c r="D93">
+        <v>266.6067829409621</v>
+      </c>
+      <c r="E93">
+        <v>0.03130035562890528</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="2">
+        <v>33580</v>
+      </c>
+      <c r="B94">
+        <v>0.07262499999999998</v>
+      </c>
+      <c r="C94">
+        <v>0.1727923523081927</v>
+      </c>
+      <c r="D94">
+        <v>267.0637158722326</v>
+      </c>
+      <c r="E94">
+        <v>0.03336385506373694</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="2">
+        <v>33611</v>
+      </c>
+      <c r="B95">
+        <v>0.07308333333333332</v>
+      </c>
+      <c r="C95">
+        <v>0.09631236367101792</v>
+      </c>
+      <c r="D95">
+        <v>267.2365082245408</v>
+      </c>
+      <c r="E95">
+        <v>0.03414418166514832</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="2">
+        <v>33642</v>
+      </c>
+      <c r="B96">
+        <v>0.07354166666666666</v>
+      </c>
+      <c r="C96">
+        <v>0.07317824335950718</v>
+      </c>
+      <c r="D96">
+        <v>267.3328205882118</v>
+      </c>
+      <c r="E96">
+        <v>0.03457912625854815</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="2">
+        <v>33671</v>
+      </c>
+      <c r="B97">
+        <v>0.074</v>
+      </c>
+      <c r="C97">
+        <v>0.06445712624622502</v>
+      </c>
+      <c r="D97">
+        <v>267.4059988315713</v>
+      </c>
+      <c r="E97">
+        <v>0.03490959765485235</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="2">
+        <v>33732</v>
+      </c>
+      <c r="B98">
+        <v>0.07445833333333333</v>
+      </c>
+      <c r="C98">
+        <v>1.574001883426376</v>
+      </c>
+      <c r="D98">
+        <v>265.3690767605491</v>
+      </c>
+      <c r="E98">
+        <v>0.02571090074617476</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="2">
+        <v>33763</v>
+      </c>
+      <c r="B99">
+        <v>0.07491666666666667</v>
+      </c>
+      <c r="C99">
+        <v>0.4950268054786875</v>
+      </c>
+      <c r="D99">
+        <v>266.9430786439755</v>
+      </c>
+      <c r="E99">
+        <v>0.0328190598973301</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="2">
+        <v>33793</v>
+      </c>
+      <c r="B100">
+        <v>0.07537500000000001</v>
+      </c>
+      <c r="C100">
+        <v>0.1925776989169208</v>
+      </c>
+      <c r="D100">
+        <v>267.4381054494542</v>
+      </c>
+      <c r="E100">
+        <v>0.03505459046084571</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="2">
+        <v>33824</v>
+      </c>
+      <c r="B101">
+        <v>0.07583333333333335</v>
+      </c>
+      <c r="C101">
+        <v>0.1029590768275739</v>
+      </c>
+      <c r="D101">
+        <v>267.6306831483711</v>
+      </c>
+      <c r="E101">
+        <v>0.03592426726827423</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="2">
+        <v>33855</v>
+      </c>
+      <c r="B102">
+        <v>0.07629166666666669</v>
+      </c>
+      <c r="C102">
+        <v>0.07560920482433175</v>
+      </c>
+      <c r="D102">
+        <v>267.7336422251987</v>
+      </c>
+      <c r="E102">
+        <v>0.03638922827743974</v>
       </c>
     </row>
   </sheetData>
@@ -592,18 +2150,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="4" width="13.7109375" customWidth="1"/>
+    <col min="4" max="5" width="13.7109375" customWidth="1"/>
+    <col min="5" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -613,6 +2174,502 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>33885</v>
+      </c>
+      <c r="B2">
+        <v>0.07675000000000003</v>
+      </c>
+      <c r="C2">
+        <v>-1.321870552647852</v>
+      </c>
+      <c r="D2">
+        <v>267.809251430023</v>
+      </c>
+      <c r="E2">
+        <v>0.03673067784420499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>33916</v>
+      </c>
+      <c r="B3">
+        <v>0.07720833333333336</v>
+      </c>
+      <c r="C3">
+        <v>-0.3337857789060763</v>
+      </c>
+      <c r="D3">
+        <v>266.4873808773751</v>
+      </c>
+      <c r="E3">
+        <v>0.03076113843997461</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>33946</v>
+      </c>
+      <c r="B4">
+        <v>0.0776666666666667</v>
+      </c>
+      <c r="C4">
+        <v>-0.05193031826252081</v>
+      </c>
+      <c r="D4">
+        <v>266.1535950984691</v>
+      </c>
+      <c r="E4">
+        <v>0.02925376893563076</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>33977</v>
+      </c>
+      <c r="B5">
+        <v>0.07812500000000004</v>
+      </c>
+      <c r="C5">
+        <v>0.02798452484421432</v>
+      </c>
+      <c r="D5">
+        <v>266.1016647802065</v>
+      </c>
+      <c r="E5">
+        <v>0.02901925271880345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>34008</v>
+      </c>
+      <c r="B6">
+        <v>0.07858333333333338</v>
+      </c>
+      <c r="C6">
+        <v>0.0525885856086461</v>
+      </c>
+      <c r="D6">
+        <v>266.1296493050507</v>
+      </c>
+      <c r="E6">
+        <v>0.02914563023998474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>34036</v>
+      </c>
+      <c r="B7">
+        <v>0.07904166666666672</v>
+      </c>
+      <c r="C7">
+        <v>0.05786109520568061</v>
+      </c>
+      <c r="D7">
+        <v>266.1822378906594</v>
+      </c>
+      <c r="E7">
+        <v>0.02938311917819786</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>34067</v>
+      </c>
+      <c r="B8">
+        <v>0.07950000000000006</v>
+      </c>
+      <c r="C8">
+        <v>0.06203646546782693</v>
+      </c>
+      <c r="D8">
+        <v>266.2400989858651</v>
+      </c>
+      <c r="E8">
+        <v>0.02964441865802242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>34097</v>
+      </c>
+      <c r="B9">
+        <v>0.0799583333333334</v>
+      </c>
+      <c r="C9">
+        <v>0.0625635947731098</v>
+      </c>
+      <c r="D9">
+        <v>266.3021354513329</v>
+      </c>
+      <c r="E9">
+        <v>0.02992457402147114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>34128</v>
+      </c>
+      <c r="B10">
+        <v>0.08041666666666673</v>
+      </c>
+      <c r="C10">
+        <v>0.06381908343450959</v>
+      </c>
+      <c r="D10">
+        <v>266.364699046106</v>
+      </c>
+      <c r="E10">
+        <v>0.03020710988969238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>34158</v>
+      </c>
+      <c r="B11">
+        <v>0.08087500000000007</v>
+      </c>
+      <c r="C11">
+        <v>0.06237283884081535</v>
+      </c>
+      <c r="D11">
+        <v>266.4285181295405</v>
+      </c>
+      <c r="E11">
+        <v>0.03049531551810367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>34189</v>
+      </c>
+      <c r="B12">
+        <v>0.08133333333333341</v>
+      </c>
+      <c r="C12">
+        <v>0.06037323245743664</v>
+      </c>
+      <c r="D12">
+        <v>266.4908909683813</v>
+      </c>
+      <c r="E12">
+        <v>0.03077698993657692</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>34250</v>
+      </c>
+      <c r="B13">
+        <v>0.08179166666666675</v>
+      </c>
+      <c r="C13">
+        <v>1.420046854699649</v>
+      </c>
+      <c r="D13">
+        <v>264.6343813427967</v>
+      </c>
+      <c r="E13">
+        <v>0.02239303180840676</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>34281</v>
+      </c>
+      <c r="B14">
+        <v>0.08225000000000009</v>
+      </c>
+      <c r="C14">
+        <v>0.4621463878258965</v>
+      </c>
+      <c r="D14">
+        <v>266.0544281974963</v>
+      </c>
+      <c r="E14">
+        <v>0.0288059333122664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>34311</v>
+      </c>
+      <c r="B15">
+        <v>0.08270833333333343</v>
+      </c>
+      <c r="C15">
+        <v>0.1823576445233357</v>
+      </c>
+      <c r="D15">
+        <v>266.5165745853222</v>
+      </c>
+      <c r="E15">
+        <v>0.03089297660642508</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>34342</v>
+      </c>
+      <c r="B16">
+        <v>0.08316666666666676</v>
+      </c>
+      <c r="C16">
+        <v>0.097640226465046</v>
+      </c>
+      <c r="D16">
+        <v>266.6989322298456</v>
+      </c>
+      <c r="E16">
+        <v>0.03171649986478355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>34373</v>
+      </c>
+      <c r="B17">
+        <v>0.0836250000000001</v>
+      </c>
+      <c r="C17">
+        <v>0.07349657719623792</v>
+      </c>
+      <c r="D17">
+        <v>266.7965724563106</v>
+      </c>
+      <c r="E17">
+        <v>0.03215744105842271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>34401</v>
+      </c>
+      <c r="B18">
+        <v>0.08408333333333344</v>
+      </c>
+      <c r="C18">
+        <v>0.05773164433139755</v>
+      </c>
+      <c r="D18">
+        <v>266.8700690335069</v>
+      </c>
+      <c r="E18">
+        <v>0.03248935004358773</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
+        <v>34462</v>
+      </c>
+      <c r="B19">
+        <v>0.08454166666666678</v>
+      </c>
+      <c r="C19">
+        <v>1.514922712840757</v>
+      </c>
+      <c r="D19">
+        <v>264.8708796902342</v>
+      </c>
+      <c r="E19">
+        <v>0.02346105333383965</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>34493</v>
+      </c>
+      <c r="B20">
+        <v>0.08500000000000012</v>
+      </c>
+      <c r="C20">
+        <v>0.5023662713640533</v>
+      </c>
+      <c r="D20">
+        <v>266.385802403075</v>
+      </c>
+      <c r="E20">
+        <v>0.03030241220256687</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
+        <v>34523</v>
+      </c>
+      <c r="B21">
+        <v>0.08545833333333346</v>
+      </c>
+      <c r="C21">
+        <v>0.1905333846599433</v>
+      </c>
+      <c r="D21">
+        <v>266.888168674439</v>
+      </c>
+      <c r="E21">
+        <v>0.03257108763849122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
+        <v>34554</v>
+      </c>
+      <c r="B22">
+        <v>0.08591666666666679</v>
+      </c>
+      <c r="C22">
+        <v>0.1059323666178216</v>
+      </c>
+      <c r="D22">
+        <v>267.078702059099</v>
+      </c>
+      <c r="E22">
+        <v>0.03343153236605604</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
+        <v>34585</v>
+      </c>
+      <c r="B23">
+        <v>0.08637500000000013</v>
+      </c>
+      <c r="C23">
+        <v>0.07602074457952313</v>
+      </c>
+      <c r="D23">
+        <v>267.1846344257168</v>
+      </c>
+      <c r="E23">
+        <v>0.0339099206889079</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
+        <v>34615</v>
+      </c>
+      <c r="B24">
+        <v>0.08683333333333347</v>
+      </c>
+      <c r="C24">
+        <v>0.06872656558152812</v>
+      </c>
+      <c r="D24">
+        <v>267.2606551702963</v>
+      </c>
+      <c r="E24">
+        <v>0.03425322876048664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
+        <v>34646</v>
+      </c>
+      <c r="B25">
+        <v>0.08729166666666681</v>
+      </c>
+      <c r="C25">
+        <v>0.06594036907756617</v>
+      </c>
+      <c r="D25">
+        <v>267.3293817358779</v>
+      </c>
+      <c r="E25">
+        <v>0.0345635964742803</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
+        <v>34676</v>
+      </c>
+      <c r="B26">
+        <v>0.08775000000000015</v>
+      </c>
+      <c r="C26">
+        <v>0.06692460829526681</v>
+      </c>
+      <c r="D26">
+        <v>267.3953221049554</v>
+      </c>
+      <c r="E26">
+        <v>0.03486138178370374</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2">
+        <v>34707</v>
+      </c>
+      <c r="B27">
+        <v>0.08820833333333349</v>
+      </c>
+      <c r="C27">
+        <v>0.06504760988150338</v>
+      </c>
+      <c r="D27">
+        <v>267.4622467132507</v>
+      </c>
+      <c r="E27">
+        <v>0.03516361189657741</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2">
+        <v>34738</v>
+      </c>
+      <c r="B28">
+        <v>0.08866666666666682</v>
+      </c>
+      <c r="C28">
+        <v>0.0650615027875574</v>
+      </c>
+      <c r="D28">
+        <v>267.5272943231322</v>
+      </c>
+      <c r="E28">
+        <v>0.03545736552438983</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2">
+        <v>34766</v>
+      </c>
+      <c r="B29">
+        <v>0.08912500000000016</v>
+      </c>
+      <c r="C29">
+        <v>0.06508971954326626</v>
+      </c>
+      <c r="D29">
+        <v>267.5923558259198</v>
+      </c>
+      <c r="E29">
+        <v>0.03575118189227154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2">
+        <v>34797</v>
+      </c>
+      <c r="B30">
+        <v>0.0895833333333335</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>267.657445545463</v>
+      </c>
+      <c r="E30">
+        <v>0.03604512568642405</v>
       </c>
     </row>
   </sheetData>
@@ -622,18 +2679,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="4" width="13.7109375" customWidth="1"/>
+    <col min="4" max="5" width="13.7109375" customWidth="1"/>
+    <col min="5" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -643,6 +2703,9 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -652,18 +2715,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="4" width="13.7109375" customWidth="1"/>
+    <col min="4" max="5" width="13.7109375" customWidth="1"/>
+    <col min="5" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -673,6 +2739,9 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -682,18 +2751,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="4" width="13.7109375" customWidth="1"/>
+    <col min="4" max="5" width="13.7109375" customWidth="1"/>
+    <col min="5" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -703,6 +2775,9 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -712,15 +2787,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -730,6 +2805,9 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/FACModel/Modelled RIHT2.xlsx
+++ b/FACModel/Modelled RIHT2.xlsx
@@ -431,1716 +431,1716 @@
         <v>30414</v>
       </c>
       <c r="B2">
-        <v>0.03045833333333333</v>
+        <v>0.030375</v>
       </c>
       <c r="C2">
-        <v>0.05015783118506079</v>
+        <v>0.04758436596421234</v>
       </c>
       <c r="D2">
-        <v>261.8440597705786</v>
+        <v>261.8437209902542</v>
       </c>
       <c r="E2">
-        <v>0.009791998717485406</v>
+        <v>0.00979046879271926</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>30444</v>
+        <v>30444.41666666667</v>
       </c>
       <c r="B3">
-        <v>0.03091666666666667</v>
+        <v>0.03075</v>
       </c>
       <c r="C3">
-        <v>0.07175498635729127</v>
+        <v>0.06781343148509222</v>
       </c>
       <c r="D3">
-        <v>261.8942176017637</v>
+        <v>261.8913053562184</v>
       </c>
       <c r="E3">
-        <v>0.01001851042023139</v>
+        <v>0.0100053587810617</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>30475</v>
+        <v>30474.83333333333</v>
       </c>
       <c r="B4">
-        <v>0.031375</v>
+        <v>0.031125</v>
       </c>
       <c r="C4">
-        <v>0.07587502821365888</v>
+        <v>0.07226058654373446</v>
       </c>
       <c r="D4">
-        <v>261.965972588121</v>
+        <v>261.9591187877035</v>
       </c>
       <c r="E4">
-        <v>0.0103425544180736</v>
+        <v>0.0103116028006258</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>30505</v>
+        <v>30505.25</v>
       </c>
       <c r="B5">
-        <v>0.03183333333333333</v>
+        <v>0.0315</v>
       </c>
       <c r="C5">
-        <v>0.07644353032344497</v>
+        <v>0.07304537307322789</v>
       </c>
       <c r="D5">
-        <v>262.0418476163346</v>
+        <v>262.0313793742472</v>
       </c>
       <c r="E5">
-        <v>0.01068520443763202</v>
+        <v>0.01063793007819598</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>30536</v>
+        <v>30535.66666666667</v>
       </c>
       <c r="B6">
-        <v>0.03229166666666666</v>
+        <v>0.031875</v>
       </c>
       <c r="C6">
-        <v>0.07687629107840621</v>
+        <v>0.07245088788226894</v>
       </c>
       <c r="D6">
-        <v>262.1182911466581</v>
+        <v>262.1044247473204</v>
       </c>
       <c r="E6">
-        <v>0.01103042180067127</v>
+        <v>0.01096780143510284</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>30567</v>
+        <v>30566.08333333333</v>
       </c>
       <c r="B7">
-        <v>0.03274999999999999</v>
+        <v>0.03225</v>
       </c>
       <c r="C7">
-        <v>0.0786876710907336</v>
+        <v>0.07323362209717743</v>
       </c>
       <c r="D7">
-        <v>262.1951674377365</v>
+        <v>262.1768756352027</v>
       </c>
       <c r="E7">
-        <v>0.01137759350210926</v>
+        <v>0.01129498810948523</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>30597</v>
+        <v>30596.5</v>
       </c>
       <c r="B8">
-        <v>0.03320833333333333</v>
+        <v>0.032625</v>
       </c>
       <c r="C8">
-        <v>0.07752973292622301</v>
+        <v>0.07307704440938778</v>
       </c>
       <c r="D8">
-        <v>262.2738551088272</v>
+        <v>262.2501092572999</v>
       </c>
       <c r="E8">
-        <v>0.01173294535729834</v>
+        <v>0.01162570959499505</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>30628</v>
+        <v>30626.91666666667</v>
       </c>
       <c r="B9">
-        <v>0.03366666666666666</v>
+        <v>0.033</v>
       </c>
       <c r="C9">
-        <v>0.07500930541732487</v>
+        <v>0.07181463969470769</v>
       </c>
       <c r="D9">
-        <v>262.3513848417534</v>
+        <v>262.3231863017093</v>
       </c>
       <c r="E9">
-        <v>0.01208306798827416</v>
+        <v>0.01195572397898507</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>30658</v>
+        <v>30657.33333333333</v>
       </c>
       <c r="B10">
-        <v>0.03412499999999999</v>
+        <v>0.033375</v>
       </c>
       <c r="C10">
-        <v>0.0760707614228977</v>
+        <v>0.07265737143029583</v>
       </c>
       <c r="D10">
-        <v>262.4263941471708</v>
+        <v>262.395000941404</v>
       </c>
       <c r="E10">
-        <v>0.01242180842202993</v>
+        <v>0.01228003737003494</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>30689</v>
+        <v>30687.75</v>
       </c>
       <c r="B11">
-        <v>0.03458333333333332</v>
+        <v>0.03375</v>
       </c>
       <c r="C11">
-        <v>0.07810538954390722</v>
+        <v>0.07419024397836438</v>
       </c>
       <c r="D11">
-        <v>262.5024649085937</v>
+        <v>262.4676583128343</v>
       </c>
       <c r="E11">
-        <v>0.01276534236861353</v>
+        <v>0.01260815651974448</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>30720</v>
+        <v>30718.16666666667</v>
       </c>
       <c r="B12">
-        <v>0.03504166666666665</v>
+        <v>0.034125</v>
       </c>
       <c r="C12">
-        <v>0.07598961311055064</v>
+        <v>0.07330373530544421</v>
       </c>
       <c r="D12">
-        <v>262.5805702981376</v>
+        <v>262.5418485568126</v>
       </c>
       <c r="E12">
-        <v>0.01311806465267608</v>
+        <v>0.0129431980893983</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>30749</v>
+        <v>30748.58333333333</v>
       </c>
       <c r="B13">
-        <v>0.03549999999999998</v>
+        <v>0.0345</v>
       </c>
       <c r="C13">
-        <v>0.0497854511247624</v>
+        <v>0.07030531528232586</v>
       </c>
       <c r="D13">
-        <v>262.6565599112481</v>
+        <v>262.6151522921181</v>
       </c>
       <c r="E13">
-        <v>0.01346123213520086</v>
+        <v>0.01327423620467113</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>30841</v>
+        <v>30839.83333333333</v>
       </c>
       <c r="B14">
-        <v>0.03595833333333331</v>
+        <v>0.034875</v>
       </c>
       <c r="C14">
-        <v>0.5320105142091052</v>
+        <v>0.5314410271482757</v>
       </c>
       <c r="D14">
-        <v>262.162348121081</v>
+        <v>262.169885506295</v>
       </c>
       <c r="E14">
-        <v>0.01122938216356143</v>
+        <v>0.01126342083546484</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>30871</v>
+        <v>30870.25</v>
       </c>
       <c r="B15">
-        <v>0.03641666666666665</v>
+        <v>0.03525</v>
       </c>
       <c r="C15">
-        <v>0.1710824395654527</v>
+        <v>0.1662611293193095</v>
       </c>
       <c r="D15">
-        <v>262.6943586352901</v>
+        <v>262.7013265334433</v>
       </c>
       <c r="E15">
-        <v>0.01363193037198824</v>
+        <v>0.01366339725239266</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>30902</v>
+        <v>30900.66666666667</v>
       </c>
       <c r="B16">
-        <v>0.03687499999999998</v>
+        <v>0.035625</v>
       </c>
       <c r="C16">
-        <v>0.09711162298992804</v>
+        <v>0.09313466017795236</v>
       </c>
       <c r="D16">
-        <v>262.8654410748555</v>
+        <v>262.8675876627626</v>
       </c>
       <c r="E16">
-        <v>0.01440453504368783</v>
+        <v>0.0144142289891882</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>30933</v>
+        <v>30931.08333333333</v>
       </c>
       <c r="B17">
-        <v>0.03733333333333331</v>
+        <v>0.036</v>
       </c>
       <c r="C17">
-        <v>0.08268783117375733</v>
+        <v>0.07821425621500566</v>
       </c>
       <c r="D17">
-        <v>262.9625526978455</v>
+        <v>262.9607223229406</v>
       </c>
       <c r="E17">
-        <v>0.01484308907523498</v>
+        <v>0.01483482314095161</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>30963</v>
+        <v>30961.5</v>
       </c>
       <c r="B18">
-        <v>0.03779166666666664</v>
+        <v>0.036375</v>
       </c>
       <c r="C18">
-        <v>0.08039929953190494</v>
+        <v>0.07516570001030232</v>
       </c>
       <c r="D18">
-        <v>263.0452405290192</v>
+        <v>263.0389365791556</v>
       </c>
       <c r="E18">
-        <v>0.01521650556859224</v>
+        <v>0.01518803706459391</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>30994</v>
+        <v>30991.91666666667</v>
       </c>
       <c r="B19">
-        <v>0.03824999999999997</v>
+        <v>0.03675</v>
       </c>
       <c r="C19">
-        <v>0.07845547395675112</v>
+        <v>0.07374368110288287</v>
       </c>
       <c r="D19">
-        <v>263.1256398285511</v>
+        <v>263.1141022791659</v>
       </c>
       <c r="E19">
-        <v>0.01557958710155099</v>
+        <v>0.01552748377301725</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>31024</v>
+        <v>31022.33333333333</v>
       </c>
       <c r="B20">
-        <v>0.0387083333333333</v>
+        <v>0.03712500000000001</v>
       </c>
       <c r="C20">
-        <v>0.07706258736038762</v>
+        <v>0.07400753883848665</v>
       </c>
       <c r="D20">
-        <v>263.2040953025079</v>
+        <v>263.1878459602688</v>
       </c>
       <c r="E20">
-        <v>0.01593389035940338</v>
+        <v>0.01586050867418848</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>31055</v>
+        <v>31052.75</v>
       </c>
       <c r="B21">
-        <v>0.03916666666666663</v>
+        <v>0.03750000000000001</v>
       </c>
       <c r="C21">
-        <v>0.07852569943338494</v>
+        <v>0.07530938131333187</v>
       </c>
       <c r="D21">
-        <v>263.2811578898683</v>
+        <v>263.2618534991072</v>
       </c>
       <c r="E21">
-        <v>0.01628190337090305</v>
+        <v>0.01619472515130231</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>31086</v>
+        <v>31083.16666666667</v>
       </c>
       <c r="B22">
-        <v>0.03962499999999997</v>
+        <v>0.03787500000000001</v>
       </c>
       <c r="C22">
-        <v>0.08046678196285484</v>
+        <v>0.07400012180619342</v>
       </c>
       <c r="D22">
-        <v>263.3596835893017</v>
+        <v>263.3371628804206</v>
       </c>
       <c r="E22">
-        <v>0.01663652376551992</v>
+        <v>0.0165348207214455</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>31114</v>
+        <v>31113.58333333333</v>
       </c>
       <c r="B23">
-        <v>0.0400833333333333</v>
+        <v>0.03825000000000001</v>
       </c>
       <c r="C23">
-        <v>0.07862686056421353</v>
+        <v>0.07431215058636553</v>
       </c>
       <c r="D23">
-        <v>263.4401503712645</v>
+        <v>263.4111630022268</v>
       </c>
       <c r="E23">
-        <v>0.01699991004770667</v>
+        <v>0.01686900370339847</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>31145</v>
+        <v>31144</v>
       </c>
       <c r="B24">
-        <v>0.04054166666666663</v>
+        <v>0.03862500000000001</v>
       </c>
       <c r="C24">
-        <v>0.07927311346793431</v>
+        <v>0.0758329166249041</v>
       </c>
       <c r="D24">
-        <v>263.5187772318287</v>
+        <v>263.4854751528131</v>
       </c>
       <c r="E24">
-        <v>0.01735498728384661</v>
+        <v>0.01720459580071081</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>31175</v>
+        <v>31174.41666666667</v>
       </c>
       <c r="B25">
-        <v>0.04099999999999996</v>
+        <v>0.03900000000000001</v>
       </c>
       <c r="C25">
-        <v>0.07814768655055104</v>
+        <v>0.07581492180202076</v>
       </c>
       <c r="D25">
-        <v>263.5980503452967</v>
+        <v>263.561308069438</v>
       </c>
       <c r="E25">
-        <v>0.01771298298440515</v>
+        <v>0.01754705564522689</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>31206</v>
+        <v>31204.83333333333</v>
       </c>
       <c r="B26">
-        <v>0.04145833333333329</v>
+        <v>0.03937500000000001</v>
       </c>
       <c r="C26">
-        <v>0.07929311571479047</v>
+        <v>0.07664450655192923</v>
       </c>
       <c r="D26">
-        <v>263.6761980318472</v>
+        <v>263.6371229912401</v>
       </c>
       <c r="E26">
-        <v>0.0180658962808535</v>
+        <v>0.01788943422550406</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>31236</v>
+        <v>31235.25</v>
       </c>
       <c r="B27">
-        <v>0.04191666666666662</v>
+        <v>0.03975000000000001</v>
       </c>
       <c r="C27">
-        <v>0.07996896597649084</v>
+        <v>0.07653373826997267</v>
       </c>
       <c r="D27">
-        <v>263.755491147562</v>
+        <v>263.713767497792</v>
       </c>
       <c r="E27">
-        <v>0.01842398231113503</v>
+        <v>0.01823555919293217</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>31267</v>
+        <v>31265.66666666667</v>
       </c>
       <c r="B28">
-        <v>0.04237499999999995</v>
+        <v>0.04012500000000001</v>
       </c>
       <c r="C28">
-        <v>0.07959220181658111</v>
+        <v>0.07756660131553872</v>
       </c>
       <c r="D28">
-        <v>263.8354601135385</v>
+        <v>263.790301236062</v>
       </c>
       <c r="E28">
-        <v>0.01878512046687658</v>
+        <v>0.01858118393314645</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>31298</v>
+        <v>31296.08333333333</v>
       </c>
       <c r="B29">
-        <v>0.04283333333333329</v>
+        <v>0.04050000000000001</v>
       </c>
       <c r="C29">
-        <v>0.08121864742986418</v>
+        <v>0.07738581269904898</v>
       </c>
       <c r="D29">
-        <v>263.9150523153551</v>
+        <v>263.8678678373775</v>
       </c>
       <c r="E29">
-        <v>0.0191445571636559</v>
+        <v>0.01893147306098718</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>31328</v>
+        <v>31326.5</v>
       </c>
       <c r="B30">
-        <v>0.04329166666666662</v>
+        <v>0.04087500000000001</v>
       </c>
       <c r="C30">
-        <v>0.08416924116045266</v>
+        <v>0.07996712998692601</v>
       </c>
       <c r="D30">
-        <v>263.9962709627849</v>
+        <v>263.9452536500766</v>
       </c>
       <c r="E30">
-        <v>0.0195113388543589</v>
+        <v>0.01928094575126681</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>31359</v>
+        <v>31356.91666666667</v>
       </c>
       <c r="B31">
-        <v>0.04374999999999995</v>
+        <v>0.04125000000000001</v>
       </c>
       <c r="C31">
-        <v>0.08274851209830558</v>
+        <v>0.07662654878697595</v>
       </c>
       <c r="D31">
-        <v>264.0804402039454</v>
+        <v>264.0252207800635</v>
       </c>
       <c r="E31">
-        <v>0.01989144536382391</v>
+        <v>0.01964207561571835</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>31389</v>
+        <v>31387.33333333333</v>
       </c>
       <c r="B32">
-        <v>0.04420833333333328</v>
+        <v>0.04162500000000001</v>
       </c>
       <c r="C32">
-        <v>0.08244254102658033</v>
+        <v>0.07727246314004788</v>
       </c>
       <c r="D32">
-        <v>264.1631887160437</v>
+        <v>264.1018473288505</v>
       </c>
       <c r="E32">
-        <v>0.02026513589095061</v>
+        <v>0.0199881194862605</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>31420</v>
+        <v>31417.75</v>
       </c>
       <c r="B33">
-        <v>0.04466666666666661</v>
+        <v>0.04200000000000001</v>
       </c>
       <c r="C33">
-        <v>0.08238614409071943</v>
+        <v>0.07661235168870917</v>
       </c>
       <c r="D33">
-        <v>264.2456312570703</v>
+        <v>264.1791197919905</v>
       </c>
       <c r="E33">
-        <v>0.02063744465920116</v>
+        <v>0.02033708029233377</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>31451</v>
+        <v>31448.16666666667</v>
       </c>
       <c r="B34">
-        <v>0.04512499999999994</v>
+        <v>0.04237500000000001</v>
       </c>
       <c r="C34">
-        <v>0.08204121668291009</v>
+        <v>0.07704546243792265</v>
       </c>
       <c r="D34">
-        <v>264.328017401161</v>
+        <v>264.2557321436792</v>
       </c>
       <c r="E34">
-        <v>0.02100949874008451</v>
+        <v>0.02068306004908102</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>31479</v>
+        <v>31478.58333333333</v>
       </c>
       <c r="B35">
-        <v>0.04558333333333327</v>
+        <v>0.04275000000000001</v>
       </c>
       <c r="C35">
-        <v>0.08145003708568765</v>
+        <v>0.07833167191449775</v>
       </c>
       <c r="D35">
-        <v>264.4100586178439</v>
+        <v>264.3327776061171</v>
       </c>
       <c r="E35">
-        <v>0.02137999513610354</v>
+        <v>0.02103099572479391</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>31510</v>
+        <v>31509</v>
       </c>
       <c r="B36">
-        <v>0.04604166666666661</v>
+        <v>0.04312500000000001</v>
       </c>
       <c r="C36">
-        <v>0.0540348385161451</v>
+        <v>0.07331847621958332</v>
       </c>
       <c r="D36">
-        <v>264.4915086549296</v>
+        <v>264.4111092780316</v>
       </c>
       <c r="E36">
-        <v>0.02174782177758914</v>
+        <v>0.02138473989524693</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>31571</v>
+        <v>31569.83333333333</v>
       </c>
       <c r="B37">
-        <v>0.04649999999999994</v>
+        <v>0.04350000000000001</v>
       </c>
       <c r="C37">
-        <v>0.91148249997525</v>
+        <v>0.8975378949063497</v>
       </c>
       <c r="D37">
-        <v>263.4790900049385</v>
+        <v>263.4399123324016</v>
       </c>
       <c r="E37">
-        <v>0.0171757606082154</v>
+        <v>0.01699883506924602</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>31601</v>
+        <v>31600.25</v>
       </c>
       <c r="B38">
-        <v>0.04695833333333327</v>
+        <v>0.04387500000000001</v>
       </c>
       <c r="C38">
-        <v>0.281988160954711</v>
+        <v>0.2762811811343227</v>
       </c>
       <c r="D38">
-        <v>264.3905725049137</v>
+        <v>264.337450227308</v>
       </c>
       <c r="E38">
-        <v>0.02129199626303771</v>
+        <v>0.02105209718307488</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>31632</v>
+        <v>31630.66666666667</v>
       </c>
       <c r="B39">
-        <v>0.0474166666666666</v>
+        <v>0.04425000000000001</v>
       </c>
       <c r="C39">
-        <v>0.129444757350484</v>
+        <v>0.1265835878132293</v>
       </c>
       <c r="D39">
-        <v>264.6725606658684</v>
+        <v>264.6137314084423</v>
       </c>
       <c r="E39">
-        <v>0.02256544882234755</v>
+        <v>0.02229977714245146</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>31663</v>
+        <v>31661.08333333333</v>
       </c>
       <c r="B40">
-        <v>0.04787499999999993</v>
+        <v>0.04462500000000001</v>
       </c>
       <c r="C40">
-        <v>0.09278948265568943</v>
+        <v>0.09071938595616302</v>
       </c>
       <c r="D40">
-        <v>264.8020054232189</v>
+        <v>264.7403149962555</v>
       </c>
       <c r="E40">
-        <v>0.02315001860350118</v>
+        <v>0.02287142594260533</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>31693</v>
+        <v>31691.5</v>
       </c>
       <c r="B41">
-        <v>0.04833333333333326</v>
+        <v>0.04500000000000001</v>
       </c>
       <c r="C41">
-        <v>0.08528420708694284</v>
+        <v>0.08152618015424196</v>
       </c>
       <c r="D41">
-        <v>264.8947949058746</v>
+        <v>264.8310343822117</v>
       </c>
       <c r="E41">
-        <v>0.02356905394088845</v>
+        <v>0.02328111276716464</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>31724</v>
+        <v>31721.91666666667</v>
       </c>
       <c r="B42">
-        <v>0.04879166666666659</v>
+        <v>0.04537500000000001</v>
       </c>
       <c r="C42">
-        <v>0.08301208209195465</v>
+        <v>0.07783177502437866</v>
       </c>
       <c r="D42">
-        <v>264.9800791129616</v>
+        <v>264.9125605623659</v>
       </c>
       <c r="E42">
-        <v>0.02395419561285039</v>
+        <v>0.02364928326913423</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>31754</v>
+        <v>31752.33333333333</v>
       </c>
       <c r="B43">
-        <v>0.04924999999999993</v>
+        <v>0.04575000000000001</v>
       </c>
       <c r="C43">
-        <v>0.08352370698730738</v>
+        <v>0.07890318642216698</v>
       </c>
       <c r="D43">
-        <v>265.0630911950535</v>
+        <v>264.9903923373903</v>
       </c>
       <c r="E43">
-        <v>0.0243290764164833</v>
+        <v>0.02400076991582486</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>31785</v>
+        <v>31782.75</v>
       </c>
       <c r="B44">
-        <v>0.04970833333333326</v>
+        <v>0.04612500000000001</v>
       </c>
       <c r="C44">
-        <v>0.08404388793417183</v>
+        <v>0.07921275357625746</v>
       </c>
       <c r="D44">
-        <v>265.1466149020408</v>
+        <v>265.0692955238125</v>
       </c>
       <c r="E44">
-        <v>0.02470626770730178</v>
+        <v>0.02435709503368383</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>31816</v>
+        <v>31813.16666666667</v>
       </c>
       <c r="B45">
-        <v>0.05016666666666659</v>
+        <v>0.04650000000000001</v>
       </c>
       <c r="C45">
-        <v>0.08536462415531787</v>
+        <v>0.07989350726529665</v>
       </c>
       <c r="D45">
-        <v>265.230658789975</v>
+        <v>265.1485082773887</v>
       </c>
       <c r="E45">
-        <v>0.02508580812425307</v>
+        <v>0.02471481815025062</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>31844</v>
+        <v>31843.58333333333</v>
       </c>
       <c r="B46">
-        <v>0.05062499999999992</v>
+        <v>0.04687500000000001</v>
       </c>
       <c r="C46">
-        <v>0.06016232353988471</v>
+        <v>0.05167126783362619</v>
       </c>
       <c r="D46">
-        <v>265.3160234141303</v>
+        <v>265.228401784654</v>
       </c>
       <c r="E46">
-        <v>0.02547131295799172</v>
+        <v>0.02507561553605127</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>31905</v>
+        <v>31904.41666666667</v>
       </c>
       <c r="B47">
-        <v>0.05108333333333325</v>
+        <v>0.04725000000000001</v>
       </c>
       <c r="C47">
-        <v>1.080019576750146</v>
+        <v>1.05435836455581</v>
       </c>
       <c r="D47">
-        <v>264.0261042234227</v>
+        <v>263.9571694291507</v>
       </c>
       <c r="E47">
-        <v>0.01964606522720792</v>
+        <v>0.01933475715706029</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>31936</v>
+        <v>31934.83333333333</v>
       </c>
       <c r="B48">
-        <v>0.05154166666666658</v>
+        <v>0.04762500000000001</v>
       </c>
       <c r="C48">
-        <v>0.3156716324392619</v>
+        <v>0.3037407506801628</v>
       </c>
       <c r="D48">
-        <v>265.1061238001729</v>
+        <v>265.0115277937065</v>
       </c>
       <c r="E48">
-        <v>0.02452341074930593</v>
+        <v>0.024096217188671</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>31966</v>
+        <v>31965.25</v>
       </c>
       <c r="B49">
-        <v>0.05199999999999991</v>
+        <v>0.04800000000000001</v>
       </c>
       <c r="C49">
-        <v>0.1260570026404366</v>
+        <v>0.1183837365827003</v>
       </c>
       <c r="D49">
-        <v>265.4217954326122</v>
+        <v>265.3152685443866</v>
       </c>
       <c r="E49">
-        <v>0.02594897715205938</v>
+        <v>0.02546790398222569</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>31997</v>
+        <v>31995.66666666667</v>
       </c>
       <c r="B50">
-        <v>0.05245833333333325</v>
+        <v>0.04837500000000002</v>
       </c>
       <c r="C50">
-        <v>0.07669956028826164</v>
+        <v>0.07144299549975131</v>
       </c>
       <c r="D50">
-        <v>265.5478524352526</v>
+        <v>265.4336522809693</v>
       </c>
       <c r="E50">
-        <v>0.02651824790473171</v>
+        <v>0.02600252242798405</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>32028</v>
+        <v>32026.08333333333</v>
       </c>
       <c r="B51">
-        <v>0.05291666666666658</v>
+        <v>0.04875000000000002</v>
       </c>
       <c r="C51">
-        <v>0.06416821351274393</v>
+        <v>0.05904983962716415</v>
       </c>
       <c r="D51">
-        <v>265.6245519955409</v>
+        <v>265.5050952764691</v>
       </c>
       <c r="E51">
-        <v>0.02686462149366661</v>
+        <v>0.02632515748172492</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>32058</v>
+        <v>32056.5</v>
       </c>
       <c r="B52">
-        <v>0.05337499999999991</v>
+        <v>0.04912500000000002</v>
       </c>
       <c r="C52">
-        <v>0.06388777329664208</v>
+        <v>0.05570617525791022</v>
       </c>
       <c r="D52">
-        <v>265.6887202090536</v>
+        <v>265.5641451160963</v>
       </c>
       <c r="E52">
-        <v>0.02715440378611277</v>
+        <v>0.02659182530616642</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>32089</v>
+        <v>32086.91666666667</v>
       </c>
       <c r="B53">
-        <v>0.05383333333333324</v>
+        <v>0.04950000000000002</v>
       </c>
       <c r="C53">
-        <v>0.0626807837686556</v>
+        <v>0.05569454159319775</v>
       </c>
       <c r="D53">
-        <v>265.7526079823502</v>
+        <v>265.6198512913542</v>
       </c>
       <c r="E53">
-        <v>0.02744291961648579</v>
+        <v>0.02684339321317139</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>32119</v>
+        <v>32117.33333333333</v>
       </c>
       <c r="B54">
-        <v>0.05429166666666657</v>
+        <v>0.04987500000000002</v>
       </c>
       <c r="C54">
-        <v>0.0607206303006933</v>
+        <v>0.05377025213658726</v>
       </c>
       <c r="D54">
-        <v>265.8152887661189</v>
+        <v>265.6755458329474</v>
       </c>
       <c r="E54">
-        <v>0.02772598470772765</v>
+        <v>0.02709490858279301</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>32150</v>
+        <v>32147.75</v>
       </c>
       <c r="B55">
-        <v>0.0547499999999999</v>
+        <v>0.05025000000000002</v>
       </c>
       <c r="C55">
-        <v>0.06053060012641254</v>
+        <v>0.0536651513398283</v>
       </c>
       <c r="D55">
-        <v>265.8760093964196</v>
+        <v>265.729316085084</v>
       </c>
       <c r="E55">
-        <v>0.02800019778744529</v>
+        <v>0.02733773390200581</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>32181</v>
+        <v>32178.16666666667</v>
       </c>
       <c r="B56">
-        <v>0.05520833333333323</v>
+        <v>0.05062500000000002</v>
       </c>
       <c r="C56">
-        <v>0.0607833220556131</v>
+        <v>0.05372541344513593</v>
       </c>
       <c r="D56">
-        <v>265.936539996546</v>
+        <v>265.7829812364238</v>
       </c>
       <c r="E56">
-        <v>0.02827355269492284</v>
+        <v>0.02758008458824764</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>32210</v>
+        <v>32208.58333333333</v>
       </c>
       <c r="B57">
-        <v>0.05566666666666657</v>
+        <v>0.05100000000000002</v>
       </c>
       <c r="C57">
-        <v>-0.7949311580347285</v>
+        <v>-0.3258022958318634</v>
       </c>
       <c r="D57">
-        <v>265.9973233186016</v>
+        <v>265.8367066498689</v>
       </c>
       <c r="E57">
-        <v>0.02854804888927719</v>
+        <v>0.02782270741688007</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>32271</v>
+        <v>32269.41666666667</v>
       </c>
       <c r="B58">
-        <v>0.0561249999999999</v>
+        <v>0.05137500000000002</v>
       </c>
       <c r="C58">
-        <v>0.9714709399851245</v>
+        <v>1.073671410254065</v>
       </c>
       <c r="D58">
-        <v>263.7285901987012</v>
+        <v>264.0278294741912</v>
       </c>
       <c r="E58">
-        <v>0.0183024981961331</v>
+        <v>0.01965385642311871</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>32302</v>
+        <v>32299.83333333333</v>
       </c>
       <c r="B59">
-        <v>0.05658333333333323</v>
+        <v>0.05175000000000002</v>
       </c>
       <c r="C59">
-        <v>0.2800621243441128</v>
+        <v>0.3019505282175032</v>
       </c>
       <c r="D59">
-        <v>264.7000611386864</v>
+        <v>265.1015008844453</v>
       </c>
       <c r="E59">
-        <v>0.02268964037483538</v>
+        <v>0.02450253375984343</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>32363</v>
+        <v>32360.66666666667</v>
       </c>
       <c r="B60">
-        <v>0.05704166666666656</v>
+        <v>0.05212500000000002</v>
       </c>
       <c r="C60">
-        <v>0.9985082383151394</v>
+        <v>1.098418247895665</v>
       </c>
       <c r="D60">
-        <v>263.8149084194674</v>
+        <v>264.0978991005857</v>
       </c>
       <c r="E60">
-        <v>0.01869230945195889</v>
+        <v>0.01997028937108295</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>32394</v>
+        <v>32391.08333333333</v>
       </c>
       <c r="B61">
-        <v>0.05749999999999989</v>
+        <v>0.05250000000000002</v>
       </c>
       <c r="C61">
-        <v>0.2897141910592609</v>
+        <v>0.3092665440224209</v>
       </c>
       <c r="D61">
-        <v>264.8134166577826</v>
+        <v>265.1963173484813</v>
       </c>
       <c r="E61">
-        <v>0.02320155149697701</v>
+        <v>0.02493072290219119</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>32455</v>
+        <v>32451.91666666667</v>
       </c>
       <c r="B62">
-        <v>0.05795833333333322</v>
+        <v>0.05287500000000002</v>
       </c>
       <c r="C62">
-        <v>1.028248152728338</v>
+        <v>1.12288810633936</v>
       </c>
       <c r="D62">
-        <v>263.9000967064911</v>
+        <v>264.1684372823217</v>
       </c>
       <c r="E62">
-        <v>0.01907701795094797</v>
+        <v>0.02028883830504082</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>32485</v>
+        <v>32482.33333333333</v>
       </c>
       <c r="B63">
-        <v>0.05841666666666655</v>
+        <v>0.05325000000000002</v>
       </c>
       <c r="C63">
-        <v>0.3033869920013785</v>
+        <v>0.3261510677734805</v>
       </c>
       <c r="D63">
-        <v>264.9283448592195</v>
+        <v>265.2913253886611</v>
       </c>
       <c r="E63">
-        <v>0.02372056481924262</v>
+        <v>0.02535977719834432</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>32516</v>
+        <v>32512.75</v>
       </c>
       <c r="B64">
-        <v>0.05887499999999989</v>
+        <v>0.05362500000000002</v>
       </c>
       <c r="C64">
-        <v>0.1213831496720559</v>
+        <v>0.1253393088821895</v>
       </c>
       <c r="D64">
-        <v>265.2317318512208</v>
+        <v>265.6174764564346</v>
       </c>
       <c r="E64">
-        <v>0.02509065404610022</v>
+        <v>0.02683266850899928</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>32547</v>
+        <v>32543.16666666667</v>
       </c>
       <c r="B65">
-        <v>0.05933333333333322</v>
+        <v>0.05400000000000002</v>
       </c>
       <c r="C65">
-        <v>0.07618614958369108</v>
+        <v>0.07406258297737622</v>
       </c>
       <c r="D65">
-        <v>265.3531150008929</v>
+        <v>265.7428157653168</v>
       </c>
       <c r="E65">
-        <v>0.02563881777781032</v>
+        <v>0.02739869817186786</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>32575</v>
+        <v>32573.58333333333</v>
       </c>
       <c r="B66">
-        <v>0.05979166666666655</v>
+        <v>0.05437500000000002</v>
       </c>
       <c r="C66">
-        <v>0.06550400709988935</v>
+        <v>0.06131125660886028</v>
       </c>
       <c r="D66">
-        <v>265.4293011504766</v>
+        <v>265.8168783482942</v>
       </c>
       <c r="E66">
-        <v>0.02598287281488278</v>
+        <v>0.0277331632271465</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>32606</v>
+        <v>32604</v>
       </c>
       <c r="B67">
-        <v>0.06024999999999988</v>
+        <v>0.05475000000000002</v>
       </c>
       <c r="C67">
-        <v>0.06325743695015262</v>
+        <v>0.05949998303549364</v>
       </c>
       <c r="D67">
-        <v>265.4948051575765</v>
+        <v>265.878189604903</v>
       </c>
       <c r="E67">
-        <v>0.02627868752286196</v>
+        <v>0.02801004356275595</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>32636</v>
+        <v>32634.41666666667</v>
       </c>
       <c r="B68">
-        <v>0.06070833333333321</v>
+        <v>0.05512500000000002</v>
       </c>
       <c r="C68">
-        <v>0.05819852115246249</v>
+        <v>0.0490905436633966</v>
       </c>
       <c r="D68">
-        <v>265.5580625945266</v>
+        <v>265.9376895879385</v>
       </c>
       <c r="E68">
-        <v>0.02656435676765159</v>
+        <v>0.02827874422529065</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>32697</v>
+        <v>32695.25</v>
       </c>
       <c r="B69">
-        <v>0.06116666666666654</v>
+        <v>0.05550000000000002</v>
       </c>
       <c r="C69">
-        <v>1.129019064949603</v>
+        <v>1.213538529142852</v>
       </c>
       <c r="D69">
-        <v>264.190460345987</v>
+        <v>264.422791719075</v>
       </c>
       <c r="E69">
-        <v>0.02038829399386657</v>
+        <v>0.02143749755143828</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>32728</v>
+        <v>32725.66666666667</v>
       </c>
       <c r="B70">
-        <v>0.06162499999999987</v>
+        <v>0.05587500000000002</v>
       </c>
       <c r="C70">
-        <v>0.3337013418390598</v>
+        <v>0.3587513553129611</v>
       </c>
       <c r="D70">
-        <v>265.3194794109367</v>
+        <v>265.6363302482179</v>
       </c>
       <c r="E70">
-        <v>0.02548692016633382</v>
+        <v>0.02691781183316519</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>32759</v>
+        <v>32756.08333333333</v>
       </c>
       <c r="B71">
-        <v>0.06208333333333321</v>
+        <v>0.05625000000000002</v>
       </c>
       <c r="C71">
-        <v>0.1298741274254098</v>
+        <v>0.136515315999759</v>
       </c>
       <c r="D71">
-        <v>265.6531807527757</v>
+        <v>265.9950816035308</v>
       </c>
       <c r="E71">
-        <v>0.02699390835467234</v>
+        <v>0.02853792535152138</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>32789</v>
+        <v>32786.5</v>
       </c>
       <c r="B72">
-        <v>0.06254166666666654</v>
+        <v>0.05662500000000002</v>
       </c>
       <c r="C72">
-        <v>0.07944433463057976</v>
+        <v>0.07765946292931858</v>
       </c>
       <c r="D72">
-        <v>265.7830548802011</v>
+        <v>266.1315969195306</v>
       </c>
       <c r="E72">
-        <v>0.02758041716198551</v>
+        <v>0.02915442562570402</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>32820</v>
+        <v>32816.91666666666</v>
       </c>
       <c r="B73">
-        <v>0.06299999999999988</v>
+        <v>0.05700000000000002</v>
       </c>
       <c r="C73">
-        <v>0.066111478543462</v>
+        <v>0.06191882557811823</v>
       </c>
       <c r="D73">
-        <v>265.8624992148317</v>
+        <v>266.2092563824599</v>
       </c>
       <c r="E73">
-        <v>0.02793918609368627</v>
+        <v>0.02950513411462488</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>32850</v>
+        <v>32847.33333333334</v>
       </c>
       <c r="B74">
-        <v>0.06345833333333321</v>
+        <v>0.05737500000000002</v>
       </c>
       <c r="C74">
-        <v>0.06329735390841051</v>
+        <v>0.05717666325313076</v>
       </c>
       <c r="D74">
-        <v>265.9286106933752</v>
+        <v>266.271175208038</v>
       </c>
       <c r="E74">
-        <v>0.02823774412983174</v>
+        <v>0.02978475821882458</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>32881</v>
+        <v>32877.75</v>
       </c>
       <c r="B75">
-        <v>0.06391666666666655</v>
+        <v>0.05775000000000002</v>
       </c>
       <c r="C75">
-        <v>0.05929775369372692</v>
+        <v>0.04894698049020008</v>
       </c>
       <c r="D75">
-        <v>265.9919080472836</v>
+        <v>266.3283518712911</v>
       </c>
       <c r="E75">
-        <v>0.02852359363875908</v>
+        <v>0.03004296681845518</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>32940</v>
+        <v>32938.58333333334</v>
       </c>
       <c r="B76">
-        <v>0.06437499999999989</v>
+        <v>0.05812500000000002</v>
       </c>
       <c r="C76">
-        <v>1.229312957721163</v>
+        <v>1.29594751404511</v>
       </c>
       <c r="D76">
-        <v>264.4766543977652</v>
+        <v>264.6744700945729</v>
       </c>
       <c r="E76">
-        <v>0.02168074026700861</v>
+        <v>0.02257407176191465</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>33001</v>
+        <v>32999.41666666666</v>
       </c>
       <c r="B77">
-        <v>0.06483333333333323</v>
+        <v>0.05850000000000002</v>
       </c>
       <c r="C77">
-        <v>1.249547720390751</v>
+        <v>1.319385708037544</v>
       </c>
       <c r="D77">
-        <v>264.5222486963013</v>
+        <v>264.7094907442457</v>
       </c>
       <c r="E77">
-        <v>0.02188664315301687</v>
+        <v>0.02273222427372057</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>33032</v>
+        <v>33029.83333333334</v>
       </c>
       <c r="B78">
-        <v>0.06529166666666657</v>
+        <v>0.05887500000000002</v>
       </c>
       <c r="C78">
-        <v>0.3730063015372025</v>
+        <v>0.396994486316089</v>
       </c>
       <c r="D78">
-        <v>265.771796416692</v>
+        <v>266.0288764522833</v>
       </c>
       <c r="E78">
-        <v>0.02752957417935474</v>
+        <v>0.02869054217234668</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>33062</v>
+        <v>33060.25</v>
       </c>
       <c r="B79">
-        <v>0.06574999999999991</v>
+        <v>0.05925000000000002</v>
       </c>
       <c r="C79">
-        <v>0.1434178509005051</v>
+        <v>0.148504673336106</v>
       </c>
       <c r="D79">
-        <v>266.1448027182292</v>
+        <v>266.4258709385994</v>
       </c>
       <c r="E79">
-        <v>0.02921406273278552</v>
+        <v>0.03048336085990946</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>33093</v>
+        <v>33090.66666666666</v>
       </c>
       <c r="B80">
-        <v>0.06620833333333324</v>
+        <v>0.05962500000000003</v>
       </c>
       <c r="C80">
-        <v>0.08415010476983298</v>
+        <v>0.08313392534455488</v>
       </c>
       <c r="D80">
-        <v>266.2882205691297</v>
+        <v>266.5743756119355</v>
       </c>
       <c r="E80">
-        <v>0.0298617347083096</v>
+        <v>0.0311540048177589</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>33124</v>
+        <v>33121.08333333334</v>
       </c>
       <c r="B81">
-        <v>0.06666666666666658</v>
+        <v>0.06000000000000003</v>
       </c>
       <c r="C81">
-        <v>0.06883728042282655</v>
+        <v>0.06435457205691364</v>
       </c>
       <c r="D81">
-        <v>266.3723706738996</v>
+        <v>266.65750953728</v>
       </c>
       <c r="E81">
-        <v>0.03024175479824005</v>
+        <v>0.03152943586293852</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>33154</v>
+        <v>33151.5</v>
       </c>
       <c r="B82">
-        <v>0.06712499999999992</v>
+        <v>0.06037500000000003</v>
       </c>
       <c r="C82">
-        <v>0.0645953803178827</v>
+        <v>0.05881205803189005</v>
       </c>
       <c r="D82">
-        <v>266.4412079543224</v>
+        <v>266.7218641093369</v>
       </c>
       <c r="E82">
-        <v>0.0305526224979108</v>
+        <v>0.03182005974662098</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>33185</v>
+        <v>33181.91666666666</v>
       </c>
       <c r="B83">
-        <v>0.06758333333333326</v>
+        <v>0.06075000000000003</v>
       </c>
       <c r="C83">
-        <v>0.06410930194977027</v>
+        <v>0.0565354103395066</v>
       </c>
       <c r="D83">
-        <v>266.5058033346403</v>
+        <v>266.7806761673688</v>
       </c>
       <c r="E83">
-        <v>0.03084433386659703</v>
+        <v>0.03208565375441701</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>33215</v>
+        <v>33212.33333333334</v>
       </c>
       <c r="B84">
-        <v>0.0680416666666666</v>
+        <v>0.06112500000000003</v>
       </c>
       <c r="C84">
-        <v>0.06411089136838655</v>
+        <v>0.05610703139348061</v>
       </c>
       <c r="D84">
-        <v>266.5699126365901</v>
+        <v>266.8372115777083</v>
       </c>
       <c r="E84">
-        <v>0.03113385011567323</v>
+        <v>0.0323409664694782</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>33246</v>
+        <v>33242.75</v>
       </c>
       <c r="B85">
-        <v>0.06849999999999994</v>
+        <v>0.06150000000000003</v>
       </c>
       <c r="C85">
-        <v>0.06483197510658556</v>
+        <v>0.05511731397268704</v>
       </c>
       <c r="D85">
-        <v>266.6340235279584</v>
+        <v>266.8933186091018</v>
       </c>
       <c r="E85">
-        <v>0.03142337354253014</v>
+        <v>0.03259434463429683</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>33277</v>
+        <v>33273.16666666666</v>
       </c>
       <c r="B86">
-        <v>0.06895833333333327</v>
+        <v>0.06187500000000003</v>
       </c>
       <c r="C86">
-        <v>0.06445784365951113</v>
+        <v>0.05650100091452259</v>
       </c>
       <c r="D86">
-        <v>266.698855503065</v>
+        <v>266.9484359230745</v>
       </c>
       <c r="E86">
-        <v>0.03171615336826845</v>
+        <v>0.03284325325621617</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>33305</v>
+        <v>33303.58333333334</v>
       </c>
       <c r="B87">
-        <v>0.06941666666666661</v>
+        <v>0.06225000000000003</v>
       </c>
       <c r="C87">
-        <v>0.06375244257094437</v>
+        <v>0.05676646017877829</v>
       </c>
       <c r="D87">
-        <v>266.7633133467245</v>
+        <v>267.004936923989</v>
       </c>
       <c r="E87">
-        <v>0.03200724362431989</v>
+        <v>0.03309841057904332</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>33336</v>
+        <v>33334</v>
       </c>
       <c r="B88">
-        <v>0.06987499999999995</v>
+        <v>0.06262500000000003</v>
       </c>
       <c r="C88">
-        <v>0.06199103701646891</v>
+        <v>0.05827534052014016</v>
       </c>
       <c r="D88">
-        <v>266.8270657892955</v>
+        <v>267.0617033841678</v>
       </c>
       <c r="E88">
-        <v>0.03229514830400347</v>
+        <v>0.03335476671028272</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>33366</v>
+        <v>33364.41666666666</v>
       </c>
       <c r="B89">
-        <v>0.07033333333333329</v>
+        <v>0.06300000000000003</v>
       </c>
       <c r="C89">
-        <v>0.0624083359175529</v>
+        <v>0.05697156024359629</v>
       </c>
       <c r="D89">
-        <v>266.889056826312</v>
+        <v>267.1199787246879</v>
       </c>
       <c r="E89">
-        <v>0.03257509851352856</v>
+        <v>0.03361793691316908</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>33397</v>
+        <v>33394.83333333334</v>
       </c>
       <c r="B90">
-        <v>0.07079166666666663</v>
+        <v>0.06337500000000003</v>
       </c>
       <c r="C90">
-        <v>0.06311421089094438</v>
+        <v>0.05597215117040832</v>
       </c>
       <c r="D90">
-        <v>266.9514651622295</v>
+        <v>267.1769502849315</v>
       </c>
       <c r="E90">
-        <v>0.0328569332360481</v>
+        <v>0.03387521927195476</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>33427</v>
+        <v>33425.25</v>
       </c>
       <c r="B91">
-        <v>0.07124999999999997</v>
+        <v>0.06375000000000003</v>
       </c>
       <c r="C91">
-        <v>0.05965977063806349</v>
+        <v>0.04870844378478978</v>
       </c>
       <c r="D91">
-        <v>267.0145793731205</v>
+        <v>267.2329224361019</v>
       </c>
       <c r="E91">
-        <v>0.03314195567498949</v>
+        <v>0.03412798832054425</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>33519</v>
+        <v>33516.5</v>
       </c>
       <c r="B92">
-        <v>0.0717083333333333</v>
+        <v>0.06412500000000003</v>
       </c>
       <c r="C92">
-        <v>1.476431826416615</v>
+        <v>1.524982115772332</v>
       </c>
       <c r="D92">
-        <v>265.1303511145455</v>
+        <v>265.2374172359175</v>
       </c>
       <c r="E92">
-        <v>0.02463282078761605</v>
+        <v>0.02511632912291254</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>33550</v>
+        <v>33546.91666666666</v>
       </c>
       <c r="B93">
-        <v>0.07216666666666664</v>
+        <v>0.06450000000000003</v>
       </c>
       <c r="C93">
-        <v>0.456932931270444</v>
+        <v>0.4743536305225007</v>
       </c>
       <c r="D93">
-        <v>266.6067829409621</v>
+        <v>266.7623993516899</v>
       </c>
       <c r="E93">
-        <v>0.03130035562890528</v>
+        <v>0.03200311604211149</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>33580</v>
+        <v>33577.33333333334</v>
       </c>
       <c r="B94">
-        <v>0.07262499999999998</v>
+        <v>0.06487500000000003</v>
       </c>
       <c r="C94">
-        <v>0.1727923523081927</v>
+        <v>0.1789972944447982</v>
       </c>
       <c r="D94">
-        <v>267.0637158722326</v>
+        <v>267.2367529822124</v>
       </c>
       <c r="E94">
-        <v>0.03336385506373694</v>
+        <v>0.03414528698560656</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>33611</v>
+        <v>33607.75</v>
       </c>
       <c r="B95">
-        <v>0.07308333333333332</v>
+        <v>0.06525000000000003</v>
       </c>
       <c r="C95">
-        <v>0.09631236367101792</v>
+        <v>0.08593647928910286</v>
       </c>
       <c r="D95">
-        <v>267.2365082245408</v>
+        <v>267.4157502766571</v>
       </c>
       <c r="E95">
-        <v>0.03414418166514832</v>
+        <v>0.03495363497421889</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>33642</v>
+        <v>33638.16666666666</v>
       </c>
       <c r="B96">
-        <v>0.07354166666666666</v>
+        <v>0.06562500000000003</v>
       </c>
       <c r="C96">
-        <v>0.07317824335950718</v>
+        <v>0.0661964537816857</v>
       </c>
       <c r="D96">
-        <v>267.3328205882118</v>
+        <v>267.5016867559463</v>
       </c>
       <c r="E96">
-        <v>0.03457912625854815</v>
+        <v>0.03534172229362362</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>33671</v>
+        <v>33668.58333333334</v>
       </c>
       <c r="B97">
-        <v>0.074</v>
+        <v>0.06600000000000003</v>
       </c>
       <c r="C97">
-        <v>0.06445712624622502</v>
+        <v>0.05279433186092319</v>
       </c>
       <c r="D97">
-        <v>267.4059988315713</v>
+        <v>267.5678832097279</v>
       </c>
       <c r="E97">
-        <v>0.03490959765485235</v>
+        <v>0.03564066407614432</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>33732</v>
+        <v>33729.41666666666</v>
       </c>
       <c r="B98">
-        <v>0.07445833333333333</v>
+        <v>0.06637500000000003</v>
       </c>
       <c r="C98">
-        <v>1.574001883426376</v>
+        <v>1.611065964479621</v>
       </c>
       <c r="D98">
-        <v>265.3690767605491</v>
+        <v>265.4501507443838</v>
       </c>
       <c r="E98">
-        <v>0.02571090074617476</v>
+        <v>0.02607702913914765</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>33763</v>
+        <v>33759.83333333334</v>
       </c>
       <c r="B99">
-        <v>0.07491666666666667</v>
+        <v>0.06675000000000003</v>
       </c>
       <c r="C99">
-        <v>0.4950268054786875</v>
+        <v>0.5087105507124079</v>
       </c>
       <c r="D99">
-        <v>266.9430786439755</v>
+        <v>267.0612167088634</v>
       </c>
       <c r="E99">
-        <v>0.0328190598973301</v>
+        <v>0.03335256889492105</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>33793</v>
+        <v>33790.25</v>
       </c>
       <c r="B100">
-        <v>0.07537500000000001</v>
+        <v>0.06712500000000003</v>
       </c>
       <c r="C100">
-        <v>0.1925776989169208</v>
+        <v>0.1825163532771512</v>
       </c>
       <c r="D100">
-        <v>267.4381054494542</v>
+        <v>267.5699272595758</v>
       </c>
       <c r="E100">
-        <v>0.03505459046084571</v>
+        <v>0.0356498949619421</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>33824</v>
+        <v>33820.66666666666</v>
       </c>
       <c r="B101">
-        <v>0.07583333333333335</v>
+        <v>0.06750000000000003</v>
       </c>
       <c r="C101">
-        <v>0.1029590768275739</v>
+        <v>0.09466089648390152</v>
       </c>
       <c r="D101">
-        <v>267.6306831483711</v>
+        <v>267.752443612853</v>
       </c>
       <c r="E101">
-        <v>0.03592426726827423</v>
+        <v>0.03647413494566965</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>33855</v>
+        <v>33851.08333333334</v>
       </c>
       <c r="B102">
-        <v>0.07629166666666669</v>
+        <v>0.06787500000000003</v>
       </c>
       <c r="C102">
-        <v>0.07560920482433175</v>
+        <v>0.07063909676037383</v>
       </c>
       <c r="D102">
-        <v>267.7336422251987</v>
+        <v>267.8471045093369</v>
       </c>
       <c r="E102">
-        <v>0.03638922827743974</v>
+        <v>0.03690162154824865</v>
       </c>
     </row>
   </sheetData>
@@ -2150,7 +2150,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2181,495 +2181,614 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>33885</v>
+        <v>33911.91666666666</v>
       </c>
       <c r="B2">
-        <v>0.07675000000000003</v>
+        <v>0.06862500000000003</v>
       </c>
       <c r="C2">
-        <v>-1.321870552647852</v>
+        <v>-0.3519853857835642</v>
       </c>
       <c r="D2">
-        <v>267.809251430023</v>
+        <v>266.5943176828133</v>
       </c>
       <c r="E2">
-        <v>0.03673067784420499</v>
+        <v>0.03124406278725433</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>33916</v>
+        <v>33942.33333333334</v>
       </c>
       <c r="B3">
-        <v>0.07720833333333336</v>
+        <v>0.06900000000000003</v>
       </c>
       <c r="C3">
-        <v>-0.3337857789060763</v>
+        <v>-0.06001121969347878</v>
       </c>
       <c r="D3">
-        <v>266.4873808773751</v>
+        <v>266.2423322970297</v>
       </c>
       <c r="E3">
-        <v>0.03076113843997461</v>
+        <v>0.02965450424391631</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>33946</v>
+        <v>33972.75</v>
       </c>
       <c r="B4">
-        <v>0.0776666666666667</v>
+        <v>0.06937500000000003</v>
       </c>
       <c r="C4">
-        <v>-0.05193031826252081</v>
+        <v>0.02446254093672451</v>
       </c>
       <c r="D4">
-        <v>266.1535950984691</v>
+        <v>266.1823210773363</v>
       </c>
       <c r="E4">
-        <v>0.02925376893563076</v>
+        <v>0.0293834948474678</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>33977</v>
+        <v>34003.16666666666</v>
       </c>
       <c r="B5">
-        <v>0.07812500000000004</v>
+        <v>0.06975000000000003</v>
       </c>
       <c r="C5">
-        <v>0.02798452484421432</v>
+        <v>0.04798312370087388</v>
       </c>
       <c r="D5">
-        <v>266.1016647802065</v>
+        <v>266.206783618273</v>
       </c>
       <c r="E5">
-        <v>0.02901925271880345</v>
+        <v>0.02949396716395665</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>34008</v>
+        <v>34033.58333333334</v>
       </c>
       <c r="B6">
-        <v>0.07858333333333338</v>
+        <v>0.07012500000000003</v>
       </c>
       <c r="C6">
-        <v>0.0525885856086461</v>
+        <v>0.05375077600922396</v>
       </c>
       <c r="D6">
-        <v>266.1296493050507</v>
+        <v>266.2547667419739</v>
       </c>
       <c r="E6">
-        <v>0.02914563023998474</v>
+        <v>0.02971065793378791</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>34036</v>
+        <v>34064</v>
       </c>
       <c r="B7">
-        <v>0.07904166666666672</v>
+        <v>0.07050000000000003</v>
       </c>
       <c r="C7">
-        <v>0.05786109520568061</v>
+        <v>0.05545922149292437</v>
       </c>
       <c r="D7">
-        <v>266.1822378906594</v>
+        <v>266.3085175179831</v>
       </c>
       <c r="E7">
-        <v>0.02938311917819786</v>
+        <v>0.02995339529922232</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>34067</v>
+        <v>34094.41666666666</v>
       </c>
       <c r="B8">
-        <v>0.07950000000000006</v>
+        <v>0.07087500000000004</v>
       </c>
       <c r="C8">
-        <v>0.06203646546782693</v>
+        <v>0.05677885489558321</v>
       </c>
       <c r="D8">
-        <v>266.2400989858651</v>
+        <v>266.363976739476</v>
       </c>
       <c r="E8">
-        <v>0.02964441865802242</v>
+        <v>0.03020384796825756</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>34097</v>
+        <v>34124.83333333334</v>
       </c>
       <c r="B9">
-        <v>0.0799583333333334</v>
+        <v>0.07125000000000004</v>
       </c>
       <c r="C9">
-        <v>0.0625635947731098</v>
+        <v>0.0580678103358423</v>
       </c>
       <c r="D9">
-        <v>266.3021354513329</v>
+        <v>266.4207555943716</v>
       </c>
       <c r="E9">
-        <v>0.02992457402147114</v>
+        <v>0.03046026007377527</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>34128</v>
+        <v>34155.25</v>
       </c>
       <c r="B10">
-        <v>0.08041666666666673</v>
+        <v>0.07162500000000004</v>
       </c>
       <c r="C10">
-        <v>0.06381908343450959</v>
+        <v>0.0580331255961255</v>
       </c>
       <c r="D10">
-        <v>266.364699046106</v>
+        <v>266.4788234047074</v>
       </c>
       <c r="E10">
-        <v>0.03020710988969238</v>
+        <v>0.03072249307474716</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>34158</v>
+        <v>34185.66666666666</v>
       </c>
       <c r="B11">
-        <v>0.08087500000000007</v>
+        <v>0.07200000000000004</v>
       </c>
       <c r="C11">
-        <v>0.06237283884081535</v>
+        <v>0.05126530838526833</v>
       </c>
       <c r="D11">
-        <v>266.4285181295405</v>
+        <v>266.5368565303036</v>
       </c>
       <c r="E11">
-        <v>0.03049531551810367</v>
+        <v>0.03098456944016951</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>34189</v>
+        <v>34246.5</v>
       </c>
       <c r="B12">
-        <v>0.08133333333333341</v>
+        <v>0.07237500000000004</v>
       </c>
       <c r="C12">
-        <v>0.06037323245743664</v>
+        <v>1.4327602802191</v>
       </c>
       <c r="D12">
-        <v>266.4908909683813</v>
+        <v>264.6498363187023</v>
       </c>
       <c r="E12">
-        <v>0.03077698993657692</v>
+        <v>0.02246282615209299</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>34250</v>
+        <v>34276.91666666666</v>
       </c>
       <c r="B13">
-        <v>0.08179166666666675</v>
+        <v>0.07275000000000004</v>
       </c>
       <c r="C13">
-        <v>1.420046854699649</v>
+        <v>0.459227163816422</v>
       </c>
       <c r="D13">
-        <v>264.6343813427967</v>
+        <v>266.0825965989214</v>
       </c>
       <c r="E13">
-        <v>0.02239303180840676</v>
+        <v>0.02893314121619038</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>34281</v>
+        <v>34307.33333333334</v>
       </c>
       <c r="B14">
-        <v>0.08225000000000009</v>
+        <v>0.07312500000000004</v>
       </c>
       <c r="C14">
-        <v>0.4621463878258965</v>
+        <v>0.1777252904853412</v>
       </c>
       <c r="D14">
-        <v>266.0544281974963</v>
+        <v>266.5418237627379</v>
       </c>
       <c r="E14">
-        <v>0.0288059333122664</v>
+        <v>0.03100700135658308</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>34311</v>
+        <v>34337.75</v>
       </c>
       <c r="B15">
-        <v>0.08270833333333343</v>
+        <v>0.07350000000000004</v>
       </c>
       <c r="C15">
-        <v>0.1823576445233357</v>
+        <v>0.09727792999956364</v>
       </c>
       <c r="D15">
-        <v>266.5165745853222</v>
+        <v>266.7195490532232</v>
       </c>
       <c r="E15">
-        <v>0.03089297660642508</v>
+        <v>0.03180960500226925</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>34342</v>
+        <v>34368.16666666666</v>
       </c>
       <c r="B16">
-        <v>0.08316666666666676</v>
+        <v>0.07387500000000004</v>
       </c>
       <c r="C16">
-        <v>0.097640226465046</v>
+        <v>0.06889658017303191</v>
       </c>
       <c r="D16">
-        <v>266.6989322298456</v>
+        <v>266.8168269832228</v>
       </c>
       <c r="E16">
-        <v>0.03171649986478355</v>
+        <v>0.03224891007274776</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>34373</v>
+        <v>34398.58333333334</v>
       </c>
       <c r="B17">
-        <v>0.0836250000000001</v>
+        <v>0.07425000000000004</v>
       </c>
       <c r="C17">
-        <v>0.07349657719623792</v>
+        <v>0.05448559337821735</v>
       </c>
       <c r="D17">
-        <v>266.7965724563106</v>
+        <v>266.8857235633958</v>
       </c>
       <c r="E17">
-        <v>0.03215744105842271</v>
+        <v>0.03256004556883393</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>34401</v>
+        <v>34459.41666666666</v>
       </c>
       <c r="B18">
-        <v>0.08408333333333344</v>
+        <v>0.07462500000000004</v>
       </c>
       <c r="C18">
-        <v>0.05773164433139755</v>
+        <v>1.51012814240562</v>
       </c>
       <c r="D18">
-        <v>266.8700690335069</v>
+        <v>264.8647193946255</v>
       </c>
       <c r="E18">
-        <v>0.03248935004358773</v>
+        <v>0.02343323356941231</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>34462</v>
+        <v>34489.83333333334</v>
       </c>
       <c r="B19">
-        <v>0.08454166666666678</v>
+        <v>0.07500000000000004</v>
       </c>
       <c r="C19">
-        <v>1.514922712840757</v>
+        <v>0.4954357650026395</v>
       </c>
       <c r="D19">
-        <v>264.8708796902342</v>
+        <v>266.3748475370311</v>
       </c>
       <c r="E19">
-        <v>0.02346105333383965</v>
+        <v>0.03025294025965507</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>34493</v>
+        <v>34520.25</v>
       </c>
       <c r="B20">
-        <v>0.08500000000000012</v>
+        <v>0.07537500000000004</v>
       </c>
       <c r="C20">
-        <v>0.5023662713640533</v>
+        <v>0.1933605418848856</v>
       </c>
       <c r="D20">
-        <v>266.385802403075</v>
+        <v>266.8702833020337</v>
       </c>
       <c r="E20">
-        <v>0.03030241220256687</v>
+        <v>0.03249031767571452</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>34523</v>
+        <v>34550.66666666666</v>
       </c>
       <c r="B21">
-        <v>0.08545833333333346</v>
+        <v>0.07575000000000004</v>
       </c>
       <c r="C21">
-        <v>0.1905333846599433</v>
+        <v>0.101882365768688</v>
       </c>
       <c r="D21">
-        <v>266.888168674439</v>
+        <v>267.0636438439186</v>
       </c>
       <c r="E21">
-        <v>0.03257108763849122</v>
+        <v>0.03336352978539744</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>34554</v>
+        <v>34581.08333333334</v>
       </c>
       <c r="B22">
-        <v>0.08591666666666679</v>
+        <v>0.07612500000000004</v>
       </c>
       <c r="C22">
-        <v>0.1059323666178216</v>
+        <v>0.07165648415548276</v>
       </c>
       <c r="D22">
-        <v>267.078702059099</v>
+        <v>267.1655262096873</v>
       </c>
       <c r="E22">
-        <v>0.03343153236605604</v>
+        <v>0.03382362839023733</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>34585</v>
+        <v>34611.5</v>
       </c>
       <c r="B23">
-        <v>0.08637500000000013</v>
+        <v>0.07650000000000004</v>
       </c>
       <c r="C23">
-        <v>0.07602074457952313</v>
+        <v>0.06170404484350911</v>
       </c>
       <c r="D23">
-        <v>267.1846344257168</v>
+        <v>267.2371826938428</v>
       </c>
       <c r="E23">
-        <v>0.0339099206889079</v>
+        <v>0.03414722755422357</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>34615</v>
+        <v>34641.91666666666</v>
       </c>
       <c r="B24">
-        <v>0.08683333333333347</v>
+        <v>0.07687500000000004</v>
       </c>
       <c r="C24">
-        <v>0.06872656558152812</v>
+        <v>0.05746045110686282</v>
       </c>
       <c r="D24">
-        <v>267.2606551702963</v>
+        <v>267.2988867386863</v>
       </c>
       <c r="E24">
-        <v>0.03425322876048664</v>
+        <v>0.0344258817131773</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>34646</v>
+        <v>34672.33333333334</v>
       </c>
       <c r="B25">
-        <v>0.08729166666666681</v>
+        <v>0.07725000000000004</v>
       </c>
       <c r="C25">
-        <v>0.06594036907756617</v>
+        <v>0.05720748166913836</v>
       </c>
       <c r="D25">
-        <v>267.3293817358779</v>
+        <v>267.3563471897932</v>
       </c>
       <c r="E25">
-        <v>0.0345635964742803</v>
+        <v>0.03468537189274141</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>34676</v>
+        <v>34702.75</v>
       </c>
       <c r="B26">
-        <v>0.08775000000000015</v>
+        <v>0.07762500000000004</v>
       </c>
       <c r="C26">
-        <v>0.06692460829526681</v>
+        <v>0.05818537288723746</v>
       </c>
       <c r="D26">
-        <v>267.3953221049554</v>
+        <v>267.4135546714623</v>
       </c>
       <c r="E26">
-        <v>0.03486138178370374</v>
+        <v>0.03494371966768552</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>34707</v>
+        <v>34733.16666666666</v>
       </c>
       <c r="B27">
-        <v>0.08820833333333349</v>
+        <v>0.07800000000000004</v>
       </c>
       <c r="C27">
-        <v>0.06504760988150338</v>
+        <v>0.05886904613839761</v>
       </c>
       <c r="D27">
-        <v>267.4622467132507</v>
+        <v>267.4717400443495</v>
       </c>
       <c r="E27">
-        <v>0.03516361189657741</v>
+        <v>0.0352064835786483</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>34738</v>
+        <v>34763.58333333334</v>
       </c>
       <c r="B28">
-        <v>0.08866666666666682</v>
+        <v>0.07837500000000004</v>
       </c>
       <c r="C28">
-        <v>0.0650615027875574</v>
+        <v>0.06012537664742013</v>
       </c>
       <c r="D28">
-        <v>267.5272943231322</v>
+        <v>267.5306090904879</v>
       </c>
       <c r="E28">
-        <v>0.03545736552438983</v>
+        <v>0.0354723349435257</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>34766</v>
+        <v>34794</v>
       </c>
       <c r="B29">
-        <v>0.08912500000000016</v>
+        <v>0.07875000000000004</v>
       </c>
       <c r="C29">
-        <v>0.06508971954326626</v>
+        <v>-0.9833062563091062</v>
       </c>
       <c r="D29">
-        <v>267.5923558259198</v>
+        <v>267.5907344671353</v>
       </c>
       <c r="E29">
-        <v>0.03575118189227154</v>
+        <v>0.03574385987035922</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>34797</v>
+        <v>34824.41666666666</v>
       </c>
       <c r="B30">
-        <v>0.0895833333333335</v>
+        <v>0</v>
       </c>
       <c r="C30">
+        <v>-3.145413614594418</v>
+      </c>
+      <c r="D30">
+        <v>266.6074282108262</v>
+      </c>
+      <c r="E30">
+        <v>0.03130326965393775</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2">
+        <v>34854.83333333334</v>
+      </c>
+      <c r="B31">
         <v>0</v>
       </c>
-      <c r="D30">
-        <v>267.657445545463</v>
-      </c>
-      <c r="E30">
-        <v>0.03604512568642405</v>
+      <c r="C31">
+        <v>-0.765263432317056</v>
+      </c>
+      <c r="D31">
+        <v>263.4620145962318</v>
+      </c>
+      <c r="E31">
+        <v>0.01709864842433816</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2">
+        <v>34885.25</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>-0.1810545362226321</v>
+      </c>
+      <c r="D32">
+        <v>262.6967511639148</v>
+      </c>
+      <c r="E32">
+        <v>0.0136427349805576</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2">
+        <v>34915.66666666666</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>-0.04382037918185233</v>
+      </c>
+      <c r="D33">
+        <v>262.5156966276921</v>
+      </c>
+      <c r="E33">
+        <v>0.01282509653167121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2">
+        <v>34946.08333333334</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>-0.01029744913398645</v>
+      </c>
+      <c r="D34">
+        <v>262.4718762485103</v>
+      </c>
+      <c r="E34">
+        <v>0.01262720462787591</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2">
+        <v>34976.5</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>-0.002418845670035807</v>
+      </c>
+      <c r="D35">
+        <v>262.4615787993763</v>
+      </c>
+      <c r="E35">
+        <v>0.01258070156579822</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2">
+        <v>35006.91666666666</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>-0.0005681271595676662</v>
+      </c>
+      <c r="D36">
+        <v>262.4591599537063</v>
+      </c>
+      <c r="E36">
+        <v>0.01256977811000981</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
+        <v>35037.33333333334</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>-0.2423775537899928</v>
+      </c>
+      <c r="D37">
+        <v>262.4585918265467</v>
+      </c>
+      <c r="E37">
+        <v>0.01256721245979624</v>
       </c>
     </row>
   </sheetData>
@@ -2679,7 +2798,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2708,6 +2827,312 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>35098.16666666666</v>
+      </c>
+      <c r="B2">
+        <v>0.03004166666666666</v>
+      </c>
+      <c r="C2">
+        <v>1.255940521069761</v>
+      </c>
+      <c r="D2">
+        <v>263.7003188540895</v>
+      </c>
+      <c r="E2">
+        <v>0.01741321572615493</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>35128.58333333334</v>
+      </c>
+      <c r="B3">
+        <v>0.03008333333333333</v>
+      </c>
+      <c r="C3">
+        <v>0.3591437145022383</v>
+      </c>
+      <c r="D3">
+        <v>264.9562593751592</v>
+      </c>
+      <c r="E3">
+        <v>0.02305734432069878</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>35159</v>
+      </c>
+      <c r="B4">
+        <v>0.030125</v>
+      </c>
+      <c r="C4">
+        <v>0.1208166117150995</v>
+      </c>
+      <c r="D4">
+        <v>265.3154030896615</v>
+      </c>
+      <c r="E4">
+        <v>0.02465801131399439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>35189.41666666666</v>
+      </c>
+      <c r="B5">
+        <v>0.03016666666666666</v>
+      </c>
+      <c r="C5">
+        <v>0.07152286182179068</v>
+      </c>
+      <c r="D5">
+        <v>265.4362197013766</v>
+      </c>
+      <c r="E5">
+        <v>0.02540103015136833</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>35219.83333333334</v>
+      </c>
+      <c r="B6">
+        <v>0.03020833333333333</v>
+      </c>
+      <c r="C6">
+        <v>0.0552045208518166</v>
+      </c>
+      <c r="D6">
+        <v>265.5077425631983</v>
+      </c>
+      <c r="E6">
+        <v>0.0258567955966334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>35250.25</v>
+      </c>
+      <c r="B7">
+        <v>0.03024999999999999</v>
+      </c>
+      <c r="C7">
+        <v>0.06103690015595475</v>
+      </c>
+      <c r="D7">
+        <v>265.5629470840502</v>
+      </c>
+      <c r="E7">
+        <v>0.02639379685562324</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>35280.66666666666</v>
+      </c>
+      <c r="B8">
+        <v>0.03029166666666666</v>
+      </c>
+      <c r="C8">
+        <v>0.03285404319944973</v>
+      </c>
+      <c r="D8">
+        <v>265.6239839842061</v>
+      </c>
+      <c r="E8">
+        <v>0.02666943820330527</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>35402.33333333334</v>
+      </c>
+      <c r="B9">
+        <v>0.03037499999999999</v>
+      </c>
+      <c r="C9">
+        <v>1.066764461531534</v>
+      </c>
+      <c r="D9">
+        <v>264.2075302762878</v>
+      </c>
+      <c r="E9">
+        <v>0.01915758983574864</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>35554.41666666666</v>
+      </c>
+      <c r="B10">
+        <v>0.03508333333333334</v>
+      </c>
+      <c r="C10">
+        <v>1.173806863841946</v>
+      </c>
+      <c r="D10">
+        <v>264.3994826637073</v>
+      </c>
+      <c r="E10">
+        <v>0.02069949550783361</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>35615.25</v>
+      </c>
+      <c r="B11">
+        <v>0.03512500000000001</v>
+      </c>
+      <c r="C11">
+        <v>1.044887893699524</v>
+      </c>
+      <c r="D11">
+        <v>264.424734142607</v>
+      </c>
+      <c r="E11">
+        <v>0.01834844082933927</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>35645.66666666666</v>
+      </c>
+      <c r="B12">
+        <v>0.03516666666666668</v>
+      </c>
+      <c r="C12">
+        <v>0.4255370755721515</v>
+      </c>
+      <c r="D12">
+        <v>265.4696220363065</v>
+      </c>
+      <c r="E12">
+        <v>0.02495939040138997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>35676.08333333334</v>
+      </c>
+      <c r="B13">
+        <v>0.03520833333333335</v>
+      </c>
+      <c r="C13">
+        <v>0.09829939176313474</v>
+      </c>
+      <c r="D13">
+        <v>265.8951591118787</v>
+      </c>
+      <c r="E13">
+        <v>0.02622029368308197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>35706.5</v>
+      </c>
+      <c r="B14">
+        <v>0.03525000000000002</v>
+      </c>
+      <c r="C14">
+        <v>0.06453921984643785</v>
+      </c>
+      <c r="D14">
+        <v>265.9934585036418</v>
+      </c>
+      <c r="E14">
+        <v>0.02687929058963887</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>35858.58333333334</v>
+      </c>
+      <c r="B15">
+        <v>0.03529166666666669</v>
+      </c>
+      <c r="C15">
+        <v>0.8549868071165747</v>
+      </c>
+      <c r="D15">
+        <v>264.5279993593723</v>
+      </c>
+      <c r="E15">
+        <v>0.01499937102718732</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>35889</v>
+      </c>
+      <c r="B16">
+        <v>0.03533333333333336</v>
+      </c>
+      <c r="C16">
+        <v>0.4284030774456369</v>
+      </c>
+      <c r="D16">
+        <v>265.3829861664889</v>
+      </c>
+      <c r="E16">
+        <v>0.02176372498485314</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>36010.66666666666</v>
+      </c>
+      <c r="B17">
+        <v>0.03537500000000002</v>
+      </c>
+      <c r="C17">
+        <v>1.029639039197377</v>
+      </c>
+      <c r="D17">
+        <v>264.5812448071053</v>
+      </c>
+      <c r="E17">
+        <v>0.01783679037263674</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>36041.08333333334</v>
+      </c>
+      <c r="B18">
+        <v>0.03541666666666669</v>
+      </c>
+      <c r="C18">
+        <v>0.3096733910042531</v>
+      </c>
+      <c r="D18">
+        <v>265.6108838463027</v>
+      </c>
+      <c r="E18">
+        <v>0.02243366008748182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
+        <v>36071.5</v>
+      </c>
+      <c r="B19">
+        <v>0.03545833333333336</v>
+      </c>
+      <c r="C19">
+        <v>-0.01628359478741004</v>
+      </c>
+      <c r="D19">
+        <v>265.920557237307</v>
+      </c>
+      <c r="E19">
+        <v>0.02173288729125258</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2715,7 +3140,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2742,6 +3167,312 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>36132.33333333334</v>
+      </c>
+      <c r="B2">
+        <v>0.0355416666666667</v>
+      </c>
+      <c r="C2">
+        <v>-0.5612555084132964</v>
+      </c>
+      <c r="D2">
+        <v>264.6106940592622</v>
+      </c>
+      <c r="E2">
+        <v>0.02084491309915609</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>36162.75</v>
+      </c>
+      <c r="B3">
+        <v>0.03558333333333337</v>
+      </c>
+      <c r="C3">
+        <v>-0.3773302507239578</v>
+      </c>
+      <c r="D3">
+        <v>264.0494385508489</v>
+      </c>
+      <c r="E3">
+        <v>0.01401087958013952</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>36193.16666666666</v>
+      </c>
+      <c r="B4">
+        <v>0.03562500000000004</v>
+      </c>
+      <c r="C4">
+        <v>-0.1275478447419118</v>
+      </c>
+      <c r="D4">
+        <v>263.6721083001249</v>
+      </c>
+      <c r="E4">
+        <v>0.01135767178455273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>36223.58333333334</v>
+      </c>
+      <c r="B5">
+        <v>0.03566666666666671</v>
+      </c>
+      <c r="C5">
+        <v>-0.085885347400108</v>
+      </c>
+      <c r="D5">
+        <v>263.544560455383</v>
+      </c>
+      <c r="E5">
+        <v>0.009450130278141435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>36254</v>
+      </c>
+      <c r="B6">
+        <v>0.03570833333333338</v>
+      </c>
+      <c r="C6">
+        <v>0.002090258361249653</v>
+      </c>
+      <c r="D6">
+        <v>263.4586751079829</v>
+      </c>
+      <c r="E6">
+        <v>0.009151552268151565</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>36375.66666666666</v>
+      </c>
+      <c r="B7">
+        <v>0.03575000000000005</v>
+      </c>
+      <c r="C7">
+        <v>0.3738162672055978</v>
+      </c>
+      <c r="D7">
+        <v>262.9715959368194</v>
+      </c>
+      <c r="E7">
+        <v>0.006468004682852053</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>36406.08333333334</v>
+      </c>
+      <c r="B8">
+        <v>0.03579166666666671</v>
+      </c>
+      <c r="C8">
+        <v>0.1126154424498509</v>
+      </c>
+      <c r="D8">
+        <v>263.345412204025</v>
+      </c>
+      <c r="E8">
+        <v>0.008045923491922399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>36436.5</v>
+      </c>
+      <c r="B9">
+        <v>0.03583333333333338</v>
+      </c>
+      <c r="C9">
+        <v>0.03467454698659367</v>
+      </c>
+      <c r="D9">
+        <v>263.4580276464749</v>
+      </c>
+      <c r="E9">
+        <v>0.008184350040406527</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>36466.91666666666</v>
+      </c>
+      <c r="B10">
+        <v>0.03587500000000005</v>
+      </c>
+      <c r="C10">
+        <v>-0.1045023356716683</v>
+      </c>
+      <c r="D10">
+        <v>263.4927021934615</v>
+      </c>
+      <c r="E10">
+        <v>0.005773056095632657</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>36497.33333333334</v>
+      </c>
+      <c r="B11">
+        <v>0.03591666666666672</v>
+      </c>
+      <c r="C11">
+        <v>-0.003164701325204078</v>
+      </c>
+      <c r="D11">
+        <v>263.3881998577898</v>
+      </c>
+      <c r="E11">
+        <v>0.005248829015242937</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>36527.75</v>
+      </c>
+      <c r="B12">
+        <v>0.03595833333333339</v>
+      </c>
+      <c r="C12">
+        <v>0.04523454233526536</v>
+      </c>
+      <c r="D12">
+        <v>263.3850351564646</v>
+      </c>
+      <c r="E12">
+        <v>0.005605996260530096</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>36558.16666666666</v>
+      </c>
+      <c r="B13">
+        <v>0.03600000000000006</v>
+      </c>
+      <c r="C13">
+        <v>-0.04655679195059292</v>
+      </c>
+      <c r="D13">
+        <v>263.4302696987999</v>
+      </c>
+      <c r="E13">
+        <v>0.004334714293482152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>36619</v>
+      </c>
+      <c r="B14">
+        <v>0.0360833333333334</v>
+      </c>
+      <c r="C14">
+        <v>0.1622299500941153</v>
+      </c>
+      <c r="D14">
+        <v>263.1729738080409</v>
+      </c>
+      <c r="E14">
+        <v>0.002504541751184976</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>36649.41666666666</v>
+      </c>
+      <c r="B15">
+        <v>0.03612500000000007</v>
+      </c>
+      <c r="C15">
+        <v>0.05613848489360862</v>
+      </c>
+      <c r="D15">
+        <v>263.335203758135</v>
+      </c>
+      <c r="E15">
+        <v>0.003095187455210728</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>36679.83333333334</v>
+      </c>
+      <c r="B16">
+        <v>0.03616666666666674</v>
+      </c>
+      <c r="C16">
+        <v>0.04402037918680435</v>
+      </c>
+      <c r="D16">
+        <v>263.3913422430286</v>
+      </c>
+      <c r="E16">
+        <v>0.003471214302327701</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>36710.25</v>
+      </c>
+      <c r="B17">
+        <v>0.0362083333333334</v>
+      </c>
+      <c r="C17">
+        <v>0.001834113729046294</v>
+      </c>
+      <c r="D17">
+        <v>263.4353626222154</v>
+      </c>
+      <c r="E17">
+        <v>0.00313726967971246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>36892.75</v>
+      </c>
+      <c r="B18">
+        <v>0.03629166666666674</v>
+      </c>
+      <c r="C18">
+        <v>0.4594225343930702</v>
+      </c>
+      <c r="D18">
+        <v>263.2938306262027</v>
+      </c>
+      <c r="E18">
+        <v>0.007842672215247991</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
+        <v>36923.16666666666</v>
+      </c>
+      <c r="B19">
+        <v>0.03633333333333341</v>
+      </c>
+      <c r="C19">
+        <v>0.206015046612265</v>
+      </c>
+      <c r="D19">
+        <v>263.7532531605958</v>
+      </c>
+      <c r="E19">
+        <v>0.0109340374746827</v>
       </c>
     </row>
   </sheetData>

--- a/FACModel/Modelled RIHT2.xlsx
+++ b/FACModel/Modelled RIHT2.xlsx
@@ -7,27 +7,28 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Phase 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Phase 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Phase 3" sheetId="3" r:id="rId3"/>
-    <sheet name="Phase 4" sheetId="4" r:id="rId4"/>
-    <sheet name="Phase 5_6" sheetId="5" r:id="rId5"/>
-    <sheet name="Phase 7" sheetId="6" r:id="rId6"/>
+    <sheet name="Phase 1 Pre CPP" sheetId="1" r:id="rId1"/>
+    <sheet name="Phase 1 Post CPP" sheetId="2" r:id="rId2"/>
+    <sheet name="Phase 2" sheetId="3" r:id="rId3"/>
+    <sheet name="Phase 3" sheetId="4" r:id="rId4"/>
+    <sheet name="Phase 4" sheetId="5" r:id="rId5"/>
+    <sheet name="Phase 5_6" sheetId="6" r:id="rId6"/>
+    <sheet name="Phase 7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="5">
   <si>
     <t>DP leakage</t>
   </si>
   <si>
-    <t>Delta RIHT_2</t>
+    <t>Delta RIHT</t>
   </si>
   <si>
-    <t>RIHT_2</t>
+    <t>RIHT</t>
   </si>
   <si>
     <t>Steam quality</t>
@@ -576,6 +577,48 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="4" width="13.7109375" customWidth="1"/>
+    <col min="4" max="5" width="13.7109375" customWidth="1"/>
+    <col min="5" max="6" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="4" width="13.7109375" customWidth="1"/>
+    <col min="4" max="5" width="13.7109375" customWidth="1"/>
+    <col min="5" max="6" width="13.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">

--- a/FACModel/Modelled RIHT2.xlsx
+++ b/FACModel/Modelled RIHT2.xlsx
@@ -41,6 +41,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm-dd-yyyy"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -93,9 +96,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -392,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -419,6 +425,23 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>30414</v>
+      </c>
+      <c r="B2">
+        <v>0.03033333333333333</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>261.8439554330322</v>
+      </c>
+      <c r="E2">
+        <v>0.009791527531336826</v>
       </c>
     </row>
   </sheetData>

--- a/FACModel/Modelled RIHT2.xlsx
+++ b/FACModel/Modelled RIHT2.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,16 +432,968 @@
         <v>30414</v>
       </c>
       <c r="B2">
-        <v>0.03033333333333333</v>
+        <v>0.030375</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.04623308976476892</v>
       </c>
       <c r="D2">
-        <v>261.8439554330322</v>
+        <v>261.8441812843658</v>
       </c>
       <c r="E2">
-        <v>0.009791527531336826</v>
+        <v>0.009792547471173632</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>30444.41666666667</v>
+      </c>
+      <c r="B3">
+        <v>0.03075</v>
+      </c>
+      <c r="C3">
+        <v>0.0663413914925286</v>
+      </c>
+      <c r="D3">
+        <v>261.8904143741306</v>
+      </c>
+      <c r="E3">
+        <v>0.01000133512483399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>30474.83333333333</v>
+      </c>
+      <c r="B4">
+        <v>0.031125</v>
+      </c>
+      <c r="C4">
+        <v>0.0719260254143137</v>
+      </c>
+      <c r="D4">
+        <v>261.9567557656231</v>
+      </c>
+      <c r="E4">
+        <v>0.01030093144298554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>30505.25</v>
+      </c>
+      <c r="B5">
+        <v>0.0315</v>
+      </c>
+      <c r="C5">
+        <v>0.07255129940381266</v>
+      </c>
+      <c r="D5">
+        <v>262.0286817910375</v>
+      </c>
+      <c r="E5">
+        <v>0.01062574784958473</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>30535.66666666667</v>
+      </c>
+      <c r="B6">
+        <v>0.031875</v>
+      </c>
+      <c r="C6">
+        <v>0.07193198865752493</v>
+      </c>
+      <c r="D6">
+        <v>262.1012330904413</v>
+      </c>
+      <c r="E6">
+        <v>0.0109533879802704</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>30566.08333333333</v>
+      </c>
+      <c r="B7">
+        <v>0.03225</v>
+      </c>
+      <c r="C7">
+        <v>0.07228187665305086</v>
+      </c>
+      <c r="D7">
+        <v>262.1731650790988</v>
+      </c>
+      <c r="E7">
+        <v>0.01127823131674973</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>30596.5</v>
+      </c>
+      <c r="B8">
+        <v>0.032625</v>
+      </c>
+      <c r="C8">
+        <v>0.07178268392431164</v>
+      </c>
+      <c r="D8">
+        <v>262.2454469557518</v>
+      </c>
+      <c r="E8">
+        <v>0.01160465474000223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>30626.91666666667</v>
+      </c>
+      <c r="B9">
+        <v>0.033</v>
+      </c>
+      <c r="C9">
+        <v>0.07108614556045723</v>
+      </c>
+      <c r="D9">
+        <v>262.3172296396762</v>
+      </c>
+      <c r="E9">
+        <v>0.01192882381947028</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>30657.33333333333</v>
+      </c>
+      <c r="B10">
+        <v>0.033375</v>
+      </c>
+      <c r="C10">
+        <v>0.07080834913040235</v>
+      </c>
+      <c r="D10">
+        <v>262.3883157852366</v>
+      </c>
+      <c r="E10">
+        <v>0.01224984734644717</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>30687.75</v>
+      </c>
+      <c r="B11">
+        <v>0.03375</v>
+      </c>
+      <c r="C11">
+        <v>0.07232747255102367</v>
+      </c>
+      <c r="D11">
+        <v>262.459124134367</v>
+      </c>
+      <c r="E11">
+        <v>0.01256961635063274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>30718.16666666667</v>
+      </c>
+      <c r="B12">
+        <v>0.034125</v>
+      </c>
+      <c r="C12">
+        <v>0.07291518854049173</v>
+      </c>
+      <c r="D12">
+        <v>262.531451606918</v>
+      </c>
+      <c r="E12">
+        <v>0.01289624568399438</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>30748.58333333333</v>
+      </c>
+      <c r="B13">
+        <v>0.0345</v>
+      </c>
+      <c r="C13">
+        <v>0.07095521014298356</v>
+      </c>
+      <c r="D13">
+        <v>262.6043667954585</v>
+      </c>
+      <c r="E13">
+        <v>0.01322552913031019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>30839.83333333333</v>
+      </c>
+      <c r="B14">
+        <v>0.034875</v>
+      </c>
+      <c r="C14">
+        <v>0.5308609609361383</v>
+      </c>
+      <c r="D14">
+        <v>262.1627056896301</v>
+      </c>
+      <c r="E14">
+        <v>0.01123099693555222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>30870.25</v>
+      </c>
+      <c r="B15">
+        <v>0.03525</v>
+      </c>
+      <c r="C15">
+        <v>0.1667394086083505</v>
+      </c>
+      <c r="D15">
+        <v>262.6935666505663</v>
+      </c>
+      <c r="E15">
+        <v>0.01362835378575824</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>30900.66666666667</v>
+      </c>
+      <c r="B16">
+        <v>0.035625</v>
+      </c>
+      <c r="C16">
+        <v>0.09320697400153222</v>
+      </c>
+      <c r="D16">
+        <v>262.8603060591746</v>
+      </c>
+      <c r="E16">
+        <v>0.01438134542168786</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>30931.08333333333</v>
+      </c>
+      <c r="B17">
+        <v>0.036</v>
+      </c>
+      <c r="C17">
+        <v>0.07721403619120792</v>
+      </c>
+      <c r="D17">
+        <v>262.9535130331761</v>
+      </c>
+      <c r="E17">
+        <v>0.01480226614114617</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>30961.5</v>
+      </c>
+      <c r="B18">
+        <v>0.036375</v>
+      </c>
+      <c r="C18">
+        <v>0.07475621607045468</v>
+      </c>
+      <c r="D18">
+        <v>263.0307270693673</v>
+      </c>
+      <c r="E18">
+        <v>0.01515096309235653</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
+        <v>30991.91666666667</v>
+      </c>
+      <c r="B19">
+        <v>0.03675</v>
+      </c>
+      <c r="C19">
+        <v>0.0740943033243866</v>
+      </c>
+      <c r="D19">
+        <v>263.1054832854378</v>
+      </c>
+      <c r="E19">
+        <v>0.01548856057998496</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>31022.33333333333</v>
+      </c>
+      <c r="B20">
+        <v>0.03712500000000001</v>
+      </c>
+      <c r="C20">
+        <v>0.07430854624647054</v>
+      </c>
+      <c r="D20">
+        <v>263.1795775887622</v>
+      </c>
+      <c r="E20">
+        <v>0.01582316888367839</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
+        <v>31052.75</v>
+      </c>
+      <c r="B21">
+        <v>0.03750000000000001</v>
+      </c>
+      <c r="C21">
+        <v>0.07401207477937533</v>
+      </c>
+      <c r="D21">
+        <v>263.2538861350087</v>
+      </c>
+      <c r="E21">
+        <v>0.01615874470386803</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
+        <v>31083.16666666667</v>
+      </c>
+      <c r="B22">
+        <v>0.03787500000000001</v>
+      </c>
+      <c r="C22">
+        <v>0.07503753928824608</v>
+      </c>
+      <c r="D22">
+        <v>263.327898209788</v>
+      </c>
+      <c r="E22">
+        <v>0.01649298166519488</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
+        <v>31113.58333333333</v>
+      </c>
+      <c r="B23">
+        <v>0.03825000000000001</v>
+      </c>
+      <c r="C23">
+        <v>0.07387879583018275</v>
+      </c>
+      <c r="D23">
+        <v>263.4029357490763</v>
+      </c>
+      <c r="E23">
+        <v>0.01683184960251322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
+        <v>31144</v>
+      </c>
+      <c r="B24">
+        <v>0.03862500000000001</v>
+      </c>
+      <c r="C24">
+        <v>0.07536207431280673</v>
+      </c>
+      <c r="D24">
+        <v>263.4768145449065</v>
+      </c>
+      <c r="E24">
+        <v>0.01716548467892969</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
+        <v>31174.41666666667</v>
+      </c>
+      <c r="B25">
+        <v>0.03900000000000001</v>
+      </c>
+      <c r="C25">
+        <v>0.07567398667265479</v>
+      </c>
+      <c r="D25">
+        <v>263.5521766192193</v>
+      </c>
+      <c r="E25">
+        <v>0.01750581820954186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
+        <v>31204.83333333333</v>
+      </c>
+      <c r="B26">
+        <v>0.03937500000000001</v>
+      </c>
+      <c r="C26">
+        <v>0.07640159243248945</v>
+      </c>
+      <c r="D26">
+        <v>263.6278506058919</v>
+      </c>
+      <c r="E26">
+        <v>0.01784756032976138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2">
+        <v>31235.25</v>
+      </c>
+      <c r="B27">
+        <v>0.03975000000000001</v>
+      </c>
+      <c r="C27">
+        <v>0.07608596483976271</v>
+      </c>
+      <c r="D27">
+        <v>263.7042521983244</v>
+      </c>
+      <c r="E27">
+        <v>0.01819258830217376</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2">
+        <v>31265.66666666667</v>
+      </c>
+      <c r="B28">
+        <v>0.04012500000000001</v>
+      </c>
+      <c r="C28">
+        <v>0.07773984470645701</v>
+      </c>
+      <c r="D28">
+        <v>263.7803381631642</v>
+      </c>
+      <c r="E28">
+        <v>0.01853619090706574</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2">
+        <v>31296.08333333333</v>
+      </c>
+      <c r="B29">
+        <v>0.04050000000000001</v>
+      </c>
+      <c r="C29">
+        <v>0.07783883277056702</v>
+      </c>
+      <c r="D29">
+        <v>263.8580780078706</v>
+      </c>
+      <c r="E29">
+        <v>0.0188872623983886</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2">
+        <v>31326.5</v>
+      </c>
+      <c r="B30">
+        <v>0.04087500000000001</v>
+      </c>
+      <c r="C30">
+        <v>0.0788648138973258</v>
+      </c>
+      <c r="D30">
+        <v>263.9359168406412</v>
+      </c>
+      <c r="E30">
+        <v>0.01923878091771151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2">
+        <v>31356.91666666667</v>
+      </c>
+      <c r="B31">
+        <v>0.04125000000000001</v>
+      </c>
+      <c r="C31">
+        <v>0.07898834236470975</v>
+      </c>
+      <c r="D31">
+        <v>264.0147816545385</v>
+      </c>
+      <c r="E31">
+        <v>0.01959493274606141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2">
+        <v>31387.33333333333</v>
+      </c>
+      <c r="B32">
+        <v>0.04162500000000001</v>
+      </c>
+      <c r="C32">
+        <v>0.0776388119998046</v>
+      </c>
+      <c r="D32">
+        <v>264.0937699969032</v>
+      </c>
+      <c r="E32">
+        <v>0.01995164242635233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2">
+        <v>31417.75</v>
+      </c>
+      <c r="B33">
+        <v>0.04200000000000001</v>
+      </c>
+      <c r="C33">
+        <v>0.07744195400209719</v>
+      </c>
+      <c r="D33">
+        <v>264.171408808903</v>
+      </c>
+      <c r="E33">
+        <v>0.02030225765611298</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2">
+        <v>31448.16666666667</v>
+      </c>
+      <c r="B34">
+        <v>0.04237500000000001</v>
+      </c>
+      <c r="C34">
+        <v>0.07681214624176391</v>
+      </c>
+      <c r="D34">
+        <v>264.2488507629051</v>
+      </c>
+      <c r="E34">
+        <v>0.02065198387932752</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2">
+        <v>31478.58333333333</v>
+      </c>
+      <c r="B35">
+        <v>0.04275000000000001</v>
+      </c>
+      <c r="C35">
+        <v>0.07611855403456502</v>
+      </c>
+      <c r="D35">
+        <v>264.3256629091469</v>
+      </c>
+      <c r="E35">
+        <v>0.02099886590404252</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2">
+        <v>31509</v>
+      </c>
+      <c r="B36">
+        <v>0.04312500000000001</v>
+      </c>
+      <c r="C36">
+        <v>0.07072844875608553</v>
+      </c>
+      <c r="D36">
+        <v>264.4017814631815</v>
+      </c>
+      <c r="E36">
+        <v>0.02134261568104775</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
+        <v>31569.83333333333</v>
+      </c>
+      <c r="B37">
+        <v>0.04350000000000001</v>
+      </c>
+      <c r="C37">
+        <v>0.8942006691539746</v>
+      </c>
+      <c r="D37">
+        <v>263.4308985341727</v>
+      </c>
+      <c r="E37">
+        <v>0.01695812894745408</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>31600.25</v>
+      </c>
+      <c r="B38">
+        <v>0.04387500000000001</v>
+      </c>
+      <c r="C38">
+        <v>0.2739909368244753</v>
+      </c>
+      <c r="D38">
+        <v>264.3250992033267</v>
+      </c>
+      <c r="E38">
+        <v>0.02099632022050382</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>31630.66666666667</v>
+      </c>
+      <c r="B39">
+        <v>0.04425000000000001</v>
+      </c>
+      <c r="C39">
+        <v>0.1245399844260646</v>
+      </c>
+      <c r="D39">
+        <v>264.5990901401511</v>
+      </c>
+      <c r="E39">
+        <v>0.02223365748510909</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>31661.08333333333</v>
+      </c>
+      <c r="B40">
+        <v>0.04462500000000001</v>
+      </c>
+      <c r="C40">
+        <v>0.08971186331723402</v>
+      </c>
+      <c r="D40">
+        <v>264.7236301245772</v>
+      </c>
+      <c r="E40">
+        <v>0.02279607741567221</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2">
+        <v>31691.5</v>
+      </c>
+      <c r="B41">
+        <v>0.04500000000000001</v>
+      </c>
+      <c r="C41">
+        <v>0.08198941059868048</v>
+      </c>
+      <c r="D41">
+        <v>264.8133419878944</v>
+      </c>
+      <c r="E41">
+        <v>0.02320121428934457</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
+        <v>31721.91666666667</v>
+      </c>
+      <c r="B42">
+        <v>0.04537500000000001</v>
+      </c>
+      <c r="C42">
+        <v>0.07804066470055204</v>
+      </c>
+      <c r="D42">
+        <v>264.8953313984931</v>
+      </c>
+      <c r="E42">
+        <v>0.02357147673018493</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2">
+        <v>31752.33333333333</v>
+      </c>
+      <c r="B43">
+        <v>0.04575000000000001</v>
+      </c>
+      <c r="C43">
+        <v>0.07991728688159583</v>
+      </c>
+      <c r="D43">
+        <v>264.9733720631937</v>
+      </c>
+      <c r="E43">
+        <v>0.02392390671822648</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2">
+        <v>31782.75</v>
+      </c>
+      <c r="B44">
+        <v>0.04612500000000001</v>
+      </c>
+      <c r="C44">
+        <v>0.0793410522664999</v>
+      </c>
+      <c r="D44">
+        <v>265.0532893500753</v>
+      </c>
+      <c r="E44">
+        <v>0.02428481149227065</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2">
+        <v>31813.16666666667</v>
+      </c>
+      <c r="B45">
+        <v>0.04650000000000001</v>
+      </c>
+      <c r="C45">
+        <v>0.07891420648888925</v>
+      </c>
+      <c r="D45">
+        <v>265.1326304023418</v>
+      </c>
+      <c r="E45">
+        <v>0.0246431140030039</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2">
+        <v>31843.58333333333</v>
+      </c>
+      <c r="B46">
+        <v>0.04687500000000001</v>
+      </c>
+      <c r="C46">
+        <v>0.05095158073368111</v>
+      </c>
+      <c r="D46">
+        <v>265.2115446088306</v>
+      </c>
+      <c r="E46">
+        <v>0.0249994888872506</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2">
+        <v>31904.41666666667</v>
+      </c>
+      <c r="B47">
+        <v>0.04725000000000001</v>
+      </c>
+      <c r="C47">
+        <v>1.048032742025498</v>
+      </c>
+      <c r="D47">
+        <v>263.9442058963674</v>
+      </c>
+      <c r="E47">
+        <v>0.01927621411771904</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2">
+        <v>31934.83333333333</v>
+      </c>
+      <c r="B48">
+        <v>0.04762500000000001</v>
+      </c>
+      <c r="C48">
+        <v>0.2997945120390568</v>
+      </c>
+      <c r="D48">
+        <v>264.9922386383929</v>
+      </c>
+      <c r="E48">
+        <v>0.02400910777202798</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2">
+        <v>31965.25</v>
+      </c>
+      <c r="B49">
+        <v>0.04800000000000001</v>
+      </c>
+      <c r="C49">
+        <v>0.1147995659421213</v>
+      </c>
+      <c r="D49">
+        <v>265.292033150432</v>
+      </c>
+      <c r="E49">
+        <v>0.02536297343550337</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2">
+        <v>31995.66666666667</v>
+      </c>
+      <c r="B50">
+        <v>0.04837500000000002</v>
+      </c>
+      <c r="C50">
+        <v>0.0677340591715847</v>
+      </c>
+      <c r="D50">
+        <v>265.4068327163741</v>
+      </c>
+      <c r="E50">
+        <v>0.02588140584260066</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2">
+        <v>32026.08333333333</v>
+      </c>
+      <c r="B51">
+        <v>0.04875000000000002</v>
+      </c>
+      <c r="C51">
+        <v>0.05694093570104997</v>
+      </c>
+      <c r="D51">
+        <v>265.4745667755457</v>
+      </c>
+      <c r="E51">
+        <v>0.02618729141847894</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2">
+        <v>32056.5</v>
+      </c>
+      <c r="B52">
+        <v>0.04912500000000002</v>
+      </c>
+      <c r="C52">
+        <v>0.05470167319049324</v>
+      </c>
+      <c r="D52">
+        <v>265.5315077112467</v>
+      </c>
+      <c r="E52">
+        <v>0.02644443547747943</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>32086.91666666667</v>
+      </c>
+      <c r="B53">
+        <v>0.04950000000000002</v>
+      </c>
+      <c r="C53">
+        <v>0.05614083268665127</v>
+      </c>
+      <c r="D53">
+        <v>265.5862093844372</v>
+      </c>
+      <c r="E53">
+        <v>0.02669146707443409</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>32117.33333333333</v>
+      </c>
+      <c r="B54">
+        <v>0.04987500000000002</v>
+      </c>
+      <c r="C54">
+        <v>0.05448883458564069</v>
+      </c>
+      <c r="D54">
+        <v>265.6423502171239</v>
+      </c>
+      <c r="E54">
+        <v>0.02694499788517641</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="2">
+        <v>32147.75</v>
+      </c>
+      <c r="B55">
+        <v>0.05025000000000002</v>
+      </c>
+      <c r="C55">
+        <v>0.05411028957894359</v>
+      </c>
+      <c r="D55">
+        <v>265.6968390517095</v>
+      </c>
+      <c r="E55">
+        <v>0.02719106830750192</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="2">
+        <v>32178.16666666667</v>
+      </c>
+      <c r="B56">
+        <v>0.05062500000000002</v>
+      </c>
+      <c r="C56">
+        <v>0.05446264433726355</v>
+      </c>
+      <c r="D56">
+        <v>265.7509493412884</v>
+      </c>
+      <c r="E56">
+        <v>0.02743542922859867</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="2">
+        <v>32208.58333333333</v>
+      </c>
+      <c r="B57">
+        <v>0.05100000000000002</v>
+      </c>
+      <c r="C57">
+        <v>-0.3232648379821512</v>
+      </c>
+      <c r="D57">
+        <v>265.8054119856257</v>
+      </c>
+      <c r="E57">
+        <v>0.02768138137631754</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="2">
+        <v>32269.41666666667</v>
+      </c>
+      <c r="B58">
+        <v>0.05137500000000002</v>
+      </c>
+      <c r="C58">
+        <v>1.065585901683335</v>
+      </c>
+      <c r="D58">
+        <v>264.0087821801188</v>
+      </c>
+      <c r="E58">
+        <v>0.0195678392467159</v>
       </c>
     </row>
   </sheetData>
@@ -451,7 +1403,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -480,6 +1432,805 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>32299.83333333333</v>
+      </c>
+      <c r="B2">
+        <v>0.05175000000000002</v>
+      </c>
+      <c r="C2">
+        <v>0.2995919547370249</v>
+      </c>
+      <c r="D2">
+        <v>265.0743680818022</v>
+      </c>
+      <c r="E2">
+        <v>0.02438000259807362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>32330.25</v>
+      </c>
+      <c r="B3">
+        <v>0.05175000000000002</v>
+      </c>
+      <c r="C3">
+        <v>-1.296955406465031</v>
+      </c>
+      <c r="D3">
+        <v>265.3739600365392</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>32391.08333333333</v>
+      </c>
+      <c r="B4">
+        <v>0.05250000000000002</v>
+      </c>
+      <c r="C4">
+        <v>0.3061325130338446</v>
+      </c>
+      <c r="D4">
+        <v>265.1670197204332</v>
+      </c>
+      <c r="E4">
+        <v>0.02479841543476703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>32421.5</v>
+      </c>
+      <c r="B5">
+        <v>0.05250000000000002</v>
+      </c>
+      <c r="C5">
+        <v>-1.327693799427038</v>
+      </c>
+      <c r="D5">
+        <v>265.4731522334671</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>32482.33333333333</v>
+      </c>
+      <c r="B6">
+        <v>0.05325000000000002</v>
+      </c>
+      <c r="C6">
+        <v>0.3205957037681628</v>
+      </c>
+      <c r="D6">
+        <v>265.2594598959246</v>
+      </c>
+      <c r="E6">
+        <v>0.02521587330840219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>32512.75</v>
+      </c>
+      <c r="B7">
+        <v>0.05362500000000002</v>
+      </c>
+      <c r="C7">
+        <v>0.1241806786996449</v>
+      </c>
+      <c r="D7">
+        <v>265.5800555996927</v>
+      </c>
+      <c r="E7">
+        <v>0.02666367671293185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>32543.16666666667</v>
+      </c>
+      <c r="B8">
+        <v>0.05400000000000002</v>
+      </c>
+      <c r="C8">
+        <v>0.0713866639924845</v>
+      </c>
+      <c r="D8">
+        <v>265.7042362783924</v>
+      </c>
+      <c r="E8">
+        <v>0.02722447402644845</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>32573.58333333333</v>
+      </c>
+      <c r="B9">
+        <v>0.05437500000000002</v>
+      </c>
+      <c r="C9">
+        <v>0.05729798531126562</v>
+      </c>
+      <c r="D9">
+        <v>265.7756229423849</v>
+      </c>
+      <c r="E9">
+        <v>0.02754685468829633</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>32604</v>
+      </c>
+      <c r="B10">
+        <v>0.05475000000000002</v>
+      </c>
+      <c r="C10">
+        <v>0.05326349513291007</v>
+      </c>
+      <c r="D10">
+        <v>265.8329209276961</v>
+      </c>
+      <c r="E10">
+        <v>0.02780561117577034</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>32634.41666666667</v>
+      </c>
+      <c r="B11">
+        <v>0.05512500000000002</v>
+      </c>
+      <c r="C11">
+        <v>0.04501167021783203</v>
+      </c>
+      <c r="D11">
+        <v>265.886184422829</v>
+      </c>
+      <c r="E11">
+        <v>0.02804614799109321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>32664.83333333333</v>
+      </c>
+      <c r="B12">
+        <v>0.05512500000000002</v>
+      </c>
+      <c r="C12">
+        <v>-1.544575414227779</v>
+      </c>
+      <c r="D12">
+        <v>265.9311960930469</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>32725.66666666667</v>
+      </c>
+      <c r="B13">
+        <v>0.05587500000000002</v>
+      </c>
+      <c r="C13">
+        <v>0.3525597047917017</v>
+      </c>
+      <c r="D13">
+        <v>265.5856153748106</v>
+      </c>
+      <c r="E13">
+        <v>0.02668878453954783</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>32756.08333333333</v>
+      </c>
+      <c r="B14">
+        <v>0.05625000000000002</v>
+      </c>
+      <c r="C14">
+        <v>0.1338698343704436</v>
+      </c>
+      <c r="D14">
+        <v>265.9381750796023</v>
+      </c>
+      <c r="E14">
+        <v>0.02828093669535623</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>32786.5</v>
+      </c>
+      <c r="B15">
+        <v>0.05662500000000002</v>
+      </c>
+      <c r="C15">
+        <v>0.07346899912499794</v>
+      </c>
+      <c r="D15">
+        <v>266.0720449139727</v>
+      </c>
+      <c r="E15">
+        <v>0.02888549003056096</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>32816.91666666666</v>
+      </c>
+      <c r="B16">
+        <v>0.05700000000000002</v>
+      </c>
+      <c r="C16">
+        <v>0.05965882921873344</v>
+      </c>
+      <c r="D16">
+        <v>266.1455139130977</v>
+      </c>
+      <c r="E16">
+        <v>0.02921727447374073</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>32847.33333333334</v>
+      </c>
+      <c r="B17">
+        <v>0.05737500000000002</v>
+      </c>
+      <c r="C17">
+        <v>0.05638602909971269</v>
+      </c>
+      <c r="D17">
+        <v>266.2051727423164</v>
+      </c>
+      <c r="E17">
+        <v>0.02948669248227265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>32877.75</v>
+      </c>
+      <c r="B18">
+        <v>0.05775000000000002</v>
+      </c>
+      <c r="C18">
+        <v>0.05002070569696571</v>
+      </c>
+      <c r="D18">
+        <v>266.2615587714162</v>
+      </c>
+      <c r="E18">
+        <v>0.02974133059482058</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
+        <v>32908.16666666666</v>
+      </c>
+      <c r="B19">
+        <v>0.05775000000000002</v>
+      </c>
+      <c r="C19">
+        <v>-1.678816485064658</v>
+      </c>
+      <c r="D19">
+        <v>266.3115794771131</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>32969</v>
+      </c>
+      <c r="B20">
+        <v>0.05812500000000002</v>
+      </c>
+      <c r="C20">
+        <v>-1.244693170370965</v>
+      </c>
+      <c r="D20">
+        <v>265.9138709262037</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
+        <v>33029.83333333334</v>
+      </c>
+      <c r="B21">
+        <v>0.05887500000000002</v>
+      </c>
+      <c r="C21">
+        <v>0.3919080944247071</v>
+      </c>
+      <c r="D21">
+        <v>265.9697473757661</v>
+      </c>
+      <c r="E21">
+        <v>0.02842351651578915</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
+        <v>33060.25</v>
+      </c>
+      <c r="B22">
+        <v>0.05925000000000002</v>
+      </c>
+      <c r="C22">
+        <v>0.1474784839638232</v>
+      </c>
+      <c r="D22">
+        <v>266.3616554701908</v>
+      </c>
+      <c r="E22">
+        <v>0.03019336516535545</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
+        <v>33090.66666666666</v>
+      </c>
+      <c r="B23">
+        <v>0.05962500000000003</v>
+      </c>
+      <c r="C23">
+        <v>0.07836237693607018</v>
+      </c>
+      <c r="D23">
+        <v>266.5091339541547</v>
+      </c>
+      <c r="E23">
+        <v>0.03085937487374522</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
+        <v>33121.08333333334</v>
+      </c>
+      <c r="B24">
+        <v>0.06000000000000003</v>
+      </c>
+      <c r="C24">
+        <v>0.06079107629818736</v>
+      </c>
+      <c r="D24">
+        <v>266.5874963310907</v>
+      </c>
+      <c r="E24">
+        <v>0.03121325770742512</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
+        <v>33151.5</v>
+      </c>
+      <c r="B25">
+        <v>0.06037500000000003</v>
+      </c>
+      <c r="C25">
+        <v>0.05588492125434641</v>
+      </c>
+      <c r="D25">
+        <v>266.6482874073889</v>
+      </c>
+      <c r="E25">
+        <v>0.03148778891977471</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
+        <v>33181.91666666666</v>
+      </c>
+      <c r="B26">
+        <v>0.06075000000000003</v>
+      </c>
+      <c r="C26">
+        <v>0.05749089613379965</v>
+      </c>
+      <c r="D26">
+        <v>266.7041723286433</v>
+      </c>
+      <c r="E26">
+        <v>0.0317401640399118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2">
+        <v>33212.33333333334</v>
+      </c>
+      <c r="B27">
+        <v>0.06112500000000003</v>
+      </c>
+      <c r="C27">
+        <v>0.05635885735898682</v>
+      </c>
+      <c r="D27">
+        <v>266.7616632247771</v>
+      </c>
+      <c r="E27">
+        <v>0.03199979170857255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2">
+        <v>33242.75</v>
+      </c>
+      <c r="B28">
+        <v>0.06150000000000003</v>
+      </c>
+      <c r="C28">
+        <v>0.05504413112578277</v>
+      </c>
+      <c r="D28">
+        <v>266.8180220821361</v>
+      </c>
+      <c r="E28">
+        <v>0.03225430711411503</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2">
+        <v>33273.16666666666</v>
+      </c>
+      <c r="B29">
+        <v>0.06187500000000003</v>
+      </c>
+      <c r="C29">
+        <v>0.04741720420986439</v>
+      </c>
+      <c r="D29">
+        <v>266.8730662132618</v>
+      </c>
+      <c r="E29">
+        <v>0.03250288524384853</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2">
+        <v>33303.58333333334</v>
+      </c>
+      <c r="B30">
+        <v>0.06187500000000003</v>
+      </c>
+      <c r="C30">
+        <v>-1.905278346583145</v>
+      </c>
+      <c r="D30">
+        <v>266.9204834174717</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2">
+        <v>33334</v>
+      </c>
+      <c r="B31">
+        <v>0.06225000000000003</v>
+      </c>
+      <c r="C31">
+        <v>1.433881430369411</v>
+      </c>
+      <c r="D31">
+        <v>265.0152050708886</v>
+      </c>
+      <c r="E31">
+        <v>0.0241128236945007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2">
+        <v>33364.41666666666</v>
+      </c>
+      <c r="B32">
+        <v>0.06262500000000003</v>
+      </c>
+      <c r="C32">
+        <v>0.4369832223203503</v>
+      </c>
+      <c r="D32">
+        <v>266.449086501258</v>
+      </c>
+      <c r="E32">
+        <v>0.03058820184891887</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2">
+        <v>33394.83333333334</v>
+      </c>
+      <c r="B33">
+        <v>0.06300000000000003</v>
+      </c>
+      <c r="C33">
+        <v>0.1626716554865197</v>
+      </c>
+      <c r="D33">
+        <v>266.8860697235783</v>
+      </c>
+      <c r="E33">
+        <v>0.03256160882088265</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2">
+        <v>33425.25</v>
+      </c>
+      <c r="B34">
+        <v>0.06337500000000003</v>
+      </c>
+      <c r="C34">
+        <v>0.07641373009255403</v>
+      </c>
+      <c r="D34">
+        <v>267.0487413790648</v>
+      </c>
+      <c r="E34">
+        <v>0.03329623056991318</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2">
+        <v>33455.66666666666</v>
+      </c>
+      <c r="B35">
+        <v>0.06337500000000003</v>
+      </c>
+      <c r="C35">
+        <v>-1.981870824470775</v>
+      </c>
+      <c r="D35">
+        <v>267.1251551091574</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2">
+        <v>33486.08333333334</v>
+      </c>
+      <c r="B36">
+        <v>0.06337500000000003</v>
+      </c>
+      <c r="C36">
+        <v>0.005935409649850953</v>
+      </c>
+      <c r="D36">
+        <v>265.1432842846866</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
+        <v>33516.5</v>
+      </c>
+      <c r="B37">
+        <v>0.06375000000000003</v>
+      </c>
+      <c r="C37">
+        <v>1.48693283630314</v>
+      </c>
+      <c r="D37">
+        <v>265.1492196943365</v>
+      </c>
+      <c r="E37">
+        <v>0.02471803089411112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>33546.91666666666</v>
+      </c>
+      <c r="B38">
+        <v>0.06412500000000003</v>
+      </c>
+      <c r="C38">
+        <v>0.4564642858020989</v>
+      </c>
+      <c r="D38">
+        <v>266.6361525306396</v>
+      </c>
+      <c r="E38">
+        <v>0.03143298807352288</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>33577.33333333334</v>
+      </c>
+      <c r="B39">
+        <v>0.06450000000000003</v>
+      </c>
+      <c r="C39">
+        <v>0.1710057670159131</v>
+      </c>
+      <c r="D39">
+        <v>267.0926168164417</v>
+      </c>
+      <c r="E39">
+        <v>0.03349437111535056</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>33607.75</v>
+      </c>
+      <c r="B40">
+        <v>0.06487500000000003</v>
+      </c>
+      <c r="C40">
+        <v>0.08952128451824137</v>
+      </c>
+      <c r="D40">
+        <v>267.2636225834576</v>
+      </c>
+      <c r="E40">
+        <v>0.03426662953544109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2">
+        <v>33638.16666666666</v>
+      </c>
+      <c r="B41">
+        <v>0.06525000000000003</v>
+      </c>
+      <c r="C41">
+        <v>0.06626006476858493</v>
+      </c>
+      <c r="D41">
+        <v>267.3531438679759</v>
+      </c>
+      <c r="E41">
+        <v>0.03467090575929566</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
+        <v>33668.58333333334</v>
+      </c>
+      <c r="B42">
+        <v>0.06562500000000003</v>
+      </c>
+      <c r="C42">
+        <v>0.05153911160584812</v>
+      </c>
+      <c r="D42">
+        <v>267.4194039327444</v>
+      </c>
+      <c r="E42">
+        <v>0.03497013480768519</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2">
+        <v>33699</v>
+      </c>
+      <c r="B43">
+        <v>0.06562500000000003</v>
+      </c>
+      <c r="C43">
+        <v>-2.118670355309632</v>
+      </c>
+      <c r="D43">
+        <v>267.4709430443503</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2">
+        <v>33729.41666666666</v>
+      </c>
+      <c r="B44">
+        <v>0.06600000000000003</v>
+      </c>
+      <c r="C44">
+        <v>1.567451046163228</v>
+      </c>
+      <c r="D44">
+        <v>265.3522726890407</v>
+      </c>
+      <c r="E44">
+        <v>0.02563501391533479</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2">
+        <v>33759.83333333334</v>
+      </c>
+      <c r="B45">
+        <v>0.06637500000000003</v>
+      </c>
+      <c r="C45">
+        <v>0.485742796942418</v>
+      </c>
+      <c r="D45">
+        <v>266.9197237352039</v>
+      </c>
+      <c r="E45">
+        <v>0.03271358962422749</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2">
+        <v>33790.25</v>
+      </c>
+      <c r="B46">
+        <v>0.06675000000000003</v>
+      </c>
+      <c r="C46">
+        <v>0.1768942603306414</v>
+      </c>
+      <c r="D46">
+        <v>267.4054665321463</v>
+      </c>
+      <c r="E46">
+        <v>0.03490719380192894</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2">
+        <v>33820.66666666666</v>
+      </c>
+      <c r="B47">
+        <v>0.06712500000000003</v>
+      </c>
+      <c r="C47">
+        <v>0.09062721640418658</v>
+      </c>
+      <c r="D47">
+        <v>267.5823607924769</v>
+      </c>
+      <c r="E47">
+        <v>0.03570604453304682</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2">
+        <v>33851.08333333334</v>
+      </c>
+      <c r="B48">
+        <v>0.06750000000000003</v>
+      </c>
+      <c r="C48">
+        <v>0.06567350753994106</v>
+      </c>
+      <c r="D48">
+        <v>267.6729880088811</v>
+      </c>
+      <c r="E48">
+        <v>0.0361153151218628</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -487,7 +2238,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -516,6 +2267,601 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>33881.5</v>
+      </c>
+      <c r="B2">
+        <v>0.06787500000000003</v>
+      </c>
+      <c r="C2">
+        <v>-1.32967207545903</v>
+      </c>
+      <c r="D2">
+        <v>267.7386615164211</v>
+      </c>
+      <c r="E2">
+        <v>0.03641189529023722</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>33911.91666666666</v>
+      </c>
+      <c r="B3">
+        <v>0.06825000000000003</v>
+      </c>
+      <c r="C3">
+        <v>-0.3489346274539002</v>
+      </c>
+      <c r="D3">
+        <v>266.408989440962</v>
+      </c>
+      <c r="E3">
+        <v>0.03040712437431234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>33942.33333333334</v>
+      </c>
+      <c r="B4">
+        <v>0.06862500000000003</v>
+      </c>
+      <c r="C4">
+        <v>-0.05528950563916624</v>
+      </c>
+      <c r="D4">
+        <v>266.0600548135081</v>
+      </c>
+      <c r="E4">
+        <v>0.02883134299094304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>33972.75</v>
+      </c>
+      <c r="B5">
+        <v>0.06900000000000003</v>
+      </c>
+      <c r="C5">
+        <v>0.02215571633928448</v>
+      </c>
+      <c r="D5">
+        <v>266.004765307869</v>
+      </c>
+      <c r="E5">
+        <v>0.02858165675510676</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>34003.16666666666</v>
+      </c>
+      <c r="B6">
+        <v>0.06937500000000003</v>
+      </c>
+      <c r="C6">
+        <v>0.03854158107401418</v>
+      </c>
+      <c r="D6">
+        <v>266.0269210242083</v>
+      </c>
+      <c r="E6">
+        <v>0.02868171150059699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>34033.58333333334</v>
+      </c>
+      <c r="B7">
+        <v>0.06975000000000003</v>
+      </c>
+      <c r="C7">
+        <v>0.04874480099942957</v>
+      </c>
+      <c r="D7">
+        <v>266.0654626052823</v>
+      </c>
+      <c r="E7">
+        <v>0.02885576446399936</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>34064</v>
+      </c>
+      <c r="B8">
+        <v>0.07012500000000003</v>
+      </c>
+      <c r="C8">
+        <v>0.05134829243002059</v>
+      </c>
+      <c r="D8">
+        <v>266.1142074062817</v>
+      </c>
+      <c r="E8">
+        <v>0.02907589495237027</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>34094.41666666666</v>
+      </c>
+      <c r="B9">
+        <v>0.07050000000000003</v>
+      </c>
+      <c r="C9">
+        <v>0.05300024213056531</v>
+      </c>
+      <c r="D9">
+        <v>266.1655556987117</v>
+      </c>
+      <c r="E9">
+        <v>0.02930778275287162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>34124.83333333334</v>
+      </c>
+      <c r="B10">
+        <v>0.07087500000000004</v>
+      </c>
+      <c r="C10">
+        <v>0.05475470334363308</v>
+      </c>
+      <c r="D10">
+        <v>266.2185559408423</v>
+      </c>
+      <c r="E10">
+        <v>0.02954713072321446</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>34155.25</v>
+      </c>
+      <c r="B11">
+        <v>0.07125000000000004</v>
+      </c>
+      <c r="C11">
+        <v>0.05505176275983104</v>
+      </c>
+      <c r="D11">
+        <v>266.2733106441859</v>
+      </c>
+      <c r="E11">
+        <v>0.02979440180321697</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>34185.66666666666</v>
+      </c>
+      <c r="B12">
+        <v>0.07162500000000004</v>
+      </c>
+      <c r="C12">
+        <v>0.04889277130541814</v>
+      </c>
+      <c r="D12">
+        <v>266.3283624069458</v>
+      </c>
+      <c r="E12">
+        <v>0.03004301439724806</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>34276.91666666666</v>
+      </c>
+      <c r="B13">
+        <v>0.07237500000000004</v>
+      </c>
+      <c r="C13">
+        <v>0.4351494091381483</v>
+      </c>
+      <c r="D13">
+        <v>265.8950331418758</v>
+      </c>
+      <c r="E13">
+        <v>0.02808610861879688</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>34307.33333333334</v>
+      </c>
+      <c r="B14">
+        <v>0.07275000000000004</v>
+      </c>
+      <c r="C14">
+        <v>0.1697573218991693</v>
+      </c>
+      <c r="D14">
+        <v>266.330182551014</v>
+      </c>
+      <c r="E14">
+        <v>0.03005123412928991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>34337.75</v>
+      </c>
+      <c r="B15">
+        <v>0.07312500000000004</v>
+      </c>
+      <c r="C15">
+        <v>0.08963315224377766</v>
+      </c>
+      <c r="D15">
+        <v>266.4999398729132</v>
+      </c>
+      <c r="E15">
+        <v>0.03081785459768891</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>34368.16666666666</v>
+      </c>
+      <c r="B16">
+        <v>0.07350000000000004</v>
+      </c>
+      <c r="C16">
+        <v>0.065068448421016</v>
+      </c>
+      <c r="D16">
+        <v>266.5895730251569</v>
+      </c>
+      <c r="E16">
+        <v>0.03122263601382136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>34398.58333333334</v>
+      </c>
+      <c r="B17">
+        <v>0.07387500000000004</v>
+      </c>
+      <c r="C17">
+        <v>0.05120147929744689</v>
+      </c>
+      <c r="D17">
+        <v>266.654641473578</v>
+      </c>
+      <c r="E17">
+        <v>0.03151648374803662</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>34489.83333333334</v>
+      </c>
+      <c r="B18">
+        <v>0.07462500000000004</v>
+      </c>
+      <c r="C18">
+        <v>0.4675199697217067</v>
+      </c>
+      <c r="D18">
+        <v>266.1817865654797</v>
+      </c>
+      <c r="E18">
+        <v>0.02938108100325027</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
+        <v>34520.25</v>
+      </c>
+      <c r="B19">
+        <v>0.07500000000000004</v>
+      </c>
+      <c r="C19">
+        <v>0.1784628492828233</v>
+      </c>
+      <c r="D19">
+        <v>266.6493065352014</v>
+      </c>
+      <c r="E19">
+        <v>0.03149239127937963</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>34550.66666666666</v>
+      </c>
+      <c r="B20">
+        <v>0.07537500000000004</v>
+      </c>
+      <c r="C20">
+        <v>0.09573294223491757</v>
+      </c>
+      <c r="D20">
+        <v>266.8277693844842</v>
+      </c>
+      <c r="E20">
+        <v>0.03229832572496594</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
+        <v>34581.08333333334</v>
+      </c>
+      <c r="B21">
+        <v>0.07575000000000004</v>
+      </c>
+      <c r="C21">
+        <v>0.06733823462832333</v>
+      </c>
+      <c r="D21">
+        <v>266.9235023267191</v>
+      </c>
+      <c r="E21">
+        <v>0.03273065366343878</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
+        <v>34611.5</v>
+      </c>
+      <c r="B22">
+        <v>0.07612500000000004</v>
+      </c>
+      <c r="C22">
+        <v>0.05976570498705769</v>
+      </c>
+      <c r="D22">
+        <v>266.9908405613475</v>
+      </c>
+      <c r="E22">
+        <v>0.03303475170406766</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
+        <v>34641.91666666666</v>
+      </c>
+      <c r="B23">
+        <v>0.07650000000000004</v>
+      </c>
+      <c r="C23">
+        <v>0.05691361170488562</v>
+      </c>
+      <c r="D23">
+        <v>267.0506062663345</v>
+      </c>
+      <c r="E23">
+        <v>0.03330465236130459</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
+        <v>34672.33333333334</v>
+      </c>
+      <c r="B24">
+        <v>0.07687500000000004</v>
+      </c>
+      <c r="C24">
+        <v>0.05788584277354403</v>
+      </c>
+      <c r="D24">
+        <v>267.1075198780394</v>
+      </c>
+      <c r="E24">
+        <v>0.0335616730257174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
+        <v>34702.75</v>
+      </c>
+      <c r="B25">
+        <v>0.07725000000000004</v>
+      </c>
+      <c r="C25">
+        <v>0.05723330268494919</v>
+      </c>
+      <c r="D25">
+        <v>267.1654057208129</v>
+      </c>
+      <c r="E25">
+        <v>0.03382308426503412</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
+        <v>34733.16666666666</v>
+      </c>
+      <c r="B26">
+        <v>0.07762500000000004</v>
+      </c>
+      <c r="C26">
+        <v>0.05640984243837011</v>
+      </c>
+      <c r="D26">
+        <v>267.2226390234979</v>
+      </c>
+      <c r="E26">
+        <v>0.03408154864713846</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2">
+        <v>34763.58333333334</v>
+      </c>
+      <c r="B27">
+        <v>0.07800000000000004</v>
+      </c>
+      <c r="C27">
+        <v>0.05480283132703789</v>
+      </c>
+      <c r="D27">
+        <v>267.2790488659363</v>
+      </c>
+      <c r="E27">
+        <v>0.03433629430021901</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2">
+        <v>34794</v>
+      </c>
+      <c r="B28">
+        <v>0.07837500000000004</v>
+      </c>
+      <c r="C28">
+        <v>-0.2970579091148693</v>
+      </c>
+      <c r="D28">
+        <v>267.3338516972633</v>
+      </c>
+      <c r="E28">
+        <v>0.03458378272517471</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2">
+        <v>34824.41666666666</v>
+      </c>
+      <c r="B29">
+        <v>0.07837500000000004</v>
+      </c>
+      <c r="C29">
+        <v>-0.1420089504854332</v>
+      </c>
+      <c r="D29">
+        <v>267.0367937881484</v>
+      </c>
+      <c r="E29">
+        <v>0.03324227550251401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2">
+        <v>34854.83333333334</v>
+      </c>
+      <c r="B30">
+        <v>0.07837500000000004</v>
+      </c>
+      <c r="C30">
+        <v>-0.04457243222907437</v>
+      </c>
+      <c r="D30">
+        <v>266.894784837663</v>
+      </c>
+      <c r="E30">
+        <v>0.03260096609140858</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2">
+        <v>34885.25</v>
+      </c>
+      <c r="B31">
+        <v>0.07837500000000004</v>
+      </c>
+      <c r="C31">
+        <v>-0.01341904221510504</v>
+      </c>
+      <c r="D31">
+        <v>266.8502124054339</v>
+      </c>
+      <c r="E31">
+        <v>0.03239967793198883</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2">
+        <v>34915.66666666666</v>
+      </c>
+      <c r="B32">
+        <v>0.07837500000000004</v>
+      </c>
+      <c r="C32">
+        <v>-0.00403863759675005</v>
+      </c>
+      <c r="D32">
+        <v>266.8367933632188</v>
+      </c>
+      <c r="E32">
+        <v>0.03233907782170599</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2">
+        <v>34946.08333333334</v>
+      </c>
+      <c r="B33">
+        <v>0.07837500000000004</v>
+      </c>
+      <c r="C33">
+        <v>-0.001215361773233781</v>
+      </c>
+      <c r="D33">
+        <v>266.8327547256221</v>
+      </c>
+      <c r="E33">
+        <v>0.03232083941990103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2">
+        <v>34976.5</v>
+      </c>
+      <c r="B34">
+        <v>0.07837500000000004</v>
+      </c>
+      <c r="C34">
+        <v>-0.0003657323856032235</v>
+      </c>
+      <c r="D34">
+        <v>266.8315393638488</v>
+      </c>
+      <c r="E34">
+        <v>0.03231535087188765</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2">
+        <v>35006.91666666666</v>
+      </c>
+      <c r="B35">
+        <v>0.07837500000000004</v>
+      </c>
+      <c r="C35">
+        <v>-0.0001100569318168709</v>
+      </c>
+      <c r="D35">
+        <v>266.8311736314632</v>
+      </c>
+      <c r="E35">
+        <v>0.03231369923218446</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2">
+        <v>35037.33333333334</v>
+      </c>
+      <c r="B36">
+        <v>0.07837500000000004</v>
+      </c>
+      <c r="C36">
+        <v>-1.315000355847928</v>
+      </c>
+      <c r="D36">
+        <v>266.8310635745314</v>
+      </c>
+      <c r="E36">
+        <v>0.03231320221741246</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -523,7 +2869,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -552,6 +2898,295 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>35128.58333333334</v>
+      </c>
+      <c r="B2">
+        <v>0.04004166666666667</v>
+      </c>
+      <c r="C2">
+        <v>0.7335758779572643</v>
+      </c>
+      <c r="D2">
+        <v>264.0971095158772</v>
+      </c>
+      <c r="E2">
+        <v>0.01917744176227515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>35159</v>
+      </c>
+      <c r="B3">
+        <v>0.04008333333333334</v>
+      </c>
+      <c r="C3">
+        <v>0.2104207373097324</v>
+      </c>
+      <c r="D3">
+        <v>264.8306853938344</v>
+      </c>
+      <c r="E3">
+        <v>0.02246903647120722</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>35189.41666666666</v>
+      </c>
+      <c r="B4">
+        <v>0.04012500000000001</v>
+      </c>
+      <c r="C4">
+        <v>0.09163144580566041</v>
+      </c>
+      <c r="D4">
+        <v>265.0411061311441</v>
+      </c>
+      <c r="E4">
+        <v>0.02361670564098122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>35219.83333333334</v>
+      </c>
+      <c r="B5">
+        <v>0.04016666666666668</v>
+      </c>
+      <c r="C5">
+        <v>0.05808301350327838</v>
+      </c>
+      <c r="D5">
+        <v>265.1327375769498</v>
+      </c>
+      <c r="E5">
+        <v>0.02416328102539983</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>35250.25</v>
+      </c>
+      <c r="B6">
+        <v>0.04020833333333335</v>
+      </c>
+      <c r="C6">
+        <v>0.05921903014996133</v>
+      </c>
+      <c r="D6">
+        <v>265.1908205904531</v>
+      </c>
+      <c r="E6">
+        <v>0.02471328149620617</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>35280.66666666666</v>
+      </c>
+      <c r="B7">
+        <v>0.04025000000000001</v>
+      </c>
+      <c r="C7">
+        <v>0.04313353207987802</v>
+      </c>
+      <c r="D7">
+        <v>265.250039620603</v>
+      </c>
+      <c r="E7">
+        <v>0.0249807133814632</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>35402.33333333334</v>
+      </c>
+      <c r="B8">
+        <v>0.04041666666666669</v>
+      </c>
+      <c r="C8">
+        <v>1.002324710485823</v>
+      </c>
+      <c r="D8">
+        <v>264.0097917273299</v>
+      </c>
+      <c r="E8">
+        <v>0.01826460673889779</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>35554.41666666666</v>
+      </c>
+      <c r="B9">
+        <v>0.0405416666666667</v>
+      </c>
+      <c r="C9">
+        <v>1.065355656390693</v>
+      </c>
+      <c r="D9">
+        <v>264.0824745113856</v>
+      </c>
+      <c r="E9">
+        <v>0.01926789340961291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>35615.25</v>
+      </c>
+      <c r="B10">
+        <v>0.04062500000000004</v>
+      </c>
+      <c r="C10">
+        <v>0.9426516299066634</v>
+      </c>
+      <c r="D10">
+        <v>264.1295588754487</v>
+      </c>
+      <c r="E10">
+        <v>0.01701543557785937</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>35645.66666666666</v>
+      </c>
+      <c r="B11">
+        <v>0.04066666666666671</v>
+      </c>
+      <c r="C11">
+        <v>0.3793165993139382</v>
+      </c>
+      <c r="D11">
+        <v>265.0722105053553</v>
+      </c>
+      <c r="E11">
+        <v>0.02316468834909241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>35676.08333333334</v>
+      </c>
+      <c r="B12">
+        <v>0.04070833333333337</v>
+      </c>
+      <c r="C12">
+        <v>0.08900247263579786</v>
+      </c>
+      <c r="D12">
+        <v>265.4515271046693</v>
+      </c>
+      <c r="E12">
+        <v>0.02421686093945231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>35706.5</v>
+      </c>
+      <c r="B13">
+        <v>0.04075000000000004</v>
+      </c>
+      <c r="C13">
+        <v>0.06396609841578993</v>
+      </c>
+      <c r="D13">
+        <v>265.5405295773051</v>
+      </c>
+      <c r="E13">
+        <v>0.0248338731562395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>35858.58333333334</v>
+      </c>
+      <c r="B14">
+        <v>0.04083333333333338</v>
+      </c>
+      <c r="C14">
+        <v>0.7647686605664603</v>
+      </c>
+      <c r="D14">
+        <v>264.2505123764853</v>
+      </c>
+      <c r="E14">
+        <v>0.0137462456926475</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>35889</v>
+      </c>
+      <c r="B15">
+        <v>0.04087500000000005</v>
+      </c>
+      <c r="C15">
+        <v>0.3959966185020676</v>
+      </c>
+      <c r="D15">
+        <v>265.0152810370517</v>
+      </c>
+      <c r="E15">
+        <v>0.02010317641228992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>36010.66666666666</v>
+      </c>
+      <c r="B16">
+        <v>0.04100000000000006</v>
+      </c>
+      <c r="C16">
+        <v>0.9472230831983097</v>
+      </c>
+      <c r="D16">
+        <v>264.3486254953903</v>
+      </c>
+      <c r="E16">
+        <v>0.01678628649032642</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>36041.08333333334</v>
+      </c>
+      <c r="B17">
+        <v>0.04104166666666673</v>
+      </c>
+      <c r="C17">
+        <v>0.2767616564590298</v>
+      </c>
+      <c r="D17">
+        <v>265.2958485785886</v>
+      </c>
+      <c r="E17">
+        <v>0.0210109674943419</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>36071.5</v>
+      </c>
+      <c r="B18">
+        <v>0.0410833333333334</v>
+      </c>
+      <c r="C18">
+        <v>-0.02266913673679483</v>
+      </c>
+      <c r="D18">
+        <v>265.5726102350476</v>
+      </c>
+      <c r="E18">
+        <v>0.02016156600233316</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -559,7 +3194,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -588,6 +3223,1859 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>36101.91666666666</v>
+      </c>
+      <c r="B2">
+        <v>0.04112500000000006</v>
+      </c>
+      <c r="C2">
+        <v>-1.294844389871514</v>
+      </c>
+      <c r="D2">
+        <v>265.5499410983108</v>
+      </c>
+      <c r="E2">
+        <v>0.02164591615373944</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>36132.33333333334</v>
+      </c>
+      <c r="B3">
+        <v>0.04116666666666673</v>
+      </c>
+      <c r="C3">
+        <v>-0.5544601728332736</v>
+      </c>
+      <c r="D3">
+        <v>264.2550967084393</v>
+      </c>
+      <c r="E3">
+        <v>0.01923904299824107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>36162.75</v>
+      </c>
+      <c r="B4">
+        <v>0.0412083333333334</v>
+      </c>
+      <c r="C4">
+        <v>-0.3723010768678705</v>
+      </c>
+      <c r="D4">
+        <v>263.700636535606</v>
+      </c>
+      <c r="E4">
+        <v>0.01243569707070494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>36193.16666666666</v>
+      </c>
+      <c r="B5">
+        <v>0.04125000000000007</v>
+      </c>
+      <c r="C5">
+        <v>-0.1265542468179319</v>
+      </c>
+      <c r="D5">
+        <v>263.3283354587381</v>
+      </c>
+      <c r="E5">
+        <v>0.009805200917680112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>36223.58333333334</v>
+      </c>
+      <c r="B6">
+        <v>0.04129166666666674</v>
+      </c>
+      <c r="C6">
+        <v>-0.08104858485887689</v>
+      </c>
+      <c r="D6">
+        <v>263.2017812119202</v>
+      </c>
+      <c r="E6">
+        <v>0.007902146478438293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>36254</v>
+      </c>
+      <c r="B7">
+        <v>0.04133333333333341</v>
+      </c>
+      <c r="C7">
+        <v>0.004948375068352107</v>
+      </c>
+      <c r="D7">
+        <v>263.1207326270613</v>
+      </c>
+      <c r="E7">
+        <v>0.007625411185589633</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>36284.41666666666</v>
+      </c>
+      <c r="B8">
+        <v>0.04133333333333341</v>
+      </c>
+      <c r="C8">
+        <v>-0.4007809183037807</v>
+      </c>
+      <c r="D8">
+        <v>263.1256810021297</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>36406.08333333334</v>
+      </c>
+      <c r="B9">
+        <v>0.04141666666666675</v>
+      </c>
+      <c r="C9">
+        <v>0.09314171299149621</v>
+      </c>
+      <c r="D9">
+        <v>263.0383283529508</v>
+      </c>
+      <c r="E9">
+        <v>0.006659139327831292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>36436.5</v>
+      </c>
+      <c r="B10">
+        <v>0.04145833333333342</v>
+      </c>
+      <c r="C10">
+        <v>0.02811079633158897</v>
+      </c>
+      <c r="D10">
+        <v>263.1314700659423</v>
+      </c>
+      <c r="E10">
+        <v>0.006709622926745589</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>36466.91666666666</v>
+      </c>
+      <c r="B11">
+        <v>0.04150000000000009</v>
+      </c>
+      <c r="C11">
+        <v>-0.105399844000317</v>
+      </c>
+      <c r="D11">
+        <v>263.1595808622739</v>
+      </c>
+      <c r="E11">
+        <v>0.004268687223105185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>36497.33333333334</v>
+      </c>
+      <c r="B12">
+        <v>0.04154166666666675</v>
+      </c>
+      <c r="C12">
+        <v>-0.002419638183368988</v>
+      </c>
+      <c r="D12">
+        <v>263.0541810182735</v>
+      </c>
+      <c r="E12">
+        <v>0.003740407014122274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>36527.75</v>
+      </c>
+      <c r="B13">
+        <v>0.04158333333333342</v>
+      </c>
+      <c r="C13">
+        <v>0.04375929027617076</v>
+      </c>
+      <c r="D13">
+        <v>263.0517613800902</v>
+      </c>
+      <c r="E13">
+        <v>0.004100938948769403</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>36558.16666666666</v>
+      </c>
+      <c r="B14">
+        <v>0.04162500000000009</v>
+      </c>
+      <c r="C14">
+        <v>-0.04292809488390503</v>
+      </c>
+      <c r="D14">
+        <v>263.0955206703663</v>
+      </c>
+      <c r="E14">
+        <v>0.002822994774684499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>36588.58333333334</v>
+      </c>
+      <c r="B15">
+        <v>0.04166666666666676</v>
+      </c>
+      <c r="C15">
+        <v>-0.1260817182353549</v>
+      </c>
+      <c r="D15">
+        <v>263.0525925754824</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>36649.41666666666</v>
+      </c>
+      <c r="B16">
+        <v>0.0417500000000001</v>
+      </c>
+      <c r="C16">
+        <v>0.04115858021782515</v>
+      </c>
+      <c r="D16">
+        <v>263.0251448820333</v>
+      </c>
+      <c r="E16">
+        <v>0.001694968141138603</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>36679.83333333334</v>
+      </c>
+      <c r="B17">
+        <v>0.04179166666666677</v>
+      </c>
+      <c r="C17">
+        <v>0.04102077966672368</v>
+      </c>
+      <c r="D17">
+        <v>263.0663034622511</v>
+      </c>
+      <c r="E17">
+        <v>0.002003346056176383</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>36710.25</v>
+      </c>
+      <c r="B18">
+        <v>0.04183333333333344</v>
+      </c>
+      <c r="C18">
+        <v>0.00510945112648642</v>
+      </c>
+      <c r="D18">
+        <v>263.1073242419178</v>
+      </c>
+      <c r="E18">
+        <v>0.001655855305692373</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
+        <v>36740.66666666666</v>
+      </c>
+      <c r="B19">
+        <v>0.04187500000000011</v>
+      </c>
+      <c r="C19">
+        <v>-0.06869431497023015</v>
+      </c>
+      <c r="D19">
+        <v>263.1124336930443</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>36771.08333333334</v>
+      </c>
+      <c r="B20">
+        <v>0.04187500000000011</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>263.0437393780741</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
+        <v>36801.5</v>
+      </c>
+      <c r="B21">
+        <v>0.04187500000000011</v>
+      </c>
+      <c r="C21">
+        <v>0.003968762027170669</v>
+      </c>
+      <c r="D21">
+        <v>263.0437393780741</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
+        <v>36831.91666666666</v>
+      </c>
+      <c r="B22">
+        <v>0.04191666666666678</v>
+      </c>
+      <c r="C22">
+        <v>0.02469325483900775</v>
+      </c>
+      <c r="D22">
+        <v>263.0477081401012</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
+        <v>36862.33333333334</v>
+      </c>
+      <c r="B23">
+        <v>0.04195833333333344</v>
+      </c>
+      <c r="C23">
+        <v>0.02487915292056186</v>
+      </c>
+      <c r="D23">
+        <v>263.0724013949402</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
+        <v>36892.75</v>
+      </c>
+      <c r="B24">
+        <v>0.04200000000000011</v>
+      </c>
+      <c r="C24">
+        <v>0.3985002881556738</v>
+      </c>
+      <c r="D24">
+        <v>263.0972805478608</v>
+      </c>
+      <c r="E24">
+        <v>0.006955056226514145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
+        <v>36923.16666666666</v>
+      </c>
+      <c r="B25">
+        <v>0.04204166666666678</v>
+      </c>
+      <c r="C25">
+        <v>0.1819117830995083</v>
+      </c>
+      <c r="D25">
+        <v>263.4957808360165</v>
+      </c>
+      <c r="E25">
+        <v>0.009771297912933347</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
+        <v>36953.58333333334</v>
+      </c>
+      <c r="B26">
+        <v>0.04204166666666678</v>
+      </c>
+      <c r="C26">
+        <v>-0.5324398872954816</v>
+      </c>
+      <c r="D26">
+        <v>263.677692619116</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2">
+        <v>36984</v>
+      </c>
+      <c r="B27">
+        <v>0.04208333333333345</v>
+      </c>
+      <c r="C27">
+        <v>0.02377772525414912</v>
+      </c>
+      <c r="D27">
+        <v>263.1452527318205</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2">
+        <v>37014.41666666666</v>
+      </c>
+      <c r="B28">
+        <v>0.04212500000000012</v>
+      </c>
+      <c r="C28">
+        <v>0.422062048523685</v>
+      </c>
+      <c r="D28">
+        <v>263.1690304570747</v>
+      </c>
+      <c r="E28">
+        <v>0.007367671934833181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2">
+        <v>37044.83333333334</v>
+      </c>
+      <c r="B29">
+        <v>0.04216666666666679</v>
+      </c>
+      <c r="C29">
+        <v>0.04221821996645758</v>
+      </c>
+      <c r="D29">
+        <v>263.5910925055983</v>
+      </c>
+      <c r="E29">
+        <v>0.007698036577129551</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2">
+        <v>37075.25</v>
+      </c>
+      <c r="B30">
+        <v>0.04220833333333346</v>
+      </c>
+      <c r="C30">
+        <v>0.05546308663883792</v>
+      </c>
+      <c r="D30">
+        <v>263.6333107255648</v>
+      </c>
+      <c r="E30">
+        <v>0.008225776231138529</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2">
+        <v>37105.66666666666</v>
+      </c>
+      <c r="B31">
+        <v>0.04225000000000013</v>
+      </c>
+      <c r="C31">
+        <v>0.06526350427759553</v>
+      </c>
+      <c r="D31">
+        <v>263.6887738122036</v>
+      </c>
+      <c r="E31">
+        <v>0.008876320623015759</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2">
+        <v>37136.08333333334</v>
+      </c>
+      <c r="B32">
+        <v>0.0422916666666668</v>
+      </c>
+      <c r="C32">
+        <v>0.008635646251036633</v>
+      </c>
+      <c r="D32">
+        <v>263.7540373164812</v>
+      </c>
+      <c r="E32">
+        <v>0.008597838671603625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2">
+        <v>37166.5</v>
+      </c>
+      <c r="B33">
+        <v>0.04233333333333347</v>
+      </c>
+      <c r="C33">
+        <v>-0.02246485295711409</v>
+      </c>
+      <c r="D33">
+        <v>263.7626729627323</v>
+      </c>
+      <c r="E33">
+        <v>0.007803574643416029</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2">
+        <v>37196.91666666666</v>
+      </c>
+      <c r="B34">
+        <v>0.04237500000000013</v>
+      </c>
+      <c r="C34">
+        <v>-0.008246343750897722</v>
+      </c>
+      <c r="D34">
+        <v>263.7402081097752</v>
+      </c>
+      <c r="E34">
+        <v>0.007208672610474895</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2">
+        <v>37227.33333333334</v>
+      </c>
+      <c r="B35">
+        <v>0.0424166666666668</v>
+      </c>
+      <c r="C35">
+        <v>-0.3731117481096362</v>
+      </c>
+      <c r="D35">
+        <v>263.7319617660243</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2">
+        <v>37257.75</v>
+      </c>
+      <c r="B36">
+        <v>0.04245833333333347</v>
+      </c>
+      <c r="C36">
+        <v>0.02331730492403494</v>
+      </c>
+      <c r="D36">
+        <v>263.3588500179146</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
+        <v>37288.16666666666</v>
+      </c>
+      <c r="B37">
+        <v>0.04250000000000014</v>
+      </c>
+      <c r="C37">
+        <v>0.2922591558046861</v>
+      </c>
+      <c r="D37">
+        <v>263.3821673228387</v>
+      </c>
+      <c r="E37">
+        <v>0.004875568870427652</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>37318.58333333334</v>
+      </c>
+      <c r="B38">
+        <v>0.04254166666666681</v>
+      </c>
+      <c r="C38">
+        <v>0.1009471062204739</v>
+      </c>
+      <c r="D38">
+        <v>263.6744264786433</v>
+      </c>
+      <c r="E38">
+        <v>0.006255705080339033</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>37349</v>
+      </c>
+      <c r="B39">
+        <v>0.04258333333333348</v>
+      </c>
+      <c r="C39">
+        <v>-0.3276657164324206</v>
+      </c>
+      <c r="D39">
+        <v>263.7753735848638</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>37379.41666666666</v>
+      </c>
+      <c r="B40">
+        <v>0.04258333333333348</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>263.4477078684314</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2">
+        <v>37409.83333333334</v>
+      </c>
+      <c r="B41">
+        <v>0.04258333333333348</v>
+      </c>
+      <c r="C41">
+        <v>0.00467538731913919</v>
+      </c>
+      <c r="D41">
+        <v>263.4477078684314</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
+        <v>37440.25</v>
+      </c>
+      <c r="B42">
+        <v>0.04262500000000015</v>
+      </c>
+      <c r="C42">
+        <v>0.02428027138421385</v>
+      </c>
+      <c r="D42">
+        <v>263.4523832557505</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2">
+        <v>37470.66666666666</v>
+      </c>
+      <c r="B43">
+        <v>0.04266666666666682</v>
+      </c>
+      <c r="C43">
+        <v>0.4915252736493585</v>
+      </c>
+      <c r="D43">
+        <v>263.4766635271347</v>
+      </c>
+      <c r="E43">
+        <v>0.008332155282383734</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2">
+        <v>37501.08333333334</v>
+      </c>
+      <c r="B44">
+        <v>0.04270833333333349</v>
+      </c>
+      <c r="C44">
+        <v>0.1982612731533209</v>
+      </c>
+      <c r="D44">
+        <v>263.9681888007841</v>
+      </c>
+      <c r="E44">
+        <v>0.01114217771876815</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2">
+        <v>37531.5</v>
+      </c>
+      <c r="B45">
+        <v>0.04275000000000016</v>
+      </c>
+      <c r="C45">
+        <v>-0.005206685945609024</v>
+      </c>
+      <c r="D45">
+        <v>264.1664500739374</v>
+      </c>
+      <c r="E45">
+        <v>0.01064129744679712</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2">
+        <v>37561.91666666666</v>
+      </c>
+      <c r="B46">
+        <v>0.04279166666666682</v>
+      </c>
+      <c r="C46">
+        <v>-0.5883204508592144</v>
+      </c>
+      <c r="D46">
+        <v>264.1612433879918</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2">
+        <v>37592.33333333334</v>
+      </c>
+      <c r="B47">
+        <v>0.04283333333333349</v>
+      </c>
+      <c r="C47">
+        <v>0.5933070266455616</v>
+      </c>
+      <c r="D47">
+        <v>263.5729229371326</v>
+      </c>
+      <c r="E47">
+        <v>0.009887847382475216</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2">
+        <v>37622.75</v>
+      </c>
+      <c r="B48">
+        <v>0.04287500000000016</v>
+      </c>
+      <c r="C48">
+        <v>0.2046762494276209</v>
+      </c>
+      <c r="D48">
+        <v>264.1662299637782</v>
+      </c>
+      <c r="E48">
+        <v>0.01276305629593067</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2">
+        <v>37653.16666666666</v>
+      </c>
+      <c r="B49">
+        <v>0.04291666666666683</v>
+      </c>
+      <c r="C49">
+        <v>-0.724960387256715</v>
+      </c>
+      <c r="D49">
+        <v>264.3709062132058</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2">
+        <v>37683.58333333334</v>
+      </c>
+      <c r="B50">
+        <v>0.0429583333333335</v>
+      </c>
+      <c r="C50">
+        <v>0.5059105781665494</v>
+      </c>
+      <c r="D50">
+        <v>263.6459458259491</v>
+      </c>
+      <c r="E50">
+        <v>0.008450756998998672</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2">
+        <v>37714</v>
+      </c>
+      <c r="B51">
+        <v>0.04300000000000017</v>
+      </c>
+      <c r="C51">
+        <v>0.1362120482890532</v>
+      </c>
+      <c r="D51">
+        <v>264.1518564041156</v>
+      </c>
+      <c r="E51">
+        <v>0.01022755804551022</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2">
+        <v>37744.41666666666</v>
+      </c>
+      <c r="B52">
+        <v>0.04304166666666684</v>
+      </c>
+      <c r="C52">
+        <v>0.04417960682883404</v>
+      </c>
+      <c r="D52">
+        <v>264.2880684524047</v>
+      </c>
+      <c r="E52">
+        <v>0.01051576720288678</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>37774.83333333334</v>
+      </c>
+      <c r="B53">
+        <v>0.04308333333333351</v>
+      </c>
+      <c r="C53">
+        <v>-0.01112963497223518</v>
+      </c>
+      <c r="D53">
+        <v>264.3322480592335</v>
+      </c>
+      <c r="E53">
+        <v>0.009938297659873561</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>37805.25</v>
+      </c>
+      <c r="B54">
+        <v>0.04312500000000018</v>
+      </c>
+      <c r="C54">
+        <v>0.008518194375028543</v>
+      </c>
+      <c r="D54">
+        <v>264.3211184242613</v>
+      </c>
+      <c r="E54">
+        <v>0.009691596724747177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="2">
+        <v>37835.66666666666</v>
+      </c>
+      <c r="B55">
+        <v>0.04316666666666685</v>
+      </c>
+      <c r="C55">
+        <v>0.1501271981184118</v>
+      </c>
+      <c r="D55">
+        <v>264.3296366186363</v>
+      </c>
+      <c r="E55">
+        <v>0.01172864931996423</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="2">
+        <v>37866.08333333334</v>
+      </c>
+      <c r="B56">
+        <v>0.04316666666666685</v>
+      </c>
+      <c r="C56">
+        <v>-0.6881961391060258</v>
+      </c>
+      <c r="D56">
+        <v>264.4797638167547</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="2">
+        <v>37896.5</v>
+      </c>
+      <c r="B57">
+        <v>0.04320833333333352</v>
+      </c>
+      <c r="C57">
+        <v>0.02538084221373538</v>
+      </c>
+      <c r="D57">
+        <v>263.7915676776487</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="2">
+        <v>37926.91666666666</v>
+      </c>
+      <c r="B58">
+        <v>0.04325000000000018</v>
+      </c>
+      <c r="C58">
+        <v>0.5570868801044071</v>
+      </c>
+      <c r="D58">
+        <v>263.8169485198624</v>
+      </c>
+      <c r="E58">
+        <v>0.009149185943320499</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="2">
+        <v>37957.33333333334</v>
+      </c>
+      <c r="B59">
+        <v>0.04329166666666685</v>
+      </c>
+      <c r="C59">
+        <v>0.1531214066762914</v>
+      </c>
+      <c r="D59">
+        <v>264.3740353999668</v>
+      </c>
+      <c r="E59">
+        <v>0.01116304551895988</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="2">
+        <v>37987.75</v>
+      </c>
+      <c r="B60">
+        <v>0.04333333333333352</v>
+      </c>
+      <c r="C60">
+        <v>0.06817341663213483</v>
+      </c>
+      <c r="D60">
+        <v>264.5271568066431</v>
+      </c>
+      <c r="E60">
+        <v>0.01183988602391347</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="2">
+        <v>38018.16666666666</v>
+      </c>
+      <c r="B61">
+        <v>0.04337500000000019</v>
+      </c>
+      <c r="C61">
+        <v>-0.03058795215520149</v>
+      </c>
+      <c r="D61">
+        <v>264.5953302232753</v>
+      </c>
+      <c r="E61">
+        <v>0.01095457000985935</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="2">
+        <v>38048.58333333334</v>
+      </c>
+      <c r="B62">
+        <v>0.04341666666666686</v>
+      </c>
+      <c r="C62">
+        <v>-0.0205067754097854</v>
+      </c>
+      <c r="D62">
+        <v>264.5647422711201</v>
+      </c>
+      <c r="E62">
+        <v>0.01024280995759989</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="2">
+        <v>38079</v>
+      </c>
+      <c r="B63">
+        <v>0.04345833333333353</v>
+      </c>
+      <c r="C63">
+        <v>-0.03430358900732244</v>
+      </c>
+      <c r="D63">
+        <v>264.5442354957103</v>
+      </c>
+      <c r="E63">
+        <v>0.00940720774074038</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="2">
+        <v>38109.41666666666</v>
+      </c>
+      <c r="B64">
+        <v>0.04345833333333353</v>
+      </c>
+      <c r="C64">
+        <v>-0.5494266200980746</v>
+      </c>
+      <c r="D64">
+        <v>264.5099319067029</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="2">
+        <v>38139.83333333334</v>
+      </c>
+      <c r="B65">
+        <v>0.0435000000000002</v>
+      </c>
+      <c r="C65">
+        <v>0.0244902781169003</v>
+      </c>
+      <c r="D65">
+        <v>263.9605052866049</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="2">
+        <v>38170.25</v>
+      </c>
+      <c r="B66">
+        <v>0.04354166666666687</v>
+      </c>
+      <c r="C66">
+        <v>0.02567388072156973</v>
+      </c>
+      <c r="D66">
+        <v>263.9849955647218</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="2">
+        <v>38200.66666666666</v>
+      </c>
+      <c r="B67">
+        <v>0.04358333333333354</v>
+      </c>
+      <c r="C67">
+        <v>0.4008122371145646</v>
+      </c>
+      <c r="D67">
+        <v>264.0106694454433</v>
+      </c>
+      <c r="E67">
+        <v>0.006440315292041966</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="2">
+        <v>38231.08333333334</v>
+      </c>
+      <c r="B68">
+        <v>0.04362500000000021</v>
+      </c>
+      <c r="C68">
+        <v>0.1667239979929036</v>
+      </c>
+      <c r="D68">
+        <v>264.4114816825579</v>
+      </c>
+      <c r="E68">
+        <v>0.008857980103066808</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="2">
+        <v>38261.5</v>
+      </c>
+      <c r="B69">
+        <v>0.04362500000000021</v>
+      </c>
+      <c r="C69">
+        <v>-0.5223361238896587</v>
+      </c>
+      <c r="D69">
+        <v>264.5782056805508</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="2">
+        <v>38291.91666666666</v>
+      </c>
+      <c r="B70">
+        <v>0.04362500000000021</v>
+      </c>
+      <c r="C70">
+        <v>0.02215733170055501</v>
+      </c>
+      <c r="D70">
+        <v>264.0558695566612</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="2">
+        <v>38322.33333333334</v>
+      </c>
+      <c r="B71">
+        <v>0.04366666666666687</v>
+      </c>
+      <c r="C71">
+        <v>0.4184656650213583</v>
+      </c>
+      <c r="D71">
+        <v>264.0780268883617</v>
+      </c>
+      <c r="E71">
+        <v>0.006737021707633469</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="2">
+        <v>38352.75</v>
+      </c>
+      <c r="B72">
+        <v>0.04370833333333354</v>
+      </c>
+      <c r="C72">
+        <v>0.1399376998048183</v>
+      </c>
+      <c r="D72">
+        <v>264.4964925533831</v>
+      </c>
+      <c r="E72">
+        <v>0.008626803783237295</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="2">
+        <v>38383.16666666666</v>
+      </c>
+      <c r="B73">
+        <v>0.04375000000000021</v>
+      </c>
+      <c r="C73">
+        <v>0.0140807393194109</v>
+      </c>
+      <c r="D73">
+        <v>264.6364302531879</v>
+      </c>
+      <c r="E73">
+        <v>0.008467252664653898</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="2">
+        <v>38413.58333333334</v>
+      </c>
+      <c r="B74">
+        <v>0.04379166666666688</v>
+      </c>
+      <c r="C74">
+        <v>-0.4146923847754351</v>
+      </c>
+      <c r="D74">
+        <v>264.6505109925073</v>
+      </c>
+      <c r="E74">
+        <v>0.001075360927833165</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="2">
+        <v>38444</v>
+      </c>
+      <c r="B75">
+        <v>0.04383333333333355</v>
+      </c>
+      <c r="C75">
+        <v>-0.04549265985167494</v>
+      </c>
+      <c r="D75">
+        <v>264.2358186077319</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="2">
+        <v>38474.41666666666</v>
+      </c>
+      <c r="B76">
+        <v>0.04383333333333355</v>
+      </c>
+      <c r="C76">
+        <v>0.003861245770167443</v>
+      </c>
+      <c r="D76">
+        <v>264.1903259478802</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="2">
+        <v>38504.83333333334</v>
+      </c>
+      <c r="B77">
+        <v>0.04387500000000022</v>
+      </c>
+      <c r="C77">
+        <v>0.2737734135959045</v>
+      </c>
+      <c r="D77">
+        <v>264.1941871936504</v>
+      </c>
+      <c r="E77">
+        <v>0.004244636029012049</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="2">
+        <v>38535.25</v>
+      </c>
+      <c r="B78">
+        <v>0.04391666666666689</v>
+      </c>
+      <c r="C78">
+        <v>0.1025758045582279</v>
+      </c>
+      <c r="D78">
+        <v>264.4679606072463</v>
+      </c>
+      <c r="E78">
+        <v>0.005566225711330421</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="2">
+        <v>38565.66666666666</v>
+      </c>
+      <c r="B79">
+        <v>0.04395833333333356</v>
+      </c>
+      <c r="C79">
+        <v>-0.3054490826593792</v>
+      </c>
+      <c r="D79">
+        <v>264.5705364118045</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="2">
+        <v>38596.08333333334</v>
+      </c>
+      <c r="B80">
+        <v>0.04400000000000023</v>
+      </c>
+      <c r="C80">
+        <v>0.192226125814841</v>
+      </c>
+      <c r="D80">
+        <v>264.2650873291451</v>
+      </c>
+      <c r="E80">
+        <v>0.002855737414541853</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="2">
+        <v>38626.5</v>
+      </c>
+      <c r="B81">
+        <v>0.0440416666666669</v>
+      </c>
+      <c r="C81">
+        <v>0.09885347127510613</v>
+      </c>
+      <c r="D81">
+        <v>264.4573134549599</v>
+      </c>
+      <c r="E81">
+        <v>0.004136220468473665</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="2">
+        <v>38656.91666666666</v>
+      </c>
+      <c r="B82">
+        <v>0.04408333333333356</v>
+      </c>
+      <c r="C82">
+        <v>0.05196548384628841</v>
+      </c>
+      <c r="D82">
+        <v>264.5561669262351</v>
+      </c>
+      <c r="E82">
+        <v>0.004582640649965396</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="2">
+        <v>38687.33333333334</v>
+      </c>
+      <c r="B83">
+        <v>0.04412500000000023</v>
+      </c>
+      <c r="C83">
+        <v>-0.01666062493814024</v>
+      </c>
+      <c r="D83">
+        <v>264.6081324100813</v>
+      </c>
+      <c r="E83">
+        <v>0.003923178555314094</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="2">
+        <v>38717.75</v>
+      </c>
+      <c r="B84">
+        <v>0.0441666666666669</v>
+      </c>
+      <c r="C84">
+        <v>0.01895119221478581</v>
+      </c>
+      <c r="D84">
+        <v>264.5914717851432</v>
+      </c>
+      <c r="E84">
+        <v>0.003847939526145749</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="2">
+        <v>38748.16666666666</v>
+      </c>
+      <c r="B85">
+        <v>0.04420833333333357</v>
+      </c>
+      <c r="C85">
+        <v>-0.006377945587132672</v>
+      </c>
+      <c r="D85">
+        <v>264.610422977358</v>
+      </c>
+      <c r="E85">
+        <v>0.00333430164069104</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="2">
+        <v>38778.58333333334</v>
+      </c>
+      <c r="B86">
+        <v>0.04425000000000024</v>
+      </c>
+      <c r="C86">
+        <v>-0.006999095223818586</v>
+      </c>
+      <c r="D86">
+        <v>264.6040450317709</v>
+      </c>
+      <c r="E86">
+        <v>0.002828070695184319</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="2">
+        <v>38809</v>
+      </c>
+      <c r="B87">
+        <v>0.04429166666666691</v>
+      </c>
+      <c r="C87">
+        <v>0.01269276333755442</v>
+      </c>
+      <c r="D87">
+        <v>264.597045936547</v>
+      </c>
+      <c r="E87">
+        <v>0.002733660539465301</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="2">
+        <v>38839.41666666666</v>
+      </c>
+      <c r="B88">
+        <v>0.04429166666666691</v>
+      </c>
+      <c r="C88">
+        <v>-0.1633377039256629</v>
+      </c>
+      <c r="D88">
+        <v>264.6097386998846</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="2">
+        <v>38869.83333333334</v>
+      </c>
+      <c r="B89">
+        <v>0.04429166666666691</v>
+      </c>
+      <c r="C89">
+        <v>0.003987478204862782</v>
+      </c>
+      <c r="D89">
+        <v>264.4464009959589</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="2">
+        <v>38900.25</v>
+      </c>
+      <c r="B90">
+        <v>0.04433333333333358</v>
+      </c>
+      <c r="C90">
+        <v>0.1586265992195877</v>
+      </c>
+      <c r="D90">
+        <v>264.4503884741638</v>
+      </c>
+      <c r="E90">
+        <v>0.00223884690693835</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="2">
+        <v>38930.66666666666</v>
+      </c>
+      <c r="B91">
+        <v>0.04437500000000025</v>
+      </c>
+      <c r="C91">
+        <v>0.003015567021293464</v>
+      </c>
+      <c r="D91">
+        <v>264.6090150733834</v>
+      </c>
+      <c r="E91">
+        <v>0.001914698035890509</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="2">
+        <v>38961.08333333334</v>
+      </c>
+      <c r="B92">
+        <v>0.04441666666666692</v>
+      </c>
+      <c r="C92">
+        <v>-0.03846241027929409</v>
+      </c>
+      <c r="D92">
+        <v>264.6120306404047</v>
+      </c>
+      <c r="E92">
+        <v>0.0009003090777010024</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="2">
+        <v>38991.5</v>
+      </c>
+      <c r="B93">
+        <v>0.04445833333333359</v>
+      </c>
+      <c r="C93">
+        <v>-0.004839433246957014</v>
+      </c>
+      <c r="D93">
+        <v>264.5735682301254</v>
+      </c>
+      <c r="E93">
+        <v>0.0004517433238507337</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="2">
+        <v>39021.91666666666</v>
+      </c>
+      <c r="B94">
+        <v>0.04450000000000025</v>
+      </c>
+      <c r="C94">
+        <v>0.02150660811776106</v>
+      </c>
+      <c r="D94">
+        <v>264.5687287968784</v>
+      </c>
+      <c r="E94">
+        <v>0.0004298885458590993</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="2">
+        <v>39052.33333333334</v>
+      </c>
+      <c r="B95">
+        <v>0.04454166666666692</v>
+      </c>
+      <c r="C95">
+        <v>0.05218040329759788</v>
+      </c>
+      <c r="D95">
+        <v>264.5902354049962</v>
+      </c>
+      <c r="E95">
+        <v>0.0009031466981094046</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="2">
+        <v>39082.75</v>
+      </c>
+      <c r="B96">
+        <v>0.04458333333333359</v>
+      </c>
+      <c r="C96">
+        <v>0.03704809418991317</v>
+      </c>
+      <c r="D96">
+        <v>264.6424158082938</v>
+      </c>
+      <c r="E96">
+        <v>0.001138792293655488</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="2">
+        <v>39113.16666666666</v>
+      </c>
+      <c r="B97">
+        <v>0.04462500000000026</v>
+      </c>
+      <c r="C97">
+        <v>0.06437533985445043</v>
+      </c>
+      <c r="D97">
+        <v>264.6794639024837</v>
+      </c>
+      <c r="E97">
+        <v>0.001817226522361393</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="2">
+        <v>39143.58333333334</v>
+      </c>
+      <c r="B98">
+        <v>0.04466666666666693</v>
+      </c>
+      <c r="C98">
+        <v>-0.08257478057055323</v>
+      </c>
+      <c r="D98">
+        <v>264.7438392423381</v>
+      </c>
+      <c r="E98">
+        <v>0.0001305587604975036</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="2">
+        <v>39174</v>
+      </c>
+      <c r="B99">
+        <v>0.04466666666666693</v>
+      </c>
+      <c r="C99">
+        <v>-0.003533856861281492</v>
+      </c>
+      <c r="D99">
+        <v>264.6612644617676</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="2">
+        <v>39204.41666666666</v>
+      </c>
+      <c r="B100">
+        <v>0.0447083333333336</v>
+      </c>
+      <c r="C100">
+        <v>0.02310247556874856</v>
+      </c>
+      <c r="D100">
+        <v>264.6577306049063</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="2">
+        <v>39234.83333333334</v>
+      </c>
+      <c r="B101">
+        <v>0.04475000000000027</v>
+      </c>
+      <c r="C101">
+        <v>0.02176113412042469</v>
+      </c>
+      <c r="D101">
+        <v>264.6808330804751</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="2">
+        <v>39265.25</v>
+      </c>
+      <c r="B102">
+        <v>0.04479166666666694</v>
+      </c>
+      <c r="C102">
+        <v>0.02298418304690131</v>
+      </c>
+      <c r="D102">
+        <v>264.7025942145955</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="2">
+        <v>39295.66666666666</v>
+      </c>
+      <c r="B103">
+        <v>0.04483333333333361</v>
+      </c>
+      <c r="C103">
+        <v>0.02304626891782391</v>
+      </c>
+      <c r="D103">
+        <v>264.7255783976424</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="2">
+        <v>39326.08333333334</v>
+      </c>
+      <c r="B104">
+        <v>0.04487500000000028</v>
+      </c>
+      <c r="C104">
+        <v>0.02225012637711643</v>
+      </c>
+      <c r="D104">
+        <v>264.7486246665602</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="2">
+        <v>39356.5</v>
+      </c>
+      <c r="B105">
+        <v>0.04491666666666694</v>
+      </c>
+      <c r="C105">
+        <v>0.02185751384320156</v>
+      </c>
+      <c r="D105">
+        <v>264.7708747929373</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="2">
+        <v>39386.91666666666</v>
+      </c>
+      <c r="B106">
+        <v>0.04495833333333361</v>
+      </c>
+      <c r="C106">
+        <v>0.02216281552625787</v>
+      </c>
+      <c r="D106">
+        <v>264.7927323067805</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="2">
+        <v>39417.33333333334</v>
+      </c>
+      <c r="B107">
+        <v>0.04500000000000028</v>
+      </c>
+      <c r="C107">
+        <v>0.02201728732723041</v>
+      </c>
+      <c r="D107">
+        <v>264.8148951223068</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="2">
+        <v>39447.75</v>
+      </c>
+      <c r="B108">
+        <v>0.04504166666666695</v>
+      </c>
+      <c r="C108">
+        <v>0.02198911268919801</v>
+      </c>
+      <c r="D108">
+        <v>264.836912409634</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="2">
+        <v>39478.16666666666</v>
+      </c>
+      <c r="B109">
+        <v>0.04508333333333362</v>
+      </c>
+      <c r="C109">
+        <v>-1.142548619162085</v>
+      </c>
+      <c r="D109">
+        <v>264.8589015223232</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="2">
+        <v>39508.58333333334</v>
+      </c>
+      <c r="B110">
+        <v>0.04512500000000029</v>
+      </c>
+      <c r="C110">
+        <v>0.01076177232914688</v>
+      </c>
+      <c r="D110">
+        <v>263.7163529031611</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -595,7 +5083,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -624,6 +5112,771 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>41059.83333333334</v>
+      </c>
+      <c r="B2">
+        <v>0.04512500000000029</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>263.7271146754903</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>41090.25</v>
+      </c>
+      <c r="B3">
+        <v>0.04512500000000029</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>263.7271146754903</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>41120.66666666666</v>
+      </c>
+      <c r="B4">
+        <v>0.04512500000000029</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>263.7271146754903</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>41151.08333333334</v>
+      </c>
+      <c r="B5">
+        <v>0.04512500000000029</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>263.7271146754903</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>41181.5</v>
+      </c>
+      <c r="B6">
+        <v>0.04512500000000029</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>263.7271146754903</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>41211.91666666666</v>
+      </c>
+      <c r="B7">
+        <v>0.04512500000000029</v>
+      </c>
+      <c r="C7">
+        <v>0.01505299438133534</v>
+      </c>
+      <c r="D7">
+        <v>263.7271146754903</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>41242.33333333334</v>
+      </c>
+      <c r="B8">
+        <v>0.04516666666666696</v>
+      </c>
+      <c r="C8">
+        <v>0.01705406616054006</v>
+      </c>
+      <c r="D8">
+        <v>263.7421676698716</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>41272.75</v>
+      </c>
+      <c r="B9">
+        <v>0.04520833333333363</v>
+      </c>
+      <c r="C9">
+        <v>-0.7105606095603889</v>
+      </c>
+      <c r="D9">
+        <v>263.7592217360321</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>41364</v>
+      </c>
+      <c r="B10">
+        <v>0.04533333333333363</v>
+      </c>
+      <c r="C10">
+        <v>-0.7907832134773116</v>
+      </c>
+      <c r="D10">
+        <v>263.8758238707231</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>41668.16666666666</v>
+      </c>
+      <c r="B11">
+        <v>0.04570833333333366</v>
+      </c>
+      <c r="C11">
+        <v>0.2305110539770112</v>
+      </c>
+      <c r="D11">
+        <v>264.1331920504955</v>
+      </c>
+      <c r="E11">
+        <v>0.01905877511433644</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>41698.58333333334</v>
+      </c>
+      <c r="B12">
+        <v>0.04575000000000033</v>
+      </c>
+      <c r="C12">
+        <v>0.05216286219013</v>
+      </c>
+      <c r="D12">
+        <v>264.3637031044725</v>
+      </c>
+      <c r="E12">
+        <v>0.01958087998893395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>41729</v>
+      </c>
+      <c r="B13">
+        <v>0.04579166666666699</v>
+      </c>
+      <c r="C13">
+        <v>0.08978843678528392</v>
+      </c>
+      <c r="D13">
+        <v>264.4158659666626</v>
+      </c>
+      <c r="E13">
+        <v>0.02070840953125788</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>41759.41666666666</v>
+      </c>
+      <c r="B14">
+        <v>0.04583333333333366</v>
+      </c>
+      <c r="C14">
+        <v>-1.211889872641677</v>
+      </c>
+      <c r="D14">
+        <v>264.5056544034479</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>41911.5</v>
+      </c>
+      <c r="B15">
+        <v>0.04595833333333367</v>
+      </c>
+      <c r="C15">
+        <v>0.2947122142848002</v>
+      </c>
+      <c r="D15">
+        <v>264.2486992381446</v>
+      </c>
+      <c r="E15">
+        <v>0.02010393183604566</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>41941.91666666666</v>
+      </c>
+      <c r="B16">
+        <v>0.04600000000000034</v>
+      </c>
+      <c r="C16">
+        <v>0.08902588311332238</v>
+      </c>
+      <c r="D16">
+        <v>264.5434114524294</v>
+      </c>
+      <c r="E16">
+        <v>0.02121390682452852</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>41972.33333333334</v>
+      </c>
+      <c r="B17">
+        <v>0.04604166666666701</v>
+      </c>
+      <c r="C17">
+        <v>0.06376030890351103</v>
+      </c>
+      <c r="D17">
+        <v>264.6324373355427</v>
+      </c>
+      <c r="E17">
+        <v>0.02191956696754072</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>42002.75</v>
+      </c>
+      <c r="B18">
+        <v>0.04608333333333368</v>
+      </c>
+      <c r="C18">
+        <v>0.0208080438280831</v>
+      </c>
+      <c r="D18">
+        <v>264.6961976444462</v>
+      </c>
+      <c r="E18">
+        <v>0.02193407139915048</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
+        <v>42033.16666666666</v>
+      </c>
+      <c r="B19">
+        <v>0.04612500000000035</v>
+      </c>
+      <c r="C19">
+        <v>0.03059922276725047</v>
+      </c>
+      <c r="D19">
+        <v>264.7170056882743</v>
+      </c>
+      <c r="E19">
+        <v>0.02210805493772315</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>42063.58333333334</v>
+      </c>
+      <c r="B20">
+        <v>0.04616666666666702</v>
+      </c>
+      <c r="C20">
+        <v>0.03287629244175605</v>
+      </c>
+      <c r="D20">
+        <v>264.7476049110415</v>
+      </c>
+      <c r="E20">
+        <v>0.02230105675672524</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
+        <v>42094</v>
+      </c>
+      <c r="B21">
+        <v>0.04620833333333368</v>
+      </c>
+      <c r="C21">
+        <v>-1.328073095440345</v>
+      </c>
+      <c r="D21">
+        <v>264.7804812034833</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
+        <v>42215.66666666666</v>
+      </c>
+      <c r="B22">
+        <v>0.04633333333333369</v>
+      </c>
+      <c r="C22">
+        <v>0.001670798315899447</v>
+      </c>
+      <c r="D22">
+        <v>263.5028774637045</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
+        <v>42246.08333333334</v>
+      </c>
+      <c r="B23">
+        <v>0.04633333333333369</v>
+      </c>
+      <c r="C23">
+        <v>0.01545996743129763</v>
+      </c>
+      <c r="D23">
+        <v>263.5045482620204</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
+        <v>42276.5</v>
+      </c>
+      <c r="B24">
+        <v>0.04637500000000036</v>
+      </c>
+      <c r="C24">
+        <v>0.01705059812229592</v>
+      </c>
+      <c r="D24">
+        <v>263.5200082294517</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
+        <v>42306.91666666666</v>
+      </c>
+      <c r="B25">
+        <v>0.04641666666666703</v>
+      </c>
+      <c r="C25">
+        <v>0.01709495124509885</v>
+      </c>
+      <c r="D25">
+        <v>263.537058827574</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
+        <v>42337.33333333334</v>
+      </c>
+      <c r="B26">
+        <v>0.0464583333333337</v>
+      </c>
+      <c r="C26">
+        <v>0.982394653900883</v>
+      </c>
+      <c r="D26">
+        <v>263.5541537788191</v>
+      </c>
+      <c r="E26">
+        <v>0.01638636184163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2">
+        <v>42367.75</v>
+      </c>
+      <c r="B27">
+        <v>0.04650000000000037</v>
+      </c>
+      <c r="C27">
+        <v>0.3282801030829887</v>
+      </c>
+      <c r="D27">
+        <v>264.53654843272</v>
+      </c>
+      <c r="E27">
+        <v>0.02125463357466106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2">
+        <v>42398.16666666666</v>
+      </c>
+      <c r="B28">
+        <v>0.04654166666666704</v>
+      </c>
+      <c r="C28">
+        <v>0.1128628576267374</v>
+      </c>
+      <c r="D28">
+        <v>264.864828535803</v>
+      </c>
+      <c r="E28">
+        <v>0.02271046781824456</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2">
+        <v>42428.58333333334</v>
+      </c>
+      <c r="B29">
+        <v>0.04658333333333371</v>
+      </c>
+      <c r="C29">
+        <v>0.03874873616189234</v>
+      </c>
+      <c r="D29">
+        <v>264.9776913934297</v>
+      </c>
+      <c r="E29">
+        <v>0.0230655379156961</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2">
+        <v>42459</v>
+      </c>
+      <c r="B30">
+        <v>0.04662500000000037</v>
+      </c>
+      <c r="C30">
+        <v>0.02757235677677272</v>
+      </c>
+      <c r="D30">
+        <v>265.0164401295916</v>
+      </c>
+      <c r="E30">
+        <v>0.02345904478626313</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2">
+        <v>42489.41666666666</v>
+      </c>
+      <c r="B31">
+        <v>0.04662500000000037</v>
+      </c>
+      <c r="C31">
+        <v>-1.418200983967608</v>
+      </c>
+      <c r="D31">
+        <v>265.0440124863684</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2">
+        <v>42519.83333333334</v>
+      </c>
+      <c r="B32">
+        <v>0.04662500000000037</v>
+      </c>
+      <c r="C32">
+        <v>0.01540245127785056</v>
+      </c>
+      <c r="D32">
+        <v>263.6258115024008</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2">
+        <v>42550.25</v>
+      </c>
+      <c r="B33">
+        <v>0.04666666666666704</v>
+      </c>
+      <c r="C33">
+        <v>0.01695125500486938</v>
+      </c>
+      <c r="D33">
+        <v>263.6412139536786</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2">
+        <v>42580.66666666666</v>
+      </c>
+      <c r="B34">
+        <v>0.04670833333333371</v>
+      </c>
+      <c r="C34">
+        <v>0.9342357163739052</v>
+      </c>
+      <c r="D34">
+        <v>263.6581652086835</v>
+      </c>
+      <c r="E34">
+        <v>0.01552198780774419</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2">
+        <v>42611.08333333334</v>
+      </c>
+      <c r="B35">
+        <v>0.04675000000000038</v>
+      </c>
+      <c r="C35">
+        <v>0.4059680684770228</v>
+      </c>
+      <c r="D35">
+        <v>264.5924009250574</v>
+      </c>
+      <c r="E35">
+        <v>0.02156271003263223</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2">
+        <v>42641.5</v>
+      </c>
+      <c r="B36">
+        <v>0.04679166666666705</v>
+      </c>
+      <c r="C36">
+        <v>0.1134174274562838</v>
+      </c>
+      <c r="D36">
+        <v>264.9983689935344</v>
+      </c>
+      <c r="E36">
+        <v>0.02306665525261364</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
+        <v>42671.91666666666</v>
+      </c>
+      <c r="B37">
+        <v>0.04683333333333372</v>
+      </c>
+      <c r="C37">
+        <v>-1.384465471159388</v>
+      </c>
+      <c r="D37">
+        <v>265.1117864209907</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>42702.33333333334</v>
+      </c>
+      <c r="B38">
+        <v>0.04687500000000039</v>
+      </c>
+      <c r="C38">
+        <v>1.05156355639599</v>
+      </c>
+      <c r="D38">
+        <v>263.7273209498313</v>
+      </c>
+      <c r="E38">
+        <v>0.01725160928982848</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>42732.75</v>
+      </c>
+      <c r="B39">
+        <v>0.04691666666666706</v>
+      </c>
+      <c r="C39">
+        <v>0.343714458549357</v>
+      </c>
+      <c r="D39">
+        <v>264.7788845062273</v>
+      </c>
+      <c r="E39">
+        <v>0.02233647714812854</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>42763.16666666666</v>
+      </c>
+      <c r="B40">
+        <v>0.04695833333333373</v>
+      </c>
+      <c r="C40">
+        <v>-0.2587490951769951</v>
+      </c>
+      <c r="D40">
+        <v>265.1225989647767</v>
+      </c>
+      <c r="E40">
+        <v>0.01799658682277187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2">
+        <v>42793.58333333334</v>
+      </c>
+      <c r="B41">
+        <v>0.0470000000000004</v>
+      </c>
+      <c r="C41">
+        <v>0.1745065816004399</v>
+      </c>
+      <c r="D41">
+        <v>264.8638498695997</v>
+      </c>
+      <c r="E41">
+        <v>0.02044822185662689</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
+        <v>42824</v>
+      </c>
+      <c r="B42">
+        <v>0.04704166666666706</v>
+      </c>
+      <c r="C42">
+        <v>0.1258590109631541</v>
+      </c>
+      <c r="D42">
+        <v>265.0383564512001</v>
+      </c>
+      <c r="E42">
+        <v>0.02235011630241973</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2">
+        <v>42854.41666666666</v>
+      </c>
+      <c r="B43">
+        <v>0.04704166666666706</v>
+      </c>
+      <c r="C43">
+        <v>-1.349554248518416</v>
+      </c>
+      <c r="D43">
+        <v>265.1642154621633</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2">
+        <v>42884.83333333334</v>
+      </c>
+      <c r="B44">
+        <v>0.04708333333333373</v>
+      </c>
+      <c r="C44">
+        <v>0.01766358311306249</v>
+      </c>
+      <c r="D44">
+        <v>263.8146612136449</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2">
+        <v>42915.25</v>
+      </c>
+      <c r="B45">
+        <v>0.0471250000000004</v>
+      </c>
+      <c r="C45">
+        <v>1.002184221469747</v>
+      </c>
+      <c r="D45">
+        <v>263.8323247967579</v>
+      </c>
+      <c r="E45">
+        <v>0.01637318299697391</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2">
+        <v>42945.66666666666</v>
+      </c>
+      <c r="B46">
+        <v>0.04716666666666707</v>
+      </c>
+      <c r="C46">
+        <v>0.3500589253218322</v>
+      </c>
+      <c r="D46">
+        <v>264.8345090182277</v>
+      </c>
+      <c r="E46">
+        <v>0.0215451611534748</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -631,7 +5884,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -660,6 +5913,210 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>43006.5</v>
+      </c>
+      <c r="B2">
+        <v>0.04725000000000041</v>
+      </c>
+      <c r="C2">
+        <v>1.06529765433811</v>
+      </c>
+      <c r="D2">
+        <v>263.9564452559727</v>
+      </c>
+      <c r="E2">
+        <v>0.01838124668919246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>43036.91666666666</v>
+      </c>
+      <c r="B3">
+        <v>0.04729166666666708</v>
+      </c>
+      <c r="C3">
+        <v>-0.973959791575453</v>
+      </c>
+      <c r="D3">
+        <v>265.0217429103108</v>
+      </c>
+      <c r="E3">
+        <v>0.002242496642644878</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>43067.33333333334</v>
+      </c>
+      <c r="B4">
+        <v>0.04733333333333375</v>
+      </c>
+      <c r="C4">
+        <v>0.7697744397019051</v>
+      </c>
+      <c r="D4">
+        <v>264.0477831187353</v>
+      </c>
+      <c r="E4">
+        <v>0.01469107000649862</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>43097.75</v>
+      </c>
+      <c r="B5">
+        <v>0.04737500000000042</v>
+      </c>
+      <c r="C5">
+        <v>0.1440770272365626</v>
+      </c>
+      <c r="D5">
+        <v>264.8175575584372</v>
+      </c>
+      <c r="E5">
+        <v>0.01662553913274366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>43128.16666666666</v>
+      </c>
+      <c r="B6">
+        <v>0.04741666666666709</v>
+      </c>
+      <c r="C6">
+        <v>0.3882543004216359</v>
+      </c>
+      <c r="D6">
+        <v>264.9616345856738</v>
+      </c>
+      <c r="E6">
+        <v>0.0223211554666751</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>43158.58333333334</v>
+      </c>
+      <c r="B7">
+        <v>0.04745833333333375</v>
+      </c>
+      <c r="C7">
+        <v>0.1503888588109703</v>
+      </c>
+      <c r="D7">
+        <v>265.3498888860954</v>
+      </c>
+      <c r="E7">
+        <v>0.02432942362883983</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>43189</v>
+      </c>
+      <c r="B8">
+        <v>0.04750000000000042</v>
+      </c>
+      <c r="C8">
+        <v>0.06401512188915603</v>
+      </c>
+      <c r="D8">
+        <v>265.5002777449064</v>
+      </c>
+      <c r="E8">
+        <v>0.02525977416752415</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>43219.41666666666</v>
+      </c>
+      <c r="B9">
+        <v>0.04750000000000042</v>
+      </c>
+      <c r="C9">
+        <v>-1.576503821909682</v>
+      </c>
+      <c r="D9">
+        <v>265.5642928667955</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>43249.83333333334</v>
+      </c>
+      <c r="B10">
+        <v>0.04750000000000042</v>
+      </c>
+      <c r="C10">
+        <v>0.01532565462957791</v>
+      </c>
+      <c r="D10">
+        <v>263.9877890448859</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>43280.25</v>
+      </c>
+      <c r="B11">
+        <v>0.04754166666666709</v>
+      </c>
+      <c r="C11">
+        <v>1.059912813257597</v>
+      </c>
+      <c r="D11">
+        <v>264.0031146995154</v>
+      </c>
+      <c r="E11">
+        <v>0.01705759291044776</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>43310.66666666666</v>
+      </c>
+      <c r="B12">
+        <v>0.04758333333333376</v>
+      </c>
+      <c r="C12">
+        <v>0.4938606839574504</v>
+      </c>
+      <c r="D12">
+        <v>265.063027512773</v>
+      </c>
+      <c r="E12">
+        <v>0.02432878882865402</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>43341.08333333334</v>
+      </c>
+      <c r="B13">
+        <v>0.04762500000000043</v>
+      </c>
+      <c r="C13">
+        <v>0.167073251545844</v>
+      </c>
+      <c r="D13">
+        <v>265.5568881967305</v>
+      </c>
+      <c r="E13">
+        <v>0.02655905321209073</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FACModel/Modelled RIHT2.xlsx
+++ b/FACModel/Modelled RIHT2.xlsx
@@ -13,14 +13,13 @@
     <sheet name="Phase 3" sheetId="4" r:id="rId4"/>
     <sheet name="Phase 4" sheetId="5" r:id="rId5"/>
     <sheet name="Phase 5_6" sheetId="6" r:id="rId6"/>
-    <sheet name="Phase 7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="5">
   <si>
     <t>DP leakage</t>
   </si>
@@ -432,16 +431,16 @@
         <v>30414</v>
       </c>
       <c r="B2">
-        <v>0.030375</v>
+        <v>0.03033333333333333</v>
       </c>
       <c r="C2">
-        <v>0.04623308976476892</v>
+        <v>0.04281905795664898</v>
       </c>
       <c r="D2">
-        <v>261.8441812843658</v>
+        <v>261.8429170626802</v>
       </c>
       <c r="E2">
-        <v>0.009792547471173632</v>
+        <v>0.009786838272830894</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -449,16 +448,16 @@
         <v>30444.41666666667</v>
       </c>
       <c r="B3">
-        <v>0.03075</v>
+        <v>0.03066666666666667</v>
       </c>
       <c r="C3">
-        <v>0.0663413914925286</v>
+        <v>0.0631418715597647</v>
       </c>
       <c r="D3">
-        <v>261.8904143741306</v>
+        <v>261.8857361206368</v>
       </c>
       <c r="E3">
-        <v>0.01000133512483399</v>
+        <v>0.009980208231191992</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -466,16 +465,16 @@
         <v>30474.83333333333</v>
       </c>
       <c r="B4">
-        <v>0.031125</v>
+        <v>0.031</v>
       </c>
       <c r="C4">
-        <v>0.0719260254143137</v>
+        <v>0.06746198990981611</v>
       </c>
       <c r="D4">
-        <v>261.9567557656231</v>
+        <v>261.9488779921966</v>
       </c>
       <c r="E4">
-        <v>0.01030093144298554</v>
+        <v>0.01026535558512756</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -483,16 +482,16 @@
         <v>30505.25</v>
       </c>
       <c r="B5">
-        <v>0.0315</v>
+        <v>0.03133333333333334</v>
       </c>
       <c r="C5">
-        <v>0.07255129940381266</v>
+        <v>0.06764570831887795</v>
       </c>
       <c r="D5">
-        <v>262.0286817910375</v>
+        <v>262.0163399821064</v>
       </c>
       <c r="E5">
-        <v>0.01062574784958473</v>
+        <v>0.01057001250198504</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -500,16 +499,16 @@
         <v>30535.66666666667</v>
       </c>
       <c r="B6">
-        <v>0.031875</v>
+        <v>0.03166666666666667</v>
       </c>
       <c r="C6">
-        <v>0.07193198865752493</v>
+        <v>0.06730436392740557</v>
       </c>
       <c r="D6">
-        <v>262.1012330904413</v>
+        <v>262.0839856904253</v>
       </c>
       <c r="E6">
-        <v>0.0109533879802704</v>
+        <v>0.01087549908728482</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -517,16 +516,16 @@
         <v>30566.08333333333</v>
       </c>
       <c r="B7">
-        <v>0.03225</v>
+        <v>0.032</v>
       </c>
       <c r="C7">
-        <v>0.07228187665305086</v>
+        <v>0.06760780206548134</v>
       </c>
       <c r="D7">
-        <v>262.1731650790988</v>
+        <v>262.1512900543527</v>
       </c>
       <c r="E7">
-        <v>0.01127823131674973</v>
+        <v>0.01117944416854592</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -534,16 +533,16 @@
         <v>30596.5</v>
       </c>
       <c r="B8">
-        <v>0.032625</v>
+        <v>0.03233333333333333</v>
       </c>
       <c r="C8">
-        <v>0.07178268392431164</v>
+        <v>0.06782372493159983</v>
       </c>
       <c r="D8">
-        <v>262.2454469557518</v>
+        <v>262.2188978564182</v>
       </c>
       <c r="E8">
-        <v>0.01160465474000223</v>
+        <v>0.0114847595700087</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -551,16 +550,16 @@
         <v>30626.91666666667</v>
       </c>
       <c r="B9">
-        <v>0.033</v>
+        <v>0.03266666666666666</v>
       </c>
       <c r="C9">
-        <v>0.07108614556045723</v>
+        <v>0.06858365829782542</v>
       </c>
       <c r="D9">
-        <v>262.3172296396762</v>
+        <v>262.2867215813498</v>
       </c>
       <c r="E9">
-        <v>0.01192882381947028</v>
+        <v>0.01179105007455898</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -568,16 +567,16 @@
         <v>30657.33333333333</v>
       </c>
       <c r="B10">
-        <v>0.033375</v>
+        <v>0.03299999999999999</v>
       </c>
       <c r="C10">
-        <v>0.07080834913040235</v>
+        <v>0.06900142807569409</v>
       </c>
       <c r="D10">
-        <v>262.3883157852366</v>
+        <v>262.3553052396476</v>
       </c>
       <c r="E10">
-        <v>0.01224984734644717</v>
+        <v>0.01210077242208775</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -585,16 +584,16 @@
         <v>30687.75</v>
       </c>
       <c r="B11">
-        <v>0.03375</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C11">
-        <v>0.07232747255102367</v>
+        <v>0.0698002843237191</v>
       </c>
       <c r="D11">
-        <v>262.459124134367</v>
+        <v>262.4243066677233</v>
       </c>
       <c r="E11">
-        <v>0.01256961635063274</v>
+        <v>0.01241238140908045</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -602,16 +601,16 @@
         <v>30718.16666666667</v>
       </c>
       <c r="B12">
-        <v>0.034125</v>
+        <v>0.03366666666666666</v>
       </c>
       <c r="C12">
-        <v>0.07291518854049173</v>
+        <v>0.06958009921686426</v>
       </c>
       <c r="D12">
-        <v>262.531451606918</v>
+        <v>262.494106952047</v>
       </c>
       <c r="E12">
-        <v>0.01289624568399438</v>
+        <v>0.01272759801396076</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -619,16 +618,16 @@
         <v>30748.58333333333</v>
       </c>
       <c r="B13">
-        <v>0.0345</v>
+        <v>0.03399999999999999</v>
       </c>
       <c r="C13">
-        <v>0.07095521014298356</v>
+        <v>0.06427298802964287</v>
       </c>
       <c r="D13">
-        <v>262.6043667954585</v>
+        <v>262.5636870512639</v>
       </c>
       <c r="E13">
-        <v>0.01322552913031019</v>
+        <v>0.01304182026756447</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -636,16 +635,16 @@
         <v>30839.83333333333</v>
       </c>
       <c r="B14">
-        <v>0.034875</v>
+        <v>0.03433333333333332</v>
       </c>
       <c r="C14">
-        <v>0.5308609609361383</v>
+        <v>0.5173553899409171</v>
       </c>
       <c r="D14">
-        <v>262.1627056896301</v>
+        <v>262.1258719095157</v>
       </c>
       <c r="E14">
-        <v>0.01123099693555222</v>
+        <v>0.0110646563650936</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -653,16 +652,16 @@
         <v>30870.25</v>
       </c>
       <c r="B15">
-        <v>0.03525</v>
+        <v>0.03466666666666665</v>
       </c>
       <c r="C15">
-        <v>0.1667394086083505</v>
+        <v>0.1613719620162328</v>
       </c>
       <c r="D15">
-        <v>262.6935666505663</v>
+        <v>262.6432272994566</v>
       </c>
       <c r="E15">
-        <v>0.01362835378575824</v>
+        <v>0.01340102234287948</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -670,16 +669,16 @@
         <v>30900.66666666667</v>
       </c>
       <c r="B16">
-        <v>0.035625</v>
+        <v>0.03499999999999998</v>
       </c>
       <c r="C16">
-        <v>0.09320697400153222</v>
+        <v>0.08848136546293972</v>
       </c>
       <c r="D16">
-        <v>262.8603060591746</v>
+        <v>262.8045992614728</v>
       </c>
       <c r="E16">
-        <v>0.01438134542168786</v>
+        <v>0.01412977470373974</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -687,16 +686,16 @@
         <v>30931.08333333333</v>
       </c>
       <c r="B17">
-        <v>0.036</v>
+        <v>0.03533333333333331</v>
       </c>
       <c r="C17">
-        <v>0.07721403619120792</v>
+        <v>0.07398365197173007</v>
       </c>
       <c r="D17">
-        <v>262.9535130331761</v>
+        <v>262.8930806269358</v>
       </c>
       <c r="E17">
-        <v>0.01480226614114617</v>
+        <v>0.01452935467517728</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -704,16 +703,16 @@
         <v>30961.5</v>
       </c>
       <c r="B18">
-        <v>0.036375</v>
+        <v>0.03566666666666665</v>
       </c>
       <c r="C18">
-        <v>0.07475621607045468</v>
+        <v>0.07049905543794921</v>
       </c>
       <c r="D18">
-        <v>263.0307270693673</v>
+        <v>262.9670642789075</v>
       </c>
       <c r="E18">
-        <v>0.01515096309235653</v>
+        <v>0.01486346327970698</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -721,16 +720,16 @@
         <v>30991.91666666667</v>
       </c>
       <c r="B19">
-        <v>0.03675</v>
+        <v>0.03599999999999998</v>
       </c>
       <c r="C19">
-        <v>0.0740943033243866</v>
+        <v>0.07028181721443616</v>
       </c>
       <c r="D19">
-        <v>263.1054832854378</v>
+        <v>263.0375633343455</v>
       </c>
       <c r="E19">
-        <v>0.01548856057998496</v>
+        <v>0.01518183552013166</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -738,16 +737,16 @@
         <v>31022.33333333333</v>
       </c>
       <c r="B20">
-        <v>0.03712500000000001</v>
+        <v>0.03633333333333331</v>
       </c>
       <c r="C20">
-        <v>0.07430854624647054</v>
+        <v>0.06987242777120173</v>
       </c>
       <c r="D20">
-        <v>263.1795775887622</v>
+        <v>263.1078451515599</v>
       </c>
       <c r="E20">
-        <v>0.01582316888367839</v>
+        <v>0.01549922671734244</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -755,16 +754,16 @@
         <v>31052.75</v>
       </c>
       <c r="B21">
-        <v>0.03750000000000001</v>
+        <v>0.03666666666666664</v>
       </c>
       <c r="C21">
-        <v>0.07401207477937533</v>
+        <v>0.07063482680166544</v>
       </c>
       <c r="D21">
-        <v>263.2538861350087</v>
+        <v>263.1777175793311</v>
       </c>
       <c r="E21">
-        <v>0.01615874470386803</v>
+        <v>0.01581476912050276</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -772,16 +771,16 @@
         <v>31083.16666666667</v>
       </c>
       <c r="B22">
-        <v>0.03787500000000001</v>
+        <v>0.03699999999999997</v>
       </c>
       <c r="C22">
-        <v>0.07503753928824608</v>
+        <v>0.07062080028492801</v>
       </c>
       <c r="D22">
-        <v>263.327898209788</v>
+        <v>263.2483524061328</v>
       </c>
       <c r="E22">
-        <v>0.01649298166519488</v>
+        <v>0.01613375450152878</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -789,16 +788,16 @@
         <v>31113.58333333333</v>
       </c>
       <c r="B23">
-        <v>0.03825000000000001</v>
+        <v>0.0373333333333333</v>
       </c>
       <c r="C23">
-        <v>0.07387879583018275</v>
+        <v>0.07008580910439832</v>
       </c>
       <c r="D23">
-        <v>263.4029357490763</v>
+        <v>263.3189732064177</v>
       </c>
       <c r="E23">
-        <v>0.01683184960251322</v>
+        <v>0.01645267653910264</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -806,16 +805,16 @@
         <v>31144</v>
       </c>
       <c r="B24">
-        <v>0.03862500000000001</v>
+        <v>0.03766666666666663</v>
       </c>
       <c r="C24">
-        <v>0.07536207431280673</v>
+        <v>0.07038901228793293</v>
       </c>
       <c r="D24">
-        <v>263.4768145449065</v>
+        <v>263.3890590155221</v>
       </c>
       <c r="E24">
-        <v>0.01716548467892969</v>
+        <v>0.016769182567842</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -823,16 +822,16 @@
         <v>31174.41666666667</v>
       </c>
       <c r="B25">
-        <v>0.03900000000000001</v>
+        <v>0.03799999999999996</v>
       </c>
       <c r="C25">
-        <v>0.07567398667265479</v>
+        <v>0.07120988012661655</v>
       </c>
       <c r="D25">
-        <v>263.5521766192193</v>
+        <v>263.45944802781</v>
       </c>
       <c r="E25">
-        <v>0.01750581820954186</v>
+        <v>0.01708705785573305</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -840,16 +839,16 @@
         <v>31204.83333333333</v>
       </c>
       <c r="B26">
-        <v>0.03937500000000001</v>
+        <v>0.0383333333333333</v>
       </c>
       <c r="C26">
-        <v>0.07640159243248945</v>
+        <v>0.07164951831418875</v>
       </c>
       <c r="D26">
-        <v>263.6278506058919</v>
+        <v>263.5306579079366</v>
       </c>
       <c r="E26">
-        <v>0.01784756032976138</v>
+        <v>0.01740864016538872</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -857,16 +856,16 @@
         <v>31235.25</v>
       </c>
       <c r="B27">
-        <v>0.03975000000000001</v>
+        <v>0.03866666666666663</v>
       </c>
       <c r="C27">
-        <v>0.07608596483976271</v>
+        <v>0.07033728343549228</v>
       </c>
       <c r="D27">
-        <v>263.7042521983244</v>
+        <v>263.6023074262508</v>
       </c>
       <c r="E27">
-        <v>0.01819258830217376</v>
+        <v>0.01773220787178313</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -874,16 +873,16 @@
         <v>31265.66666666667</v>
       </c>
       <c r="B28">
-        <v>0.04012500000000001</v>
+        <v>0.03899999999999996</v>
       </c>
       <c r="C28">
-        <v>0.07773984470645701</v>
+        <v>0.07043963459545921</v>
       </c>
       <c r="D28">
-        <v>263.7803381631642</v>
+        <v>263.6726447096863</v>
       </c>
       <c r="E28">
-        <v>0.01853619090706574</v>
+        <v>0.01804984955327277</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -891,16 +890,16 @@
         <v>31296.08333333333</v>
       </c>
       <c r="B29">
-        <v>0.04050000000000001</v>
+        <v>0.03933333333333329</v>
       </c>
       <c r="C29">
-        <v>0.07783883277056702</v>
+        <v>0.07004748248414217</v>
       </c>
       <c r="D29">
-        <v>263.8580780078706</v>
+        <v>263.7430843442818</v>
       </c>
       <c r="E29">
-        <v>0.0188872623983886</v>
+        <v>0.01836795345043207</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -908,16 +907,16 @@
         <v>31326.5</v>
       </c>
       <c r="B30">
-        <v>0.04087500000000001</v>
+        <v>0.03966666666666662</v>
       </c>
       <c r="C30">
-        <v>0.0788648138973258</v>
+        <v>0.07126228353968145</v>
       </c>
       <c r="D30">
-        <v>263.9359168406412</v>
+        <v>263.8131318267659</v>
       </c>
       <c r="E30">
-        <v>0.01923878091771151</v>
+        <v>0.01868428639696652</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -925,16 +924,16 @@
         <v>31356.91666666667</v>
       </c>
       <c r="B31">
-        <v>0.04125000000000001</v>
+        <v>0.03999999999999995</v>
       </c>
       <c r="C31">
-        <v>0.07898834236470975</v>
+        <v>0.07207447215705542</v>
       </c>
       <c r="D31">
-        <v>264.0147816545385</v>
+        <v>263.8843941103056</v>
       </c>
       <c r="E31">
-        <v>0.01959493274606141</v>
+        <v>0.01900610535932508</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -942,16 +941,16 @@
         <v>31387.33333333333</v>
       </c>
       <c r="B32">
-        <v>0.04162500000000001</v>
+        <v>0.04033333333333328</v>
       </c>
       <c r="C32">
-        <v>0.0776388119998046</v>
+        <v>0.07358629749433021</v>
       </c>
       <c r="D32">
-        <v>264.0937699969032</v>
+        <v>263.9564685824627</v>
       </c>
       <c r="E32">
-        <v>0.01995164242635233</v>
+        <v>0.01933159214826888</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -959,16 +958,16 @@
         <v>31417.75</v>
       </c>
       <c r="B33">
-        <v>0.04200000000000001</v>
+        <v>0.04066666666666661</v>
       </c>
       <c r="C33">
-        <v>0.07744195400209719</v>
+        <v>0.07238046940096865</v>
       </c>
       <c r="D33">
-        <v>264.171408808903</v>
+        <v>264.030054879957</v>
       </c>
       <c r="E33">
-        <v>0.02030225765611298</v>
+        <v>0.019663906308399</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -976,16 +975,16 @@
         <v>31448.16666666667</v>
       </c>
       <c r="B34">
-        <v>0.04237500000000001</v>
+        <v>0.04099999999999995</v>
       </c>
       <c r="C34">
-        <v>0.07681214624176391</v>
+        <v>0.07279813066600127</v>
       </c>
       <c r="D34">
-        <v>264.2488507629051</v>
+        <v>264.102435349358</v>
       </c>
       <c r="E34">
-        <v>0.02065198387932752</v>
+        <v>0.01999077497441185</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -993,16 +992,16 @@
         <v>31478.58333333333</v>
       </c>
       <c r="B35">
-        <v>0.04275000000000001</v>
+        <v>0.04133333333333328</v>
       </c>
       <c r="C35">
-        <v>0.07611855403456502</v>
+        <v>0.07303325441523612</v>
       </c>
       <c r="D35">
-        <v>264.3256629091469</v>
+        <v>264.175233480024</v>
       </c>
       <c r="E35">
-        <v>0.02099886590404252</v>
+        <v>0.02031952978984698</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1010,16 +1009,16 @@
         <v>31509</v>
       </c>
       <c r="B36">
-        <v>0.04312500000000001</v>
+        <v>0.04166666666666661</v>
       </c>
       <c r="C36">
-        <v>0.07072844875608553</v>
+        <v>0.06826140207977005</v>
       </c>
       <c r="D36">
-        <v>264.4017814631815</v>
+        <v>264.2482667344392</v>
       </c>
       <c r="E36">
-        <v>0.02134261568104775</v>
+        <v>0.02064934641915143</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1027,16 +1026,16 @@
         <v>31569.83333333333</v>
       </c>
       <c r="B37">
-        <v>0.04350000000000001</v>
+        <v>0.04199999999999994</v>
       </c>
       <c r="C37">
-        <v>0.8942006691539746</v>
+        <v>0.8558574774391445</v>
       </c>
       <c r="D37">
-        <v>263.4308985341727</v>
+        <v>263.3204393529473</v>
       </c>
       <c r="E37">
-        <v>0.01695812894745408</v>
+        <v>0.01645929762576159</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1044,16 +1043,16 @@
         <v>31600.25</v>
       </c>
       <c r="B38">
-        <v>0.04387500000000001</v>
+        <v>0.04233333333333327</v>
       </c>
       <c r="C38">
-        <v>0.2739909368244753</v>
+        <v>0.2591668657911441</v>
       </c>
       <c r="D38">
-        <v>264.3250992033267</v>
+        <v>264.1762968303865</v>
       </c>
       <c r="E38">
-        <v>0.02099632022050382</v>
+        <v>0.02032433185755099</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1061,16 +1060,16 @@
         <v>31630.66666666667</v>
       </c>
       <c r="B39">
-        <v>0.04425000000000001</v>
+        <v>0.0426666666666666</v>
       </c>
       <c r="C39">
-        <v>0.1245399844260646</v>
+        <v>0.1175644518546051</v>
       </c>
       <c r="D39">
-        <v>264.5990901401511</v>
+        <v>264.4354636961776</v>
       </c>
       <c r="E39">
-        <v>0.02223365748510909</v>
+        <v>0.0214947239315041</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1078,16 +1077,16 @@
         <v>31661.08333333333</v>
       </c>
       <c r="B40">
-        <v>0.04462500000000001</v>
+        <v>0.04299999999999993</v>
       </c>
       <c r="C40">
-        <v>0.08971186331723402</v>
+        <v>0.0855664342690261</v>
       </c>
       <c r="D40">
-        <v>264.7236301245772</v>
+        <v>264.5530281480322</v>
       </c>
       <c r="E40">
-        <v>0.02279607741567221</v>
+        <v>0.0220256425047919</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1095,16 +1094,16 @@
         <v>31691.5</v>
       </c>
       <c r="B41">
-        <v>0.04500000000000001</v>
+        <v>0.04333333333333327</v>
       </c>
       <c r="C41">
-        <v>0.08198941059868048</v>
+        <v>0.07780591356572586</v>
       </c>
       <c r="D41">
-        <v>264.8133419878944</v>
+        <v>264.6385945823013</v>
       </c>
       <c r="E41">
-        <v>0.02320121428934457</v>
+        <v>0.02241205870872735</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1112,16 +1111,16 @@
         <v>31721.91666666667</v>
       </c>
       <c r="B42">
-        <v>0.04537500000000001</v>
+        <v>0.0436666666666666</v>
       </c>
       <c r="C42">
-        <v>0.07804066470055204</v>
+        <v>0.07564966705490406</v>
       </c>
       <c r="D42">
-        <v>264.8953313984931</v>
+        <v>264.716400495867</v>
       </c>
       <c r="E42">
-        <v>0.02357147673018493</v>
+        <v>0.02276342856561871</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1129,16 +1128,16 @@
         <v>31752.33333333333</v>
       </c>
       <c r="B43">
-        <v>0.04575000000000001</v>
+        <v>0.04399999999999993</v>
       </c>
       <c r="C43">
-        <v>0.07991728688159583</v>
+        <v>0.07497610202051419</v>
       </c>
       <c r="D43">
-        <v>264.9733720631937</v>
+        <v>264.7920501629219</v>
       </c>
       <c r="E43">
-        <v>0.02392390671822648</v>
+        <v>0.02310506085895991</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1146,16 +1145,16 @@
         <v>31782.75</v>
       </c>
       <c r="B44">
-        <v>0.04612500000000001</v>
+        <v>0.04433333333333326</v>
       </c>
       <c r="C44">
-        <v>0.0793410522664999</v>
+        <v>0.07411046317656655</v>
       </c>
       <c r="D44">
-        <v>265.0532893500753</v>
+        <v>264.8670262649424</v>
       </c>
       <c r="E44">
-        <v>0.02428481149227065</v>
+        <v>0.02344365134687911</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1163,16 +1162,16 @@
         <v>31813.16666666667</v>
       </c>
       <c r="B45">
-        <v>0.04650000000000001</v>
+        <v>0.04466666666666659</v>
       </c>
       <c r="C45">
-        <v>0.07891420648888925</v>
+        <v>0.07412149405433865</v>
       </c>
       <c r="D45">
-        <v>265.1326304023418</v>
+        <v>264.941136728119</v>
       </c>
       <c r="E45">
-        <v>0.0246431140030039</v>
+        <v>0.02377833262812266</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1180,16 +1179,16 @@
         <v>31843.58333333333</v>
       </c>
       <c r="B46">
-        <v>0.04687500000000001</v>
+        <v>0.04499999999999992</v>
       </c>
       <c r="C46">
-        <v>0.05095158073368111</v>
+        <v>0.04994285622672123</v>
       </c>
       <c r="D46">
-        <v>265.2115446088306</v>
+        <v>265.0152582221733</v>
       </c>
       <c r="E46">
-        <v>0.0249994888872506</v>
+        <v>0.02411306372457646</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1197,16 +1196,16 @@
         <v>31904.41666666667</v>
       </c>
       <c r="B47">
-        <v>0.04725000000000001</v>
+        <v>0.04533333333333325</v>
       </c>
       <c r="C47">
-        <v>1.048032742025498</v>
+        <v>1.007164768650455</v>
       </c>
       <c r="D47">
-        <v>263.9442058963674</v>
+        <v>263.8139000212826</v>
       </c>
       <c r="E47">
-        <v>0.01927621411771904</v>
+        <v>0.01868775554712509</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1214,16 +1213,16 @@
         <v>31934.83333333333</v>
       </c>
       <c r="B48">
-        <v>0.04762500000000001</v>
+        <v>0.04566666666666658</v>
       </c>
       <c r="C48">
-        <v>0.2997945120390568</v>
+        <v>0.2898627220773733</v>
       </c>
       <c r="D48">
-        <v>264.9922386383929</v>
+        <v>264.8210647899331</v>
       </c>
       <c r="E48">
-        <v>0.02400910777202798</v>
+        <v>0.02323609029969855</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1231,16 +1230,16 @@
         <v>31965.25</v>
       </c>
       <c r="B49">
-        <v>0.04800000000000001</v>
+        <v>0.04599999999999992</v>
       </c>
       <c r="C49">
-        <v>0.1147995659421213</v>
+        <v>0.1141544187007639</v>
       </c>
       <c r="D49">
-        <v>265.292033150432</v>
+        <v>265.1109275120104</v>
       </c>
       <c r="E49">
-        <v>0.02536297343550337</v>
+        <v>0.02454510421016982</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1248,16 +1247,16 @@
         <v>31995.66666666667</v>
       </c>
       <c r="B50">
-        <v>0.04837500000000002</v>
+        <v>0.04633333333333325</v>
       </c>
       <c r="C50">
-        <v>0.0677340591715847</v>
+        <v>0.07097034610717401</v>
       </c>
       <c r="D50">
-        <v>265.4068327163741</v>
+        <v>265.2250819307112</v>
       </c>
       <c r="E50">
-        <v>0.02588140584260066</v>
+        <v>0.02506062314599612</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1265,16 +1264,16 @@
         <v>32026.08333333333</v>
       </c>
       <c r="B51">
-        <v>0.04875000000000002</v>
+        <v>0.04666666666666658</v>
       </c>
       <c r="C51">
-        <v>0.05694093570104997</v>
+        <v>0.05962363153423667</v>
       </c>
       <c r="D51">
-        <v>265.4745667755457</v>
+        <v>265.2960522768184</v>
       </c>
       <c r="E51">
-        <v>0.02618729141847894</v>
+        <v>0.02538112372509589</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1282,16 +1281,16 @@
         <v>32056.5</v>
       </c>
       <c r="B52">
-        <v>0.04912500000000002</v>
+        <v>0.04699999999999991</v>
       </c>
       <c r="C52">
-        <v>0.05470167319049324</v>
+        <v>0.05633758573424075</v>
       </c>
       <c r="D52">
-        <v>265.5315077112467</v>
+        <v>265.3556759083526</v>
       </c>
       <c r="E52">
-        <v>0.02644443547747943</v>
+        <v>0.0256503827816306</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1299,16 +1298,16 @@
         <v>32086.91666666667</v>
       </c>
       <c r="B53">
-        <v>0.04950000000000002</v>
+        <v>0.04733333333333324</v>
       </c>
       <c r="C53">
-        <v>0.05614083268665127</v>
+        <v>0.05626272210758998</v>
       </c>
       <c r="D53">
-        <v>265.5862093844372</v>
+        <v>265.4120134940869</v>
       </c>
       <c r="E53">
-        <v>0.02669146707443409</v>
+        <v>0.02590480212496656</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1316,16 +1315,16 @@
         <v>32117.33333333333</v>
       </c>
       <c r="B54">
-        <v>0.04987500000000002</v>
+        <v>0.04766666666666657</v>
       </c>
       <c r="C54">
-        <v>0.05448883458564069</v>
+        <v>0.05522157538564443</v>
       </c>
       <c r="D54">
-        <v>265.6423502171239</v>
+        <v>265.4682762161945</v>
       </c>
       <c r="E54">
-        <v>0.02694499788517641</v>
+        <v>0.02615888338575086</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1333,16 +1332,16 @@
         <v>32147.75</v>
       </c>
       <c r="B55">
-        <v>0.05025000000000002</v>
+        <v>0.0479999999999999</v>
       </c>
       <c r="C55">
-        <v>0.05411028957894359</v>
+        <v>0.05597635001174694</v>
       </c>
       <c r="D55">
-        <v>265.6968390517095</v>
+        <v>265.5234977915801</v>
       </c>
       <c r="E55">
-        <v>0.02719106830750192</v>
+        <v>0.02640826285000173</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1350,16 +1349,16 @@
         <v>32178.16666666667</v>
       </c>
       <c r="B56">
-        <v>0.05062500000000002</v>
+        <v>0.04833333333333324</v>
       </c>
       <c r="C56">
-        <v>0.05446264433726355</v>
+        <v>0.05561409260383243</v>
       </c>
       <c r="D56">
-        <v>265.7509493412884</v>
+        <v>265.5794741415918</v>
       </c>
       <c r="E56">
-        <v>0.02743542922859867</v>
+        <v>0.02666105086046986</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1367,16 +1366,16 @@
         <v>32208.58333333333</v>
       </c>
       <c r="B57">
-        <v>0.05100000000000002</v>
+        <v>0.04866666666666657</v>
       </c>
       <c r="C57">
-        <v>-0.3232648379821512</v>
+        <v>-0.391462324405552</v>
       </c>
       <c r="D57">
-        <v>265.8054119856257</v>
+        <v>265.6350882341957</v>
       </c>
       <c r="E57">
-        <v>0.02768138137631754</v>
+        <v>0.02691220292416021</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1384,16 +1383,16 @@
         <v>32269.41666666667</v>
       </c>
       <c r="B58">
-        <v>0.05137500000000002</v>
+        <v>0.0489999999999999</v>
       </c>
       <c r="C58">
-        <v>1.065585901683335</v>
+        <v>1.008828569435082</v>
       </c>
       <c r="D58">
-        <v>264.0087821801188</v>
+        <v>263.8391104146734</v>
       </c>
       <c r="E58">
-        <v>0.0195678392467159</v>
+        <v>0.018801605149449</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1402,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1434,33 +1433,33 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>32299.83333333333</v>
+        <v>32330.25</v>
       </c>
       <c r="B2">
-        <v>0.05175000000000002</v>
+        <v>0.04933333333333323</v>
       </c>
       <c r="C2">
-        <v>0.2995919547370249</v>
+        <v>-1.217268772885291</v>
       </c>
       <c r="D2">
-        <v>265.0743680818022</v>
+        <v>265.1298180504522</v>
       </c>
       <c r="E2">
-        <v>0.02438000259807362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>32330.25</v>
+        <v>32421.5</v>
       </c>
       <c r="B3">
-        <v>0.05175000000000002</v>
+        <v>0.04999999999999989</v>
       </c>
       <c r="C3">
-        <v>-1.296955406465031</v>
+        <v>-1.250961253607784</v>
       </c>
       <c r="D3">
-        <v>265.3739600365392</v>
+        <v>265.2361443065009</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1468,767 +1467,716 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>32391.08333333333</v>
+        <v>32482.33333333333</v>
       </c>
       <c r="B4">
-        <v>0.05250000000000002</v>
+        <v>0.05066666666666655</v>
       </c>
       <c r="C4">
-        <v>0.3061325130338446</v>
+        <v>0.305033774468825</v>
       </c>
       <c r="D4">
-        <v>265.1670197204332</v>
+        <v>265.0441488682977</v>
       </c>
       <c r="E4">
-        <v>0.02479841543476703</v>
+        <v>0.02424353327025759</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>32421.5</v>
+        <v>32512.75</v>
       </c>
       <c r="B5">
-        <v>0.05250000000000002</v>
+        <v>0.05099999999999989</v>
       </c>
       <c r="C5">
-        <v>-1.327693799427038</v>
+        <v>0.1158767962831462</v>
       </c>
       <c r="D5">
-        <v>265.4731522334671</v>
+        <v>265.3491826427666</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.02562105933184155</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>32482.33333333333</v>
+        <v>32543.16666666667</v>
       </c>
       <c r="B6">
-        <v>0.05325000000000002</v>
+        <v>0.05133333333333322</v>
       </c>
       <c r="C6">
-        <v>0.3205957037681628</v>
+        <v>0.07239332003962318</v>
       </c>
       <c r="D6">
-        <v>265.2594598959246</v>
+        <v>265.4650594390497</v>
       </c>
       <c r="E6">
-        <v>0.02521587330840219</v>
+        <v>0.02614435648833147</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>32512.75</v>
+        <v>32573.58333333333</v>
       </c>
       <c r="B7">
-        <v>0.05362500000000002</v>
+        <v>0.05166666666666655</v>
       </c>
       <c r="C7">
-        <v>0.1241806786996449</v>
+        <v>0.05940701877671017</v>
       </c>
       <c r="D7">
-        <v>265.5800555996927</v>
+        <v>265.5374527590893</v>
       </c>
       <c r="E7">
-        <v>0.02666367671293185</v>
+        <v>0.02647128318755617</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>32543.16666666667</v>
+        <v>32604</v>
       </c>
       <c r="B8">
-        <v>0.05400000000000002</v>
+        <v>0.05199999999999988</v>
       </c>
       <c r="C8">
-        <v>0.0713866639924845</v>
+        <v>0.05582914170793174</v>
       </c>
       <c r="D8">
-        <v>265.7042362783924</v>
+        <v>265.596859777866</v>
       </c>
       <c r="E8">
-        <v>0.02722447402644845</v>
+        <v>0.02673956402546809</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>32573.58333333333</v>
+        <v>32634.41666666667</v>
       </c>
       <c r="B9">
-        <v>0.05437500000000002</v>
+        <v>0.05233333333333321</v>
       </c>
       <c r="C9">
-        <v>0.05729798531126562</v>
+        <v>0.04505587520748122</v>
       </c>
       <c r="D9">
-        <v>265.7756229423849</v>
+        <v>265.652688919574</v>
       </c>
       <c r="E9">
-        <v>0.02754685468829633</v>
+        <v>0.02699168724635548</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>32604</v>
+        <v>32664.83333333333</v>
       </c>
       <c r="B10">
-        <v>0.05475000000000002</v>
+        <v>0.05233333333333321</v>
       </c>
       <c r="C10">
-        <v>0.05326349513291007</v>
+        <v>-1.461060896766867</v>
       </c>
       <c r="D10">
-        <v>265.8329209276961</v>
+        <v>265.6977447947814</v>
       </c>
       <c r="E10">
-        <v>0.02780561117577034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>32634.41666666667</v>
+        <v>32725.66666666667</v>
       </c>
       <c r="B11">
-        <v>0.05512500000000002</v>
+        <v>0.05299999999999987</v>
       </c>
       <c r="C11">
-        <v>0.04501167021783203</v>
+        <v>0.3354055596170156</v>
       </c>
       <c r="D11">
-        <v>265.886184422829</v>
+        <v>265.3844616437617</v>
       </c>
       <c r="E11">
-        <v>0.02804614799109321</v>
+        <v>0.02578037855274468</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>32664.83333333333</v>
+        <v>32756.08333333333</v>
       </c>
       <c r="B12">
-        <v>0.05512500000000002</v>
+        <v>0.0533333333333332</v>
       </c>
       <c r="C12">
-        <v>-1.544575414227779</v>
+        <v>0.1290242990207844</v>
       </c>
       <c r="D12">
-        <v>265.9311960930469</v>
+        <v>265.7198672033787</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.02729506295245468</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>32725.66666666667</v>
+        <v>32786.5</v>
       </c>
       <c r="B13">
-        <v>0.05587500000000002</v>
+        <v>0.05366666666666654</v>
       </c>
       <c r="C13">
-        <v>0.3525597047917017</v>
+        <v>0.07476619747774294</v>
       </c>
       <c r="D13">
-        <v>265.5856153748106</v>
+        <v>265.8488915023995</v>
       </c>
       <c r="E13">
-        <v>0.02668878453954783</v>
+        <v>0.02787773395270118</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>32756.08333333333</v>
+        <v>32816.91666666666</v>
       </c>
       <c r="B14">
-        <v>0.05625000000000002</v>
+        <v>0.05399999999999987</v>
       </c>
       <c r="C14">
-        <v>0.1338698343704436</v>
+        <v>0.06253959601826864</v>
       </c>
       <c r="D14">
-        <v>265.9381750796023</v>
+        <v>265.9236576998773</v>
       </c>
       <c r="E14">
-        <v>0.02828093669535623</v>
+        <v>0.02821537651615315</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>32786.5</v>
+        <v>32847.33333333334</v>
       </c>
       <c r="B15">
-        <v>0.05662500000000002</v>
+        <v>0.0543333333333332</v>
       </c>
       <c r="C15">
-        <v>0.07346899912499794</v>
+        <v>0.05687242609030818</v>
       </c>
       <c r="D15">
-        <v>266.0720449139727</v>
+        <v>265.9861972958955</v>
       </c>
       <c r="E15">
-        <v>0.02888549003056096</v>
+        <v>0.02849780400650604</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>32816.91666666666</v>
+        <v>32877.75</v>
       </c>
       <c r="B16">
-        <v>0.05700000000000002</v>
+        <v>0.05466666666666653</v>
       </c>
       <c r="C16">
-        <v>0.05965882921873344</v>
+        <v>0.04502512252383895</v>
       </c>
       <c r="D16">
-        <v>266.1455139130977</v>
+        <v>266.0430697219858</v>
       </c>
       <c r="E16">
-        <v>0.02921727447374073</v>
+        <v>0.02875463867755624</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>32847.33333333334</v>
+        <v>32908.16666666666</v>
       </c>
       <c r="B17">
-        <v>0.05737500000000002</v>
+        <v>0.05466666666666653</v>
       </c>
       <c r="C17">
-        <v>0.05638602909971269</v>
+        <v>-1.598136129106365</v>
       </c>
       <c r="D17">
-        <v>266.2051727423164</v>
+        <v>266.0880948445097</v>
       </c>
       <c r="E17">
-        <v>0.02948669248227265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>32877.75</v>
+        <v>32969</v>
       </c>
       <c r="B18">
-        <v>0.05775000000000002</v>
+        <v>0.05499999999999986</v>
       </c>
       <c r="C18">
-        <v>0.05002070569696571</v>
+        <v>-1.189911961808662</v>
       </c>
       <c r="D18">
-        <v>266.2615587714162</v>
+        <v>265.7167614415357</v>
       </c>
       <c r="E18">
-        <v>0.02974133059482058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>32908.16666666666</v>
+        <v>33029.83333333334</v>
       </c>
       <c r="B19">
-        <v>0.05775000000000002</v>
+        <v>0.05566666666666652</v>
       </c>
       <c r="C19">
-        <v>-1.678816485064658</v>
+        <v>0.373758130441729</v>
       </c>
       <c r="D19">
-        <v>266.3115794771131</v>
+        <v>265.7773617158902</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.02755470695259998</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>32969</v>
+        <v>33060.25</v>
       </c>
       <c r="B20">
-        <v>0.05812500000000002</v>
+        <v>0.05599999999999986</v>
       </c>
       <c r="C20">
-        <v>-1.244693170370965</v>
+        <v>0.1419426260363252</v>
       </c>
       <c r="D20">
-        <v>265.9138709262037</v>
+        <v>266.1511198463319</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.02924259074943182</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>33029.83333333334</v>
+        <v>33090.66666666666</v>
       </c>
       <c r="B21">
-        <v>0.05887500000000002</v>
+        <v>0.05633333333333319</v>
       </c>
       <c r="C21">
-        <v>0.3919080944247071</v>
+        <v>0.07871692786238782</v>
       </c>
       <c r="D21">
-        <v>265.9697473757661</v>
+        <v>266.2930624723682</v>
       </c>
       <c r="E21">
-        <v>0.02842351651578915</v>
+        <v>0.02988360064073066</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>33060.25</v>
+        <v>33121.08333333334</v>
       </c>
       <c r="B22">
-        <v>0.05925000000000002</v>
+        <v>0.05666666666666652</v>
       </c>
       <c r="C22">
-        <v>0.1474784839638232</v>
+        <v>0.06080757913809975</v>
       </c>
       <c r="D22">
-        <v>266.3616554701908</v>
+        <v>266.3717794002306</v>
       </c>
       <c r="E22">
-        <v>0.03019336516535545</v>
+        <v>0.03023908461888054</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>33090.66666666666</v>
+        <v>33151.5</v>
       </c>
       <c r="B23">
-        <v>0.05962500000000003</v>
+        <v>0.05699999999999985</v>
       </c>
       <c r="C23">
-        <v>0.07836237693607018</v>
+        <v>0.05844644370358765</v>
       </c>
       <c r="D23">
-        <v>266.5091339541547</v>
+        <v>266.4325869793687</v>
       </c>
       <c r="E23">
-        <v>0.03085937487374522</v>
+        <v>0.03051369035770533</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>33121.08333333334</v>
+        <v>33181.91666666666</v>
       </c>
       <c r="B24">
-        <v>0.06000000000000003</v>
+        <v>0.05733333333333318</v>
       </c>
       <c r="C24">
-        <v>0.06079107629818736</v>
+        <v>0.05781671625459239</v>
       </c>
       <c r="D24">
-        <v>266.5874963310907</v>
+        <v>266.4910334230723</v>
       </c>
       <c r="E24">
-        <v>0.03121325770742512</v>
+        <v>0.03077763325894253</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>33151.5</v>
+        <v>33212.33333333334</v>
       </c>
       <c r="B25">
-        <v>0.06037500000000003</v>
+        <v>0.05766666666666651</v>
       </c>
       <c r="C25">
-        <v>0.05588492125434641</v>
+        <v>0.05822321623907101</v>
       </c>
       <c r="D25">
-        <v>266.6482874073889</v>
+        <v>266.5488501393269</v>
       </c>
       <c r="E25">
-        <v>0.03148778891977471</v>
+        <v>0.03103873232436422</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>33181.91666666666</v>
+        <v>33242.75</v>
       </c>
       <c r="B26">
-        <v>0.06075000000000003</v>
+        <v>0.05799999999999984</v>
       </c>
       <c r="C26">
-        <v>0.05749089613379965</v>
+        <v>0.05888775538369373</v>
       </c>
       <c r="D26">
-        <v>266.7041723286433</v>
+        <v>266.6070733555659</v>
       </c>
       <c r="E26">
-        <v>0.0317401640399118</v>
+        <v>0.03130166713510192</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>33212.33333333334</v>
+        <v>33273.16666666666</v>
       </c>
       <c r="B27">
-        <v>0.06112500000000003</v>
+        <v>0.05833333333333317</v>
       </c>
       <c r="C27">
-        <v>0.05635885735898682</v>
+        <v>0.04696166027599702</v>
       </c>
       <c r="D27">
-        <v>266.7616632247771</v>
+        <v>266.6659611109496</v>
       </c>
       <c r="E27">
-        <v>0.03199979170857255</v>
+        <v>0.03156760299053452</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>33242.75</v>
+        <v>33303.58333333334</v>
       </c>
       <c r="B28">
-        <v>0.06150000000000003</v>
+        <v>0.05833333333333317</v>
       </c>
       <c r="C28">
-        <v>0.05504413112578277</v>
+        <v>-1.82501458068964</v>
       </c>
       <c r="D28">
-        <v>266.8180220821361</v>
+        <v>266.7129227712256</v>
       </c>
       <c r="E28">
-        <v>0.03225430711411503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>33273.16666666666</v>
+        <v>33364.41666666666</v>
       </c>
       <c r="B29">
-        <v>0.06187500000000003</v>
+        <v>0.05899999999999984</v>
       </c>
       <c r="C29">
-        <v>0.04741720420986439</v>
+        <v>0.4240545998275138</v>
       </c>
       <c r="D29">
-        <v>266.8730662132618</v>
+        <v>266.2779585622062</v>
       </c>
       <c r="E29">
-        <v>0.03250288524384853</v>
+        <v>0.02981539170250328</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>33303.58333333334</v>
+        <v>33394.83333333334</v>
       </c>
       <c r="B30">
-        <v>0.06187500000000003</v>
+        <v>0.05933333333333317</v>
       </c>
       <c r="C30">
-        <v>-1.905278346583145</v>
+        <v>0.1587011705100849</v>
       </c>
       <c r="D30">
-        <v>266.9204834174717</v>
+        <v>266.7020131620337</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.03173041328925764</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>33334</v>
+        <v>33425.25</v>
       </c>
       <c r="B31">
-        <v>0.06225000000000003</v>
+        <v>0.0596666666666665</v>
       </c>
       <c r="C31">
-        <v>1.433881430369411</v>
+        <v>0.07571271294807502</v>
       </c>
       <c r="D31">
-        <v>265.0152050708886</v>
+        <v>266.8607143325438</v>
       </c>
       <c r="E31">
-        <v>0.0241128236945007</v>
+        <v>0.03244710441227257</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>33364.41666666666</v>
+        <v>33455.66666666666</v>
       </c>
       <c r="B32">
-        <v>0.06262500000000003</v>
+        <v>0.0596666666666665</v>
       </c>
       <c r="C32">
-        <v>0.4369832223203503</v>
+        <v>-1.913720055799558</v>
       </c>
       <c r="D32">
-        <v>266.449086501258</v>
+        <v>266.9364270454919</v>
       </c>
       <c r="E32">
-        <v>0.03058820184891887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>33394.83333333334</v>
+        <v>33486.08333333334</v>
       </c>
       <c r="B33">
-        <v>0.06300000000000003</v>
+        <v>0.0596666666666665</v>
       </c>
       <c r="C33">
-        <v>0.1626716554865197</v>
+        <v>0.00913549116410195</v>
       </c>
       <c r="D33">
-        <v>266.8860697235783</v>
+        <v>265.0227069896923</v>
       </c>
       <c r="E33">
-        <v>0.03256160882088265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>33425.25</v>
+        <v>33516.5</v>
       </c>
       <c r="B34">
-        <v>0.06337500000000003</v>
+        <v>0.05999999999999983</v>
       </c>
       <c r="C34">
-        <v>0.07641373009255403</v>
+        <v>1.445019392177301</v>
       </c>
       <c r="D34">
-        <v>267.0487413790648</v>
+        <v>265.0318424808564</v>
       </c>
       <c r="E34">
-        <v>0.03329623056991318</v>
+        <v>0.02418795788535528</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>33455.66666666666</v>
+        <v>33546.91666666666</v>
       </c>
       <c r="B35">
-        <v>0.06337500000000003</v>
+        <v>0.06033333333333316</v>
       </c>
       <c r="C35">
-        <v>-1.981870824470775</v>
+        <v>0.4433893834871014</v>
       </c>
       <c r="D35">
-        <v>267.1251551091574</v>
+        <v>266.4768618730337</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.03071363483927508</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>33486.08333333334</v>
+        <v>33577.33333333334</v>
       </c>
       <c r="B36">
-        <v>0.06337500000000003</v>
+        <v>0.06066666666666649</v>
       </c>
       <c r="C36">
-        <v>0.005935409649850953</v>
+        <v>0.1660547619488852</v>
       </c>
       <c r="D36">
-        <v>265.1432842846866</v>
+        <v>266.9202512565208</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.03271597189931628</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>33516.5</v>
+        <v>33607.75</v>
       </c>
       <c r="B37">
-        <v>0.06375000000000003</v>
+        <v>0.06099999999999983</v>
       </c>
       <c r="C37">
-        <v>1.48693283630314</v>
+        <v>0.09069251335540685</v>
       </c>
       <c r="D37">
-        <v>265.1492196943365</v>
+        <v>267.0863060184697</v>
       </c>
       <c r="E37">
-        <v>0.02471803089411112</v>
+        <v>0.03346587168543994</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>33546.91666666666</v>
+        <v>33638.16666666666</v>
       </c>
       <c r="B38">
-        <v>0.06412500000000003</v>
+        <v>0.06133333333333316</v>
       </c>
       <c r="C38">
-        <v>0.4564642858020989</v>
+        <v>0.06592228159502156</v>
       </c>
       <c r="D38">
-        <v>266.6361525306396</v>
+        <v>267.1769985318251</v>
       </c>
       <c r="E38">
-        <v>0.03143298807352288</v>
+        <v>0.03387543715390383</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>33577.33333333334</v>
+        <v>33668.58333333334</v>
       </c>
       <c r="B39">
-        <v>0.06450000000000003</v>
+        <v>0.06166666666666649</v>
       </c>
       <c r="C39">
-        <v>0.1710057670159131</v>
+        <v>0.04934067935926123</v>
       </c>
       <c r="D39">
-        <v>267.0926168164417</v>
+        <v>267.2429208134201</v>
       </c>
       <c r="E39">
-        <v>0.03349437111535056</v>
+        <v>0.03417314078063935</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>33607.75</v>
+        <v>33699</v>
       </c>
       <c r="B40">
-        <v>0.06487500000000003</v>
+        <v>0.06166666666666649</v>
       </c>
       <c r="C40">
-        <v>0.08952128451824137</v>
+        <v>-2.048389915995472</v>
       </c>
       <c r="D40">
-        <v>267.2636225834576</v>
+        <v>267.2922614927794</v>
       </c>
       <c r="E40">
-        <v>0.03426662953544109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>33638.16666666666</v>
+        <v>33729.41666666666</v>
       </c>
       <c r="B41">
-        <v>0.06525000000000003</v>
+        <v>0.06199999999999982</v>
       </c>
       <c r="C41">
-        <v>0.06626006476858493</v>
+        <v>1.530827385407861</v>
       </c>
       <c r="D41">
-        <v>267.3531438679759</v>
+        <v>265.2438715767839</v>
       </c>
       <c r="E41">
-        <v>0.03467090575929566</v>
+        <v>0.02514547678949236</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>33668.58333333334</v>
+        <v>33759.83333333334</v>
       </c>
       <c r="B42">
-        <v>0.06562500000000003</v>
+        <v>0.06233333333333315</v>
       </c>
       <c r="C42">
-        <v>0.05153911160584812</v>
+        <v>0.4769936535866464</v>
       </c>
       <c r="D42">
-        <v>267.4194039327444</v>
+        <v>266.7746989621918</v>
       </c>
       <c r="E42">
-        <v>0.03497013480768519</v>
+        <v>0.03205866082249949</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>33699</v>
+        <v>33790.25</v>
       </c>
       <c r="B43">
-        <v>0.06562500000000003</v>
+        <v>0.06266666666666648</v>
       </c>
       <c r="C43">
-        <v>-2.118670355309632</v>
+        <v>0.1743894678551214</v>
       </c>
       <c r="D43">
-        <v>267.4709430443503</v>
+        <v>267.2516926157784</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.03421275405420778</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>33729.41666666666</v>
+        <v>33820.66666666666</v>
       </c>
       <c r="B44">
-        <v>0.06600000000000003</v>
+        <v>0.06299999999999982</v>
       </c>
       <c r="C44">
-        <v>1.567451046163228</v>
+        <v>0.09221505195091595</v>
       </c>
       <c r="D44">
-        <v>265.3522726890407</v>
+        <v>267.4260820836336</v>
       </c>
       <c r="E44">
-        <v>0.02563501391533479</v>
+        <v>0.03500029319558491</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>33759.83333333334</v>
+        <v>33851.08333333334</v>
       </c>
       <c r="B45">
-        <v>0.06637500000000003</v>
+        <v>0.06333333333333316</v>
       </c>
       <c r="C45">
-        <v>0.485742796942418</v>
+        <v>0.06808404270611845</v>
       </c>
       <c r="D45">
-        <v>266.9197237352039</v>
+        <v>267.5182971355845</v>
       </c>
       <c r="E45">
-        <v>0.03271358962422749</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="2">
-        <v>33790.25</v>
-      </c>
-      <c r="B46">
-        <v>0.06675000000000003</v>
-      </c>
-      <c r="C46">
-        <v>0.1768942603306414</v>
-      </c>
-      <c r="D46">
-        <v>267.4054665321463</v>
-      </c>
-      <c r="E46">
-        <v>0.03490719380192894</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="2">
-        <v>33820.66666666666</v>
-      </c>
-      <c r="B47">
-        <v>0.06712500000000003</v>
-      </c>
-      <c r="C47">
-        <v>0.09062721640418658</v>
-      </c>
-      <c r="D47">
-        <v>267.5823607924769</v>
-      </c>
-      <c r="E47">
-        <v>0.03570604453304682</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="2">
-        <v>33851.08333333334</v>
-      </c>
-      <c r="B48">
-        <v>0.06750000000000003</v>
-      </c>
-      <c r="C48">
-        <v>0.06567350753994106</v>
-      </c>
-      <c r="D48">
-        <v>267.6729880088811</v>
-      </c>
-      <c r="E48">
-        <v>0.0361153151218628</v>
+        <v>0.03541673441608219</v>
       </c>
     </row>
   </sheetData>
@@ -2238,7 +2186,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2272,16 +2220,16 @@
         <v>33881.5</v>
       </c>
       <c r="B2">
-        <v>0.06787500000000003</v>
+        <v>0.0636666666666665</v>
       </c>
       <c r="C2">
-        <v>-1.32967207545903</v>
+        <v>-1.329813384102977</v>
       </c>
       <c r="D2">
-        <v>267.7386615164211</v>
+        <v>267.5863811782906</v>
       </c>
       <c r="E2">
-        <v>0.03641189529023722</v>
+        <v>0.03572420051018591</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2289,16 +2237,16 @@
         <v>33911.91666666666</v>
       </c>
       <c r="B3">
-        <v>0.06825000000000003</v>
+        <v>0.06399999999999983</v>
       </c>
       <c r="C3">
-        <v>-0.3489346274539002</v>
+        <v>-0.3444586665533507</v>
       </c>
       <c r="D3">
-        <v>266.408989440962</v>
+        <v>266.2565677941876</v>
       </c>
       <c r="E3">
-        <v>0.03040712437431234</v>
+        <v>0.0297187914474194</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2306,16 +2254,16 @@
         <v>33942.33333333334</v>
       </c>
       <c r="B4">
-        <v>0.06862500000000003</v>
+        <v>0.06433333333333317</v>
       </c>
       <c r="C4">
-        <v>-0.05528950563916624</v>
+        <v>-0.05817039525209111</v>
       </c>
       <c r="D4">
-        <v>266.0600548135081</v>
+        <v>265.9121091276343</v>
       </c>
       <c r="E4">
-        <v>0.02883134299094304</v>
+        <v>0.02816322340862764</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2323,16 +2271,16 @@
         <v>33972.75</v>
       </c>
       <c r="B5">
-        <v>0.06900000000000003</v>
+        <v>0.06466666666666651</v>
       </c>
       <c r="C5">
-        <v>0.02215571633928448</v>
+        <v>0.02371744137690257</v>
       </c>
       <c r="D5">
-        <v>266.004765307869</v>
+        <v>265.8539387323822</v>
       </c>
       <c r="E5">
-        <v>0.02858165675510676</v>
+        <v>0.02790052713634798</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2340,16 +2288,16 @@
         <v>34003.16666666666</v>
       </c>
       <c r="B6">
-        <v>0.06937500000000003</v>
+        <v>0.06499999999999985</v>
       </c>
       <c r="C6">
-        <v>0.03854158107401418</v>
+        <v>0.05096540002375605</v>
       </c>
       <c r="D6">
-        <v>266.0269210242083</v>
+        <v>265.8776561737591</v>
       </c>
       <c r="E6">
-        <v>0.02868171150059699</v>
+        <v>0.02800763459901389</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2357,16 +2305,16 @@
         <v>34033.58333333334</v>
       </c>
       <c r="B7">
-        <v>0.06975000000000003</v>
+        <v>0.06533333333333319</v>
       </c>
       <c r="C7">
-        <v>0.04874480099942957</v>
+        <v>0.05735659283504901</v>
       </c>
       <c r="D7">
-        <v>266.0654626052823</v>
+        <v>265.9286215737828</v>
       </c>
       <c r="E7">
-        <v>0.02885576446399936</v>
+        <v>0.02823779326552233</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2374,16 +2322,16 @@
         <v>34064</v>
       </c>
       <c r="B8">
-        <v>0.07012500000000003</v>
+        <v>0.06566666666666653</v>
       </c>
       <c r="C8">
-        <v>0.05134829243002059</v>
+        <v>0.05818422650429511</v>
       </c>
       <c r="D8">
-        <v>266.1142074062817</v>
+        <v>265.9859781666179</v>
       </c>
       <c r="E8">
-        <v>0.02907589495237027</v>
+        <v>0.02849681442333182</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2391,16 +2339,16 @@
         <v>34094.41666666666</v>
       </c>
       <c r="B9">
-        <v>0.07050000000000003</v>
+        <v>0.06599999999999986</v>
       </c>
       <c r="C9">
-        <v>0.05300024213056531</v>
+        <v>0.05802147316842365</v>
       </c>
       <c r="D9">
-        <v>266.1655556987117</v>
+        <v>266.0441623931222</v>
       </c>
       <c r="E9">
-        <v>0.02930778275287162</v>
+        <v>0.0287595731572534</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2408,16 +2356,16 @@
         <v>34124.83333333334</v>
       </c>
       <c r="B10">
-        <v>0.07087500000000004</v>
+        <v>0.0663333333333332</v>
       </c>
       <c r="C10">
-        <v>0.05475470334363308</v>
+        <v>0.05790100757417349</v>
       </c>
       <c r="D10">
-        <v>266.2185559408423</v>
+        <v>266.1021838662906</v>
       </c>
       <c r="E10">
-        <v>0.02954713072321446</v>
+        <v>0.02902159690055915</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2425,16 +2373,16 @@
         <v>34155.25</v>
       </c>
       <c r="B11">
-        <v>0.07125000000000004</v>
+        <v>0.06666666666666654</v>
       </c>
       <c r="C11">
-        <v>0.05505176275983104</v>
+        <v>0.05754338634119449</v>
       </c>
       <c r="D11">
-        <v>266.2733106441859</v>
+        <v>266.1600848738648</v>
       </c>
       <c r="E11">
-        <v>0.02979440180321697</v>
+        <v>0.02928307662379406</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2442,16 +2390,16 @@
         <v>34185.66666666666</v>
       </c>
       <c r="B12">
-        <v>0.07162500000000004</v>
+        <v>0.06699999999999988</v>
       </c>
       <c r="C12">
-        <v>0.04889277130541814</v>
+        <v>0.04826971683314696</v>
       </c>
       <c r="D12">
-        <v>266.3283624069458</v>
+        <v>266.217628260206</v>
       </c>
       <c r="E12">
-        <v>0.03004301439724806</v>
+        <v>0.02954294133711909</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2459,16 +2407,16 @@
         <v>34276.91666666666</v>
       </c>
       <c r="B13">
-        <v>0.07237500000000004</v>
+        <v>0.06766666666666656</v>
       </c>
       <c r="C13">
-        <v>0.4351494091381483</v>
+        <v>0.4300936819035996</v>
       </c>
       <c r="D13">
-        <v>265.8950331418758</v>
+        <v>265.8037877178746</v>
       </c>
       <c r="E13">
-        <v>0.02808610861879688</v>
+        <v>0.02767404621757289</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2476,16 +2424,16 @@
         <v>34307.33333333334</v>
       </c>
       <c r="B14">
-        <v>0.07275000000000004</v>
+        <v>0.06799999999999989</v>
       </c>
       <c r="C14">
-        <v>0.1697573218991693</v>
+        <v>0.1679337352716175</v>
       </c>
       <c r="D14">
-        <v>266.330182551014</v>
+        <v>266.2338813997782</v>
       </c>
       <c r="E14">
-        <v>0.03005123412928991</v>
+        <v>0.0296163401710097</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2493,16 +2441,16 @@
         <v>34337.75</v>
       </c>
       <c r="B15">
-        <v>0.07312500000000004</v>
+        <v>0.06833333333333323</v>
       </c>
       <c r="C15">
-        <v>0.08963315224377766</v>
+        <v>0.08987896549240304</v>
       </c>
       <c r="D15">
-        <v>266.4999398729132</v>
+        <v>266.4018151350498</v>
       </c>
       <c r="E15">
-        <v>0.03081785459768891</v>
+        <v>0.03037472536084189</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2510,16 +2458,16 @@
         <v>34368.16666666666</v>
       </c>
       <c r="B16">
-        <v>0.07350000000000004</v>
+        <v>0.06866666666666657</v>
       </c>
       <c r="C16">
-        <v>0.065068448421016</v>
+        <v>0.06770111997934691</v>
       </c>
       <c r="D16">
-        <v>266.5895730251569</v>
+        <v>266.4916941005422</v>
       </c>
       <c r="E16">
-        <v>0.03122263601382136</v>
+        <v>0.03078061686439626</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2527,16 +2475,16 @@
         <v>34398.58333333334</v>
       </c>
       <c r="B17">
-        <v>0.07387500000000004</v>
+        <v>0.06899999999999991</v>
       </c>
       <c r="C17">
-        <v>0.05120147929744689</v>
+        <v>0.05220398135963933</v>
       </c>
       <c r="D17">
-        <v>266.654641473578</v>
+        <v>266.5593952205215</v>
       </c>
       <c r="E17">
-        <v>0.03151648374803662</v>
+        <v>0.03108635368758045</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2544,16 +2492,16 @@
         <v>34489.83333333334</v>
       </c>
       <c r="B18">
-        <v>0.07462500000000004</v>
+        <v>0.06966666666666659</v>
       </c>
       <c r="C18">
-        <v>0.4675199697217067</v>
+        <v>0.4678078035722137</v>
       </c>
       <c r="D18">
-        <v>266.1817865654797</v>
+        <v>266.0987264872409</v>
       </c>
       <c r="E18">
-        <v>0.02938108100325027</v>
+        <v>0.02900598345003567</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2561,16 +2509,16 @@
         <v>34520.25</v>
       </c>
       <c r="B19">
-        <v>0.07500000000000004</v>
+        <v>0.06999999999999992</v>
       </c>
       <c r="C19">
-        <v>0.1784628492828233</v>
+        <v>0.1823919551696918</v>
       </c>
       <c r="D19">
-        <v>266.6493065352014</v>
+        <v>266.5665342908131</v>
       </c>
       <c r="E19">
-        <v>0.03149239127937963</v>
+        <v>0.03111859357773455</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2578,16 +2526,16 @@
         <v>34550.66666666666</v>
       </c>
       <c r="B20">
-        <v>0.07537500000000004</v>
+        <v>0.07033333333333326</v>
       </c>
       <c r="C20">
-        <v>0.09573294223491757</v>
+        <v>0.09458084359766872</v>
       </c>
       <c r="D20">
-        <v>266.8277693844842</v>
+        <v>266.7489262459828</v>
       </c>
       <c r="E20">
-        <v>0.03229832572496594</v>
+        <v>0.03194227178224479</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2595,16 +2543,16 @@
         <v>34581.08333333334</v>
       </c>
       <c r="B21">
-        <v>0.07575000000000004</v>
+        <v>0.0706666666666666</v>
       </c>
       <c r="C21">
-        <v>0.06733823462832333</v>
+        <v>0.06907729966121678</v>
       </c>
       <c r="D21">
-        <v>266.9235023267191</v>
+        <v>266.8435070895805</v>
       </c>
       <c r="E21">
-        <v>0.03273065366343878</v>
+        <v>0.03236939686768583</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2612,16 +2560,16 @@
         <v>34611.5</v>
       </c>
       <c r="B22">
-        <v>0.07612500000000004</v>
+        <v>0.07099999999999994</v>
       </c>
       <c r="C22">
-        <v>0.05976570498705769</v>
+        <v>0.06253597016859658</v>
       </c>
       <c r="D22">
-        <v>266.9908405613475</v>
+        <v>266.9125843892417</v>
       </c>
       <c r="E22">
-        <v>0.03303475170406766</v>
+        <v>0.03268134848915091</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2629,16 +2577,16 @@
         <v>34641.91666666666</v>
       </c>
       <c r="B23">
-        <v>0.07650000000000004</v>
+        <v>0.07133333333333328</v>
       </c>
       <c r="C23">
-        <v>0.05691361170488562</v>
+        <v>0.06231399772991608</v>
       </c>
       <c r="D23">
-        <v>267.0506062663345</v>
+        <v>266.9751203594103</v>
       </c>
       <c r="E23">
-        <v>0.03330465236130459</v>
+        <v>0.03296375960524361</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2646,16 +2594,16 @@
         <v>34672.33333333334</v>
       </c>
       <c r="B24">
-        <v>0.07687500000000004</v>
+        <v>0.07166666666666661</v>
       </c>
       <c r="C24">
-        <v>0.05788584277354403</v>
+        <v>0.05990063509125321</v>
       </c>
       <c r="D24">
-        <v>267.1075198780394</v>
+        <v>267.0374343571402</v>
       </c>
       <c r="E24">
-        <v>0.0335616730257174</v>
+        <v>0.03324516829850691</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2663,16 +2611,16 @@
         <v>34702.75</v>
       </c>
       <c r="B25">
-        <v>0.07725000000000004</v>
+        <v>0.07199999999999995</v>
       </c>
       <c r="C25">
-        <v>0.05723330268494919</v>
+        <v>0.05865911381454225</v>
       </c>
       <c r="D25">
-        <v>267.1654057208129</v>
+        <v>267.0973349922315</v>
       </c>
       <c r="E25">
-        <v>0.03382308426503412</v>
+        <v>0.03351567829723504</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2680,16 +2628,16 @@
         <v>34733.16666666666</v>
       </c>
       <c r="B26">
-        <v>0.07762500000000004</v>
+        <v>0.07233333333333329</v>
       </c>
       <c r="C26">
-        <v>0.05640984243837011</v>
+        <v>0.05809878556192416</v>
       </c>
       <c r="D26">
-        <v>267.2226390234979</v>
+        <v>267.155994106046</v>
       </c>
       <c r="E26">
-        <v>0.03408154864713846</v>
+        <v>0.03378058161218664</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2697,16 +2645,16 @@
         <v>34763.58333333334</v>
       </c>
       <c r="B27">
-        <v>0.07800000000000004</v>
+        <v>0.07266666666666663</v>
       </c>
       <c r="C27">
-        <v>0.05480283132703789</v>
+        <v>0.05759459086209517</v>
       </c>
       <c r="D27">
-        <v>267.2790488659363</v>
+        <v>267.2140928916079</v>
       </c>
       <c r="E27">
-        <v>0.03433629430021901</v>
+        <v>0.03404295449662303</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2714,152 +2662,16 @@
         <v>34794</v>
       </c>
       <c r="B28">
-        <v>0.07837500000000004</v>
+        <v>0.07299999999999997</v>
       </c>
       <c r="C28">
-        <v>-0.2970579091148693</v>
+        <v>-0.5715091048417662</v>
       </c>
       <c r="D28">
-        <v>267.3338516972633</v>
+        <v>267.27168748247</v>
       </c>
       <c r="E28">
-        <v>0.03458378272517471</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="2">
-        <v>34824.41666666666</v>
-      </c>
-      <c r="B29">
-        <v>0.07837500000000004</v>
-      </c>
-      <c r="C29">
-        <v>-0.1420089504854332</v>
-      </c>
-      <c r="D29">
-        <v>267.0367937881484</v>
-      </c>
-      <c r="E29">
-        <v>0.03324227550251401</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="2">
-        <v>34854.83333333334</v>
-      </c>
-      <c r="B30">
-        <v>0.07837500000000004</v>
-      </c>
-      <c r="C30">
-        <v>-0.04457243222907437</v>
-      </c>
-      <c r="D30">
-        <v>266.894784837663</v>
-      </c>
-      <c r="E30">
-        <v>0.03260096609140858</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="2">
-        <v>34885.25</v>
-      </c>
-      <c r="B31">
-        <v>0.07837500000000004</v>
-      </c>
-      <c r="C31">
-        <v>-0.01341904221510504</v>
-      </c>
-      <c r="D31">
-        <v>266.8502124054339</v>
-      </c>
-      <c r="E31">
-        <v>0.03239967793198883</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="2">
-        <v>34915.66666666666</v>
-      </c>
-      <c r="B32">
-        <v>0.07837500000000004</v>
-      </c>
-      <c r="C32">
-        <v>-0.00403863759675005</v>
-      </c>
-      <c r="D32">
-        <v>266.8367933632188</v>
-      </c>
-      <c r="E32">
-        <v>0.03233907782170599</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="2">
-        <v>34946.08333333334</v>
-      </c>
-      <c r="B33">
-        <v>0.07837500000000004</v>
-      </c>
-      <c r="C33">
-        <v>-0.001215361773233781</v>
-      </c>
-      <c r="D33">
-        <v>266.8327547256221</v>
-      </c>
-      <c r="E33">
-        <v>0.03232083941990103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="2">
-        <v>34976.5</v>
-      </c>
-      <c r="B34">
-        <v>0.07837500000000004</v>
-      </c>
-      <c r="C34">
-        <v>-0.0003657323856032235</v>
-      </c>
-      <c r="D34">
-        <v>266.8315393638488</v>
-      </c>
-      <c r="E34">
-        <v>0.03231535087188765</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="2">
-        <v>35006.91666666666</v>
-      </c>
-      <c r="B35">
-        <v>0.07837500000000004</v>
-      </c>
-      <c r="C35">
-        <v>-0.0001100569318168709</v>
-      </c>
-      <c r="D35">
-        <v>266.8311736314632</v>
-      </c>
-      <c r="E35">
-        <v>0.03231369923218446</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="2">
-        <v>35037.33333333334</v>
-      </c>
-      <c r="B36">
-        <v>0.07837500000000004</v>
-      </c>
-      <c r="C36">
-        <v>-1.315000355847928</v>
-      </c>
-      <c r="D36">
-        <v>266.8310635745314</v>
-      </c>
-      <c r="E36">
-        <v>0.03231320221741246</v>
+        <v>0.03430305044847944</v>
       </c>
     </row>
   </sheetData>
@@ -2903,16 +2715,16 @@
         <v>35128.58333333334</v>
       </c>
       <c r="B2">
-        <v>0.04004166666666667</v>
+        <v>0.04805833333333333</v>
       </c>
       <c r="C2">
-        <v>0.7335758779572643</v>
+        <v>1.011696072825771</v>
       </c>
       <c r="D2">
-        <v>264.0971095158772</v>
+        <v>264.1043233977558</v>
       </c>
       <c r="E2">
-        <v>0.01917744176227515</v>
+        <v>0.01921001949997113</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2920,16 +2732,16 @@
         <v>35159</v>
       </c>
       <c r="B3">
-        <v>0.04008333333333334</v>
+        <v>0.04811666666666667</v>
       </c>
       <c r="C3">
-        <v>0.2104207373097324</v>
+        <v>0.2937107048639973</v>
       </c>
       <c r="D3">
-        <v>264.8306853938344</v>
+        <v>265.1160194705816</v>
       </c>
       <c r="E3">
-        <v>0.02246903647120722</v>
+        <v>0.02375759911533308</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2937,16 +2749,16 @@
         <v>35189.41666666666</v>
       </c>
       <c r="B4">
-        <v>0.04012500000000001</v>
+        <v>0.048175</v>
       </c>
       <c r="C4">
-        <v>0.09163144580566041</v>
+        <v>0.1182272596704479</v>
       </c>
       <c r="D4">
-        <v>265.0411061311441</v>
+        <v>265.4097301754456</v>
       </c>
       <c r="E4">
-        <v>0.02361670564098122</v>
+        <v>0.02528140401359904</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2954,16 +2766,16 @@
         <v>35219.83333333334</v>
       </c>
       <c r="B5">
-        <v>0.04016666666666668</v>
+        <v>0.04823333333333334</v>
       </c>
       <c r="C5">
-        <v>0.05808301350327838</v>
+        <v>0.06885918742000285</v>
       </c>
       <c r="D5">
-        <v>265.1327375769498</v>
+        <v>265.527957435116</v>
       </c>
       <c r="E5">
-        <v>0.02416328102539983</v>
+        <v>0.02594808552984376</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2971,16 +2783,16 @@
         <v>35250.25</v>
       </c>
       <c r="B6">
-        <v>0.04020833333333335</v>
+        <v>0.04829166666666667</v>
       </c>
       <c r="C6">
-        <v>0.05921903014996133</v>
+        <v>0.06667480357759814</v>
       </c>
       <c r="D6">
-        <v>265.1908205904531</v>
+        <v>265.596816622536</v>
       </c>
       <c r="E6">
-        <v>0.02471328149620617</v>
+        <v>0.02654675097370193</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2988,16 +2800,16 @@
         <v>35280.66666666666</v>
       </c>
       <c r="B7">
-        <v>0.04025000000000001</v>
+        <v>0.04835</v>
       </c>
       <c r="C7">
-        <v>0.04313353207987802</v>
+        <v>0.0492989851038601</v>
       </c>
       <c r="D7">
-        <v>265.250039620603</v>
+        <v>265.6634914261136</v>
       </c>
       <c r="E7">
-        <v>0.0249807133814632</v>
+        <v>0.02684785297376432</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3005,16 +2817,16 @@
         <v>35402.33333333334</v>
       </c>
       <c r="B8">
-        <v>0.04041666666666669</v>
+        <v>0.04858333333333334</v>
       </c>
       <c r="C8">
-        <v>1.002324710485823</v>
+        <v>1.108951364716404</v>
       </c>
       <c r="D8">
-        <v>264.0097917273299</v>
+        <v>264.3041209445629</v>
       </c>
       <c r="E8">
-        <v>0.01826460673889779</v>
+        <v>0.01959379124684305</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3022,16 +2834,16 @@
         <v>35554.41666666666</v>
       </c>
       <c r="B9">
-        <v>0.0405416666666667</v>
+        <v>0.04875833333333334</v>
       </c>
       <c r="C9">
-        <v>1.065355656390693</v>
+        <v>1.178198378262778</v>
       </c>
       <c r="D9">
-        <v>264.0824745113856</v>
+        <v>264.3871144310386</v>
       </c>
       <c r="E9">
-        <v>0.01926789340961291</v>
+        <v>0.0206436408311948</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3039,16 +2851,16 @@
         <v>35615.25</v>
       </c>
       <c r="B10">
-        <v>0.04062500000000004</v>
+        <v>0.04887500000000001</v>
       </c>
       <c r="C10">
-        <v>0.9426516299066634</v>
+        <v>1.049910883688767</v>
       </c>
       <c r="D10">
-        <v>264.1295588754487</v>
+        <v>264.4395176805308</v>
       </c>
       <c r="E10">
-        <v>0.01701543557785937</v>
+        <v>0.0184152029733276</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3056,16 +2868,16 @@
         <v>35645.66666666666</v>
       </c>
       <c r="B11">
-        <v>0.04066666666666671</v>
+        <v>0.04893333333333334</v>
       </c>
       <c r="C11">
-        <v>0.3793165993139382</v>
+        <v>0.4239064011584333</v>
       </c>
       <c r="D11">
-        <v>265.0722105053553</v>
+        <v>265.4894285642196</v>
       </c>
       <c r="E11">
-        <v>0.02316468834909241</v>
+        <v>0.02504883626172843</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3073,16 +2885,16 @@
         <v>35676.08333333334</v>
       </c>
       <c r="B12">
-        <v>0.04070833333333337</v>
+        <v>0.04899166666666668</v>
       </c>
       <c r="C12">
-        <v>0.08900247263579786</v>
+        <v>0.1037329502426019</v>
       </c>
       <c r="D12">
-        <v>265.4515271046693</v>
+        <v>265.913334965378</v>
       </c>
       <c r="E12">
-        <v>0.02421686093945231</v>
+        <v>0.02630237545232341</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3090,16 +2902,16 @@
         <v>35706.5</v>
       </c>
       <c r="B13">
-        <v>0.04075000000000004</v>
+        <v>0.04905000000000001</v>
       </c>
       <c r="C13">
-        <v>0.06396609841578993</v>
+        <v>0.07182643077601369</v>
       </c>
       <c r="D13">
-        <v>265.5405295773051</v>
+        <v>266.0170679156206</v>
       </c>
       <c r="E13">
-        <v>0.0248338731562395</v>
+        <v>0.02698591019383201</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3107,16 +2919,16 @@
         <v>35858.58333333334</v>
       </c>
       <c r="B14">
-        <v>0.04083333333333338</v>
+        <v>0.04916666666666668</v>
       </c>
       <c r="C14">
-        <v>0.7647686605664603</v>
+        <v>0.8736030451755141</v>
       </c>
       <c r="D14">
-        <v>264.2505123764853</v>
+        <v>264.5759969767865</v>
       </c>
       <c r="E14">
-        <v>0.0137462456926475</v>
+        <v>0.0152161272503208</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3124,16 +2936,16 @@
         <v>35889</v>
       </c>
       <c r="B15">
-        <v>0.04087500000000005</v>
+        <v>0.04922500000000001</v>
       </c>
       <c r="C15">
-        <v>0.3959966185020676</v>
+        <v>0.4377363218073924</v>
       </c>
       <c r="D15">
-        <v>265.0152810370517</v>
+        <v>265.4496000219621</v>
       </c>
       <c r="E15">
-        <v>0.02010317641228992</v>
+        <v>0.02206455174456744</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3141,16 +2953,16 @@
         <v>36010.66666666666</v>
       </c>
       <c r="B16">
-        <v>0.04100000000000006</v>
+        <v>0.04940000000000001</v>
       </c>
       <c r="C16">
-        <v>0.9472230831983097</v>
+        <v>1.06359030685303</v>
       </c>
       <c r="D16">
-        <v>264.3486254953903</v>
+        <v>264.6875864775947</v>
       </c>
       <c r="E16">
-        <v>0.01678628649032642</v>
+        <v>0.0183170271030988</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3158,16 +2970,16 @@
         <v>36041.08333333334</v>
       </c>
       <c r="B17">
-        <v>0.04104166666666673</v>
+        <v>0.04945833333333335</v>
       </c>
       <c r="C17">
-        <v>0.2767616564590298</v>
+        <v>0.3192839083966419</v>
       </c>
       <c r="D17">
-        <v>265.2958485785886</v>
+        <v>265.7511767844477</v>
       </c>
       <c r="E17">
-        <v>0.0210109674943419</v>
+        <v>0.02306722002322142</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3175,16 +2987,16 @@
         <v>36071.5</v>
       </c>
       <c r="B18">
-        <v>0.0410833333333334</v>
+        <v>0.04951666666666668</v>
       </c>
       <c r="C18">
-        <v>-0.02266913673679483</v>
+        <v>-1.408725973765627</v>
       </c>
       <c r="D18">
-        <v>265.5726102350476</v>
+        <v>266.0704606928443</v>
       </c>
       <c r="E18">
-        <v>0.02016156600233316</v>
+        <v>0.02240984811988141</v>
       </c>
     </row>
   </sheetData>
@@ -3194,7 +3006,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3228,16 +3040,16 @@
         <v>36101.91666666666</v>
       </c>
       <c r="B2">
-        <v>0.04112500000000006</v>
+        <v>0.04957500000000001</v>
       </c>
       <c r="C2">
-        <v>-1.294844389871514</v>
+        <v>-0.2555555554355351</v>
       </c>
       <c r="D2">
-        <v>265.5499410983108</v>
+        <v>264.6617347190787</v>
       </c>
       <c r="E2">
-        <v>0.02164591615373944</v>
+        <v>0.01763479496695306</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3245,16 +3057,16 @@
         <v>36132.33333333334</v>
       </c>
       <c r="B3">
-        <v>0.04116666666666673</v>
+        <v>0.04963333333333335</v>
       </c>
       <c r="C3">
-        <v>-0.5544601728332736</v>
+        <v>-0.2672740214742362</v>
       </c>
       <c r="D3">
-        <v>264.2550967084393</v>
+        <v>264.4061791636432</v>
       </c>
       <c r="E3">
-        <v>0.01923904299824107</v>
+        <v>0.01992132816438012</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3262,16 +3074,16 @@
         <v>36162.75</v>
       </c>
       <c r="B4">
-        <v>0.0412083333333334</v>
+        <v>0.04969166666666668</v>
       </c>
       <c r="C4">
-        <v>-0.3723010768678705</v>
+        <v>-0.3013358705093196</v>
       </c>
       <c r="D4">
-        <v>263.700636535606</v>
+        <v>264.1389051421689</v>
       </c>
       <c r="E4">
-        <v>0.01243569707070494</v>
+        <v>0.01441490881066992</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3279,16 +3091,16 @@
         <v>36193.16666666666</v>
       </c>
       <c r="B5">
-        <v>0.04125000000000007</v>
+        <v>0.04975000000000002</v>
       </c>
       <c r="C5">
-        <v>-0.1265542468179319</v>
+        <v>-0.1094491630044558</v>
       </c>
       <c r="D5">
-        <v>263.3283354587381</v>
+        <v>263.8375692716596</v>
       </c>
       <c r="E5">
-        <v>0.009805200917680112</v>
+        <v>0.01210489002574902</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3296,16 +3108,16 @@
         <v>36223.58333333334</v>
       </c>
       <c r="B6">
-        <v>0.04129166666666674</v>
+        <v>0.04980833333333335</v>
       </c>
       <c r="C6">
-        <v>-0.08104858485887689</v>
+        <v>-0.07832116295526248</v>
       </c>
       <c r="D6">
-        <v>263.2017812119202</v>
+        <v>263.7281201086552</v>
       </c>
       <c r="E6">
-        <v>0.007902146478438293</v>
+        <v>0.01027908178253797</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3313,16 +3125,16 @@
         <v>36254</v>
       </c>
       <c r="B7">
-        <v>0.04133333333333341</v>
+        <v>0.04986666666666668</v>
       </c>
       <c r="C7">
-        <v>0.004948375068352107</v>
+        <v>0.002913423925519965</v>
       </c>
       <c r="D7">
-        <v>263.1207326270613</v>
+        <v>263.6497989456999</v>
       </c>
       <c r="E7">
-        <v>0.007625411185589633</v>
+        <v>0.01001466346920976</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3330,13 +3142,13 @@
         <v>36284.41666666666</v>
       </c>
       <c r="B8">
-        <v>0.04133333333333341</v>
+        <v>0.04986666666666668</v>
       </c>
       <c r="C8">
-        <v>-0.4007809183037807</v>
+        <v>-0.5491975837610426</v>
       </c>
       <c r="D8">
-        <v>263.1256810021297</v>
+        <v>263.6527123696254</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3344,254 +3156,254 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>36406.08333333334</v>
+        <v>36314.83333333334</v>
       </c>
       <c r="B9">
-        <v>0.04141666666666675</v>
+        <v>0.04986666666666668</v>
       </c>
       <c r="C9">
-        <v>0.09314171299149621</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>263.0383283529508</v>
+        <v>263.1035147858644</v>
       </c>
       <c r="E9">
-        <v>0.006659139327831292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>36436.5</v>
+        <v>36345.25</v>
       </c>
       <c r="B10">
-        <v>0.04145833333333342</v>
+        <v>0.04986666666666668</v>
       </c>
       <c r="C10">
-        <v>0.02811079633158897</v>
+        <v>0.008343739403699146</v>
       </c>
       <c r="D10">
-        <v>263.1314700659423</v>
+        <v>263.1035147858644</v>
       </c>
       <c r="E10">
-        <v>0.006709622926745589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>36466.91666666666</v>
+        <v>36375.66666666666</v>
       </c>
       <c r="B11">
-        <v>0.04150000000000009</v>
+        <v>0.04992500000000002</v>
       </c>
       <c r="C11">
-        <v>-0.105399844000317</v>
+        <v>0.4162576632395485</v>
       </c>
       <c r="D11">
-        <v>263.1595808622739</v>
+        <v>263.1118585252681</v>
       </c>
       <c r="E11">
-        <v>0.004268687223105185</v>
+        <v>0.007101427560006265</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>36497.33333333334</v>
+        <v>36406.08333333334</v>
       </c>
       <c r="B12">
-        <v>0.04154166666666675</v>
+        <v>0.04998333333333335</v>
       </c>
       <c r="C12">
-        <v>-0.002419638183368988</v>
+        <v>0.1280110509776478</v>
       </c>
       <c r="D12">
-        <v>263.0541810182735</v>
+        <v>263.5281161885076</v>
       </c>
       <c r="E12">
-        <v>0.003740407014122274</v>
+        <v>0.008871010814197847</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>36527.75</v>
+        <v>36436.5</v>
       </c>
       <c r="B13">
-        <v>0.04158333333333342</v>
+        <v>0.05004166666666669</v>
       </c>
       <c r="C13">
-        <v>0.04375929027617076</v>
+        <v>0.04163138671106026</v>
       </c>
       <c r="D13">
-        <v>263.0517613800902</v>
+        <v>263.6561272394853</v>
       </c>
       <c r="E13">
-        <v>0.004100938948769403</v>
+        <v>0.009078963604547687</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>36558.16666666666</v>
+        <v>36466.91666666666</v>
       </c>
       <c r="B14">
-        <v>0.04162500000000009</v>
+        <v>0.05010000000000002</v>
       </c>
       <c r="C14">
-        <v>-0.04292809488390503</v>
+        <v>-0.1049330475863144</v>
       </c>
       <c r="D14">
-        <v>263.0955206703663</v>
+        <v>263.6977586261963</v>
       </c>
       <c r="E14">
-        <v>0.002822994774684499</v>
+        <v>0.006699086600548317</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>36588.58333333334</v>
+        <v>36497.33333333334</v>
       </c>
       <c r="B15">
-        <v>0.04166666666666676</v>
+        <v>0.05015833333333335</v>
       </c>
       <c r="C15">
-        <v>-0.1260817182353549</v>
+        <v>-0.0006794295269401118</v>
       </c>
       <c r="D15">
-        <v>263.0525925754824</v>
+        <v>263.59282557861</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.006172914434279351</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>36649.41666666666</v>
+        <v>36527.75</v>
       </c>
       <c r="B16">
-        <v>0.0417500000000001</v>
+        <v>0.05021666666666669</v>
       </c>
       <c r="C16">
-        <v>0.04115858021782515</v>
+        <v>0.04921699474266461</v>
       </c>
       <c r="D16">
-        <v>263.0251448820333</v>
+        <v>263.5921461490831</v>
       </c>
       <c r="E16">
-        <v>0.001694968141138603</v>
+        <v>0.006541305114342398</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>36679.83333333334</v>
+        <v>36558.16666666666</v>
       </c>
       <c r="B17">
-        <v>0.04179166666666677</v>
+        <v>0.05</v>
       </c>
       <c r="C17">
-        <v>0.04102077966672368</v>
+        <v>-0.05010181341117459</v>
       </c>
       <c r="D17">
-        <v>263.0663034622511</v>
+        <v>263.6413631438257</v>
       </c>
       <c r="E17">
-        <v>0.002003346056176383</v>
+        <v>0.005288007817974771</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>36710.25</v>
+        <v>36588.58333333334</v>
       </c>
       <c r="B18">
-        <v>0.04183333333333344</v>
+        <v>0.05</v>
       </c>
       <c r="C18">
-        <v>0.00510945112648642</v>
+        <v>-0.2657629353698212</v>
       </c>
       <c r="D18">
-        <v>263.1073242419178</v>
+        <v>263.5912613304146</v>
       </c>
       <c r="E18">
-        <v>0.001655855305692373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>36740.66666666666</v>
+        <v>36619</v>
       </c>
       <c r="B19">
-        <v>0.04187500000000011</v>
+        <v>0.05</v>
       </c>
       <c r="C19">
-        <v>-0.06869431497023015</v>
+        <v>0.2014013275920661</v>
       </c>
       <c r="D19">
-        <v>263.1124336930443</v>
+        <v>263.3254983950447</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.003193339553972636</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>36771.08333333334</v>
+        <v>36649.41666666666</v>
       </c>
       <c r="B20">
-        <v>0.04187500000000011</v>
+        <v>0.05</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.06565337413303496</v>
       </c>
       <c r="D20">
-        <v>263.0437393780741</v>
+        <v>263.5268997226368</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.003960882368705414</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>36801.5</v>
+        <v>36679.83333333334</v>
       </c>
       <c r="B21">
-        <v>0.04187500000000011</v>
+        <v>0.05</v>
       </c>
       <c r="C21">
-        <v>0.003968762027170669</v>
+        <v>0.04916232845232571</v>
       </c>
       <c r="D21">
-        <v>263.0437393780741</v>
+        <v>263.5925530967698</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.004379878253999378</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>36831.91666666666</v>
+        <v>36710.25</v>
       </c>
       <c r="B22">
-        <v>0.04191666666666678</v>
+        <v>0.05</v>
       </c>
       <c r="C22">
-        <v>0.02469325483900775</v>
+        <v>0.007762046574612214</v>
       </c>
       <c r="D22">
-        <v>263.0477081401012</v>
+        <v>263.6417154252222</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.004069154565305104</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>36862.33333333334</v>
+        <v>36740.66666666666</v>
       </c>
       <c r="B23">
-        <v>0.04195833333333344</v>
+        <v>0.05</v>
       </c>
       <c r="C23">
-        <v>0.02487915292056186</v>
+        <v>-0.2070166211258311</v>
       </c>
       <c r="D23">
-        <v>263.0724013949402</v>
+        <v>263.6494774717968</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -3599,50 +3411,50 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>36892.75</v>
+        <v>36771.08333333334</v>
       </c>
       <c r="B24">
-        <v>0.04200000000000011</v>
+        <v>0.05</v>
       </c>
       <c r="C24">
-        <v>0.3985002881556738</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>263.0972805478608</v>
+        <v>263.442460850671</v>
       </c>
       <c r="E24">
-        <v>0.006955056226514145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>36923.16666666666</v>
+        <v>36801.5</v>
       </c>
       <c r="B25">
-        <v>0.04204166666666678</v>
+        <v>0.05</v>
       </c>
       <c r="C25">
-        <v>0.1819117830995083</v>
+        <v>0.006917686447536653</v>
       </c>
       <c r="D25">
-        <v>263.4957808360165</v>
+        <v>263.442460850671</v>
       </c>
       <c r="E25">
-        <v>0.009771297912933347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>36953.58333333334</v>
+        <v>36831.91666666666</v>
       </c>
       <c r="B26">
-        <v>0.04204166666666678</v>
+        <v>0.05</v>
       </c>
       <c r="C26">
-        <v>-0.5324398872954816</v>
+        <v>0.02550569543757319</v>
       </c>
       <c r="D26">
-        <v>263.677692619116</v>
+        <v>263.4493785371185</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -3650,16 +3462,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>36984</v>
+        <v>36862.33333333334</v>
       </c>
       <c r="B27">
-        <v>0.04208333333333345</v>
+        <v>0.05</v>
       </c>
       <c r="C27">
-        <v>0.02377772525414912</v>
+        <v>0.02523777036560659</v>
       </c>
       <c r="D27">
-        <v>263.1452527318205</v>
+        <v>263.4748842325561</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -3667,203 +3479,203 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>37014.41666666666</v>
+        <v>36892.75</v>
       </c>
       <c r="B28">
-        <v>0.04212500000000012</v>
+        <v>0.05</v>
       </c>
       <c r="C28">
-        <v>0.422062048523685</v>
+        <v>0.5178015925823729</v>
       </c>
       <c r="D28">
-        <v>263.1690304570747</v>
+        <v>263.5001220029217</v>
       </c>
       <c r="E28">
-        <v>0.007367671934833181</v>
+        <v>0.008774279701026316</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>37044.83333333334</v>
+        <v>36923.16666666666</v>
       </c>
       <c r="B29">
-        <v>0.04216666666666679</v>
+        <v>0.05</v>
       </c>
       <c r="C29">
-        <v>0.04221821996645758</v>
+        <v>0.2243912106520156</v>
       </c>
       <c r="D29">
-        <v>263.5910925055983</v>
+        <v>264.017923595504</v>
       </c>
       <c r="E29">
-        <v>0.007698036577129551</v>
+        <v>0.01212928355014349</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>37075.25</v>
+        <v>36953.58333333334</v>
       </c>
       <c r="B30">
-        <v>0.04220833333333346</v>
+        <v>0.05</v>
       </c>
       <c r="C30">
-        <v>0.05546308663883792</v>
+        <v>-0.6924015193917512</v>
       </c>
       <c r="D30">
-        <v>263.6333107255648</v>
+        <v>264.2423148061561</v>
       </c>
       <c r="E30">
-        <v>0.008225776231138529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>37105.66666666666</v>
+        <v>36984</v>
       </c>
       <c r="B31">
-        <v>0.04225000000000013</v>
+        <v>0.05</v>
       </c>
       <c r="C31">
-        <v>0.06526350427759553</v>
+        <v>0.0258849530957832</v>
       </c>
       <c r="D31">
-        <v>263.6887738122036</v>
+        <v>263.5499132867643</v>
       </c>
       <c r="E31">
-        <v>0.008876320623015759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>37136.08333333334</v>
+        <v>37014.41666666666</v>
       </c>
       <c r="B32">
-        <v>0.0422916666666668</v>
+        <v>0.05</v>
       </c>
       <c r="C32">
-        <v>0.008635646251036633</v>
+        <v>0.5462107700681145</v>
       </c>
       <c r="D32">
-        <v>263.7540373164812</v>
+        <v>263.5757982398601</v>
       </c>
       <c r="E32">
-        <v>0.008597838671603625</v>
+        <v>0.009204626622147478</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>37166.5</v>
+        <v>37044.83333333334</v>
       </c>
       <c r="B33">
-        <v>0.04233333333333347</v>
+        <v>0.05</v>
       </c>
       <c r="C33">
-        <v>-0.02246485295711409</v>
+        <v>0.084278814519962</v>
       </c>
       <c r="D33">
-        <v>263.7626729627323</v>
+        <v>264.1220090099282</v>
       </c>
       <c r="E33">
-        <v>0.007803574643416029</v>
+        <v>0.01009564426012458</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>37196.91666666666</v>
+        <v>37075.25</v>
       </c>
       <c r="B34">
-        <v>0.04237500000000013</v>
+        <v>0.05</v>
       </c>
       <c r="C34">
-        <v>-0.008246343750897722</v>
+        <v>0.0714297525727261</v>
       </c>
       <c r="D34">
-        <v>263.7402081097752</v>
+        <v>264.2062878244482</v>
       </c>
       <c r="E34">
-        <v>0.007208672610474895</v>
+        <v>0.01081332866783869</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>37227.33333333334</v>
+        <v>37105.66666666666</v>
       </c>
       <c r="B35">
-        <v>0.0424166666666668</v>
+        <v>0.05</v>
       </c>
       <c r="C35">
-        <v>-0.3731117481096362</v>
+        <v>0.07023123643227791</v>
       </c>
       <c r="D35">
-        <v>263.7319617660243</v>
+        <v>264.2777175770209</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.01153597818472632</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>37257.75</v>
+        <v>37136.08333333334</v>
       </c>
       <c r="B36">
-        <v>0.04245833333333347</v>
+        <v>0.05</v>
       </c>
       <c r="C36">
-        <v>0.02331730492403494</v>
+        <v>0.01021554378917244</v>
       </c>
       <c r="D36">
-        <v>263.3588500179146</v>
+        <v>264.3479488134532</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.01127993040645431</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>37288.16666666666</v>
+        <v>37166.5</v>
       </c>
       <c r="B37">
-        <v>0.04250000000000014</v>
+        <v>0.05</v>
       </c>
       <c r="C37">
-        <v>0.2922591558046861</v>
+        <v>-0.0218402765144674</v>
       </c>
       <c r="D37">
-        <v>263.3821673228387</v>
+        <v>264.3581643572423</v>
       </c>
       <c r="E37">
-        <v>0.004875568870427652</v>
+        <v>0.01049280116206976</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>37318.58333333334</v>
+        <v>37196.91666666666</v>
       </c>
       <c r="B38">
-        <v>0.04254166666666681</v>
+        <v>0.05</v>
       </c>
       <c r="C38">
-        <v>0.1009471062204739</v>
+        <v>-0.01045209363383037</v>
       </c>
       <c r="D38">
-        <v>263.6744264786433</v>
+        <v>264.3363240807279</v>
       </c>
       <c r="E38">
-        <v>0.006255705080339033</v>
+        <v>0.009900719703108345</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>37349</v>
+        <v>37227.33333333334</v>
       </c>
       <c r="B39">
-        <v>0.04258333333333348</v>
+        <v>0.05</v>
       </c>
       <c r="C39">
-        <v>-0.3276657164324206</v>
+        <v>-0.5504991183054244</v>
       </c>
       <c r="D39">
-        <v>263.7753735848638</v>
+        <v>264.325871987094</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -3871,16 +3683,16 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>37379.41666666666</v>
+        <v>37257.75</v>
       </c>
       <c r="B40">
-        <v>0.04258333333333348</v>
+        <v>0.05</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>0.02391480132223478</v>
       </c>
       <c r="D40">
-        <v>263.4477078684314</v>
+        <v>263.7753728687886</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -3888,101 +3700,101 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>37409.83333333334</v>
+        <v>37288.16666666666</v>
       </c>
       <c r="B41">
-        <v>0.04258333333333348</v>
+        <v>0.05</v>
       </c>
       <c r="C41">
-        <v>0.00467538731913919</v>
+        <v>0.4103370047610042</v>
       </c>
       <c r="D41">
-        <v>263.4477078684314</v>
+        <v>263.7992876701109</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.006759275519584758</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>37440.25</v>
+        <v>37318.58333333334</v>
       </c>
       <c r="B42">
-        <v>0.04262500000000015</v>
+        <v>0.05</v>
       </c>
       <c r="C42">
-        <v>0.02428027138421385</v>
+        <v>0.1402057425545991</v>
       </c>
       <c r="D42">
-        <v>263.4523832557505</v>
+        <v>264.2096246748719</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>0.008672648793215951</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>37470.66666666666</v>
+        <v>37349</v>
       </c>
       <c r="B43">
-        <v>0.04266666666666682</v>
+        <v>0.05</v>
       </c>
       <c r="C43">
-        <v>0.4915252736493585</v>
+        <v>-0.4839894400114417</v>
       </c>
       <c r="D43">
-        <v>263.4766635271347</v>
+        <v>264.3498304174265</v>
       </c>
       <c r="E43">
-        <v>0.008332155282383734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>37501.08333333334</v>
+        <v>37379.41666666666</v>
       </c>
       <c r="B44">
-        <v>0.04270833333333349</v>
+        <v>0.05</v>
       </c>
       <c r="C44">
-        <v>0.1982612731533209</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>263.9681888007841</v>
+        <v>263.865840977415</v>
       </c>
       <c r="E44">
-        <v>0.01114217771876815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>37531.5</v>
+        <v>37409.83333333334</v>
       </c>
       <c r="B45">
-        <v>0.04275000000000016</v>
+        <v>0.05</v>
       </c>
       <c r="C45">
-        <v>-0.005206685945609024</v>
+        <v>0.007610793189428477</v>
       </c>
       <c r="D45">
-        <v>264.1664500739374</v>
+        <v>263.865840977415</v>
       </c>
       <c r="E45">
-        <v>0.01064129744679712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>37561.91666666666</v>
+        <v>37440.25</v>
       </c>
       <c r="B46">
-        <v>0.04279166666666682</v>
+        <v>0.05</v>
       </c>
       <c r="C46">
-        <v>-0.5883204508592144</v>
+        <v>0.02430376401457579</v>
       </c>
       <c r="D46">
-        <v>264.1612433879918</v>
+        <v>263.8734517706044</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3990,390 +3802,390 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>37592.33333333334</v>
+        <v>37470.66666666666</v>
       </c>
       <c r="B47">
-        <v>0.04283333333333349</v>
+        <v>0.05</v>
       </c>
       <c r="C47">
-        <v>0.5933070266455616</v>
+        <v>0.6291346613629685</v>
       </c>
       <c r="D47">
-        <v>263.5729229371326</v>
+        <v>263.897755534619</v>
       </c>
       <c r="E47">
-        <v>0.009887847382475216</v>
+        <v>0.01023379786489574</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>37622.75</v>
+        <v>37501.08333333334</v>
       </c>
       <c r="B48">
-        <v>0.04287500000000016</v>
+        <v>0.05</v>
       </c>
       <c r="C48">
-        <v>0.2046762494276209</v>
+        <v>0.2473937015458887</v>
       </c>
       <c r="D48">
-        <v>264.1662299637782</v>
+        <v>264.526890195982</v>
       </c>
       <c r="E48">
-        <v>0.01276305629593067</v>
+        <v>0.01366526138013841</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>37653.16666666666</v>
+        <v>37531.5</v>
       </c>
       <c r="B49">
-        <v>0.04291666666666683</v>
+        <v>0.05</v>
       </c>
       <c r="C49">
-        <v>-0.724960387256715</v>
+        <v>0.01138472896855092</v>
       </c>
       <c r="D49">
-        <v>264.3709062132058</v>
+        <v>264.7742838975279</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.01338626211363146</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>37683.58333333334</v>
+        <v>37561.91666666666</v>
       </c>
       <c r="B50">
-        <v>0.0429583333333335</v>
+        <v>0.05</v>
       </c>
       <c r="C50">
-        <v>0.5059105781665494</v>
+        <v>-0.7831222348017945</v>
       </c>
       <c r="D50">
-        <v>263.6459458259491</v>
+        <v>264.7856686264964</v>
       </c>
       <c r="E50">
-        <v>0.008450756998998672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>37714</v>
+        <v>37592.33333333334</v>
       </c>
       <c r="B51">
-        <v>0.04300000000000017</v>
+        <v>0.05</v>
       </c>
       <c r="C51">
-        <v>0.1362120482890532</v>
+        <v>0.7375015031414023</v>
       </c>
       <c r="D51">
-        <v>264.1518564041156</v>
+        <v>264.0025463916946</v>
       </c>
       <c r="E51">
-        <v>0.01022755804551022</v>
+        <v>0.01182801779920187</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>37744.41666666666</v>
+        <v>37622.75</v>
       </c>
       <c r="B52">
-        <v>0.04304166666666684</v>
+        <v>0.05</v>
       </c>
       <c r="C52">
-        <v>0.04417960682883404</v>
+        <v>0.2564411685243613</v>
       </c>
       <c r="D52">
-        <v>264.2880684524047</v>
+        <v>264.740047894836</v>
       </c>
       <c r="E52">
-        <v>0.01051576720288678</v>
+        <v>0.01535440591291284</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>37774.83333333334</v>
+        <v>37653.16666666666</v>
       </c>
       <c r="B53">
-        <v>0.04308333333333351</v>
+        <v>0.05</v>
       </c>
       <c r="C53">
-        <v>-0.01112963497223518</v>
+        <v>-0.915796802556315</v>
       </c>
       <c r="D53">
-        <v>264.3322480592335</v>
+        <v>264.9964890633604</v>
       </c>
       <c r="E53">
-        <v>0.009938297659873561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>37805.25</v>
+        <v>37683.58333333334</v>
       </c>
       <c r="B54">
-        <v>0.04312500000000018</v>
+        <v>0.05</v>
       </c>
       <c r="C54">
-        <v>0.008518194375028543</v>
+        <v>0.651403557731328</v>
       </c>
       <c r="D54">
-        <v>264.3211184242613</v>
+        <v>264.0806922608041</v>
       </c>
       <c r="E54">
-        <v>0.009691596724747177</v>
+        <v>0.01041406268616841</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>37835.66666666666</v>
+        <v>37714</v>
       </c>
       <c r="B55">
-        <v>0.04316666666666685</v>
+        <v>0.05</v>
       </c>
       <c r="C55">
-        <v>0.1501271981184118</v>
+        <v>0.1846151171479278</v>
       </c>
       <c r="D55">
-        <v>264.3296366186363</v>
+        <v>264.7320958185354</v>
       </c>
       <c r="E55">
-        <v>0.01172864931996423</v>
+        <v>0.01284790694527809</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>37866.08333333334</v>
+        <v>37744.41666666666</v>
       </c>
       <c r="B56">
-        <v>0.04316666666666685</v>
+        <v>0.05</v>
       </c>
       <c r="C56">
-        <v>-0.6881961391060258</v>
+        <v>0.06338950665997345</v>
       </c>
       <c r="D56">
-        <v>264.4797638167547</v>
+        <v>264.9167109356833</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>0.0133547033359206</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>37896.5</v>
+        <v>37774.83333333334</v>
       </c>
       <c r="B57">
-        <v>0.04320833333333352</v>
+        <v>0.05</v>
       </c>
       <c r="C57">
-        <v>0.02538084221373538</v>
+        <v>-0.005592726407030568</v>
       </c>
       <c r="D57">
-        <v>263.7915676776487</v>
+        <v>264.9801004423433</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>0.01286398529347115</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>37926.91666666666</v>
+        <v>37805.25</v>
       </c>
       <c r="B58">
-        <v>0.04325000000000018</v>
+        <v>0.05</v>
       </c>
       <c r="C58">
-        <v>0.5570868801044071</v>
+        <v>0.01321887605831762</v>
       </c>
       <c r="D58">
-        <v>263.8169485198624</v>
+        <v>264.9745077159363</v>
       </c>
       <c r="E58">
-        <v>0.009149185943320499</v>
+        <v>0.01264228892009347</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>37957.33333333334</v>
+        <v>37835.66666666666</v>
       </c>
       <c r="B59">
-        <v>0.04329166666666685</v>
+        <v>0.05</v>
       </c>
       <c r="C59">
-        <v>0.1531214066762914</v>
+        <v>0.1511781748970407</v>
       </c>
       <c r="D59">
-        <v>264.3740353999668</v>
+        <v>264.9877265919946</v>
       </c>
       <c r="E59">
-        <v>0.01116304551895988</v>
+        <v>0.01470056969418116</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>37987.75</v>
+        <v>37866.08333333334</v>
       </c>
       <c r="B60">
-        <v>0.04333333333333352</v>
+        <v>0.05</v>
       </c>
       <c r="C60">
-        <v>0.06817341663213483</v>
+        <v>-0.9016977981269747</v>
       </c>
       <c r="D60">
-        <v>264.5271568066431</v>
+        <v>265.1389047668916</v>
       </c>
       <c r="E60">
-        <v>0.01183988602391347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>38018.16666666666</v>
+        <v>37896.5</v>
       </c>
       <c r="B61">
-        <v>0.04337500000000019</v>
+        <v>0.05</v>
       </c>
       <c r="C61">
-        <v>-0.03058795215520149</v>
+        <v>0.02518963554962284</v>
       </c>
       <c r="D61">
-        <v>264.5953302232753</v>
+        <v>264.2372069687647</v>
       </c>
       <c r="E61">
-        <v>0.01095457000985935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>38048.58333333334</v>
+        <v>37926.91666666666</v>
       </c>
       <c r="B62">
-        <v>0.04341666666666686</v>
+        <v>0.05</v>
       </c>
       <c r="C62">
-        <v>-0.0205067754097854</v>
+        <v>0.7081593206638672</v>
       </c>
       <c r="D62">
-        <v>264.5647422711201</v>
+        <v>264.2623966043143</v>
       </c>
       <c r="E62">
-        <v>0.01024280995759989</v>
+        <v>0.01116082005329282</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>38079</v>
+        <v>37957.33333333334</v>
       </c>
       <c r="B63">
-        <v>0.04345833333333353</v>
+        <v>0.05</v>
       </c>
       <c r="C63">
-        <v>-0.03430358900732244</v>
+        <v>0.2032268004408024</v>
       </c>
       <c r="D63">
-        <v>264.5442354957103</v>
+        <v>264.9705559249782</v>
       </c>
       <c r="E63">
-        <v>0.00940720774074038</v>
+        <v>0.01385691956914916</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>38109.41666666666</v>
+        <v>37987.75</v>
       </c>
       <c r="B64">
-        <v>0.04345833333333353</v>
+        <v>0.05</v>
       </c>
       <c r="C64">
-        <v>-0.5494266200980746</v>
+        <v>0.08673164345714213</v>
       </c>
       <c r="D64">
-        <v>264.5099319067029</v>
+        <v>265.173782725419</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>0.01476003497056872</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>38139.83333333334</v>
+        <v>38018.16666666666</v>
       </c>
       <c r="B65">
-        <v>0.0435000000000002</v>
+        <v>0.05</v>
       </c>
       <c r="C65">
-        <v>0.0244902781169003</v>
+        <v>-0.02737112659917784</v>
       </c>
       <c r="D65">
-        <v>263.9605052866049</v>
+        <v>265.2605143688761</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.01395852751559221</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>38170.25</v>
+        <v>38048.58333333334</v>
       </c>
       <c r="B66">
-        <v>0.04354166666666687</v>
+        <v>0.05</v>
       </c>
       <c r="C66">
-        <v>0.02567388072156973</v>
+        <v>-0.0176177053738229</v>
       </c>
       <c r="D66">
-        <v>263.9849955647218</v>
+        <v>265.2331432422769</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>0.01326129457937639</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>38200.66666666666</v>
+        <v>38079</v>
       </c>
       <c r="B67">
-        <v>0.04358333333333354</v>
+        <v>0.05</v>
       </c>
       <c r="C67">
-        <v>0.4008122371145646</v>
+        <v>-0.03534197184137611</v>
       </c>
       <c r="D67">
-        <v>264.0106694454433</v>
+        <v>265.2155255369031</v>
       </c>
       <c r="E67">
-        <v>0.006440315292041966</v>
+        <v>0.01243873934157754</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>38231.08333333334</v>
+        <v>38109.41666666666</v>
       </c>
       <c r="B68">
-        <v>0.04362500000000021</v>
+        <v>0.05</v>
       </c>
       <c r="C68">
-        <v>0.1667239979929036</v>
+        <v>-0.7637164863134558</v>
       </c>
       <c r="D68">
-        <v>264.4114816825579</v>
+        <v>265.1801835650617</v>
       </c>
       <c r="E68">
-        <v>0.008857980103066808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>38261.5</v>
+        <v>38139.83333333334</v>
       </c>
       <c r="B69">
-        <v>0.04362500000000021</v>
+        <v>0.05</v>
       </c>
       <c r="C69">
-        <v>-0.5223361238896587</v>
+        <v>0.02581214884173733</v>
       </c>
       <c r="D69">
-        <v>264.5782056805508</v>
+        <v>264.4164670787483</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -4381,16 +4193,16 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>38291.91666666666</v>
+        <v>38170.25</v>
       </c>
       <c r="B70">
-        <v>0.04362500000000021</v>
+        <v>0.05</v>
       </c>
       <c r="C70">
-        <v>0.02215733170055501</v>
+        <v>0.02458351011694049</v>
       </c>
       <c r="D70">
-        <v>264.0558695566612</v>
+        <v>264.44227922759</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -4398,152 +4210,152 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>38322.33333333334</v>
+        <v>38200.66666666666</v>
       </c>
       <c r="B71">
-        <v>0.04366666666666687</v>
+        <v>0.05</v>
       </c>
       <c r="C71">
-        <v>0.4184656650213583</v>
+        <v>0.5415153082132065</v>
       </c>
       <c r="D71">
-        <v>264.0780268883617</v>
+        <v>264.4668627377069</v>
       </c>
       <c r="E71">
-        <v>0.006737021707633469</v>
+        <v>0.008500474532792309</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>38352.75</v>
+        <v>38231.08333333334</v>
       </c>
       <c r="B72">
-        <v>0.04370833333333354</v>
+        <v>0.05</v>
       </c>
       <c r="C72">
-        <v>0.1399376998048183</v>
+        <v>0.2185047403955878</v>
       </c>
       <c r="D72">
-        <v>264.4964925533831</v>
+        <v>265.0083780459202</v>
       </c>
       <c r="E72">
-        <v>0.008626803783237295</v>
+        <v>0.01155355143128445</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>38383.16666666666</v>
+        <v>38261.5</v>
       </c>
       <c r="B73">
-        <v>0.04375000000000021</v>
+        <v>0.05</v>
       </c>
       <c r="C73">
-        <v>0.0140807393194109</v>
+        <v>-0.7168792816726182</v>
       </c>
       <c r="D73">
-        <v>264.6364302531879</v>
+        <v>265.2268827863157</v>
       </c>
       <c r="E73">
-        <v>0.008467252664653898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>38413.58333333334</v>
+        <v>38291.91666666666</v>
       </c>
       <c r="B74">
-        <v>0.04379166666666688</v>
+        <v>0.05</v>
       </c>
       <c r="C74">
-        <v>-0.4146923847754351</v>
+        <v>0.02617731370310139</v>
       </c>
       <c r="D74">
-        <v>264.6505109925073</v>
+        <v>264.5100035046431</v>
       </c>
       <c r="E74">
-        <v>0.001075360927833165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>38444</v>
+        <v>38322.33333333334</v>
       </c>
       <c r="B75">
-        <v>0.04383333333333355</v>
+        <v>0.05</v>
       </c>
       <c r="C75">
-        <v>-0.04549265985167494</v>
+        <v>0.5635276830089424</v>
       </c>
       <c r="D75">
-        <v>264.2358186077319</v>
+        <v>264.5361808183462</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>0.008806035146783926</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>38474.41666666666</v>
+        <v>38352.75</v>
       </c>
       <c r="B76">
-        <v>0.04383333333333355</v>
+        <v>0.05</v>
       </c>
       <c r="C76">
-        <v>0.003861245770167443</v>
+        <v>0.1913027290124774</v>
       </c>
       <c r="D76">
-        <v>264.1903259478802</v>
+        <v>265.0997085013552</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>0.01135091422163583</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>38504.83333333334</v>
+        <v>38383.16666666666</v>
       </c>
       <c r="B77">
-        <v>0.04387500000000022</v>
+        <v>0.05</v>
       </c>
       <c r="C77">
-        <v>0.2737734135959045</v>
+        <v>0.03005749908629696</v>
       </c>
       <c r="D77">
-        <v>264.1941871936504</v>
+        <v>265.2910112303676</v>
       </c>
       <c r="E77">
-        <v>0.004244636029012049</v>
+        <v>0.01142332648648683</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>38535.25</v>
+        <v>38413.58333333334</v>
       </c>
       <c r="B78">
-        <v>0.04391666666666689</v>
+        <v>0.05</v>
       </c>
       <c r="C78">
-        <v>0.1025758045582279</v>
+        <v>-0.4379161630346289</v>
       </c>
       <c r="D78">
-        <v>264.4679606072463</v>
+        <v>265.3210687294539</v>
       </c>
       <c r="E78">
-        <v>0.005566225711330421</v>
+        <v>0.004103585458212712</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>38565.66666666666</v>
+        <v>38444</v>
       </c>
       <c r="B79">
-        <v>0.04395833333333356</v>
+        <v>0.05</v>
       </c>
       <c r="C79">
-        <v>-0.3054490826593792</v>
+        <v>-0.2326146873989501</v>
       </c>
       <c r="D79">
-        <v>264.5705364118045</v>
+        <v>264.8831525664193</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -4551,407 +4363,407 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>38596.08333333334</v>
+        <v>38474.41666666666</v>
       </c>
       <c r="B80">
-        <v>0.04400000000000023</v>
+        <v>0.05</v>
       </c>
       <c r="C80">
-        <v>0.192226125814841</v>
+        <v>0.007130114689402944</v>
       </c>
       <c r="D80">
-        <v>264.2650873291451</v>
+        <v>264.6505378790204</v>
       </c>
       <c r="E80">
-        <v>0.002855737414541853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>38626.5</v>
+        <v>38504.83333333334</v>
       </c>
       <c r="B81">
-        <v>0.0440416666666669</v>
+        <v>0.05</v>
       </c>
       <c r="C81">
-        <v>0.09885347127510613</v>
+        <v>0.4117404623872289</v>
       </c>
       <c r="D81">
-        <v>264.4573134549599</v>
+        <v>264.6576679937098</v>
       </c>
       <c r="E81">
-        <v>0.004136220468473665</v>
+        <v>0.006337705500540023</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>38656.91666666666</v>
+        <v>38535.25</v>
       </c>
       <c r="B82">
-        <v>0.04408333333333356</v>
+        <v>0.05</v>
       </c>
       <c r="C82">
-        <v>0.05196548384628841</v>
+        <v>0.1422650599274675</v>
       </c>
       <c r="D82">
-        <v>264.5561669262351</v>
+        <v>265.069408456097</v>
       </c>
       <c r="E82">
-        <v>0.004582640649965396</v>
+        <v>0.008282351451564357</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>38687.33333333334</v>
+        <v>38565.66666666666</v>
       </c>
       <c r="B83">
-        <v>0.04412500000000023</v>
+        <v>0.05</v>
       </c>
       <c r="C83">
-        <v>-0.01666062493814024</v>
+        <v>-0.4818074440578357</v>
       </c>
       <c r="D83">
-        <v>264.6081324100813</v>
+        <v>265.2116735160245</v>
       </c>
       <c r="E83">
-        <v>0.003923178555314094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>38717.75</v>
+        <v>38596.08333333334</v>
       </c>
       <c r="B84">
-        <v>0.0441666666666669</v>
+        <v>0.05</v>
       </c>
       <c r="C84">
-        <v>0.01895119221478581</v>
+        <v>0.3298368982276543</v>
       </c>
       <c r="D84">
-        <v>264.5914717851432</v>
+        <v>264.7298660719666</v>
       </c>
       <c r="E84">
-        <v>0.003847939526145749</v>
+        <v>0.004954668368078907</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>38748.16666666666</v>
+        <v>38626.5</v>
       </c>
       <c r="B85">
-        <v>0.04420833333333357</v>
+        <v>0.05</v>
       </c>
       <c r="C85">
-        <v>-0.006377945587132672</v>
+        <v>0.1395930026887982</v>
       </c>
       <c r="D85">
-        <v>264.610422977358</v>
+        <v>265.0597029701943</v>
       </c>
       <c r="E85">
-        <v>0.00333430164069104</v>
+        <v>0.006856598754141206</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>38778.58333333334</v>
+        <v>38656.91666666666</v>
       </c>
       <c r="B86">
-        <v>0.04425000000000024</v>
+        <v>0.05</v>
       </c>
       <c r="C86">
-        <v>-0.006999095223818586</v>
+        <v>0.06605012728152815</v>
       </c>
       <c r="D86">
-        <v>264.6040450317709</v>
+        <v>265.1992959728831</v>
       </c>
       <c r="E86">
-        <v>0.002828070695184319</v>
+        <v>0.007486997796192971</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>38809</v>
+        <v>38687.33333333334</v>
       </c>
       <c r="B87">
-        <v>0.04429166666666691</v>
+        <v>0.05</v>
       </c>
       <c r="C87">
-        <v>0.01269276333755442</v>
+        <v>-0.0132915211999034</v>
       </c>
       <c r="D87">
-        <v>264.597045936547</v>
+        <v>265.2653461001646</v>
       </c>
       <c r="E87">
-        <v>0.002733660539465301</v>
+        <v>0.006891141652829906</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>38839.41666666666</v>
+        <v>38717.75</v>
       </c>
       <c r="B88">
-        <v>0.04429166666666691</v>
+        <v>0.05</v>
       </c>
       <c r="C88">
-        <v>-0.1633377039256629</v>
+        <v>0.02116176359777455</v>
       </c>
       <c r="D88">
-        <v>264.6097386998846</v>
+        <v>265.2520545789647</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>0.006831117424749459</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>38869.83333333334</v>
+        <v>38748.16666666666</v>
       </c>
       <c r="B89">
-        <v>0.04429166666666691</v>
+        <v>0.05</v>
       </c>
       <c r="C89">
-        <v>0.003987478204862782</v>
+        <v>-0.006574042090505827</v>
       </c>
       <c r="D89">
-        <v>264.4464009959589</v>
+        <v>265.2732163425625</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>0.006327462432816353</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>38900.25</v>
+        <v>38778.58333333334</v>
       </c>
       <c r="B90">
-        <v>0.04433333333333358</v>
+        <v>0.05</v>
       </c>
       <c r="C90">
-        <v>0.1586265992195877</v>
+        <v>-0.006899479053345203</v>
       </c>
       <c r="D90">
-        <v>264.4503884741638</v>
+        <v>265.266642300472</v>
       </c>
       <c r="E90">
-        <v>0.00223884690693835</v>
+        <v>0.005820345919655817</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>38930.66666666666</v>
+        <v>38809</v>
       </c>
       <c r="B91">
-        <v>0.04437500000000025</v>
+        <v>0.05</v>
       </c>
       <c r="C91">
-        <v>0.003015567021293464</v>
+        <v>0.01113081384846737</v>
       </c>
       <c r="D91">
-        <v>264.6090150733834</v>
+        <v>265.2597428214186</v>
       </c>
       <c r="E91">
-        <v>0.001914698035890509</v>
+        <v>0.005726385628451906</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>38961.08333333334</v>
+        <v>38839.41666666666</v>
       </c>
       <c r="B92">
-        <v>0.04441666666666692</v>
+        <v>0.05</v>
       </c>
       <c r="C92">
-        <v>-0.03846241027929409</v>
+        <v>-0.3522676004403138</v>
       </c>
       <c r="D92">
-        <v>264.6120306404047</v>
+        <v>265.2708736352671</v>
       </c>
       <c r="E92">
-        <v>0.0009003090777010024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>38991.5</v>
+        <v>38869.83333333334</v>
       </c>
       <c r="B93">
-        <v>0.04445833333333359</v>
+        <v>0.05</v>
       </c>
       <c r="C93">
-        <v>-0.004839433246957014</v>
+        <v>0.007065693498020664</v>
       </c>
       <c r="D93">
-        <v>264.5735682301254</v>
+        <v>264.9186060348268</v>
       </c>
       <c r="E93">
-        <v>0.0004517433238507337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>39021.91666666666</v>
+        <v>38900.25</v>
       </c>
       <c r="B94">
-        <v>0.04450000000000025</v>
+        <v>0.05</v>
       </c>
       <c r="C94">
-        <v>0.02150660811776106</v>
+        <v>0.2943066469603082</v>
       </c>
       <c r="D94">
-        <v>264.5687287968784</v>
+        <v>264.9256717283248</v>
       </c>
       <c r="E94">
-        <v>0.0004298885458590993</v>
+        <v>0.00438521601108532</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>39052.33333333334</v>
+        <v>38930.66666666666</v>
       </c>
       <c r="B95">
-        <v>0.04454166666666692</v>
+        <v>0.05</v>
       </c>
       <c r="C95">
-        <v>0.05218040329759788</v>
+        <v>0.04203736597946772</v>
       </c>
       <c r="D95">
-        <v>264.5902354049962</v>
+        <v>265.2199783752851</v>
       </c>
       <c r="E95">
-        <v>0.0009031466981094046</v>
+        <v>0.004673795360462469</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>39082.75</v>
+        <v>38961.08333333334</v>
       </c>
       <c r="B96">
-        <v>0.04458333333333359</v>
+        <v>0.05</v>
       </c>
       <c r="C96">
-        <v>0.03704809418991317</v>
+        <v>-0.02779768664345283</v>
       </c>
       <c r="D96">
-        <v>264.6424158082938</v>
+        <v>265.2620157412646</v>
       </c>
       <c r="E96">
-        <v>0.001138792293655488</v>
+        <v>0.003835628019463933</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>39113.16666666666</v>
+        <v>38991.5</v>
       </c>
       <c r="B97">
-        <v>0.04462500000000026</v>
+        <v>0.05</v>
       </c>
       <c r="C97">
-        <v>0.06437533985445043</v>
+        <v>-5.913710344884748e-05</v>
       </c>
       <c r="D97">
-        <v>264.6794639024837</v>
+        <v>265.2342180546211</v>
       </c>
       <c r="E97">
-        <v>0.001817226522361393</v>
+        <v>0.003435223931558833</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>39143.58333333334</v>
+        <v>39021.91666666666</v>
       </c>
       <c r="B98">
-        <v>0.04466666666666693</v>
+        <v>0.05</v>
       </c>
       <c r="C98">
-        <v>-0.08257478057055323</v>
+        <v>0.02425407505825206</v>
       </c>
       <c r="D98">
-        <v>264.7438392423381</v>
+        <v>265.2341589175177</v>
       </c>
       <c r="E98">
-        <v>0.0001305587604975036</v>
+        <v>0.003434956869652809</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>39174</v>
+        <v>39052.33333333334</v>
       </c>
       <c r="B99">
-        <v>0.04466666666666693</v>
+        <v>0.05</v>
       </c>
       <c r="C99">
-        <v>-0.003533856861281492</v>
+        <v>0.05462907512014681</v>
       </c>
       <c r="D99">
-        <v>264.6612644617676</v>
+        <v>265.2584129925759</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.003920622524385345</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>39204.41666666666</v>
+        <v>39082.75</v>
       </c>
       <c r="B100">
-        <v>0.0447083333333336</v>
+        <v>0.05</v>
       </c>
       <c r="C100">
-        <v>0.02310247556874856</v>
+        <v>0.03963138365327268</v>
       </c>
       <c r="D100">
-        <v>264.6577306049063</v>
+        <v>265.3130420676961</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.00416732626999269</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>39234.83333333334</v>
+        <v>39113.16666666666</v>
       </c>
       <c r="B101">
-        <v>0.04475000000000027</v>
+        <v>0.05</v>
       </c>
       <c r="C101">
-        <v>0.02176113412042469</v>
+        <v>0.06800217992736179</v>
       </c>
       <c r="D101">
-        <v>264.6808330804751</v>
+        <v>265.3526734513493</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>0.004857426579173115</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>39265.25</v>
+        <v>39143.58333333334</v>
       </c>
       <c r="B102">
-        <v>0.04479166666666694</v>
+        <v>0.05</v>
       </c>
       <c r="C102">
-        <v>0.02298418304690131</v>
+        <v>-0.08708023179758584</v>
       </c>
       <c r="D102">
-        <v>264.7025942145955</v>
+        <v>265.4206756312767</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>0.00318713755022263</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>39295.66666666666</v>
+        <v>39174</v>
       </c>
       <c r="B103">
-        <v>0.04483333333333361</v>
+        <v>0.05</v>
       </c>
       <c r="C103">
-        <v>0.02304626891782391</v>
+        <v>-0.1904957716009221</v>
       </c>
       <c r="D103">
-        <v>264.7255783976424</v>
+        <v>265.3335953994791</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -4959,16 +4771,16 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>39326.08333333334</v>
+        <v>39204.41666666666</v>
       </c>
       <c r="B104">
-        <v>0.04487500000000028</v>
+        <v>0.05</v>
       </c>
       <c r="C104">
-        <v>0.02225012637711643</v>
+        <v>0.02091969045375208</v>
       </c>
       <c r="D104">
-        <v>264.7486246665602</v>
+        <v>265.1430996278782</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -4976,67 +4788,67 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>39356.5</v>
+        <v>39234.83333333334</v>
       </c>
       <c r="B105">
-        <v>0.04491666666666694</v>
+        <v>0.05</v>
       </c>
       <c r="C105">
-        <v>0.02185751384320156</v>
+        <v>0.1608017889645907</v>
       </c>
       <c r="D105">
-        <v>264.7708747929373</v>
+        <v>265.164019318332</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>0.002165461552141671</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>39386.91666666666</v>
+        <v>39265.25</v>
       </c>
       <c r="B106">
-        <v>0.04495833333333361</v>
+        <v>0.05</v>
       </c>
       <c r="C106">
-        <v>0.02216281552625787</v>
+        <v>0.04067582560651317</v>
       </c>
       <c r="D106">
-        <v>264.7927323067805</v>
+        <v>265.3248211072965</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>0.002394689926178294</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>39417.33333333334</v>
+        <v>39295.66666666666</v>
       </c>
       <c r="B107">
-        <v>0.04500000000000028</v>
+        <v>0.05</v>
       </c>
       <c r="C107">
-        <v>0.02201728732723041</v>
+        <v>0.02683713847125091</v>
       </c>
       <c r="D107">
-        <v>264.8148951223068</v>
+        <v>265.3654969329031</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>0.00241851384118311</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>39447.75</v>
+        <v>39326.08333333334</v>
       </c>
       <c r="B108">
-        <v>0.04504166666666695</v>
+        <v>0.05</v>
       </c>
       <c r="C108">
-        <v>0.02198911268919801</v>
+        <v>-0.1282894300035196</v>
       </c>
       <c r="D108">
-        <v>264.836912409634</v>
+        <v>265.3923340713743</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -5044,16 +4856,16 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>39478.16666666666</v>
+        <v>39356.5</v>
       </c>
       <c r="B109">
-        <v>0.04508333333333362</v>
+        <v>0.05</v>
       </c>
       <c r="C109">
-        <v>-1.142548619162085</v>
+        <v>0.02423960173291562</v>
       </c>
       <c r="D109">
-        <v>264.8589015223232</v>
+        <v>265.2640446413708</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -5061,18 +4873,86 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
+        <v>39386.91666666666</v>
+      </c>
+      <c r="B110">
+        <v>0.05</v>
+      </c>
+      <c r="C110">
+        <v>0.02401894842091679</v>
+      </c>
+      <c r="D110">
+        <v>265.2882842431037</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="2">
+        <v>39417.33333333334</v>
+      </c>
+      <c r="B111">
+        <v>0.05</v>
+      </c>
+      <c r="C111">
+        <v>0.02310091828076111</v>
+      </c>
+      <c r="D111">
+        <v>265.3123031915246</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="2">
+        <v>39447.75</v>
+      </c>
+      <c r="B112">
+        <v>0.05</v>
+      </c>
+      <c r="C112">
+        <v>0.02315447307876184</v>
+      </c>
+      <c r="D112">
+        <v>265.3354041098054</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="2">
+        <v>39478.16666666666</v>
+      </c>
+      <c r="B113">
+        <v>0.05</v>
+      </c>
+      <c r="C113">
+        <v>-1.513043726262708</v>
+      </c>
+      <c r="D113">
+        <v>265.3585585828841</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="2">
         <v>39508.58333333334</v>
       </c>
-      <c r="B110">
-        <v>0.04512500000000029</v>
-      </c>
-      <c r="C110">
-        <v>0.01076177232914688</v>
-      </c>
-      <c r="D110">
-        <v>263.7163529031611</v>
-      </c>
-      <c r="E110">
+      <c r="B114">
+        <v>0.05</v>
+      </c>
+      <c r="C114">
+        <v>0.01181993282875737</v>
+      </c>
+      <c r="D114">
+        <v>263.8455148566214</v>
+      </c>
+      <c r="E114">
         <v>0</v>
       </c>
     </row>
@@ -5083,7 +4963,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5117,13 +4997,13 @@
         <v>41059.83333333334</v>
       </c>
       <c r="B2">
-        <v>0.04512500000000029</v>
+        <v>0.05</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>263.7271146754903</v>
+        <v>263.8573347894502</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -5134,13 +5014,13 @@
         <v>41090.25</v>
       </c>
       <c r="B3">
-        <v>0.04512500000000029</v>
+        <v>0.05</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>263.7271146754903</v>
+        <v>263.8573347894502</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -5151,13 +5031,13 @@
         <v>41120.66666666666</v>
       </c>
       <c r="B4">
-        <v>0.04512500000000029</v>
+        <v>0.05</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>263.7271146754903</v>
+        <v>263.8573347894502</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -5168,13 +5048,13 @@
         <v>41151.08333333334</v>
       </c>
       <c r="B5">
-        <v>0.04512500000000029</v>
+        <v>0.05</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>263.7271146754903</v>
+        <v>263.8573347894502</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5185,13 +5065,13 @@
         <v>41181.5</v>
       </c>
       <c r="B6">
-        <v>0.04512500000000029</v>
+        <v>0.05</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>263.7271146754903</v>
+        <v>263.8573347894502</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -5202,13 +5082,13 @@
         <v>41211.91666666666</v>
       </c>
       <c r="B7">
-        <v>0.04512500000000029</v>
+        <v>0.05</v>
       </c>
       <c r="C7">
-        <v>0.01505299438133534</v>
+        <v>0.01784620308035301</v>
       </c>
       <c r="D7">
-        <v>263.7271146754903</v>
+        <v>263.8573347894502</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5219,13 +5099,13 @@
         <v>41242.33333333334</v>
       </c>
       <c r="B8">
-        <v>0.04516666666666696</v>
+        <v>0.05</v>
       </c>
       <c r="C8">
-        <v>0.01705406616054006</v>
+        <v>0.01887408916877575</v>
       </c>
       <c r="D8">
-        <v>263.7421676698716</v>
+        <v>263.8751809925305</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5236,13 +5116,13 @@
         <v>41272.75</v>
       </c>
       <c r="B9">
-        <v>0.04520833333333363</v>
+        <v>0.05</v>
       </c>
       <c r="C9">
-        <v>-0.7105606095603889</v>
+        <v>-1.098593256030426</v>
       </c>
       <c r="D9">
-        <v>263.7592217360321</v>
+        <v>263.8940550816993</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -5250,871 +5130,189 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>41364</v>
+        <v>41668.16666666666</v>
       </c>
       <c r="B10">
-        <v>0.04533333333333363</v>
+        <v>0.05</v>
       </c>
       <c r="C10">
-        <v>-0.7907832134773116</v>
+        <v>0.2044847664909639</v>
       </c>
       <c r="D10">
-        <v>263.8758238707231</v>
+        <v>263.8231721905388</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.01765873199634859</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41668.16666666666</v>
+        <v>41698.58333333334</v>
       </c>
       <c r="B11">
-        <v>0.04570833333333366</v>
+        <v>0.05</v>
       </c>
       <c r="C11">
-        <v>0.2305110539770112</v>
+        <v>0.04352477509814889</v>
       </c>
       <c r="D11">
-        <v>264.1331920504955</v>
+        <v>264.0276569570298</v>
       </c>
       <c r="E11">
-        <v>0.01905877511433644</v>
+        <v>0.01806330270817748</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41698.58333333334</v>
+        <v>41729</v>
       </c>
       <c r="B12">
-        <v>0.04575000000000033</v>
+        <v>0.05</v>
       </c>
       <c r="C12">
-        <v>0.05216286219013</v>
+        <v>0.09059523590474328</v>
       </c>
       <c r="D12">
-        <v>264.3637031044725</v>
+        <v>264.0711817321279</v>
       </c>
       <c r="E12">
-        <v>0.01958087998893395</v>
+        <v>0.01915182283224222</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41729</v>
+        <v>41759.41666666666</v>
       </c>
       <c r="B13">
-        <v>0.04579166666666699</v>
+        <v>0.05</v>
       </c>
       <c r="C13">
-        <v>0.08978843678528392</v>
+        <v>-1.093933175073175</v>
       </c>
       <c r="D13">
-        <v>264.4158659666626</v>
+        <v>264.1617769680327</v>
       </c>
       <c r="E13">
-        <v>0.02070840953125788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41759.41666666666</v>
+        <v>41911.5</v>
       </c>
       <c r="B14">
-        <v>0.04583333333333366</v>
+        <v>0.05</v>
       </c>
       <c r="C14">
-        <v>-1.211889872641677</v>
+        <v>0.2671044432197505</v>
       </c>
       <c r="D14">
-        <v>264.5056544034479</v>
+        <v>263.9555881481577</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.01878024836493094</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41911.5</v>
+        <v>41941.91666666666</v>
       </c>
       <c r="B15">
-        <v>0.04595833333333367</v>
+        <v>0.05</v>
       </c>
       <c r="C15">
-        <v>0.2947122142848002</v>
+        <v>0.08288776917197538</v>
       </c>
       <c r="D15">
-        <v>264.2486992381446</v>
+        <v>264.2226925913775</v>
       </c>
       <c r="E15">
-        <v>0.02010393183604566</v>
+        <v>0.01976554724431539</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>41941.91666666666</v>
+        <v>41972.33333333334</v>
       </c>
       <c r="B16">
-        <v>0.04600000000000034</v>
+        <v>0.05</v>
       </c>
       <c r="C16">
-        <v>0.08902588311332238</v>
+        <v>0.06327203229443512</v>
       </c>
       <c r="D16">
-        <v>264.5434114524294</v>
+        <v>264.3055803605495</v>
       </c>
       <c r="E16">
-        <v>0.02121390682452852</v>
+        <v>0.02044348779484029</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>41972.33333333334</v>
+        <v>42002.75</v>
       </c>
       <c r="B17">
-        <v>0.04604166666666701</v>
+        <v>0.05</v>
       </c>
       <c r="C17">
-        <v>0.06376030890351103</v>
+        <v>0.02261797664152709</v>
       </c>
       <c r="D17">
-        <v>264.6324373355427</v>
+        <v>264.3688523928439</v>
       </c>
       <c r="E17">
-        <v>0.02191956696754072</v>
+        <v>0.02045578717963033</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42002.75</v>
+        <v>42033.16666666666</v>
       </c>
       <c r="B18">
-        <v>0.04608333333333368</v>
+        <v>0.05</v>
       </c>
       <c r="C18">
-        <v>0.0208080438280831</v>
+        <v>0.03342379435616749</v>
       </c>
       <c r="D18">
-        <v>264.6961976444462</v>
+        <v>264.3914703694854</v>
       </c>
       <c r="E18">
-        <v>0.02193407139915048</v>
+        <v>0.02063794433643451</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42033.16666666666</v>
+        <v>42063.58333333334</v>
       </c>
       <c r="B19">
-        <v>0.04612500000000035</v>
+        <v>0.05</v>
       </c>
       <c r="C19">
-        <v>0.03059922276725047</v>
+        <v>0.03465002067707701</v>
       </c>
       <c r="D19">
-        <v>264.7170056882743</v>
+        <v>264.4248941638416</v>
       </c>
       <c r="E19">
-        <v>0.02210805493772315</v>
+        <v>0.02084370186087718</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42063.58333333334</v>
+        <v>42094</v>
       </c>
       <c r="B20">
-        <v>0.04616666666666702</v>
+        <v>0.05</v>
       </c>
       <c r="C20">
-        <v>0.03287629244175605</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>264.7476049110415</v>
+        <v>264.4595441845187</v>
       </c>
       <c r="E20">
-        <v>0.02230105675672524</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2">
-        <v>42094</v>
-      </c>
-      <c r="B21">
-        <v>0.04620833333333368</v>
-      </c>
-      <c r="C21">
-        <v>-1.328073095440345</v>
-      </c>
-      <c r="D21">
-        <v>264.7804812034833</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2">
-        <v>42215.66666666666</v>
-      </c>
-      <c r="B22">
-        <v>0.04633333333333369</v>
-      </c>
-      <c r="C22">
-        <v>0.001670798315899447</v>
-      </c>
-      <c r="D22">
-        <v>263.5028774637045</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2">
-        <v>42246.08333333334</v>
-      </c>
-      <c r="B23">
-        <v>0.04633333333333369</v>
-      </c>
-      <c r="C23">
-        <v>0.01545996743129763</v>
-      </c>
-      <c r="D23">
-        <v>263.5045482620204</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2">
-        <v>42276.5</v>
-      </c>
-      <c r="B24">
-        <v>0.04637500000000036</v>
-      </c>
-      <c r="C24">
-        <v>0.01705059812229592</v>
-      </c>
-      <c r="D24">
-        <v>263.5200082294517</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2">
-        <v>42306.91666666666</v>
-      </c>
-      <c r="B25">
-        <v>0.04641666666666703</v>
-      </c>
-      <c r="C25">
-        <v>0.01709495124509885</v>
-      </c>
-      <c r="D25">
-        <v>263.537058827574</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="2">
-        <v>42337.33333333334</v>
-      </c>
-      <c r="B26">
-        <v>0.0464583333333337</v>
-      </c>
-      <c r="C26">
-        <v>0.982394653900883</v>
-      </c>
-      <c r="D26">
-        <v>263.5541537788191</v>
-      </c>
-      <c r="E26">
-        <v>0.01638636184163</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="2">
-        <v>42367.75</v>
-      </c>
-      <c r="B27">
-        <v>0.04650000000000037</v>
-      </c>
-      <c r="C27">
-        <v>0.3282801030829887</v>
-      </c>
-      <c r="D27">
-        <v>264.53654843272</v>
-      </c>
-      <c r="E27">
-        <v>0.02125463357466106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="2">
-        <v>42398.16666666666</v>
-      </c>
-      <c r="B28">
-        <v>0.04654166666666704</v>
-      </c>
-      <c r="C28">
-        <v>0.1128628576267374</v>
-      </c>
-      <c r="D28">
-        <v>264.864828535803</v>
-      </c>
-      <c r="E28">
-        <v>0.02271046781824456</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="2">
-        <v>42428.58333333334</v>
-      </c>
-      <c r="B29">
-        <v>0.04658333333333371</v>
-      </c>
-      <c r="C29">
-        <v>0.03874873616189234</v>
-      </c>
-      <c r="D29">
-        <v>264.9776913934297</v>
-      </c>
-      <c r="E29">
-        <v>0.0230655379156961</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="2">
-        <v>42459</v>
-      </c>
-      <c r="B30">
-        <v>0.04662500000000037</v>
-      </c>
-      <c r="C30">
-        <v>0.02757235677677272</v>
-      </c>
-      <c r="D30">
-        <v>265.0164401295916</v>
-      </c>
-      <c r="E30">
-        <v>0.02345904478626313</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="2">
-        <v>42489.41666666666</v>
-      </c>
-      <c r="B31">
-        <v>0.04662500000000037</v>
-      </c>
-      <c r="C31">
-        <v>-1.418200983967608</v>
-      </c>
-      <c r="D31">
-        <v>265.0440124863684</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="2">
-        <v>42519.83333333334</v>
-      </c>
-      <c r="B32">
-        <v>0.04662500000000037</v>
-      </c>
-      <c r="C32">
-        <v>0.01540245127785056</v>
-      </c>
-      <c r="D32">
-        <v>263.6258115024008</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="2">
-        <v>42550.25</v>
-      </c>
-      <c r="B33">
-        <v>0.04666666666666704</v>
-      </c>
-      <c r="C33">
-        <v>0.01695125500486938</v>
-      </c>
-      <c r="D33">
-        <v>263.6412139536786</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="2">
-        <v>42580.66666666666</v>
-      </c>
-      <c r="B34">
-        <v>0.04670833333333371</v>
-      </c>
-      <c r="C34">
-        <v>0.9342357163739052</v>
-      </c>
-      <c r="D34">
-        <v>263.6581652086835</v>
-      </c>
-      <c r="E34">
-        <v>0.01552198780774419</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="2">
-        <v>42611.08333333334</v>
-      </c>
-      <c r="B35">
-        <v>0.04675000000000038</v>
-      </c>
-      <c r="C35">
-        <v>0.4059680684770228</v>
-      </c>
-      <c r="D35">
-        <v>264.5924009250574</v>
-      </c>
-      <c r="E35">
-        <v>0.02156271003263223</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="2">
-        <v>42641.5</v>
-      </c>
-      <c r="B36">
-        <v>0.04679166666666705</v>
-      </c>
-      <c r="C36">
-        <v>0.1134174274562838</v>
-      </c>
-      <c r="D36">
-        <v>264.9983689935344</v>
-      </c>
-      <c r="E36">
-        <v>0.02306665525261364</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="2">
-        <v>42671.91666666666</v>
-      </c>
-      <c r="B37">
-        <v>0.04683333333333372</v>
-      </c>
-      <c r="C37">
-        <v>-1.384465471159388</v>
-      </c>
-      <c r="D37">
-        <v>265.1117864209907</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="2">
-        <v>42702.33333333334</v>
-      </c>
-      <c r="B38">
-        <v>0.04687500000000039</v>
-      </c>
-      <c r="C38">
-        <v>1.05156355639599</v>
-      </c>
-      <c r="D38">
-        <v>263.7273209498313</v>
-      </c>
-      <c r="E38">
-        <v>0.01725160928982848</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="2">
-        <v>42732.75</v>
-      </c>
-      <c r="B39">
-        <v>0.04691666666666706</v>
-      </c>
-      <c r="C39">
-        <v>0.343714458549357</v>
-      </c>
-      <c r="D39">
-        <v>264.7788845062273</v>
-      </c>
-      <c r="E39">
-        <v>0.02233647714812854</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="2">
-        <v>42763.16666666666</v>
-      </c>
-      <c r="B40">
-        <v>0.04695833333333373</v>
-      </c>
-      <c r="C40">
-        <v>-0.2587490951769951</v>
-      </c>
-      <c r="D40">
-        <v>265.1225989647767</v>
-      </c>
-      <c r="E40">
-        <v>0.01799658682277187</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="2">
-        <v>42793.58333333334</v>
-      </c>
-      <c r="B41">
-        <v>0.0470000000000004</v>
-      </c>
-      <c r="C41">
-        <v>0.1745065816004399</v>
-      </c>
-      <c r="D41">
-        <v>264.8638498695997</v>
-      </c>
-      <c r="E41">
-        <v>0.02044822185662689</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="2">
-        <v>42824</v>
-      </c>
-      <c r="B42">
-        <v>0.04704166666666706</v>
-      </c>
-      <c r="C42">
-        <v>0.1258590109631541</v>
-      </c>
-      <c r="D42">
-        <v>265.0383564512001</v>
-      </c>
-      <c r="E42">
-        <v>0.02235011630241973</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="2">
-        <v>42854.41666666666</v>
-      </c>
-      <c r="B43">
-        <v>0.04704166666666706</v>
-      </c>
-      <c r="C43">
-        <v>-1.349554248518416</v>
-      </c>
-      <c r="D43">
-        <v>265.1642154621633</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="2">
-        <v>42884.83333333334</v>
-      </c>
-      <c r="B44">
-        <v>0.04708333333333373</v>
-      </c>
-      <c r="C44">
-        <v>0.01766358311306249</v>
-      </c>
-      <c r="D44">
-        <v>263.8146612136449</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="2">
-        <v>42915.25</v>
-      </c>
-      <c r="B45">
-        <v>0.0471250000000004</v>
-      </c>
-      <c r="C45">
-        <v>1.002184221469747</v>
-      </c>
-      <c r="D45">
-        <v>263.8323247967579</v>
-      </c>
-      <c r="E45">
-        <v>0.01637318299697391</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="2">
-        <v>42945.66666666666</v>
-      </c>
-      <c r="B46">
-        <v>0.04716666666666707</v>
-      </c>
-      <c r="C46">
-        <v>0.3500589253218322</v>
-      </c>
-      <c r="D46">
-        <v>264.8345090182277</v>
-      </c>
-      <c r="E46">
-        <v>0.0215451611534748</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="4" width="13.7109375" customWidth="1"/>
-    <col min="4" max="5" width="13.7109375" customWidth="1"/>
-    <col min="5" max="6" width="13.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2">
-        <v>43006.5</v>
-      </c>
-      <c r="B2">
-        <v>0.04725000000000041</v>
-      </c>
-      <c r="C2">
-        <v>1.06529765433811</v>
-      </c>
-      <c r="D2">
-        <v>263.9564452559727</v>
-      </c>
-      <c r="E2">
-        <v>0.01838124668919246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2">
-        <v>43036.91666666666</v>
-      </c>
-      <c r="B3">
-        <v>0.04729166666666708</v>
-      </c>
-      <c r="C3">
-        <v>-0.973959791575453</v>
-      </c>
-      <c r="D3">
-        <v>265.0217429103108</v>
-      </c>
-      <c r="E3">
-        <v>0.002242496642644878</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2">
-        <v>43067.33333333334</v>
-      </c>
-      <c r="B4">
-        <v>0.04733333333333375</v>
-      </c>
-      <c r="C4">
-        <v>0.7697744397019051</v>
-      </c>
-      <c r="D4">
-        <v>264.0477831187353</v>
-      </c>
-      <c r="E4">
-        <v>0.01469107000649862</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2">
-        <v>43097.75</v>
-      </c>
-      <c r="B5">
-        <v>0.04737500000000042</v>
-      </c>
-      <c r="C5">
-        <v>0.1440770272365626</v>
-      </c>
-      <c r="D5">
-        <v>264.8175575584372</v>
-      </c>
-      <c r="E5">
-        <v>0.01662553913274366</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2">
-        <v>43128.16666666666</v>
-      </c>
-      <c r="B6">
-        <v>0.04741666666666709</v>
-      </c>
-      <c r="C6">
-        <v>0.3882543004216359</v>
-      </c>
-      <c r="D6">
-        <v>264.9616345856738</v>
-      </c>
-      <c r="E6">
-        <v>0.0223211554666751</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2">
-        <v>43158.58333333334</v>
-      </c>
-      <c r="B7">
-        <v>0.04745833333333375</v>
-      </c>
-      <c r="C7">
-        <v>0.1503888588109703</v>
-      </c>
-      <c r="D7">
-        <v>265.3498888860954</v>
-      </c>
-      <c r="E7">
-        <v>0.02432942362883983</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2">
-        <v>43189</v>
-      </c>
-      <c r="B8">
-        <v>0.04750000000000042</v>
-      </c>
-      <c r="C8">
-        <v>0.06401512188915603</v>
-      </c>
-      <c r="D8">
-        <v>265.5002777449064</v>
-      </c>
-      <c r="E8">
-        <v>0.02525977416752415</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2">
-        <v>43219.41666666666</v>
-      </c>
-      <c r="B9">
-        <v>0.04750000000000042</v>
-      </c>
-      <c r="C9">
-        <v>-1.576503821909682</v>
-      </c>
-      <c r="D9">
-        <v>265.5642928667955</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2">
-        <v>43249.83333333334</v>
-      </c>
-      <c r="B10">
-        <v>0.04750000000000042</v>
-      </c>
-      <c r="C10">
-        <v>0.01532565462957791</v>
-      </c>
-      <c r="D10">
-        <v>263.9877890448859</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2">
-        <v>43280.25</v>
-      </c>
-      <c r="B11">
-        <v>0.04754166666666709</v>
-      </c>
-      <c r="C11">
-        <v>1.059912813257597</v>
-      </c>
-      <c r="D11">
-        <v>264.0031146995154</v>
-      </c>
-      <c r="E11">
-        <v>0.01705759291044776</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2">
-        <v>43310.66666666666</v>
-      </c>
-      <c r="B12">
-        <v>0.04758333333333376</v>
-      </c>
-      <c r="C12">
-        <v>0.4938606839574504</v>
-      </c>
-      <c r="D12">
-        <v>265.063027512773</v>
-      </c>
-      <c r="E12">
-        <v>0.02432878882865402</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2">
-        <v>43341.08333333334</v>
-      </c>
-      <c r="B13">
-        <v>0.04762500000000043</v>
-      </c>
-      <c r="C13">
-        <v>0.167073251545844</v>
-      </c>
-      <c r="D13">
-        <v>265.5568881967305</v>
-      </c>
-      <c r="E13">
-        <v>0.02655905321209073</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/FACModel/Modelled RIHT2.xlsx
+++ b/FACModel/Modelled RIHT2.xlsx
@@ -434,13 +434,13 @@
         <v>0.03033333333333333</v>
       </c>
       <c r="C2">
-        <v>0.04281905795664898</v>
+        <v>0.04276492011240407</v>
       </c>
       <c r="D2">
-        <v>261.8429170626802</v>
+        <v>261.8427954520592</v>
       </c>
       <c r="E2">
-        <v>0.009786838272830894</v>
+        <v>0.009786289081843895</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -451,13 +451,13 @@
         <v>0.03066666666666667</v>
       </c>
       <c r="C3">
-        <v>0.0631418715597647</v>
+        <v>0.06296869557797891</v>
       </c>
       <c r="D3">
-        <v>261.8857361206368</v>
+        <v>261.8855603721717</v>
       </c>
       <c r="E3">
-        <v>0.009980208231191992</v>
+        <v>0.009979414554847719</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -468,13 +468,13 @@
         <v>0.031</v>
       </c>
       <c r="C4">
-        <v>0.06746198990981611</v>
+        <v>0.06752137358751042</v>
       </c>
       <c r="D4">
-        <v>261.9488779921966</v>
+        <v>261.9485290677496</v>
       </c>
       <c r="E4">
-        <v>0.01026535558512756</v>
+        <v>0.01026377984971921</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -485,13 +485,13 @@
         <v>0.03133333333333334</v>
       </c>
       <c r="C5">
-        <v>0.06764570831887795</v>
+        <v>0.06699795963777433</v>
       </c>
       <c r="D5">
-        <v>262.0163399821064</v>
+        <v>262.0160504413371</v>
       </c>
       <c r="E5">
-        <v>0.01057001250198504</v>
+        <v>0.01056870494200691</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -502,13 +502,13 @@
         <v>0.03166666666666667</v>
       </c>
       <c r="C6">
-        <v>0.06730436392740557</v>
+        <v>0.06719476623561604</v>
       </c>
       <c r="D6">
-        <v>262.0839856904253</v>
+        <v>262.0830484009749</v>
       </c>
       <c r="E6">
-        <v>0.01087549908728482</v>
+        <v>0.01087126630798893</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -519,13 +519,13 @@
         <v>0.032</v>
       </c>
       <c r="C7">
-        <v>0.06760780206548134</v>
+        <v>0.06955949473456258</v>
       </c>
       <c r="D7">
-        <v>262.1512900543527</v>
+        <v>262.1502431672105</v>
       </c>
       <c r="E7">
-        <v>0.01117944416854592</v>
+        <v>0.01117471644839649</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -536,13 +536,13 @@
         <v>0.03233333333333333</v>
       </c>
       <c r="C8">
-        <v>0.06782372493159983</v>
+        <v>0.0692050508542934</v>
       </c>
       <c r="D8">
-        <v>262.2188978564182</v>
+        <v>262.2198026619451</v>
       </c>
       <c r="E8">
-        <v>0.0114847595700087</v>
+        <v>0.01148884565259468</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -553,13 +553,13 @@
         <v>0.03266666666666666</v>
       </c>
       <c r="C9">
-        <v>0.06858365829782542</v>
+        <v>0.06651182158407209</v>
       </c>
       <c r="D9">
-        <v>262.2867215813498</v>
+        <v>262.2890077127994</v>
       </c>
       <c r="E9">
-        <v>0.01179105007455898</v>
+        <v>0.01180137419574066</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -570,13 +570,13 @@
         <v>0.03299999999999999</v>
       </c>
       <c r="C10">
-        <v>0.06900142807569409</v>
+        <v>0.06854206642447025</v>
       </c>
       <c r="D10">
-        <v>262.3553052396476</v>
+        <v>262.3555195343835</v>
       </c>
       <c r="E10">
-        <v>0.01210077242208775</v>
+        <v>0.01210174017257398</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -587,13 +587,13 @@
         <v>0.03333333333333333</v>
       </c>
       <c r="C11">
-        <v>0.0698002843237191</v>
+        <v>0.06992844739784232</v>
       </c>
       <c r="D11">
-        <v>262.4243066677233</v>
+        <v>262.4240616008079</v>
       </c>
       <c r="E11">
-        <v>0.01241238140908045</v>
+        <v>0.01241127469208392</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -604,13 +604,13 @@
         <v>0.03366666666666666</v>
       </c>
       <c r="C12">
-        <v>0.06958009921686426</v>
+        <v>0.07226690055449581</v>
       </c>
       <c r="D12">
-        <v>262.494106952047</v>
+        <v>262.4939900482058</v>
       </c>
       <c r="E12">
-        <v>0.01272759801396076</v>
+        <v>0.01272707007869106</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -621,13 +621,13 @@
         <v>0.03399999999999999</v>
       </c>
       <c r="C13">
-        <v>0.06427298802964287</v>
+        <v>0.06613804109622379</v>
       </c>
       <c r="D13">
-        <v>262.5636870512639</v>
+        <v>262.5662569487603</v>
       </c>
       <c r="E13">
-        <v>0.01304182026756447</v>
+        <v>0.01305342587019999</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -638,13 +638,13 @@
         <v>0.03433333333333332</v>
       </c>
       <c r="C14">
-        <v>0.5173553899409171</v>
+        <v>0.5196069799301313</v>
       </c>
       <c r="D14">
-        <v>262.1258719095157</v>
+        <v>262.1298556748121</v>
       </c>
       <c r="E14">
-        <v>0.0110646563650936</v>
+        <v>0.01108264696475298</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -655,13 +655,13 @@
         <v>0.03466666666666665</v>
       </c>
       <c r="C15">
-        <v>0.1613719620162328</v>
+        <v>0.1619084423811046</v>
       </c>
       <c r="D15">
-        <v>262.6432272994566</v>
+        <v>262.6494626547423</v>
       </c>
       <c r="E15">
-        <v>0.01340102234287948</v>
+        <v>0.01342918107521709</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -672,13 +672,13 @@
         <v>0.03499999999999998</v>
       </c>
       <c r="C16">
-        <v>0.08848136546293972</v>
+        <v>0.08977248953897288</v>
       </c>
       <c r="D16">
-        <v>262.8045992614728</v>
+        <v>262.8113710971234</v>
       </c>
       <c r="E16">
-        <v>0.01412977470373974</v>
+        <v>0.01416035617003673</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -689,13 +689,13 @@
         <v>0.03533333333333331</v>
       </c>
       <c r="C17">
-        <v>0.07398365197173007</v>
+        <v>0.07405716156301878</v>
       </c>
       <c r="D17">
-        <v>262.8930806269358</v>
+        <v>262.9011435866623</v>
       </c>
       <c r="E17">
-        <v>0.01452935467517728</v>
+        <v>0.01456576683044153</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -706,13 +706,13 @@
         <v>0.03566666666666665</v>
       </c>
       <c r="C18">
-        <v>0.07049905543794921</v>
+        <v>0.07129190811360786</v>
       </c>
       <c r="D18">
-        <v>262.9670642789075</v>
+        <v>262.9752007482253</v>
       </c>
       <c r="E18">
-        <v>0.01486346327970698</v>
+        <v>0.01490020740272777</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -723,13 +723,13 @@
         <v>0.03599999999999998</v>
       </c>
       <c r="C19">
-        <v>0.07028181721443616</v>
+        <v>0.07174251260835263</v>
       </c>
       <c r="D19">
-        <v>263.0375633343455</v>
+        <v>263.046492656339</v>
       </c>
       <c r="E19">
-        <v>0.01518183552013166</v>
+        <v>0.01522216014903464</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -740,13 +740,13 @@
         <v>0.03633333333333331</v>
       </c>
       <c r="C20">
-        <v>0.06987242777120173</v>
+        <v>0.07131286059859576</v>
       </c>
       <c r="D20">
-        <v>263.1078451515599</v>
+        <v>263.1182351689473</v>
       </c>
       <c r="E20">
-        <v>0.01549922671734244</v>
+        <v>0.01554614781569099</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -757,13 +757,13 @@
         <v>0.03666666666666664</v>
       </c>
       <c r="C21">
-        <v>0.07063482680166544</v>
+        <v>0.07014585293325126</v>
       </c>
       <c r="D21">
-        <v>263.1777175793311</v>
+        <v>263.1895480295459</v>
       </c>
       <c r="E21">
-        <v>0.01581476912050276</v>
+        <v>0.01586819518297575</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -774,13 +774,13 @@
         <v>0.03699999999999997</v>
       </c>
       <c r="C22">
-        <v>0.07062080028492801</v>
+        <v>0.07156481932361203</v>
       </c>
       <c r="D22">
-        <v>263.2483524061328</v>
+        <v>263.2596938824792</v>
       </c>
       <c r="E22">
-        <v>0.01613375450152878</v>
+        <v>0.01618497236837397</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -791,13 +791,13 @@
         <v>0.0373333333333333</v>
       </c>
       <c r="C23">
-        <v>0.07008580910439832</v>
+        <v>0.0732791343405097</v>
       </c>
       <c r="D23">
-        <v>263.3189732064177</v>
+        <v>263.3312587018028</v>
       </c>
       <c r="E23">
-        <v>0.01645267653910264</v>
+        <v>0.01650815757592186</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -808,13 +808,13 @@
         <v>0.03766666666666663</v>
       </c>
       <c r="C24">
-        <v>0.07038901228793293</v>
+        <v>0.07267696699500448</v>
       </c>
       <c r="D24">
-        <v>263.3890590155221</v>
+        <v>263.4045378361433</v>
       </c>
       <c r="E24">
-        <v>0.016769182567842</v>
+        <v>0.01683908459375832</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -825,13 +825,13 @@
         <v>0.03799999999999996</v>
       </c>
       <c r="C25">
-        <v>0.07120988012661655</v>
+        <v>0.07210624327160531</v>
       </c>
       <c r="D25">
-        <v>263.45944802781</v>
+        <v>263.4772148031383</v>
       </c>
       <c r="E25">
-        <v>0.01708705785573305</v>
+        <v>0.0171672922366228</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -842,13 +842,13 @@
         <v>0.0383333333333333</v>
       </c>
       <c r="C26">
-        <v>0.07164951831418875</v>
+        <v>0.07199953255224045</v>
       </c>
       <c r="D26">
-        <v>263.5306579079366</v>
+        <v>263.5493210464099</v>
       </c>
       <c r="E26">
-        <v>0.01740864016538872</v>
+        <v>0.01749292250324659</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -859,13 +859,13 @@
         <v>0.03866666666666663</v>
       </c>
       <c r="C27">
-        <v>0.07033728343549228</v>
+        <v>0.07284006965608114</v>
       </c>
       <c r="D27">
-        <v>263.6023074262508</v>
+        <v>263.6213205789621</v>
       </c>
       <c r="E27">
-        <v>0.01773220787178313</v>
+        <v>0.01781807086652306</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -876,13 +876,13 @@
         <v>0.03899999999999996</v>
       </c>
       <c r="C28">
-        <v>0.07043963459545921</v>
+        <v>0.07390304718558127</v>
       </c>
       <c r="D28">
-        <v>263.6726447096863</v>
+        <v>263.6941606486182</v>
       </c>
       <c r="E28">
-        <v>0.01804984955327277</v>
+        <v>0.01814701507754875</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -893,13 +893,13 @@
         <v>0.03933333333333329</v>
       </c>
       <c r="C29">
-        <v>0.07004748248414217</v>
+        <v>0.0729327841503391</v>
       </c>
       <c r="D29">
-        <v>263.7430843442818</v>
+        <v>263.7680636958038</v>
       </c>
       <c r="E29">
-        <v>0.01836795345043207</v>
+        <v>0.01848075967257226</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -910,13 +910,13 @@
         <v>0.03966666666666662</v>
       </c>
       <c r="C30">
-        <v>0.07126228353968145</v>
+        <v>0.07210048625995569</v>
       </c>
       <c r="D30">
-        <v>263.8131318267659</v>
+        <v>263.8409964799541</v>
       </c>
       <c r="E30">
-        <v>0.01868428639696652</v>
+        <v>0.01881012258028938</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -927,13 +927,13 @@
         <v>0.03999999999999995</v>
       </c>
       <c r="C31">
-        <v>0.07207447215705542</v>
+        <v>0.07294311420832855</v>
       </c>
       <c r="D31">
-        <v>263.8843941103056</v>
+        <v>263.9130969662141</v>
       </c>
       <c r="E31">
-        <v>0.01900610535932508</v>
+        <v>0.01913572684837062</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -944,13 +944,13 @@
         <v>0.04033333333333328</v>
       </c>
       <c r="C32">
-        <v>0.07358629749433021</v>
+        <v>0.07463320257579653</v>
       </c>
       <c r="D32">
-        <v>263.9564685824627</v>
+        <v>263.9860400804224</v>
       </c>
       <c r="E32">
-        <v>0.01933159214826888</v>
+        <v>0.01946513640641057</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -961,13 +961,13 @@
         <v>0.04066666666666661</v>
       </c>
       <c r="C33">
-        <v>0.07238046940096865</v>
+        <v>0.07414590310293079</v>
       </c>
       <c r="D33">
-        <v>264.030054879957</v>
+        <v>264.0606732829982</v>
       </c>
       <c r="E33">
-        <v>0.019663906308399</v>
+        <v>0.01980217836770379</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -978,13 +978,13 @@
         <v>0.04099999999999995</v>
       </c>
       <c r="C34">
-        <v>0.07279813066600127</v>
+        <v>0.07434567342409082</v>
       </c>
       <c r="D34">
-        <v>264.102435349358</v>
+        <v>264.1348191861011</v>
       </c>
       <c r="E34">
-        <v>0.01999077497441185</v>
+        <v>0.02013701969490388</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -995,13 +995,13 @@
         <v>0.04133333333333328</v>
       </c>
       <c r="C35">
-        <v>0.07303325441523612</v>
+        <v>0.0753376112713795</v>
       </c>
       <c r="D35">
-        <v>264.175233480024</v>
+        <v>264.2091648595252</v>
       </c>
       <c r="E35">
-        <v>0.02031952978984698</v>
+        <v>0.02047276318064082</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1012,13 +1012,13 @@
         <v>0.04166666666666661</v>
       </c>
       <c r="C36">
-        <v>0.06826140207977005</v>
+        <v>0.0701873836659388</v>
       </c>
       <c r="D36">
-        <v>264.2482667344392</v>
+        <v>264.2845024707966</v>
       </c>
       <c r="E36">
-        <v>0.02064934641915143</v>
+        <v>0.02081298623667631</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1029,13 +1029,13 @@
         <v>0.04199999999999994</v>
       </c>
       <c r="C37">
-        <v>0.8558574774391445</v>
+        <v>0.8668256856628886</v>
       </c>
       <c r="D37">
-        <v>263.3204393529473</v>
+        <v>263.3474016959943</v>
       </c>
       <c r="E37">
-        <v>0.01645929762576159</v>
+        <v>0.01658105899560759</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1046,13 +1046,13 @@
         <v>0.04233333333333327</v>
       </c>
       <c r="C38">
-        <v>0.2591668657911441</v>
+        <v>0.2635393414609553</v>
       </c>
       <c r="D38">
-        <v>264.1762968303865</v>
+        <v>264.2142273816572</v>
       </c>
       <c r="E38">
-        <v>0.02032433185755099</v>
+        <v>0.02049562542330993</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1063,13 +1063,13 @@
         <v>0.0426666666666666</v>
       </c>
       <c r="C39">
-        <v>0.1175644518546051</v>
+        <v>0.1180975877789479</v>
       </c>
       <c r="D39">
-        <v>264.4354636961776</v>
+        <v>264.4777667231182</v>
       </c>
       <c r="E39">
-        <v>0.0214947239315041</v>
+        <v>0.02168576350473163</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1080,13 +1080,13 @@
         <v>0.04299999999999993</v>
       </c>
       <c r="C40">
-        <v>0.0855664342690261</v>
+        <v>0.08472604489486457</v>
       </c>
       <c r="D40">
-        <v>264.5530281480322</v>
+        <v>264.5958643108971</v>
       </c>
       <c r="E40">
-        <v>0.0220256425047919</v>
+        <v>0.02221908970855597</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1097,13 +1097,13 @@
         <v>0.04333333333333327</v>
       </c>
       <c r="C41">
-        <v>0.07780591356572586</v>
+        <v>0.07730199945024196</v>
       </c>
       <c r="D41">
-        <v>264.6385945823013</v>
+        <v>264.680590355792</v>
       </c>
       <c r="E41">
-        <v>0.02241205870872735</v>
+        <v>0.02260171073188645</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1114,13 +1114,13 @@
         <v>0.0436666666666666</v>
       </c>
       <c r="C42">
-        <v>0.07564966705490406</v>
+        <v>0.07562695342073766</v>
       </c>
       <c r="D42">
-        <v>264.716400495867</v>
+        <v>264.7578923552422</v>
       </c>
       <c r="E42">
-        <v>0.02276342856561871</v>
+        <v>0.02295080492331057</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1131,13 +1131,13 @@
         <v>0.04399999999999993</v>
       </c>
       <c r="C43">
-        <v>0.07497610202051419</v>
+        <v>0.07454088375027368</v>
       </c>
       <c r="D43">
-        <v>264.7920501629219</v>
+        <v>264.833519308663</v>
       </c>
       <c r="E43">
-        <v>0.02310506085895991</v>
+        <v>0.02329233464236116</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1148,13 +1148,13 @@
         <v>0.04433333333333326</v>
       </c>
       <c r="C44">
-        <v>0.07411046317656655</v>
+        <v>0.07263807116180487</v>
       </c>
       <c r="D44">
-        <v>264.8670262649424</v>
+        <v>264.9080601924132</v>
       </c>
       <c r="E44">
-        <v>0.02344365134687911</v>
+        <v>0.02362895969379455</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1165,13 +1165,13 @@
         <v>0.04466666666666659</v>
       </c>
       <c r="C45">
-        <v>0.07412149405433865</v>
+        <v>0.07538545135093955</v>
       </c>
       <c r="D45">
-        <v>264.941136728119</v>
+        <v>264.9806982635751</v>
       </c>
       <c r="E45">
-        <v>0.02377833262812266</v>
+        <v>0.02395699168390068</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1182,13 +1182,13 @@
         <v>0.04499999999999992</v>
       </c>
       <c r="C46">
-        <v>0.04994285622672123</v>
+        <v>0.04889417019148823</v>
       </c>
       <c r="D46">
-        <v>265.0152582221733</v>
+        <v>265.056083714926</v>
       </c>
       <c r="E46">
-        <v>0.02411306372457646</v>
+        <v>0.02429743078472164</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1199,13 +1199,13 @@
         <v>0.04533333333333325</v>
       </c>
       <c r="C47">
-        <v>1.007164768650455</v>
+        <v>1.015393828165656</v>
       </c>
       <c r="D47">
-        <v>263.8139000212826</v>
+        <v>263.8409480525644</v>
       </c>
       <c r="E47">
-        <v>0.01868775554712509</v>
+        <v>0.01880990388322345</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1216,13 +1216,13 @@
         <v>0.04566666666666658</v>
       </c>
       <c r="C48">
-        <v>0.2898627220773733</v>
+        <v>0.2910520086933275</v>
       </c>
       <c r="D48">
-        <v>264.8210647899331</v>
+        <v>264.85634188073</v>
       </c>
       <c r="E48">
-        <v>0.02323609029969855</v>
+        <v>0.02339540089418701</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1233,13 +1233,13 @@
         <v>0.04599999999999992</v>
       </c>
       <c r="C49">
-        <v>0.1141544187007639</v>
+        <v>0.1163944959076844</v>
       </c>
       <c r="D49">
-        <v>265.1109275120104</v>
+        <v>265.1473938894234</v>
       </c>
       <c r="E49">
-        <v>0.02454510421016982</v>
+        <v>0.02470978559781385</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1250,13 +1250,13 @@
         <v>0.04633333333333325</v>
       </c>
       <c r="C50">
-        <v>0.07097034610717401</v>
+        <v>0.07192957704728542</v>
       </c>
       <c r="D50">
-        <v>265.2250819307112</v>
+        <v>265.2637883853311</v>
       </c>
       <c r="E50">
-        <v>0.02506062314599612</v>
+        <v>0.0252354206748376</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1267,13 +1267,13 @@
         <v>0.04666666666666658</v>
       </c>
       <c r="C51">
-        <v>0.05962363153423667</v>
+        <v>0.05994531048679619</v>
       </c>
       <c r="D51">
-        <v>265.2960522768184</v>
+        <v>265.3357179623783</v>
       </c>
       <c r="E51">
-        <v>0.02538112372509589</v>
+        <v>0.02556025312053615</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1284,13 +1284,13 @@
         <v>0.04699999999999991</v>
       </c>
       <c r="C52">
-        <v>0.05633758573424075</v>
+        <v>0.05601060896128729</v>
       </c>
       <c r="D52">
-        <v>265.3556759083526</v>
+        <v>265.3956632728651</v>
       </c>
       <c r="E52">
-        <v>0.0256503827816306</v>
+        <v>0.02583096487240389</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1301,13 +1301,13 @@
         <v>0.04733333333333324</v>
       </c>
       <c r="C53">
-        <v>0.05626272210758998</v>
+        <v>0.05458067338065575</v>
       </c>
       <c r="D53">
-        <v>265.4120134940869</v>
+        <v>265.4516738818264</v>
       </c>
       <c r="E53">
-        <v>0.02590480212496656</v>
+        <v>0.02608390759556202</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1318,13 +1318,13 @@
         <v>0.04766666666666657</v>
       </c>
       <c r="C54">
-        <v>0.05522157538564443</v>
+        <v>0.05454846903546695</v>
       </c>
       <c r="D54">
-        <v>265.4682762161945</v>
+        <v>265.5062545552071</v>
       </c>
       <c r="E54">
-        <v>0.02615888338575086</v>
+        <v>0.02633039275993964</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1335,13 +1335,13 @@
         <v>0.0479999999999999</v>
       </c>
       <c r="C55">
-        <v>0.05597635001174694</v>
+        <v>0.05544149866591397</v>
       </c>
       <c r="D55">
-        <v>265.5234977915801</v>
+        <v>265.5608030242425</v>
       </c>
       <c r="E55">
-        <v>0.02640826285000173</v>
+        <v>0.02657673249017668</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1352,13 +1352,13 @@
         <v>0.04833333333333324</v>
       </c>
       <c r="C56">
-        <v>0.05561409260383243</v>
+        <v>0.05619907306504501</v>
       </c>
       <c r="D56">
-        <v>265.5794741415918</v>
+        <v>265.6162445229085</v>
       </c>
       <c r="E56">
-        <v>0.02666105086046986</v>
+        <v>0.02682710512330089</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1369,13 +1369,13 @@
         <v>0.04866666666666657</v>
       </c>
       <c r="C57">
-        <v>-0.391462324405552</v>
+        <v>-0.321195710054667</v>
       </c>
       <c r="D57">
-        <v>265.6350882341957</v>
+        <v>265.6724435959735</v>
       </c>
       <c r="E57">
-        <v>0.02691220292416021</v>
+        <v>0.02708089894635794</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1386,13 +1386,13 @@
         <v>0.0489999999999999</v>
       </c>
       <c r="C58">
-        <v>1.008828569435082</v>
+        <v>1.040232602494939</v>
       </c>
       <c r="D58">
-        <v>263.8391104146734</v>
+        <v>263.9246395045408</v>
       </c>
       <c r="E58">
-        <v>0.018801605149449</v>
+        <v>0.01918785270685808</v>
       </c>
     </row>
   </sheetData>
@@ -1402,7 +1402,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1439,10 +1439,10 @@
         <v>0.04933333333333323</v>
       </c>
       <c r="C2">
-        <v>-1.217268772885291</v>
+        <v>-1.256962018766558</v>
       </c>
       <c r="D2">
-        <v>265.1298180504522</v>
+        <v>265.2542458838645</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1450,271 +1450,271 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>32421.5</v>
+        <v>32391.08333333333</v>
       </c>
       <c r="B3">
         <v>0.04999999999999989</v>
       </c>
       <c r="C3">
-        <v>-1.250961253607784</v>
+        <v>0.2993632242649937</v>
       </c>
       <c r="D3">
-        <v>265.2361443065009</v>
+        <v>265.0640349107344</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.02433333821650026</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>32482.33333333333</v>
+        <v>32421.5</v>
       </c>
       <c r="B4">
-        <v>0.05066666666666655</v>
+        <v>0.04999999999999989</v>
       </c>
       <c r="C4">
-        <v>0.305033774468825</v>
+        <v>-1.291469422071941</v>
       </c>
       <c r="D4">
-        <v>265.0441488682977</v>
+        <v>265.3633981349994</v>
       </c>
       <c r="E4">
-        <v>0.02424353327025759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>32512.75</v>
+        <v>32482.33333333333</v>
       </c>
       <c r="B5">
-        <v>0.05099999999999989</v>
+        <v>0.05066666666666655</v>
       </c>
       <c r="C5">
-        <v>0.1158767962831462</v>
+        <v>0.3176027585503789</v>
       </c>
       <c r="D5">
-        <v>265.3491826427666</v>
+        <v>265.1636815303527</v>
       </c>
       <c r="E5">
-        <v>0.02562105933184155</v>
+        <v>0.02478334023910235</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>32543.16666666667</v>
+        <v>32512.75</v>
       </c>
       <c r="B6">
-        <v>0.05133333333333322</v>
+        <v>0.05099999999999989</v>
       </c>
       <c r="C6">
-        <v>0.07239332003962318</v>
+        <v>0.123884735451611</v>
       </c>
       <c r="D6">
-        <v>265.4650594390497</v>
+        <v>265.4812842889031</v>
       </c>
       <c r="E6">
-        <v>0.02614435648833147</v>
+        <v>0.02621762756645146</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>32573.58333333333</v>
+        <v>32543.16666666667</v>
       </c>
       <c r="B7">
-        <v>0.05166666666666655</v>
+        <v>0.05133333333333322</v>
       </c>
       <c r="C7">
-        <v>0.05940701877671017</v>
+        <v>0.07405879954535521</v>
       </c>
       <c r="D7">
-        <v>265.5374527590893</v>
+        <v>265.6051690243547</v>
       </c>
       <c r="E7">
-        <v>0.02647128318755617</v>
+        <v>0.02677708840653124</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>32604</v>
+        <v>32573.58333333333</v>
       </c>
       <c r="B8">
-        <v>0.05199999999999988</v>
+        <v>0.05166666666666655</v>
       </c>
       <c r="C8">
-        <v>0.05582914170793174</v>
+        <v>0.06008397962273193</v>
       </c>
       <c r="D8">
-        <v>265.596859777866</v>
+        <v>265.6792278239001</v>
       </c>
       <c r="E8">
-        <v>0.02673956402546809</v>
+        <v>0.02711153637591104</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>32634.41666666667</v>
+        <v>32604</v>
       </c>
       <c r="B9">
-        <v>0.05233333333333321</v>
+        <v>0.05199999999999988</v>
       </c>
       <c r="C9">
-        <v>0.04505587520748122</v>
+        <v>0.05606132112268369</v>
       </c>
       <c r="D9">
-        <v>265.652688919574</v>
+        <v>265.7393118035228</v>
       </c>
       <c r="E9">
-        <v>0.02699168724635548</v>
+        <v>0.02738287435465817</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>32664.83333333333</v>
+        <v>32634.41666666667</v>
       </c>
       <c r="B10">
         <v>0.05233333333333321</v>
       </c>
       <c r="C10">
-        <v>-1.461060896766867</v>
+        <v>0.04490095731193833</v>
       </c>
       <c r="D10">
-        <v>265.6977447947814</v>
+        <v>265.7953731246455</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0276360460928626</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>32725.66666666667</v>
+        <v>32664.83333333333</v>
       </c>
       <c r="B11">
-        <v>0.05299999999999987</v>
+        <v>0.05233333333333321</v>
       </c>
       <c r="C11">
-        <v>0.3354055596170156</v>
+        <v>-1.511690522316144</v>
       </c>
       <c r="D11">
-        <v>265.3844616437617</v>
+        <v>265.8402740819574</v>
       </c>
       <c r="E11">
-        <v>0.02578037855274468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>32756.08333333333</v>
+        <v>32725.66666666667</v>
       </c>
       <c r="B12">
-        <v>0.0533333333333332</v>
+        <v>0.05299999999999987</v>
       </c>
       <c r="C12">
-        <v>0.1290242990207844</v>
+        <v>0.3468291082278938</v>
       </c>
       <c r="D12">
-        <v>265.7198672033787</v>
+        <v>265.5088653473516</v>
       </c>
       <c r="E12">
-        <v>0.02729506295245468</v>
+        <v>0.02634218304193947</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>32786.5</v>
+        <v>32756.08333333333</v>
       </c>
       <c r="B13">
-        <v>0.05366666666666654</v>
+        <v>0.0533333333333332</v>
       </c>
       <c r="C13">
-        <v>0.07476619747774294</v>
+        <v>0.1337010087962653</v>
       </c>
       <c r="D13">
-        <v>265.8488915023995</v>
+        <v>265.8556944555795</v>
       </c>
       <c r="E13">
-        <v>0.02787773395270118</v>
+        <v>0.02790845594510177</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>32816.91666666666</v>
+        <v>32786.5</v>
       </c>
       <c r="B14">
-        <v>0.05399999999999987</v>
+        <v>0.05366666666666654</v>
       </c>
       <c r="C14">
-        <v>0.06253959601826864</v>
+        <v>0.07542287904652767</v>
       </c>
       <c r="D14">
-        <v>265.9236576998773</v>
+        <v>265.9893954643758</v>
       </c>
       <c r="E14">
-        <v>0.02821537651615315</v>
+        <v>0.02851224686759108</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>32847.33333333334</v>
+        <v>32816.91666666666</v>
       </c>
       <c r="B15">
-        <v>0.0543333333333332</v>
+        <v>0.05399999999999987</v>
       </c>
       <c r="C15">
-        <v>0.05687242609030818</v>
+        <v>0.06148393573857902</v>
       </c>
       <c r="D15">
-        <v>265.9861972958955</v>
+        <v>266.0648183434223</v>
       </c>
       <c r="E15">
-        <v>0.02849780400650604</v>
+        <v>0.02885285499109226</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>32877.75</v>
+        <v>32847.33333333334</v>
       </c>
       <c r="B16">
-        <v>0.05466666666666653</v>
+        <v>0.0543333333333332</v>
       </c>
       <c r="C16">
-        <v>0.04502512252383895</v>
+        <v>0.0580092685273712</v>
       </c>
       <c r="D16">
-        <v>266.0430697219858</v>
+        <v>266.1263022791609</v>
       </c>
       <c r="E16">
-        <v>0.02875463867755624</v>
+        <v>0.02913051514199241</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>32908.16666666666</v>
+        <v>32877.75</v>
       </c>
       <c r="B17">
         <v>0.05466666666666653</v>
       </c>
       <c r="C17">
-        <v>-1.598136129106365</v>
+        <v>0.04692996570145169</v>
       </c>
       <c r="D17">
-        <v>266.0880948445097</v>
+        <v>266.1843115476883</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.02939248376939764</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>32969</v>
+        <v>32908.16666666666</v>
       </c>
       <c r="B18">
-        <v>0.05499999999999986</v>
+        <v>0.05466666666666653</v>
       </c>
       <c r="C18">
-        <v>-1.189911961808662</v>
+        <v>-1.651631084681867</v>
       </c>
       <c r="D18">
-        <v>265.7167614415357</v>
+        <v>266.2312415133897</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1722,254 +1722,254 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>33029.83333333334</v>
+        <v>32969</v>
       </c>
       <c r="B19">
-        <v>0.05566666666666652</v>
+        <v>0.05499999999999986</v>
       </c>
       <c r="C19">
-        <v>0.373758130441729</v>
+        <v>-1.226534770809167</v>
       </c>
       <c r="D19">
-        <v>265.7773617158902</v>
+        <v>265.8432565429001</v>
       </c>
       <c r="E19">
-        <v>0.02755470695259998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>33060.25</v>
+        <v>33029.83333333334</v>
       </c>
       <c r="B20">
-        <v>0.05599999999999986</v>
+        <v>0.05566666666666652</v>
       </c>
       <c r="C20">
-        <v>0.1419426260363252</v>
+        <v>0.3882333961839777</v>
       </c>
       <c r="D20">
-        <v>266.1511198463319</v>
+        <v>265.9031256881218</v>
       </c>
       <c r="E20">
-        <v>0.02924259074943182</v>
+        <v>0.02812265438615586</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>33090.66666666666</v>
+        <v>33060.25</v>
       </c>
       <c r="B21">
-        <v>0.05633333333333319</v>
+        <v>0.05599999999999986</v>
       </c>
       <c r="C21">
-        <v>0.07871692786238782</v>
+        <v>0.1486198629644377</v>
       </c>
       <c r="D21">
-        <v>266.2930624723682</v>
+        <v>266.2913590843058</v>
       </c>
       <c r="E21">
-        <v>0.02988360064073066</v>
+        <v>0.02987590817633689</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>33121.08333333334</v>
+        <v>33090.66666666666</v>
       </c>
       <c r="B22">
-        <v>0.05666666666666652</v>
+        <v>0.05633333333333319</v>
       </c>
       <c r="C22">
-        <v>0.06080757913809975</v>
+        <v>0.0823401660060199</v>
       </c>
       <c r="D22">
-        <v>266.3717794002306</v>
+        <v>266.4399789472702</v>
       </c>
       <c r="E22">
-        <v>0.03023908461888054</v>
+        <v>0.03054707232810674</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>33151.5</v>
+        <v>33121.08333333334</v>
       </c>
       <c r="B23">
-        <v>0.05699999999999985</v>
+        <v>0.05666666666666652</v>
       </c>
       <c r="C23">
-        <v>0.05844644370358765</v>
+        <v>0.06380407375422692</v>
       </c>
       <c r="D23">
-        <v>266.4325869793687</v>
+        <v>266.5223191132762</v>
       </c>
       <c r="E23">
-        <v>0.03051369035770533</v>
+        <v>0.03091891877293394</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>33181.91666666666</v>
+        <v>33151.5</v>
       </c>
       <c r="B24">
-        <v>0.05733333333333318</v>
+        <v>0.05699999999999985</v>
       </c>
       <c r="C24">
-        <v>0.05781671625459239</v>
+        <v>0.05943421638005475</v>
       </c>
       <c r="D24">
-        <v>266.4910334230723</v>
+        <v>266.5861231870305</v>
       </c>
       <c r="E24">
-        <v>0.03077763325894253</v>
+        <v>0.03120705661794699</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>33212.33333333334</v>
+        <v>33181.91666666666</v>
       </c>
       <c r="B25">
-        <v>0.05766666666666651</v>
+        <v>0.05733333333333318</v>
       </c>
       <c r="C25">
-        <v>0.05822321623907101</v>
+        <v>0.05918017848523505</v>
       </c>
       <c r="D25">
-        <v>266.5488501393269</v>
+        <v>266.6455574034105</v>
       </c>
       <c r="E25">
-        <v>0.03103873232436422</v>
+        <v>0.03147546027965936</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>33242.75</v>
+        <v>33212.33333333334</v>
       </c>
       <c r="B26">
-        <v>0.05799999999999984</v>
+        <v>0.05766666666666651</v>
       </c>
       <c r="C26">
-        <v>0.05888775538369373</v>
+        <v>0.05733233767205093</v>
       </c>
       <c r="D26">
-        <v>266.6070733555659</v>
+        <v>266.7047375818958</v>
       </c>
       <c r="E26">
-        <v>0.03130166713510192</v>
+        <v>0.03174271671162188</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>33273.16666666666</v>
+        <v>33242.75</v>
       </c>
       <c r="B27">
-        <v>0.05833333333333317</v>
+        <v>0.05799999999999984</v>
       </c>
       <c r="C27">
-        <v>0.04696166027599702</v>
+        <v>0.05778037696859428</v>
       </c>
       <c r="D27">
-        <v>266.6659611109496</v>
+        <v>266.7620699195678</v>
       </c>
       <c r="E27">
-        <v>0.03156760299053452</v>
+        <v>0.03200162833362932</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>33303.58333333334</v>
+        <v>33273.16666666666</v>
       </c>
       <c r="B28">
         <v>0.05833333333333317</v>
       </c>
       <c r="C28">
-        <v>-1.82501458068964</v>
+        <v>0.04641263803682705</v>
       </c>
       <c r="D28">
-        <v>266.7129227712256</v>
+        <v>266.8198502965364</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.03226256329160573</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>33364.41666666666</v>
+        <v>33303.58333333334</v>
       </c>
       <c r="B29">
-        <v>0.05899999999999984</v>
+        <v>0.05833333333333317</v>
       </c>
       <c r="C29">
-        <v>0.4240545998275138</v>
+        <v>-1.88610388231973</v>
       </c>
       <c r="D29">
-        <v>266.2779585622062</v>
+        <v>266.8662629345732</v>
       </c>
       <c r="E29">
-        <v>0.02981539170250328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>33394.83333333334</v>
+        <v>33364.41666666666</v>
       </c>
       <c r="B30">
-        <v>0.05933333333333317</v>
+        <v>0.05899999999999984</v>
       </c>
       <c r="C30">
-        <v>0.1587011705100849</v>
+        <v>0.4352207646124953</v>
       </c>
       <c r="D30">
-        <v>266.7020131620337</v>
+        <v>266.4052926340274</v>
       </c>
       <c r="E30">
-        <v>0.03173041328925764</v>
+        <v>0.03039042967253386</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>33425.25</v>
+        <v>33394.83333333334</v>
       </c>
       <c r="B31">
-        <v>0.0596666666666665</v>
+        <v>0.05933333333333317</v>
       </c>
       <c r="C31">
-        <v>0.07571271294807502</v>
+        <v>0.1638737569386421</v>
       </c>
       <c r="D31">
-        <v>266.8607143325438</v>
+        <v>266.8405133986399</v>
       </c>
       <c r="E31">
-        <v>0.03244710441227257</v>
+        <v>0.03235587742283698</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>33455.66666666666</v>
+        <v>33425.25</v>
       </c>
       <c r="B32">
         <v>0.0596666666666665</v>
       </c>
       <c r="C32">
-        <v>-1.913720055799558</v>
+        <v>0.08018422907628064</v>
       </c>
       <c r="D32">
-        <v>266.9364270454919</v>
+        <v>267.0043871555786</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>0.03309592783655188</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>33486.08333333334</v>
+        <v>33455.66666666666</v>
       </c>
       <c r="B33">
         <v>0.0596666666666665</v>
       </c>
       <c r="C33">
-        <v>0.00913549116410195</v>
+        <v>-1.970500045052404</v>
       </c>
       <c r="D33">
-        <v>265.0227069896923</v>
+        <v>267.0845713846549</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1977,206 +1977,223 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>33516.5</v>
+        <v>33486.08333333334</v>
       </c>
       <c r="B34">
-        <v>0.05999999999999983</v>
+        <v>0.0596666666666665</v>
       </c>
       <c r="C34">
-        <v>1.445019392177301</v>
+        <v>0.009543064446233984</v>
       </c>
       <c r="D34">
-        <v>265.0318424808564</v>
+        <v>265.1140713396024</v>
       </c>
       <c r="E34">
-        <v>0.02418795788535528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>33546.91666666666</v>
+        <v>33516.5</v>
       </c>
       <c r="B35">
-        <v>0.06033333333333316</v>
+        <v>0.05999999999999983</v>
       </c>
       <c r="C35">
-        <v>0.4433893834871014</v>
+        <v>1.482196747733497</v>
       </c>
       <c r="D35">
-        <v>266.4768618730337</v>
+        <v>265.1236144040487</v>
       </c>
       <c r="E35">
-        <v>0.03071363483927508</v>
+        <v>0.0246023979457687</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>33577.33333333334</v>
+        <v>33546.91666666666</v>
       </c>
       <c r="B36">
-        <v>0.06066666666666649</v>
+        <v>0.06033333333333316</v>
       </c>
       <c r="C36">
-        <v>0.1660547619488852</v>
+        <v>0.4589057505859273</v>
       </c>
       <c r="D36">
-        <v>266.9202512565208</v>
+        <v>266.6058111517822</v>
       </c>
       <c r="E36">
-        <v>0.03271597189931628</v>
+        <v>0.0312959670495617</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>33607.75</v>
+        <v>33577.33333333334</v>
       </c>
       <c r="B37">
-        <v>0.06099999999999983</v>
+        <v>0.06066666666666649</v>
       </c>
       <c r="C37">
-        <v>0.09069251335540685</v>
+        <v>0.1737688798477848</v>
       </c>
       <c r="D37">
-        <v>267.0863060184697</v>
+        <v>267.0647169023681</v>
       </c>
       <c r="E37">
-        <v>0.03346587168543994</v>
+        <v>0.03336837569461638</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>33638.16666666666</v>
+        <v>33607.75</v>
       </c>
       <c r="B38">
-        <v>0.06133333333333316</v>
+        <v>0.06099999999999983</v>
       </c>
       <c r="C38">
-        <v>0.06592228159502156</v>
+        <v>0.08534134719297981</v>
       </c>
       <c r="D38">
-        <v>267.1769985318251</v>
+        <v>267.2384857822159</v>
       </c>
       <c r="E38">
-        <v>0.03387543715390383</v>
+        <v>0.03415311227370294</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>33668.58333333334</v>
+        <v>33638.16666666666</v>
       </c>
       <c r="B39">
-        <v>0.06166666666666649</v>
+        <v>0.06133333333333316</v>
       </c>
       <c r="C39">
-        <v>0.04934067935926123</v>
+        <v>0.06540707161025239</v>
       </c>
       <c r="D39">
-        <v>267.2429208134201</v>
+        <v>267.3238271294089</v>
       </c>
       <c r="E39">
-        <v>0.03417314078063935</v>
+        <v>0.03453851198917296</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>33699</v>
+        <v>33668.58333333334</v>
       </c>
       <c r="B40">
         <v>0.06166666666666649</v>
       </c>
       <c r="C40">
-        <v>-2.048389915995472</v>
+        <v>0.04988660034655368</v>
       </c>
       <c r="D40">
-        <v>267.2922614927794</v>
+        <v>267.3892342010191</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.03483388893853506</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>33729.41666666666</v>
+        <v>33699</v>
       </c>
       <c r="B41">
-        <v>0.06199999999999982</v>
+        <v>0.06166666666666649</v>
       </c>
       <c r="C41">
-        <v>1.530827385407861</v>
+        <v>-2.100904167838394</v>
       </c>
       <c r="D41">
-        <v>265.2438715767839</v>
+        <v>267.4391208013657</v>
       </c>
       <c r="E41">
-        <v>0.02514547678949236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>33759.83333333334</v>
+        <v>33729.41666666666</v>
       </c>
       <c r="B42">
-        <v>0.06233333333333315</v>
+        <v>0.06199999999999982</v>
       </c>
       <c r="C42">
-        <v>0.4769936535866464</v>
+        <v>1.569912430885324</v>
       </c>
       <c r="D42">
-        <v>266.7746989621918</v>
+        <v>265.3382166335273</v>
       </c>
       <c r="E42">
-        <v>0.03205866082249949</v>
+        <v>0.02557153706649579</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>33790.25</v>
+        <v>33759.83333333334</v>
       </c>
       <c r="B43">
-        <v>0.06266666666666648</v>
+        <v>0.06233333333333315</v>
       </c>
       <c r="C43">
-        <v>0.1743894678551214</v>
+        <v>0.4839708121302237</v>
       </c>
       <c r="D43">
-        <v>267.2516926157784</v>
+        <v>266.9081290644126</v>
       </c>
       <c r="E43">
-        <v>0.03421275405420778</v>
+        <v>0.03266122833663478</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>33820.66666666666</v>
+        <v>33790.25</v>
       </c>
       <c r="B44">
-        <v>0.06299999999999982</v>
+        <v>0.06266666666666648</v>
       </c>
       <c r="C44">
-        <v>0.09221505195091595</v>
+        <v>0.1843424275334655</v>
       </c>
       <c r="D44">
-        <v>267.4260820836336</v>
+        <v>267.3920998765428</v>
       </c>
       <c r="E44">
-        <v>0.03500029319558491</v>
+        <v>0.03484683026847406</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
+        <v>33820.66666666666</v>
+      </c>
+      <c r="B45">
+        <v>0.06299999999999982</v>
+      </c>
+      <c r="C45">
+        <v>0.09428613541695086</v>
+      </c>
+      <c r="D45">
+        <v>267.5764423040763</v>
+      </c>
+      <c r="E45">
+        <v>0.0356793167648471</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2">
         <v>33851.08333333334</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>0.06333333333333316</v>
       </c>
-      <c r="C45">
-        <v>0.06808404270611845</v>
-      </c>
-      <c r="D45">
-        <v>267.5182971355845</v>
-      </c>
-      <c r="E45">
-        <v>0.03541673441608219</v>
+      <c r="C46">
+        <v>0.06825797959777447</v>
+      </c>
+      <c r="D46">
+        <v>267.6707284394932</v>
+      </c>
+      <c r="E46">
+        <v>0.03610511095438906</v>
       </c>
     </row>
   </sheetData>
@@ -2223,13 +2240,13 @@
         <v>0.0636666666666665</v>
       </c>
       <c r="C2">
-        <v>-1.329813384102977</v>
+        <v>-1.327244035584044</v>
       </c>
       <c r="D2">
-        <v>267.5863811782906</v>
+        <v>267.738986419091</v>
       </c>
       <c r="E2">
-        <v>0.03572420051018591</v>
+        <v>0.03641336254380985</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2240,13 +2257,13 @@
         <v>0.06399999999999983</v>
       </c>
       <c r="C3">
-        <v>-0.3444586665533507</v>
+        <v>-0.3475225555546331</v>
       </c>
       <c r="D3">
-        <v>266.2565677941876</v>
+        <v>266.411742383507</v>
       </c>
       <c r="E3">
-        <v>0.0297187914474194</v>
+        <v>0.03041955660450809</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2257,13 +2274,13 @@
         <v>0.06433333333333317</v>
       </c>
       <c r="C4">
-        <v>-0.05817039525209111</v>
+        <v>-0.05896140040022146</v>
       </c>
       <c r="D4">
-        <v>265.9121091276343</v>
+        <v>266.0642198279523</v>
       </c>
       <c r="E4">
-        <v>0.02816322340862764</v>
+        <v>0.028850152107913</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2274,13 +2291,13 @@
         <v>0.06466666666666651</v>
       </c>
       <c r="C5">
-        <v>0.02371744137690257</v>
+        <v>0.02424605095006882</v>
       </c>
       <c r="D5">
-        <v>265.8539387323822</v>
+        <v>266.0052584275521</v>
       </c>
       <c r="E5">
-        <v>0.02790052713634798</v>
+        <v>0.02858388367314613</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2291,13 +2308,13 @@
         <v>0.06499999999999985</v>
       </c>
       <c r="C6">
-        <v>0.05096540002375605</v>
+        <v>0.04798932985659121</v>
       </c>
       <c r="D6">
-        <v>265.8776561737591</v>
+        <v>266.0295044785022</v>
       </c>
       <c r="E6">
-        <v>0.02800763459901389</v>
+        <v>0.02869337832544292</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2308,13 +2325,13 @@
         <v>0.06533333333333319</v>
       </c>
       <c r="C7">
-        <v>0.05735659283504901</v>
+        <v>0.05479306311303844</v>
       </c>
       <c r="D7">
-        <v>265.9286215737828</v>
+        <v>266.0774938083588</v>
       </c>
       <c r="E7">
-        <v>0.02823779326552233</v>
+        <v>0.02891009712214172</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2325,13 +2342,13 @@
         <v>0.06566666666666653</v>
       </c>
       <c r="C8">
-        <v>0.05818422650429511</v>
+        <v>0.056096008874988</v>
       </c>
       <c r="D8">
-        <v>265.9859781666179</v>
+        <v>266.1322868714718</v>
       </c>
       <c r="E8">
-        <v>0.02849681442333182</v>
+        <v>0.02915754143405001</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2342,13 +2359,13 @@
         <v>0.06599999999999986</v>
       </c>
       <c r="C9">
-        <v>0.05802147316842365</v>
+        <v>0.05595400855020216</v>
       </c>
       <c r="D9">
-        <v>266.0441623931222</v>
+        <v>266.1883828803468</v>
       </c>
       <c r="E9">
-        <v>0.0287595731572534</v>
+        <v>0.02941086982140881</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2359,13 +2376,13 @@
         <v>0.0663333333333332</v>
       </c>
       <c r="C10">
-        <v>0.05790100757417349</v>
+        <v>0.05614819908873869</v>
       </c>
       <c r="D10">
-        <v>266.1021838662906</v>
+        <v>266.244336888897</v>
       </c>
       <c r="E10">
-        <v>0.02902159690055915</v>
+        <v>0.02966355693830991</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2376,13 +2393,13 @@
         <v>0.06666666666666654</v>
       </c>
       <c r="C11">
-        <v>0.05754338634119449</v>
+        <v>0.05717729761238388</v>
       </c>
       <c r="D11">
-        <v>266.1600848738648</v>
+        <v>266.3004850879857</v>
       </c>
       <c r="E11">
-        <v>0.02928307662379406</v>
+        <v>0.02991712101556801</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2393,13 +2410,13 @@
         <v>0.06699999999999988</v>
       </c>
       <c r="C12">
-        <v>0.04826971683314696</v>
+        <v>0.04883212234869916</v>
       </c>
       <c r="D12">
-        <v>266.217628260206</v>
+        <v>266.3576623855981</v>
       </c>
       <c r="E12">
-        <v>0.02954294133711909</v>
+        <v>0.03017533247995139</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2410,13 +2427,13 @@
         <v>0.06766666666666656</v>
       </c>
       <c r="C13">
-        <v>0.4300936819035996</v>
+        <v>0.4432018107992235</v>
       </c>
       <c r="D13">
-        <v>265.8037877178746</v>
+        <v>265.9252002180953</v>
       </c>
       <c r="E13">
-        <v>0.02767404621757289</v>
+        <v>0.02822234249573851</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2427,13 +2444,13 @@
         <v>0.06799999999999989</v>
       </c>
       <c r="C14">
-        <v>0.1679337352716175</v>
+        <v>0.1719080402043573</v>
       </c>
       <c r="D14">
-        <v>266.2338813997782</v>
+        <v>266.3684020288945</v>
       </c>
       <c r="E14">
-        <v>0.0296163401710097</v>
+        <v>0.03022383248149594</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2444,13 +2461,13 @@
         <v>0.06833333333333323</v>
       </c>
       <c r="C15">
-        <v>0.08987896549240304</v>
+        <v>0.0928702917319697</v>
       </c>
       <c r="D15">
-        <v>266.4018151350498</v>
+        <v>266.5403100690988</v>
       </c>
       <c r="E15">
-        <v>0.03037472536084189</v>
+        <v>0.03100016554818562</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2461,13 +2478,13 @@
         <v>0.06866666666666657</v>
       </c>
       <c r="C16">
-        <v>0.06770111997934691</v>
+        <v>0.06919244549419545</v>
       </c>
       <c r="D16">
-        <v>266.4916941005422</v>
+        <v>266.6331803608308</v>
       </c>
       <c r="E16">
-        <v>0.03078061686439626</v>
+        <v>0.03141956581764904</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2478,13 +2495,13 @@
         <v>0.06899999999999991</v>
       </c>
       <c r="C17">
-        <v>0.05220398135963933</v>
+        <v>0.05003589219404603</v>
       </c>
       <c r="D17">
-        <v>266.5593952205215</v>
+        <v>266.702372806325</v>
       </c>
       <c r="E17">
-        <v>0.03108635368758045</v>
+        <v>0.03173203743525584</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2495,13 +2512,13 @@
         <v>0.06966666666666659</v>
       </c>
       <c r="C18">
-        <v>0.4678078035722137</v>
+        <v>0.4810430585431504</v>
       </c>
       <c r="D18">
-        <v>266.0987264872409</v>
+        <v>266.2151367245823</v>
       </c>
       <c r="E18">
-        <v>0.02900598345003567</v>
+        <v>0.02953168961504021</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2512,13 +2529,13 @@
         <v>0.06999999999999992</v>
       </c>
       <c r="C19">
-        <v>0.1823919551696918</v>
+        <v>0.1879604214228721</v>
       </c>
       <c r="D19">
-        <v>266.5665342908131</v>
+        <v>266.6961797831254</v>
       </c>
       <c r="E19">
-        <v>0.03111859357773455</v>
+        <v>0.03170406987372203</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2529,13 +2546,13 @@
         <v>0.07033333333333326</v>
       </c>
       <c r="C20">
-        <v>0.09458084359766872</v>
+        <v>0.1002479383098489</v>
       </c>
       <c r="D20">
-        <v>266.7489262459828</v>
+        <v>266.8841402045483</v>
       </c>
       <c r="E20">
-        <v>0.03194227178224479</v>
+        <v>0.03255289515383127</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2546,13 +2563,13 @@
         <v>0.0706666666666666</v>
       </c>
       <c r="C21">
-        <v>0.06907729966121678</v>
+        <v>0.07153861069286904</v>
       </c>
       <c r="D21">
-        <v>266.8435070895805</v>
+        <v>266.9843881428582</v>
       </c>
       <c r="E21">
-        <v>0.03236939686768583</v>
+        <v>0.0330056127189021</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2563,13 +2580,13 @@
         <v>0.07099999999999994</v>
       </c>
       <c r="C22">
-        <v>0.06253597016859658</v>
+        <v>0.06217486855643983</v>
       </c>
       <c r="D22">
-        <v>266.9125843892417</v>
+        <v>267.055926753551</v>
       </c>
       <c r="E22">
-        <v>0.03268134848915091</v>
+        <v>0.03332867956882889</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2580,13 +2597,13 @@
         <v>0.07133333333333328</v>
       </c>
       <c r="C23">
-        <v>0.06231399772991608</v>
+        <v>0.0592073889860103</v>
       </c>
       <c r="D23">
-        <v>266.9751203594103</v>
+        <v>267.1181016221075</v>
       </c>
       <c r="E23">
-        <v>0.03296375960524361</v>
+        <v>0.03360945995769313</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2597,13 +2614,13 @@
         <v>0.07166666666666661</v>
       </c>
       <c r="C24">
-        <v>0.05990063509125321</v>
+        <v>0.05720116022200727</v>
       </c>
       <c r="D24">
-        <v>267.0374343571402</v>
+        <v>267.1773090110935</v>
       </c>
       <c r="E24">
-        <v>0.03324516829850691</v>
+        <v>0.0338768392717004</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2614,13 +2631,13 @@
         <v>0.07199999999999995</v>
       </c>
       <c r="C25">
-        <v>0.05865911381454225</v>
+        <v>0.05796771378004451</v>
       </c>
       <c r="D25">
-        <v>267.0973349922315</v>
+        <v>267.2345101713155</v>
       </c>
       <c r="E25">
-        <v>0.03351567829723504</v>
+        <v>0.03413515849912328</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2631,13 +2648,13 @@
         <v>0.07233333333333329</v>
       </c>
       <c r="C26">
-        <v>0.05809878556192416</v>
+        <v>0.05758388545314119</v>
       </c>
       <c r="D26">
-        <v>267.155994106046</v>
+        <v>267.2924778850955</v>
       </c>
       <c r="E26">
-        <v>0.03378058161218664</v>
+        <v>0.03439693946617037</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2648,13 +2665,13 @@
         <v>0.07266666666666663</v>
       </c>
       <c r="C27">
-        <v>0.05759459086209517</v>
+        <v>0.05729743352117111</v>
       </c>
       <c r="D27">
-        <v>267.2140928916079</v>
+        <v>267.3500617705487</v>
       </c>
       <c r="E27">
-        <v>0.03404295449662303</v>
+        <v>0.0346569870726266</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2665,13 +2682,13 @@
         <v>0.07299999999999997</v>
       </c>
       <c r="C28">
-        <v>-0.5715091048417662</v>
+        <v>-0.6089151526732621</v>
       </c>
       <c r="D28">
-        <v>267.27168748247</v>
+        <v>267.4073592040698</v>
       </c>
       <c r="E28">
-        <v>0.03430305044847944</v>
+        <v>0.03491574106822832</v>
       </c>
     </row>
   </sheetData>
@@ -2681,7 +2698,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2715,16 +2732,16 @@
         <v>35128.58333333334</v>
       </c>
       <c r="B2">
-        <v>0.04805833333333333</v>
+        <v>0.04805</v>
       </c>
       <c r="C2">
-        <v>1.011696072825771</v>
+        <v>1.014509969063738</v>
       </c>
       <c r="D2">
-        <v>264.1043233977558</v>
+        <v>264.13173575504</v>
       </c>
       <c r="E2">
-        <v>0.01921001949997113</v>
+        <v>0.01933381312457611</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2732,16 +2749,16 @@
         <v>35159</v>
       </c>
       <c r="B3">
-        <v>0.04811666666666667</v>
+        <v>0.0481</v>
       </c>
       <c r="C3">
-        <v>0.2937107048639973</v>
+        <v>0.2938975673298501</v>
       </c>
       <c r="D3">
-        <v>265.1160194705816</v>
+        <v>265.1462457241038</v>
       </c>
       <c r="E3">
-        <v>0.02375759911533308</v>
+        <v>0.02389410023572015</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2749,16 +2766,16 @@
         <v>35189.41666666666</v>
       </c>
       <c r="B4">
-        <v>0.048175</v>
+        <v>0.04815000000000001</v>
       </c>
       <c r="C4">
-        <v>0.1182272596704479</v>
+        <v>0.1159480757262372</v>
       </c>
       <c r="D4">
-        <v>265.4097301754456</v>
+        <v>265.4401432914336</v>
       </c>
       <c r="E4">
-        <v>0.02528140401359904</v>
+        <v>0.02541874900092193</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2766,16 +2783,16 @@
         <v>35219.83333333334</v>
       </c>
       <c r="B5">
-        <v>0.04823333333333334</v>
+        <v>0.04820000000000001</v>
       </c>
       <c r="C5">
-        <v>0.06885918742000285</v>
+        <v>0.06961899261250437</v>
       </c>
       <c r="D5">
-        <v>265.527957435116</v>
+        <v>265.5560913671599</v>
       </c>
       <c r="E5">
-        <v>0.02594808552984376</v>
+        <v>0.0260751377707724</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2783,16 +2800,16 @@
         <v>35250.25</v>
       </c>
       <c r="B6">
-        <v>0.04829166666666667</v>
+        <v>0.04825000000000001</v>
       </c>
       <c r="C6">
-        <v>0.06667480357759814</v>
+        <v>0.06657183530319344</v>
       </c>
       <c r="D6">
-        <v>265.596816622536</v>
+        <v>265.6257103597724</v>
       </c>
       <c r="E6">
-        <v>0.02654675097370193</v>
+        <v>0.02667723447877915</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2800,16 +2817,16 @@
         <v>35280.66666666666</v>
       </c>
       <c r="B7">
-        <v>0.04835</v>
+        <v>0.04830000000000001</v>
       </c>
       <c r="C7">
-        <v>0.0492989851038601</v>
+        <v>0.04841534354295618</v>
       </c>
       <c r="D7">
-        <v>265.6634914261136</v>
+        <v>265.6922821950756</v>
       </c>
       <c r="E7">
-        <v>0.02684785297376432</v>
+        <v>0.02697787147629618</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2817,16 +2834,16 @@
         <v>35402.33333333334</v>
       </c>
       <c r="B8">
-        <v>0.04858333333333334</v>
+        <v>0.04850000000000002</v>
       </c>
       <c r="C8">
-        <v>1.108951364716404</v>
+        <v>1.113657001936872</v>
       </c>
       <c r="D8">
-        <v>264.3041209445629</v>
+        <v>264.3199459262092</v>
       </c>
       <c r="E8">
-        <v>0.01959379124684305</v>
+        <v>0.01966525652861355</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2834,16 +2851,16 @@
         <v>35554.41666666666</v>
       </c>
       <c r="B9">
-        <v>0.04875833333333334</v>
+        <v>0.04865000000000002</v>
       </c>
       <c r="C9">
-        <v>1.178198378262778</v>
+        <v>1.183670632760141</v>
       </c>
       <c r="D9">
-        <v>264.3871144310386</v>
+        <v>264.4023724765494</v>
       </c>
       <c r="E9">
-        <v>0.0206436408311948</v>
+        <v>0.02071254584139103</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2851,16 +2868,16 @@
         <v>35615.25</v>
       </c>
       <c r="B10">
-        <v>0.04887500000000001</v>
+        <v>0.04875000000000002</v>
       </c>
       <c r="C10">
-        <v>1.049910883688767</v>
+        <v>1.05801526388575</v>
       </c>
       <c r="D10">
-        <v>264.4395176805308</v>
+        <v>264.4587723487408</v>
       </c>
       <c r="E10">
-        <v>0.0184152029733276</v>
+        <v>0.01850215664694169</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2868,16 +2885,16 @@
         <v>35645.66666666666</v>
       </c>
       <c r="B11">
-        <v>0.04893333333333334</v>
+        <v>0.04880000000000002</v>
       </c>
       <c r="C11">
-        <v>0.4239064011584333</v>
+        <v>0.4253022285728321</v>
       </c>
       <c r="D11">
-        <v>265.4894285642196</v>
+        <v>265.5167876126266</v>
       </c>
       <c r="E11">
-        <v>0.02504883626172843</v>
+        <v>0.02517238914457372</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2885,16 +2902,16 @@
         <v>35676.08333333334</v>
       </c>
       <c r="B12">
-        <v>0.04899166666666668</v>
+        <v>0.04885000000000003</v>
       </c>
       <c r="C12">
-        <v>0.1037329502426019</v>
+        <v>0.1059623274775277</v>
       </c>
       <c r="D12">
-        <v>265.913334965378</v>
+        <v>265.9420898411994</v>
       </c>
       <c r="E12">
-        <v>0.02630237545232341</v>
+        <v>0.02643223186219341</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2902,16 +2919,16 @@
         <v>35706.5</v>
       </c>
       <c r="B13">
-        <v>0.04905000000000001</v>
+        <v>0.04890000000000003</v>
       </c>
       <c r="C13">
-        <v>0.07182643077601369</v>
+        <v>0.0721941207953023</v>
       </c>
       <c r="D13">
-        <v>266.0170679156206</v>
+        <v>266.0480521686769</v>
       </c>
       <c r="E13">
-        <v>0.02698591019383201</v>
+        <v>0.02712583442405243</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2919,16 +2936,16 @@
         <v>35858.58333333334</v>
       </c>
       <c r="B14">
-        <v>0.04916666666666668</v>
+        <v>0.04900000000000003</v>
       </c>
       <c r="C14">
-        <v>0.8736030451755141</v>
+        <v>0.8791380175189261</v>
       </c>
       <c r="D14">
-        <v>264.5759969767865</v>
+        <v>264.5952048755881</v>
       </c>
       <c r="E14">
-        <v>0.0152161272503208</v>
+        <v>0.01530286971427768</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2936,16 +2953,16 @@
         <v>35889</v>
       </c>
       <c r="B15">
-        <v>0.04922500000000001</v>
+        <v>0.04905000000000003</v>
       </c>
       <c r="C15">
-        <v>0.4377363218073924</v>
+        <v>0.4396540353607179</v>
       </c>
       <c r="D15">
-        <v>265.4496000219621</v>
+        <v>265.4743428931071</v>
       </c>
       <c r="E15">
-        <v>0.02206455174456744</v>
+        <v>0.02217629002633644</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2953,16 +2970,16 @@
         <v>36010.66666666666</v>
       </c>
       <c r="B16">
-        <v>0.04940000000000001</v>
+        <v>0.04920000000000004</v>
       </c>
       <c r="C16">
-        <v>1.06359030685303</v>
+        <v>1.071269461913857</v>
       </c>
       <c r="D16">
-        <v>264.6875864775947</v>
+        <v>264.7034401539996</v>
       </c>
       <c r="E16">
-        <v>0.0183170271030988</v>
+        <v>0.01838862196979104</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2970,33 +2987,16 @@
         <v>36041.08333333334</v>
       </c>
       <c r="B17">
-        <v>0.04945833333333335</v>
+        <v>0.04925000000000004</v>
       </c>
       <c r="C17">
-        <v>0.3192839083966419</v>
+        <v>0.321806179046348</v>
       </c>
       <c r="D17">
-        <v>265.7511767844477</v>
+        <v>265.7747096159135</v>
       </c>
       <c r="E17">
-        <v>0.02306722002322142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2">
-        <v>36071.5</v>
-      </c>
-      <c r="B18">
-        <v>0.04951666666666668</v>
-      </c>
-      <c r="C18">
-        <v>-1.408725973765627</v>
-      </c>
-      <c r="D18">
-        <v>266.0704606928443</v>
-      </c>
-      <c r="E18">
-        <v>0.02240984811988141</v>
+        <v>0.02317349379144093</v>
       </c>
     </row>
   </sheetData>
@@ -3006,7 +3006,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:E112"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3037,135 +3037,135 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>36101.91666666666</v>
+        <v>36071.5</v>
       </c>
       <c r="B2">
-        <v>0.04957500000000001</v>
+        <v>0.04930000000000004</v>
       </c>
       <c r="C2">
-        <v>-0.2555555554355351</v>
+        <v>-1.40886364717619</v>
       </c>
       <c r="D2">
-        <v>264.6617347190787</v>
+        <v>266.0965157949598</v>
       </c>
       <c r="E2">
-        <v>0.01763479496695306</v>
+        <v>0.0225275124089058</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>36132.33333333334</v>
+        <v>36101.91666666666</v>
       </c>
       <c r="B3">
-        <v>0.04963333333333335</v>
+        <v>0.052</v>
       </c>
       <c r="C3">
-        <v>-0.2672740214742362</v>
+        <v>-0.165384235354054</v>
       </c>
       <c r="D3">
-        <v>264.4061791636432</v>
+        <v>264.6876521477836</v>
       </c>
       <c r="E3">
-        <v>0.01992132816438012</v>
+        <v>0.01775183752577298</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>36162.75</v>
+        <v>36132.33333333334</v>
       </c>
       <c r="B4">
-        <v>0.04969166666666668</v>
+        <v>0.052</v>
       </c>
       <c r="C4">
-        <v>-0.3013358705093196</v>
+        <v>-0.2431428323777709</v>
       </c>
       <c r="D4">
-        <v>264.1389051421689</v>
+        <v>264.5222679124296</v>
       </c>
       <c r="E4">
-        <v>0.01441490881066992</v>
+        <v>0.02044558249388303</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>36193.16666666666</v>
+        <v>36162.75</v>
       </c>
       <c r="B5">
-        <v>0.04975000000000002</v>
+        <v>0.052</v>
       </c>
       <c r="C5">
-        <v>-0.1094491630044558</v>
+        <v>-0.2971468485334299</v>
       </c>
       <c r="D5">
-        <v>263.8375692716596</v>
+        <v>264.2791250800518</v>
       </c>
       <c r="E5">
-        <v>0.01210489002574902</v>
+        <v>0.01504813907877295</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>36223.58333333334</v>
+        <v>36193.16666666666</v>
       </c>
       <c r="B6">
-        <v>0.04980833333333335</v>
+        <v>0.052</v>
       </c>
       <c r="C6">
-        <v>-0.07832116295526248</v>
+        <v>-0.1116567694758714</v>
       </c>
       <c r="D6">
-        <v>263.7281201086552</v>
+        <v>263.9819782315184</v>
       </c>
       <c r="E6">
-        <v>0.01027908178253797</v>
+        <v>0.01275703782832629</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>36254</v>
+        <v>36223.58333333334</v>
       </c>
       <c r="B7">
-        <v>0.04986666666666668</v>
+        <v>0.052</v>
       </c>
       <c r="C7">
-        <v>0.002913423925519965</v>
+        <v>-0.08161299490325291</v>
       </c>
       <c r="D7">
-        <v>263.6497989456999</v>
+        <v>263.8703214620425</v>
       </c>
       <c r="E7">
-        <v>0.01001466346920976</v>
+        <v>0.01092126008107138</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>36284.41666666666</v>
+        <v>36254</v>
       </c>
       <c r="B8">
-        <v>0.04986666666666668</v>
+        <v>0.052</v>
       </c>
       <c r="C8">
-        <v>-0.5491975837610426</v>
+        <v>0.001284847602505579</v>
       </c>
       <c r="D8">
-        <v>263.6527123696254</v>
+        <v>263.7887084671393</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.0106419759244227</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>36314.83333333334</v>
+        <v>36284.41666666666</v>
       </c>
       <c r="B9">
-        <v>0.04986666666666668</v>
+        <v>0.052</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>-0.5918639852897059</v>
       </c>
       <c r="D9">
-        <v>263.1035147858644</v>
+        <v>263.7899933147418</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3173,237 +3173,237 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>36345.25</v>
+        <v>36406.08333333334</v>
       </c>
       <c r="B10">
-        <v>0.04986666666666668</v>
+        <v>0.052</v>
       </c>
       <c r="C10">
-        <v>0.008343739403699146</v>
+        <v>0.1333765302864549</v>
       </c>
       <c r="D10">
-        <v>263.1035147858644</v>
+        <v>263.6447232243179</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.009397605716917569</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>36375.66666666666</v>
+        <v>36436.5</v>
       </c>
       <c r="B11">
-        <v>0.04992500000000002</v>
+        <v>0.052</v>
       </c>
       <c r="C11">
-        <v>0.4162576632395485</v>
+        <v>0.04161905872979332</v>
       </c>
       <c r="D11">
-        <v>263.1118585252681</v>
+        <v>263.7780997546043</v>
       </c>
       <c r="E11">
-        <v>0.007101427560006265</v>
+        <v>0.009629788898127106</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>36406.08333333334</v>
+        <v>36466.91666666666</v>
       </c>
       <c r="B12">
-        <v>0.04998333333333335</v>
+        <v>0.052</v>
       </c>
       <c r="C12">
-        <v>0.1280110509776478</v>
+        <v>-0.1084019772158626</v>
       </c>
       <c r="D12">
-        <v>263.5281161885076</v>
+        <v>263.8197188133341</v>
       </c>
       <c r="E12">
-        <v>0.008871010814197847</v>
+        <v>0.007249856221225852</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>36436.5</v>
+        <v>36497.33333333334</v>
       </c>
       <c r="B13">
-        <v>0.05004166666666669</v>
+        <v>0.052</v>
       </c>
       <c r="C13">
-        <v>0.04163138671106026</v>
+        <v>-0.00252492198183063</v>
       </c>
       <c r="D13">
-        <v>263.6561272394853</v>
+        <v>263.7113168361183</v>
       </c>
       <c r="E13">
-        <v>0.009078963604547687</v>
+        <v>0.006708018442259218</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>36466.91666666666</v>
+        <v>36527.75</v>
       </c>
       <c r="B14">
-        <v>0.05010000000000002</v>
+        <v>0.052</v>
       </c>
       <c r="C14">
-        <v>-0.1049330475863144</v>
+        <v>0.04404883026165862</v>
       </c>
       <c r="D14">
-        <v>263.6977586261963</v>
+        <v>263.7087919141364</v>
       </c>
       <c r="E14">
-        <v>0.006699086600548317</v>
+        <v>0.007068074917503486</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>36497.33333333334</v>
+        <v>36558.16666666666</v>
       </c>
       <c r="B15">
-        <v>0.05015833333333335</v>
+        <v>0.052</v>
       </c>
       <c r="C15">
-        <v>-0.0006794295269401118</v>
+        <v>-0.04222386649064447</v>
       </c>
       <c r="D15">
-        <v>263.59282557861</v>
+        <v>263.7528407443981</v>
       </c>
       <c r="E15">
-        <v>0.006172914434279351</v>
+        <v>0.005791438299857404</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>36527.75</v>
+        <v>36588.58333333334</v>
       </c>
       <c r="B16">
-        <v>0.05021666666666669</v>
+        <v>0.052</v>
       </c>
       <c r="C16">
-        <v>0.04921699474266461</v>
+        <v>-0.2939058059506579</v>
       </c>
       <c r="D16">
-        <v>263.5921461490831</v>
+        <v>263.7106168779075</v>
       </c>
       <c r="E16">
-        <v>0.006541305114342398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>36558.16666666666</v>
+        <v>36619</v>
       </c>
       <c r="B17">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C17">
-        <v>-0.05010181341117459</v>
+        <v>0.22607353615183</v>
       </c>
       <c r="D17">
-        <v>263.6413631438257</v>
+        <v>263.4167110719568</v>
       </c>
       <c r="E17">
-        <v>0.005288007817974771</v>
+        <v>0.003605254070035582</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>36588.58333333334</v>
+        <v>36649.41666666666</v>
       </c>
       <c r="B18">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C18">
-        <v>-0.2657629353698212</v>
+        <v>0.07678462351645976</v>
       </c>
       <c r="D18">
-        <v>263.5912613304146</v>
+        <v>263.6427846081086</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.004484216055799882</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>36619</v>
+        <v>36679.83333333334</v>
       </c>
       <c r="B19">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C19">
-        <v>0.2014013275920661</v>
+        <v>0.05186687165610238</v>
       </c>
       <c r="D19">
-        <v>263.3254983950447</v>
+        <v>263.7195692316251</v>
       </c>
       <c r="E19">
-        <v>0.003193339553972636</v>
+        <v>0.004953480427429032</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>36649.41666666666</v>
+        <v>36710.25</v>
       </c>
       <c r="B20">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C20">
-        <v>0.06565337413303496</v>
+        <v>0.007478365535689591</v>
       </c>
       <c r="D20">
-        <v>263.5268997226368</v>
+        <v>263.7714361032812</v>
       </c>
       <c r="E20">
-        <v>0.003960882368705414</v>
+        <v>0.004654970398531479</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>36679.83333333334</v>
+        <v>36740.66666666666</v>
       </c>
       <c r="B21">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C21">
-        <v>0.04916232845232571</v>
+        <v>-0.2388053801450951</v>
       </c>
       <c r="D21">
-        <v>263.5925530967698</v>
+        <v>263.7789144688169</v>
       </c>
       <c r="E21">
-        <v>0.004379878253999378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>36710.25</v>
+        <v>36771.08333333334</v>
       </c>
       <c r="B22">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C22">
-        <v>0.007762046574612214</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>263.6417154252222</v>
+        <v>263.5401090886718</v>
       </c>
       <c r="E22">
-        <v>0.004069154565305104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>36740.66666666666</v>
+        <v>36801.5</v>
       </c>
       <c r="B23">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C23">
-        <v>-0.2070166211258311</v>
+        <v>0.006901385413698335</v>
       </c>
       <c r="D23">
-        <v>263.6494774717968</v>
+        <v>263.5401090886718</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -3411,16 +3411,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>36771.08333333334</v>
+        <v>36831.91666666666</v>
       </c>
       <c r="B24">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.02564981511079623</v>
       </c>
       <c r="D24">
-        <v>263.442460850671</v>
+        <v>263.5470104740855</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -3428,16 +3428,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>36801.5</v>
+        <v>36862.33333333334</v>
       </c>
       <c r="B25">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C25">
-        <v>0.006917686447536653</v>
+        <v>0.02484698363673488</v>
       </c>
       <c r="D25">
-        <v>263.442460850671</v>
+        <v>263.5726602891963</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -3445,305 +3445,305 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>36831.91666666666</v>
+        <v>36892.75</v>
       </c>
       <c r="B26">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C26">
-        <v>0.02550569543757319</v>
+        <v>0.5491657584564109</v>
       </c>
       <c r="D26">
-        <v>263.4493785371185</v>
+        <v>263.597507272833</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.009214069516271736</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>36862.33333333334</v>
+        <v>36923.16666666666</v>
       </c>
       <c r="B27">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C27">
-        <v>0.02523777036560659</v>
+        <v>0.2368325378373584</v>
       </c>
       <c r="D27">
-        <v>263.4748842325561</v>
+        <v>264.1466730312894</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.01271071327384353</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>36892.75</v>
+        <v>36953.58333333334</v>
       </c>
       <c r="B28">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C28">
-        <v>0.5178015925823729</v>
+        <v>-0.7339335212992637</v>
       </c>
       <c r="D28">
-        <v>263.5001220029217</v>
+        <v>264.3835055691268</v>
       </c>
       <c r="E28">
-        <v>0.008774279701026316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>36923.16666666666</v>
+        <v>36984</v>
       </c>
       <c r="B29">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C29">
-        <v>0.2243912106520156</v>
+        <v>0.02575278511358192</v>
       </c>
       <c r="D29">
-        <v>264.017923595504</v>
+        <v>263.6495720478275</v>
       </c>
       <c r="E29">
-        <v>0.01212928355014349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>36953.58333333334</v>
+        <v>37014.41666666666</v>
       </c>
       <c r="B30">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C30">
-        <v>-0.6924015193917512</v>
+        <v>0.5799127794216474</v>
       </c>
       <c r="D30">
-        <v>264.2423148061561</v>
+        <v>263.6753248329411</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.009654086607450691</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>36984</v>
+        <v>37044.83333333334</v>
       </c>
       <c r="B31">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C31">
-        <v>0.0258849530957832</v>
+        <v>0.09165343537597437</v>
       </c>
       <c r="D31">
-        <v>263.5499132867643</v>
+        <v>264.2552376123627</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.01069730180549503</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>37014.41666666666</v>
+        <v>37075.25</v>
       </c>
       <c r="B32">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C32">
-        <v>0.5462107700681145</v>
+        <v>0.07281976502486032</v>
       </c>
       <c r="D32">
-        <v>263.5757982398601</v>
+        <v>264.3468910477387</v>
       </c>
       <c r="E32">
-        <v>0.009204626622147478</v>
+        <v>0.01144828984472041</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>37044.83333333334</v>
+        <v>37105.66666666666</v>
       </c>
       <c r="B33">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C33">
-        <v>0.084278814519962</v>
+        <v>0.0731680032499753</v>
       </c>
       <c r="D33">
-        <v>264.1220090099282</v>
+        <v>264.4197108127636</v>
       </c>
       <c r="E33">
-        <v>0.01009564426012458</v>
+        <v>0.01217721662838646</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>37075.25</v>
+        <v>37136.08333333334</v>
       </c>
       <c r="B34">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C34">
-        <v>0.0714297525727261</v>
+        <v>0.01240850356396095</v>
       </c>
       <c r="D34">
-        <v>264.2062878244482</v>
+        <v>264.4928788160136</v>
       </c>
       <c r="E34">
-        <v>0.01081332866783869</v>
+        <v>0.01193443122683072</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>37105.66666666666</v>
+        <v>37166.5</v>
       </c>
       <c r="B35">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C35">
-        <v>0.07023123643227791</v>
+        <v>-0.02188083620751513</v>
       </c>
       <c r="D35">
-        <v>264.2777175770209</v>
+        <v>264.5052873195775</v>
       </c>
       <c r="E35">
-        <v>0.01153597818472632</v>
+        <v>0.01115720534231848</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>37136.08333333334</v>
+        <v>37196.91666666666</v>
       </c>
       <c r="B36">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C36">
-        <v>0.01021554378917244</v>
+        <v>-0.01012048247332586</v>
       </c>
       <c r="D36">
-        <v>264.3479488134532</v>
+        <v>264.48340648337</v>
       </c>
       <c r="E36">
-        <v>0.01127993040645431</v>
+        <v>0.01056494071664266</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>37166.5</v>
+        <v>37227.33333333334</v>
       </c>
       <c r="B37">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C37">
-        <v>-0.0218402765144674</v>
+        <v>-0.5962622850400976</v>
       </c>
       <c r="D37">
-        <v>264.3581643572423</v>
+        <v>264.4732860008967</v>
       </c>
       <c r="E37">
-        <v>0.01049280116206976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>37196.91666666666</v>
+        <v>37257.75</v>
       </c>
       <c r="B38">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C38">
-        <v>-0.01045209363383037</v>
+        <v>0.02458501729665841</v>
       </c>
       <c r="D38">
-        <v>264.3363240807279</v>
+        <v>263.8770237158566</v>
       </c>
       <c r="E38">
-        <v>0.009900719703108345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>37227.33333333334</v>
+        <v>37288.16666666666</v>
       </c>
       <c r="B39">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C39">
-        <v>-0.5504991183054244</v>
+        <v>0.4417032499247853</v>
       </c>
       <c r="D39">
-        <v>264.325871987094</v>
+        <v>263.9016087331532</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>0.007221355272016392</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>37257.75</v>
+        <v>37318.58333333334</v>
       </c>
       <c r="B40">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C40">
-        <v>0.02391480132223478</v>
+        <v>0.1513809630860123</v>
       </c>
       <c r="D40">
-        <v>263.7753728687886</v>
+        <v>264.343311983078</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.009276377844130532</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>37288.16666666666</v>
+        <v>37349</v>
       </c>
       <c r="B41">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C41">
-        <v>0.4103370047610042</v>
+        <v>-0.5263765147160484</v>
       </c>
       <c r="D41">
-        <v>263.7992876701109</v>
+        <v>264.494692946164</v>
       </c>
       <c r="E41">
-        <v>0.006759275519584758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>37318.58333333334</v>
+        <v>37379.41666666666</v>
       </c>
       <c r="B42">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C42">
-        <v>0.1402057425545991</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>264.2096246748719</v>
+        <v>263.968316431448</v>
       </c>
       <c r="E42">
-        <v>0.008672648793215951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>37349</v>
+        <v>37409.83333333334</v>
       </c>
       <c r="B43">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C43">
-        <v>-0.4839894400114417</v>
+        <v>0.00780582102538574</v>
       </c>
       <c r="D43">
-        <v>264.3498304174265</v>
+        <v>263.968316431448</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3751,16 +3751,16 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>37379.41666666666</v>
+        <v>37440.25</v>
       </c>
       <c r="B44">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>0.02496685829237322</v>
       </c>
       <c r="D44">
-        <v>263.865840977415</v>
+        <v>263.9761222524734</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3768,407 +3768,407 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>37409.83333333334</v>
+        <v>37470.66666666666</v>
       </c>
       <c r="B45">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C45">
-        <v>0.007610793189428477</v>
+        <v>0.6621626622411441</v>
       </c>
       <c r="D45">
-        <v>263.865840977415</v>
+        <v>264.0010891107657</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.01070045010505054</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>37440.25</v>
+        <v>37501.08333333334</v>
       </c>
       <c r="B46">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C46">
-        <v>0.02430376401457579</v>
+        <v>0.2597569962872512</v>
       </c>
       <c r="D46">
-        <v>263.8734517706044</v>
+        <v>264.6632517730069</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.01428106737236855</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>37470.66666666666</v>
+        <v>37531.5</v>
       </c>
       <c r="B47">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C47">
-        <v>0.6291346613629685</v>
+        <v>0.01272024611807865</v>
       </c>
       <c r="D47">
-        <v>263.897755534619</v>
+        <v>264.9230087692941</v>
       </c>
       <c r="E47">
-        <v>0.01023379786489574</v>
+        <v>0.01405790048292525</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>37501.08333333334</v>
+        <v>37561.91666666666</v>
       </c>
       <c r="B48">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C48">
-        <v>0.2473937015458887</v>
+        <v>-0.8346766008378381</v>
       </c>
       <c r="D48">
-        <v>264.526890195982</v>
+        <v>264.9357290154122</v>
       </c>
       <c r="E48">
-        <v>0.01366526138013841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>37531.5</v>
+        <v>37592.33333333334</v>
       </c>
       <c r="B49">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C49">
-        <v>0.01138472896855092</v>
+        <v>0.7698483309633275</v>
       </c>
       <c r="D49">
-        <v>264.7742838975279</v>
+        <v>264.1010524145744</v>
       </c>
       <c r="E49">
-        <v>0.01338626211363146</v>
+        <v>0.01227286891110293</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>37561.91666666666</v>
+        <v>37622.75</v>
       </c>
       <c r="B50">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C50">
-        <v>-0.7831222348017945</v>
+        <v>0.2658477887588333</v>
       </c>
       <c r="D50">
-        <v>264.7856686264964</v>
+        <v>264.8709007455377</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>0.01594533461380164</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>37592.33333333334</v>
+        <v>37653.16666666666</v>
       </c>
       <c r="B51">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C51">
-        <v>0.7375015031414023</v>
+        <v>-0.9628449939361872</v>
       </c>
       <c r="D51">
-        <v>264.0025463916946</v>
+        <v>265.1367485342965</v>
       </c>
       <c r="E51">
-        <v>0.01182801779920187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>37622.75</v>
+        <v>37683.58333333334</v>
       </c>
       <c r="B52">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C52">
-        <v>0.2564411685243613</v>
+        <v>0.6798626595287942</v>
       </c>
       <c r="D52">
-        <v>264.740047894836</v>
+        <v>264.1739035403604</v>
       </c>
       <c r="E52">
-        <v>0.01535440591291284</v>
+        <v>0.01083500284942061</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>37653.16666666666</v>
+        <v>37714</v>
       </c>
       <c r="B53">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C53">
-        <v>-0.915796802556315</v>
+        <v>0.1965924734676037</v>
       </c>
       <c r="D53">
-        <v>264.9964890633604</v>
+        <v>264.8537661998892</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>0.01339736780917596</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>37683.58333333334</v>
+        <v>37744.41666666666</v>
       </c>
       <c r="B54">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C54">
-        <v>0.651403557731328</v>
+        <v>0.06391503770691997</v>
       </c>
       <c r="D54">
-        <v>264.0806922608041</v>
+        <v>265.0503586733568</v>
       </c>
       <c r="E54">
-        <v>0.01041406268616841</v>
+        <v>0.0139582536871479</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>37714</v>
+        <v>37774.83333333334</v>
       </c>
       <c r="B55">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C55">
-        <v>0.1846151171479278</v>
+        <v>-0.005034259001604369</v>
       </c>
       <c r="D55">
-        <v>264.7320958185354</v>
+        <v>265.1142737110637</v>
       </c>
       <c r="E55">
-        <v>0.01284790694527809</v>
+        <v>0.01346990893176997</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>37744.41666666666</v>
+        <v>37805.25</v>
       </c>
       <c r="B56">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C56">
-        <v>0.06338950665997345</v>
+        <v>0.01163037110814003</v>
       </c>
       <c r="D56">
-        <v>264.9167109356833</v>
+        <v>265.1092394520621</v>
       </c>
       <c r="E56">
-        <v>0.0133547033359206</v>
+        <v>0.01325073458536101</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>37774.83333333334</v>
+        <v>37835.66666666666</v>
       </c>
       <c r="B57">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C57">
-        <v>-0.005592726407030568</v>
+        <v>0.148515112437849</v>
       </c>
       <c r="D57">
-        <v>264.9801004423433</v>
+        <v>265.1208698231702</v>
       </c>
       <c r="E57">
-        <v>0.01286398529347115</v>
+        <v>0.01530184170475521</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>37805.25</v>
+        <v>37866.08333333334</v>
       </c>
       <c r="B58">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C58">
-        <v>0.01321887605831762</v>
+        <v>-0.9468192269941937</v>
       </c>
       <c r="D58">
-        <v>264.9745077159363</v>
+        <v>265.2693849356081</v>
       </c>
       <c r="E58">
-        <v>0.01264228892009347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>37835.66666666666</v>
+        <v>37896.5</v>
       </c>
       <c r="B59">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C59">
-        <v>0.1511781748970407</v>
+        <v>0.02706373578450894</v>
       </c>
       <c r="D59">
-        <v>264.9877265919946</v>
+        <v>264.3225657086139</v>
       </c>
       <c r="E59">
-        <v>0.01470056969418116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>37866.08333333334</v>
+        <v>37926.91666666666</v>
       </c>
       <c r="B60">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C60">
-        <v>-0.9016977981269747</v>
+        <v>0.7387788900880423</v>
       </c>
       <c r="D60">
-        <v>265.1389047668916</v>
+        <v>264.3496294443984</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>0.01155476171057685</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>37896.5</v>
+        <v>37957.33333333334</v>
       </c>
       <c r="B61">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C61">
-        <v>0.02518963554962284</v>
+        <v>0.2124770476846152</v>
       </c>
       <c r="D61">
-        <v>264.2372069687647</v>
+        <v>265.0884083344864</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>0.01438913855309879</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>37926.91666666666</v>
+        <v>37987.75</v>
       </c>
       <c r="B62">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C62">
-        <v>0.7081593206638672</v>
+        <v>0.08788448771815638</v>
       </c>
       <c r="D62">
-        <v>264.2623966043143</v>
+        <v>265.300885382171</v>
       </c>
       <c r="E62">
-        <v>0.01116082005329282</v>
+        <v>0.01533402787505093</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>37957.33333333334</v>
+        <v>38018.16666666666</v>
       </c>
       <c r="B63">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C63">
-        <v>0.2032268004408024</v>
+        <v>-0.02324809223034663</v>
       </c>
       <c r="D63">
-        <v>264.9705559249782</v>
+        <v>265.3887698698892</v>
       </c>
       <c r="E63">
-        <v>0.01385691956914916</v>
+        <v>0.01453772664032753</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>37987.75</v>
+        <v>38048.58333333334</v>
       </c>
       <c r="B64">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C64">
-        <v>0.08673164345714213</v>
+        <v>-0.01717926508638357</v>
       </c>
       <c r="D64">
-        <v>265.173782725419</v>
+        <v>265.3655217776588</v>
       </c>
       <c r="E64">
-        <v>0.01476003497056872</v>
+        <v>0.01385911323995086</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>38018.16666666666</v>
+        <v>38079</v>
       </c>
       <c r="B65">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C65">
-        <v>-0.02737112659917784</v>
+        <v>-0.03507486716409858</v>
       </c>
       <c r="D65">
-        <v>265.2605143688761</v>
+        <v>265.3483425125725</v>
       </c>
       <c r="E65">
-        <v>0.01395852751559221</v>
+        <v>0.013038537989199</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>38048.58333333334</v>
+        <v>38109.41666666666</v>
       </c>
       <c r="B66">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C66">
-        <v>-0.0176177053738229</v>
+        <v>-0.8095457767635708</v>
       </c>
       <c r="D66">
-        <v>265.2331432422769</v>
+        <v>265.3132676454084</v>
       </c>
       <c r="E66">
-        <v>0.01326129457937639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>38079</v>
+        <v>38139.83333333334</v>
       </c>
       <c r="B67">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C67">
-        <v>-0.03534197184137611</v>
+        <v>0.02579358241587215</v>
       </c>
       <c r="D67">
-        <v>265.2155255369031</v>
+        <v>264.5037218686448</v>
       </c>
       <c r="E67">
-        <v>0.01243873934157754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>38109.41666666666</v>
+        <v>38170.25</v>
       </c>
       <c r="B68">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C68">
-        <v>-0.7637164863134558</v>
+        <v>0.02613173805582392</v>
       </c>
       <c r="D68">
-        <v>265.1801835650617</v>
+        <v>264.5295154510607</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -4176,679 +4176,679 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>38139.83333333334</v>
+        <v>38200.66666666666</v>
       </c>
       <c r="B69">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C69">
-        <v>0.02581214884173733</v>
+        <v>0.5731794165569681</v>
       </c>
       <c r="D69">
-        <v>264.4164670787483</v>
+        <v>264.5556471891165</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>0.00890142323394205</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>38170.25</v>
+        <v>38231.08333333334</v>
       </c>
       <c r="B70">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C70">
-        <v>0.02458351011694049</v>
+        <v>0.2293047300299804</v>
       </c>
       <c r="D70">
-        <v>264.44227922759</v>
+        <v>265.1288266056735</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>0.0120974945747261</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>38200.66666666666</v>
+        <v>38261.5</v>
       </c>
       <c r="B71">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C71">
-        <v>0.5415153082132065</v>
+        <v>-0.7576641616731195</v>
       </c>
       <c r="D71">
-        <v>264.4668627377069</v>
+        <v>265.3581313357034</v>
       </c>
       <c r="E71">
-        <v>0.008500474532792309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>38231.08333333334</v>
+        <v>38291.91666666666</v>
       </c>
       <c r="B72">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C72">
-        <v>0.2185047403955878</v>
+        <v>0.0257115311275129</v>
       </c>
       <c r="D72">
-        <v>265.0083780459202</v>
+        <v>264.6004671740303</v>
       </c>
       <c r="E72">
-        <v>0.01155355143128445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>38261.5</v>
+        <v>38322.33333333334</v>
       </c>
       <c r="B73">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C73">
-        <v>-0.7168792816726182</v>
+        <v>0.5920316468681222</v>
       </c>
       <c r="D73">
-        <v>265.2268827863157</v>
+        <v>264.6261787051578</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>0.009212463696495591</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>38291.91666666666</v>
+        <v>38352.75</v>
       </c>
       <c r="B74">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C74">
-        <v>0.02617731370310139</v>
+        <v>0.2045910157627304</v>
       </c>
       <c r="D74">
-        <v>264.5100035046431</v>
+        <v>265.2182103520259</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>0.01188606606811326</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>38322.33333333334</v>
+        <v>38383.16666666666</v>
       </c>
       <c r="B75">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C75">
-        <v>0.5635276830089424</v>
+        <v>0.03571362287129887</v>
       </c>
       <c r="D75">
-        <v>264.5361808183462</v>
+        <v>265.4228013677887</v>
       </c>
       <c r="E75">
-        <v>0.008806035146783926</v>
+        <v>0.01201848795433847</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>38352.75</v>
+        <v>38413.58333333334</v>
       </c>
       <c r="B76">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C76">
-        <v>0.1913027290124774</v>
+        <v>-0.4438514636320861</v>
       </c>
       <c r="D76">
-        <v>265.0997085013552</v>
+        <v>265.45851499066</v>
       </c>
       <c r="E76">
-        <v>0.01135091422163583</v>
+        <v>0.004724289861219499</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>38383.16666666666</v>
+        <v>38444</v>
       </c>
       <c r="B77">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C77">
-        <v>0.03005749908629696</v>
+        <v>-0.2716786421647157</v>
       </c>
       <c r="D77">
-        <v>265.2910112303676</v>
+        <v>265.0146635270279</v>
       </c>
       <c r="E77">
-        <v>0.01142332648648683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>38413.58333333334</v>
+        <v>38474.41666666666</v>
       </c>
       <c r="B78">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C78">
-        <v>-0.4379161630346289</v>
+        <v>0.006846254625088477</v>
       </c>
       <c r="D78">
-        <v>265.3210687294539</v>
+        <v>264.7429848848632</v>
       </c>
       <c r="E78">
-        <v>0.004103585458212712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>38444</v>
+        <v>38504.83333333334</v>
       </c>
       <c r="B79">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C79">
-        <v>-0.2326146873989501</v>
+        <v>0.4414735979062243</v>
       </c>
       <c r="D79">
-        <v>264.8831525664193</v>
+        <v>264.7498311394883</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>0.006753912313862562</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>38474.41666666666</v>
+        <v>38535.25</v>
       </c>
       <c r="B80">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C80">
-        <v>0.007130114689402944</v>
+        <v>0.1571905793140331</v>
       </c>
       <c r="D80">
-        <v>264.6505378790204</v>
+        <v>265.1913047373945</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>0.008832832474821159</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>38504.83333333334</v>
+        <v>38565.66666666666</v>
       </c>
       <c r="B81">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C81">
-        <v>0.4117404623872289</v>
+        <v>-0.5201760712662917</v>
       </c>
       <c r="D81">
-        <v>264.6576679937098</v>
+        <v>265.3484953167085</v>
       </c>
       <c r="E81">
-        <v>0.006337705500540023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>38535.25</v>
+        <v>38596.08333333334</v>
       </c>
       <c r="B82">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C82">
-        <v>0.1422650599274675</v>
+        <v>0.3575058163055473</v>
       </c>
       <c r="D82">
-        <v>265.069408456097</v>
+        <v>264.8283192454422</v>
       </c>
       <c r="E82">
-        <v>0.008282351451564357</v>
+        <v>0.00539928081319097</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>38565.66666666666</v>
+        <v>38626.5</v>
       </c>
       <c r="B83">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C83">
-        <v>-0.4818074440578357</v>
+        <v>0.1482978308613383</v>
       </c>
       <c r="D83">
-        <v>265.2116735160245</v>
+        <v>265.1858250617478</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>0.007426163446965526</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>38596.08333333334</v>
+        <v>38656.91666666666</v>
       </c>
       <c r="B84">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C84">
-        <v>0.3298368982276543</v>
+        <v>0.06696275683998465</v>
       </c>
       <c r="D84">
-        <v>264.7298660719666</v>
+        <v>265.3341228926091</v>
       </c>
       <c r="E84">
-        <v>0.004954668368078907</v>
+        <v>0.008095873308582085</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>38626.5</v>
+        <v>38687.33333333334</v>
       </c>
       <c r="B85">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C85">
-        <v>0.1395930026887982</v>
+        <v>-0.0121020612493794</v>
       </c>
       <c r="D85">
-        <v>265.0597029701943</v>
+        <v>265.4010856494491</v>
       </c>
       <c r="E85">
-        <v>0.006856598754141206</v>
+        <v>0.007504138580965835</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>38656.91666666666</v>
+        <v>38717.75</v>
       </c>
       <c r="B86">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C86">
-        <v>0.06605012728152815</v>
+        <v>0.02312518401140551</v>
       </c>
       <c r="D86">
-        <v>265.1992959728831</v>
+        <v>265.3889835881997</v>
       </c>
       <c r="E86">
-        <v>0.007486997796192971</v>
+        <v>0.007449485928816174</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>38687.33333333334</v>
+        <v>38748.16666666666</v>
       </c>
       <c r="B87">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C87">
-        <v>-0.0132915211999034</v>
+        <v>-0.005607046602563059</v>
       </c>
       <c r="D87">
-        <v>265.2653461001646</v>
+        <v>265.4121087722111</v>
       </c>
       <c r="E87">
-        <v>0.006891141652829906</v>
+        <v>0.006954697701864641</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>38717.75</v>
+        <v>38778.58333333334</v>
       </c>
       <c r="B88">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C88">
-        <v>0.02116176359777455</v>
+        <v>-0.00720909550284432</v>
       </c>
       <c r="D88">
-        <v>265.2520545789647</v>
+        <v>265.4065017256086</v>
       </c>
       <c r="E88">
-        <v>0.006831117424749459</v>
+        <v>0.00645194811983609</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>38748.16666666666</v>
+        <v>38809</v>
       </c>
       <c r="B89">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C89">
-        <v>-0.006574042090505827</v>
+        <v>0.01143828321983165</v>
       </c>
       <c r="D89">
-        <v>265.2732163425625</v>
+        <v>265.3992926301057</v>
       </c>
       <c r="E89">
-        <v>0.006327462432816353</v>
+        <v>0.006356589607307219</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>38778.58333333334</v>
+        <v>38839.41666666666</v>
       </c>
       <c r="B90">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C90">
-        <v>-0.006899479053345203</v>
+        <v>-0.3923195348555737</v>
       </c>
       <c r="D90">
-        <v>265.266642300472</v>
+        <v>265.4107309133256</v>
       </c>
       <c r="E90">
-        <v>0.005820345919655817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>38809</v>
+        <v>38869.83333333334</v>
       </c>
       <c r="B91">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C91">
-        <v>0.01113081384846737</v>
+        <v>0.007217072021262538</v>
       </c>
       <c r="D91">
-        <v>265.2597428214186</v>
+        <v>265.01841137847</v>
       </c>
       <c r="E91">
-        <v>0.005726385628451906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>38839.41666666666</v>
+        <v>38900.25</v>
       </c>
       <c r="B92">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C92">
-        <v>-0.3522676004403138</v>
+        <v>0.3231687656779059</v>
       </c>
       <c r="D92">
-        <v>265.2708736352671</v>
+        <v>265.0256284504912</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>0.004836618450223571</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>38869.83333333334</v>
+        <v>38930.66666666666</v>
       </c>
       <c r="B93">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C93">
-        <v>0.007065693498020664</v>
+        <v>0.05337237646699577</v>
       </c>
       <c r="D93">
-        <v>264.9186060348268</v>
+        <v>265.3487972161691</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>0.00525553851611717</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>38900.25</v>
+        <v>38961.08333333334</v>
       </c>
       <c r="B94">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C94">
-        <v>0.2943066469603082</v>
+        <v>-0.02373101327543736</v>
       </c>
       <c r="D94">
-        <v>264.9256717283248</v>
+        <v>265.4021695926361</v>
       </c>
       <c r="E94">
-        <v>0.00438521601108532</v>
+        <v>0.004468559842282304</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>38930.66666666666</v>
+        <v>38991.5</v>
       </c>
       <c r="B95">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C95">
-        <v>0.04203736597946772</v>
+        <v>0.0006746172658722571</v>
       </c>
       <c r="D95">
-        <v>265.2199783752851</v>
+        <v>265.3784385793607</v>
       </c>
       <c r="E95">
-        <v>0.004673795360462469</v>
+        <v>0.004086520765130851</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>38961.08333333334</v>
+        <v>39021.91666666666</v>
       </c>
       <c r="B96">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C96">
-        <v>-0.02779768664345283</v>
+        <v>0.02551722996850003</v>
       </c>
       <c r="D96">
-        <v>265.2620157412646</v>
+        <v>265.3791131966266</v>
       </c>
       <c r="E96">
-        <v>0.003835628019463933</v>
+        <v>0.004089567322407815</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>38991.5</v>
+        <v>39052.33333333334</v>
       </c>
       <c r="B97">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C97">
-        <v>-5.913710344884748e-05</v>
+        <v>0.05635830694893684</v>
       </c>
       <c r="D97">
-        <v>265.2342180546211</v>
+        <v>265.4046304265951</v>
       </c>
       <c r="E97">
-        <v>0.003435223931558833</v>
+        <v>0.004580937357947729</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>39021.91666666666</v>
+        <v>39082.75</v>
       </c>
       <c r="B98">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C98">
-        <v>0.02425407505825206</v>
+        <v>0.04148115025520838</v>
       </c>
       <c r="D98">
-        <v>265.2341589175177</v>
+        <v>265.460988733544</v>
       </c>
       <c r="E98">
-        <v>0.003434956869652809</v>
+        <v>0.004835450277850125</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>39052.33333333334</v>
+        <v>39113.16666666666</v>
       </c>
       <c r="B99">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C99">
-        <v>0.05462907512014681</v>
+        <v>0.06880331507545634</v>
       </c>
       <c r="D99">
-        <v>265.2584129925759</v>
+        <v>265.5024698837992</v>
       </c>
       <c r="E99">
-        <v>0.003920622524385345</v>
+        <v>0.005533904093806861</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>39082.75</v>
+        <v>39143.58333333334</v>
       </c>
       <c r="B100">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C100">
-        <v>0.03963138365327268</v>
+        <v>-0.08795097484596681</v>
       </c>
       <c r="D100">
-        <v>265.3130420676961</v>
+        <v>265.5712731988747</v>
       </c>
       <c r="E100">
-        <v>0.00416732626999269</v>
+        <v>0.003867232974208525</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>39113.16666666666</v>
+        <v>39174</v>
       </c>
       <c r="B101">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C101">
-        <v>0.06800217992736179</v>
+        <v>-0.2369150406337894</v>
       </c>
       <c r="D101">
-        <v>265.3526734513493</v>
+        <v>265.4833222240287</v>
       </c>
       <c r="E101">
-        <v>0.004857426579173115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>39143.58333333334</v>
+        <v>39204.41666666666</v>
       </c>
       <c r="B102">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C102">
-        <v>-0.08708023179758584</v>
+        <v>0.02464620138846385</v>
       </c>
       <c r="D102">
-        <v>265.4206756312767</v>
+        <v>265.2464071833949</v>
       </c>
       <c r="E102">
-        <v>0.00318713755022263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>39174</v>
+        <v>39234.83333333334</v>
       </c>
       <c r="B103">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C103">
-        <v>-0.1904957716009221</v>
+        <v>0.190408571572334</v>
       </c>
       <c r="D103">
-        <v>265.3335953994791</v>
+        <v>265.2710533847834</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>0.002648825128096115</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>39204.41666666666</v>
+        <v>39265.25</v>
       </c>
       <c r="B104">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C104">
-        <v>0.02091969045375208</v>
+        <v>0.04812348802693123</v>
       </c>
       <c r="D104">
-        <v>265.1430996278782</v>
+        <v>265.4614619563557</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.003011757104997276</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>39234.83333333334</v>
+        <v>39295.66666666666</v>
       </c>
       <c r="B105">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C105">
-        <v>0.1608017889645907</v>
+        <v>0.02838182101572784</v>
       </c>
       <c r="D105">
-        <v>265.164019318332</v>
+        <v>265.5095854443827</v>
       </c>
       <c r="E105">
-        <v>0.002165461552141671</v>
+        <v>0.00306921450567063</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>39265.25</v>
+        <v>39326.08333333334</v>
       </c>
       <c r="B106">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C106">
-        <v>0.04067582560651317</v>
+        <v>-0.1690456867297598</v>
       </c>
       <c r="D106">
-        <v>265.3248211072965</v>
+        <v>265.5379672653984</v>
       </c>
       <c r="E106">
-        <v>0.002394689926178294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>39295.66666666666</v>
+        <v>39356.5</v>
       </c>
       <c r="B107">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C107">
-        <v>0.02683713847125091</v>
+        <v>0.02463161716639206</v>
       </c>
       <c r="D107">
-        <v>265.3654969329031</v>
+        <v>265.3689215786686</v>
       </c>
       <c r="E107">
-        <v>0.00241851384118311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>39326.08333333334</v>
+        <v>39386.91666666666</v>
       </c>
       <c r="B108">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C108">
-        <v>-0.1282894300035196</v>
+        <v>0.02379907943839044</v>
       </c>
       <c r="D108">
-        <v>265.3923340713743</v>
+        <v>265.393553195835</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -4856,16 +4856,16 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>39356.5</v>
+        <v>39417.33333333334</v>
       </c>
       <c r="B109">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C109">
-        <v>0.02423960173291562</v>
+        <v>0.02423930515669781</v>
       </c>
       <c r="D109">
-        <v>265.2640446413708</v>
+        <v>265.4173522752734</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -4873,16 +4873,16 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>39386.91666666666</v>
+        <v>39447.75</v>
       </c>
       <c r="B110">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C110">
-        <v>0.02401894842091679</v>
+        <v>0.02604083948358493</v>
       </c>
       <c r="D110">
-        <v>265.2882842431037</v>
+        <v>265.4415915804301</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -4890,69 +4890,35 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>39417.33333333334</v>
+        <v>39478.16666666666</v>
       </c>
       <c r="B111">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C111">
-        <v>0.02310091828076111</v>
+        <v>-1.564750453202464</v>
       </c>
       <c r="D111">
-        <v>265.3123031915246</v>
+        <v>265.4676324199137</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>0.0001827823795905585</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>39447.75</v>
+        <v>39508.58333333334</v>
       </c>
       <c r="B112">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C112">
-        <v>0.02315447307876184</v>
+        <v>0.001751339188899692</v>
       </c>
       <c r="D112">
-        <v>265.3354041098054</v>
+        <v>263.9028819667112</v>
       </c>
       <c r="E112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="2">
-        <v>39478.16666666666</v>
-      </c>
-      <c r="B113">
-        <v>0.05</v>
-      </c>
-      <c r="C113">
-        <v>-1.513043726262708</v>
-      </c>
-      <c r="D113">
-        <v>265.3585585828841</v>
-      </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="2">
-        <v>39508.58333333334</v>
-      </c>
-      <c r="B114">
-        <v>0.05</v>
-      </c>
-      <c r="C114">
-        <v>0.01181993282875737</v>
-      </c>
-      <c r="D114">
-        <v>263.8455148566214</v>
-      </c>
-      <c r="E114">
         <v>0</v>
       </c>
     </row>
@@ -4963,7 +4929,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4997,13 +4963,13 @@
         <v>41059.83333333334</v>
       </c>
       <c r="B2">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>263.8573347894502</v>
+        <v>263.9046333059001</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -5014,13 +4980,13 @@
         <v>41090.25</v>
       </c>
       <c r="B3">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>263.8573347894502</v>
+        <v>263.9046333059001</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -5031,13 +4997,13 @@
         <v>41120.66666666666</v>
       </c>
       <c r="B4">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>263.8573347894502</v>
+        <v>263.9046333059001</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -5048,13 +5014,13 @@
         <v>41151.08333333334</v>
       </c>
       <c r="B5">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>263.8573347894502</v>
+        <v>263.9046333059001</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5065,13 +5031,13 @@
         <v>41181.5</v>
       </c>
       <c r="B6">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>263.8573347894502</v>
+        <v>263.9046333059001</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -5082,13 +5048,13 @@
         <v>41211.91666666666</v>
       </c>
       <c r="B7">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C7">
-        <v>0.01784620308035301</v>
+        <v>0.01805095759596043</v>
       </c>
       <c r="D7">
-        <v>263.8573347894502</v>
+        <v>263.9046333059001</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5099,13 +5065,13 @@
         <v>41242.33333333334</v>
       </c>
       <c r="B8">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C8">
-        <v>0.01887408916877575</v>
+        <v>0.01893079215733451</v>
       </c>
       <c r="D8">
-        <v>263.8751809925305</v>
+        <v>263.9226842634961</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5116,13 +5082,13 @@
         <v>41272.75</v>
       </c>
       <c r="B9">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C9">
-        <v>-1.098593256030426</v>
+        <v>-0.9184753573467788</v>
       </c>
       <c r="D9">
-        <v>263.8940550816993</v>
+        <v>263.9416150556534</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -5130,67 +5096,67 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>41668.16666666666</v>
+        <v>41303.16666666666</v>
       </c>
       <c r="B10">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C10">
-        <v>0.2044847664909639</v>
+        <v>0.01923453158985922</v>
       </c>
       <c r="D10">
-        <v>263.8231721905388</v>
+        <v>263.0231396983066</v>
       </c>
       <c r="E10">
-        <v>0.01765873199634859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41698.58333333334</v>
+        <v>41333.58333333334</v>
       </c>
       <c r="B11">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C11">
-        <v>0.04352477509814889</v>
+        <v>0.8030626041755795</v>
       </c>
       <c r="D11">
-        <v>264.0276569570298</v>
+        <v>263.0423742298965</v>
       </c>
       <c r="E11">
-        <v>0.01806330270817748</v>
+        <v>0.01403222587417662</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41729</v>
+        <v>41364</v>
       </c>
       <c r="B12">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C12">
-        <v>0.09059523590474328</v>
+        <v>-0.7838281681040371</v>
       </c>
       <c r="D12">
-        <v>264.0711817321279</v>
+        <v>263.8454368340721</v>
       </c>
       <c r="E12">
-        <v>0.01915182283224222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41759.41666666666</v>
+        <v>41394.41666666666</v>
       </c>
       <c r="B13">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C13">
-        <v>-1.093933175073175</v>
+        <v>0.01899157253706107</v>
       </c>
       <c r="D13">
-        <v>264.1617769680327</v>
+        <v>263.061608665968</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -5198,121 +5164,1192 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41911.5</v>
+        <v>41424.83333333334</v>
       </c>
       <c r="B14">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C14">
-        <v>0.2671044432197505</v>
+        <v>0.01894643396826723</v>
       </c>
       <c r="D14">
-        <v>263.9555881481577</v>
+        <v>263.0806002385051</v>
       </c>
       <c r="E14">
-        <v>0.01878024836493094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41941.91666666666</v>
+        <v>41455.25</v>
       </c>
       <c r="B15">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C15">
-        <v>0.08288776917197538</v>
+        <v>0.01918501015347829</v>
       </c>
       <c r="D15">
-        <v>264.2226925913775</v>
+        <v>263.0995466724734</v>
       </c>
       <c r="E15">
-        <v>0.01976554724431539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>41972.33333333334</v>
+        <v>41485.66666666666</v>
       </c>
       <c r="B16">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C16">
-        <v>0.06327203229443512</v>
+        <v>0.2435203474133232</v>
       </c>
       <c r="D16">
-        <v>264.3055803605495</v>
+        <v>263.1187316826268</v>
       </c>
       <c r="E16">
-        <v>0.02044348779484029</v>
+        <v>0.004140070723257797</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42002.75</v>
+        <v>41516.08333333334</v>
       </c>
       <c r="B17">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C17">
-        <v>0.02261797664152709</v>
+        <v>0.06895802621977509</v>
       </c>
       <c r="D17">
-        <v>264.3688523928439</v>
+        <v>263.3622520300402</v>
       </c>
       <c r="E17">
-        <v>0.02045578717963033</v>
+        <v>0.005080097625300057</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42033.16666666666</v>
+        <v>41546.5</v>
       </c>
       <c r="B18">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C18">
-        <v>0.03342379435616749</v>
+        <v>-0.2555605615535796</v>
       </c>
       <c r="D18">
-        <v>264.3914703694854</v>
+        <v>263.4312100562599</v>
       </c>
       <c r="E18">
-        <v>0.02063794433643451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42063.58333333334</v>
+        <v>41576.91666666666</v>
       </c>
       <c r="B19">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="C19">
-        <v>0.03465002067707701</v>
+        <v>0.01933388418592585</v>
       </c>
       <c r="D19">
-        <v>264.4248941638416</v>
+        <v>263.1756494947064</v>
       </c>
       <c r="E19">
-        <v>0.02084370186087718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
+        <v>41607.33333333334</v>
+      </c>
+      <c r="B20">
+        <v>0.052</v>
+      </c>
+      <c r="C20">
+        <v>0.01906439919684999</v>
+      </c>
+      <c r="D20">
+        <v>263.1949833788923</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
+        <v>41637.75</v>
+      </c>
+      <c r="B21">
+        <v>0.052</v>
+      </c>
+      <c r="C21">
+        <v>0.9086829091203299</v>
+      </c>
+      <c r="D21">
+        <v>263.2140477780891</v>
+      </c>
+      <c r="E21">
+        <v>0.01560450247289091</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
+        <v>41668.16666666666</v>
+      </c>
+      <c r="B22">
+        <v>0.052</v>
+      </c>
+      <c r="C22">
+        <v>0.228645324816739</v>
+      </c>
+      <c r="D22">
+        <v>264.1227306872095</v>
+      </c>
+      <c r="E22">
+        <v>0.01901153181942171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
+        <v>41698.58333333334</v>
+      </c>
+      <c r="B23">
+        <v>0.052</v>
+      </c>
+      <c r="C23">
+        <v>0.05372627081442261</v>
+      </c>
+      <c r="D23">
+        <v>264.3513760120262</v>
+      </c>
+      <c r="E23">
+        <v>0.01952521110066754</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
+        <v>41729</v>
+      </c>
+      <c r="B24">
+        <v>0.052</v>
+      </c>
+      <c r="C24">
+        <v>0.09183812024821236</v>
+      </c>
+      <c r="D24">
+        <v>264.4051022828406</v>
+      </c>
+      <c r="E24">
+        <v>0.02065980096320896</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
+        <v>41759.41666666666</v>
+      </c>
+      <c r="B25">
+        <v>0.052</v>
+      </c>
+      <c r="C25">
+        <v>-1.205138941482574</v>
+      </c>
+      <c r="D25">
+        <v>264.4969404030888</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
+        <v>41789.83333333334</v>
+      </c>
+      <c r="B26">
+        <v>0.052</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>263.2918014616063</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2">
+        <v>41820.25</v>
+      </c>
+      <c r="B27">
+        <v>0.052</v>
+      </c>
+      <c r="C27">
+        <v>0.01944302153140143</v>
+      </c>
+      <c r="D27">
+        <v>263.2918014616063</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2">
+        <v>41850.66666666666</v>
+      </c>
+      <c r="B28">
+        <v>0.052</v>
+      </c>
+      <c r="C28">
+        <v>0.01884313870675669</v>
+      </c>
+      <c r="D28">
+        <v>263.3112444831377</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2">
+        <v>41881.08333333334</v>
+      </c>
+      <c r="B29">
+        <v>0.052</v>
+      </c>
+      <c r="C29">
+        <v>0.9205518586395556</v>
+      </c>
+      <c r="D29">
+        <v>263.3300876218444</v>
+      </c>
+      <c r="E29">
+        <v>0.01570272046779577</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2">
+        <v>41911.5</v>
+      </c>
+      <c r="B30">
+        <v>0.052</v>
+      </c>
+      <c r="C30">
+        <v>0.2963534205271117</v>
+      </c>
+      <c r="D30">
+        <v>264.250639480484</v>
+      </c>
+      <c r="E30">
+        <v>0.02011269392933507</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2">
+        <v>41941.91666666666</v>
+      </c>
+      <c r="B31">
+        <v>0.052</v>
+      </c>
+      <c r="C31">
+        <v>0.09116384190190274</v>
+      </c>
+      <c r="D31">
+        <v>264.5469929010111</v>
+      </c>
+      <c r="E31">
+        <v>0.02123008057042964</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2">
+        <v>41972.33333333334</v>
+      </c>
+      <c r="B32">
+        <v>0.052</v>
+      </c>
+      <c r="C32">
+        <v>0.06612348370993004</v>
+      </c>
+      <c r="D32">
+        <v>264.638156742913</v>
+      </c>
+      <c r="E32">
+        <v>0.02194539569002607</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2">
+        <v>42002.75</v>
+      </c>
+      <c r="B33">
+        <v>0.052</v>
+      </c>
+      <c r="C33">
+        <v>0.02333160994112404</v>
+      </c>
+      <c r="D33">
+        <v>264.7042802266229</v>
+      </c>
+      <c r="E33">
+        <v>0.0219705721689839</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2">
+        <v>42033.16666666666</v>
+      </c>
+      <c r="B34">
+        <v>0.052</v>
+      </c>
+      <c r="C34">
+        <v>0.03287933153933409</v>
+      </c>
+      <c r="D34">
+        <v>264.7276118365641</v>
+      </c>
+      <c r="E34">
+        <v>0.0221559520786468</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2">
+        <v>42063.58333333334</v>
+      </c>
+      <c r="B35">
+        <v>0.052</v>
+      </c>
+      <c r="C35">
+        <v>0.03547424172506908</v>
+      </c>
+      <c r="D35">
+        <v>264.7604911681034</v>
+      </c>
+      <c r="E35">
+        <v>0.02235925082054601</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2">
         <v>42094</v>
       </c>
-      <c r="B20">
-        <v>0.05</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>264.4595441845187</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
+      <c r="B36">
+        <v>0.052</v>
+      </c>
+      <c r="C36">
+        <v>-1.329910088248653</v>
+      </c>
+      <c r="D36">
+        <v>264.7959654098285</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
+        <v>42124.41666666666</v>
+      </c>
+      <c r="B37">
+        <v>0.052</v>
+      </c>
+      <c r="C37">
+        <v>0.01901031124918973</v>
+      </c>
+      <c r="D37">
+        <v>263.4660553215798</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>42154.83333333334</v>
+      </c>
+      <c r="B38">
+        <v>0.052</v>
+      </c>
+      <c r="C38">
+        <v>0.01891556587111154</v>
+      </c>
+      <c r="D38">
+        <v>263.485065632829</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>42185.25</v>
+      </c>
+      <c r="B39">
+        <v>0.052</v>
+      </c>
+      <c r="C39">
+        <v>0.01893920786540093</v>
+      </c>
+      <c r="D39">
+        <v>263.5039811987001</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>42215.66666666666</v>
+      </c>
+      <c r="B40">
+        <v>0.052</v>
+      </c>
+      <c r="C40">
+        <v>0.000354152799673102</v>
+      </c>
+      <c r="D40">
+        <v>263.5229204065655</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2">
+        <v>42246.08333333334</v>
+      </c>
+      <c r="B41">
+        <v>0.052</v>
+      </c>
+      <c r="C41">
+        <v>0.01840521844246723</v>
+      </c>
+      <c r="D41">
+        <v>263.5232745593652</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
+        <v>42276.5</v>
+      </c>
+      <c r="B42">
+        <v>0.052</v>
+      </c>
+      <c r="C42">
+        <v>0.01894202055598271</v>
+      </c>
+      <c r="D42">
+        <v>263.5416797778076</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2">
+        <v>42306.91666666666</v>
+      </c>
+      <c r="B43">
+        <v>0.052</v>
+      </c>
+      <c r="C43">
+        <v>0.01883986686368644</v>
+      </c>
+      <c r="D43">
+        <v>263.5606217983636</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2">
+        <v>42337.33333333334</v>
+      </c>
+      <c r="B44">
+        <v>0.052</v>
+      </c>
+      <c r="C44">
+        <v>0.9907938324276984</v>
+      </c>
+      <c r="D44">
+        <v>263.5794616652273</v>
+      </c>
+      <c r="E44">
+        <v>0.01650065172035446</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2">
+        <v>42367.75</v>
+      </c>
+      <c r="B45">
+        <v>0.052</v>
+      </c>
+      <c r="C45">
+        <v>0.3322653268475051</v>
+      </c>
+      <c r="D45">
+        <v>264.570255497655</v>
+      </c>
+      <c r="E45">
+        <v>0.02140685396562712</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2">
+        <v>42398.16666666666</v>
+      </c>
+      <c r="B46">
+        <v>0.052</v>
+      </c>
+      <c r="C46">
+        <v>0.1165543220641894</v>
+      </c>
+      <c r="D46">
+        <v>264.9025208245025</v>
+      </c>
+      <c r="E46">
+        <v>0.02288068539528099</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2">
+        <v>42428.58333333334</v>
+      </c>
+      <c r="B47">
+        <v>0.052</v>
+      </c>
+      <c r="C47">
+        <v>0.04540770217033696</v>
+      </c>
+      <c r="D47">
+        <v>265.0190751465667</v>
+      </c>
+      <c r="E47">
+        <v>0.0232524260679068</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2">
+        <v>42459</v>
+      </c>
+      <c r="B48">
+        <v>0.052</v>
+      </c>
+      <c r="C48">
+        <v>0.02762393877014802</v>
+      </c>
+      <c r="D48">
+        <v>265.064482848737</v>
+      </c>
+      <c r="E48">
+        <v>0.02367600468785905</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2">
+        <v>42489.41666666666</v>
+      </c>
+      <c r="B49">
+        <v>0.052</v>
+      </c>
+      <c r="C49">
+        <v>-1.435336022989645</v>
+      </c>
+      <c r="D49">
+        <v>265.0921067875072</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2">
+        <v>42519.83333333334</v>
+      </c>
+      <c r="B50">
+        <v>0.052</v>
+      </c>
+      <c r="C50">
+        <v>0.01866096581125021</v>
+      </c>
+      <c r="D50">
+        <v>263.6567707645175</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2">
+        <v>42550.25</v>
+      </c>
+      <c r="B51">
+        <v>0.052</v>
+      </c>
+      <c r="C51">
+        <v>0.01890011273508208</v>
+      </c>
+      <c r="D51">
+        <v>263.6754317303288</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2">
+        <v>42580.66666666666</v>
+      </c>
+      <c r="B52">
+        <v>0.052</v>
+      </c>
+      <c r="C52">
+        <v>0.947078147842376</v>
+      </c>
+      <c r="D52">
+        <v>263.6943318430639</v>
+      </c>
+      <c r="E52">
+        <v>0.01568531556220513</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>42611.08333333334</v>
+      </c>
+      <c r="B53">
+        <v>0.052</v>
+      </c>
+      <c r="C53">
+        <v>0.4122344368530548</v>
+      </c>
+      <c r="D53">
+        <v>264.6414099909063</v>
+      </c>
+      <c r="E53">
+        <v>0.02178403393546294</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>42641.5</v>
+      </c>
+      <c r="B54">
+        <v>0.052</v>
+      </c>
+      <c r="C54">
+        <v>0.120730587521507</v>
+      </c>
+      <c r="D54">
+        <v>265.0536444277593</v>
+      </c>
+      <c r="E54">
+        <v>0.02331627794224125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="2">
+        <v>42671.91666666666</v>
+      </c>
+      <c r="B55">
+        <v>0.052</v>
+      </c>
+      <c r="C55">
+        <v>-1.403451456743824</v>
+      </c>
+      <c r="D55">
+        <v>265.1743750152808</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="2">
+        <v>42702.33333333334</v>
+      </c>
+      <c r="B56">
+        <v>0.052</v>
+      </c>
+      <c r="C56">
+        <v>1.066894885012516</v>
+      </c>
+      <c r="D56">
+        <v>263.770923558537</v>
+      </c>
+      <c r="E56">
+        <v>0.01744851774676799</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="2">
+        <v>42732.75</v>
+      </c>
+      <c r="B57">
+        <v>0.052</v>
+      </c>
+      <c r="C57">
+        <v>0.353713426732611</v>
+      </c>
+      <c r="D57">
+        <v>264.8378184435495</v>
+      </c>
+      <c r="E57">
+        <v>0.02260262156021681</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="2">
+        <v>42763.16666666666</v>
+      </c>
+      <c r="B58">
+        <v>0.052</v>
+      </c>
+      <c r="C58">
+        <v>-0.2552411848951124</v>
+      </c>
+      <c r="D58">
+        <v>265.1915318702821</v>
+      </c>
+      <c r="E58">
+        <v>0.0183078863632893</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="2">
+        <v>42793.58333333334</v>
+      </c>
+      <c r="B59">
+        <v>0.052</v>
+      </c>
+      <c r="C59">
+        <v>0.1791903971810598</v>
+      </c>
+      <c r="D59">
+        <v>264.936290685387</v>
+      </c>
+      <c r="E59">
+        <v>0.02077536304564189</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="2">
+        <v>42824</v>
+      </c>
+      <c r="B60">
+        <v>0.052</v>
+      </c>
+      <c r="C60">
+        <v>0.122592691327668</v>
+      </c>
+      <c r="D60">
+        <v>265.1154810825681</v>
+      </c>
+      <c r="E60">
+        <v>0.02269840950334274</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="2">
+        <v>42854.41666666666</v>
+      </c>
+      <c r="B61">
+        <v>0.052</v>
+      </c>
+      <c r="C61">
+        <v>-1.370707531338553</v>
+      </c>
+      <c r="D61">
+        <v>265.2380737738957</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="2">
+        <v>42884.83333333334</v>
+      </c>
+      <c r="B62">
+        <v>0.052</v>
+      </c>
+      <c r="C62">
+        <v>0.01932793890955509</v>
+      </c>
+      <c r="D62">
+        <v>263.8673662425572</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="2">
+        <v>42915.25</v>
+      </c>
+      <c r="B63">
+        <v>0.052</v>
+      </c>
+      <c r="C63">
+        <v>1.022078332540445</v>
+      </c>
+      <c r="D63">
+        <v>263.8866941814667</v>
+      </c>
+      <c r="E63">
+        <v>0.01661871398618693</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="2">
+        <v>42945.66666666666</v>
+      </c>
+      <c r="B64">
+        <v>0.052</v>
+      </c>
+      <c r="C64">
+        <v>0.3601523406393881</v>
+      </c>
+      <c r="D64">
+        <v>264.9087725140072</v>
+      </c>
+      <c r="E64">
+        <v>0.02188053352671037</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="2">
+        <v>42976.08333333334</v>
+      </c>
+      <c r="B65">
+        <v>0.052</v>
+      </c>
+      <c r="C65">
+        <v>-1.229309617586978</v>
+      </c>
+      <c r="D65">
+        <v>265.2689248546466</v>
+      </c>
+      <c r="E65">
+        <v>0.001648241891477598</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="2">
+        <v>43006.5</v>
+      </c>
+      <c r="B66">
+        <v>0.052</v>
+      </c>
+      <c r="C66">
+        <v>1.070222858561124</v>
+      </c>
+      <c r="D66">
+        <v>264.0396152370596</v>
+      </c>
+      <c r="E66">
+        <v>0.01875684056134041</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="2">
+        <v>43036.91666666666</v>
+      </c>
+      <c r="B67">
+        <v>0.052</v>
+      </c>
+      <c r="C67">
+        <v>-0.9748999722797862</v>
+      </c>
+      <c r="D67">
+        <v>265.1098380956207</v>
+      </c>
+      <c r="E67">
+        <v>0.002640332632694899</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="2">
+        <v>43067.33333333334</v>
+      </c>
+      <c r="B68">
+        <v>0.052</v>
+      </c>
+      <c r="C68">
+        <v>0.7765800310726263</v>
+      </c>
+      <c r="D68">
+        <v>264.1349381233409</v>
+      </c>
+      <c r="E68">
+        <v>0.01508466016041106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="2">
+        <v>43097.75</v>
+      </c>
+      <c r="B69">
+        <v>0.052</v>
+      </c>
+      <c r="C69">
+        <v>0.148642267305604</v>
+      </c>
+      <c r="D69">
+        <v>264.9115181544136</v>
+      </c>
+      <c r="E69">
+        <v>0.0170498631930703</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="2">
+        <v>43128.16666666666</v>
+      </c>
+      <c r="B70">
+        <v>0.052</v>
+      </c>
+      <c r="C70">
+        <v>0.3932792841533228</v>
+      </c>
+      <c r="D70">
+        <v>265.0601604217192</v>
+      </c>
+      <c r="E70">
+        <v>0.02276609605441232</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="2">
+        <v>43158.58333333334</v>
+      </c>
+      <c r="B71">
+        <v>0.052</v>
+      </c>
+      <c r="C71">
+        <v>0.1541765681400875</v>
+      </c>
+      <c r="D71">
+        <v>265.4534397058725</v>
+      </c>
+      <c r="E71">
+        <v>0.02479705693662589</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="2">
+        <v>43189</v>
+      </c>
+      <c r="B72">
+        <v>0.052</v>
+      </c>
+      <c r="C72">
+        <v>0.06450347415648139</v>
+      </c>
+      <c r="D72">
+        <v>265.6076162740126</v>
+      </c>
+      <c r="E72">
+        <v>0.0257445126903757</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="2">
+        <v>43219.41666666666</v>
+      </c>
+      <c r="B73">
+        <v>0.052</v>
+      </c>
+      <c r="C73">
+        <v>-1.613242523647614</v>
+      </c>
+      <c r="D73">
+        <v>265.6721197481691</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="2">
+        <v>43249.83333333334</v>
+      </c>
+      <c r="B74">
+        <v>0.052</v>
+      </c>
+      <c r="C74">
+        <v>0.01858038871523604</v>
+      </c>
+      <c r="D74">
+        <v>264.0588772245214</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="2">
+        <v>43280.25</v>
+      </c>
+      <c r="B75">
+        <v>0.052</v>
+      </c>
+      <c r="C75">
+        <v>1.087988613555694</v>
+      </c>
+      <c r="D75">
+        <v>264.0774576132367</v>
+      </c>
+      <c r="E75">
+        <v>0.01739332393342515</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="2">
+        <v>43310.66666666666</v>
+      </c>
+      <c r="B76">
+        <v>0.052</v>
+      </c>
+      <c r="C76">
+        <v>0.5051864966510493</v>
+      </c>
+      <c r="D76">
+        <v>265.1654462267924</v>
+      </c>
+      <c r="E76">
+        <v>0.02479130957082836</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="2">
+        <v>43341.08333333334</v>
+      </c>
+      <c r="B77">
+        <v>0.052</v>
+      </c>
+      <c r="C77">
+        <v>0.1755197691106787</v>
+      </c>
+      <c r="D77">
+        <v>265.6706327234434</v>
+      </c>
+      <c r="E77">
+        <v>0.02707272108438589</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="2">
+        <v>43371.5</v>
+      </c>
+      <c r="B78">
+        <v>0.052</v>
+      </c>
+      <c r="C78">
+        <v>0.0747250698246944</v>
+      </c>
+      <c r="D78">
+        <v>265.8461524925541</v>
+      </c>
+      <c r="E78">
+        <v>0.02786536464228104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="2">
+        <v>43401.91666666666</v>
+      </c>
+      <c r="B79">
+        <v>0.052</v>
+      </c>
+      <c r="C79">
+        <v>0.04440785916631285</v>
+      </c>
+      <c r="D79">
+        <v>265.9208775623788</v>
+      </c>
+      <c r="E79">
+        <v>0.02820282147412366</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="2">
+        <v>43432.33333333334</v>
+      </c>
+      <c r="B80">
+        <v>0.052</v>
+      </c>
+      <c r="C80">
+        <v>0.03543802891147152</v>
+      </c>
+      <c r="D80">
+        <v>265.9652854215451</v>
+      </c>
+      <c r="E80">
+        <v>0.02840336642507956</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="2">
+        <v>43462.75</v>
+      </c>
+      <c r="B81">
+        <v>0.052</v>
+      </c>
+      <c r="C81">
+        <v>0.03324092577327065</v>
+      </c>
+      <c r="D81">
+        <v>266.0007234504566</v>
+      </c>
+      <c r="E81">
+        <v>0.02856340381268273</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="2">
+        <v>43493.16666666666</v>
+      </c>
+      <c r="B82">
+        <v>0.052</v>
+      </c>
+      <c r="C82">
+        <v>0.03194724568993479</v>
+      </c>
+      <c r="D82">
+        <v>266.0339643762298</v>
+      </c>
+      <c r="E82">
+        <v>0.02871351912907201</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="2">
+        <v>43523.58333333334</v>
+      </c>
+      <c r="B83">
+        <v>0.052</v>
+      </c>
+      <c r="C83">
+        <v>0.03170624940275957</v>
+      </c>
+      <c r="D83">
+        <v>266.0659116219198</v>
+      </c>
+      <c r="E83">
+        <v>0.02885779221361928</v>
       </c>
     </row>
   </sheetData>

--- a/FACModel/Modelled RIHT2.xlsx
+++ b/FACModel/Modelled RIHT2.xlsx
@@ -446,10 +446,10 @@
         <v>2040786</v>
       </c>
       <c r="E2">
-        <v>261.8427607064544</v>
+        <v>261.842803894764</v>
       </c>
       <c r="F2">
-        <v>0.007478727091303701</v>
+        <v>0.007478922128794388</v>
       </c>
     </row>
   </sheetData>

--- a/FACModel/Modelled RIHT2.xlsx
+++ b/FACModel/Modelled RIHT2.xlsx
@@ -437,7 +437,7 @@
         <v>30414</v>
       </c>
       <c r="B2">
-        <v>0.03033333333333333</v>
+        <v>0.03000045662100457</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -446,10 +446,10 @@
         <v>2040786</v>
       </c>
       <c r="E2">
-        <v>261.842803894764</v>
+        <v>261.8006959847297</v>
       </c>
       <c r="F2">
-        <v>0.007478922128794388</v>
+        <v>0.007288763699380986</v>
       </c>
     </row>
   </sheetData>

--- a/FACModel/Modelled RIHT2.xlsx
+++ b/FACModel/Modelled RIHT2.xlsx
@@ -437,7 +437,7 @@
         <v>30414</v>
       </c>
       <c r="B2">
-        <v>0.03000045662100457</v>
+        <v>0.03</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -446,10 +446,10 @@
         <v>2040786</v>
       </c>
       <c r="E2">
-        <v>261.8006959847297</v>
+        <v>261.8012363150606</v>
       </c>
       <c r="F2">
-        <v>0.007288763699380986</v>
+        <v>0.00729120381970518</v>
       </c>
     </row>
   </sheetData>

--- a/FACModel/Modelled RIHT2.xlsx
+++ b/FACModel/Modelled RIHT2.xlsx
@@ -437,7 +437,7 @@
         <v>30414</v>
       </c>
       <c r="B2">
-        <v>0.03</v>
+        <v>0.03000456621004566</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -446,10 +446,10 @@
         <v>2040786</v>
       </c>
       <c r="E2">
-        <v>261.8012363150606</v>
+        <v>261.8028894482187</v>
       </c>
       <c r="F2">
-        <v>0.00729120381970518</v>
+        <v>0.007298669334016065</v>
       </c>
     </row>
   </sheetData>

--- a/FACModel/Modelled RIHT2.xlsx
+++ b/FACModel/Modelled RIHT2.xlsx
@@ -437,7 +437,7 @@
         <v>30414</v>
       </c>
       <c r="B2">
-        <v>0.03000456621004566</v>
+        <v>0.03041666666666666</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -446,10 +446,10 @@
         <v>2040786</v>
       </c>
       <c r="E2">
-        <v>261.8028894482187</v>
+        <v>261.8820422433974</v>
       </c>
       <c r="F2">
-        <v>0.007298669334016065</v>
+        <v>0.007656121679730205</v>
       </c>
     </row>
   </sheetData>

--- a/FACModel/Modelled RIHT2.xlsx
+++ b/FACModel/Modelled RIHT2.xlsx
@@ -446,10 +446,10 @@
         <v>2040786</v>
       </c>
       <c r="E2">
-        <v>261.8820422433974</v>
+        <v>261.8831256424503</v>
       </c>
       <c r="F2">
-        <v>0.007656121679730205</v>
+        <v>0.007661014286894672</v>
       </c>
     </row>
   </sheetData>

--- a/FACModel/Modelled RIHT2.xlsx
+++ b/FACModel/Modelled RIHT2.xlsx
@@ -446,10 +446,10 @@
         <v>2040786</v>
       </c>
       <c r="E2">
-        <v>261.8831256424503</v>
+        <v>261.8815758431489</v>
       </c>
       <c r="F2">
-        <v>0.007661014286894672</v>
+        <v>0.007654015426091007</v>
       </c>
     </row>
   </sheetData>

--- a/FACModel/Modelled RIHT2.xlsx
+++ b/FACModel/Modelled RIHT2.xlsx
@@ -437,7 +437,7 @@
         <v>30414</v>
       </c>
       <c r="B2">
-        <v>0.03041666666666666</v>
+        <v>0.03</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -446,10 +446,10 @@
         <v>2040786</v>
       </c>
       <c r="E2">
-        <v>261.8815758431489</v>
+        <v>261.8784580676896</v>
       </c>
       <c r="F2">
-        <v>0.007654015426091007</v>
+        <v>0.007639935618185261</v>
       </c>
     </row>
   </sheetData>

--- a/FACModel/Modelled RIHT2.xlsx
+++ b/FACModel/Modelled RIHT2.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,16 +440,1176 @@
         <v>0.03</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-0.08520429435679944</v>
       </c>
       <c r="D2">
         <v>2040786</v>
       </c>
       <c r="E2">
-        <v>261.8784580676896</v>
+        <v>261.8390704456743</v>
       </c>
       <c r="F2">
-        <v>0.007639935618185261</v>
+        <v>0.007462061951820552</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>30443.16666666667</v>
+      </c>
+      <c r="B3">
+        <v>0.04269977168949772</v>
+      </c>
+      <c r="C3">
+        <v>0.4732235590463461</v>
+      </c>
+      <c r="D3">
+        <v>2040786</v>
+      </c>
+      <c r="E3">
+        <v>261.7538661513175</v>
+      </c>
+      <c r="F3">
+        <v>0.007077281164054335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>30472.33333333333</v>
+      </c>
+      <c r="B4">
+        <v>0.04289954337899544</v>
+      </c>
+      <c r="C4">
+        <v>0.1347385033909632</v>
+      </c>
+      <c r="D4">
+        <v>2040786</v>
+      </c>
+      <c r="E4">
+        <v>262.2270897103639</v>
+      </c>
+      <c r="F4">
+        <v>0.009214348728710251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>30501.5</v>
+      </c>
+      <c r="B5">
+        <v>0.04309931506849315</v>
+      </c>
+      <c r="C5">
+        <v>0.07248007296084324</v>
+      </c>
+      <c r="D5">
+        <v>2040786</v>
+      </c>
+      <c r="E5">
+        <v>262.3618282137548</v>
+      </c>
+      <c r="F5">
+        <v>0.009822824954803697</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>30530.66666666667</v>
+      </c>
+      <c r="B6">
+        <v>0.04329908675799087</v>
+      </c>
+      <c r="C6">
+        <v>0.05998663544949068</v>
+      </c>
+      <c r="D6">
+        <v>2040786</v>
+      </c>
+      <c r="E6">
+        <v>262.4343082867157</v>
+      </c>
+      <c r="F6">
+        <v>0.01015014342838234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>30559.83333333333</v>
+      </c>
+      <c r="B7">
+        <v>0.04349885844748859</v>
+      </c>
+      <c r="C7">
+        <v>0.05998709152243009</v>
+      </c>
+      <c r="D7">
+        <v>2040786</v>
+      </c>
+      <c r="E7">
+        <v>262.4942949221652</v>
+      </c>
+      <c r="F7">
+        <v>0.01042104180290594</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>30589</v>
+      </c>
+      <c r="B8">
+        <v>0.04369863013698631</v>
+      </c>
+      <c r="C8">
+        <v>0.05949608912283111</v>
+      </c>
+      <c r="D8">
+        <v>2040786</v>
+      </c>
+      <c r="E8">
+        <v>262.5542820136876</v>
+      </c>
+      <c r="F8">
+        <v>0.01069194223704548</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>30618.16666666667</v>
+      </c>
+      <c r="B9">
+        <v>0.04389840182648402</v>
+      </c>
+      <c r="C9">
+        <v>0.05992519579797317</v>
+      </c>
+      <c r="D9">
+        <v>2040786</v>
+      </c>
+      <c r="E9">
+        <v>262.6137781028104</v>
+      </c>
+      <c r="F9">
+        <v>0.0109606253147529</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>30647.33333333333</v>
+      </c>
+      <c r="B10">
+        <v>0.04409817351598174</v>
+      </c>
+      <c r="C10">
+        <v>0.06039189527689359</v>
+      </c>
+      <c r="D10">
+        <v>2040786</v>
+      </c>
+      <c r="E10">
+        <v>262.6737032986084</v>
+      </c>
+      <c r="F10">
+        <v>0.01123124622911223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>30676.5</v>
+      </c>
+      <c r="B11">
+        <v>0.04429794520547946</v>
+      </c>
+      <c r="C11">
+        <v>0.05890527531289536</v>
+      </c>
+      <c r="D11">
+        <v>2040786</v>
+      </c>
+      <c r="E11">
+        <v>262.7340951938853</v>
+      </c>
+      <c r="F11">
+        <v>0.0115039747484285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>30705.66666666667</v>
+      </c>
+      <c r="B12">
+        <v>0.04449771689497718</v>
+      </c>
+      <c r="C12">
+        <v>0.05956557034812704</v>
+      </c>
+      <c r="D12">
+        <v>2040786</v>
+      </c>
+      <c r="E12">
+        <v>262.7930004691982</v>
+      </c>
+      <c r="F12">
+        <v>0.01176998972349027</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>30734.83333333333</v>
+      </c>
+      <c r="B13">
+        <v>0.04469748858447489</v>
+      </c>
+      <c r="C13">
+        <v>0.06089916845621701</v>
+      </c>
+      <c r="D13">
+        <v>2040786</v>
+      </c>
+      <c r="E13">
+        <v>262.8525660395463</v>
+      </c>
+      <c r="F13">
+        <v>0.01203898657693883</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>30764</v>
+      </c>
+      <c r="B14">
+        <v>0.04489726027397261</v>
+      </c>
+      <c r="C14">
+        <v>0.04361518818404875</v>
+      </c>
+      <c r="D14">
+        <v>2040786</v>
+      </c>
+      <c r="E14">
+        <v>262.9134652080025</v>
+      </c>
+      <c r="F14">
+        <v>0.0123140059311836</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
+        <v>30851.5</v>
+      </c>
+      <c r="B15">
+        <v>0.04509703196347033</v>
+      </c>
+      <c r="C15">
+        <v>0.5142520460113928</v>
+      </c>
+      <c r="D15">
+        <v>2040786</v>
+      </c>
+      <c r="E15">
+        <v>262.4296401072738</v>
+      </c>
+      <c r="F15">
+        <v>0.01012906202894556</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
+        <v>30880.66666666667</v>
+      </c>
+      <c r="B16">
+        <v>0.04529680365296804</v>
+      </c>
+      <c r="C16">
+        <v>0.1607461999578845</v>
+      </c>
+      <c r="D16">
+        <v>2040786</v>
+      </c>
+      <c r="E16">
+        <v>262.9438921532852</v>
+      </c>
+      <c r="F16">
+        <v>0.01245141337130806</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
+        <v>30909.83333333333</v>
+      </c>
+      <c r="B17">
+        <v>0.04549657534246576</v>
+      </c>
+      <c r="C17">
+        <v>0.0840763775721598</v>
+      </c>
+      <c r="D17">
+        <v>2040786</v>
+      </c>
+      <c r="E17">
+        <v>263.1046383532431</v>
+      </c>
+      <c r="F17">
+        <v>0.01317733980397324</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
+        <v>30939</v>
+      </c>
+      <c r="B18">
+        <v>0.04569634703196348</v>
+      </c>
+      <c r="C18">
+        <v>0.06682467704092687</v>
+      </c>
+      <c r="D18">
+        <v>2040786</v>
+      </c>
+      <c r="E18">
+        <v>263.1887147308153</v>
+      </c>
+      <c r="F18">
+        <v>0.01355702694344136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2">
+        <v>30968.16666666667</v>
+      </c>
+      <c r="B19">
+        <v>0.0458961187214612</v>
+      </c>
+      <c r="C19">
+        <v>0.06311615610025001</v>
+      </c>
+      <c r="D19">
+        <v>2040786</v>
+      </c>
+      <c r="E19">
+        <v>263.2555394078562</v>
+      </c>
+      <c r="F19">
+        <v>0.01385880576888817</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2">
+        <v>30997.33333333333</v>
+      </c>
+      <c r="B20">
+        <v>0.04609589041095891</v>
+      </c>
+      <c r="C20">
+        <v>0.06353417450520737</v>
+      </c>
+      <c r="D20">
+        <v>2040786</v>
+      </c>
+      <c r="E20">
+        <v>263.3186555639564</v>
+      </c>
+      <c r="F20">
+        <v>0.01414383699235353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2">
+        <v>31026.5</v>
+      </c>
+      <c r="B21">
+        <v>0.04629566210045663</v>
+      </c>
+      <c r="C21">
+        <v>0.06263391050038081</v>
+      </c>
+      <c r="D21">
+        <v>2040786</v>
+      </c>
+      <c r="E21">
+        <v>263.3821897384616</v>
+      </c>
+      <c r="F21">
+        <v>0.01443075597807734</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2">
+        <v>31055.66666666667</v>
+      </c>
+      <c r="B22">
+        <v>0.04649543378995435</v>
+      </c>
+      <c r="C22">
+        <v>0.0636131627800296</v>
+      </c>
+      <c r="D22">
+        <v>2040786</v>
+      </c>
+      <c r="E22">
+        <v>263.444823648962</v>
+      </c>
+      <c r="F22">
+        <v>0.0147136093906328</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2">
+        <v>31084.83333333333</v>
+      </c>
+      <c r="B23">
+        <v>0.04669520547945206</v>
+      </c>
+      <c r="C23">
+        <v>0.06187811582879021</v>
+      </c>
+      <c r="D23">
+        <v>2040786</v>
+      </c>
+      <c r="E23">
+        <v>263.5084368117421</v>
+      </c>
+      <c r="F23">
+        <v>0.01500088508573208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2">
+        <v>31114</v>
+      </c>
+      <c r="B24">
+        <v>0.04689497716894978</v>
+      </c>
+      <c r="C24">
+        <v>0.06282480657796441</v>
+      </c>
+      <c r="D24">
+        <v>2040786</v>
+      </c>
+      <c r="E24">
+        <v>263.5703149275708</v>
+      </c>
+      <c r="F24">
+        <v>0.0152803253455666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2">
+        <v>31143.16666666667</v>
+      </c>
+      <c r="B25">
+        <v>0.0470947488584475</v>
+      </c>
+      <c r="C25">
+        <v>0.06429231924948908</v>
+      </c>
+      <c r="D25">
+        <v>2040786</v>
+      </c>
+      <c r="E25">
+        <v>263.6331397341488</v>
+      </c>
+      <c r="F25">
+        <v>0.01556404084076316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2">
+        <v>31172.33333333333</v>
+      </c>
+      <c r="B26">
+        <v>0.04729452054794522</v>
+      </c>
+      <c r="C26">
+        <v>0.0633235411323767</v>
+      </c>
+      <c r="D26">
+        <v>2040786</v>
+      </c>
+      <c r="E26">
+        <v>263.6974320533983</v>
+      </c>
+      <c r="F26">
+        <v>0.01585438359208667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2">
+        <v>31201.5</v>
+      </c>
+      <c r="B27">
+        <v>0.04749429223744293</v>
+      </c>
+      <c r="C27">
+        <v>0.06318212407325063</v>
+      </c>
+      <c r="D27">
+        <v>2040786</v>
+      </c>
+      <c r="E27">
+        <v>263.7607555945307</v>
+      </c>
+      <c r="F27">
+        <v>0.01614035136196244</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2">
+        <v>31230.66666666667</v>
+      </c>
+      <c r="B28">
+        <v>0.04769406392694065</v>
+      </c>
+      <c r="C28">
+        <v>0.06327668908602391</v>
+      </c>
+      <c r="D28">
+        <v>2040786</v>
+      </c>
+      <c r="E28">
+        <v>263.8239377186039</v>
+      </c>
+      <c r="F28">
+        <v>0.01642568049539592</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2">
+        <v>31259.83333333333</v>
+      </c>
+      <c r="B29">
+        <v>0.04789383561643837</v>
+      </c>
+      <c r="C29">
+        <v>0.06336390990225027</v>
+      </c>
+      <c r="D29">
+        <v>2040786</v>
+      </c>
+      <c r="E29">
+        <v>263.88721440769</v>
+      </c>
+      <c r="F29">
+        <v>0.01671143668242314</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2">
+        <v>31289</v>
+      </c>
+      <c r="B30">
+        <v>0.04809360730593609</v>
+      </c>
+      <c r="C30">
+        <v>0.06351586261189368</v>
+      </c>
+      <c r="D30">
+        <v>2040786</v>
+      </c>
+      <c r="E30">
+        <v>263.9505783175922</v>
+      </c>
+      <c r="F30">
+        <v>0.01699758675680819</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2">
+        <v>31318.16666666667</v>
+      </c>
+      <c r="B31">
+        <v>0.0482933789954338</v>
+      </c>
+      <c r="C31">
+        <v>0.06373329978521269</v>
+      </c>
+      <c r="D31">
+        <v>2040786</v>
+      </c>
+      <c r="E31">
+        <v>264.0140941802041</v>
+      </c>
+      <c r="F31">
+        <v>0.01728442304641004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2">
+        <v>31347.33333333333</v>
+      </c>
+      <c r="B32">
+        <v>0.04849315068493152</v>
+      </c>
+      <c r="C32">
+        <v>0.06372950034301539</v>
+      </c>
+      <c r="D32">
+        <v>2040786</v>
+      </c>
+      <c r="E32">
+        <v>264.0778274799893</v>
+      </c>
+      <c r="F32">
+        <v>0.01757224127767879</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2">
+        <v>31376.5</v>
+      </c>
+      <c r="B33">
+        <v>0.04869292237442924</v>
+      </c>
+      <c r="C33">
+        <v>0.06484414982207909</v>
+      </c>
+      <c r="D33">
+        <v>2040786</v>
+      </c>
+      <c r="E33">
+        <v>264.1415569803323</v>
+      </c>
+      <c r="F33">
+        <v>0.01786004235074713</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2">
+        <v>31405.66666666667</v>
+      </c>
+      <c r="B34">
+        <v>0.04889269406392695</v>
+      </c>
+      <c r="C34">
+        <v>0.06429250882831639</v>
+      </c>
+      <c r="D34">
+        <v>2040786</v>
+      </c>
+      <c r="E34">
+        <v>264.2064011301544</v>
+      </c>
+      <c r="F34">
+        <v>0.01815287715724273</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2">
+        <v>31434.83333333333</v>
+      </c>
+      <c r="B35">
+        <v>0.04909246575342467</v>
+      </c>
+      <c r="C35">
+        <v>0.06544044464385479</v>
+      </c>
+      <c r="D35">
+        <v>2040786</v>
+      </c>
+      <c r="E35">
+        <v>264.2706936389827</v>
+      </c>
+      <c r="F35">
+        <v>0.01844322076470009</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2">
+        <v>31464</v>
+      </c>
+      <c r="B36">
+        <v>0.04929223744292239</v>
+      </c>
+      <c r="C36">
+        <v>0.06487822717144809</v>
+      </c>
+      <c r="D36">
+        <v>2040786</v>
+      </c>
+      <c r="E36">
+        <v>264.3361340836266</v>
+      </c>
+      <c r="F36">
+        <v>0.01873874842597473</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2">
+        <v>31493.16666666667</v>
+      </c>
+      <c r="B37">
+        <v>0.04949200913242011</v>
+      </c>
+      <c r="C37">
+        <v>0.06377185217036185</v>
+      </c>
+      <c r="D37">
+        <v>2040786</v>
+      </c>
+      <c r="E37">
+        <v>264.401012310798</v>
+      </c>
+      <c r="F37">
+        <v>0.01903173712505792</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2">
+        <v>31522.33333333333</v>
+      </c>
+      <c r="B38">
+        <v>0.04969178082191782</v>
+      </c>
+      <c r="C38">
+        <v>0.04297540270658828</v>
+      </c>
+      <c r="D38">
+        <v>2040786</v>
+      </c>
+      <c r="E38">
+        <v>264.4647841629684</v>
+      </c>
+      <c r="F38">
+        <v>0.01931972945808099</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2">
+        <v>31580.66666666667</v>
+      </c>
+      <c r="B39">
+        <v>0.04989155251141554</v>
+      </c>
+      <c r="C39">
+        <v>0.838023679871867</v>
+      </c>
+      <c r="D39">
+        <v>2040786</v>
+      </c>
+      <c r="E39">
+        <v>263.5120107520413</v>
+      </c>
+      <c r="F39">
+        <v>0.0150170249243888</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2">
+        <v>31609.83333333333</v>
+      </c>
+      <c r="B40">
+        <v>0.05009132420091326</v>
+      </c>
+      <c r="C40">
+        <v>0.2593569080485167</v>
+      </c>
+      <c r="D40">
+        <v>2040786</v>
+      </c>
+      <c r="E40">
+        <v>264.3500344319132</v>
+      </c>
+      <c r="F40">
+        <v>0.01880152210427723</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2">
+        <v>31639</v>
+      </c>
+      <c r="B41">
+        <v>0.05029109589041098</v>
+      </c>
+      <c r="C41">
+        <v>0.1175260981881365</v>
+      </c>
+      <c r="D41">
+        <v>2040786</v>
+      </c>
+      <c r="E41">
+        <v>264.6093913399617</v>
+      </c>
+      <c r="F41">
+        <v>0.01997277240503752</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2">
+        <v>31668.16666666667</v>
+      </c>
+      <c r="B42">
+        <v>0.05049086757990869</v>
+      </c>
+      <c r="C42">
+        <v>0.07850218949965893</v>
+      </c>
+      <c r="D42">
+        <v>2040786</v>
+      </c>
+      <c r="E42">
+        <v>264.7269174381498</v>
+      </c>
+      <c r="F42">
+        <v>0.02050351777398007</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2">
+        <v>31697.33333333333</v>
+      </c>
+      <c r="B43">
+        <v>0.05069063926940641</v>
+      </c>
+      <c r="C43">
+        <v>0.06862055132398837</v>
+      </c>
+      <c r="D43">
+        <v>2040786</v>
+      </c>
+      <c r="E43">
+        <v>264.8054196276495</v>
+      </c>
+      <c r="F43">
+        <v>0.02085803199823454</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2">
+        <v>31726.5</v>
+      </c>
+      <c r="B44">
+        <v>0.05089041095890413</v>
+      </c>
+      <c r="C44">
+        <v>0.06617496066553485</v>
+      </c>
+      <c r="D44">
+        <v>2040786</v>
+      </c>
+      <c r="E44">
+        <v>264.8740401789735</v>
+      </c>
+      <c r="F44">
+        <v>0.02116792095388757</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2">
+        <v>31755.66666666667</v>
+      </c>
+      <c r="B45">
+        <v>0.05109018264840184</v>
+      </c>
+      <c r="C45">
+        <v>0.0645832449399677</v>
+      </c>
+      <c r="D45">
+        <v>2040786</v>
+      </c>
+      <c r="E45">
+        <v>264.940215139639</v>
+      </c>
+      <c r="F45">
+        <v>0.02146676567395103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2">
+        <v>31784.83333333333</v>
+      </c>
+      <c r="B46">
+        <v>0.05128995433789956</v>
+      </c>
+      <c r="C46">
+        <v>0.06543698707162093</v>
+      </c>
+      <c r="D46">
+        <v>2040786</v>
+      </c>
+      <c r="E46">
+        <v>265.004798384579</v>
+      </c>
+      <c r="F46">
+        <v>0.02175842223952783</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2">
+        <v>31814</v>
+      </c>
+      <c r="B47">
+        <v>0.05148972602739728</v>
+      </c>
+      <c r="C47">
+        <v>0.06576745290044528</v>
+      </c>
+      <c r="D47">
+        <v>2040786</v>
+      </c>
+      <c r="E47">
+        <v>265.0702353716506</v>
+      </c>
+      <c r="F47">
+        <v>0.02205393428647948</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2">
+        <v>31843.16666666667</v>
+      </c>
+      <c r="B48">
+        <v>0.051689497716895</v>
+      </c>
+      <c r="C48">
+        <v>0.04441934930616753</v>
+      </c>
+      <c r="D48">
+        <v>2040786</v>
+      </c>
+      <c r="E48">
+        <v>265.136002824551</v>
+      </c>
+      <c r="F48">
+        <v>0.02235093871011122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2">
+        <v>31901.5</v>
+      </c>
+      <c r="B49">
+        <v>0.05188926940639271</v>
+      </c>
+      <c r="C49">
+        <v>0.9690559894053195</v>
+      </c>
+      <c r="D49">
+        <v>2040786</v>
+      </c>
+      <c r="E49">
+        <v>263.9392598728026</v>
+      </c>
+      <c r="F49">
+        <v>0.01694647289998565</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2">
+        <v>31930.66666666667</v>
+      </c>
+      <c r="B50">
+        <v>0.05208904109589043</v>
+      </c>
+      <c r="C50">
+        <v>0.2993867472029024</v>
+      </c>
+      <c r="D50">
+        <v>2040786</v>
+      </c>
+      <c r="E50">
+        <v>264.9083158622079</v>
+      </c>
+      <c r="F50">
+        <v>0.02132270921304428</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2">
+        <v>31959.83333333333</v>
+      </c>
+      <c r="B51">
+        <v>0.05228881278538815</v>
+      </c>
+      <c r="C51">
+        <v>0.1187676111833298</v>
+      </c>
+      <c r="D51">
+        <v>2040786</v>
+      </c>
+      <c r="E51">
+        <v>265.2077026094108</v>
+      </c>
+      <c r="F51">
+        <v>0.02267473341916061</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2">
+        <v>31989</v>
+      </c>
+      <c r="B52">
+        <v>0.05248858447488586</v>
+      </c>
+      <c r="C52">
+        <v>0.07281208748486279</v>
+      </c>
+      <c r="D52">
+        <v>2040786</v>
+      </c>
+      <c r="E52">
+        <v>265.3264702205942</v>
+      </c>
+      <c r="F52">
+        <v>0.02321108543448074</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2">
+        <v>32018.16666666667</v>
+      </c>
+      <c r="B53">
+        <v>0.05268835616438358</v>
+      </c>
+      <c r="C53">
+        <v>0.05958718701629095</v>
+      </c>
+      <c r="D53">
+        <v>2040786</v>
+      </c>
+      <c r="E53">
+        <v>265.399282308079</v>
+      </c>
+      <c r="F53">
+        <v>0.02353990327861423</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2">
+        <v>32047.33333333333</v>
+      </c>
+      <c r="B54">
+        <v>0.0528881278538813</v>
+      </c>
+      <c r="C54">
+        <v>0.05494653648509029</v>
+      </c>
+      <c r="D54">
+        <v>2040786</v>
+      </c>
+      <c r="E54">
+        <v>265.4588694950953</v>
+      </c>
+      <c r="F54">
+        <v>0.02380899775247827</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2">
+        <v>32076.5</v>
+      </c>
+      <c r="B55">
+        <v>0.05308789954337902</v>
+      </c>
+      <c r="C55">
+        <v>0.05488539201451204</v>
+      </c>
+      <c r="D55">
+        <v>2040786</v>
+      </c>
+      <c r="E55">
+        <v>265.5138160315804</v>
+      </c>
+      <c r="F55">
+        <v>0.02405713514688236</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2">
+        <v>32105.66666666667</v>
+      </c>
+      <c r="B56">
+        <v>0.05328767123287673</v>
+      </c>
+      <c r="C56">
+        <v>0.05395373142960125</v>
+      </c>
+      <c r="D56">
+        <v>2040786</v>
+      </c>
+      <c r="E56">
+        <v>265.5687014235949</v>
+      </c>
+      <c r="F56">
+        <v>0.02430499641415322</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="2">
+        <v>32134.83333333333</v>
+      </c>
+      <c r="B57">
+        <v>0.05348744292237445</v>
+      </c>
+      <c r="C57">
+        <v>0.05378324299681481</v>
+      </c>
+      <c r="D57">
+        <v>2040786</v>
+      </c>
+      <c r="E57">
+        <v>265.6226551550245</v>
+      </c>
+      <c r="F57">
+        <v>0.02454865032196522</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="2">
+        <v>32164</v>
+      </c>
+      <c r="B58">
+        <v>0.05368721461187217</v>
+      </c>
+      <c r="C58">
+        <v>0.05388773207209852</v>
+      </c>
+      <c r="D58">
+        <v>2040786</v>
+      </c>
+      <c r="E58">
+        <v>265.6764383980213</v>
+      </c>
+      <c r="F58">
+        <v>0.02479153430762766</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="2">
+        <v>32193.16666666667</v>
+      </c>
+      <c r="B59">
+        <v>0.05388698630136989</v>
+      </c>
+      <c r="C59">
+        <v>0.05391163216722816</v>
+      </c>
+      <c r="D59">
+        <v>2040786</v>
+      </c>
+      <c r="E59">
+        <v>265.7303261300934</v>
+      </c>
+      <c r="F59">
+        <v>0.02503489016373963</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="2">
+        <v>32222.33333333333</v>
+      </c>
+      <c r="B60">
+        <v>0.0540867579908676</v>
+      </c>
+      <c r="C60">
+        <v>-0.2765499959302815</v>
+      </c>
+      <c r="D60">
+        <v>2040786</v>
+      </c>
+      <c r="E60">
+        <v>265.7842377622607</v>
+      </c>
+      <c r="F60">
+        <v>0.02527835395217504</v>
       </c>
     </row>
   </sheetData>
@@ -459,7 +1619,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -491,6 +1651,926 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>32280.66666666667</v>
+      </c>
+      <c r="B2">
+        <v>0.05428652968036532</v>
+      </c>
+      <c r="C2">
+        <v>1.021107643045525</v>
+      </c>
+      <c r="D2">
+        <v>2040786</v>
+      </c>
+      <c r="E2">
+        <v>264.0891642299863</v>
+      </c>
+      <c r="F2">
+        <v>0.01762343780043005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>32309.83333333333</v>
+      </c>
+      <c r="B3">
+        <v>0.05448630136986304</v>
+      </c>
+      <c r="C3">
+        <v>0.2952362684218315</v>
+      </c>
+      <c r="D3">
+        <v>2040786</v>
+      </c>
+      <c r="E3">
+        <v>265.1102718730318</v>
+      </c>
+      <c r="F3">
+        <v>0.0222347382783105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>32368.16666666667</v>
+      </c>
+      <c r="B4">
+        <v>0.05468607305936075</v>
+      </c>
+      <c r="C4">
+        <v>1.045331788259432</v>
+      </c>
+      <c r="D4">
+        <v>2040786</v>
+      </c>
+      <c r="E4">
+        <v>264.156721235588</v>
+      </c>
+      <c r="F4">
+        <v>0.01792852380613847</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>32397.33333333333</v>
+      </c>
+      <c r="B5">
+        <v>0.05488584474885847</v>
+      </c>
+      <c r="C5">
+        <v>0.3071618265215648</v>
+      </c>
+      <c r="D5">
+        <v>2040786</v>
+      </c>
+      <c r="E5">
+        <v>265.2020530238474</v>
+      </c>
+      <c r="F5">
+        <v>0.02264922001047536</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>32455.66666666667</v>
+      </c>
+      <c r="B6">
+        <v>0.05508561643835619</v>
+      </c>
+      <c r="C6">
+        <v>1.067552343746229</v>
+      </c>
+      <c r="D6">
+        <v>2040786</v>
+      </c>
+      <c r="E6">
+        <v>264.2240431470105</v>
+      </c>
+      <c r="F6">
+        <v>0.01823254813151612</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>32484.83333333333</v>
+      </c>
+      <c r="B7">
+        <v>0.05528538812785391</v>
+      </c>
+      <c r="C7">
+        <v>0.3317061139896396</v>
+      </c>
+      <c r="D7">
+        <v>2040786</v>
+      </c>
+      <c r="E7">
+        <v>265.2915954907568</v>
+      </c>
+      <c r="F7">
+        <v>0.02305359189355944</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>32514</v>
+      </c>
+      <c r="B8">
+        <v>0.05548515981735162</v>
+      </c>
+      <c r="C8">
+        <v>0.1325892522302183</v>
+      </c>
+      <c r="D8">
+        <v>2040786</v>
+      </c>
+      <c r="E8">
+        <v>265.6233016047464</v>
+      </c>
+      <c r="F8">
+        <v>0.02455156967521058</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>32543.16666666667</v>
+      </c>
+      <c r="B9">
+        <v>0.05568493150684934</v>
+      </c>
+      <c r="C9">
+        <v>0.07469206751284219</v>
+      </c>
+      <c r="D9">
+        <v>2040786</v>
+      </c>
+      <c r="E9">
+        <v>265.7558908569766</v>
+      </c>
+      <c r="F9">
+        <v>0.02515033992860668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>32572.33333333333</v>
+      </c>
+      <c r="B10">
+        <v>0.05588470319634706</v>
+      </c>
+      <c r="C10">
+        <v>0.05998330445777356</v>
+      </c>
+      <c r="D10">
+        <v>2040786</v>
+      </c>
+      <c r="E10">
+        <v>265.8305829244895</v>
+      </c>
+      <c r="F10">
+        <v>0.02548764772270802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>32601.5</v>
+      </c>
+      <c r="B11">
+        <v>0.05608447488584477</v>
+      </c>
+      <c r="C11">
+        <v>0.05513574843712377</v>
+      </c>
+      <c r="D11">
+        <v>2040786</v>
+      </c>
+      <c r="E11">
+        <v>265.8905662289473</v>
+      </c>
+      <c r="F11">
+        <v>0.02575853105454365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>32630.66666666667</v>
+      </c>
+      <c r="B12">
+        <v>0.05628424657534249</v>
+      </c>
+      <c r="C12">
+        <v>0.0539972844071599</v>
+      </c>
+      <c r="D12">
+        <v>2040786</v>
+      </c>
+      <c r="E12">
+        <v>265.9457019773844</v>
+      </c>
+      <c r="F12">
+        <v>0.02600752292611374</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>32659.83333333333</v>
+      </c>
+      <c r="B13">
+        <v>0.05648401826484021</v>
+      </c>
+      <c r="C13">
+        <v>0.02268731332628704</v>
+      </c>
+      <c r="D13">
+        <v>2040786</v>
+      </c>
+      <c r="E13">
+        <v>265.9996992617915</v>
+      </c>
+      <c r="F13">
+        <v>0.0262513735182494</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>32718.16666666667</v>
+      </c>
+      <c r="B14">
+        <v>0.05668378995433793</v>
+      </c>
+      <c r="C14">
+        <v>1.169773627646919</v>
+      </c>
+      <c r="D14">
+        <v>2040786</v>
+      </c>
+      <c r="E14">
+        <v>264.4974812572765</v>
+      </c>
+      <c r="F14">
+        <v>0.01946738884309817</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
+        <v>32747.33333333333</v>
+      </c>
+      <c r="B15">
+        <v>0.05688356164383564</v>
+      </c>
+      <c r="C15">
+        <v>0.3710253713205702</v>
+      </c>
+      <c r="D15">
+        <v>2040786</v>
+      </c>
+      <c r="E15">
+        <v>265.6672548849234</v>
+      </c>
+      <c r="F15">
+        <v>0.02475006175708362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
+        <v>32776.5</v>
+      </c>
+      <c r="B16">
+        <v>0.05708333333333336</v>
+      </c>
+      <c r="C16">
+        <v>0.1444715909627803</v>
+      </c>
+      <c r="D16">
+        <v>2040786</v>
+      </c>
+      <c r="E16">
+        <v>266.038280256244</v>
+      </c>
+      <c r="F16">
+        <v>0.02642560447163368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
+        <v>32805.66666666666</v>
+      </c>
+      <c r="B17">
+        <v>0.05728310502283108</v>
+      </c>
+      <c r="C17">
+        <v>0.07821087438139784</v>
+      </c>
+      <c r="D17">
+        <v>2040786</v>
+      </c>
+      <c r="E17">
+        <v>266.1827518472068</v>
+      </c>
+      <c r="F17">
+        <v>0.02707803511494936</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
+        <v>32834.83333333334</v>
+      </c>
+      <c r="B18">
+        <v>0.0574828767123288</v>
+      </c>
+      <c r="C18">
+        <v>0.05952194485405471</v>
+      </c>
+      <c r="D18">
+        <v>2040786</v>
+      </c>
+      <c r="E18">
+        <v>266.2609627215882</v>
+      </c>
+      <c r="F18">
+        <v>0.0274312337663029</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2">
+        <v>32864</v>
+      </c>
+      <c r="B19">
+        <v>0.05768264840182651</v>
+      </c>
+      <c r="C19">
+        <v>0.05549002487623511</v>
+      </c>
+      <c r="D19">
+        <v>2040786</v>
+      </c>
+      <c r="E19">
+        <v>266.3204846664422</v>
+      </c>
+      <c r="F19">
+        <v>0.02770003360794463</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2">
+        <v>32893.16666666666</v>
+      </c>
+      <c r="B20">
+        <v>0.05788242009132423</v>
+      </c>
+      <c r="C20">
+        <v>0.03108320285127775</v>
+      </c>
+      <c r="D20">
+        <v>2040786</v>
+      </c>
+      <c r="E20">
+        <v>266.3759746913184</v>
+      </c>
+      <c r="F20">
+        <v>0.02795062538440638</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2">
+        <v>32951.5</v>
+      </c>
+      <c r="B21">
+        <v>0.05808219178082195</v>
+      </c>
+      <c r="C21">
+        <v>1.23444383111314</v>
+      </c>
+      <c r="D21">
+        <v>2040786</v>
+      </c>
+      <c r="E21">
+        <v>264.7390593468987</v>
+      </c>
+      <c r="F21">
+        <v>0.02055835037659278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2">
+        <v>33009.83333333334</v>
+      </c>
+      <c r="B22">
+        <v>0.05828196347031966</v>
+      </c>
+      <c r="C22">
+        <v>1.271386599748212</v>
+      </c>
+      <c r="D22">
+        <v>2040786</v>
+      </c>
+      <c r="E22">
+        <v>264.7709891722969</v>
+      </c>
+      <c r="F22">
+        <v>0.02070254479147212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2">
+        <v>33039</v>
+      </c>
+      <c r="B23">
+        <v>0.05848173515981738</v>
+      </c>
+      <c r="C23">
+        <v>0.4067408364334142</v>
+      </c>
+      <c r="D23">
+        <v>2040786</v>
+      </c>
+      <c r="E23">
+        <v>266.0423757720451</v>
+      </c>
+      <c r="F23">
+        <v>0.02644409973420438</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2">
+        <v>33068.16666666666</v>
+      </c>
+      <c r="B24">
+        <v>0.0586815068493151</v>
+      </c>
+      <c r="C24">
+        <v>0.1574594125520434</v>
+      </c>
+      <c r="D24">
+        <v>2040786</v>
+      </c>
+      <c r="E24">
+        <v>266.4491166084786</v>
+      </c>
+      <c r="F24">
+        <v>0.02828093273236379</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2">
+        <v>33097.33333333334</v>
+      </c>
+      <c r="B25">
+        <v>0.05888127853881282</v>
+      </c>
+      <c r="C25">
+        <v>0.08260549881072166</v>
+      </c>
+      <c r="D25">
+        <v>2040786</v>
+      </c>
+      <c r="E25">
+        <v>266.6065760210306</v>
+      </c>
+      <c r="F25">
+        <v>0.02899201610275403</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2">
+        <v>33126.5</v>
+      </c>
+      <c r="B26">
+        <v>0.05908105022831053</v>
+      </c>
+      <c r="C26">
+        <v>0.06213195805048599</v>
+      </c>
+      <c r="D26">
+        <v>2040786</v>
+      </c>
+      <c r="E26">
+        <v>266.6891815198413</v>
+      </c>
+      <c r="F26">
+        <v>0.02936506078490471</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2">
+        <v>33155.66666666666</v>
+      </c>
+      <c r="B27">
+        <v>0.05928082191780825</v>
+      </c>
+      <c r="C27">
+        <v>0.05645572427192747</v>
+      </c>
+      <c r="D27">
+        <v>2040786</v>
+      </c>
+      <c r="E27">
+        <v>266.7513134778918</v>
+      </c>
+      <c r="F27">
+        <v>0.02964564739083319</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2">
+        <v>33184.83333333334</v>
+      </c>
+      <c r="B28">
+        <v>0.05948059360730597</v>
+      </c>
+      <c r="C28">
+        <v>0.05392373536642481</v>
+      </c>
+      <c r="D28">
+        <v>2040786</v>
+      </c>
+      <c r="E28">
+        <v>266.8077692021637</v>
+      </c>
+      <c r="F28">
+        <v>0.02990060024530189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2">
+        <v>33214</v>
+      </c>
+      <c r="B29">
+        <v>0.05968036529680368</v>
+      </c>
+      <c r="C29">
+        <v>0.05443072649325131</v>
+      </c>
+      <c r="D29">
+        <v>2040786</v>
+      </c>
+      <c r="E29">
+        <v>266.8616929375302</v>
+      </c>
+      <c r="F29">
+        <v>0.03014411869152812</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2">
+        <v>33243.16666666666</v>
+      </c>
+      <c r="B30">
+        <v>0.0598801369863014</v>
+      </c>
+      <c r="C30">
+        <v>0.05470292174584301</v>
+      </c>
+      <c r="D30">
+        <v>2040786</v>
+      </c>
+      <c r="E30">
+        <v>266.9161236640234</v>
+      </c>
+      <c r="F30">
+        <v>0.03038992669893965</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2">
+        <v>33272.33333333334</v>
+      </c>
+      <c r="B31">
+        <v>0.06007990867579912</v>
+      </c>
+      <c r="C31">
+        <v>0.0476085011844134</v>
+      </c>
+      <c r="D31">
+        <v>2040786</v>
+      </c>
+      <c r="E31">
+        <v>266.9708265857693</v>
+      </c>
+      <c r="F31">
+        <v>0.0306369639343439</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2">
+        <v>33330.66666666666</v>
+      </c>
+      <c r="B32">
+        <v>0.06027968036529684</v>
+      </c>
+      <c r="C32">
+        <v>1.406424505172936</v>
+      </c>
+      <c r="D32">
+        <v>2040786</v>
+      </c>
+      <c r="E32">
+        <v>265.1077891687852</v>
+      </c>
+      <c r="F32">
+        <v>0.02222352643854332</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2">
+        <v>33359.83333333334</v>
+      </c>
+      <c r="B33">
+        <v>0.06047945205479455</v>
+      </c>
+      <c r="C33">
+        <v>0.4568585879114835</v>
+      </c>
+      <c r="D33">
+        <v>2040786</v>
+      </c>
+      <c r="E33">
+        <v>266.5142136739581</v>
+      </c>
+      <c r="F33">
+        <v>0.02857490970060898</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2">
+        <v>33389</v>
+      </c>
+      <c r="B34">
+        <v>0.06067922374429227</v>
+      </c>
+      <c r="C34">
+        <v>0.1741196102113918</v>
+      </c>
+      <c r="D34">
+        <v>2040786</v>
+      </c>
+      <c r="E34">
+        <v>266.9710722618696</v>
+      </c>
+      <c r="F34">
+        <v>0.03063807340240694</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2">
+        <v>33418.16666666666</v>
+      </c>
+      <c r="B35">
+        <v>0.06087899543378999</v>
+      </c>
+      <c r="C35">
+        <v>0.09176515868102797</v>
+      </c>
+      <c r="D35">
+        <v>2040786</v>
+      </c>
+      <c r="E35">
+        <v>267.145191872081</v>
+      </c>
+      <c r="F35">
+        <v>0.03142439387238345</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2">
+        <v>33447.33333333334</v>
+      </c>
+      <c r="B36">
+        <v>0.06107876712328771</v>
+      </c>
+      <c r="C36">
+        <v>0.03325779538045026</v>
+      </c>
+      <c r="D36">
+        <v>2040786</v>
+      </c>
+      <c r="E36">
+        <v>267.236957030762</v>
+      </c>
+      <c r="F36">
+        <v>0.0318388033844077</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2">
+        <v>33534.83333333334</v>
+      </c>
+      <c r="B37">
+        <v>0.06127853881278542</v>
+      </c>
+      <c r="C37">
+        <v>1.473091262724211</v>
+      </c>
+      <c r="D37">
+        <v>2040786</v>
+      </c>
+      <c r="E37">
+        <v>265.2766378967168</v>
+      </c>
+      <c r="F37">
+        <v>0.02298604371583862</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2">
+        <v>33564</v>
+      </c>
+      <c r="B38">
+        <v>0.06147831050228314</v>
+      </c>
+      <c r="C38">
+        <v>0.481213158256196</v>
+      </c>
+      <c r="D38">
+        <v>2040786</v>
+      </c>
+      <c r="E38">
+        <v>266.749729159441</v>
+      </c>
+      <c r="F38">
+        <v>0.02963849264228238</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2">
+        <v>33593.16666666666</v>
+      </c>
+      <c r="B39">
+        <v>0.06167808219178086</v>
+      </c>
+      <c r="C39">
+        <v>0.1826111215364108</v>
+      </c>
+      <c r="D39">
+        <v>2040786</v>
+      </c>
+      <c r="E39">
+        <v>267.2309423176972</v>
+      </c>
+      <c r="F39">
+        <v>0.03181164106766366</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2">
+        <v>33622.33333333334</v>
+      </c>
+      <c r="B40">
+        <v>0.06187785388127857</v>
+      </c>
+      <c r="C40">
+        <v>0.09146457743372594</v>
+      </c>
+      <c r="D40">
+        <v>2040786</v>
+      </c>
+      <c r="E40">
+        <v>267.4135534392336</v>
+      </c>
+      <c r="F40">
+        <v>0.03263630902284188</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2">
+        <v>33651.5</v>
+      </c>
+      <c r="B41">
+        <v>0.06207762557077629</v>
+      </c>
+      <c r="C41">
+        <v>0.06632719452454694</v>
+      </c>
+      <c r="D41">
+        <v>2040786</v>
+      </c>
+      <c r="E41">
+        <v>267.5050180166673</v>
+      </c>
+      <c r="F41">
+        <v>0.03304936111632261</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2">
+        <v>33680.66666666666</v>
+      </c>
+      <c r="B42">
+        <v>0.06227739726027401</v>
+      </c>
+      <c r="C42">
+        <v>0.03942691096995077</v>
+      </c>
+      <c r="D42">
+        <v>2040786</v>
+      </c>
+      <c r="E42">
+        <v>267.5713452111919</v>
+      </c>
+      <c r="F42">
+        <v>0.03334889332126766</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2">
+        <v>33739</v>
+      </c>
+      <c r="B43">
+        <v>0.06247716894977173</v>
+      </c>
+      <c r="C43">
+        <v>1.556486150660248</v>
+      </c>
+      <c r="D43">
+        <v>2040786</v>
+      </c>
+      <c r="E43">
+        <v>265.4742416976329</v>
+      </c>
+      <c r="F43">
+        <v>0.02387841829338834</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2">
+        <v>33768.16666666666</v>
+      </c>
+      <c r="B44">
+        <v>0.06267694063926944</v>
+      </c>
+      <c r="C44">
+        <v>0.516401508627041</v>
+      </c>
+      <c r="D44">
+        <v>2040786</v>
+      </c>
+      <c r="E44">
+        <v>267.0307278482932</v>
+      </c>
+      <c r="F44">
+        <v>0.0309074767665447</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2">
+        <v>33797.33333333334</v>
+      </c>
+      <c r="B45">
+        <v>0.06287671232876715</v>
+      </c>
+      <c r="C45">
+        <v>0.1937257580526648</v>
+      </c>
+      <c r="D45">
+        <v>2040786</v>
+      </c>
+      <c r="E45">
+        <v>267.5471293569202</v>
+      </c>
+      <c r="F45">
+        <v>0.03323953503653063</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2">
+        <v>33826.5</v>
+      </c>
+      <c r="B46">
+        <v>0.06307648401826486</v>
+      </c>
+      <c r="C46">
+        <v>0.1000849272513733</v>
+      </c>
+      <c r="D46">
+        <v>2040786</v>
+      </c>
+      <c r="E46">
+        <v>267.7408551149729</v>
+      </c>
+      <c r="F46">
+        <v>0.03411439645468784</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2">
+        <v>33855.66666666666</v>
+      </c>
+      <c r="B47">
+        <v>0.06327625570776257</v>
+      </c>
+      <c r="C47">
+        <v>0.06918412490347237</v>
+      </c>
+      <c r="D47">
+        <v>2040786</v>
+      </c>
+      <c r="E47">
+        <v>267.8409400422242</v>
+      </c>
+      <c r="F47">
+        <v>0.03456637786527289</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -498,7 +2578,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -530,6 +2610,646 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>33855.66666666666</v>
+      </c>
+      <c r="B2">
+        <v>0.06327625570776257</v>
+      </c>
+      <c r="C2">
+        <v>0.06918412490347237</v>
+      </c>
+      <c r="D2">
+        <v>2040786</v>
+      </c>
+      <c r="E2">
+        <v>267.8409400422242</v>
+      </c>
+      <c r="F2">
+        <v>0.03456637786527289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>33884.83333333334</v>
+      </c>
+      <c r="B3">
+        <v>0.06347602739726028</v>
+      </c>
+      <c r="C3">
+        <v>-1.297454198586593</v>
+      </c>
+      <c r="D3">
+        <v>2040786</v>
+      </c>
+      <c r="E3">
+        <v>267.9101241671277</v>
+      </c>
+      <c r="F3">
+        <v>0.03487881190726832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>33914</v>
+      </c>
+      <c r="B4">
+        <v>0.06367579908675799</v>
+      </c>
+      <c r="C4">
+        <v>-0.3679305564089645</v>
+      </c>
+      <c r="D4">
+        <v>2040786</v>
+      </c>
+      <c r="E4">
+        <v>266.6126699685411</v>
+      </c>
+      <c r="F4">
+        <v>0.02901953624057585</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>33943.16666666666</v>
+      </c>
+      <c r="B5">
+        <v>0.06387557077625571</v>
+      </c>
+      <c r="C5">
+        <v>-0.07541760644721762</v>
+      </c>
+      <c r="D5">
+        <v>2040786</v>
+      </c>
+      <c r="E5">
+        <v>266.2447394121322</v>
+      </c>
+      <c r="F5">
+        <v>0.0273579696445848</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>33972.33333333334</v>
+      </c>
+      <c r="B6">
+        <v>0.06407534246575342</v>
+      </c>
+      <c r="C6">
+        <v>0.01628506017868858</v>
+      </c>
+      <c r="D6">
+        <v>2040786</v>
+      </c>
+      <c r="E6">
+        <v>266.1693218056849</v>
+      </c>
+      <c r="F6">
+        <v>0.02701738533203055</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>34001.5</v>
+      </c>
+      <c r="B7">
+        <v>0.06427511415525113</v>
+      </c>
+      <c r="C7">
+        <v>0.04442104029089933</v>
+      </c>
+      <c r="D7">
+        <v>2040786</v>
+      </c>
+      <c r="E7">
+        <v>266.1856068658636</v>
+      </c>
+      <c r="F7">
+        <v>0.02709092831870354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>34030.66666666666</v>
+      </c>
+      <c r="B8">
+        <v>0.06447488584474884</v>
+      </c>
+      <c r="C8">
+        <v>0.05303430180947544</v>
+      </c>
+      <c r="D8">
+        <v>2040786</v>
+      </c>
+      <c r="E8">
+        <v>266.2300279061545</v>
+      </c>
+      <c r="F8">
+        <v>0.02729153279533891</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>34059.83333333334</v>
+      </c>
+      <c r="B9">
+        <v>0.06467465753424655</v>
+      </c>
+      <c r="C9">
+        <v>0.05552488966418423</v>
+      </c>
+      <c r="D9">
+        <v>2040786</v>
+      </c>
+      <c r="E9">
+        <v>266.283062207964</v>
+      </c>
+      <c r="F9">
+        <v>0.02753103457846981</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>34089</v>
+      </c>
+      <c r="B10">
+        <v>0.06487442922374426</v>
+      </c>
+      <c r="C10">
+        <v>0.05624108329220689</v>
+      </c>
+      <c r="D10">
+        <v>2040786</v>
+      </c>
+      <c r="E10">
+        <v>266.3385870976282</v>
+      </c>
+      <c r="F10">
+        <v>0.02778178380357511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>34118.16666666666</v>
+      </c>
+      <c r="B11">
+        <v>0.06507420091324197</v>
+      </c>
+      <c r="C11">
+        <v>0.05770863929933512</v>
+      </c>
+      <c r="D11">
+        <v>2040786</v>
+      </c>
+      <c r="E11">
+        <v>266.3948281809204</v>
+      </c>
+      <c r="F11">
+        <v>0.02803576734392768</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>34147.33333333334</v>
+      </c>
+      <c r="B12">
+        <v>0.06527397260273968</v>
+      </c>
+      <c r="C12">
+        <v>0.0572306501978801</v>
+      </c>
+      <c r="D12">
+        <v>2040786</v>
+      </c>
+      <c r="E12">
+        <v>266.4525368202197</v>
+      </c>
+      <c r="F12">
+        <v>0.02829637833610985</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>34176.5</v>
+      </c>
+      <c r="B13">
+        <v>0.06547374429223739</v>
+      </c>
+      <c r="C13">
+        <v>0.05690999226544591</v>
+      </c>
+      <c r="D13">
+        <v>2040786</v>
+      </c>
+      <c r="E13">
+        <v>266.5097674704176</v>
+      </c>
+      <c r="F13">
+        <v>0.02855483073963877</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>34205.66666666666</v>
+      </c>
+      <c r="B14">
+        <v>0.0656735159817351</v>
+      </c>
+      <c r="C14">
+        <v>0.0284496790097819</v>
+      </c>
+      <c r="D14">
+        <v>2040786</v>
+      </c>
+      <c r="E14">
+        <v>266.5666774626831</v>
+      </c>
+      <c r="F14">
+        <v>0.02881183505873995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
+        <v>34264</v>
+      </c>
+      <c r="B15">
+        <v>0.06587328767123281</v>
+      </c>
+      <c r="C15">
+        <v>1.376084535374162</v>
+      </c>
+      <c r="D15">
+        <v>2040786</v>
+      </c>
+      <c r="E15">
+        <v>264.7033917578487</v>
+      </c>
+      <c r="F15">
+        <v>0.02039727630026897</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
+        <v>34293.16666666666</v>
+      </c>
+      <c r="B16">
+        <v>0.06607305936073052</v>
+      </c>
+      <c r="C16">
+        <v>0.467742106439573</v>
+      </c>
+      <c r="D16">
+        <v>2040786</v>
+      </c>
+      <c r="E16">
+        <v>266.0794762932229</v>
+      </c>
+      <c r="F16">
+        <v>0.02661164490165241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
+        <v>34322.33333333334</v>
+      </c>
+      <c r="B17">
+        <v>0.06627283105022823</v>
+      </c>
+      <c r="C17">
+        <v>0.1872461598138671</v>
+      </c>
+      <c r="D17">
+        <v>2040786</v>
+      </c>
+      <c r="E17">
+        <v>266.5472183996625</v>
+      </c>
+      <c r="F17">
+        <v>0.02872395834249259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
+        <v>34351.5</v>
+      </c>
+      <c r="B18">
+        <v>0.06647260273972594</v>
+      </c>
+      <c r="C18">
+        <v>0.09777390934323194</v>
+      </c>
+      <c r="D18">
+        <v>2040786</v>
+      </c>
+      <c r="E18">
+        <v>266.7344645594764</v>
+      </c>
+      <c r="F18">
+        <v>0.02956955803231139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2">
+        <v>34380.66666666666</v>
+      </c>
+      <c r="B19">
+        <v>0.06667237442922365</v>
+      </c>
+      <c r="C19">
+        <v>0.0694024709664518</v>
+      </c>
+      <c r="D19">
+        <v>2040786</v>
+      </c>
+      <c r="E19">
+        <v>266.8322384688196</v>
+      </c>
+      <c r="F19">
+        <v>0.03001110293499572</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2">
+        <v>34409.83333333334</v>
+      </c>
+      <c r="B20">
+        <v>0.06687214611872136</v>
+      </c>
+      <c r="C20">
+        <v>0.04124754093572847</v>
+      </c>
+      <c r="D20">
+        <v>2040786</v>
+      </c>
+      <c r="E20">
+        <v>266.901640939786</v>
+      </c>
+      <c r="F20">
+        <v>0.03032452302318451</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2">
+        <v>34468.16666666666</v>
+      </c>
+      <c r="B21">
+        <v>0.06707191780821907</v>
+      </c>
+      <c r="C21">
+        <v>1.459161165656383</v>
+      </c>
+      <c r="D21">
+        <v>2040786</v>
+      </c>
+      <c r="E21">
+        <v>264.9080307122455</v>
+      </c>
+      <c r="F21">
+        <v>0.02132142148185654</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2">
+        <v>34497.33333333334</v>
+      </c>
+      <c r="B22">
+        <v>0.06727168949771678</v>
+      </c>
+      <c r="C22">
+        <v>0.501774818580202</v>
+      </c>
+      <c r="D22">
+        <v>2040786</v>
+      </c>
+      <c r="E22">
+        <v>266.3671918779019</v>
+      </c>
+      <c r="F22">
+        <v>0.02791096238513201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2">
+        <v>34526.5</v>
+      </c>
+      <c r="B23">
+        <v>0.06747146118721449</v>
+      </c>
+      <c r="C23">
+        <v>0.2011380893725345</v>
+      </c>
+      <c r="D23">
+        <v>2040786</v>
+      </c>
+      <c r="E23">
+        <v>266.8689666964821</v>
+      </c>
+      <c r="F23">
+        <v>0.030176966832818</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2">
+        <v>34555.66666666666</v>
+      </c>
+      <c r="B24">
+        <v>0.0676712328767122</v>
+      </c>
+      <c r="C24">
+        <v>0.1043403998489794</v>
+      </c>
+      <c r="D24">
+        <v>2040786</v>
+      </c>
+      <c r="E24">
+        <v>267.0701047858546</v>
+      </c>
+      <c r="F24">
+        <v>0.03108530218214242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2">
+        <v>34584.83333333334</v>
+      </c>
+      <c r="B25">
+        <v>0.06787100456620991</v>
+      </c>
+      <c r="C25">
+        <v>0.07141202112461542</v>
+      </c>
+      <c r="D25">
+        <v>2040786</v>
+      </c>
+      <c r="E25">
+        <v>267.1744451857036</v>
+      </c>
+      <c r="F25">
+        <v>0.03155650121680133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2">
+        <v>34614</v>
+      </c>
+      <c r="B26">
+        <v>0.06807077625570762</v>
+      </c>
+      <c r="C26">
+        <v>0.0617988975964181</v>
+      </c>
+      <c r="D26">
+        <v>2040786</v>
+      </c>
+      <c r="E26">
+        <v>267.2458572068282</v>
+      </c>
+      <c r="F26">
+        <v>0.0318789963909203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2">
+        <v>34643.16666666666</v>
+      </c>
+      <c r="B27">
+        <v>0.06827054794520533</v>
+      </c>
+      <c r="C27">
+        <v>0.0588383994357855</v>
+      </c>
+      <c r="D27">
+        <v>2040786</v>
+      </c>
+      <c r="E27">
+        <v>267.3076561044246</v>
+      </c>
+      <c r="F27">
+        <v>0.03215807890289622</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2">
+        <v>34672.33333333334</v>
+      </c>
+      <c r="B28">
+        <v>0.06847031963470304</v>
+      </c>
+      <c r="C28">
+        <v>0.0580782313166992</v>
+      </c>
+      <c r="D28">
+        <v>2040786</v>
+      </c>
+      <c r="E28">
+        <v>267.3664945038604</v>
+      </c>
+      <c r="F28">
+        <v>0.03242379186791396</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2">
+        <v>34701.5</v>
+      </c>
+      <c r="B29">
+        <v>0.06867009132420075</v>
+      </c>
+      <c r="C29">
+        <v>0.05794799544128182</v>
+      </c>
+      <c r="D29">
+        <v>2040786</v>
+      </c>
+      <c r="E29">
+        <v>267.4245727351771</v>
+      </c>
+      <c r="F29">
+        <v>0.03268607192981464</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2">
+        <v>34730.66666666666</v>
+      </c>
+      <c r="B30">
+        <v>0.06886986301369846</v>
+      </c>
+      <c r="C30">
+        <v>0.05814675208034714</v>
+      </c>
+      <c r="D30">
+        <v>2040786</v>
+      </c>
+      <c r="E30">
+        <v>267.4825207306184</v>
+      </c>
+      <c r="F30">
+        <v>0.03294776384926154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2">
+        <v>34759.83333333334</v>
+      </c>
+      <c r="B31">
+        <v>0.06906963470319617</v>
+      </c>
+      <c r="C31">
+        <v>0.05809688174269922</v>
+      </c>
+      <c r="D31">
+        <v>2040786</v>
+      </c>
+      <c r="E31">
+        <v>267.5406674826987</v>
+      </c>
+      <c r="F31">
+        <v>0.03321035334947877</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2">
+        <v>34789</v>
+      </c>
+      <c r="B32">
+        <v>0.06926940639269388</v>
+      </c>
+      <c r="C32">
+        <v>0.059220720790222</v>
+      </c>
+      <c r="D32">
+        <v>2040786</v>
+      </c>
+      <c r="E32">
+        <v>267.5987643644414</v>
+      </c>
+      <c r="F32">
+        <v>0.03347271763630803</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2">
+        <v>34818.16666666666</v>
+      </c>
+      <c r="B33">
+        <v>0.06946917808219159</v>
+      </c>
+      <c r="C33">
+        <v>-0.2424220428206354</v>
+      </c>
+      <c r="D33">
+        <v>2040786</v>
+      </c>
+      <c r="E33">
+        <v>267.6579850852316</v>
+      </c>
+      <c r="F33">
+        <v>0.03374015715646068</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -537,7 +3257,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -569,6 +3289,566 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>35080.66666666666</v>
+      </c>
+      <c r="B2">
+        <v>0.02503995433789954</v>
+      </c>
+      <c r="C2">
+        <v>0.01002397450076842</v>
+      </c>
+      <c r="D2">
+        <v>1805369.614207656</v>
+      </c>
+      <c r="E2">
+        <v>263.7740851024022</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>35109.83333333334</v>
+      </c>
+      <c r="B3">
+        <v>0.02507990867579909</v>
+      </c>
+      <c r="C3">
+        <v>1.029597525752479</v>
+      </c>
+      <c r="D3">
+        <v>2054595.896978438</v>
+      </c>
+      <c r="E3">
+        <v>263.784109076903</v>
+      </c>
+      <c r="F3">
+        <v>0.0177916105967968</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>35139</v>
+      </c>
+      <c r="B4">
+        <v>0.03503995433789955</v>
+      </c>
+      <c r="C4">
+        <v>0.6417995928972005</v>
+      </c>
+      <c r="D4">
+        <v>2054348.677966119</v>
+      </c>
+      <c r="E4">
+        <v>264.8137066026554</v>
+      </c>
+      <c r="F4">
+        <v>0.02241357902088256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>35168.16666666666</v>
+      </c>
+      <c r="B5">
+        <v>0.03507990867579909</v>
+      </c>
+      <c r="C5">
+        <v>0.214236579972976</v>
+      </c>
+      <c r="D5">
+        <v>2054159.115966397</v>
+      </c>
+      <c r="E5">
+        <v>265.4555061955526</v>
+      </c>
+      <c r="F5">
+        <v>0.02529071397129866</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>35197.33333333334</v>
+      </c>
+      <c r="B6">
+        <v>0.03511986301369863</v>
+      </c>
+      <c r="C6">
+        <v>0.105475039679277</v>
+      </c>
+      <c r="D6">
+        <v>2055922.778339357</v>
+      </c>
+      <c r="E6">
+        <v>265.6697427755256</v>
+      </c>
+      <c r="F6">
+        <v>0.02645561540567889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>35226.5</v>
+      </c>
+      <c r="B7">
+        <v>0.03515981735159818</v>
+      </c>
+      <c r="C7">
+        <v>0.07060454400539129</v>
+      </c>
+      <c r="D7">
+        <v>2057108.922448979</v>
+      </c>
+      <c r="E7">
+        <v>265.7752178152049</v>
+      </c>
+      <c r="F7">
+        <v>0.02706470816667357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>35255.66666666666</v>
+      </c>
+      <c r="B8">
+        <v>0.03519977168949772</v>
+      </c>
+      <c r="C8">
+        <v>0.07159207622771646</v>
+      </c>
+      <c r="D8">
+        <v>2059679.179130435</v>
+      </c>
+      <c r="E8">
+        <v>265.8458223592103</v>
+      </c>
+      <c r="F8">
+        <v>0.02767125560388578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>35284.83333333334</v>
+      </c>
+      <c r="B9">
+        <v>0.03523972602739726</v>
+      </c>
+      <c r="C9">
+        <v>0.05478738233250624</v>
+      </c>
+      <c r="D9">
+        <v>2059679.179130435</v>
+      </c>
+      <c r="E9">
+        <v>265.917414435438</v>
+      </c>
+      <c r="F9">
+        <v>0.02799456390303504</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>35314</v>
+      </c>
+      <c r="B10">
+        <v>0.03527968036529681</v>
+      </c>
+      <c r="C10">
+        <v>-1.652468571411646</v>
+      </c>
+      <c r="D10">
+        <v>1045652.408450706</v>
+      </c>
+      <c r="E10">
+        <v>265.9722018177705</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>35343.16666666666</v>
+      </c>
+      <c r="B11">
+        <v>0.03531963470319635</v>
+      </c>
+      <c r="C11">
+        <v>0.03263073198797883</v>
+      </c>
+      <c r="D11">
+        <v>1045652.408450706</v>
+      </c>
+      <c r="E11">
+        <v>264.3197332463589</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>35372.33333333334</v>
+      </c>
+      <c r="B12">
+        <v>0.03535958904109589</v>
+      </c>
+      <c r="C12">
+        <v>0.03155647172377485</v>
+      </c>
+      <c r="D12">
+        <v>1795264.670833331</v>
+      </c>
+      <c r="E12">
+        <v>264.3523639783468</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>35401.5</v>
+      </c>
+      <c r="B13">
+        <v>0.03539954337899544</v>
+      </c>
+      <c r="C13">
+        <v>1.214056308439922</v>
+      </c>
+      <c r="D13">
+        <v>2049716.392163554</v>
+      </c>
+      <c r="E13">
+        <v>264.3839204500706</v>
+      </c>
+      <c r="F13">
+        <v>0.01995416412269838</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>35430.66666666666</v>
+      </c>
+      <c r="B14">
+        <v>0.03543949771689498</v>
+      </c>
+      <c r="C14">
+        <v>0.383441203740631</v>
+      </c>
+      <c r="D14">
+        <v>2049716.392163554</v>
+      </c>
+      <c r="E14">
+        <v>265.5979767585105</v>
+      </c>
+      <c r="F14">
+        <v>0.02543681668475859</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
+        <v>35459.83333333334</v>
+      </c>
+      <c r="B15">
+        <v>0.03547945205479452</v>
+      </c>
+      <c r="C15">
+        <v>-1.537229703300795</v>
+      </c>
+      <c r="D15">
+        <v>1051968.864640882</v>
+      </c>
+      <c r="E15">
+        <v>265.9814179622512</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
+        <v>35547.33333333334</v>
+      </c>
+      <c r="B16">
+        <v>0.03551940639269407</v>
+      </c>
+      <c r="C16">
+        <v>0.0304743012355857</v>
+      </c>
+      <c r="D16">
+        <v>1846516.324301666</v>
+      </c>
+      <c r="E16">
+        <v>264.47362000669</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
+        <v>35576.5</v>
+      </c>
+      <c r="B17">
+        <v>0.03555936073059361</v>
+      </c>
+      <c r="C17">
+        <v>1.304603629514759</v>
+      </c>
+      <c r="D17">
+        <v>2055747.20906515</v>
+      </c>
+      <c r="E17">
+        <v>264.5040943079256</v>
+      </c>
+      <c r="F17">
+        <v>0.02117191947631617</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
+        <v>35605.66666666666</v>
+      </c>
+      <c r="B18">
+        <v>0.03559931506849316</v>
+      </c>
+      <c r="C18">
+        <v>-1.247506335941694</v>
+      </c>
+      <c r="D18">
+        <v>851924.7836257308</v>
+      </c>
+      <c r="E18">
+        <v>265.8086979374403</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2">
+        <v>35634.83333333334</v>
+      </c>
+      <c r="B19">
+        <v>0.0356392694063927</v>
+      </c>
+      <c r="C19">
+        <v>1.16544828273743</v>
+      </c>
+      <c r="D19">
+        <v>2033724.477976195</v>
+      </c>
+      <c r="E19">
+        <v>264.5611916014986</v>
+      </c>
+      <c r="F19">
+        <v>0.01896467982204768</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2">
+        <v>35664</v>
+      </c>
+      <c r="B20">
+        <v>0.03567922374429224</v>
+      </c>
+      <c r="C20">
+        <v>0.4986065376920124</v>
+      </c>
+      <c r="D20">
+        <v>2050629.618067232</v>
+      </c>
+      <c r="E20">
+        <v>265.7266398842361</v>
+      </c>
+      <c r="F20">
+        <v>0.02612007755621961</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2">
+        <v>35693.16666666666</v>
+      </c>
+      <c r="B21">
+        <v>0.03571917808219179</v>
+      </c>
+      <c r="C21">
+        <v>0.1366428925246055</v>
+      </c>
+      <c r="D21">
+        <v>2044726.015763553</v>
+      </c>
+      <c r="E21">
+        <v>266.2252464219281</v>
+      </c>
+      <c r="F21">
+        <v>0.02771096098044264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2">
+        <v>35722.33333333334</v>
+      </c>
+      <c r="B22">
+        <v>0.03575913242009133</v>
+      </c>
+      <c r="C22">
+        <v>0.08436825203023091</v>
+      </c>
+      <c r="D22">
+        <v>2046647.497705816</v>
+      </c>
+      <c r="E22">
+        <v>266.3618893144527</v>
+      </c>
+      <c r="F22">
+        <v>0.02854311632390801</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2">
+        <v>35751.5</v>
+      </c>
+      <c r="B23">
+        <v>0.03579908675799087</v>
+      </c>
+      <c r="C23">
+        <v>-1.760696179626962</v>
+      </c>
+      <c r="D23">
+        <v>1410014.850209208</v>
+      </c>
+      <c r="E23">
+        <v>266.4462575664829</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2">
+        <v>35868.16666666666</v>
+      </c>
+      <c r="B24">
+        <v>0.03583904109589042</v>
+      </c>
+      <c r="C24">
+        <v>0.9747835013006352</v>
+      </c>
+      <c r="D24">
+        <v>1999638.16555556</v>
+      </c>
+      <c r="E24">
+        <v>264.7050156867243</v>
+      </c>
+      <c r="F24">
+        <v>0.01579877301038707</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2">
+        <v>35897.33333333334</v>
+      </c>
+      <c r="B25">
+        <v>0.03587899543378996</v>
+      </c>
+      <c r="C25">
+        <v>0.510712202237869</v>
+      </c>
+      <c r="D25">
+        <v>2025575.366666662</v>
+      </c>
+      <c r="E25">
+        <v>265.679799188025</v>
+      </c>
+      <c r="F25">
+        <v>0.02310412630039736</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2">
+        <v>35926.5</v>
+      </c>
+      <c r="B26">
+        <v>0.0359189497716895</v>
+      </c>
+      <c r="C26">
+        <v>-1.411435780195575</v>
+      </c>
+      <c r="D26">
+        <v>1481513.893069308</v>
+      </c>
+      <c r="E26">
+        <v>266.1905113902628</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2">
+        <v>35984.83333333334</v>
+      </c>
+      <c r="B27">
+        <v>0.03595890410958905</v>
+      </c>
+      <c r="C27">
+        <v>0.03071586508303881</v>
+      </c>
+      <c r="D27">
+        <v>1060681.979514825</v>
+      </c>
+      <c r="E27">
+        <v>264.7907182770583</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2">
+        <v>36014</v>
+      </c>
+      <c r="B28">
+        <v>0.03599885844748859</v>
+      </c>
+      <c r="C28">
+        <v>1.188177668552953</v>
+      </c>
+      <c r="D28">
+        <v>2022839.040431271</v>
+      </c>
+      <c r="E28">
+        <v>264.8214341421414</v>
+      </c>
+      <c r="F28">
+        <v>0.01892148031984913</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2">
+        <v>36043.16666666666</v>
+      </c>
+      <c r="B29">
+        <v>0.03603881278538813</v>
+      </c>
+      <c r="C29">
+        <v>0.3836285020149717</v>
+      </c>
+      <c r="D29">
+        <v>2022365.918571437</v>
+      </c>
+      <c r="E29">
+        <v>266.0096118106943</v>
+      </c>
+      <c r="F29">
+        <v>0.02423430712529973</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -576,7 +3856,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -606,6 +3886,146 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>36072.33333333334</v>
+      </c>
+      <c r="B2">
+        <v>0.03607876712328768</v>
+      </c>
+      <c r="C2">
+        <v>-1.368947118479127</v>
+      </c>
+      <c r="D2">
+        <v>2003611.532526893</v>
+      </c>
+      <c r="E2">
+        <v>266.3932403127093</v>
+      </c>
+      <c r="F2">
+        <v>0.02386751404322501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>36101.5</v>
+      </c>
+      <c r="B3">
+        <v>0.048</v>
+      </c>
+      <c r="C3">
+        <v>0.1183895357487472</v>
+      </c>
+      <c r="D3">
+        <v>2017787.074722233</v>
+      </c>
+      <c r="E3">
+        <v>265.0242931942302</v>
+      </c>
+      <c r="F3">
+        <v>0.01927210135782396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>36130.66666666666</v>
+      </c>
+      <c r="B4">
+        <v>0.048</v>
+      </c>
+      <c r="C4">
+        <v>0.2980853472283798</v>
+      </c>
+      <c r="D4">
+        <v>2048525.011746518</v>
+      </c>
+      <c r="E4">
+        <v>265.1426827299789</v>
+      </c>
+      <c r="F4">
+        <v>0.02324736266283417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>36159.83333333334</v>
+      </c>
+      <c r="B5">
+        <v>0.048</v>
+      </c>
+      <c r="C5">
+        <v>-0.2501804222911233</v>
+      </c>
+      <c r="D5">
+        <v>2048525.011746518</v>
+      </c>
+      <c r="E5">
+        <v>265.4407680772073</v>
+      </c>
+      <c r="F5">
+        <v>0.02459350977424321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>36189</v>
+      </c>
+      <c r="B6">
+        <v>0.048</v>
+      </c>
+      <c r="C6">
+        <v>-0.3378621264603225</v>
+      </c>
+      <c r="D6">
+        <v>2010114.698519513</v>
+      </c>
+      <c r="E6">
+        <v>265.1905876549162</v>
+      </c>
+      <c r="F6">
+        <v>0.01916428475221665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>36218.16666666666</v>
+      </c>
+      <c r="B7">
+        <v>0.048</v>
+      </c>
+      <c r="C7">
+        <v>-0.1344163229821334</v>
+      </c>
+      <c r="D7">
+        <v>2001634.76065575</v>
+      </c>
+      <c r="E7">
+        <v>264.8527255284558</v>
+      </c>
+      <c r="F7">
+        <v>0.01668931416944227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>36247.33333333334</v>
+      </c>
+      <c r="B8">
+        <v>0.048</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1989739.00489796</v>
+      </c>
+      <c r="E8">
+        <v>264.7183092054737</v>
+      </c>
+      <c r="F8">
+        <v>0.01475075476084684</v>
       </c>
     </row>
   </sheetData>

--- a/FACModel/Modelled RIHT2.xlsx
+++ b/FACModel/Modelled RIHT2.xlsx
@@ -446,10 +446,10 @@
         <v>2040786</v>
       </c>
       <c r="E2">
-        <v>261.8479215206169</v>
+        <v>261.8323033063213</v>
       </c>
       <c r="F2">
-        <v>0.01094129071127611</v>
+        <v>0.01087100359612432</v>
       </c>
     </row>
   </sheetData>

--- a/FACModel/Modelled RIHT2.xlsx
+++ b/FACModel/Modelled RIHT2.xlsx
@@ -446,10 +446,10 @@
         <v>2040786</v>
       </c>
       <c r="E2">
-        <v>261.8323033063213</v>
+        <v>261.9205476730947</v>
       </c>
       <c r="F2">
-        <v>0.01087100359612432</v>
+        <v>0.01126813234922662</v>
       </c>
     </row>
   </sheetData>

--- a/FACModel/Modelled RIHT2.xlsx
+++ b/FACModel/Modelled RIHT2.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,16 +440,2396 @@
         <v>0.03</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.07749039967859517</v>
       </c>
       <c r="D2">
         <v>2040786</v>
       </c>
       <c r="E2">
-        <v>261.9205476730947</v>
+        <v>261.7076127668706</v>
       </c>
       <c r="F2">
-        <v>0.01126813234922662</v>
+        <v>0.01030985504618024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>30428</v>
+      </c>
+      <c r="B3">
+        <v>0.03009589041095891</v>
+      </c>
+      <c r="C3">
+        <v>0.02287834049036519</v>
+      </c>
+      <c r="D3">
+        <v>2040786</v>
+      </c>
+      <c r="E3">
+        <v>261.7851031665492</v>
+      </c>
+      <c r="F3">
+        <v>0.01065858740074234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>30442</v>
+      </c>
+      <c r="B4">
+        <v>0.03019178082191781</v>
+      </c>
+      <c r="C4">
+        <v>-0.4176146040509821</v>
+      </c>
+      <c r="D4">
+        <v>2040786</v>
+      </c>
+      <c r="E4">
+        <v>261.8079815070396</v>
+      </c>
+      <c r="F4">
+        <v>0.01076154747812957</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>30484</v>
+      </c>
+      <c r="B5">
+        <v>0.04509589041095891</v>
+      </c>
+      <c r="C5">
+        <v>0.1399368140845354</v>
+      </c>
+      <c r="D5">
+        <v>2040786</v>
+      </c>
+      <c r="E5">
+        <v>262.3956875110663</v>
+      </c>
+      <c r="F5">
+        <v>0.01340641831922221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>30498</v>
+      </c>
+      <c r="B6">
+        <v>0.04519178082191781</v>
+      </c>
+      <c r="C6">
+        <v>0.0306590311116679</v>
+      </c>
+      <c r="D6">
+        <v>2040786</v>
+      </c>
+      <c r="E6">
+        <v>262.5356243251508</v>
+      </c>
+      <c r="F6">
+        <v>0.01403618013317644</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>30512</v>
+      </c>
+      <c r="B7">
+        <v>0.04528767123287672</v>
+      </c>
+      <c r="C7">
+        <v>0.0264395425310795</v>
+      </c>
+      <c r="D7">
+        <v>2040786</v>
+      </c>
+      <c r="E7">
+        <v>262.5662833562625</v>
+      </c>
+      <c r="F7">
+        <v>0.01417415588439859</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>30526</v>
+      </c>
+      <c r="B8">
+        <v>0.04538356164383563</v>
+      </c>
+      <c r="C8">
+        <v>0.0262321497020821</v>
+      </c>
+      <c r="D8">
+        <v>2040786</v>
+      </c>
+      <c r="E8">
+        <v>262.5927228987936</v>
+      </c>
+      <c r="F8">
+        <v>0.01429314254543863</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>30540</v>
+      </c>
+      <c r="B9">
+        <v>0.04547945205479453</v>
+      </c>
+      <c r="C9">
+        <v>0.02650930013919606</v>
+      </c>
+      <c r="D9">
+        <v>2040786</v>
+      </c>
+      <c r="E9">
+        <v>262.6189550484956</v>
+      </c>
+      <c r="F9">
+        <v>0.01441119587035089</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>30554</v>
+      </c>
+      <c r="B10">
+        <v>0.04557534246575344</v>
+      </c>
+      <c r="C10">
+        <v>0.02654021448825006</v>
+      </c>
+      <c r="D10">
+        <v>2040786</v>
+      </c>
+      <c r="E10">
+        <v>262.6454643486348</v>
+      </c>
+      <c r="F10">
+        <v>0.01453049646363311</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>30568</v>
+      </c>
+      <c r="B11">
+        <v>0.04567123287671235</v>
+      </c>
+      <c r="C11">
+        <v>0.02638543851810482</v>
+      </c>
+      <c r="D11">
+        <v>2040786</v>
+      </c>
+      <c r="E11">
+        <v>262.6720045631231</v>
+      </c>
+      <c r="F11">
+        <v>0.01464993618168158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>30582</v>
+      </c>
+      <c r="B12">
+        <v>0.04576712328767125</v>
+      </c>
+      <c r="C12">
+        <v>0.02664879145959276</v>
+      </c>
+      <c r="D12">
+        <v>2040786</v>
+      </c>
+      <c r="E12">
+        <v>262.6983900016412</v>
+      </c>
+      <c r="F12">
+        <v>0.01476867935681976</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>30596</v>
+      </c>
+      <c r="B13">
+        <v>0.04586301369863016</v>
+      </c>
+      <c r="C13">
+        <v>0.02678347455878338</v>
+      </c>
+      <c r="D13">
+        <v>2040786</v>
+      </c>
+      <c r="E13">
+        <v>262.7250387931008</v>
+      </c>
+      <c r="F13">
+        <v>0.01488860770704761</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>30610</v>
+      </c>
+      <c r="B14">
+        <v>0.04595890410958907</v>
+      </c>
+      <c r="C14">
+        <v>0.02648865239348197</v>
+      </c>
+      <c r="D14">
+        <v>2040786</v>
+      </c>
+      <c r="E14">
+        <v>262.7518222676596</v>
+      </c>
+      <c r="F14">
+        <v>0.01500914217563955</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
+        <v>30624</v>
+      </c>
+      <c r="B15">
+        <v>0.04605479452054798</v>
+      </c>
+      <c r="C15">
+        <v>0.02669684004058581</v>
+      </c>
+      <c r="D15">
+        <v>2040786</v>
+      </c>
+      <c r="E15">
+        <v>262.7783109200531</v>
+      </c>
+      <c r="F15">
+        <v>0.01512834984725656</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
+        <v>30638</v>
+      </c>
+      <c r="B16">
+        <v>0.04615068493150688</v>
+      </c>
+      <c r="C16">
+        <v>0.02670642653458799</v>
+      </c>
+      <c r="D16">
+        <v>2040786</v>
+      </c>
+      <c r="E16">
+        <v>262.8050077600936</v>
+      </c>
+      <c r="F16">
+        <v>0.015248494431945</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
+        <v>30652</v>
+      </c>
+      <c r="B17">
+        <v>0.04624657534246579</v>
+      </c>
+      <c r="C17">
+        <v>0.02654296938692369</v>
+      </c>
+      <c r="D17">
+        <v>2040786</v>
+      </c>
+      <c r="E17">
+        <v>262.8317141866282</v>
+      </c>
+      <c r="F17">
+        <v>0.01536868215901787</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
+        <v>30666</v>
+      </c>
+      <c r="B18">
+        <v>0.0463424657534247</v>
+      </c>
+      <c r="C18">
+        <v>0.02678525463795722</v>
+      </c>
+      <c r="D18">
+        <v>2040786</v>
+      </c>
+      <c r="E18">
+        <v>262.8582571560152</v>
+      </c>
+      <c r="F18">
+        <v>0.01548813427501898</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2">
+        <v>30680</v>
+      </c>
+      <c r="B19">
+        <v>0.0464383561643836</v>
+      </c>
+      <c r="C19">
+        <v>0.02660688873982053</v>
+      </c>
+      <c r="D19">
+        <v>2040786</v>
+      </c>
+      <c r="E19">
+        <v>262.8850424106531</v>
+      </c>
+      <c r="F19">
+        <v>0.01560867675455419</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2">
+        <v>30694</v>
+      </c>
+      <c r="B20">
+        <v>0.04653424657534251</v>
+      </c>
+      <c r="C20">
+        <v>0.02663296396087844</v>
+      </c>
+      <c r="D20">
+        <v>2040786</v>
+      </c>
+      <c r="E20">
+        <v>262.9116492993929</v>
+      </c>
+      <c r="F20">
+        <v>0.01572841652872372</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2">
+        <v>30708</v>
+      </c>
+      <c r="B21">
+        <v>0.04663013698630142</v>
+      </c>
+      <c r="C21">
+        <v>0.0268548437438767</v>
+      </c>
+      <c r="D21">
+        <v>2040786</v>
+      </c>
+      <c r="E21">
+        <v>262.9382822633538</v>
+      </c>
+      <c r="F21">
+        <v>0.0158482736499872</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2">
+        <v>30722</v>
+      </c>
+      <c r="B22">
+        <v>0.04672602739726033</v>
+      </c>
+      <c r="C22">
+        <v>0.02684892987520016</v>
+      </c>
+      <c r="D22">
+        <v>2040786</v>
+      </c>
+      <c r="E22">
+        <v>262.9651371070977</v>
+      </c>
+      <c r="F22">
+        <v>0.01596912930344937</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2">
+        <v>30736</v>
+      </c>
+      <c r="B23">
+        <v>0.04682191780821923</v>
+      </c>
+      <c r="C23">
+        <v>0.02687982469296912</v>
+      </c>
+      <c r="D23">
+        <v>2040786</v>
+      </c>
+      <c r="E23">
+        <v>262.9919860369729</v>
+      </c>
+      <c r="F23">
+        <v>0.01608995834255221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2">
+        <v>30750</v>
+      </c>
+      <c r="B24">
+        <v>0.04691780821917814</v>
+      </c>
+      <c r="C24">
+        <v>0.02692562330412329</v>
+      </c>
+      <c r="D24">
+        <v>2040786</v>
+      </c>
+      <c r="E24">
+        <v>263.0188658616659</v>
+      </c>
+      <c r="F24">
+        <v>0.01621092641852381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2">
+        <v>30764</v>
+      </c>
+      <c r="B25">
+        <v>0.04701369863013705</v>
+      </c>
+      <c r="C25">
+        <v>0.02689995546961654</v>
+      </c>
+      <c r="D25">
+        <v>2040786</v>
+      </c>
+      <c r="E25">
+        <v>263.04579148497</v>
+      </c>
+      <c r="F25">
+        <v>0.01633210060334986</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2">
+        <v>30778</v>
+      </c>
+      <c r="B26">
+        <v>0.04710958904109595</v>
+      </c>
+      <c r="C26">
+        <v>0.01968723727486577</v>
+      </c>
+      <c r="D26">
+        <v>2040786</v>
+      </c>
+      <c r="E26">
+        <v>263.0726914404396</v>
+      </c>
+      <c r="F26">
+        <v>0.01645315927445551</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2">
+        <v>30834</v>
+      </c>
+      <c r="B27">
+        <v>0.05259589041095891</v>
+      </c>
+      <c r="C27">
+        <v>0.2346528189290211</v>
+      </c>
+      <c r="D27">
+        <v>2040786</v>
+      </c>
+      <c r="E27">
+        <v>263.1456593444533</v>
+      </c>
+      <c r="F27">
+        <v>0.01678153890702563</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2">
+        <v>30848</v>
+      </c>
+      <c r="B28">
+        <v>0.05269178082191781</v>
+      </c>
+      <c r="C28">
+        <v>0.03664500749152921</v>
+      </c>
+      <c r="D28">
+        <v>2040786</v>
+      </c>
+      <c r="E28">
+        <v>263.3803121633823</v>
+      </c>
+      <c r="F28">
+        <v>0.0178375539797206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2">
+        <v>30862</v>
+      </c>
+      <c r="B29">
+        <v>0.05278767123287672</v>
+      </c>
+      <c r="C29">
+        <v>0.02752598042104637</v>
+      </c>
+      <c r="D29">
+        <v>2040786</v>
+      </c>
+      <c r="E29">
+        <v>263.4169571708738</v>
+      </c>
+      <c r="F29">
+        <v>0.01800246859880208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2">
+        <v>30876</v>
+      </c>
+      <c r="B30">
+        <v>0.05288356164383563</v>
+      </c>
+      <c r="C30">
+        <v>0.0269397654782324</v>
+      </c>
+      <c r="D30">
+        <v>2040786</v>
+      </c>
+      <c r="E30">
+        <v>263.4444831512949</v>
+      </c>
+      <c r="F30">
+        <v>0.01812634458864956</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2">
+        <v>30890</v>
+      </c>
+      <c r="B31">
+        <v>0.05297945205479453</v>
+      </c>
+      <c r="C31">
+        <v>0.02667140201651819</v>
+      </c>
+      <c r="D31">
+        <v>2040786</v>
+      </c>
+      <c r="E31">
+        <v>263.4714229167731</v>
+      </c>
+      <c r="F31">
+        <v>0.01824758241792318</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2">
+        <v>30904</v>
+      </c>
+      <c r="B32">
+        <v>0.05307534246575344</v>
+      </c>
+      <c r="C32">
+        <v>0.02723602255878177</v>
+      </c>
+      <c r="D32">
+        <v>2040786</v>
+      </c>
+      <c r="E32">
+        <v>263.4980943187896</v>
+      </c>
+      <c r="F32">
+        <v>0.01836761252311383</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2">
+        <v>30918</v>
+      </c>
+      <c r="B33">
+        <v>0.05317123287671235</v>
+      </c>
+      <c r="C33">
+        <v>0.02729309679659764</v>
+      </c>
+      <c r="D33">
+        <v>2040786</v>
+      </c>
+      <c r="E33">
+        <v>263.5253303413484</v>
+      </c>
+      <c r="F33">
+        <v>0.01849018360695425</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2">
+        <v>30932</v>
+      </c>
+      <c r="B34">
+        <v>0.05326712328767125</v>
+      </c>
+      <c r="C34">
+        <v>0.02707463666808962</v>
+      </c>
+      <c r="D34">
+        <v>2040786</v>
+      </c>
+      <c r="E34">
+        <v>263.552623438145</v>
+      </c>
+      <c r="F34">
+        <v>0.0186130115436877</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2">
+        <v>30946</v>
+      </c>
+      <c r="B35">
+        <v>0.05336301369863016</v>
+      </c>
+      <c r="C35">
+        <v>0.02730753228138383</v>
+      </c>
+      <c r="D35">
+        <v>2040786</v>
+      </c>
+      <c r="E35">
+        <v>263.5796980748131</v>
+      </c>
+      <c r="F35">
+        <v>0.01873485633779564</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2">
+        <v>30960</v>
+      </c>
+      <c r="B36">
+        <v>0.05345890410958907</v>
+      </c>
+      <c r="C36">
+        <v>0.0272650846632132</v>
+      </c>
+      <c r="D36">
+        <v>2040786</v>
+      </c>
+      <c r="E36">
+        <v>263.6070056070945</v>
+      </c>
+      <c r="F36">
+        <v>0.01885774923897134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2">
+        <v>30974</v>
+      </c>
+      <c r="B37">
+        <v>0.05355479452054798</v>
+      </c>
+      <c r="C37">
+        <v>0.02725579289631241</v>
+      </c>
+      <c r="D37">
+        <v>2040786</v>
+      </c>
+      <c r="E37">
+        <v>263.6342706917577</v>
+      </c>
+      <c r="F37">
+        <v>0.01898045111186623</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2">
+        <v>30988</v>
+      </c>
+      <c r="B38">
+        <v>0.05365068493150688</v>
+      </c>
+      <c r="C38">
+        <v>0.02736708673955945</v>
+      </c>
+      <c r="D38">
+        <v>2040786</v>
+      </c>
+      <c r="E38">
+        <v>263.661526484654</v>
+      </c>
+      <c r="F38">
+        <v>0.0191031111687456</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2">
+        <v>31002</v>
+      </c>
+      <c r="B39">
+        <v>0.05374657534246579</v>
+      </c>
+      <c r="C39">
+        <v>0.02753254161552832</v>
+      </c>
+      <c r="D39">
+        <v>2040786</v>
+      </c>
+      <c r="E39">
+        <v>263.6888935713936</v>
+      </c>
+      <c r="F39">
+        <v>0.01922627208462403</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2">
+        <v>31016</v>
+      </c>
+      <c r="B40">
+        <v>0.0538424657534247</v>
+      </c>
+      <c r="C40">
+        <v>0.02731956721640927</v>
+      </c>
+      <c r="D40">
+        <v>2040786</v>
+      </c>
+      <c r="E40">
+        <v>263.7164261130091</v>
+      </c>
+      <c r="F40">
+        <v>0.0193501776020105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2">
+        <v>31030</v>
+      </c>
+      <c r="B41">
+        <v>0.0539383561643836</v>
+      </c>
+      <c r="C41">
+        <v>0.02759610138036805</v>
+      </c>
+      <c r="D41">
+        <v>2040786</v>
+      </c>
+      <c r="E41">
+        <v>263.7437456802255</v>
+      </c>
+      <c r="F41">
+        <v>0.01947312466436293</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2">
+        <v>31044</v>
+      </c>
+      <c r="B42">
+        <v>0.05403424657534251</v>
+      </c>
+      <c r="C42">
+        <v>0.02765896824496394</v>
+      </c>
+      <c r="D42">
+        <v>2040786</v>
+      </c>
+      <c r="E42">
+        <v>263.7713417816059</v>
+      </c>
+      <c r="F42">
+        <v>0.01959731622165297</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2">
+        <v>31058</v>
+      </c>
+      <c r="B43">
+        <v>0.05413013698630142</v>
+      </c>
+      <c r="C43">
+        <v>0.02747118524700909</v>
+      </c>
+      <c r="D43">
+        <v>2040786</v>
+      </c>
+      <c r="E43">
+        <v>263.7990007498508</v>
+      </c>
+      <c r="F43">
+        <v>0.01972179070056689</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2">
+        <v>31072</v>
+      </c>
+      <c r="B44">
+        <v>0.05422602739726032</v>
+      </c>
+      <c r="C44">
+        <v>0.02765023498602659</v>
+      </c>
+      <c r="D44">
+        <v>2040786</v>
+      </c>
+      <c r="E44">
+        <v>263.8264719350979</v>
+      </c>
+      <c r="F44">
+        <v>0.01984542009405986</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2">
+        <v>31086</v>
+      </c>
+      <c r="B45">
+        <v>0.05432191780821923</v>
+      </c>
+      <c r="C45">
+        <v>0.02769193048584384</v>
+      </c>
+      <c r="D45">
+        <v>2040786</v>
+      </c>
+      <c r="E45">
+        <v>263.8541221700839</v>
+      </c>
+      <c r="F45">
+        <v>0.01996985527042838</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2">
+        <v>31100</v>
+      </c>
+      <c r="B46">
+        <v>0.05441780821917814</v>
+      </c>
+      <c r="C46">
+        <v>0.02763877980908092</v>
+      </c>
+      <c r="D46">
+        <v>2040786</v>
+      </c>
+      <c r="E46">
+        <v>263.8818141005697</v>
+      </c>
+      <c r="F46">
+        <v>0.02009447809029712</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2">
+        <v>31114</v>
+      </c>
+      <c r="B47">
+        <v>0.05451369863013705</v>
+      </c>
+      <c r="C47">
+        <v>0.02768265210193022</v>
+      </c>
+      <c r="D47">
+        <v>2040786</v>
+      </c>
+      <c r="E47">
+        <v>263.9094528803788</v>
+      </c>
+      <c r="F47">
+        <v>0.02021886171459163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2">
+        <v>31128</v>
+      </c>
+      <c r="B48">
+        <v>0.05460958904109595</v>
+      </c>
+      <c r="C48">
+        <v>0.02769257210661635</v>
+      </c>
+      <c r="D48">
+        <v>2040786</v>
+      </c>
+      <c r="E48">
+        <v>263.9371355324807</v>
+      </c>
+      <c r="F48">
+        <v>0.02034344277867261</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2">
+        <v>31142</v>
+      </c>
+      <c r="B49">
+        <v>0.05470547945205486</v>
+      </c>
+      <c r="C49">
+        <v>0.02754907045834898</v>
+      </c>
+      <c r="D49">
+        <v>2040786</v>
+      </c>
+      <c r="E49">
+        <v>263.9648281045874</v>
+      </c>
+      <c r="F49">
+        <v>0.0204680684860465</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2">
+        <v>31156</v>
+      </c>
+      <c r="B50">
+        <v>0.05480136986301377</v>
+      </c>
+      <c r="C50">
+        <v>0.02773038060286126</v>
+      </c>
+      <c r="D50">
+        <v>2040786</v>
+      </c>
+      <c r="E50">
+        <v>263.9923771750457</v>
+      </c>
+      <c r="F50">
+        <v>0.02059204838867675</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2">
+        <v>31170</v>
+      </c>
+      <c r="B51">
+        <v>0.05489726027397267</v>
+      </c>
+      <c r="C51">
+        <v>0.02777544926436804</v>
+      </c>
+      <c r="D51">
+        <v>2040786</v>
+      </c>
+      <c r="E51">
+        <v>264.0201075556486</v>
+      </c>
+      <c r="F51">
+        <v>0.02071684424675272</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2">
+        <v>31184</v>
+      </c>
+      <c r="B52">
+        <v>0.05499315068493158</v>
+      </c>
+      <c r="C52">
+        <v>0.02779655368340173</v>
+      </c>
+      <c r="D52">
+        <v>2040786</v>
+      </c>
+      <c r="E52">
+        <v>264.0478830049129</v>
+      </c>
+      <c r="F52">
+        <v>0.02084184292866897</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2">
+        <v>31198</v>
+      </c>
+      <c r="B53">
+        <v>0.05508904109589049</v>
+      </c>
+      <c r="C53">
+        <v>0.02782261885897697</v>
+      </c>
+      <c r="D53">
+        <v>2040786</v>
+      </c>
+      <c r="E53">
+        <v>264.0756795585963</v>
+      </c>
+      <c r="F53">
+        <v>0.02096693658743095</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2">
+        <v>31212</v>
+      </c>
+      <c r="B54">
+        <v>0.0551849315068494</v>
+      </c>
+      <c r="C54">
+        <v>0.02784223775813643</v>
+      </c>
+      <c r="D54">
+        <v>2040786</v>
+      </c>
+      <c r="E54">
+        <v>264.1035021774553</v>
+      </c>
+      <c r="F54">
+        <v>0.02109214754807925</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2">
+        <v>31226</v>
+      </c>
+      <c r="B55">
+        <v>0.0552808219178083</v>
+      </c>
+      <c r="C55">
+        <v>0.02788563969113511</v>
+      </c>
+      <c r="D55">
+        <v>2040786</v>
+      </c>
+      <c r="E55">
+        <v>264.1313444152134</v>
+      </c>
+      <c r="F55">
+        <v>0.02121744680024391</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2">
+        <v>31240</v>
+      </c>
+      <c r="B56">
+        <v>0.05537671232876721</v>
+      </c>
+      <c r="C56">
+        <v>0.02792321969889144</v>
+      </c>
+      <c r="D56">
+        <v>2040786</v>
+      </c>
+      <c r="E56">
+        <v>264.1592300549046</v>
+      </c>
+      <c r="F56">
+        <v>0.02134294137542091</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="2">
+        <v>31254</v>
+      </c>
+      <c r="B57">
+        <v>0.05547260273972612</v>
+      </c>
+      <c r="C57">
+        <v>0.02794011217520165</v>
+      </c>
+      <c r="D57">
+        <v>2040786</v>
+      </c>
+      <c r="E57">
+        <v>264.1871532746035</v>
+      </c>
+      <c r="F57">
+        <v>0.02146860507302662</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="2">
+        <v>31268</v>
+      </c>
+      <c r="B58">
+        <v>0.05556849315068502</v>
+      </c>
+      <c r="C58">
+        <v>0.02794795387171689</v>
+      </c>
+      <c r="D58">
+        <v>2040786</v>
+      </c>
+      <c r="E58">
+        <v>264.2150933867787</v>
+      </c>
+      <c r="F58">
+        <v>0.02159434479234675</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="2">
+        <v>31282</v>
+      </c>
+      <c r="B59">
+        <v>0.05566438356164393</v>
+      </c>
+      <c r="C59">
+        <v>0.02827932428135682</v>
+      </c>
+      <c r="D59">
+        <v>2040786</v>
+      </c>
+      <c r="E59">
+        <v>264.2430413406504</v>
+      </c>
+      <c r="F59">
+        <v>0.0217201198018873</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="2">
+        <v>31296</v>
+      </c>
+      <c r="B60">
+        <v>0.05576027397260284</v>
+      </c>
+      <c r="C60">
+        <v>0.02802049400065698</v>
+      </c>
+      <c r="D60">
+        <v>2040786</v>
+      </c>
+      <c r="E60">
+        <v>264.2713206649317</v>
+      </c>
+      <c r="F60">
+        <v>0.02184738608755576</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="2">
+        <v>31310</v>
+      </c>
+      <c r="B61">
+        <v>0.05585616438356174</v>
+      </c>
+      <c r="C61">
+        <v>0.02804832332424212</v>
+      </c>
+      <c r="D61">
+        <v>2040786</v>
+      </c>
+      <c r="E61">
+        <v>264.2993411589324</v>
+      </c>
+      <c r="F61">
+        <v>0.02197348755160002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="2">
+        <v>31324</v>
+      </c>
+      <c r="B62">
+        <v>0.05595205479452065</v>
+      </c>
+      <c r="C62">
+        <v>0.02807840955472329</v>
+      </c>
+      <c r="D62">
+        <v>2040786</v>
+      </c>
+      <c r="E62">
+        <v>264.3273894822566</v>
+      </c>
+      <c r="F62">
+        <v>0.02209971425677829</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="2">
+        <v>31338</v>
+      </c>
+      <c r="B63">
+        <v>0.05604794520547956</v>
+      </c>
+      <c r="C63">
+        <v>0.02809613311569592</v>
+      </c>
+      <c r="D63">
+        <v>2040786</v>
+      </c>
+      <c r="E63">
+        <v>264.3554678918114</v>
+      </c>
+      <c r="F63">
+        <v>0.02222607635991622</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="2">
+        <v>31352</v>
+      </c>
+      <c r="B64">
+        <v>0.05614383561643847</v>
+      </c>
+      <c r="C64">
+        <v>0.02821534052714014</v>
+      </c>
+      <c r="D64">
+        <v>2040786</v>
+      </c>
+      <c r="E64">
+        <v>264.3835640249271</v>
+      </c>
+      <c r="F64">
+        <v>0.02235251822492351</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="2">
+        <v>31366</v>
+      </c>
+      <c r="B65">
+        <v>0.05623972602739737</v>
+      </c>
+      <c r="C65">
+        <v>0.02815485150563291</v>
+      </c>
+      <c r="D65">
+        <v>2040786</v>
+      </c>
+      <c r="E65">
+        <v>264.4117793654542</v>
+      </c>
+      <c r="F65">
+        <v>0.02247949656259647</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="2">
+        <v>31380</v>
+      </c>
+      <c r="B66">
+        <v>0.05633561643835628</v>
+      </c>
+      <c r="C66">
+        <v>0.02819812880511563</v>
+      </c>
+      <c r="D66">
+        <v>2040786</v>
+      </c>
+      <c r="E66">
+        <v>264.4399342169598</v>
+      </c>
+      <c r="F66">
+        <v>0.02260620267972364</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="2">
+        <v>31394</v>
+      </c>
+      <c r="B67">
+        <v>0.05643150684931519</v>
+      </c>
+      <c r="C67">
+        <v>0.02832087970591601</v>
+      </c>
+      <c r="D67">
+        <v>2040786</v>
+      </c>
+      <c r="E67">
+        <v>264.468132345765</v>
+      </c>
+      <c r="F67">
+        <v>0.02273310355897108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="2">
+        <v>31408</v>
+      </c>
+      <c r="B68">
+        <v>0.05652739726027409</v>
+      </c>
+      <c r="C68">
+        <v>0.02822196750798867</v>
+      </c>
+      <c r="D68">
+        <v>2040786</v>
+      </c>
+      <c r="E68">
+        <v>264.4964532254709</v>
+      </c>
+      <c r="F68">
+        <v>0.02286055685775493</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="2">
+        <v>31422</v>
+      </c>
+      <c r="B69">
+        <v>0.056623287671233</v>
+      </c>
+      <c r="C69">
+        <v>0.02827817194463478</v>
+      </c>
+      <c r="D69">
+        <v>2040786</v>
+      </c>
+      <c r="E69">
+        <v>264.5246751929789</v>
+      </c>
+      <c r="F69">
+        <v>0.02298756501902731</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="2">
+        <v>31436</v>
+      </c>
+      <c r="B70">
+        <v>0.05671917808219191</v>
+      </c>
+      <c r="C70">
+        <v>0.028376200243315</v>
+      </c>
+      <c r="D70">
+        <v>2040786</v>
+      </c>
+      <c r="E70">
+        <v>264.5529533649235</v>
+      </c>
+      <c r="F70">
+        <v>0.02311482611880048</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="2">
+        <v>31450</v>
+      </c>
+      <c r="B71">
+        <v>0.05681506849315082</v>
+      </c>
+      <c r="C71">
+        <v>0.02831610923954031</v>
+      </c>
+      <c r="D71">
+        <v>2040786</v>
+      </c>
+      <c r="E71">
+        <v>264.5813295651668</v>
+      </c>
+      <c r="F71">
+        <v>0.02324252837824729</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="2">
+        <v>31464</v>
+      </c>
+      <c r="B72">
+        <v>0.05691095890410972</v>
+      </c>
+      <c r="C72">
+        <v>0.02831156005481716</v>
+      </c>
+      <c r="D72">
+        <v>2040786</v>
+      </c>
+      <c r="E72">
+        <v>264.6096456744064</v>
+      </c>
+      <c r="F72">
+        <v>0.02336996020835897</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="2">
+        <v>31478</v>
+      </c>
+      <c r="B73">
+        <v>0.05700684931506863</v>
+      </c>
+      <c r="C73">
+        <v>0.02832187709122991</v>
+      </c>
+      <c r="D73">
+        <v>2040786</v>
+      </c>
+      <c r="E73">
+        <v>264.6379572344612</v>
+      </c>
+      <c r="F73">
+        <v>0.02349737156563934</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="2">
+        <v>31492</v>
+      </c>
+      <c r="B74">
+        <v>0.05710273972602754</v>
+      </c>
+      <c r="C74">
+        <v>0.0283997142176986</v>
+      </c>
+      <c r="D74">
+        <v>2040786</v>
+      </c>
+      <c r="E74">
+        <v>264.6662791115524</v>
+      </c>
+      <c r="F74">
+        <v>0.02362482935298605</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="2">
+        <v>31506</v>
+      </c>
+      <c r="B75">
+        <v>0.05719863013698644</v>
+      </c>
+      <c r="C75">
+        <v>0.02851154051847971</v>
+      </c>
+      <c r="D75">
+        <v>2040786</v>
+      </c>
+      <c r="E75">
+        <v>264.6946788257701</v>
+      </c>
+      <c r="F75">
+        <v>0.02375263743307219</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="2">
+        <v>31520</v>
+      </c>
+      <c r="B76">
+        <v>0.05729452054794535</v>
+      </c>
+      <c r="C76">
+        <v>-1.227182341664502</v>
+      </c>
+      <c r="D76">
+        <v>2040786</v>
+      </c>
+      <c r="E76">
+        <v>264.7231903662886</v>
+      </c>
+      <c r="F76">
+        <v>0.02388094876839179</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="2">
+        <v>31562</v>
+      </c>
+      <c r="B77">
+        <v>0.05739041095890426</v>
+      </c>
+      <c r="C77">
+        <v>0.3118060078336384</v>
+      </c>
+      <c r="D77">
+        <v>2040786</v>
+      </c>
+      <c r="E77">
+        <v>264.4539178009762</v>
+      </c>
+      <c r="F77">
+        <v>0.02266913341952475</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="2">
+        <v>31576</v>
+      </c>
+      <c r="B78">
+        <v>0.05748630136986316</v>
+      </c>
+      <c r="C78">
+        <v>0.04520148219410203</v>
+      </c>
+      <c r="D78">
+        <v>2040786</v>
+      </c>
+      <c r="E78">
+        <v>264.7657238088099</v>
+      </c>
+      <c r="F78">
+        <v>0.02407236328708827</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="2">
+        <v>31590</v>
+      </c>
+      <c r="B79">
+        <v>0.05758219178082207</v>
+      </c>
+      <c r="C79">
+        <v>0.02935236772498229</v>
+      </c>
+      <c r="D79">
+        <v>2040786</v>
+      </c>
+      <c r="E79">
+        <v>264.810925291004</v>
+      </c>
+      <c r="F79">
+        <v>0.02427578486422078</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="2">
+        <v>31604</v>
+      </c>
+      <c r="B80">
+        <v>0.05767808219178098</v>
+      </c>
+      <c r="C80">
+        <v>0.028585429721943</v>
+      </c>
+      <c r="D80">
+        <v>2040786</v>
+      </c>
+      <c r="E80">
+        <v>264.840277658729</v>
+      </c>
+      <c r="F80">
+        <v>0.02440788019927087</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="2">
+        <v>31618</v>
+      </c>
+      <c r="B81">
+        <v>0.05777397260273989</v>
+      </c>
+      <c r="C81">
+        <v>0.02866429002597215</v>
+      </c>
+      <c r="D81">
+        <v>2040786</v>
+      </c>
+      <c r="E81">
+        <v>264.8688630884509</v>
+      </c>
+      <c r="F81">
+        <v>0.02453652406037422</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="2">
+        <v>31632</v>
+      </c>
+      <c r="B82">
+        <v>0.05786986301369879</v>
+      </c>
+      <c r="C82">
+        <v>0.02869512127165308</v>
+      </c>
+      <c r="D82">
+        <v>2040786</v>
+      </c>
+      <c r="E82">
+        <v>264.8975273784769</v>
+      </c>
+      <c r="F82">
+        <v>0.02466552281885364</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="2">
+        <v>31646</v>
+      </c>
+      <c r="B83">
+        <v>0.0579657534246577</v>
+      </c>
+      <c r="C83">
+        <v>0.02864256533621301</v>
+      </c>
+      <c r="D83">
+        <v>2040786</v>
+      </c>
+      <c r="E83">
+        <v>264.9262224997485</v>
+      </c>
+      <c r="F83">
+        <v>0.0247946603281065</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="2">
+        <v>31660</v>
+      </c>
+      <c r="B84">
+        <v>0.05806164383561661</v>
+      </c>
+      <c r="C84">
+        <v>0.02872838471091654</v>
+      </c>
+      <c r="D84">
+        <v>2040786</v>
+      </c>
+      <c r="E84">
+        <v>264.9548650650847</v>
+      </c>
+      <c r="F84">
+        <v>0.02492356131831734</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="2">
+        <v>31674</v>
+      </c>
+      <c r="B85">
+        <v>0.05815753424657551</v>
+      </c>
+      <c r="C85">
+        <v>0.0288275813850305</v>
+      </c>
+      <c r="D85">
+        <v>2040786</v>
+      </c>
+      <c r="E85">
+        <v>264.9835934497956</v>
+      </c>
+      <c r="F85">
+        <v>0.02505284852401705</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="2">
+        <v>31688</v>
+      </c>
+      <c r="B86">
+        <v>0.05825342465753442</v>
+      </c>
+      <c r="C86">
+        <v>0.02882252088306814</v>
+      </c>
+      <c r="D86">
+        <v>2040786</v>
+      </c>
+      <c r="E86">
+        <v>265.0124210311807</v>
+      </c>
+      <c r="F86">
+        <v>0.02518258214746508</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="2">
+        <v>31702</v>
+      </c>
+      <c r="B87">
+        <v>0.05834931506849333</v>
+      </c>
+      <c r="C87">
+        <v>0.02877683200119918</v>
+      </c>
+      <c r="D87">
+        <v>2040786</v>
+      </c>
+      <c r="E87">
+        <v>265.0412435520637</v>
+      </c>
+      <c r="F87">
+        <v>0.02531229299698515</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="2">
+        <v>31716</v>
+      </c>
+      <c r="B88">
+        <v>0.05844520547945223</v>
+      </c>
+      <c r="C88">
+        <v>0.0290467825440146</v>
+      </c>
+      <c r="D88">
+        <v>2040786</v>
+      </c>
+      <c r="E88">
+        <v>265.0700203840649</v>
+      </c>
+      <c r="F88">
+        <v>0.02544179823146896</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="2">
+        <v>31730</v>
+      </c>
+      <c r="B89">
+        <v>0.05854109589041114</v>
+      </c>
+      <c r="C89">
+        <v>0.02930607166081245</v>
+      </c>
+      <c r="D89">
+        <v>2040786</v>
+      </c>
+      <c r="E89">
+        <v>265.099067166609</v>
+      </c>
+      <c r="F89">
+        <v>0.02557251833242399</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="2">
+        <v>31744</v>
+      </c>
+      <c r="B90">
+        <v>0.05863698630137005</v>
+      </c>
+      <c r="C90">
+        <v>0.02927907859361767</v>
+      </c>
+      <c r="D90">
+        <v>2040786</v>
+      </c>
+      <c r="E90">
+        <v>265.1283732382698</v>
+      </c>
+      <c r="F90">
+        <v>0.02570440531991694</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="2">
+        <v>31758</v>
+      </c>
+      <c r="B91">
+        <v>0.05873287671232896</v>
+      </c>
+      <c r="C91">
+        <v>0.02888279172771036</v>
+      </c>
+      <c r="D91">
+        <v>2040786</v>
+      </c>
+      <c r="E91">
+        <v>265.1576523168634</v>
+      </c>
+      <c r="F91">
+        <v>0.02583617082970551</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="2">
+        <v>31772</v>
+      </c>
+      <c r="B92">
+        <v>0.05882876712328786</v>
+      </c>
+      <c r="C92">
+        <v>0.02899852218638443</v>
+      </c>
+      <c r="D92">
+        <v>2040786</v>
+      </c>
+      <c r="E92">
+        <v>265.1865351085911</v>
+      </c>
+      <c r="F92">
+        <v>0.02596615291790361</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="2">
+        <v>31786</v>
+      </c>
+      <c r="B93">
+        <v>0.05892465753424677</v>
+      </c>
+      <c r="C93">
+        <v>0.02904491448089175</v>
+      </c>
+      <c r="D93">
+        <v>2040786</v>
+      </c>
+      <c r="E93">
+        <v>265.2155336307775</v>
+      </c>
+      <c r="F93">
+        <v>0.02609665583133321</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="2">
+        <v>31800</v>
+      </c>
+      <c r="B94">
+        <v>0.05902054794520568</v>
+      </c>
+      <c r="C94">
+        <v>0.02906320872193646</v>
+      </c>
+      <c r="D94">
+        <v>2040786</v>
+      </c>
+      <c r="E94">
+        <v>265.2445785452584</v>
+      </c>
+      <c r="F94">
+        <v>0.02622736752538802</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="2">
+        <v>31814</v>
+      </c>
+      <c r="B95">
+        <v>0.05911643835616458</v>
+      </c>
+      <c r="C95">
+        <v>0.0290720461125602</v>
+      </c>
+      <c r="D95">
+        <v>2040786</v>
+      </c>
+      <c r="E95">
+        <v>265.2736417539803</v>
+      </c>
+      <c r="F95">
+        <v>0.02635816154956102</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="2">
+        <v>31828</v>
+      </c>
+      <c r="B96">
+        <v>0.05921232876712349</v>
+      </c>
+      <c r="C96">
+        <v>-0.4052463606739138</v>
+      </c>
+      <c r="D96">
+        <v>2040786</v>
+      </c>
+      <c r="E96">
+        <v>265.3027138000929</v>
+      </c>
+      <c r="F96">
+        <v>0.02648899534490633</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="2">
+        <v>31842</v>
+      </c>
+      <c r="B97">
+        <v>0.0593082191780824</v>
+      </c>
+      <c r="C97">
+        <v>-0.002919660641282462</v>
+      </c>
+      <c r="D97">
+        <v>2040786</v>
+      </c>
+      <c r="E97">
+        <v>264.897467439419</v>
+      </c>
+      <c r="F97">
+        <v>0.02466525307332547</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="2">
+        <v>31856</v>
+      </c>
+      <c r="B98">
+        <v>0.05940410958904131</v>
+      </c>
+      <c r="C98">
+        <v>0.02177480038096746</v>
+      </c>
+      <c r="D98">
+        <v>2040786</v>
+      </c>
+      <c r="E98">
+        <v>264.8945477787777</v>
+      </c>
+      <c r="F98">
+        <v>0.02465211363754774</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="2">
+        <v>31870</v>
+      </c>
+      <c r="B99">
+        <v>0.05950000000000021</v>
+      </c>
+      <c r="C99">
+        <v>0.02331558262108047</v>
+      </c>
+      <c r="D99">
+        <v>2040786</v>
+      </c>
+      <c r="E99">
+        <v>264.9163225791586</v>
+      </c>
+      <c r="F99">
+        <v>0.02475010742049994</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="2">
+        <v>31884</v>
+      </c>
+      <c r="B100">
+        <v>0.05959589041095912</v>
+      </c>
+      <c r="C100">
+        <v>-1.298417403719441</v>
+      </c>
+      <c r="D100">
+        <v>2040786</v>
+      </c>
+      <c r="E100">
+        <v>264.9396381617797</v>
+      </c>
+      <c r="F100">
+        <v>0.02485503523167604</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="2">
+        <v>31926</v>
+      </c>
+      <c r="B101">
+        <v>0.05969178082191803</v>
+      </c>
+      <c r="C101">
+        <v>0.3262307177348021</v>
+      </c>
+      <c r="D101">
+        <v>2040786</v>
+      </c>
+      <c r="E101">
+        <v>264.637813098867</v>
+      </c>
+      <c r="F101">
+        <v>0.0234967229079303</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="2">
+        <v>31940</v>
+      </c>
+      <c r="B102">
+        <v>0.05978767123287693</v>
+      </c>
+      <c r="C102">
+        <v>0.0378232190566905</v>
+      </c>
+      <c r="D102">
+        <v>2040786</v>
+      </c>
+      <c r="E102">
+        <v>264.9640438166018</v>
+      </c>
+      <c r="F102">
+        <v>0.02496486872725791</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="2">
+        <v>31968</v>
+      </c>
+      <c r="B103">
+        <v>0.05988356164383584</v>
+      </c>
+      <c r="C103">
+        <v>1.265041633093347</v>
+      </c>
+      <c r="D103">
+        <v>2040786</v>
+      </c>
+      <c r="E103">
+        <v>263.6802686867717</v>
+      </c>
+      <c r="F103">
+        <v>0.01918745725937481</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="2">
+        <v>31982</v>
+      </c>
+      <c r="B104">
+        <v>0.05997945205479475</v>
+      </c>
+      <c r="C104">
+        <v>0.09991128557192042</v>
+      </c>
+      <c r="D104">
+        <v>2040786</v>
+      </c>
+      <c r="E104">
+        <v>264.945310319865</v>
+      </c>
+      <c r="F104">
+        <v>0.02488056181371386</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="2">
+        <v>31996</v>
+      </c>
+      <c r="B105">
+        <v>0.06007534246575365</v>
+      </c>
+      <c r="C105">
+        <v>0.02798940100819891</v>
+      </c>
+      <c r="D105">
+        <v>2040786</v>
+      </c>
+      <c r="E105">
+        <v>265.045221605437</v>
+      </c>
+      <c r="F105">
+        <v>0.02533019554910996</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="2">
+        <v>32010</v>
+      </c>
+      <c r="B106">
+        <v>0.06017123287671256</v>
+      </c>
+      <c r="C106">
+        <v>0.0236489151486694</v>
+      </c>
+      <c r="D106">
+        <v>2040786</v>
+      </c>
+      <c r="E106">
+        <v>265.0732110064451</v>
+      </c>
+      <c r="F106">
+        <v>0.02545615708443376</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="2">
+        <v>32024</v>
+      </c>
+      <c r="B107">
+        <v>0.06026712328767147</v>
+      </c>
+      <c r="C107">
+        <v>0.02331463116684063</v>
+      </c>
+      <c r="D107">
+        <v>2040786</v>
+      </c>
+      <c r="E107">
+        <v>265.0968599215938</v>
+      </c>
+      <c r="F107">
+        <v>0.02556258500191579</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="2">
+        <v>32038</v>
+      </c>
+      <c r="B108">
+        <v>0.06036301369863038</v>
+      </c>
+      <c r="C108">
+        <v>0.02350747844445777</v>
+      </c>
+      <c r="D108">
+        <v>2040786</v>
+      </c>
+      <c r="E108">
+        <v>265.1201745527607</v>
+      </c>
+      <c r="F108">
+        <v>0.02566750853123395</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="2">
+        <v>32052</v>
+      </c>
+      <c r="B109">
+        <v>0.06045890410958928</v>
+      </c>
+      <c r="C109">
+        <v>0.0233876253254266</v>
+      </c>
+      <c r="D109">
+        <v>2040786</v>
+      </c>
+      <c r="E109">
+        <v>265.1436820312051</v>
+      </c>
+      <c r="F109">
+        <v>0.02577329993690169</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="2">
+        <v>32066</v>
+      </c>
+      <c r="B110">
+        <v>0.06055479452054819</v>
+      </c>
+      <c r="C110">
+        <v>0.02354306817892393</v>
+      </c>
+      <c r="D110">
+        <v>2040786</v>
+      </c>
+      <c r="E110">
+        <v>265.1670696565305</v>
+      </c>
+      <c r="F110">
+        <v>0.02587855196400681</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="2">
+        <v>32080</v>
+      </c>
+      <c r="B111">
+        <v>0.0606506849315071</v>
+      </c>
+      <c r="C111">
+        <v>0.0234681490329649</v>
+      </c>
+      <c r="D111">
+        <v>2040786</v>
+      </c>
+      <c r="E111">
+        <v>265.1906127247095</v>
+      </c>
+      <c r="F111">
+        <v>0.02598450353521693</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="2">
+        <v>32094</v>
+      </c>
+      <c r="B112">
+        <v>0.060746575342466</v>
+      </c>
+      <c r="C112">
+        <v>0.02355202138414825</v>
+      </c>
+      <c r="D112">
+        <v>2040786</v>
+      </c>
+      <c r="E112">
+        <v>265.2140808737424</v>
+      </c>
+      <c r="F112">
+        <v>0.0260901179455624</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="2">
+        <v>32108</v>
+      </c>
+      <c r="B113">
+        <v>0.06084246575342491</v>
+      </c>
+      <c r="C113">
+        <v>0.0234925458177031</v>
+      </c>
+      <c r="D113">
+        <v>2040786</v>
+      </c>
+      <c r="E113">
+        <v>265.2376328951266</v>
+      </c>
+      <c r="F113">
+        <v>0.02619610980914881</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="2">
+        <v>32122</v>
+      </c>
+      <c r="B114">
+        <v>0.06093835616438382</v>
+      </c>
+      <c r="C114">
+        <v>0.02359308709287689</v>
+      </c>
+      <c r="D114">
+        <v>2040786</v>
+      </c>
+      <c r="E114">
+        <v>265.2611254409443</v>
+      </c>
+      <c r="F114">
+        <v>0.02630183401307142</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="2">
+        <v>32136</v>
+      </c>
+      <c r="B115">
+        <v>0.06103424657534273</v>
+      </c>
+      <c r="C115">
+        <v>0.02360480251184072</v>
+      </c>
+      <c r="D115">
+        <v>2040786</v>
+      </c>
+      <c r="E115">
+        <v>265.2847185280372</v>
+      </c>
+      <c r="F115">
+        <v>0.02640801068589036</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="2">
+        <v>32150</v>
+      </c>
+      <c r="B116">
+        <v>0.06113013698630163</v>
+      </c>
+      <c r="C116">
+        <v>0.0238526126946681</v>
+      </c>
+      <c r="D116">
+        <v>2040786</v>
+      </c>
+      <c r="E116">
+        <v>265.308323330549</v>
+      </c>
+      <c r="F116">
+        <v>0.02651424008195845</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="2">
+        <v>32164</v>
+      </c>
+      <c r="B117">
+        <v>0.06122602739726054</v>
+      </c>
+      <c r="C117">
+        <v>0.02354047316111973</v>
+      </c>
+      <c r="D117">
+        <v>2040786</v>
+      </c>
+      <c r="E117">
+        <v>265.3321759432437</v>
+      </c>
+      <c r="F117">
+        <v>0.02662158470557585</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="2">
+        <v>32178</v>
+      </c>
+      <c r="B118">
+        <v>0.06132191780821945</v>
+      </c>
+      <c r="C118">
+        <v>0.02383550904619369</v>
+      </c>
+      <c r="D118">
+        <v>2040786</v>
+      </c>
+      <c r="E118">
+        <v>265.3557164164048</v>
+      </c>
+      <c r="F118">
+        <v>0.02672752459835023</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="2">
+        <v>32192</v>
+      </c>
+      <c r="B119">
+        <v>0.06141780821917835</v>
+      </c>
+      <c r="C119">
+        <v>0.02408490899620119</v>
+      </c>
+      <c r="D119">
+        <v>2040786</v>
+      </c>
+      <c r="E119">
+        <v>265.379551925451</v>
+      </c>
+      <c r="F119">
+        <v>0.02683479224990894</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="2">
+        <v>32206</v>
+      </c>
+      <c r="B120">
+        <v>0.06151369863013726</v>
+      </c>
+      <c r="C120">
+        <v>-1.457853298651344</v>
+      </c>
+      <c r="D120">
+        <v>2040786</v>
+      </c>
+      <c r="E120">
+        <v>265.4036368344472</v>
+      </c>
+      <c r="F120">
+        <v>0.02694318228349368</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="2">
+        <v>32234</v>
+      </c>
+      <c r="B121">
+        <v>0.06156164383561671</v>
+      </c>
+      <c r="C121">
+        <v>1.387356999232793</v>
+      </c>
+      <c r="D121">
+        <v>2040786</v>
+      </c>
+      <c r="E121">
+        <v>263.949104740217</v>
+      </c>
+      <c r="F121">
+        <v>0.02039730816088025</v>
       </c>
     </row>
   </sheetData>
@@ -459,7 +2839,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -491,6 +2871,1786 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>32276</v>
+      </c>
+      <c r="B2">
+        <v>0.06170547945205507</v>
+      </c>
+      <c r="C2">
+        <v>0.3750954285535499</v>
+      </c>
+      <c r="D2">
+        <v>2040786</v>
+      </c>
+      <c r="E2">
+        <v>265.0727216493791</v>
+      </c>
+      <c r="F2">
+        <v>0.02545395481624859</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>32290</v>
+      </c>
+      <c r="B3">
+        <v>0.06180136986301398</v>
+      </c>
+      <c r="C3">
+        <v>0.04714452426844673</v>
+      </c>
+      <c r="D3">
+        <v>2040786</v>
+      </c>
+      <c r="E3">
+        <v>265.4478170779327</v>
+      </c>
+      <c r="F3">
+        <v>0.02714200794963712</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>32304</v>
+      </c>
+      <c r="B4">
+        <v>0.06189726027397289</v>
+      </c>
+      <c r="C4">
+        <v>0.02256440284907058</v>
+      </c>
+      <c r="D4">
+        <v>2040786</v>
+      </c>
+      <c r="E4">
+        <v>265.4949616022011</v>
+      </c>
+      <c r="F4">
+        <v>0.02735417385691126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>32360</v>
+      </c>
+      <c r="B5">
+        <v>0.0619931506849318</v>
+      </c>
+      <c r="C5">
+        <v>1.425190771967777</v>
+      </c>
+      <c r="D5">
+        <v>2040786</v>
+      </c>
+      <c r="E5">
+        <v>264.0234092569491</v>
+      </c>
+      <c r="F5">
+        <v>0.02073170299149246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>32374</v>
+      </c>
+      <c r="B6">
+        <v>0.0620890410958907</v>
+      </c>
+      <c r="C6">
+        <v>0.1177335230764811</v>
+      </c>
+      <c r="D6">
+        <v>2040786</v>
+      </c>
+      <c r="E6">
+        <v>265.4486000289169</v>
+      </c>
+      <c r="F6">
+        <v>0.02714553148727998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>32388</v>
+      </c>
+      <c r="B7">
+        <v>0.06218493150684961</v>
+      </c>
+      <c r="C7">
+        <v>0.02572588983434798</v>
+      </c>
+      <c r="D7">
+        <v>2040786</v>
+      </c>
+      <c r="E7">
+        <v>265.5663335519934</v>
+      </c>
+      <c r="F7">
+        <v>0.02767537116914582</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>32430</v>
+      </c>
+      <c r="B8">
+        <v>0.06232876712328797</v>
+      </c>
+      <c r="C8">
+        <v>0.3927601650789256</v>
+      </c>
+      <c r="D8">
+        <v>2040786</v>
+      </c>
+      <c r="E8">
+        <v>265.2136293306399</v>
+      </c>
+      <c r="F8">
+        <v>0.02608808585268404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>32444</v>
+      </c>
+      <c r="B9">
+        <v>0.06242465753424688</v>
+      </c>
+      <c r="C9">
+        <v>0.04855329114934648</v>
+      </c>
+      <c r="D9">
+        <v>2040786</v>
+      </c>
+      <c r="E9">
+        <v>265.6063894957189</v>
+      </c>
+      <c r="F9">
+        <v>0.02785563612619258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>32458</v>
+      </c>
+      <c r="B10">
+        <v>0.06252054794520578</v>
+      </c>
+      <c r="C10">
+        <v>0.0252824380452239</v>
+      </c>
+      <c r="D10">
+        <v>2040786</v>
+      </c>
+      <c r="E10">
+        <v>265.6549427868682</v>
+      </c>
+      <c r="F10">
+        <v>0.02807414194903622</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>32472</v>
+      </c>
+      <c r="B11">
+        <v>0.06261643835616468</v>
+      </c>
+      <c r="C11">
+        <v>0.02386569751706702</v>
+      </c>
+      <c r="D11">
+        <v>2040786</v>
+      </c>
+      <c r="E11">
+        <v>265.6802252249134</v>
+      </c>
+      <c r="F11">
+        <v>0.02818792125828162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>32486</v>
+      </c>
+      <c r="B12">
+        <v>0.06271232876712357</v>
+      </c>
+      <c r="C12">
+        <v>0.023822003487453</v>
+      </c>
+      <c r="D12">
+        <v>2040786</v>
+      </c>
+      <c r="E12">
+        <v>265.7040909224305</v>
+      </c>
+      <c r="F12">
+        <v>0.02829532476791539</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>32500</v>
+      </c>
+      <c r="B13">
+        <v>0.06280821917808246</v>
+      </c>
+      <c r="C13">
+        <v>0.02387843155304381</v>
+      </c>
+      <c r="D13">
+        <v>2040786</v>
+      </c>
+      <c r="E13">
+        <v>265.727912925918</v>
+      </c>
+      <c r="F13">
+        <v>0.02840253164000562</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>32514</v>
+      </c>
+      <c r="B14">
+        <v>0.06290410958904136</v>
+      </c>
+      <c r="C14">
+        <v>0.02389115270750608</v>
+      </c>
+      <c r="D14">
+        <v>2040786</v>
+      </c>
+      <c r="E14">
+        <v>265.751791357471</v>
+      </c>
+      <c r="F14">
+        <v>0.02850999245700072</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
+        <v>32528</v>
+      </c>
+      <c r="B15">
+        <v>0.06300000000000025</v>
+      </c>
+      <c r="C15">
+        <v>0.02392562588045166</v>
+      </c>
+      <c r="D15">
+        <v>2040786</v>
+      </c>
+      <c r="E15">
+        <v>265.7756825101785</v>
+      </c>
+      <c r="F15">
+        <v>0.02861751052338636</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
+        <v>32542</v>
+      </c>
+      <c r="B16">
+        <v>0.06309589041095914</v>
+      </c>
+      <c r="C16">
+        <v>0.02396248208856377</v>
+      </c>
+      <c r="D16">
+        <v>2040786</v>
+      </c>
+      <c r="E16">
+        <v>265.799608136059</v>
+      </c>
+      <c r="F16">
+        <v>0.02872518373041928</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
+        <v>32556</v>
+      </c>
+      <c r="B17">
+        <v>0.06319178082191804</v>
+      </c>
+      <c r="C17">
+        <v>-1.60291096973674</v>
+      </c>
+      <c r="D17">
+        <v>2040786</v>
+      </c>
+      <c r="E17">
+        <v>265.8235706181475</v>
+      </c>
+      <c r="F17">
+        <v>0.02883302280254377</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
+        <v>32612</v>
+      </c>
+      <c r="B18">
+        <v>0.06323972602739748</v>
+      </c>
+      <c r="C18">
+        <v>1.52396214828741</v>
+      </c>
+      <c r="D18">
+        <v>2040786</v>
+      </c>
+      <c r="E18">
+        <v>264.2231763591991</v>
+      </c>
+      <c r="F18">
+        <v>0.02163072083396888</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2">
+        <v>32626</v>
+      </c>
+      <c r="B19">
+        <v>0.06333561643835638</v>
+      </c>
+      <c r="C19">
+        <v>0.1284512681377237</v>
+      </c>
+      <c r="D19">
+        <v>2040786</v>
+      </c>
+      <c r="E19">
+        <v>265.7471385074865</v>
+      </c>
+      <c r="F19">
+        <v>0.02848905309758006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2">
+        <v>32640</v>
+      </c>
+      <c r="B20">
+        <v>0.06343150684931527</v>
+      </c>
+      <c r="C20">
+        <v>0.03105629960828082</v>
+      </c>
+      <c r="D20">
+        <v>2040786</v>
+      </c>
+      <c r="E20">
+        <v>265.8755897756242</v>
+      </c>
+      <c r="F20">
+        <v>0.02906712616688883</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2">
+        <v>32654</v>
+      </c>
+      <c r="B21">
+        <v>0.06352739726027416</v>
+      </c>
+      <c r="C21">
+        <v>0.02433987631206946</v>
+      </c>
+      <c r="D21">
+        <v>2040786</v>
+      </c>
+      <c r="E21">
+        <v>265.9066460752325</v>
+      </c>
+      <c r="F21">
+        <v>0.02920688975736327</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2">
+        <v>32668</v>
+      </c>
+      <c r="B22">
+        <v>0.06362328767123306</v>
+      </c>
+      <c r="C22">
+        <v>0.02399763640596575</v>
+      </c>
+      <c r="D22">
+        <v>2040786</v>
+      </c>
+      <c r="E22">
+        <v>265.9309859515446</v>
+      </c>
+      <c r="F22">
+        <v>0.02931642722795664</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2">
+        <v>32682</v>
+      </c>
+      <c r="B23">
+        <v>0.06371917808219195</v>
+      </c>
+      <c r="C23">
+        <v>0.02403299861953201</v>
+      </c>
+      <c r="D23">
+        <v>2040786</v>
+      </c>
+      <c r="E23">
+        <v>265.9549835879506</v>
+      </c>
+      <c r="F23">
+        <v>0.02942442450610314</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2">
+        <v>32696</v>
+      </c>
+      <c r="B24">
+        <v>0.06381506849315084</v>
+      </c>
+      <c r="C24">
+        <v>0.02406195880325868</v>
+      </c>
+      <c r="D24">
+        <v>2040786</v>
+      </c>
+      <c r="E24">
+        <v>265.9790165865701</v>
+      </c>
+      <c r="F24">
+        <v>0.02953258092587299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2">
+        <v>32710</v>
+      </c>
+      <c r="B25">
+        <v>0.06391095890410974</v>
+      </c>
+      <c r="C25">
+        <v>0.02385322232885301</v>
+      </c>
+      <c r="D25">
+        <v>2040786</v>
+      </c>
+      <c r="E25">
+        <v>266.0030785453733</v>
+      </c>
+      <c r="F25">
+        <v>0.02964086767602063</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2">
+        <v>32724</v>
+      </c>
+      <c r="B26">
+        <v>0.06400684931506863</v>
+      </c>
+      <c r="C26">
+        <v>0.02409713509769063</v>
+      </c>
+      <c r="D26">
+        <v>2040786</v>
+      </c>
+      <c r="E26">
+        <v>266.0269317677022</v>
+      </c>
+      <c r="F26">
+        <v>0.02974821504319322</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2">
+        <v>32738</v>
+      </c>
+      <c r="B27">
+        <v>0.06410273972602752</v>
+      </c>
+      <c r="C27">
+        <v>0.02410919459452998</v>
+      </c>
+      <c r="D27">
+        <v>2040786</v>
+      </c>
+      <c r="E27">
+        <v>266.0510289027999</v>
+      </c>
+      <c r="F27">
+        <v>0.02985666009826671</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2">
+        <v>32752</v>
+      </c>
+      <c r="B28">
+        <v>0.06419863013698641</v>
+      </c>
+      <c r="C28">
+        <v>0.02413882615246621</v>
+      </c>
+      <c r="D28">
+        <v>2040786</v>
+      </c>
+      <c r="E28">
+        <v>266.0751380973944</v>
+      </c>
+      <c r="F28">
+        <v>0.02996515942505323</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2">
+        <v>32766</v>
+      </c>
+      <c r="B29">
+        <v>0.06429452054794531</v>
+      </c>
+      <c r="C29">
+        <v>0.02430130815969278</v>
+      </c>
+      <c r="D29">
+        <v>2040786</v>
+      </c>
+      <c r="E29">
+        <v>266.0992769235469</v>
+      </c>
+      <c r="F29">
+        <v>0.03007379210362291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2">
+        <v>32780</v>
+      </c>
+      <c r="B30">
+        <v>0.0643904109589042</v>
+      </c>
+      <c r="C30">
+        <v>0.02412032247207208</v>
+      </c>
+      <c r="D30">
+        <v>2040786</v>
+      </c>
+      <c r="E30">
+        <v>266.1235782317066</v>
+      </c>
+      <c r="F30">
+        <v>0.03018315600481084</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2">
+        <v>32794</v>
+      </c>
+      <c r="B31">
+        <v>0.06448630136986309</v>
+      </c>
+      <c r="C31">
+        <v>0.0241409301549993</v>
+      </c>
+      <c r="D31">
+        <v>2040786</v>
+      </c>
+      <c r="E31">
+        <v>266.1476985541786</v>
+      </c>
+      <c r="F31">
+        <v>0.03029170541071618</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2">
+        <v>32808</v>
+      </c>
+      <c r="B32">
+        <v>0.06458219178082199</v>
+      </c>
+      <c r="C32">
+        <v>0.02430179206157845</v>
+      </c>
+      <c r="D32">
+        <v>2040786</v>
+      </c>
+      <c r="E32">
+        <v>266.1718394843336</v>
+      </c>
+      <c r="F32">
+        <v>0.03040034755799111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2">
+        <v>32822</v>
+      </c>
+      <c r="B33">
+        <v>0.06467808219178088</v>
+      </c>
+      <c r="C33">
+        <v>-1.738440413834496</v>
+      </c>
+      <c r="D33">
+        <v>2040786</v>
+      </c>
+      <c r="E33">
+        <v>266.1961412763952</v>
+      </c>
+      <c r="F33">
+        <v>0.03050971363689721</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2">
+        <v>32906</v>
+      </c>
+      <c r="B34">
+        <v>0.06482191780821922</v>
+      </c>
+      <c r="C34">
+        <v>0.4621161170748564</v>
+      </c>
+      <c r="D34">
+        <v>2040786</v>
+      </c>
+      <c r="E34">
+        <v>265.7598569288908</v>
+      </c>
+      <c r="F34">
+        <v>0.02854629018838141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2">
+        <v>32920</v>
+      </c>
+      <c r="B35">
+        <v>0.06491780821917811</v>
+      </c>
+      <c r="C35">
+        <v>0.05613824461147487</v>
+      </c>
+      <c r="D35">
+        <v>2040786</v>
+      </c>
+      <c r="E35">
+        <v>266.2219730459657</v>
+      </c>
+      <c r="F35">
+        <v>0.03062596511917356</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2">
+        <v>32934</v>
+      </c>
+      <c r="B36">
+        <v>0.06501369863013701</v>
+      </c>
+      <c r="C36">
+        <v>0.02631702894882437</v>
+      </c>
+      <c r="D36">
+        <v>2040786</v>
+      </c>
+      <c r="E36">
+        <v>266.2781112905772</v>
+      </c>
+      <c r="F36">
+        <v>0.03087860573408241</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2">
+        <v>32948</v>
+      </c>
+      <c r="B37">
+        <v>0.0651095890410959</v>
+      </c>
+      <c r="C37">
+        <v>0.02439192560859738</v>
+      </c>
+      <c r="D37">
+        <v>2040786</v>
+      </c>
+      <c r="E37">
+        <v>266.304428319526</v>
+      </c>
+      <c r="F37">
+        <v>0.03099704104359781</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2">
+        <v>32962</v>
+      </c>
+      <c r="B38">
+        <v>0.06520547945205479</v>
+      </c>
+      <c r="C38">
+        <v>0.02187251805685264</v>
+      </c>
+      <c r="D38">
+        <v>2040786</v>
+      </c>
+      <c r="E38">
+        <v>266.3288202451346</v>
+      </c>
+      <c r="F38">
+        <v>0.0311068127531911</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2">
+        <v>32990</v>
+      </c>
+      <c r="B39">
+        <v>0.06530136986301369</v>
+      </c>
+      <c r="C39">
+        <v>1.693243314713982</v>
+      </c>
+      <c r="D39">
+        <v>2040786</v>
+      </c>
+      <c r="E39">
+        <v>264.5537609387253</v>
+      </c>
+      <c r="F39">
+        <v>0.02311846046724317</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2">
+        <v>33004</v>
+      </c>
+      <c r="B40">
+        <v>0.06539726027397258</v>
+      </c>
+      <c r="C40">
+        <v>0.1483128844417934</v>
+      </c>
+      <c r="D40">
+        <v>2040786</v>
+      </c>
+      <c r="E40">
+        <v>266.2470042534393</v>
+      </c>
+      <c r="F40">
+        <v>0.03073861380799186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2">
+        <v>33018</v>
+      </c>
+      <c r="B41">
+        <v>0.06549315068493147</v>
+      </c>
+      <c r="C41">
+        <v>0.03290977928668326</v>
+      </c>
+      <c r="D41">
+        <v>2040786</v>
+      </c>
+      <c r="E41">
+        <v>266.3953171378811</v>
+      </c>
+      <c r="F41">
+        <v>0.03140607070094652</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2">
+        <v>33032</v>
+      </c>
+      <c r="B42">
+        <v>0.06558904109589037</v>
+      </c>
+      <c r="C42">
+        <v>0.02495519106628308</v>
+      </c>
+      <c r="D42">
+        <v>2040786</v>
+      </c>
+      <c r="E42">
+        <v>266.4282269171678</v>
+      </c>
+      <c r="F42">
+        <v>0.03155417556124361</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2">
+        <v>33046</v>
+      </c>
+      <c r="B43">
+        <v>0.06568493150684926</v>
+      </c>
+      <c r="C43">
+        <v>0.02432660288559418</v>
+      </c>
+      <c r="D43">
+        <v>2040786</v>
+      </c>
+      <c r="E43">
+        <v>266.453182108234</v>
+      </c>
+      <c r="F43">
+        <v>0.03166648215115914</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2">
+        <v>33060</v>
+      </c>
+      <c r="B44">
+        <v>0.06578082191780815</v>
+      </c>
+      <c r="C44">
+        <v>0.02430907061784637</v>
+      </c>
+      <c r="D44">
+        <v>2040786</v>
+      </c>
+      <c r="E44">
+        <v>266.4775087111196</v>
+      </c>
+      <c r="F44">
+        <v>0.03177595988695574</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2">
+        <v>33074</v>
+      </c>
+      <c r="B45">
+        <v>0.06587671232876705</v>
+      </c>
+      <c r="C45">
+        <v>0.02455941478615387</v>
+      </c>
+      <c r="D45">
+        <v>2040786</v>
+      </c>
+      <c r="E45">
+        <v>266.5018177817375</v>
+      </c>
+      <c r="F45">
+        <v>0.03188535872176539</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2">
+        <v>33088</v>
+      </c>
+      <c r="B46">
+        <v>0.06597260273972594</v>
+      </c>
+      <c r="C46">
+        <v>0.02440047196751038</v>
+      </c>
+      <c r="D46">
+        <v>2040786</v>
+      </c>
+      <c r="E46">
+        <v>266.5263771965236</v>
+      </c>
+      <c r="F46">
+        <v>0.031995884187895</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2">
+        <v>33102</v>
+      </c>
+      <c r="B47">
+        <v>0.06606849315068483</v>
+      </c>
+      <c r="C47">
+        <v>0.02441528010353977</v>
+      </c>
+      <c r="D47">
+        <v>2040786</v>
+      </c>
+      <c r="E47">
+        <v>266.5507776684912</v>
+      </c>
+      <c r="F47">
+        <v>0.03210569435892208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2">
+        <v>33116</v>
+      </c>
+      <c r="B48">
+        <v>0.06616438356164372</v>
+      </c>
+      <c r="C48">
+        <v>0.02462699511920619</v>
+      </c>
+      <c r="D48">
+        <v>2040786</v>
+      </c>
+      <c r="E48">
+        <v>266.5751929485947</v>
+      </c>
+      <c r="F48">
+        <v>0.03221557117144489</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2">
+        <v>33130</v>
+      </c>
+      <c r="B49">
+        <v>0.06626027397260262</v>
+      </c>
+      <c r="C49">
+        <v>0.02445054498275567</v>
+      </c>
+      <c r="D49">
+        <v>2040786</v>
+      </c>
+      <c r="E49">
+        <v>266.5998199437139</v>
+      </c>
+      <c r="F49">
+        <v>0.03232640077136076</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2">
+        <v>33144</v>
+      </c>
+      <c r="B50">
+        <v>0.06635616438356151</v>
+      </c>
+      <c r="C50">
+        <v>0.02447615584435425</v>
+      </c>
+      <c r="D50">
+        <v>2040786</v>
+      </c>
+      <c r="E50">
+        <v>266.6242704886967</v>
+      </c>
+      <c r="F50">
+        <v>0.03243643628747036</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2">
+        <v>33158</v>
+      </c>
+      <c r="B51">
+        <v>0.0664520547945204</v>
+      </c>
+      <c r="C51">
+        <v>0.02466553409692551</v>
+      </c>
+      <c r="D51">
+        <v>2040786</v>
+      </c>
+      <c r="E51">
+        <v>266.648746644541</v>
+      </c>
+      <c r="F51">
+        <v>0.03254658706090335</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2">
+        <v>33172</v>
+      </c>
+      <c r="B52">
+        <v>0.0665479452054793</v>
+      </c>
+      <c r="C52">
+        <v>0.02451782015123172</v>
+      </c>
+      <c r="D52">
+        <v>2040786</v>
+      </c>
+      <c r="E52">
+        <v>266.6734121786379</v>
+      </c>
+      <c r="F52">
+        <v>0.03265759009892912</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2">
+        <v>33186</v>
+      </c>
+      <c r="B53">
+        <v>0.06664383561643819</v>
+      </c>
+      <c r="C53">
+        <v>0.02452719857888042</v>
+      </c>
+      <c r="D53">
+        <v>2040786</v>
+      </c>
+      <c r="E53">
+        <v>266.6979299987892</v>
+      </c>
+      <c r="F53">
+        <v>0.03276792837548375</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2">
+        <v>33200</v>
+      </c>
+      <c r="B54">
+        <v>0.06673972602739708</v>
+      </c>
+      <c r="C54">
+        <v>0.02472306770641808</v>
+      </c>
+      <c r="D54">
+        <v>2040786</v>
+      </c>
+      <c r="E54">
+        <v>266.722457197368</v>
+      </c>
+      <c r="F54">
+        <v>0.03287830885805584</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2">
+        <v>33214</v>
+      </c>
+      <c r="B55">
+        <v>0.06683561643835598</v>
+      </c>
+      <c r="C55">
+        <v>0.024643651339602</v>
+      </c>
+      <c r="D55">
+        <v>2040786</v>
+      </c>
+      <c r="E55">
+        <v>266.7471802650745</v>
+      </c>
+      <c r="F55">
+        <v>0.03298957081629859</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2">
+        <v>33228</v>
+      </c>
+      <c r="B56">
+        <v>0.06693150684931487</v>
+      </c>
+      <c r="C56">
+        <v>0.02453364300197336</v>
+      </c>
+      <c r="D56">
+        <v>2040786</v>
+      </c>
+      <c r="E56">
+        <v>266.7718239164141</v>
+      </c>
+      <c r="F56">
+        <v>0.03310047537469959</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="2">
+        <v>33242</v>
+      </c>
+      <c r="B57">
+        <v>0.06702739726027376</v>
+      </c>
+      <c r="C57">
+        <v>0.02469355854225341</v>
+      </c>
+      <c r="D57">
+        <v>2040786</v>
+      </c>
+      <c r="E57">
+        <v>266.796357559416</v>
+      </c>
+      <c r="F57">
+        <v>0.0332108848593009</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="2">
+        <v>33256</v>
+      </c>
+      <c r="B58">
+        <v>0.06712328767123266</v>
+      </c>
+      <c r="C58">
+        <v>0.02471702913305762</v>
+      </c>
+      <c r="D58">
+        <v>2040786</v>
+      </c>
+      <c r="E58">
+        <v>266.8210511179583</v>
+      </c>
+      <c r="F58">
+        <v>0.03332201401657294</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="2">
+        <v>33270</v>
+      </c>
+      <c r="B59">
+        <v>0.06721917808219155</v>
+      </c>
+      <c r="C59">
+        <v>0.02468201571628015</v>
+      </c>
+      <c r="D59">
+        <v>2040786</v>
+      </c>
+      <c r="E59">
+        <v>266.8457681470913</v>
+      </c>
+      <c r="F59">
+        <v>0.03343324879924413</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="2">
+        <v>33284</v>
+      </c>
+      <c r="B60">
+        <v>0.06731506849315044</v>
+      </c>
+      <c r="C60">
+        <v>0.02493839003602716</v>
+      </c>
+      <c r="D60">
+        <v>2040786</v>
+      </c>
+      <c r="E60">
+        <v>266.8704501628076</v>
+      </c>
+      <c r="F60">
+        <v>0.03354432600999254</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="2">
+        <v>33298</v>
+      </c>
+      <c r="B61">
+        <v>0.06741095890410934</v>
+      </c>
+      <c r="C61">
+        <v>0.02468632835541484</v>
+      </c>
+      <c r="D61">
+        <v>2040786</v>
+      </c>
+      <c r="E61">
+        <v>266.8953885528437</v>
+      </c>
+      <c r="F61">
+        <v>0.03365655698973107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="2">
+        <v>33312</v>
+      </c>
+      <c r="B62">
+        <v>0.06750684931506823</v>
+      </c>
+      <c r="C62">
+        <v>0.02478849595240717</v>
+      </c>
+      <c r="D62">
+        <v>2040786</v>
+      </c>
+      <c r="E62">
+        <v>266.9200748811991</v>
+      </c>
+      <c r="F62">
+        <v>0.0337676536087779</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="2">
+        <v>33326</v>
+      </c>
+      <c r="B63">
+        <v>0.06760273972602712</v>
+      </c>
+      <c r="C63">
+        <v>0.0248179348151325</v>
+      </c>
+      <c r="D63">
+        <v>2040786</v>
+      </c>
+      <c r="E63">
+        <v>266.9448633771515</v>
+      </c>
+      <c r="F63">
+        <v>0.03387921001570555</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="2">
+        <v>33340</v>
+      </c>
+      <c r="B64">
+        <v>0.06769863013698602</v>
+      </c>
+      <c r="C64">
+        <v>-2.034116866137083</v>
+      </c>
+      <c r="D64">
+        <v>2040786</v>
+      </c>
+      <c r="E64">
+        <v>266.9696813119666</v>
+      </c>
+      <c r="F64">
+        <v>0.03399089890722431</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="2">
+        <v>33368</v>
+      </c>
+      <c r="B65">
+        <v>0.06779452054794491</v>
+      </c>
+      <c r="C65">
+        <v>0.556027764627288</v>
+      </c>
+      <c r="D65">
+        <v>2040786</v>
+      </c>
+      <c r="E65">
+        <v>266.4168592901987</v>
+      </c>
+      <c r="F65">
+        <v>0.03150301749088691</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="2">
+        <v>33382</v>
+      </c>
+      <c r="B66">
+        <v>0.0678904109589038</v>
+      </c>
+      <c r="C66">
+        <v>0.06822238836002725</v>
+      </c>
+      <c r="D66">
+        <v>2040786</v>
+      </c>
+      <c r="E66">
+        <v>266.9728870548259</v>
+      </c>
+      <c r="F66">
+        <v>0.03400532580733196</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="2">
+        <v>33396</v>
+      </c>
+      <c r="B67">
+        <v>0.0679863013698627</v>
+      </c>
+      <c r="C67">
+        <v>0.02826171463766514</v>
+      </c>
+      <c r="D67">
+        <v>2040786</v>
+      </c>
+      <c r="E67">
+        <v>267.041109443186</v>
+      </c>
+      <c r="F67">
+        <v>0.03431234905440923</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="2">
+        <v>33410</v>
+      </c>
+      <c r="B68">
+        <v>0.06808219178082159</v>
+      </c>
+      <c r="C68">
+        <v>0.02502726673969846</v>
+      </c>
+      <c r="D68">
+        <v>2040786</v>
+      </c>
+      <c r="E68">
+        <v>267.0693711578236</v>
+      </c>
+      <c r="F68">
+        <v>0.03443953609087364</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="2">
+        <v>33424</v>
+      </c>
+      <c r="B69">
+        <v>0.06817808219178048</v>
+      </c>
+      <c r="C69">
+        <v>0.0248188560485687</v>
+      </c>
+      <c r="D69">
+        <v>2040786</v>
+      </c>
+      <c r="E69">
+        <v>267.0943984245633</v>
+      </c>
+      <c r="F69">
+        <v>0.03455216704508977</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="2">
+        <v>33438</v>
+      </c>
+      <c r="B70">
+        <v>0.06827397260273937</v>
+      </c>
+      <c r="C70">
+        <v>0.02323848145431384</v>
+      </c>
+      <c r="D70">
+        <v>2040786</v>
+      </c>
+      <c r="E70">
+        <v>267.1192172806119</v>
+      </c>
+      <c r="F70">
+        <v>0.03466386008246287</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="2">
+        <v>33536</v>
+      </c>
+      <c r="B71">
+        <v>0.06836986301369827</v>
+      </c>
+      <c r="C71">
+        <v>1.958519274625019</v>
+      </c>
+      <c r="D71">
+        <v>2040786</v>
+      </c>
+      <c r="E71">
+        <v>265.0399178898427</v>
+      </c>
+      <c r="F71">
+        <v>0.02530632707979281</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="2">
+        <v>33550</v>
+      </c>
+      <c r="B72">
+        <v>0.06846575342465716</v>
+      </c>
+      <c r="C72">
+        <v>0.1845189626575348</v>
+      </c>
+      <c r="D72">
+        <v>2040786</v>
+      </c>
+      <c r="E72">
+        <v>266.9984371644678</v>
+      </c>
+      <c r="F72">
+        <v>0.03412030972703898</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="2">
+        <v>33564</v>
+      </c>
+      <c r="B73">
+        <v>0.06856164383561605</v>
+      </c>
+      <c r="C73">
+        <v>0.03792607748653154</v>
+      </c>
+      <c r="D73">
+        <v>2040786</v>
+      </c>
+      <c r="E73">
+        <v>267.1829561271253</v>
+      </c>
+      <c r="F73">
+        <v>0.03495070591257694</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="2">
+        <v>33578</v>
+      </c>
+      <c r="B74">
+        <v>0.06865753424657495</v>
+      </c>
+      <c r="C74">
+        <v>0.02589171850479488</v>
+      </c>
+      <c r="D74">
+        <v>2040786</v>
+      </c>
+      <c r="E74">
+        <v>267.2208822046118</v>
+      </c>
+      <c r="F74">
+        <v>0.03512138576912744</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="2">
+        <v>33592</v>
+      </c>
+      <c r="B75">
+        <v>0.06875342465753384</v>
+      </c>
+      <c r="C75">
+        <v>0.02495477941715762</v>
+      </c>
+      <c r="D75">
+        <v>2040786</v>
+      </c>
+      <c r="E75">
+        <v>267.2467739231166</v>
+      </c>
+      <c r="F75">
+        <v>0.03523790704137918</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="2">
+        <v>33606</v>
+      </c>
+      <c r="B76">
+        <v>0.06884931506849273</v>
+      </c>
+      <c r="C76">
+        <v>0.02499932196087684</v>
+      </c>
+      <c r="D76">
+        <v>2040786</v>
+      </c>
+      <c r="E76">
+        <v>267.2717287025338</v>
+      </c>
+      <c r="F76">
+        <v>0.03535021177873771</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="2">
+        <v>33620</v>
+      </c>
+      <c r="B77">
+        <v>0.06894520547945163</v>
+      </c>
+      <c r="C77">
+        <v>0.0248785226540349</v>
+      </c>
+      <c r="D77">
+        <v>2040786</v>
+      </c>
+      <c r="E77">
+        <v>267.2967280244947</v>
+      </c>
+      <c r="F77">
+        <v>0.03546271697223326</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="2">
+        <v>33634</v>
+      </c>
+      <c r="B78">
+        <v>0.06904109589041052</v>
+      </c>
+      <c r="C78">
+        <v>0.02503783163524531</v>
+      </c>
+      <c r="D78">
+        <v>2040786</v>
+      </c>
+      <c r="E78">
+        <v>267.3216065471487</v>
+      </c>
+      <c r="F78">
+        <v>0.03557467852900854</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="2">
+        <v>33648</v>
+      </c>
+      <c r="B79">
+        <v>0.06913698630136941</v>
+      </c>
+      <c r="C79">
+        <v>0.02509765292006705</v>
+      </c>
+      <c r="D79">
+        <v>2040786</v>
+      </c>
+      <c r="E79">
+        <v>267.3466443787839</v>
+      </c>
+      <c r="F79">
+        <v>0.03568735702873906</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="2">
+        <v>33662</v>
+      </c>
+      <c r="B80">
+        <v>0.06923287671232831</v>
+      </c>
+      <c r="C80">
+        <v>0.02505141474216543</v>
+      </c>
+      <c r="D80">
+        <v>2040786</v>
+      </c>
+      <c r="E80">
+        <v>267.371742031704</v>
+      </c>
+      <c r="F80">
+        <v>0.03580030474397979</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="2">
+        <v>33676</v>
+      </c>
+      <c r="B81">
+        <v>0.0693287671232872</v>
+      </c>
+      <c r="C81">
+        <v>0.02470150726298925</v>
+      </c>
+      <c r="D81">
+        <v>2040786</v>
+      </c>
+      <c r="E81">
+        <v>267.3967934464462</v>
+      </c>
+      <c r="F81">
+        <v>0.03591304437217094</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="2">
+        <v>33690</v>
+      </c>
+      <c r="B82">
+        <v>0.06942465753424609</v>
+      </c>
+      <c r="C82">
+        <v>0.02496955180595251</v>
+      </c>
+      <c r="D82">
+        <v>2040786</v>
+      </c>
+      <c r="E82">
+        <v>267.4214949537092</v>
+      </c>
+      <c r="F82">
+        <v>0.03602420930130789</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="2">
+        <v>33704</v>
+      </c>
+      <c r="B83">
+        <v>0.06952054794520499</v>
+      </c>
+      <c r="C83">
+        <v>-2.223920204243768</v>
+      </c>
+      <c r="D83">
+        <v>2040786</v>
+      </c>
+      <c r="E83">
+        <v>267.4464645055151</v>
+      </c>
+      <c r="F83">
+        <v>0.03613658051928803</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="2">
+        <v>33760</v>
+      </c>
+      <c r="B84">
+        <v>0.06956849315068443</v>
+      </c>
+      <c r="C84">
+        <v>2.066316984942887</v>
+      </c>
+      <c r="D84">
+        <v>2040786</v>
+      </c>
+      <c r="E84">
+        <v>265.2259557963584</v>
+      </c>
+      <c r="F84">
+        <v>0.02614355901363392</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="2">
+        <v>33774</v>
+      </c>
+      <c r="B85">
+        <v>0.06966438356164333</v>
+      </c>
+      <c r="C85">
+        <v>0.1996262148187498</v>
+      </c>
+      <c r="D85">
+        <v>2040786</v>
+      </c>
+      <c r="E85">
+        <v>267.2922727813013</v>
+      </c>
+      <c r="F85">
+        <v>0.0354426669085428</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="2">
+        <v>33788</v>
+      </c>
+      <c r="B86">
+        <v>0.06976027397260222</v>
+      </c>
+      <c r="C86">
+        <v>0.03987462819895882</v>
+      </c>
+      <c r="D86">
+        <v>2040786</v>
+      </c>
+      <c r="E86">
+        <v>267.4918989961201</v>
+      </c>
+      <c r="F86">
+        <v>0.03634105071111457</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="2">
+        <v>33802</v>
+      </c>
+      <c r="B87">
+        <v>0.06985616438356111</v>
+      </c>
+      <c r="C87">
+        <v>0.02634977522211557</v>
+      </c>
+      <c r="D87">
+        <v>2040786</v>
+      </c>
+      <c r="E87">
+        <v>267.531773624319</v>
+      </c>
+      <c r="F87">
+        <v>0.03652049968849486</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="2">
+        <v>33816</v>
+      </c>
+      <c r="B88">
+        <v>0.06995205479452</v>
+      </c>
+      <c r="C88">
+        <v>0.02522380252821677</v>
+      </c>
+      <c r="D88">
+        <v>2040786</v>
+      </c>
+      <c r="E88">
+        <v>267.5581233995412</v>
+      </c>
+      <c r="F88">
+        <v>0.03663908236703965</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="2">
+        <v>33830</v>
+      </c>
+      <c r="B89">
+        <v>0.0700479452054789</v>
+      </c>
+      <c r="C89">
+        <v>0.02524556135608691</v>
+      </c>
+      <c r="D89">
+        <v>2040786</v>
+      </c>
+      <c r="E89">
+        <v>267.5833472020694</v>
+      </c>
+      <c r="F89">
+        <v>0.03675259779712076</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="2">
+        <v>33844</v>
+      </c>
+      <c r="B90">
+        <v>0.07014383561643779</v>
+      </c>
+      <c r="C90">
+        <v>0.02511554055672605</v>
+      </c>
+      <c r="D90">
+        <v>2040786</v>
+      </c>
+      <c r="E90">
+        <v>267.6085927634255</v>
+      </c>
+      <c r="F90">
+        <v>0.03686621114910329</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -498,7 +4658,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -530,6 +4690,1386 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>33858</v>
+      </c>
+      <c r="B2">
+        <v>0.07023972602739668</v>
+      </c>
+      <c r="C2">
+        <v>0.02530153024258652</v>
+      </c>
+      <c r="D2">
+        <v>2040786</v>
+      </c>
+      <c r="E2">
+        <v>267.6337083039822</v>
+      </c>
+      <c r="F2">
+        <v>0.03697923936460841</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>33872</v>
+      </c>
+      <c r="B3">
+        <v>0.07033561643835558</v>
+      </c>
+      <c r="C3">
+        <v>0.02575935287791253</v>
+      </c>
+      <c r="D3">
+        <v>2040786</v>
+      </c>
+      <c r="E3">
+        <v>267.6590098342248</v>
+      </c>
+      <c r="F3">
+        <v>0.03709310459503849</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>33886</v>
+      </c>
+      <c r="B4">
+        <v>0.07043150684931447</v>
+      </c>
+      <c r="C4">
+        <v>0.02528653662761826</v>
+      </c>
+      <c r="D4">
+        <v>2040786</v>
+      </c>
+      <c r="E4">
+        <v>267.6847691871027</v>
+      </c>
+      <c r="F4">
+        <v>0.03720903017831546</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>33900</v>
+      </c>
+      <c r="B5">
+        <v>0.07052739726027336</v>
+      </c>
+      <c r="C5">
+        <v>-1.359742640385775</v>
+      </c>
+      <c r="D5">
+        <v>2040786</v>
+      </c>
+      <c r="E5">
+        <v>267.7100557237303</v>
+      </c>
+      <c r="F5">
+        <v>0.03732282793253328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>33914</v>
+      </c>
+      <c r="B6">
+        <v>0.07062328767123226</v>
+      </c>
+      <c r="C6">
+        <v>-0.504616961097895</v>
+      </c>
+      <c r="D6">
+        <v>2040786</v>
+      </c>
+      <c r="E6">
+        <v>266.3503130833445</v>
+      </c>
+      <c r="F6">
+        <v>0.0312035376133837</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>33928</v>
+      </c>
+      <c r="B7">
+        <v>0.07071917808219115</v>
+      </c>
+      <c r="C7">
+        <v>-0.02041871481776525</v>
+      </c>
+      <c r="D7">
+        <v>2040786</v>
+      </c>
+      <c r="E7">
+        <v>265.8456961222466</v>
+      </c>
+      <c r="F7">
+        <v>0.0289325948678883</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>33942</v>
+      </c>
+      <c r="B8">
+        <v>0.07081506849315004</v>
+      </c>
+      <c r="C8">
+        <v>0.02114791275585048</v>
+      </c>
+      <c r="D8">
+        <v>2040786</v>
+      </c>
+      <c r="E8">
+        <v>265.8252774074289</v>
+      </c>
+      <c r="F8">
+        <v>0.02884070391720176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>33956</v>
+      </c>
+      <c r="B9">
+        <v>0.07091095890410894</v>
+      </c>
+      <c r="C9">
+        <v>0.02462006665871286</v>
+      </c>
+      <c r="D9">
+        <v>2040786</v>
+      </c>
+      <c r="E9">
+        <v>265.8464253201847</v>
+      </c>
+      <c r="F9">
+        <v>0.02893587649909603</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>33970</v>
+      </c>
+      <c r="B10">
+        <v>0.07100684931506783</v>
+      </c>
+      <c r="C10">
+        <v>0.02524254172431029</v>
+      </c>
+      <c r="D10">
+        <v>2040786</v>
+      </c>
+      <c r="E10">
+        <v>265.8710453868434</v>
+      </c>
+      <c r="F10">
+        <v>0.02904667491865482</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>33984</v>
+      </c>
+      <c r="B11">
+        <v>0.07110273972602672</v>
+      </c>
+      <c r="C11">
+        <v>0.0248575168542402</v>
+      </c>
+      <c r="D11">
+        <v>2040786</v>
+      </c>
+      <c r="E11">
+        <v>265.8962879285677</v>
+      </c>
+      <c r="F11">
+        <v>0.02916027468129855</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>33998</v>
+      </c>
+      <c r="B12">
+        <v>0.07119863013698562</v>
+      </c>
+      <c r="C12">
+        <v>0.02487902962047883</v>
+      </c>
+      <c r="D12">
+        <v>2040786</v>
+      </c>
+      <c r="E12">
+        <v>265.921145445422</v>
+      </c>
+      <c r="F12">
+        <v>0.02927214170504733</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>34012</v>
+      </c>
+      <c r="B13">
+        <v>0.07129452054794451</v>
+      </c>
+      <c r="C13">
+        <v>0.02488722922089437</v>
+      </c>
+      <c r="D13">
+        <v>2040786</v>
+      </c>
+      <c r="E13">
+        <v>265.9460244750425</v>
+      </c>
+      <c r="F13">
+        <v>0.02938410554333891</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>34026</v>
+      </c>
+      <c r="B14">
+        <v>0.0713904109589034</v>
+      </c>
+      <c r="C14">
+        <v>0.02475136510190623</v>
+      </c>
+      <c r="D14">
+        <v>2040786</v>
+      </c>
+      <c r="E14">
+        <v>265.9709117042634</v>
+      </c>
+      <c r="F14">
+        <v>0.02949610628253658</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
+        <v>34040</v>
+      </c>
+      <c r="B15">
+        <v>0.0714863013698623</v>
+      </c>
+      <c r="C15">
+        <v>0.02488257702111696</v>
+      </c>
+      <c r="D15">
+        <v>2040786</v>
+      </c>
+      <c r="E15">
+        <v>265.9956630693653</v>
+      </c>
+      <c r="F15">
+        <v>0.0296074955883916</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
+        <v>34054</v>
+      </c>
+      <c r="B16">
+        <v>0.07158219178082119</v>
+      </c>
+      <c r="C16">
+        <v>0.02491727641495345</v>
+      </c>
+      <c r="D16">
+        <v>2040786</v>
+      </c>
+      <c r="E16">
+        <v>266.0205456463864</v>
+      </c>
+      <c r="F16">
+        <v>0.029719475391156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
+        <v>34068</v>
+      </c>
+      <c r="B17">
+        <v>0.07167808219178008</v>
+      </c>
+      <c r="C17">
+        <v>0.02495323598611776</v>
+      </c>
+      <c r="D17">
+        <v>2040786</v>
+      </c>
+      <c r="E17">
+        <v>266.0454629228013</v>
+      </c>
+      <c r="F17">
+        <v>0.02983161135263634</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
+        <v>34082</v>
+      </c>
+      <c r="B18">
+        <v>0.07177397260273898</v>
+      </c>
+      <c r="C18">
+        <v>0.024842638027053</v>
+      </c>
+      <c r="D18">
+        <v>2040786</v>
+      </c>
+      <c r="E18">
+        <v>266.0704161587875</v>
+      </c>
+      <c r="F18">
+        <v>0.02994390914404635</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2">
+        <v>34096</v>
+      </c>
+      <c r="B19">
+        <v>0.07186986301369787</v>
+      </c>
+      <c r="C19">
+        <v>0.02491570494680673</v>
+      </c>
+      <c r="D19">
+        <v>2040786</v>
+      </c>
+      <c r="E19">
+        <v>266.0952587968145</v>
+      </c>
+      <c r="F19">
+        <v>0.03005570920816592</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2">
+        <v>34110</v>
+      </c>
+      <c r="B20">
+        <v>0.07196575342465676</v>
+      </c>
+      <c r="C20">
+        <v>0.0250038634470684</v>
+      </c>
+      <c r="D20">
+        <v>2040786</v>
+      </c>
+      <c r="E20">
+        <v>266.1201745017613</v>
+      </c>
+      <c r="F20">
+        <v>0.03016783809752143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2">
+        <v>34124</v>
+      </c>
+      <c r="B21">
+        <v>0.07206164383561565</v>
+      </c>
+      <c r="C21">
+        <v>0.02503464849235115</v>
+      </c>
+      <c r="D21">
+        <v>2040786</v>
+      </c>
+      <c r="E21">
+        <v>266.1451783652084</v>
+      </c>
+      <c r="F21">
+        <v>0.03028036372920235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2">
+        <v>34138</v>
+      </c>
+      <c r="B22">
+        <v>0.07215753424657455</v>
+      </c>
+      <c r="C22">
+        <v>0.02488333350049743</v>
+      </c>
+      <c r="D22">
+        <v>2040786</v>
+      </c>
+      <c r="E22">
+        <v>266.1702130137007</v>
+      </c>
+      <c r="F22">
+        <v>0.03039302790373991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2">
+        <v>34152</v>
+      </c>
+      <c r="B23">
+        <v>0.07225342465753344</v>
+      </c>
+      <c r="C23">
+        <v>0.02499038370854123</v>
+      </c>
+      <c r="D23">
+        <v>2040786</v>
+      </c>
+      <c r="E23">
+        <v>266.1950963472012</v>
+      </c>
+      <c r="F23">
+        <v>0.03050501111091093</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2">
+        <v>34166</v>
+      </c>
+      <c r="B24">
+        <v>0.07234931506849233</v>
+      </c>
+      <c r="C24">
+        <v>0.02508354907979538</v>
+      </c>
+      <c r="D24">
+        <v>2040786</v>
+      </c>
+      <c r="E24">
+        <v>266.2200867309098</v>
+      </c>
+      <c r="F24">
+        <v>0.03061747607932302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2">
+        <v>34180</v>
+      </c>
+      <c r="B25">
+        <v>0.07244520547945123</v>
+      </c>
+      <c r="C25">
+        <v>0.02505720965768887</v>
+      </c>
+      <c r="D25">
+        <v>2040786</v>
+      </c>
+      <c r="E25">
+        <v>266.2451702799896</v>
+      </c>
+      <c r="F25">
+        <v>0.03073036032263141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2">
+        <v>34194</v>
+      </c>
+      <c r="B26">
+        <v>0.07254109589041012</v>
+      </c>
+      <c r="C26">
+        <v>0.02471330708090136</v>
+      </c>
+      <c r="D26">
+        <v>2040786</v>
+      </c>
+      <c r="E26">
+        <v>266.2702274896473</v>
+      </c>
+      <c r="F26">
+        <v>0.03084312602985351</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2">
+        <v>34208</v>
+      </c>
+      <c r="B27">
+        <v>0.07263698630136901</v>
+      </c>
+      <c r="C27">
+        <v>0.02276583687682887</v>
+      </c>
+      <c r="D27">
+        <v>2040786</v>
+      </c>
+      <c r="E27">
+        <v>266.2949407967282</v>
+      </c>
+      <c r="F27">
+        <v>0.03095434406206252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2">
+        <v>34222</v>
+      </c>
+      <c r="B28">
+        <v>0.07273287671232791</v>
+      </c>
+      <c r="C28">
+        <v>0.02490293703874613</v>
+      </c>
+      <c r="D28">
+        <v>2040786</v>
+      </c>
+      <c r="E28">
+        <v>266.317706633605</v>
+      </c>
+      <c r="F28">
+        <v>0.03105679783608548</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2">
+        <v>34236</v>
+      </c>
+      <c r="B29">
+        <v>0.0728287671232868</v>
+      </c>
+      <c r="C29">
+        <v>0.02510142574897145</v>
+      </c>
+      <c r="D29">
+        <v>2040786</v>
+      </c>
+      <c r="E29">
+        <v>266.3426095706437</v>
+      </c>
+      <c r="F29">
+        <v>0.03116886926564402</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2">
+        <v>34250</v>
+      </c>
+      <c r="B30">
+        <v>0.07292465753424569</v>
+      </c>
+      <c r="C30">
+        <v>0.02513648202398144</v>
+      </c>
+      <c r="D30">
+        <v>2040786</v>
+      </c>
+      <c r="E30">
+        <v>266.3677109963927</v>
+      </c>
+      <c r="F30">
+        <v>0.03128183395985912</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2">
+        <v>34264</v>
+      </c>
+      <c r="B31">
+        <v>0.07302054794520459</v>
+      </c>
+      <c r="C31">
+        <v>0.02516850398023962</v>
+      </c>
+      <c r="D31">
+        <v>2040786</v>
+      </c>
+      <c r="E31">
+        <v>266.3928474784167</v>
+      </c>
+      <c r="F31">
+        <v>0.03139495641887342</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2">
+        <v>34278</v>
+      </c>
+      <c r="B32">
+        <v>0.07311643835616348</v>
+      </c>
+      <c r="C32">
+        <v>0.02516738326812629</v>
+      </c>
+      <c r="D32">
+        <v>2040786</v>
+      </c>
+      <c r="E32">
+        <v>266.4180159823969</v>
+      </c>
+      <c r="F32">
+        <v>0.03150822298725133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2">
+        <v>34292</v>
+      </c>
+      <c r="B33">
+        <v>0.07321232876712237</v>
+      </c>
+      <c r="C33">
+        <v>0.02520301514346102</v>
+      </c>
+      <c r="D33">
+        <v>2040786</v>
+      </c>
+      <c r="E33">
+        <v>266.443183365665</v>
+      </c>
+      <c r="F33">
+        <v>0.0316214845120553</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2">
+        <v>34306</v>
+      </c>
+      <c r="B34">
+        <v>0.07330821917808127</v>
+      </c>
+      <c r="C34">
+        <v>0.02528887364042021</v>
+      </c>
+      <c r="D34">
+        <v>2040786</v>
+      </c>
+      <c r="E34">
+        <v>266.4683863808085</v>
+      </c>
+      <c r="F34">
+        <v>0.0317349063920494</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2">
+        <v>34320</v>
+      </c>
+      <c r="B35">
+        <v>0.07340410958904016</v>
+      </c>
+      <c r="C35">
+        <v>0.02525240378849958</v>
+      </c>
+      <c r="D35">
+        <v>2040786</v>
+      </c>
+      <c r="E35">
+        <v>266.4936752544489</v>
+      </c>
+      <c r="F35">
+        <v>0.03184871466359566</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2">
+        <v>34334</v>
+      </c>
+      <c r="B36">
+        <v>0.07349999999999905</v>
+      </c>
+      <c r="C36">
+        <v>0.02526189854052063</v>
+      </c>
+      <c r="D36">
+        <v>2040786</v>
+      </c>
+      <c r="E36">
+        <v>266.5189276582374</v>
+      </c>
+      <c r="F36">
+        <v>0.03196235880878071</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2">
+        <v>34348</v>
+      </c>
+      <c r="B37">
+        <v>0.07359589041095795</v>
+      </c>
+      <c r="C37">
+        <v>0.02558342500105937</v>
+      </c>
+      <c r="D37">
+        <v>2040786</v>
+      </c>
+      <c r="E37">
+        <v>266.544189556778</v>
+      </c>
+      <c r="F37">
+        <v>0.03207604568348101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2">
+        <v>34362</v>
+      </c>
+      <c r="B38">
+        <v>0.07369178082191684</v>
+      </c>
+      <c r="C38">
+        <v>0.0253766098626329</v>
+      </c>
+      <c r="D38">
+        <v>2040786</v>
+      </c>
+      <c r="E38">
+        <v>266.569772981779</v>
+      </c>
+      <c r="F38">
+        <v>0.03219117953329192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2">
+        <v>34376</v>
+      </c>
+      <c r="B39">
+        <v>0.07378767123287573</v>
+      </c>
+      <c r="C39">
+        <v>0.02531373742726828</v>
+      </c>
+      <c r="D39">
+        <v>2040786</v>
+      </c>
+      <c r="E39">
+        <v>266.5951495916416</v>
+      </c>
+      <c r="F39">
+        <v>0.03230538264677322</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2">
+        <v>34390</v>
+      </c>
+      <c r="B40">
+        <v>0.07388356164383462</v>
+      </c>
+      <c r="C40">
+        <v>0.02528470301081143</v>
+      </c>
+      <c r="D40">
+        <v>2040786</v>
+      </c>
+      <c r="E40">
+        <v>266.6204633290689</v>
+      </c>
+      <c r="F40">
+        <v>0.03241930281356023</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2">
+        <v>34404</v>
+      </c>
+      <c r="B41">
+        <v>0.07397945205479352</v>
+      </c>
+      <c r="C41">
+        <v>0.02532823512524374</v>
+      </c>
+      <c r="D41">
+        <v>2040786</v>
+      </c>
+      <c r="E41">
+        <v>266.6457480320797</v>
+      </c>
+      <c r="F41">
+        <v>0.03253309231589775</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2">
+        <v>34418</v>
+      </c>
+      <c r="B42">
+        <v>0.07407534246575241</v>
+      </c>
+      <c r="C42">
+        <v>0.02532924531328717</v>
+      </c>
+      <c r="D42">
+        <v>2040786</v>
+      </c>
+      <c r="E42">
+        <v>266.671076267205</v>
+      </c>
+      <c r="F42">
+        <v>0.03264707772710696</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2">
+        <v>34432</v>
+      </c>
+      <c r="B43">
+        <v>0.0741712328767113</v>
+      </c>
+      <c r="C43">
+        <v>-2.107950146431108</v>
+      </c>
+      <c r="D43">
+        <v>2040786</v>
+      </c>
+      <c r="E43">
+        <v>266.6964055125183</v>
+      </c>
+      <c r="F43">
+        <v>0.03276106768449551</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2">
+        <v>34446</v>
+      </c>
+      <c r="B44">
+        <v>0.07421917808219075</v>
+      </c>
+      <c r="C44">
+        <v>1.945600656709416</v>
+      </c>
+      <c r="D44">
+        <v>2040786</v>
+      </c>
+      <c r="E44">
+        <v>264.5884553660871</v>
+      </c>
+      <c r="F44">
+        <v>0.0232745968324479</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2">
+        <v>34460</v>
+      </c>
+      <c r="B45">
+        <v>0.07431506849314964</v>
+      </c>
+      <c r="C45">
+        <v>0.2045157035519196</v>
+      </c>
+      <c r="D45">
+        <v>2040786</v>
+      </c>
+      <c r="E45">
+        <v>266.5340560227966</v>
+      </c>
+      <c r="F45">
+        <v>0.03203044143856779</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2">
+        <v>34474</v>
+      </c>
+      <c r="B46">
+        <v>0.07441095890410854</v>
+      </c>
+      <c r="C46">
+        <v>0.04151679614142267</v>
+      </c>
+      <c r="D46">
+        <v>2040786</v>
+      </c>
+      <c r="E46">
+        <v>266.7385717263485</v>
+      </c>
+      <c r="F46">
+        <v>0.03295082955297177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2">
+        <v>34488</v>
+      </c>
+      <c r="B47">
+        <v>0.07450684931506743</v>
+      </c>
+      <c r="C47">
+        <v>0.02681483891899461</v>
+      </c>
+      <c r="D47">
+        <v>2040786</v>
+      </c>
+      <c r="E47">
+        <v>266.7800885224899</v>
+      </c>
+      <c r="F47">
+        <v>0.03313766882767319</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2">
+        <v>34502</v>
+      </c>
+      <c r="B48">
+        <v>0.07460273972602632</v>
+      </c>
+      <c r="C48">
+        <v>0.02544463076037573</v>
+      </c>
+      <c r="D48">
+        <v>2040786</v>
+      </c>
+      <c r="E48">
+        <v>266.8069033614089</v>
+      </c>
+      <c r="F48">
+        <v>0.03325834444623005</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2">
+        <v>34516</v>
+      </c>
+      <c r="B49">
+        <v>0.07469863013698522</v>
+      </c>
+      <c r="C49">
+        <v>0.0255136643258993</v>
+      </c>
+      <c r="D49">
+        <v>2040786</v>
+      </c>
+      <c r="E49">
+        <v>266.8323479921693</v>
+      </c>
+      <c r="F49">
+        <v>0.03337285367618415</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2">
+        <v>34530</v>
+      </c>
+      <c r="B50">
+        <v>0.07479452054794411</v>
+      </c>
+      <c r="C50">
+        <v>-2.175700652306887</v>
+      </c>
+      <c r="D50">
+        <v>2040786</v>
+      </c>
+      <c r="E50">
+        <v>266.8578616564952</v>
+      </c>
+      <c r="F50">
+        <v>0.03348767357995001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2">
+        <v>34558</v>
+      </c>
+      <c r="B51">
+        <v>0.074890410958903</v>
+      </c>
+      <c r="C51">
+        <v>0.6321727020534809</v>
+      </c>
+      <c r="D51">
+        <v>2040786</v>
+      </c>
+      <c r="E51">
+        <v>266.2130949617109</v>
+      </c>
+      <c r="F51">
+        <v>0.03058601081207214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2">
+        <v>34572</v>
+      </c>
+      <c r="B52">
+        <v>0.0749863013698619</v>
+      </c>
+      <c r="C52">
+        <v>0.0832022308438809</v>
+      </c>
+      <c r="D52">
+        <v>2040786</v>
+      </c>
+      <c r="E52">
+        <v>266.8452676637644</v>
+      </c>
+      <c r="F52">
+        <v>0.03343099645921552</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2">
+        <v>34586</v>
+      </c>
+      <c r="B53">
+        <v>0.07508219178082079</v>
+      </c>
+      <c r="C53">
+        <v>0.03043719557956592</v>
+      </c>
+      <c r="D53">
+        <v>2040786</v>
+      </c>
+      <c r="E53">
+        <v>266.9284698946083</v>
+      </c>
+      <c r="F53">
+        <v>0.03380543393775942</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2">
+        <v>34600</v>
+      </c>
+      <c r="B54">
+        <v>0.07517808219177968</v>
+      </c>
+      <c r="C54">
+        <v>0.02594152815800044</v>
+      </c>
+      <c r="D54">
+        <v>2040786</v>
+      </c>
+      <c r="E54">
+        <v>266.9589070901878</v>
+      </c>
+      <c r="F54">
+        <v>0.03394241135592675</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2">
+        <v>34614</v>
+      </c>
+      <c r="B55">
+        <v>0.07527397260273858</v>
+      </c>
+      <c r="C55">
+        <v>0.02551579380019575</v>
+      </c>
+      <c r="D55">
+        <v>2040786</v>
+      </c>
+      <c r="E55">
+        <v>266.9848486183458</v>
+      </c>
+      <c r="F55">
+        <v>0.03405915678804478</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2">
+        <v>34628</v>
+      </c>
+      <c r="B56">
+        <v>0.07536986301369747</v>
+      </c>
+      <c r="C56">
+        <v>0.02589321437721992</v>
+      </c>
+      <c r="D56">
+        <v>2040786</v>
+      </c>
+      <c r="E56">
+        <v>267.010364412146</v>
+      </c>
+      <c r="F56">
+        <v>0.03417398627514745</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="2">
+        <v>34642</v>
+      </c>
+      <c r="B57">
+        <v>0.07546575342465636</v>
+      </c>
+      <c r="C57">
+        <v>0.02538745037770695</v>
+      </c>
+      <c r="D57">
+        <v>2040786</v>
+      </c>
+      <c r="E57">
+        <v>267.0362576265233</v>
+      </c>
+      <c r="F57">
+        <v>0.03429051427931825</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="2">
+        <v>34656</v>
+      </c>
+      <c r="B58">
+        <v>0.07556164383561526</v>
+      </c>
+      <c r="C58">
+        <v>0.02546000825213923</v>
+      </c>
+      <c r="D58">
+        <v>2040786</v>
+      </c>
+      <c r="E58">
+        <v>267.061645076901</v>
+      </c>
+      <c r="F58">
+        <v>0.0344047661786925</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="2">
+        <v>34670</v>
+      </c>
+      <c r="B59">
+        <v>0.07565753424657415</v>
+      </c>
+      <c r="C59">
+        <v>0.02559481144066922</v>
+      </c>
+      <c r="D59">
+        <v>2040786</v>
+      </c>
+      <c r="E59">
+        <v>267.0871050851531</v>
+      </c>
+      <c r="F59">
+        <v>0.03451934461243099</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="2">
+        <v>34684</v>
+      </c>
+      <c r="B60">
+        <v>0.07575342465753304</v>
+      </c>
+      <c r="C60">
+        <v>0.02587481097646105</v>
+      </c>
+      <c r="D60">
+        <v>2040786</v>
+      </c>
+      <c r="E60">
+        <v>267.1126998965938</v>
+      </c>
+      <c r="F60">
+        <v>0.03463452970497519</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="2">
+        <v>34698</v>
+      </c>
+      <c r="B61">
+        <v>0.07584931506849193</v>
+      </c>
+      <c r="C61">
+        <v>0.02567194990388089</v>
+      </c>
+      <c r="D61">
+        <v>2040786</v>
+      </c>
+      <c r="E61">
+        <v>267.1385747075702</v>
+      </c>
+      <c r="F61">
+        <v>0.03475097488777344</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="2">
+        <v>34712</v>
+      </c>
+      <c r="B62">
+        <v>0.07594520547945083</v>
+      </c>
+      <c r="C62">
+        <v>0.02566345438367534</v>
+      </c>
+      <c r="D62">
+        <v>2040786</v>
+      </c>
+      <c r="E62">
+        <v>267.1642466574741</v>
+      </c>
+      <c r="F62">
+        <v>0.03486650712884206</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="2">
+        <v>34726</v>
+      </c>
+      <c r="B63">
+        <v>0.07604109589040972</v>
+      </c>
+      <c r="C63">
+        <v>0.02593835036282144</v>
+      </c>
+      <c r="D63">
+        <v>2040786</v>
+      </c>
+      <c r="E63">
+        <v>267.1899101118578</v>
+      </c>
+      <c r="F63">
+        <v>0.03498200113726818</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="2">
+        <v>34740</v>
+      </c>
+      <c r="B64">
+        <v>0.07613698630136861</v>
+      </c>
+      <c r="C64">
+        <v>0.02572588780151364</v>
+      </c>
+      <c r="D64">
+        <v>2040786</v>
+      </c>
+      <c r="E64">
+        <v>267.2158484622206</v>
+      </c>
+      <c r="F64">
+        <v>0.03509873226825981</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="2">
+        <v>34754</v>
+      </c>
+      <c r="B65">
+        <v>0.07623287671232751</v>
+      </c>
+      <c r="C65">
+        <v>0.0253893358684536</v>
+      </c>
+      <c r="D65">
+        <v>2040786</v>
+      </c>
+      <c r="E65">
+        <v>267.2415743500221</v>
+      </c>
+      <c r="F65">
+        <v>0.0352145072476564</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="2">
+        <v>34768</v>
+      </c>
+      <c r="B66">
+        <v>0.0763287671232864</v>
+      </c>
+      <c r="C66">
+        <v>0.02573280030480873</v>
+      </c>
+      <c r="D66">
+        <v>2040786</v>
+      </c>
+      <c r="E66">
+        <v>267.2669636858906</v>
+      </c>
+      <c r="F66">
+        <v>0.03532876763236096</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="2">
+        <v>34782</v>
+      </c>
+      <c r="B67">
+        <v>0.07642465753424529</v>
+      </c>
+      <c r="C67">
+        <v>0.02600622516808926</v>
+      </c>
+      <c r="D67">
+        <v>2040786</v>
+      </c>
+      <c r="E67">
+        <v>267.2926964861954</v>
+      </c>
+      <c r="F67">
+        <v>0.03544457372030205</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="2">
+        <v>34796</v>
+      </c>
+      <c r="B68">
+        <v>0.07652054794520419</v>
+      </c>
+      <c r="C68">
+        <v>-2.554868567008953</v>
+      </c>
+      <c r="D68">
+        <v>2040786</v>
+      </c>
+      <c r="E68">
+        <v>267.3187027113635</v>
+      </c>
+      <c r="F68">
+        <v>0.03556161031030234</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="2">
+        <v>34810</v>
+      </c>
+      <c r="B69">
+        <v>0.07654164383561515</v>
+      </c>
+      <c r="C69">
+        <v>-0.1680329649370833</v>
+      </c>
+      <c r="D69">
+        <v>2040786</v>
+      </c>
+      <c r="E69">
+        <v>264.7638341443545</v>
+      </c>
+      <c r="F69">
+        <v>0.02406385917383577</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="2">
+        <v>34824</v>
+      </c>
+      <c r="B70">
+        <v>0.07656273972602612</v>
+      </c>
+      <c r="C70">
+        <v>-0.0001621223910888148</v>
+      </c>
+      <c r="D70">
+        <v>2040786</v>
+      </c>
+      <c r="E70">
+        <v>264.5958011794174</v>
+      </c>
+      <c r="F70">
+        <v>0.02330765541505266</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -537,7 +6077,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -569,6 +6109,566 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>35412</v>
+      </c>
+      <c r="B2">
+        <v>0.04232698630136976</v>
+      </c>
+      <c r="C2">
+        <v>-0.03059150804983801</v>
+      </c>
+      <c r="D2">
+        <v>2057448.983333334</v>
+      </c>
+      <c r="E2">
+        <v>264.91510732004</v>
+      </c>
+      <c r="F2">
+        <v>0.02660332756660077</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>35426</v>
+      </c>
+      <c r="B3">
+        <v>0.04234808219178071</v>
+      </c>
+      <c r="C3">
+        <v>0.06736428229817193</v>
+      </c>
+      <c r="D3">
+        <v>2039583.516666667</v>
+      </c>
+      <c r="E3">
+        <v>264.8845158119901</v>
+      </c>
+      <c r="F3">
+        <v>0.02447283426726153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>35440</v>
+      </c>
+      <c r="B4">
+        <v>0.04236917808219166</v>
+      </c>
+      <c r="C4">
+        <v>-1.3464101452563</v>
+      </c>
+      <c r="D4">
+        <v>2052639.05</v>
+      </c>
+      <c r="E4">
+        <v>264.9518800942883</v>
+      </c>
+      <c r="F4">
+        <v>0.02623228833325736</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>35524</v>
+      </c>
+      <c r="B5">
+        <v>0.04237972602739714</v>
+      </c>
+      <c r="C5">
+        <v>0.9670503226150231</v>
+      </c>
+      <c r="D5">
+        <v>1648089.3</v>
+      </c>
+      <c r="E5">
+        <v>263.6080102627542</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>35538</v>
+      </c>
+      <c r="B6">
+        <v>0.04240082191780809</v>
+      </c>
+      <c r="C6">
+        <v>0.5429186284952721</v>
+      </c>
+      <c r="D6">
+        <v>2050319.975</v>
+      </c>
+      <c r="E6">
+        <v>264.5750605853692</v>
+      </c>
+      <c r="F6">
+        <v>0.02427779271937768</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>35552</v>
+      </c>
+      <c r="B7">
+        <v>0.04242191780821904</v>
+      </c>
+      <c r="C7">
+        <v>0.02318166248778653</v>
+      </c>
+      <c r="D7">
+        <v>2063289.616666667</v>
+      </c>
+      <c r="E7">
+        <v>265.1179792138645</v>
+      </c>
+      <c r="F7">
+        <v>0.02816781730685571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>35566</v>
+      </c>
+      <c r="B8">
+        <v>0.04244301369863</v>
+      </c>
+      <c r="C8">
+        <v>-0.003279345269675105</v>
+      </c>
+      <c r="D8">
+        <v>2046454.85</v>
+      </c>
+      <c r="E8">
+        <v>265.1411608763523</v>
+      </c>
+      <c r="F8">
+        <v>0.02639429147588042</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>35580</v>
+      </c>
+      <c r="B9">
+        <v>0.04246410958904095</v>
+      </c>
+      <c r="C9">
+        <v>0.04783723457489941</v>
+      </c>
+      <c r="D9">
+        <v>2048258.574999999</v>
+      </c>
+      <c r="E9">
+        <v>265.1378815310826</v>
+      </c>
+      <c r="F9">
+        <v>0.02658073165751512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>35622</v>
+      </c>
+      <c r="B10">
+        <v>0.04249575342465738</v>
+      </c>
+      <c r="C10">
+        <v>0.2731037652188206</v>
+      </c>
+      <c r="D10">
+        <v>2039841.191666667</v>
+      </c>
+      <c r="E10">
+        <v>264.6931278535579</v>
+      </c>
+      <c r="F10">
+        <v>0.02364026795206622</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>35636</v>
+      </c>
+      <c r="B11">
+        <v>0.04251684931506833</v>
+      </c>
+      <c r="C11">
+        <v>0.01432966928268797</v>
+      </c>
+      <c r="D11">
+        <v>2026699.766666666</v>
+      </c>
+      <c r="E11">
+        <v>264.9662316187768</v>
+      </c>
+      <c r="F11">
+        <v>0.02340345151259762</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>35650</v>
+      </c>
+      <c r="B12">
+        <v>0.04253794520547928</v>
+      </c>
+      <c r="C12">
+        <v>0.1604289383435571</v>
+      </c>
+      <c r="D12">
+        <v>2051866.025</v>
+      </c>
+      <c r="E12">
+        <v>264.9805612880594</v>
+      </c>
+      <c r="F12">
+        <v>0.02627513531408098</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>35664</v>
+      </c>
+      <c r="B13">
+        <v>0.04255904109589023</v>
+      </c>
+      <c r="C13">
+        <v>0.08201325988989083</v>
+      </c>
+      <c r="D13">
+        <v>2028503.491666668</v>
+      </c>
+      <c r="E13">
+        <v>265.140990226403</v>
+      </c>
+      <c r="F13">
+        <v>0.02439112119843374</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>35678</v>
+      </c>
+      <c r="B14">
+        <v>0.04258013698630118</v>
+      </c>
+      <c r="C14">
+        <v>-0.07884550231653975</v>
+      </c>
+      <c r="D14">
+        <v>2031080.241666667</v>
+      </c>
+      <c r="E14">
+        <v>265.2230034862929</v>
+      </c>
+      <c r="F14">
+        <v>0.02504763408251361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
+        <v>35692</v>
+      </c>
+      <c r="B15">
+        <v>0.04260123287671214</v>
+      </c>
+      <c r="C15">
+        <v>0.04931743464021565</v>
+      </c>
+      <c r="D15">
+        <v>2053497.966666667</v>
+      </c>
+      <c r="E15">
+        <v>265.1441579839764</v>
+      </c>
+      <c r="F15">
+        <v>0.02719341097161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
+        <v>35706</v>
+      </c>
+      <c r="B16">
+        <v>0.04262232876712309</v>
+      </c>
+      <c r="C16">
+        <v>0.06796328466373325</v>
+      </c>
+      <c r="D16">
+        <v>2038993.478260868</v>
+      </c>
+      <c r="E16">
+        <v>265.1934754186166</v>
+      </c>
+      <c r="F16">
+        <v>0.0257974379640274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
+        <v>35720</v>
+      </c>
+      <c r="B17">
+        <v>0.04264342465753404</v>
+      </c>
+      <c r="C17">
+        <v>-0.0630945857583356</v>
+      </c>
+      <c r="D17">
+        <v>2052724.941666667</v>
+      </c>
+      <c r="E17">
+        <v>265.2614387032803</v>
+      </c>
+      <c r="F17">
+        <v>0.02763498503708257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
+        <v>35734</v>
+      </c>
+      <c r="B18">
+        <v>0.04266452054794499</v>
+      </c>
+      <c r="C18">
+        <v>-0.09149422176847111</v>
+      </c>
+      <c r="D18">
+        <v>2038466.924999999</v>
+      </c>
+      <c r="E18">
+        <v>265.198344117522</v>
+      </c>
+      <c r="F18">
+        <v>0.02576061380240189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2">
+        <v>35748</v>
+      </c>
+      <c r="B19">
+        <v>0.04268561643835594</v>
+      </c>
+      <c r="C19">
+        <v>-1.298621312699652</v>
+      </c>
+      <c r="D19">
+        <v>2037436.225</v>
+      </c>
+      <c r="E19">
+        <v>265.1068498957535</v>
+      </c>
+      <c r="F19">
+        <v>0.02523388916325502</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2">
+        <v>35860</v>
+      </c>
+      <c r="B20">
+        <v>0.04271726027397237</v>
+      </c>
+      <c r="C20">
+        <v>0.8237425358588553</v>
+      </c>
+      <c r="D20">
+        <v>1996465.900000001</v>
+      </c>
+      <c r="E20">
+        <v>263.8168250182906</v>
+      </c>
+      <c r="F20">
+        <v>0.01485827571543106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2">
+        <v>35874</v>
+      </c>
+      <c r="B21">
+        <v>0.04273835616438332</v>
+      </c>
+      <c r="C21">
+        <v>0.4729886132329284</v>
+      </c>
+      <c r="D21">
+        <v>2019227.191666667</v>
+      </c>
+      <c r="E21">
+        <v>264.6405675541495</v>
+      </c>
+      <c r="F21">
+        <v>0.02110431993498839</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2">
+        <v>35888</v>
+      </c>
+      <c r="B22">
+        <v>0.04275945205479428</v>
+      </c>
+      <c r="C22">
+        <v>-0.01753293070089512</v>
+      </c>
+      <c r="D22">
+        <v>2031681.483333333</v>
+      </c>
+      <c r="E22">
+        <v>265.1135561673824</v>
+      </c>
+      <c r="F22">
+        <v>0.02462215115777089</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2">
+        <v>35902</v>
+      </c>
+      <c r="B23">
+        <v>0.04278054794520523</v>
+      </c>
+      <c r="C23">
+        <v>0.01062594308450571</v>
+      </c>
+      <c r="D23">
+        <v>2013017.729411765</v>
+      </c>
+      <c r="E23">
+        <v>265.0960232366815</v>
+      </c>
+      <c r="F23">
+        <v>0.02246138000948467</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2">
+        <v>35916</v>
+      </c>
+      <c r="B24">
+        <v>0.04280164383561618</v>
+      </c>
+      <c r="C24">
+        <v>0.1927917453180044</v>
+      </c>
+      <c r="D24">
+        <v>2044908.8</v>
+      </c>
+      <c r="E24">
+        <v>265.106649179766</v>
+      </c>
+      <c r="F24">
+        <v>0.02606652175926152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2">
+        <v>35930</v>
+      </c>
+      <c r="B25">
+        <v>0.04282273972602713</v>
+      </c>
+      <c r="C25">
+        <v>0.0201226066885738</v>
+      </c>
+      <c r="D25">
+        <v>2022054.147826087</v>
+      </c>
+      <c r="E25">
+        <v>265.299440925084</v>
+      </c>
+      <c r="F25">
+        <v>0.024384803062182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2">
+        <v>36000</v>
+      </c>
+      <c r="B26">
+        <v>0.04285438356164356</v>
+      </c>
+      <c r="C26">
+        <v>0.4405409749859928</v>
+      </c>
+      <c r="D26">
+        <v>2004282.041666667</v>
+      </c>
+      <c r="E26">
+        <v>264.7211649963854</v>
+      </c>
+      <c r="F26">
+        <v>0.01979996323745683</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2">
+        <v>36014</v>
+      </c>
+      <c r="B27">
+        <v>0.04287547945205451</v>
+      </c>
+      <c r="C27">
+        <v>0.1312865956274436</v>
+      </c>
+      <c r="D27">
+        <v>2028932.95</v>
+      </c>
+      <c r="E27">
+        <v>265.1617059713714</v>
+      </c>
+      <c r="F27">
+        <v>0.02453225324391469</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2">
+        <v>36028</v>
+      </c>
+      <c r="B28">
+        <v>0.04289657534246546</v>
+      </c>
+      <c r="C28">
+        <v>-0.06271560092898198</v>
+      </c>
+      <c r="D28">
+        <v>2010723.916666667</v>
+      </c>
+      <c r="E28">
+        <v>265.2929925669988</v>
+      </c>
+      <c r="F28">
+        <v>0.02309194130891608</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2">
+        <v>36042</v>
+      </c>
+      <c r="B29">
+        <v>0.04291767123287642</v>
+      </c>
+      <c r="C29">
+        <v>0.06438896178008235</v>
+      </c>
+      <c r="D29">
+        <v>2026871.550000001</v>
+      </c>
+      <c r="E29">
+        <v>265.2302769660698</v>
+      </c>
+      <c r="F29">
+        <v>0.02461090440092654</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -576,7 +6676,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F147"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -606,6 +6706,2926 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>36056</v>
+      </c>
+      <c r="B2">
+        <v>0.04293876712328737</v>
+      </c>
+      <c r="C2">
+        <v>-0.1127058713650513</v>
+      </c>
+      <c r="D2">
+        <v>2022061.616666668</v>
+      </c>
+      <c r="E2">
+        <v>265.2946659278499</v>
+      </c>
+      <c r="F2">
+        <v>0.02436414711917903</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>36070</v>
+      </c>
+      <c r="B3">
+        <v>0.04295986301369832</v>
+      </c>
+      <c r="C3">
+        <v>0.1157098107617003</v>
+      </c>
+      <c r="D3">
+        <v>2013386.558333334</v>
+      </c>
+      <c r="E3">
+        <v>265.1819600564849</v>
+      </c>
+      <c r="F3">
+        <v>0.02288926543272577</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>36084</v>
+      </c>
+      <c r="B4">
+        <v>0.04298095890410927</v>
+      </c>
+      <c r="C4">
+        <v>-2.085152465256215</v>
+      </c>
+      <c r="D4">
+        <v>2010809.808333334</v>
+      </c>
+      <c r="E4">
+        <v>265.2976698672466</v>
+      </c>
+      <c r="F4">
+        <v>0.02312257157481644</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>36098</v>
+      </c>
+      <c r="B5">
+        <v>0.04300205479452023</v>
+      </c>
+      <c r="C5">
+        <v>0.2123402061558863</v>
+      </c>
+      <c r="D5">
+        <v>2019370.344444445</v>
+      </c>
+      <c r="E5">
+        <v>263.2125174019903</v>
+      </c>
+      <c r="F5">
+        <v>0.01469359140571395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>36112</v>
+      </c>
+      <c r="B6">
+        <v>0.04302315068493118</v>
+      </c>
+      <c r="C6">
+        <v>0.03237868775454444</v>
+      </c>
+      <c r="D6">
+        <v>2019370.344444445</v>
+      </c>
+      <c r="E6">
+        <v>263.4248576081462</v>
+      </c>
+      <c r="F6">
+        <v>0.01564919236232393</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>36126</v>
+      </c>
+      <c r="B7">
+        <v>0.04304424657534213</v>
+      </c>
+      <c r="C7">
+        <v>0.02079798085947004</v>
+      </c>
+      <c r="D7">
+        <v>2019370.344444445</v>
+      </c>
+      <c r="E7">
+        <v>263.4572362959008</v>
+      </c>
+      <c r="F7">
+        <v>0.01579490713557456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>36140</v>
+      </c>
+      <c r="B8">
+        <v>0.04306534246575308</v>
+      </c>
+      <c r="C8">
+        <v>0.01949520480252431</v>
+      </c>
+      <c r="D8">
+        <v>2019370.344444445</v>
+      </c>
+      <c r="E8">
+        <v>263.4780342767602</v>
+      </c>
+      <c r="F8">
+        <v>0.0158885049085291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>36154</v>
+      </c>
+      <c r="B9">
+        <v>0.04308643835616403</v>
+      </c>
+      <c r="C9">
+        <v>-0.3652016747173548</v>
+      </c>
+      <c r="D9">
+        <v>2019370.344444445</v>
+      </c>
+      <c r="E9">
+        <v>263.4975294815628</v>
+      </c>
+      <c r="F9">
+        <v>0.01597623975957715</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>36168</v>
+      </c>
+      <c r="B10">
+        <v>0.04310753424657499</v>
+      </c>
+      <c r="C10">
+        <v>-0.1065520892398126</v>
+      </c>
+      <c r="D10">
+        <v>2019370.344444445</v>
+      </c>
+      <c r="E10">
+        <v>263.1323278068454</v>
+      </c>
+      <c r="F10">
+        <v>0.01433271178137001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>36182</v>
+      </c>
+      <c r="B11">
+        <v>0.04312863013698594</v>
+      </c>
+      <c r="C11">
+        <v>0.01076680624100845</v>
+      </c>
+      <c r="D11">
+        <v>2019370.344444445</v>
+      </c>
+      <c r="E11">
+        <v>263.0257757176056</v>
+      </c>
+      <c r="F11">
+        <v>0.01385319223935922</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>36196</v>
+      </c>
+      <c r="B12">
+        <v>0.04314972602739689</v>
+      </c>
+      <c r="C12">
+        <v>0.01887764214620802</v>
+      </c>
+      <c r="D12">
+        <v>2019370.344444445</v>
+      </c>
+      <c r="E12">
+        <v>263.0365425238466</v>
+      </c>
+      <c r="F12">
+        <v>0.01390164641829118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>36210</v>
+      </c>
+      <c r="B13">
+        <v>0.04317082191780784</v>
+      </c>
+      <c r="C13">
+        <v>0.01933548937188334</v>
+      </c>
+      <c r="D13">
+        <v>2019370.344444445</v>
+      </c>
+      <c r="E13">
+        <v>263.0554201659928</v>
+      </c>
+      <c r="F13">
+        <v>0.0139866020337164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>36224</v>
+      </c>
+      <c r="B14">
+        <v>0.04319191780821879</v>
+      </c>
+      <c r="C14">
+        <v>0.01890146922357872</v>
+      </c>
+      <c r="D14">
+        <v>2019370.344444445</v>
+      </c>
+      <c r="E14">
+        <v>263.0747556553647</v>
+      </c>
+      <c r="F14">
+        <v>0.01407361811265299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
+        <v>36238</v>
+      </c>
+      <c r="B15">
+        <v>0.04321301369862975</v>
+      </c>
+      <c r="C15">
+        <v>0.01940983133204099</v>
+      </c>
+      <c r="D15">
+        <v>2019370.344444445</v>
+      </c>
+      <c r="E15">
+        <v>263.0936571245883</v>
+      </c>
+      <c r="F15">
+        <v>0.01415868095778437</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
+        <v>36252</v>
+      </c>
+      <c r="B16">
+        <v>0.0432341095890407</v>
+      </c>
+      <c r="C16">
+        <v>0.01937187313842514</v>
+      </c>
+      <c r="D16">
+        <v>2019370.344444445</v>
+      </c>
+      <c r="E16">
+        <v>263.1130669559203</v>
+      </c>
+      <c r="F16">
+        <v>0.01424603160005942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
+        <v>36266</v>
+      </c>
+      <c r="B17">
+        <v>0.04325520547945165</v>
+      </c>
+      <c r="C17">
+        <v>0.01917274921027001</v>
+      </c>
+      <c r="D17">
+        <v>2019370.344444445</v>
+      </c>
+      <c r="E17">
+        <v>263.1324388290587</v>
+      </c>
+      <c r="F17">
+        <v>0.01433321141794475</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
+        <v>36280</v>
+      </c>
+      <c r="B18">
+        <v>0.0432763013698626</v>
+      </c>
+      <c r="C18">
+        <v>0.01964814623681832</v>
+      </c>
+      <c r="D18">
+        <v>2019370.344444445</v>
+      </c>
+      <c r="E18">
+        <v>263.151611578269</v>
+      </c>
+      <c r="F18">
+        <v>0.01441949511248308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2">
+        <v>36294</v>
+      </c>
+      <c r="B19">
+        <v>0.04329739726027355</v>
+      </c>
+      <c r="C19">
+        <v>0.01949210955103808</v>
+      </c>
+      <c r="D19">
+        <v>2019370.344444445</v>
+      </c>
+      <c r="E19">
+        <v>263.1712597245058</v>
+      </c>
+      <c r="F19">
+        <v>0.01450791825042496</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2">
+        <v>36308</v>
+      </c>
+      <c r="B20">
+        <v>0.04331849315068451</v>
+      </c>
+      <c r="C20">
+        <v>-0.7905553105154013</v>
+      </c>
+      <c r="D20">
+        <v>2019370.344444445</v>
+      </c>
+      <c r="E20">
+        <v>263.1907518340569</v>
+      </c>
+      <c r="F20">
+        <v>0.01459563917182048</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2">
+        <v>36770</v>
+      </c>
+      <c r="B21">
+        <v>0.04333958904109546</v>
+      </c>
+      <c r="C21">
+        <v>0.01328032038497895</v>
+      </c>
+      <c r="D21">
+        <v>875407.8666666667</v>
+      </c>
+      <c r="E21">
+        <v>262.4136542394031</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2">
+        <v>36784</v>
+      </c>
+      <c r="B22">
+        <v>0.04336068493150641</v>
+      </c>
+      <c r="C22">
+        <v>0.01334460263092296</v>
+      </c>
+      <c r="D22">
+        <v>875407.8666666667</v>
+      </c>
+      <c r="E22">
+        <v>262.426934559788</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2">
+        <v>36798</v>
+      </c>
+      <c r="B23">
+        <v>0.04338178082191736</v>
+      </c>
+      <c r="C23">
+        <v>0.01291906936080522</v>
+      </c>
+      <c r="D23">
+        <v>875407.8666666667</v>
+      </c>
+      <c r="E23">
+        <v>262.440279162419</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2">
+        <v>36812</v>
+      </c>
+      <c r="B24">
+        <v>0.04340287671232831</v>
+      </c>
+      <c r="C24">
+        <v>0.007065782709901214</v>
+      </c>
+      <c r="D24">
+        <v>875407.8666666667</v>
+      </c>
+      <c r="E24">
+        <v>262.4531982317798</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2">
+        <v>36840</v>
+      </c>
+      <c r="B25">
+        <v>0.04343452054794474</v>
+      </c>
+      <c r="C25">
+        <v>0.3554199909306135</v>
+      </c>
+      <c r="D25">
+        <v>1931360.016666666</v>
+      </c>
+      <c r="E25">
+        <v>262.4706314301249</v>
+      </c>
+      <c r="F25">
+        <v>0.001537659448171492</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2">
+        <v>36854</v>
+      </c>
+      <c r="B26">
+        <v>0.04345561643835569</v>
+      </c>
+      <c r="C26">
+        <v>0.08653461194307965</v>
+      </c>
+      <c r="D26">
+        <v>1973962.283333333</v>
+      </c>
+      <c r="E26">
+        <v>262.8260514210555</v>
+      </c>
+      <c r="F26">
+        <v>0.007889279250232452</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2">
+        <v>36868</v>
+      </c>
+      <c r="B27">
+        <v>0.04347671232876665</v>
+      </c>
+      <c r="C27">
+        <v>0.06898263582570507</v>
+      </c>
+      <c r="D27">
+        <v>1979888.808333333</v>
+      </c>
+      <c r="E27">
+        <v>262.9125860329985</v>
+      </c>
+      <c r="F27">
+        <v>0.008939793726705518</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2">
+        <v>36896</v>
+      </c>
+      <c r="B28">
+        <v>0.04350835616438307</v>
+      </c>
+      <c r="C28">
+        <v>0.3763802526193558</v>
+      </c>
+      <c r="D28">
+        <v>1968980.566666667</v>
+      </c>
+      <c r="E28">
+        <v>262.7343899763795</v>
+      </c>
+      <c r="F28">
+        <v>0.006921081930200647</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2">
+        <v>36910</v>
+      </c>
+      <c r="B29">
+        <v>0.04352945205479403</v>
+      </c>
+      <c r="C29">
+        <v>0.09135275108474161</v>
+      </c>
+      <c r="D29">
+        <v>1973532.825</v>
+      </c>
+      <c r="E29">
+        <v>263.1107702289988</v>
+      </c>
+      <c r="F29">
+        <v>0.009122703423887222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2">
+        <v>36924</v>
+      </c>
+      <c r="B30">
+        <v>0.04355054794520498</v>
+      </c>
+      <c r="C30">
+        <v>0.08559326223257813</v>
+      </c>
+      <c r="D30">
+        <v>1989079.216666667</v>
+      </c>
+      <c r="E30">
+        <v>263.2021229800836</v>
+      </c>
+      <c r="F30">
+        <v>0.01126795880543421</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2">
+        <v>36938</v>
+      </c>
+      <c r="B31">
+        <v>0.04357164383561593</v>
+      </c>
+      <c r="C31">
+        <v>-0.1711316164339678</v>
+      </c>
+      <c r="D31">
+        <v>1982980.908333333</v>
+      </c>
+      <c r="E31">
+        <v>263.2877162423162</v>
+      </c>
+      <c r="F31">
+        <v>0.01097291478533865</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2">
+        <v>36952</v>
+      </c>
+      <c r="B32">
+        <v>0.04359273972602688</v>
+      </c>
+      <c r="C32">
+        <v>-0.5450133715544325</v>
+      </c>
+      <c r="D32">
+        <v>1990797.05</v>
+      </c>
+      <c r="E32">
+        <v>263.1165846258822</v>
+      </c>
+      <c r="F32">
+        <v>0.01107462544596902</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2">
+        <v>37008</v>
+      </c>
+      <c r="B33">
+        <v>0.04361383561643783</v>
+      </c>
+      <c r="C33">
+        <v>0.09672797938560507</v>
+      </c>
+      <c r="D33">
+        <v>2003423.125</v>
+      </c>
+      <c r="E33">
+        <v>263.0345452561893</v>
+      </c>
+      <c r="F33">
+        <v>0.01211380944415032</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2">
+        <v>37022</v>
+      </c>
+      <c r="B34">
+        <v>0.04363493150684879</v>
+      </c>
+      <c r="C34">
+        <v>0.02562665559912602</v>
+      </c>
+      <c r="D34">
+        <v>1981520.75</v>
+      </c>
+      <c r="E34">
+        <v>263.1312732355749</v>
+      </c>
+      <c r="F34">
+        <v>0.01010599483281983</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2">
+        <v>37036</v>
+      </c>
+      <c r="B35">
+        <v>0.04365602739725974</v>
+      </c>
+      <c r="C35">
+        <v>0.008831979291699099</v>
+      </c>
+      <c r="D35">
+        <v>1986600.628571429</v>
+      </c>
+      <c r="E35">
+        <v>263.156899891174</v>
+      </c>
+      <c r="F35">
+        <v>0.0107879633922743</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2">
+        <v>37050</v>
+      </c>
+      <c r="B36">
+        <v>0.04367712328767069</v>
+      </c>
+      <c r="C36">
+        <v>-0.140668947332415</v>
+      </c>
+      <c r="D36">
+        <v>1974219.958333333</v>
+      </c>
+      <c r="E36">
+        <v>263.1657318704657</v>
+      </c>
+      <c r="F36">
+        <v>0.009446695914459314</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2">
+        <v>37064</v>
+      </c>
+      <c r="B37">
+        <v>0.04369821917808164</v>
+      </c>
+      <c r="C37">
+        <v>0.06801185002279908</v>
+      </c>
+      <c r="D37">
+        <v>1976624.924999999</v>
+      </c>
+      <c r="E37">
+        <v>263.0250629231333</v>
+      </c>
+      <c r="F37">
+        <v>0.009081903681918743</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2">
+        <v>37078</v>
+      </c>
+      <c r="B38">
+        <v>0.0437193150684926</v>
+      </c>
+      <c r="C38">
+        <v>0.1380947991893891</v>
+      </c>
+      <c r="D38">
+        <v>1974134.066666667</v>
+      </c>
+      <c r="E38">
+        <v>263.0930747731561</v>
+      </c>
+      <c r="F38">
+        <v>0.00911013414232865</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2">
+        <v>37092</v>
+      </c>
+      <c r="B39">
+        <v>0.04374041095890355</v>
+      </c>
+      <c r="C39">
+        <v>-0.1781564195621286</v>
+      </c>
+      <c r="D39">
+        <v>1965544.9</v>
+      </c>
+      <c r="E39">
+        <v>263.2311695723455</v>
+      </c>
+      <c r="F39">
+        <v>0.008773519058610256</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2">
+        <v>37106</v>
+      </c>
+      <c r="B40">
+        <v>0.0437615068493145</v>
+      </c>
+      <c r="C40">
+        <v>0.1745223357449959</v>
+      </c>
+      <c r="D40">
+        <v>1973103.366666667</v>
+      </c>
+      <c r="E40">
+        <v>263.0530131527834</v>
+      </c>
+      <c r="F40">
+        <v>0.008814873171718638</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2">
+        <v>37120</v>
+      </c>
+      <c r="B41">
+        <v>0.04378260273972545</v>
+      </c>
+      <c r="C41">
+        <v>-0.02647583694181321</v>
+      </c>
+      <c r="D41">
+        <v>1970268.941666667</v>
+      </c>
+      <c r="E41">
+        <v>263.2275354885284</v>
+      </c>
+      <c r="F41">
+        <v>0.00928411245566336</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2">
+        <v>37134</v>
+      </c>
+      <c r="B42">
+        <v>0.0438036986301364</v>
+      </c>
+      <c r="C42">
+        <v>-0.05463684484300302</v>
+      </c>
+      <c r="D42">
+        <v>1981864.316666667</v>
+      </c>
+      <c r="E42">
+        <v>263.2010596515865</v>
+      </c>
+      <c r="F42">
+        <v>0.01045838020906547</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2">
+        <v>37148</v>
+      </c>
+      <c r="B43">
+        <v>0.04382479452054736</v>
+      </c>
+      <c r="C43">
+        <v>0.02226017640214195</v>
+      </c>
+      <c r="D43">
+        <v>1974821.200000001</v>
+      </c>
+      <c r="E43">
+        <v>263.1464228067435</v>
+      </c>
+      <c r="F43">
+        <v>0.009426864865282212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2">
+        <v>37162</v>
+      </c>
+      <c r="B44">
+        <v>0.04384589041095831</v>
+      </c>
+      <c r="C44">
+        <v>0.04649047172790688</v>
+      </c>
+      <c r="D44">
+        <v>1980232.375</v>
+      </c>
+      <c r="E44">
+        <v>263.1686829831457</v>
+      </c>
+      <c r="F44">
+        <v>0.01013063795099254</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2">
+        <v>37176</v>
+      </c>
+      <c r="B45">
+        <v>0.04386698630136926</v>
+      </c>
+      <c r="C45">
+        <v>-0.02613574650911232</v>
+      </c>
+      <c r="D45">
+        <v>1967005.058333334</v>
+      </c>
+      <c r="E45">
+        <v>263.2151734548736</v>
+      </c>
+      <c r="F45">
+        <v>0.00886440608247077</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2">
+        <v>37190</v>
+      </c>
+      <c r="B46">
+        <v>0.04388808219178021</v>
+      </c>
+      <c r="C46">
+        <v>0.15236051622594</v>
+      </c>
+      <c r="D46">
+        <v>1957900.541666666</v>
+      </c>
+      <c r="E46">
+        <v>263.1890377083645</v>
+      </c>
+      <c r="F46">
+        <v>0.007731214147175163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2">
+        <v>37204</v>
+      </c>
+      <c r="B47">
+        <v>0.04390917808219116</v>
+      </c>
+      <c r="C47">
+        <v>-0.1510086819226899</v>
+      </c>
+      <c r="D47">
+        <v>1956354.491666667</v>
+      </c>
+      <c r="E47">
+        <v>263.3413982245904</v>
+      </c>
+      <c r="F47">
+        <v>0.008244431017882492</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2">
+        <v>37218</v>
+      </c>
+      <c r="B48">
+        <v>0.04393027397260212</v>
+      </c>
+      <c r="C48">
+        <v>0.06269685928941726</v>
+      </c>
+      <c r="D48">
+        <v>1958329.999999999</v>
+      </c>
+      <c r="E48">
+        <v>263.1903895426677</v>
+      </c>
+      <c r="F48">
+        <v>0.007785202208526829</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2">
+        <v>37232</v>
+      </c>
+      <c r="B49">
+        <v>0.04395136986301307</v>
+      </c>
+      <c r="C49">
+        <v>-0.06705926546646879</v>
+      </c>
+      <c r="D49">
+        <v>1952231.691666667</v>
+      </c>
+      <c r="E49">
+        <v>263.2530864019571</v>
+      </c>
+      <c r="F49">
+        <v>0.007387116824049715</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2">
+        <v>37246</v>
+      </c>
+      <c r="B50">
+        <v>0.04397246575342402</v>
+      </c>
+      <c r="C50">
+        <v>-0.3733725514105117</v>
+      </c>
+      <c r="D50">
+        <v>315394.1999999999</v>
+      </c>
+      <c r="E50">
+        <v>263.1860271364907</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2">
+        <v>37260</v>
+      </c>
+      <c r="B51">
+        <v>0.0439830136986295</v>
+      </c>
+      <c r="C51">
+        <v>0.002969899704794443</v>
+      </c>
+      <c r="D51">
+        <v>1953777.741666667</v>
+      </c>
+      <c r="E51">
+        <v>262.8126545850802</v>
+      </c>
+      <c r="F51">
+        <v>0.005577484095707394</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2">
+        <v>37274</v>
+      </c>
+      <c r="B52">
+        <v>0.04399356164383497</v>
+      </c>
+      <c r="C52">
+        <v>0.3189879825873732</v>
+      </c>
+      <c r="D52">
+        <v>307492.1666666667</v>
+      </c>
+      <c r="E52">
+        <v>262.815624484785</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2">
+        <v>37288</v>
+      </c>
+      <c r="B53">
+        <v>0.04401465753424592</v>
+      </c>
+      <c r="C53">
+        <v>0.101357141888343</v>
+      </c>
+      <c r="D53">
+        <v>1935396.925</v>
+      </c>
+      <c r="E53">
+        <v>263.1346124673723</v>
+      </c>
+      <c r="F53">
+        <v>0.004976094088826572</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2">
+        <v>37302</v>
+      </c>
+      <c r="B54">
+        <v>0.04403575342465688</v>
+      </c>
+      <c r="C54">
+        <v>0.01843459236704348</v>
+      </c>
+      <c r="D54">
+        <v>1958845.349999999</v>
+      </c>
+      <c r="E54">
+        <v>263.2359696092607</v>
+      </c>
+      <c r="F54">
+        <v>0.008047812773698941</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2">
+        <v>37316</v>
+      </c>
+      <c r="B55">
+        <v>0.04405684931506783</v>
+      </c>
+      <c r="C55">
+        <v>0.04547951900656244</v>
+      </c>
+      <c r="D55">
+        <v>1959017.133333334</v>
+      </c>
+      <c r="E55">
+        <v>263.2544042016277</v>
+      </c>
+      <c r="F55">
+        <v>0.008149936263465196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2">
+        <v>37330</v>
+      </c>
+      <c r="B56">
+        <v>0.04407794520547878</v>
+      </c>
+      <c r="C56">
+        <v>-0.0836156372484993</v>
+      </c>
+      <c r="D56">
+        <v>1924918.141666666</v>
+      </c>
+      <c r="E56">
+        <v>263.2998837206343</v>
+      </c>
+      <c r="F56">
+        <v>0.004551002822020688</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="2">
+        <v>37344</v>
+      </c>
+      <c r="B57">
+        <v>0.04409904109588973</v>
+      </c>
+      <c r="C57">
+        <v>0.2314161416653633</v>
+      </c>
+      <c r="D57">
+        <v>1966232.033333334</v>
+      </c>
+      <c r="E57">
+        <v>263.2162680833858</v>
+      </c>
+      <c r="F57">
+        <v>0.008783104421695545</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="2">
+        <v>37358</v>
+      </c>
+      <c r="B58">
+        <v>0.04412013698630068</v>
+      </c>
+      <c r="C58">
+        <v>-0.547352610640246</v>
+      </c>
+      <c r="D58">
+        <v>1957900.541666666</v>
+      </c>
+      <c r="E58">
+        <v>263.4476842250511</v>
+      </c>
+      <c r="F58">
+        <v>0.008895208772800429</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="2">
+        <v>37456</v>
+      </c>
+      <c r="B59">
+        <v>0.04415178082191711</v>
+      </c>
+      <c r="C59">
+        <v>0.6565925137814475</v>
+      </c>
+      <c r="D59">
+        <v>1963139.933333333</v>
+      </c>
+      <c r="E59">
+        <v>262.9094182020993</v>
+      </c>
+      <c r="F59">
+        <v>0.007057267357767977</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="2">
+        <v>37470</v>
+      </c>
+      <c r="B60">
+        <v>0.04417287671232806</v>
+      </c>
+      <c r="C60">
+        <v>-0.04153167491892873</v>
+      </c>
+      <c r="D60">
+        <v>1974735.308333333</v>
+      </c>
+      <c r="E60">
+        <v>263.5660107158808</v>
+      </c>
+      <c r="F60">
+        <v>0.01130556796249898</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="2">
+        <v>37484</v>
+      </c>
+      <c r="B61">
+        <v>0.04419397260273902</v>
+      </c>
+      <c r="C61">
+        <v>0.1063406090681838</v>
+      </c>
+      <c r="D61">
+        <v>1977226.166666666</v>
+      </c>
+      <c r="E61">
+        <v>263.5244790409619</v>
+      </c>
+      <c r="F61">
+        <v>0.01139650702310688</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="2">
+        <v>37498</v>
+      </c>
+      <c r="B62">
+        <v>0.04421506849314997</v>
+      </c>
+      <c r="C62">
+        <v>0.1148766014212015</v>
+      </c>
+      <c r="D62">
+        <v>1976453.141666667</v>
+      </c>
+      <c r="E62">
+        <v>263.63081965003</v>
+      </c>
+      <c r="F62">
+        <v>0.01178884698451617</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="2">
+        <v>37512</v>
+      </c>
+      <c r="B63">
+        <v>0.04423616438356092</v>
+      </c>
+      <c r="C63">
+        <v>-0.08257343122227212</v>
+      </c>
+      <c r="D63">
+        <v>1986931.924999999</v>
+      </c>
+      <c r="E63">
+        <v>263.7456962514512</v>
+      </c>
+      <c r="F63">
+        <v>0.01347469598898226</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="2">
+        <v>37526</v>
+      </c>
+      <c r="B64">
+        <v>0.04425726027397187</v>
+      </c>
+      <c r="C64">
+        <v>0.1189032543354642</v>
+      </c>
+      <c r="D64">
+        <v>1997840.166666667</v>
+      </c>
+      <c r="E64">
+        <v>263.663122820229</v>
+      </c>
+      <c r="F64">
+        <v>0.01431985908951914</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="2">
+        <v>37540</v>
+      </c>
+      <c r="B65">
+        <v>0.04427835616438282</v>
+      </c>
+      <c r="C65">
+        <v>-0.1687965589337637</v>
+      </c>
+      <c r="D65">
+        <v>1973017.475</v>
+      </c>
+      <c r="E65">
+        <v>263.7820260745644</v>
+      </c>
+      <c r="F65">
+        <v>0.01208609087290253</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="2">
+        <v>37554</v>
+      </c>
+      <c r="B66">
+        <v>0.04429945205479378</v>
+      </c>
+      <c r="C66">
+        <v>-0.08967157731831321</v>
+      </c>
+      <c r="D66">
+        <v>1965373.116666666</v>
+      </c>
+      <c r="E66">
+        <v>263.6132295156307</v>
+      </c>
+      <c r="F66">
+        <v>0.01047375306069537</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="2">
+        <v>37568</v>
+      </c>
+      <c r="B67">
+        <v>0.04432054794520473</v>
+      </c>
+      <c r="C67">
+        <v>0.3256487038732985</v>
+      </c>
+      <c r="D67">
+        <v>1959103.025</v>
+      </c>
+      <c r="E67">
+        <v>263.5235579383124</v>
+      </c>
+      <c r="F67">
+        <v>0.009370797716549679</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="2">
+        <v>37582</v>
+      </c>
+      <c r="B68">
+        <v>0.04434164383561568</v>
+      </c>
+      <c r="C68">
+        <v>-0.3938520858262109</v>
+      </c>
+      <c r="D68">
+        <v>352842.9666666667</v>
+      </c>
+      <c r="E68">
+        <v>263.8492066421857</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="2">
+        <v>37596</v>
+      </c>
+      <c r="B69">
+        <v>0.04436273972602663</v>
+      </c>
+      <c r="C69">
+        <v>0.373184014134722</v>
+      </c>
+      <c r="D69">
+        <v>1982036.1</v>
+      </c>
+      <c r="E69">
+        <v>263.4553545563595</v>
+      </c>
+      <c r="F69">
+        <v>0.01162195289039853</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="2">
+        <v>37610</v>
+      </c>
+      <c r="B70">
+        <v>0.04438383561643758</v>
+      </c>
+      <c r="C70">
+        <v>0.2229111656603209</v>
+      </c>
+      <c r="D70">
+        <v>1992171.316666667</v>
+      </c>
+      <c r="E70">
+        <v>263.8285385704942</v>
+      </c>
+      <c r="F70">
+        <v>0.01443194695184963</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="2">
+        <v>37624</v>
+      </c>
+      <c r="B71">
+        <v>0.04440493150684854</v>
+      </c>
+      <c r="C71">
+        <v>-0.07356131363462737</v>
+      </c>
+      <c r="D71">
+        <v>1990797.050000001</v>
+      </c>
+      <c r="E71">
+        <v>264.0514497361545</v>
+      </c>
+      <c r="F71">
+        <v>0.01528182675678256</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="2">
+        <v>37638</v>
+      </c>
+      <c r="B72">
+        <v>0.04442602739725949</v>
+      </c>
+      <c r="C72">
+        <v>-0.04682666637677357</v>
+      </c>
+      <c r="D72">
+        <v>1993975.041666667</v>
+      </c>
+      <c r="E72">
+        <v>263.9778884225199</v>
+      </c>
+      <c r="F72">
+        <v>0.01530526885778213</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="2">
+        <v>37652</v>
+      </c>
+      <c r="B73">
+        <v>0.04444712328767044</v>
+      </c>
+      <c r="C73">
+        <v>0.1469294557389276</v>
+      </c>
+      <c r="D73">
+        <v>1993459.691666667</v>
+      </c>
+      <c r="E73">
+        <v>263.9310617561431</v>
+      </c>
+      <c r="F73">
+        <v>0.01503704818245919</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="2">
+        <v>37666</v>
+      </c>
+      <c r="B74">
+        <v>0.04446821917808139</v>
+      </c>
+      <c r="C74">
+        <v>-0.2085526861010294</v>
+      </c>
+      <c r="D74">
+        <v>1700053.758333333</v>
+      </c>
+      <c r="E74">
+        <v>264.077991211882</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="2">
+        <v>37680</v>
+      </c>
+      <c r="B75">
+        <v>0.04448931506849235</v>
+      </c>
+      <c r="C75">
+        <v>-0.02697693061077189</v>
+      </c>
+      <c r="D75">
+        <v>1969581.808333334</v>
+      </c>
+      <c r="E75">
+        <v>263.869438525781</v>
+      </c>
+      <c r="F75">
+        <v>0.01209624084237413</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="2">
+        <v>37694</v>
+      </c>
+      <c r="B76">
+        <v>0.0445104109589033</v>
+      </c>
+      <c r="C76">
+        <v>0.1551255748761378</v>
+      </c>
+      <c r="D76">
+        <v>1987704.95</v>
+      </c>
+      <c r="E76">
+        <v>263.8424615951702</v>
+      </c>
+      <c r="F76">
+        <v>0.01399639979860581</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="2">
+        <v>37708</v>
+      </c>
+      <c r="B77">
+        <v>0.04453150684931425</v>
+      </c>
+      <c r="C77">
+        <v>0.005951963856659859</v>
+      </c>
+      <c r="D77">
+        <v>1975937.791666666</v>
+      </c>
+      <c r="E77">
+        <v>263.9975871700464</v>
+      </c>
+      <c r="F77">
+        <v>0.01338193654958823</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="2">
+        <v>37722</v>
+      </c>
+      <c r="B78">
+        <v>0.0445526027397252</v>
+      </c>
+      <c r="C78">
+        <v>-0.3026180432050296</v>
+      </c>
+      <c r="D78">
+        <v>1973189.258333333</v>
+      </c>
+      <c r="E78">
+        <v>264.003539133903</v>
+      </c>
+      <c r="F78">
+        <v>0.01310213443846601</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="2">
+        <v>37736</v>
+      </c>
+      <c r="B79">
+        <v>0.04457369863013615</v>
+      </c>
+      <c r="C79">
+        <v>0.172739913822852</v>
+      </c>
+      <c r="D79">
+        <v>1970698.399999999</v>
+      </c>
+      <c r="E79">
+        <v>263.700921090698</v>
+      </c>
+      <c r="F79">
+        <v>0.01146240814716826</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="2">
+        <v>37750</v>
+      </c>
+      <c r="B80">
+        <v>0.04459479452054711</v>
+      </c>
+      <c r="C80">
+        <v>-0.02687166984276246</v>
+      </c>
+      <c r="D80">
+        <v>1976968.491666666</v>
+      </c>
+      <c r="E80">
+        <v>263.8736610045208</v>
+      </c>
+      <c r="F80">
+        <v>0.01293919840117303</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="2">
+        <v>37764</v>
+      </c>
+      <c r="B81">
+        <v>0.04461589041095806</v>
+      </c>
+      <c r="C81">
+        <v>0.04123669255443474</v>
+      </c>
+      <c r="D81">
+        <v>1978944.000000001</v>
+      </c>
+      <c r="E81">
+        <v>263.8467893346781</v>
+      </c>
+      <c r="F81">
+        <v>0.01303862708604265</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="2">
+        <v>37778</v>
+      </c>
+      <c r="B82">
+        <v>0.04463698630136901</v>
+      </c>
+      <c r="C82">
+        <v>0.02642553202122144</v>
+      </c>
+      <c r="D82">
+        <v>1954636.658333333</v>
+      </c>
+      <c r="E82">
+        <v>263.8880260272325</v>
+      </c>
+      <c r="F82">
+        <v>0.01051281896069475</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="2">
+        <v>37792</v>
+      </c>
+      <c r="B83">
+        <v>0.04465808219177996</v>
+      </c>
+      <c r="C83">
+        <v>-0.01317400459583951</v>
+      </c>
+      <c r="D83">
+        <v>1967262.733333334</v>
+      </c>
+      <c r="E83">
+        <v>263.9144515592537</v>
+      </c>
+      <c r="F83">
+        <v>0.01204013078785883</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="2">
+        <v>37806</v>
+      </c>
+      <c r="B84">
+        <v>0.04467917808219091</v>
+      </c>
+      <c r="C84">
+        <v>-0.06013890749136408</v>
+      </c>
+      <c r="D84">
+        <v>1958759.458333333</v>
+      </c>
+      <c r="E84">
+        <v>263.9012775546579</v>
+      </c>
+      <c r="F84">
+        <v>0.01103233707152183</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="2">
+        <v>37820</v>
+      </c>
+      <c r="B85">
+        <v>0.04470027397260187</v>
+      </c>
+      <c r="C85">
+        <v>0.03967473424779655</v>
+      </c>
+      <c r="D85">
+        <v>1968980.566666666</v>
+      </c>
+      <c r="E85">
+        <v>263.8411386471665</v>
+      </c>
+      <c r="F85">
+        <v>0.01190181594980691</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="2">
+        <v>37834</v>
+      </c>
+      <c r="B86">
+        <v>0.04472136986301282</v>
+      </c>
+      <c r="C86">
+        <v>0.2204438458896902</v>
+      </c>
+      <c r="D86">
+        <v>1977569.733333334</v>
+      </c>
+      <c r="E86">
+        <v>263.8808133814143</v>
+      </c>
+      <c r="F86">
+        <v>0.01303845256163866</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="2">
+        <v>37848</v>
+      </c>
+      <c r="B87">
+        <v>0.04474246575342377</v>
+      </c>
+      <c r="C87">
+        <v>-0.03501943167111676</v>
+      </c>
+      <c r="D87">
+        <v>1957986.433333334</v>
+      </c>
+      <c r="E87">
+        <v>264.101257227304</v>
+      </c>
+      <c r="F87">
+        <v>0.01184608370080205</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="2">
+        <v>37862</v>
+      </c>
+      <c r="B88">
+        <v>0.04476356164383472</v>
+      </c>
+      <c r="C88">
+        <v>0.00183256719583369</v>
+      </c>
+      <c r="D88">
+        <v>1972845.691666666</v>
+      </c>
+      <c r="E88">
+        <v>264.0662377956329</v>
+      </c>
+      <c r="F88">
+        <v>0.01334597560507977</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="2">
+        <v>37876</v>
+      </c>
+      <c r="B89">
+        <v>0.04478465753424567</v>
+      </c>
+      <c r="C89">
+        <v>-0.7676746529392631</v>
+      </c>
+      <c r="D89">
+        <v>1817725.341666666</v>
+      </c>
+      <c r="E89">
+        <v>264.0680703628287</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="2">
+        <v>37918</v>
+      </c>
+      <c r="B90">
+        <v>0.04480575342465663</v>
+      </c>
+      <c r="C90">
+        <v>0.7234805805865108</v>
+      </c>
+      <c r="D90">
+        <v>1970526.616666666</v>
+      </c>
+      <c r="E90">
+        <v>263.3096310753079</v>
+      </c>
+      <c r="F90">
+        <v>0.0096823122876458</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="2">
+        <v>37932</v>
+      </c>
+      <c r="B91">
+        <v>0.04482684931506758</v>
+      </c>
+      <c r="C91">
+        <v>-0.004362069114222322</v>
+      </c>
+      <c r="D91">
+        <v>1975851.900000001</v>
+      </c>
+      <c r="E91">
+        <v>264.0331116558945</v>
+      </c>
+      <c r="F91">
+        <v>0.01353222757949968</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="2">
+        <v>37946</v>
+      </c>
+      <c r="B92">
+        <v>0.04484794520547853</v>
+      </c>
+      <c r="C92">
+        <v>0.1902433429904704</v>
+      </c>
+      <c r="D92">
+        <v>1975164.766666667</v>
+      </c>
+      <c r="E92">
+        <v>264.0287495867802</v>
+      </c>
+      <c r="F92">
+        <v>0.01343594985204108</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="2">
+        <v>37960</v>
+      </c>
+      <c r="B93">
+        <v>0.04486904109588948</v>
+      </c>
+      <c r="C93">
+        <v>-0.1086629402066137</v>
+      </c>
+      <c r="D93">
+        <v>1967434.516666667</v>
+      </c>
+      <c r="E93">
+        <v>264.2189929297707</v>
+      </c>
+      <c r="F93">
+        <v>0.01342982913611372</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="2">
+        <v>37974</v>
+      </c>
+      <c r="B94">
+        <v>0.04489013698630043</v>
+      </c>
+      <c r="C94">
+        <v>0.1401031386041041</v>
+      </c>
+      <c r="D94">
+        <v>1966403.816666667</v>
+      </c>
+      <c r="E94">
+        <v>264.1103299895641</v>
+      </c>
+      <c r="F94">
+        <v>0.01282583960182374</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="2">
+        <v>37988</v>
+      </c>
+      <c r="B95">
+        <v>0.04491123287671139</v>
+      </c>
+      <c r="C95">
+        <v>-0.2193157138418655</v>
+      </c>
+      <c r="D95">
+        <v>1965373.116666666</v>
+      </c>
+      <c r="E95">
+        <v>264.2504331281682</v>
+      </c>
+      <c r="F95">
+        <v>0.0133413794641903</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="2">
+        <v>38002</v>
+      </c>
+      <c r="B96">
+        <v>0.04493232876712234</v>
+      </c>
+      <c r="C96">
+        <v>0.2674802859082774</v>
+      </c>
+      <c r="D96">
+        <v>1985214.091666666</v>
+      </c>
+      <c r="E96">
+        <v>264.0311174143263</v>
+      </c>
+      <c r="F96">
+        <v>0.01456756790799008</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="2">
+        <v>38016</v>
+      </c>
+      <c r="B97">
+        <v>0.04495342465753329</v>
+      </c>
+      <c r="C97">
+        <v>0.00517223375334197</v>
+      </c>
+      <c r="D97">
+        <v>1985385.875</v>
+      </c>
+      <c r="E97">
+        <v>264.2985977002346</v>
+      </c>
+      <c r="F97">
+        <v>0.01579047915291577</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="2">
+        <v>38030</v>
+      </c>
+      <c r="B98">
+        <v>0.04497452054794424</v>
+      </c>
+      <c r="C98">
+        <v>-0.1137023370640691</v>
+      </c>
+      <c r="D98">
+        <v>1971643.208333333</v>
+      </c>
+      <c r="E98">
+        <v>264.303769933988</v>
+      </c>
+      <c r="F98">
+        <v>0.01428081635353756</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="2">
+        <v>38044</v>
+      </c>
+      <c r="B99">
+        <v>0.04499561643835519</v>
+      </c>
+      <c r="C99">
+        <v>0.06304342076293779</v>
+      </c>
+      <c r="D99">
+        <v>1962681.844444444</v>
+      </c>
+      <c r="E99">
+        <v>264.1900675969239</v>
+      </c>
+      <c r="F99">
+        <v>0.01276951400203663</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="2">
+        <v>38058</v>
+      </c>
+      <c r="B100">
+        <v>0.04501671232876615</v>
+      </c>
+      <c r="C100">
+        <v>0.02626556753875775</v>
+      </c>
+      <c r="D100">
+        <v>1958072.324999999</v>
+      </c>
+      <c r="E100">
+        <v>264.2531110176868</v>
+      </c>
+      <c r="F100">
+        <v>0.01253905671049843</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="2">
+        <v>38072</v>
+      </c>
+      <c r="B101">
+        <v>0.0450378082191771</v>
+      </c>
+      <c r="C101">
+        <v>-0.1427290684949867</v>
+      </c>
+      <c r="D101">
+        <v>1940808.1</v>
+      </c>
+      <c r="E101">
+        <v>264.2793765852256</v>
+      </c>
+      <c r="F101">
+        <v>0.01073150510815388</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="2">
+        <v>38086</v>
+      </c>
+      <c r="B102">
+        <v>0.04505890410958805</v>
+      </c>
+      <c r="C102">
+        <v>-0.007404839182413525</v>
+      </c>
+      <c r="D102">
+        <v>1958330</v>
+      </c>
+      <c r="E102">
+        <v>264.1366475167306</v>
+      </c>
+      <c r="F102">
+        <v>0.01204367516371656</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="2">
+        <v>38100</v>
+      </c>
+      <c r="B103">
+        <v>0.045079999999999</v>
+      </c>
+      <c r="C103">
+        <v>-0.5120637279010225</v>
+      </c>
+      <c r="D103">
+        <v>1960734.966666667</v>
+      </c>
+      <c r="E103">
+        <v>264.1292426775482</v>
+      </c>
+      <c r="F103">
+        <v>0.01227861536779446</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="2">
+        <v>38156</v>
+      </c>
+      <c r="B104">
+        <v>0.04511164383561543</v>
+      </c>
+      <c r="C104">
+        <v>0.7406147511347854</v>
+      </c>
+      <c r="D104">
+        <v>1951458.666666666</v>
+      </c>
+      <c r="E104">
+        <v>263.493868332303</v>
+      </c>
+      <c r="F104">
+        <v>0.008384487069391626</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="2">
+        <v>38170</v>
+      </c>
+      <c r="B105">
+        <v>0.04513273972602638</v>
+      </c>
+      <c r="C105">
+        <v>-0.5237503567591375</v>
+      </c>
+      <c r="D105">
+        <v>1942611.825</v>
+      </c>
+      <c r="E105">
+        <v>264.2344830834378</v>
+      </c>
+      <c r="F105">
+        <v>0.01073066786128308</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="2">
+        <v>38184</v>
+      </c>
+      <c r="B106">
+        <v>0.04515383561643734</v>
+      </c>
+      <c r="C106">
+        <v>0.5315708905500287</v>
+      </c>
+      <c r="D106">
+        <v>1946648.733333334</v>
+      </c>
+      <c r="E106">
+        <v>263.7107327266787</v>
+      </c>
+      <c r="F106">
+        <v>0.008823919520081542</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="2">
+        <v>38198</v>
+      </c>
+      <c r="B107">
+        <v>0.04517493150684829</v>
+      </c>
+      <c r="C107">
+        <v>-0.09303651313530281</v>
+      </c>
+      <c r="D107">
+        <v>1924059.225</v>
+      </c>
+      <c r="E107">
+        <v>264.2423036172287</v>
+      </c>
+      <c r="F107">
+        <v>0.008696394440504938</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="2">
+        <v>38212</v>
+      </c>
+      <c r="B108">
+        <v>0.04519602739725924</v>
+      </c>
+      <c r="C108">
+        <v>0.07857088437458515</v>
+      </c>
+      <c r="D108">
+        <v>1942525.933333334</v>
+      </c>
+      <c r="E108">
+        <v>264.1492671040934</v>
+      </c>
+      <c r="F108">
+        <v>0.01033758697812946</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="2">
+        <v>38226</v>
+      </c>
+      <c r="B109">
+        <v>0.04521712328767019</v>
+      </c>
+      <c r="C109">
+        <v>0.05904756551899482</v>
+      </c>
+      <c r="D109">
+        <v>1943041.283333334</v>
+      </c>
+      <c r="E109">
+        <v>264.227837988468</v>
+      </c>
+      <c r="F109">
+        <v>0.01074866710355235</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="2">
+        <v>38240</v>
+      </c>
+      <c r="B110">
+        <v>0.04523821917808114</v>
+      </c>
+      <c r="C110">
+        <v>0.02703458082487487</v>
+      </c>
+      <c r="D110">
+        <v>1937372.433333333</v>
+      </c>
+      <c r="E110">
+        <v>264.286885553987</v>
+      </c>
+      <c r="F110">
+        <v>0.01038206305474402</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="2">
+        <v>38254</v>
+      </c>
+      <c r="B111">
+        <v>0.0452593150684921</v>
+      </c>
+      <c r="C111">
+        <v>0.04457169865645483</v>
+      </c>
+      <c r="D111">
+        <v>1955667.358333334</v>
+      </c>
+      <c r="E111">
+        <v>264.3139201348118</v>
+      </c>
+      <c r="F111">
+        <v>0.01254445336966901</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="2">
+        <v>38282</v>
+      </c>
+      <c r="B112">
+        <v>0.04528041095890305</v>
+      </c>
+      <c r="C112">
+        <v>0.343591030224502</v>
+      </c>
+      <c r="D112">
+        <v>1262006.258333333</v>
+      </c>
+      <c r="E112">
+        <v>263.5934545805339</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="2">
+        <v>38296</v>
+      </c>
+      <c r="B113">
+        <v>0.045301506849314</v>
+      </c>
+      <c r="C113">
+        <v>0.3658259244000419</v>
+      </c>
+      <c r="D113">
+        <v>1964084.741666667</v>
+      </c>
+      <c r="E113">
+        <v>263.9370456107584</v>
+      </c>
+      <c r="F113">
+        <v>0.01178731919848577</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="2">
+        <v>38310</v>
+      </c>
+      <c r="B114">
+        <v>0.04532260273972495</v>
+      </c>
+      <c r="C114">
+        <v>0.1567637079598398</v>
+      </c>
+      <c r="D114">
+        <v>1959446.591666667</v>
+      </c>
+      <c r="E114">
+        <v>264.3028715351585</v>
+      </c>
+      <c r="F114">
+        <v>0.01291628940563576</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="2">
+        <v>38324</v>
+      </c>
+      <c r="B115">
+        <v>0.0453436986301359</v>
+      </c>
+      <c r="C115">
+        <v>-0.07486142978473254</v>
+      </c>
+      <c r="D115">
+        <v>1944930.9</v>
+      </c>
+      <c r="E115">
+        <v>264.4596352431183</v>
+      </c>
+      <c r="F115">
+        <v>0.01200261038433439</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="2">
+        <v>38338</v>
+      </c>
+      <c r="B116">
+        <v>0.04536479452054686</v>
+      </c>
+      <c r="C116">
+        <v>0.05180230764199223</v>
+      </c>
+      <c r="D116">
+        <v>1960477.291666667</v>
+      </c>
+      <c r="E116">
+        <v>264.3847738133336</v>
+      </c>
+      <c r="F116">
+        <v>0.01339984713522976</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="2">
+        <v>38352</v>
+      </c>
+      <c r="B117">
+        <v>0.04538589041095781</v>
+      </c>
+      <c r="C117">
+        <v>-0.1616796604010915</v>
+      </c>
+      <c r="D117">
+        <v>1947421.758333334</v>
+      </c>
+      <c r="E117">
+        <v>264.4365761209756</v>
+      </c>
+      <c r="F117">
+        <v>0.01217668202460562</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="2">
+        <v>38366</v>
+      </c>
+      <c r="B118">
+        <v>0.04540698630136876</v>
+      </c>
+      <c r="C118">
+        <v>0.05576558058282899</v>
+      </c>
+      <c r="D118">
+        <v>1950084.400000001</v>
+      </c>
+      <c r="E118">
+        <v>264.2748964605745</v>
+      </c>
+      <c r="F118">
+        <v>0.01174607727070582</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="2">
+        <v>38380</v>
+      </c>
+      <c r="B119">
+        <v>0.04542808219177971</v>
+      </c>
+      <c r="C119">
+        <v>0.03898317345385749</v>
+      </c>
+      <c r="D119">
+        <v>1934366.225</v>
+      </c>
+      <c r="E119">
+        <v>264.3306620411573</v>
+      </c>
+      <c r="F119">
+        <v>0.01024374115620791</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="2">
+        <v>38394</v>
+      </c>
+      <c r="B120">
+        <v>0.04544917808219066</v>
+      </c>
+      <c r="C120">
+        <v>0.01737910366102824</v>
+      </c>
+      <c r="D120">
+        <v>1935654.6</v>
+      </c>
+      <c r="E120">
+        <v>264.3696452146112</v>
+      </c>
+      <c r="F120">
+        <v>0.01056289137671051</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="2">
+        <v>38408</v>
+      </c>
+      <c r="B121">
+        <v>0.04547027397260162</v>
+      </c>
+      <c r="C121">
+        <v>-0.08999182254513016</v>
+      </c>
+      <c r="D121">
+        <v>1928869.158333333</v>
+      </c>
+      <c r="E121">
+        <v>264.3870243182722</v>
+      </c>
+      <c r="F121">
+        <v>0.009884214168447401</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="2">
+        <v>38422</v>
+      </c>
+      <c r="B122">
+        <v>0.04549136986301257</v>
+      </c>
+      <c r="C122">
+        <v>0.05578505342566586</v>
+      </c>
+      <c r="D122">
+        <v>1932820.175</v>
+      </c>
+      <c r="E122">
+        <v>264.2970324957271</v>
+      </c>
+      <c r="F122">
+        <v>0.009919941410720922</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="2">
+        <v>38436</v>
+      </c>
+      <c r="B123">
+        <v>0.04551246575342352</v>
+      </c>
+      <c r="C123">
+        <v>-0.6083554302916809</v>
+      </c>
+      <c r="D123">
+        <v>1929384.508333333</v>
+      </c>
+      <c r="E123">
+        <v>264.3528175491527</v>
+      </c>
+      <c r="F123">
+        <v>0.009787757659550473</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="2">
+        <v>38450</v>
+      </c>
+      <c r="B124">
+        <v>0.045523013698629</v>
+      </c>
+      <c r="C124">
+        <v>0.007080709811248198</v>
+      </c>
+      <c r="D124">
+        <v>1921053.016666667</v>
+      </c>
+      <c r="E124">
+        <v>263.7444621188611</v>
+      </c>
+      <c r="F124">
+        <v>0.006120612983710174</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="2">
+        <v>38506</v>
+      </c>
+      <c r="B125">
+        <v>0.04555465753424542</v>
+      </c>
+      <c r="C125">
+        <v>0.4537439295363583</v>
+      </c>
+      <c r="D125">
+        <v>1886181</v>
+      </c>
+      <c r="E125">
+        <v>263.759688542032</v>
+      </c>
+      <c r="F125">
+        <v>0.00229930278357748</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="2">
+        <v>38520</v>
+      </c>
+      <c r="B126">
+        <v>0.04557575342465638</v>
+      </c>
+      <c r="C126">
+        <v>0.2372563101525884</v>
+      </c>
+      <c r="D126">
+        <v>1926721.866666666</v>
+      </c>
+      <c r="E126">
+        <v>264.2134324715684</v>
+      </c>
+      <c r="F126">
+        <v>0.008863471802629029</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="2">
+        <v>38534</v>
+      </c>
+      <c r="B127">
+        <v>0.04559684931506733</v>
+      </c>
+      <c r="C127">
+        <v>-0.1160557997802698</v>
+      </c>
+      <c r="D127">
+        <v>1928525.591666666</v>
+      </c>
+      <c r="E127">
+        <v>264.4506887817209</v>
+      </c>
+      <c r="F127">
+        <v>0.01013240176131335</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="2">
+        <v>38548</v>
+      </c>
+      <c r="B128">
+        <v>0.04561794520547828</v>
+      </c>
+      <c r="C128">
+        <v>0.04296248543141701</v>
+      </c>
+      <c r="D128">
+        <v>1920795.341666667</v>
+      </c>
+      <c r="E128">
+        <v>264.3346329819407</v>
+      </c>
+      <c r="F128">
+        <v>0.008747833886746444</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="2">
+        <v>38562</v>
+      </c>
+      <c r="B129">
+        <v>0.04563904109588923</v>
+      </c>
+      <c r="C129">
+        <v>0.0617510828177501</v>
+      </c>
+      <c r="D129">
+        <v>1929899.858333334</v>
+      </c>
+      <c r="E129">
+        <v>264.3775954673721</v>
+      </c>
+      <c r="F129">
+        <v>0.00995675169658037</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="2">
+        <v>38576</v>
+      </c>
+      <c r="B130">
+        <v>0.04566013698630018</v>
+      </c>
+      <c r="C130">
+        <v>-0.3008788868568217</v>
+      </c>
+      <c r="D130">
+        <v>1761552.191666666</v>
+      </c>
+      <c r="E130">
+        <v>264.4393465501898</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="2">
+        <v>38590</v>
+      </c>
+      <c r="B131">
+        <v>0.04568123287671114</v>
+      </c>
+      <c r="C131">
+        <v>0.08746036890170217</v>
+      </c>
+      <c r="D131">
+        <v>1907396.241666668</v>
+      </c>
+      <c r="E131">
+        <v>264.138467663333</v>
+      </c>
+      <c r="F131">
+        <v>0.006370409190390628</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="2">
+        <v>38604</v>
+      </c>
+      <c r="B132">
+        <v>0.04570232876712209</v>
+      </c>
+      <c r="C132">
+        <v>0.05527671875688611</v>
+      </c>
+      <c r="D132">
+        <v>1917359.675</v>
+      </c>
+      <c r="E132">
+        <v>264.2259280322347</v>
+      </c>
+      <c r="F132">
+        <v>0.007875390873371458</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="2">
+        <v>38618</v>
+      </c>
+      <c r="B133">
+        <v>0.04572342465753304</v>
+      </c>
+      <c r="C133">
+        <v>0.001750131401877297</v>
+      </c>
+      <c r="D133">
+        <v>1901813.283333333</v>
+      </c>
+      <c r="E133">
+        <v>264.2812047509916</v>
+      </c>
+      <c r="F133">
+        <v>0.00639001646389509</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="2">
+        <v>38632</v>
+      </c>
+      <c r="B134">
+        <v>0.04574452054794399</v>
+      </c>
+      <c r="C134">
+        <v>0.008065620515026239</v>
+      </c>
+      <c r="D134">
+        <v>1898549.4</v>
+      </c>
+      <c r="E134">
+        <v>264.2829548823935</v>
+      </c>
+      <c r="F134">
+        <v>0.006033819487590583</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="2">
+        <v>38646</v>
+      </c>
+      <c r="B135">
+        <v>0.04576561643835494</v>
+      </c>
+      <c r="C135">
+        <v>0.03953475816263108</v>
+      </c>
+      <c r="D135">
+        <v>1911948.500000001</v>
+      </c>
+      <c r="E135">
+        <v>264.2910205029085</v>
+      </c>
+      <c r="F135">
+        <v>0.007564733508038824</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="2">
+        <v>38660</v>
+      </c>
+      <c r="B136">
+        <v>0.0457867123287659</v>
+      </c>
+      <c r="C136">
+        <v>-0.005829688173548675</v>
+      </c>
+      <c r="D136">
+        <v>1901555.608333333</v>
+      </c>
+      <c r="E136">
+        <v>264.3305552610711</v>
+      </c>
+      <c r="F136">
+        <v>0.006583367418149429</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="2">
+        <v>38674</v>
+      </c>
+      <c r="B137">
+        <v>0.04580780821917685</v>
+      </c>
+      <c r="C137">
+        <v>0.06043901118198391</v>
+      </c>
+      <c r="D137">
+        <v>1908083.375</v>
+      </c>
+      <c r="E137">
+        <v>264.3247255728976</v>
+      </c>
+      <c r="F137">
+        <v>0.007285278188360039</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="2">
+        <v>38688</v>
+      </c>
+      <c r="B138">
+        <v>0.0458289041095878</v>
+      </c>
+      <c r="C138">
+        <v>0.006636109092596598</v>
+      </c>
+      <c r="D138">
+        <v>1908083.374999999</v>
+      </c>
+      <c r="E138">
+        <v>264.3851645840796</v>
+      </c>
+      <c r="F138">
+        <v>0.007557273671211044</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="2">
+        <v>38702</v>
+      </c>
+      <c r="B139">
+        <v>0.04584999999999875</v>
+      </c>
+      <c r="C139">
+        <v>-0.0802770294246784</v>
+      </c>
+      <c r="D139">
+        <v>1900696.691666667</v>
+      </c>
+      <c r="E139">
+        <v>264.3918006931722</v>
+      </c>
+      <c r="F139">
+        <v>0.00676318333877503</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="2">
+        <v>38716</v>
+      </c>
+      <c r="B140">
+        <v>0.0458710958904097</v>
+      </c>
+      <c r="C140">
+        <v>-0.03144220398007747</v>
+      </c>
+      <c r="D140">
+        <v>1882745.333333333</v>
+      </c>
+      <c r="E140">
+        <v>264.3115236637475</v>
+      </c>
+      <c r="F140">
+        <v>0.004399507934941056</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="2">
+        <v>38730</v>
+      </c>
+      <c r="B141">
+        <v>0.04589219178082066</v>
+      </c>
+      <c r="C141">
+        <v>0.08960424048802906</v>
+      </c>
+      <c r="D141">
+        <v>1902672.2</v>
+      </c>
+      <c r="E141">
+        <v>264.2800814597674</v>
+      </c>
+      <c r="F141">
+        <v>0.006480770005245249</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="2">
+        <v>38744</v>
+      </c>
+      <c r="B142">
+        <v>0.04591328767123161</v>
+      </c>
+      <c r="C142">
+        <v>-0.001301115962519361</v>
+      </c>
+      <c r="D142">
+        <v>1897175.133333334</v>
+      </c>
+      <c r="E142">
+        <v>264.3696857002554</v>
+      </c>
+      <c r="F142">
+        <v>0.006270842815724023</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="2">
+        <v>38758</v>
+      </c>
+      <c r="B143">
+        <v>0.04593438356164256</v>
+      </c>
+      <c r="C143">
+        <v>0.0266119846841093</v>
+      </c>
+      <c r="D143">
+        <v>1895629.083333334</v>
+      </c>
+      <c r="E143">
+        <v>264.3683845842929</v>
+      </c>
+      <c r="F143">
+        <v>0.006092531664622132</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="2">
+        <v>38772</v>
+      </c>
+      <c r="B144">
+        <v>0.04595547945205351</v>
+      </c>
+      <c r="C144">
+        <v>-0.02496288040310901</v>
+      </c>
+      <c r="D144">
+        <v>1900610.800000001</v>
+      </c>
+      <c r="E144">
+        <v>264.394996568977</v>
+      </c>
+      <c r="F144">
+        <v>0.006767984961651644</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="2">
+        <v>38786</v>
+      </c>
+      <c r="B145">
+        <v>0.04597657534246447</v>
+      </c>
+      <c r="C145">
+        <v>-0.09635870540830638</v>
+      </c>
+      <c r="D145">
+        <v>1893052.333333334</v>
+      </c>
+      <c r="E145">
+        <v>264.3700336885739</v>
+      </c>
+      <c r="F145">
+        <v>0.005812527010807578</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="2">
+        <v>38800</v>
+      </c>
+      <c r="B146">
+        <v>0.04599767123287542</v>
+      </c>
+      <c r="C146">
+        <v>-0.01772216741187549</v>
+      </c>
+      <c r="D146">
+        <v>1880512.150000001</v>
+      </c>
+      <c r="E146">
+        <v>264.2736749831656</v>
+      </c>
+      <c r="F146">
+        <v>0.003980073711966201</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="2">
+        <v>38814</v>
+      </c>
+      <c r="B147">
+        <v>0.04601876712328637</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>1901212.041666667</v>
+      </c>
+      <c r="E147">
+        <v>264.2559528157537</v>
+      </c>
+      <c r="F147">
+        <v>0.006209308321721682</v>
       </c>
     </row>
   </sheetData>

--- a/FACModel/Modelled RIHT2.xlsx
+++ b/FACModel/Modelled RIHT2.xlsx
@@ -9,19 +9,17 @@
   <sheets>
     <sheet name="Phase 1 Pre CPP" sheetId="1" r:id="rId1"/>
     <sheet name="Phase 1 Post CPP" sheetId="2" r:id="rId2"/>
-    <sheet name="Phase 1_2 Overlap" sheetId="3" r:id="rId3"/>
-    <sheet name="Phase 2" sheetId="4" r:id="rId4"/>
-    <sheet name="Phase 3" sheetId="5" r:id="rId5"/>
-    <sheet name="Phase 3_4 Overlap" sheetId="6" r:id="rId6"/>
-    <sheet name="Phase 4" sheetId="7" r:id="rId7"/>
-    <sheet name="Phase 5" sheetId="8" r:id="rId8"/>
+    <sheet name="Phase 2" sheetId="3" r:id="rId3"/>
+    <sheet name="Phase 3" sheetId="4" r:id="rId4"/>
+    <sheet name="Phase 4" sheetId="5" r:id="rId5"/>
+    <sheet name="Phase 5" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="6">
   <si>
     <t>DP leakage</t>
   </si>
@@ -402,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -442,16 +440,16 @@
         <v>0.03</v>
       </c>
       <c r="C2">
-        <v>0.1932699802894149</v>
+        <v>0.2428516668747989</v>
       </c>
       <c r="D2">
         <v>2061400</v>
       </c>
       <c r="E2">
-        <v>261.7066725169201</v>
+        <v>261.8856828158966</v>
       </c>
       <c r="F2">
-        <v>0.01260503294688617</v>
+        <v>0.01341063832912548</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -459,19 +457,19 @@
         <v>30428</v>
       </c>
       <c r="B3">
-        <v>0.03003835616438356</v>
+        <v>0.03005753424657534</v>
       </c>
       <c r="C3">
-        <v>0.02492363906526407</v>
+        <v>0.02664306765382207</v>
       </c>
       <c r="D3">
         <v>2061400</v>
       </c>
       <c r="E3">
-        <v>261.8999424972095</v>
+        <v>262.1285344827714</v>
       </c>
       <c r="F3">
-        <v>0.01347481159781654</v>
+        <v>0.01450355092152229</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -479,19 +477,19 @@
         <v>30442</v>
       </c>
       <c r="B4">
-        <v>0.03007671232876712</v>
+        <v>0.03011506849315068</v>
       </c>
       <c r="C4">
-        <v>-0.5394739992061659</v>
+        <v>-0.5998446542000693</v>
       </c>
       <c r="D4">
         <v>2061400</v>
       </c>
       <c r="E4">
-        <v>261.9248661362748</v>
+        <v>262.1551775504253</v>
       </c>
       <c r="F4">
-        <v>0.01358697619332165</v>
+        <v>0.01462345351273627</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -499,19 +497,19 @@
         <v>30484</v>
       </c>
       <c r="B5">
-        <v>0.04503835616438356</v>
+        <v>0.04505753424657534</v>
       </c>
       <c r="C5">
-        <v>0.1637704386298537</v>
+        <v>0.1716482449594423</v>
       </c>
       <c r="D5">
         <v>2061400</v>
       </c>
       <c r="E5">
-        <v>262.4972965042404</v>
+        <v>262.7034256945241</v>
       </c>
       <c r="F5">
-        <v>0.01616310163429862</v>
+        <v>0.01709075097111692</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -519,19 +517,19 @@
         <v>30498</v>
       </c>
       <c r="B6">
-        <v>0.04507671232876713</v>
+        <v>0.04511506849315068</v>
       </c>
       <c r="C6">
-        <v>0.02932152452501668</v>
+        <v>0.0241175336852848</v>
       </c>
       <c r="D6">
         <v>2061400</v>
       </c>
       <c r="E6">
-        <v>262.6610669428702</v>
+        <v>262.8750739394835</v>
       </c>
       <c r="F6">
-        <v>0.01690012261893604</v>
+        <v>0.01786322468230495</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -539,19 +537,19 @@
         <v>30512</v>
       </c>
       <c r="B7">
-        <v>0.0451150684931507</v>
+        <v>0.04517260273972602</v>
       </c>
       <c r="C7">
-        <v>0.02411821561963734</v>
+        <v>0.01979987729089316</v>
       </c>
       <c r="D7">
         <v>2061400</v>
       </c>
       <c r="E7">
-        <v>262.6903884673952</v>
+        <v>262.8991914731688</v>
       </c>
       <c r="F7">
-        <v>0.01703207914941431</v>
+        <v>0.01797176153774991</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -559,19 +557,19 @@
         <v>30526</v>
       </c>
       <c r="B8">
-        <v>0.04515342465753426</v>
+        <v>0.04523013698630136</v>
       </c>
       <c r="C8">
-        <v>0.02403669693421762</v>
+        <v>0.02116957929194996</v>
       </c>
       <c r="D8">
         <v>2061400</v>
       </c>
       <c r="E8">
-        <v>262.7145066830149</v>
+        <v>262.9189913504597</v>
       </c>
       <c r="F8">
-        <v>0.01714061907378901</v>
+        <v>0.01806086751547537</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -579,19 +577,19 @@
         <v>30540</v>
       </c>
       <c r="B9">
-        <v>0.04519178082191783</v>
+        <v>0.04528767123287671</v>
       </c>
       <c r="C9">
-        <v>0.02401075522141127</v>
+        <v>0.02145447152111046</v>
       </c>
       <c r="D9">
         <v>2061400</v>
       </c>
       <c r="E9">
-        <v>262.7385433799491</v>
+        <v>262.9401609297516</v>
       </c>
       <c r="F9">
-        <v>0.01724879213719454</v>
+        <v>0.0181561376039275</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -599,19 +597,19 @@
         <v>30554</v>
       </c>
       <c r="B10">
-        <v>0.04523013698630139</v>
+        <v>0.04534520547945205</v>
       </c>
       <c r="C10">
-        <v>0.02419183357142174</v>
+        <v>0.02164642659909077</v>
       </c>
       <c r="D10">
         <v>2061400</v>
       </c>
       <c r="E10">
-        <v>262.7625541351705</v>
+        <v>262.9616154012728</v>
       </c>
       <c r="F10">
-        <v>0.0173568484543372</v>
+        <v>0.01825268980136715</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -619,19 +617,19 @@
         <v>30568</v>
       </c>
       <c r="B11">
-        <v>0.04526849315068496</v>
+        <v>0.04540273972602739</v>
       </c>
       <c r="C11">
-        <v>0.02407356177286601</v>
+        <v>0.02183758510432199</v>
       </c>
       <c r="D11">
         <v>2061400</v>
       </c>
       <c r="E11">
-        <v>262.7867459687419</v>
+        <v>262.9832618278718</v>
       </c>
       <c r="F11">
-        <v>0.01746571968377376</v>
+        <v>0.01835010585996377</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -639,19 +637,19 @@
         <v>30582</v>
       </c>
       <c r="B12">
-        <v>0.04530684931506852</v>
+        <v>0.04546027397260273</v>
       </c>
       <c r="C12">
-        <v>0.02431126980536646</v>
+        <v>0.02222076367775117</v>
       </c>
       <c r="D12">
         <v>2061400</v>
       </c>
       <c r="E12">
-        <v>262.8108195305148</v>
+        <v>263.0050994129762</v>
       </c>
       <c r="F12">
-        <v>0.0175740586511112</v>
+        <v>0.01844838219487692</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -659,19 +657,19 @@
         <v>30596</v>
       </c>
       <c r="B13">
-        <v>0.04534520547945209</v>
+        <v>0.04551780821917807</v>
       </c>
       <c r="C13">
-        <v>0.0243047002086314</v>
+        <v>0.02276963563110712</v>
       </c>
       <c r="D13">
         <v>2061400</v>
       </c>
       <c r="E13">
-        <v>262.8351308003201</v>
+        <v>263.0273201766539</v>
       </c>
       <c r="F13">
-        <v>0.01768346738299014</v>
+        <v>0.01854838295974143</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -679,19 +677,19 @@
         <v>30610</v>
       </c>
       <c r="B14">
-        <v>0.04538356164383565</v>
+        <v>0.04557534246575341</v>
       </c>
       <c r="C14">
-        <v>0.02417848218249219</v>
+        <v>0.02326802246159332</v>
       </c>
       <c r="D14">
         <v>2061400</v>
       </c>
       <c r="E14">
-        <v>262.8594355005288</v>
+        <v>263.050089812285</v>
       </c>
       <c r="F14">
-        <v>0.01779284654951695</v>
+        <v>0.01865085382941162</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -699,19 +697,19 @@
         <v>30624</v>
       </c>
       <c r="B15">
-        <v>0.04542191780821922</v>
+        <v>0.04563287671232875</v>
       </c>
       <c r="C15">
-        <v>0.02435536786731518</v>
+        <v>0.02348986033155143</v>
       </c>
       <c r="D15">
         <v>2061400</v>
       </c>
       <c r="E15">
-        <v>262.8836139827113</v>
+        <v>263.0733578347466</v>
       </c>
       <c r="F15">
-        <v>0.01790165769330006</v>
+        <v>0.0187555676041849</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -719,19 +717,19 @@
         <v>30638</v>
       </c>
       <c r="B16">
-        <v>0.04546027397260279</v>
+        <v>0.0456904109589041</v>
       </c>
       <c r="C16">
-        <v>0.0242363927891347</v>
+        <v>0.02341761860736824</v>
       </c>
       <c r="D16">
         <v>2061400</v>
       </c>
       <c r="E16">
-        <v>262.9079693505786</v>
+        <v>263.0968476950782</v>
       </c>
       <c r="F16">
-        <v>0.01801126488100117</v>
+        <v>0.01886127972253419</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -739,19 +737,19 @@
         <v>30652</v>
       </c>
       <c r="B17">
-        <v>0.04549863013698635</v>
+        <v>0.04574794520547944</v>
       </c>
       <c r="C17">
-        <v>0.02415746159863374</v>
+        <v>0.02379198077517231</v>
       </c>
       <c r="D17">
         <v>2061400</v>
       </c>
       <c r="E17">
-        <v>262.9322057433677</v>
+        <v>263.1202653136855</v>
       </c>
       <c r="F17">
-        <v>0.01812033664161291</v>
+        <v>0.01896666672929968</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -759,19 +757,19 @@
         <v>30666</v>
       </c>
       <c r="B18">
-        <v>0.04553698630136992</v>
+        <v>0.04580547945205478</v>
       </c>
       <c r="C18">
-        <v>0.02455822014326259</v>
+        <v>0.02404400268835616</v>
       </c>
       <c r="D18">
         <v>2061400</v>
       </c>
       <c r="E18">
-        <v>262.9563632049664</v>
+        <v>263.1440572944607</v>
       </c>
       <c r="F18">
-        <v>0.01822905318583614</v>
+        <v>0.01907373848928326</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -779,19 +777,19 @@
         <v>30680</v>
       </c>
       <c r="B19">
-        <v>0.04557534246575348</v>
+        <v>0.04586301369863012</v>
       </c>
       <c r="C19">
-        <v>0.02446991315673586</v>
+        <v>0.02424603896565714</v>
       </c>
       <c r="D19">
         <v>2061400</v>
       </c>
       <c r="E19">
-        <v>262.9809214251096</v>
+        <v>263.1681012971491</v>
       </c>
       <c r="F19">
-        <v>0.01833957327567867</v>
+        <v>0.01918194443099197</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -799,19 +797,19 @@
         <v>30694</v>
       </c>
       <c r="B20">
-        <v>0.04561369863013705</v>
+        <v>0.04592054794520546</v>
       </c>
       <c r="C20">
-        <v>0.02419143913698463</v>
+        <v>0.02445668258201295</v>
       </c>
       <c r="D20">
         <v>2061400</v>
       </c>
       <c r="E20">
-        <v>263.0053913382663</v>
+        <v>263.1923473361147</v>
       </c>
       <c r="F20">
-        <v>0.01844969595495853</v>
+        <v>0.01929105960257929</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -819,19 +817,19 @@
         <v>30708</v>
       </c>
       <c r="B21">
-        <v>0.04565205479452061</v>
+        <v>0.0459780821917808</v>
       </c>
       <c r="C21">
-        <v>0.02458551960990008</v>
+        <v>0.02455831003408093</v>
       </c>
       <c r="D21">
         <v>2061400</v>
       </c>
       <c r="E21">
-        <v>263.0295827774033</v>
+        <v>263.2168040186967</v>
       </c>
       <c r="F21">
-        <v>0.01855856540930998</v>
+        <v>0.01940112273990971</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -839,19 +837,19 @@
         <v>30722</v>
       </c>
       <c r="B22">
-        <v>0.04569041095890418</v>
+        <v>0.04603561643835614</v>
       </c>
       <c r="C22">
-        <v>0.02422204567380959</v>
+        <v>0.02490481555071256</v>
       </c>
       <c r="D22">
         <v>2061400</v>
       </c>
       <c r="E22">
-        <v>263.0541682970132</v>
+        <v>263.2413623287308</v>
       </c>
       <c r="F22">
-        <v>0.01866920835575566</v>
+        <v>0.0195116432342905</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -859,19 +857,19 @@
         <v>30736</v>
       </c>
       <c r="B23">
-        <v>0.04572876712328774</v>
+        <v>0.04609315068493149</v>
       </c>
       <c r="C23">
-        <v>0.02453776120739803</v>
+        <v>0.02481410168661569</v>
       </c>
       <c r="D23">
         <v>2061400</v>
       </c>
       <c r="E23">
-        <v>263.078390342687</v>
+        <v>263.2662671442815</v>
       </c>
       <c r="F23">
-        <v>0.01877821554961691</v>
+        <v>0.01962372311777227</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -879,19 +877,19 @@
         <v>30750</v>
       </c>
       <c r="B24">
-        <v>0.04576712328767131</v>
+        <v>0.04615068493150683</v>
       </c>
       <c r="C24">
-        <v>0.02470592084137024</v>
+        <v>0.02496890298141352</v>
       </c>
       <c r="D24">
         <v>2061400</v>
       </c>
       <c r="E24">
-        <v>263.1029281038944</v>
+        <v>263.2910812459681</v>
       </c>
       <c r="F24">
-        <v>0.01888864356750081</v>
+        <v>0.01973539475894867</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -899,19 +897,19 @@
         <v>30764</v>
       </c>
       <c r="B25">
-        <v>0.04580547945205488</v>
+        <v>0.04620821917808217</v>
       </c>
       <c r="C25">
-        <v>0.02467666542008828</v>
+        <v>0.02504886201018053</v>
       </c>
       <c r="D25">
         <v>2061400</v>
       </c>
       <c r="E25">
-        <v>263.1276340247358</v>
+        <v>263.3160501489496</v>
       </c>
       <c r="F25">
-        <v>0.01899982835919584</v>
+        <v>0.01984776305700443</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -919,19 +917,19 @@
         <v>30778</v>
       </c>
       <c r="B26">
-        <v>0.04584383561643844</v>
+        <v>0.04626575342465751</v>
       </c>
       <c r="C26">
-        <v>0.01744154006144072</v>
+        <v>0.01674446265633378</v>
       </c>
       <c r="D26">
         <v>2061400</v>
       </c>
       <c r="E26">
-        <v>263.1523106901559</v>
+        <v>263.3410990109597</v>
       </c>
       <c r="F26">
-        <v>0.01911088149184689</v>
+        <v>0.01996049119705969</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -939,19 +937,19 @@
         <v>30834</v>
       </c>
       <c r="B27">
-        <v>0.05503835616438357</v>
+        <v>0.05505753424657534</v>
       </c>
       <c r="C27">
-        <v>0.2995519548992434</v>
+        <v>0.3113232711093588</v>
       </c>
       <c r="D27">
         <v>2061400</v>
       </c>
       <c r="E27">
-        <v>263.3375753721518</v>
+        <v>263.4984074779655</v>
       </c>
       <c r="F27">
-        <v>0.01994463366034291</v>
+        <v>0.02066843117825775</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -959,19 +957,19 @@
         <v>30848</v>
       </c>
       <c r="B28">
-        <v>0.05507671232876713</v>
+        <v>0.05511506849315068</v>
       </c>
       <c r="C28">
-        <v>0.03820765652415048</v>
+        <v>0.03965876897996168</v>
       </c>
       <c r="D28">
         <v>2061400</v>
       </c>
       <c r="E28">
-        <v>263.6371273270511</v>
+        <v>263.8097307490749</v>
       </c>
       <c r="F28">
-        <v>0.02129271624836636</v>
+        <v>0.02206948857135756</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -979,19 +977,19 @@
         <v>30862</v>
       </c>
       <c r="B29">
-        <v>0.0551150684931507</v>
+        <v>0.05517260273972602</v>
       </c>
       <c r="C29">
-        <v>0.02537013363166807</v>
+        <v>0.02602491123116124</v>
       </c>
       <c r="D29">
         <v>2061400</v>
       </c>
       <c r="E29">
-        <v>263.6753349835752</v>
+        <v>263.8493895180549</v>
       </c>
       <c r="F29">
-        <v>0.02146466330344981</v>
+        <v>0.0222479661110628</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -999,19 +997,19 @@
         <v>30876</v>
       </c>
       <c r="B30">
-        <v>0.05515342465753426</v>
+        <v>0.05523013698630137</v>
       </c>
       <c r="C30">
-        <v>0.02482316537691531</v>
+        <v>0.02550563856834742</v>
       </c>
       <c r="D30">
         <v>2061400</v>
       </c>
       <c r="E30">
-        <v>263.7007051172069</v>
+        <v>263.875414429286</v>
       </c>
       <c r="F30">
-        <v>0.02157883727175593</v>
+        <v>0.02236508679450945</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1019,19 +1017,19 @@
         <v>30890</v>
       </c>
       <c r="B31">
-        <v>0.05519178082191783</v>
+        <v>0.05528767123287671</v>
       </c>
       <c r="C31">
-        <v>0.02491256836378852</v>
+        <v>0.02556897044382822</v>
       </c>
       <c r="D31">
         <v>2061400</v>
       </c>
       <c r="E31">
-        <v>263.7255282825838</v>
+        <v>263.9009200678544</v>
       </c>
       <c r="F31">
-        <v>0.02169054970252781</v>
+        <v>0.02247987057971954</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1039,19 +1037,19 @@
         <v>30904</v>
       </c>
       <c r="B32">
-        <v>0.05523013698630139</v>
+        <v>0.05534520547945205</v>
       </c>
       <c r="C32">
-        <v>0.02489540444923932</v>
+        <v>0.02563834570582912</v>
       </c>
       <c r="D32">
         <v>2061400</v>
       </c>
       <c r="E32">
-        <v>263.7504408509476</v>
+        <v>263.9264890382982</v>
       </c>
       <c r="F32">
-        <v>0.02180266447622516</v>
+        <v>0.0225949393792559</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1059,19 +1057,19 @@
         <v>30918</v>
       </c>
       <c r="B33">
-        <v>0.05526849315068496</v>
+        <v>0.05540273972602739</v>
       </c>
       <c r="C33">
-        <v>0.02507273330684257</v>
+        <v>0.02564743107814138</v>
       </c>
       <c r="D33">
         <v>2061400</v>
       </c>
       <c r="E33">
-        <v>263.7753362553968</v>
+        <v>263.952127384004</v>
       </c>
       <c r="F33">
-        <v>0.02191470200664674</v>
+        <v>0.02271032039035083</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1079,19 +1077,19 @@
         <v>30932</v>
       </c>
       <c r="B34">
-        <v>0.05530684931506853</v>
+        <v>0.05546027397260273</v>
       </c>
       <c r="C34">
-        <v>0.0249725175626736</v>
+        <v>0.0257320946367372</v>
       </c>
       <c r="D34">
         <v>2061400</v>
       </c>
       <c r="E34">
-        <v>263.8004089887037</v>
+        <v>263.9777748150822</v>
       </c>
       <c r="F34">
-        <v>0.02202753757540959</v>
+        <v>0.02282574228861758</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1099,19 +1097,19 @@
         <v>30946</v>
       </c>
       <c r="B35">
-        <v>0.05534520547945209</v>
+        <v>0.05551780821917807</v>
       </c>
       <c r="C35">
-        <v>0.02517127543637798</v>
+        <v>0.02581341385769065</v>
       </c>
       <c r="D35">
         <v>2061400</v>
       </c>
       <c r="E35">
-        <v>263.8253815062664</v>
+        <v>264.0035069097189</v>
       </c>
       <c r="F35">
-        <v>0.02213992214027317</v>
+        <v>0.02294154520081978</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1119,19 +1117,19 @@
         <v>30960</v>
       </c>
       <c r="B36">
-        <v>0.05538356164383566</v>
+        <v>0.05557534246575341</v>
       </c>
       <c r="C36">
-        <v>0.02506508720557576</v>
+        <v>0.02590699701545418</v>
       </c>
       <c r="D36">
         <v>2061400</v>
       </c>
       <c r="E36">
-        <v>263.8505527817027</v>
+        <v>264.0293203235766</v>
       </c>
       <c r="F36">
-        <v>0.02225320118111777</v>
+        <v>0.02305771407633479</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1139,19 +1137,19 @@
         <v>30974</v>
       </c>
       <c r="B37">
-        <v>0.05542191780821922</v>
+        <v>0.05563287671232876</v>
       </c>
       <c r="C37">
-        <v>0.02509699842164537</v>
+        <v>0.02593381474434864</v>
       </c>
       <c r="D37">
         <v>2061400</v>
       </c>
       <c r="E37">
-        <v>263.8756178689083</v>
+        <v>264.0552273205921</v>
       </c>
       <c r="F37">
-        <v>0.02236600233990338</v>
+        <v>0.02317430410692329</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1159,19 +1157,19 @@
         <v>30988</v>
       </c>
       <c r="B38">
-        <v>0.05546027397260279</v>
+        <v>0.0556904109589041</v>
       </c>
       <c r="C38">
-        <v>0.02519347326540355</v>
+        <v>0.0260115013190898</v>
       </c>
       <c r="D38">
         <v>2061400</v>
       </c>
       <c r="E38">
-        <v>263.90071486733</v>
+        <v>264.0811611353364</v>
       </c>
       <c r="F38">
-        <v>0.02247894710968536</v>
+        <v>0.02329101482613596</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1179,19 +1177,19 @@
         <v>31002</v>
       </c>
       <c r="B39">
-        <v>0.05549863013698635</v>
+        <v>0.05574794520547944</v>
       </c>
       <c r="C39">
-        <v>0.02512280128291877</v>
+        <v>0.02589400967076472</v>
       </c>
       <c r="D39">
         <v>2061400</v>
       </c>
       <c r="E39">
-        <v>263.9259083405954</v>
+        <v>264.1071726366555</v>
       </c>
       <c r="F39">
-        <v>0.02259232604808138</v>
+        <v>0.0234080751605559</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1199,19 +1197,19 @@
         <v>31016</v>
       </c>
       <c r="B40">
-        <v>0.05553698630136992</v>
+        <v>0.05580547945205478</v>
       </c>
       <c r="C40">
-        <v>0.0251479543142068</v>
+        <v>0.02605629649235652</v>
       </c>
       <c r="D40">
         <v>2061400</v>
       </c>
       <c r="E40">
-        <v>263.9510311418783</v>
+        <v>264.1330666463263</v>
       </c>
       <c r="F40">
-        <v>0.02270538693924902</v>
+        <v>0.02352460674380993</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1219,19 +1217,19 @@
         <v>31030</v>
       </c>
       <c r="B41">
-        <v>0.05557534246575348</v>
+        <v>0.05586301369863012</v>
       </c>
       <c r="C41">
-        <v>0.02518352971503646</v>
+        <v>0.02613386836503651</v>
       </c>
       <c r="D41">
         <v>2061400</v>
       </c>
       <c r="E41">
-        <v>263.9761790961925</v>
+        <v>264.1591229428186</v>
       </c>
       <c r="F41">
-        <v>0.0228185610273526</v>
+        <v>0.02364186867128274</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1239,19 +1237,19 @@
         <v>31044</v>
       </c>
       <c r="B42">
-        <v>0.05561369863013705</v>
+        <v>0.05592054794520546</v>
       </c>
       <c r="C42">
-        <v>0.02532173447639252</v>
+        <v>0.02620127651107396</v>
       </c>
       <c r="D42">
         <v>2061400</v>
       </c>
       <c r="E42">
-        <v>264.0013626259075</v>
+        <v>264.1852568111836</v>
       </c>
       <c r="F42">
-        <v>0.02293189521649277</v>
+        <v>0.02375947969776548</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1259,19 +1257,19 @@
         <v>31058</v>
       </c>
       <c r="B43">
-        <v>0.05565205479452062</v>
+        <v>0.0559780821917808</v>
       </c>
       <c r="C43">
-        <v>0.02520288202413212</v>
+        <v>0.02622135673027515</v>
       </c>
       <c r="D43">
         <v>2061400</v>
       </c>
       <c r="E43">
-        <v>264.0266843603839</v>
+        <v>264.2114580876947</v>
       </c>
       <c r="F43">
-        <v>0.02304585137263817</v>
+        <v>0.02387739408313627</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1279,19 +1277,19 @@
         <v>31072</v>
       </c>
       <c r="B44">
-        <v>0.05569041095890418</v>
+        <v>0.05603561643835615</v>
       </c>
       <c r="C44">
-        <v>0.02527242457597367</v>
+        <v>0.02628016823280177</v>
       </c>
       <c r="D44">
         <v>2061400</v>
       </c>
       <c r="E44">
-        <v>264.051887242408</v>
+        <v>264.237679444425</v>
       </c>
       <c r="F44">
-        <v>0.0231592726535514</v>
+        <v>0.02399539883611584</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1299,19 +1297,19 @@
         <v>31086</v>
       </c>
       <c r="B45">
-        <v>0.05572876712328775</v>
+        <v>0.05609315068493149</v>
       </c>
       <c r="C45">
-        <v>0.02536616048803353</v>
+        <v>0.02630004348077364</v>
       </c>
       <c r="D45">
         <v>2061400</v>
       </c>
       <c r="E45">
-        <v>264.077159666984</v>
+        <v>264.2639596126578</v>
       </c>
       <c r="F45">
-        <v>0.02327300689888285</v>
+        <v>0.02411366826025266</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1319,19 +1317,19 @@
         <v>31100</v>
       </c>
       <c r="B46">
-        <v>0.05576712328767131</v>
+        <v>0.05615068493150683</v>
       </c>
       <c r="C46">
-        <v>0.02532617702127027</v>
+        <v>0.02635525200753364</v>
       </c>
       <c r="D46">
         <v>2061400</v>
       </c>
       <c r="E46">
-        <v>264.102525827472</v>
+        <v>264.2902596561386</v>
       </c>
       <c r="F46">
-        <v>0.02338716298673223</v>
+        <v>0.02423202712956003</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1339,19 +1337,19 @@
         <v>31114</v>
       </c>
       <c r="B47">
-        <v>0.05580547945205488</v>
+        <v>0.05620821917808217</v>
       </c>
       <c r="C47">
-        <v>0.02541694437604747</v>
+        <v>0.02638694533425223</v>
       </c>
       <c r="D47">
         <v>2061400</v>
       </c>
       <c r="E47">
-        <v>264.1278520044933</v>
+        <v>264.3166149081461</v>
       </c>
       <c r="F47">
-        <v>0.02350113913579483</v>
+        <v>0.02435063445544539</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1359,19 +1357,19 @@
         <v>31128</v>
       </c>
       <c r="B48">
-        <v>0.05584383561643844</v>
+        <v>0.05626575342465751</v>
       </c>
       <c r="C48">
-        <v>0.02536722921627188</v>
+        <v>0.02642555043678385</v>
       </c>
       <c r="D48">
         <v>2061400</v>
       </c>
       <c r="E48">
-        <v>264.1532689488694</v>
+        <v>264.3430018534804</v>
       </c>
       <c r="F48">
-        <v>0.02361552376788856</v>
+        <v>0.02446938441175332</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1379,19 +1377,19 @@
         <v>31142</v>
       </c>
       <c r="B49">
-        <v>0.05588219178082201</v>
+        <v>0.05632328767123285</v>
       </c>
       <c r="C49">
-        <v>0.02538861426614858</v>
+        <v>0.02645611293712591</v>
       </c>
       <c r="D49">
         <v>2061400</v>
       </c>
       <c r="E49">
-        <v>264.1786361780856</v>
+        <v>264.3694274039171</v>
       </c>
       <c r="F49">
-        <v>0.02372968466536745</v>
+        <v>0.02458830810375435</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1399,19 +1397,19 @@
         <v>31156</v>
       </c>
       <c r="B50">
-        <v>0.05592054794520557</v>
+        <v>0.0563808219178082</v>
       </c>
       <c r="C50">
-        <v>0.0253735705202871</v>
+        <v>0.02650306080465725</v>
       </c>
       <c r="D50">
         <v>2061400</v>
       </c>
       <c r="E50">
-        <v>264.2040247923518</v>
+        <v>264.3958835168543</v>
       </c>
       <c r="F50">
-        <v>0.02384394180262346</v>
+        <v>0.02470736933708642</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1419,19 +1417,19 @@
         <v>31170</v>
       </c>
       <c r="B51">
-        <v>0.05595890410958914</v>
+        <v>0.05643835616438354</v>
       </c>
       <c r="C51">
-        <v>0.02538640381897039</v>
+        <v>0.02654847622227408</v>
       </c>
       <c r="D51">
         <v>2061400</v>
       </c>
       <c r="E51">
-        <v>264.2293983628721</v>
+        <v>264.4223865776589</v>
       </c>
       <c r="F51">
-        <v>0.02395813123806178</v>
+        <v>0.02482664185130562</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1439,19 +1437,19 @@
         <v>31184</v>
       </c>
       <c r="B52">
-        <v>0.05599726027397271</v>
+        <v>0.05649589041095888</v>
       </c>
       <c r="C52">
-        <v>0.0255453358035993</v>
+        <v>0.02657070643670068</v>
       </c>
       <c r="D52">
         <v>2061400</v>
       </c>
       <c r="E52">
-        <v>264.254784766691</v>
+        <v>264.4489350538812</v>
       </c>
       <c r="F52">
-        <v>0.02407237842757662</v>
+        <v>0.02494611874988179</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1459,19 +1457,19 @@
         <v>31198</v>
       </c>
       <c r="B53">
-        <v>0.05603561643835627</v>
+        <v>0.05655342465753422</v>
       </c>
       <c r="C53">
-        <v>0.02559623724357607</v>
+        <v>0.02659029935182389</v>
       </c>
       <c r="D53">
         <v>2061400</v>
       </c>
       <c r="E53">
-        <v>264.2803301024946</v>
+        <v>264.4755057603179</v>
       </c>
       <c r="F53">
-        <v>0.02418734086343714</v>
+        <v>0.02506569569175428</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1479,19 +1477,19 @@
         <v>31212</v>
       </c>
       <c r="B54">
-        <v>0.05607397260273984</v>
+        <v>0.05661095890410956</v>
       </c>
       <c r="C54">
-        <v>0.02549317172952215</v>
+        <v>0.02663563507849176</v>
       </c>
       <c r="D54">
         <v>2061400</v>
       </c>
       <c r="E54">
-        <v>264.3059263397382</v>
+        <v>264.5020960596697</v>
       </c>
       <c r="F54">
-        <v>0.02430253237256496</v>
+        <v>0.02518536080820658</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1499,19 +1497,19 @@
         <v>31226</v>
       </c>
       <c r="B55">
-        <v>0.0561123287671234</v>
+        <v>0.0566684931506849</v>
       </c>
       <c r="C55">
-        <v>0.02564882882870734</v>
+        <v>0.02665689627178836</v>
       </c>
       <c r="D55">
         <v>2061400</v>
       </c>
       <c r="E55">
-        <v>264.3314195114677</v>
+        <v>264.5287316947482</v>
       </c>
       <c r="F55">
-        <v>0.02441726005288876</v>
+        <v>0.0253052299503805</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1519,19 +1517,19 @@
         <v>31240</v>
       </c>
       <c r="B56">
-        <v>0.05615068493150697</v>
+        <v>0.05672602739726024</v>
       </c>
       <c r="C56">
-        <v>0.02555684456501695</v>
+        <v>0.02669489815173165</v>
       </c>
       <c r="D56">
         <v>2061400</v>
       </c>
       <c r="E56">
-        <v>264.3570683402965</v>
+        <v>264.55538859102</v>
       </c>
       <c r="F56">
-        <v>0.02453268824149401</v>
+        <v>0.02542519477493589</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1539,19 +1537,19 @@
         <v>31254</v>
       </c>
       <c r="B57">
-        <v>0.05618904109589053</v>
+        <v>0.05678356164383559</v>
       </c>
       <c r="C57">
-        <v>0.02570248365805128</v>
+        <v>0.02671943700136126</v>
       </c>
       <c r="D57">
         <v>2061400</v>
       </c>
       <c r="E57">
-        <v>264.3826251848615</v>
+        <v>264.5820834891717</v>
       </c>
       <c r="F57">
-        <v>0.02464770247057666</v>
+        <v>0.02554533062048417</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1559,19 +1557,19 @@
         <v>31268</v>
       </c>
       <c r="B58">
-        <v>0.0562273972602741</v>
+        <v>0.05684109589041093</v>
       </c>
       <c r="C58">
-        <v>0.02564083863023825</v>
+        <v>0.02730237862886042</v>
       </c>
       <c r="D58">
         <v>2061400</v>
       </c>
       <c r="E58">
-        <v>264.4083276685195</v>
+        <v>264.6088029261731</v>
       </c>
       <c r="F58">
-        <v>0.02476337212360894</v>
+        <v>0.0256655768989483</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1579,19 +1577,19 @@
         <v>31282</v>
       </c>
       <c r="B59">
-        <v>0.05626575342465766</v>
+        <v>0.05689863013698627</v>
       </c>
       <c r="C59">
-        <v>0.02573685695961103</v>
+        <v>0.02683950251037004</v>
       </c>
       <c r="D59">
         <v>2061400</v>
       </c>
       <c r="E59">
-        <v>264.4339685071498</v>
+        <v>264.636105304802</v>
       </c>
       <c r="F59">
-        <v>0.02487876435368596</v>
+        <v>0.0257884466069881</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1599,19 +1597,19 @@
         <v>31296</v>
       </c>
       <c r="B60">
-        <v>0.05630410958904123</v>
+        <v>0.05695616438356161</v>
       </c>
       <c r="C60">
-        <v>0.02578299852052623</v>
+        <v>0.02683412931696694</v>
       </c>
       <c r="D60">
         <v>2061400</v>
       </c>
       <c r="E60">
-        <v>264.4597053641094</v>
+        <v>264.6629448073123</v>
       </c>
       <c r="F60">
-        <v>0.02499458869791163</v>
+        <v>0.02590923321983997</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1619,19 +1617,19 @@
         <v>31310</v>
       </c>
       <c r="B61">
-        <v>0.0563424657534248</v>
+        <v>0.05701369863013695</v>
       </c>
       <c r="C61">
-        <v>0.02568146915098168</v>
+        <v>0.02683388831746925</v>
       </c>
       <c r="D61">
         <v>2061400</v>
       </c>
       <c r="E61">
-        <v>264.4854883626299</v>
+        <v>264.6897789366293</v>
       </c>
       <c r="F61">
-        <v>0.02511062069437862</v>
+        <v>0.02602999565154946</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1639,19 +1637,19 @@
         <v>31324</v>
       </c>
       <c r="B62">
-        <v>0.05638082191780836</v>
+        <v>0.05707123287671229</v>
       </c>
       <c r="C62">
-        <v>0.0258074023017798</v>
+        <v>0.02688967665017117</v>
       </c>
       <c r="D62">
         <v>2061400</v>
       </c>
       <c r="E62">
-        <v>264.5111698317809</v>
+        <v>264.7166128249468</v>
       </c>
       <c r="F62">
-        <v>0.02522619577519866</v>
+        <v>0.02615075699868175</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1659,19 +1657,19 @@
         <v>31338</v>
       </c>
       <c r="B63">
-        <v>0.05641917808219193</v>
+        <v>0.05712876712328763</v>
       </c>
       <c r="C63">
-        <v>0.02584574054549194</v>
+        <v>0.02690044362543631</v>
       </c>
       <c r="D63">
         <v>2061400</v>
       </c>
       <c r="E63">
-        <v>264.5369772340827</v>
+        <v>264.7435025015969</v>
       </c>
       <c r="F63">
-        <v>0.02534233759672967</v>
+        <v>0.02627176941171005</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1679,19 +1677,19 @@
         <v>31352</v>
       </c>
       <c r="B64">
-        <v>0.05645753424657549</v>
+        <v>0.05718630136986298</v>
       </c>
       <c r="C64">
-        <v>0.02590452943491073</v>
+        <v>0.02694555345806293</v>
       </c>
       <c r="D64">
         <v>2061400</v>
       </c>
       <c r="E64">
-        <v>264.5628229746281</v>
+        <v>264.7704029452224</v>
       </c>
       <c r="F64">
-        <v>0.02545865195300113</v>
+        <v>0.02639283027967781</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1699,19 +1697,19 @@
         <v>31366</v>
       </c>
       <c r="B65">
-        <v>0.05649589041095906</v>
+        <v>0.05724383561643832</v>
       </c>
       <c r="C65">
-        <v>0.02579038264207156</v>
+        <v>0.02695225677075541</v>
       </c>
       <c r="D65">
         <v>2061400</v>
       </c>
       <c r="E65">
-        <v>264.5887275040631</v>
+        <v>264.7973484986804</v>
       </c>
       <c r="F65">
-        <v>0.02557523087866318</v>
+        <v>0.02651409415676961</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1719,19 +1717,19 @@
         <v>31380</v>
       </c>
       <c r="B66">
-        <v>0.05653424657534262</v>
+        <v>0.05730136986301366</v>
       </c>
       <c r="C66">
-        <v>0.0259261934334063</v>
+        <v>0.02701492594019328</v>
       </c>
       <c r="D66">
         <v>2061400</v>
       </c>
       <c r="E66">
-        <v>264.6145178867051</v>
+        <v>264.8243007554512</v>
       </c>
       <c r="F66">
-        <v>0.02569129610611256</v>
+        <v>0.02663538820097911</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1739,19 +1737,19 @@
         <v>31394</v>
       </c>
       <c r="B67">
-        <v>0.05657260273972619</v>
+        <v>0.057358904109589</v>
       </c>
       <c r="C67">
-        <v>0.02596324663500127</v>
+        <v>0.02726276561929808</v>
       </c>
       <c r="D67">
         <v>2061400</v>
       </c>
       <c r="E67">
-        <v>264.6404440801385</v>
+        <v>264.8513156813914</v>
       </c>
       <c r="F67">
-        <v>0.02580797252691263</v>
+        <v>0.02675696427711905</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1759,19 +1757,19 @@
         <v>31408</v>
       </c>
       <c r="B68">
-        <v>0.05661095890410976</v>
+        <v>0.05741643835616434</v>
       </c>
       <c r="C68">
-        <v>0.02601631719153374</v>
+        <v>0.02708375330553281</v>
       </c>
       <c r="D68">
         <v>2061400</v>
       </c>
       <c r="E68">
-        <v>264.6664073267735</v>
+        <v>264.8785784470107</v>
       </c>
       <c r="F68">
-        <v>0.02592481569933979</v>
+        <v>0.02687965571355162</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1779,19 +1777,19 @@
         <v>31422</v>
       </c>
       <c r="B69">
-        <v>0.05664931506849332</v>
+        <v>0.05747397260273968</v>
       </c>
       <c r="C69">
-        <v>0.02605936288580324</v>
+        <v>0.0270803564092148</v>
       </c>
       <c r="D69">
         <v>2061400</v>
       </c>
       <c r="E69">
-        <v>264.6924236439651</v>
+        <v>264.9056622003162</v>
       </c>
       <c r="F69">
-        <v>0.02604189770677384</v>
+        <v>0.02700154153553454</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1799,19 +1797,19 @@
         <v>31436</v>
       </c>
       <c r="B70">
-        <v>0.05668767123287689</v>
+        <v>0.05753150684931502</v>
       </c>
       <c r="C70">
-        <v>0.026400974701005</v>
+        <v>0.02712067873403612</v>
       </c>
       <c r="D70">
         <v>2061400</v>
       </c>
       <c r="E70">
-        <v>264.7184830068509</v>
+        <v>264.9327425567254</v>
       </c>
       <c r="F70">
-        <v>0.0261591734340285</v>
+        <v>0.0271234120703638</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1819,19 +1817,19 @@
         <v>31450</v>
       </c>
       <c r="B71">
-        <v>0.05672602739726045</v>
+        <v>0.05758904109589037</v>
       </c>
       <c r="C71">
-        <v>0.02615857155160484</v>
+        <v>0.02714135870974133</v>
       </c>
       <c r="D71">
         <v>2061400</v>
       </c>
       <c r="E71">
-        <v>264.7448839815519</v>
+        <v>264.9598632354595</v>
       </c>
       <c r="F71">
-        <v>0.0262779865271136</v>
+        <v>0.02724546406895294</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1839,19 +1837,19 @@
         <v>31464</v>
       </c>
       <c r="B72">
-        <v>0.05676438356164402</v>
+        <v>0.05764657534246571</v>
       </c>
       <c r="C72">
-        <v>0.02610813471358142</v>
+        <v>0.02717800809045912</v>
       </c>
       <c r="D72">
         <v>2061400</v>
       </c>
       <c r="E72">
-        <v>264.7710425531035</v>
+        <v>264.9870045941692</v>
       </c>
       <c r="F72">
-        <v>0.02639570872608285</v>
+        <v>0.02736760913425305</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1859,19 +1857,19 @@
         <v>31478</v>
       </c>
       <c r="B73">
-        <v>0.05680273972602758</v>
+        <v>0.05770410958904105</v>
       </c>
       <c r="C73">
-        <v>0.02609057532174575</v>
+        <v>0.02719987211685293</v>
       </c>
       <c r="D73">
         <v>2061400</v>
       </c>
       <c r="E73">
-        <v>264.7971506878171</v>
+        <v>265.0141826022597</v>
       </c>
       <c r="F73">
-        <v>0.02651320394264713</v>
+        <v>0.02748991913385307</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1879,19 +1877,19 @@
         <v>31492</v>
       </c>
       <c r="B74">
-        <v>0.05684109589041115</v>
+        <v>0.05776164383561639</v>
       </c>
       <c r="C74">
-        <v>0.02613208626917185</v>
+        <v>0.02724352505811112</v>
       </c>
       <c r="D74">
         <v>2061400</v>
       </c>
       <c r="E74">
-        <v>264.8232412631388</v>
+        <v>265.0413824743765</v>
       </c>
       <c r="F74">
-        <v>0.02663062013615713</v>
+        <v>0.0276123275287824</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1899,19 +1897,19 @@
         <v>31506</v>
       </c>
       <c r="B75">
-        <v>0.05687945205479471</v>
+        <v>0.05781917808219173</v>
       </c>
       <c r="C75">
-        <v>0.02617624092363258</v>
+        <v>0.02725783854111796</v>
       </c>
       <c r="D75">
         <v>2061400</v>
       </c>
       <c r="E75">
-        <v>264.849373349408</v>
+        <v>265.0686259994346</v>
       </c>
       <c r="F75">
-        <v>0.02674822314262088</v>
+        <v>0.02773493237634411</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1919,19 +1917,19 @@
         <v>31520</v>
       </c>
       <c r="B76">
-        <v>0.05691780821917828</v>
+        <v>0.05787671232876707</v>
       </c>
       <c r="C76">
-        <v>-1.390816725863033</v>
+        <v>-1.46813930555345</v>
       </c>
       <c r="D76">
         <v>2061400</v>
       </c>
       <c r="E76">
-        <v>264.8755495903316</v>
+        <v>265.0958838379757</v>
       </c>
       <c r="F76">
-        <v>0.02686602485959158</v>
+        <v>0.0278576016392999</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1939,19 +1937,19 @@
         <v>31562</v>
       </c>
       <c r="B77">
-        <v>0.05695616438356185</v>
+        <v>0.05793424657534241</v>
       </c>
       <c r="C77">
-        <v>0.3483048697985396</v>
+        <v>0.3721437531958145</v>
       </c>
       <c r="D77">
         <v>2061400</v>
       </c>
       <c r="E77">
-        <v>264.5621775765109</v>
+        <v>264.7571534865625</v>
       </c>
       <c r="F77">
-        <v>0.02545574744862373</v>
+        <v>0.02633320334609266</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1959,19 +1957,19 @@
         <v>31576</v>
       </c>
       <c r="B78">
-        <v>0.05699452054794541</v>
+        <v>0.05799178082191776</v>
       </c>
       <c r="C78">
-        <v>0.04590733361590082</v>
+        <v>0.04855961895998462</v>
       </c>
       <c r="D78">
         <v>2061400</v>
       </c>
       <c r="E78">
-        <v>264.9104824463094</v>
+        <v>265.1292972397583</v>
       </c>
       <c r="F78">
-        <v>0.02702323423220087</v>
+        <v>0.02800797296692102</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1979,19 +1977,19 @@
         <v>31590</v>
       </c>
       <c r="B79">
-        <v>0.05703287671232898</v>
+        <v>0.0580493150684931</v>
       </c>
       <c r="C79">
-        <v>0.0272360350437566</v>
+        <v>0.02845213068837893</v>
       </c>
       <c r="D79">
         <v>2061400</v>
       </c>
       <c r="E79">
-        <v>264.9563897799253</v>
+        <v>265.1778568587183</v>
       </c>
       <c r="F79">
-        <v>0.02722983237351818</v>
+        <v>0.02822650726699942</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1999,19 +1997,19 @@
         <v>31604</v>
       </c>
       <c r="B80">
-        <v>0.05707123287671254</v>
+        <v>0.05810684931506844</v>
       </c>
       <c r="C80">
-        <v>0.02624410958571843</v>
+        <v>0.0273085961025572</v>
       </c>
       <c r="D80">
         <v>2061400</v>
       </c>
       <c r="E80">
-        <v>264.9836258149691</v>
+        <v>265.2063089894067</v>
       </c>
       <c r="F80">
-        <v>0.02735240351354504</v>
+        <v>0.0283545512384905</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2019,19 +2017,19 @@
         <v>31618</v>
       </c>
       <c r="B81">
-        <v>0.05710958904109611</v>
+        <v>0.05816438356164378</v>
       </c>
       <c r="C81">
-        <v>0.02630547821593154</v>
+        <v>0.02731977659050244</v>
       </c>
       <c r="D81">
         <v>2061400</v>
       </c>
       <c r="E81">
-        <v>265.0098699245548</v>
+        <v>265.2336175855093</v>
       </c>
       <c r="F81">
-        <v>0.02747051066187799</v>
+        <v>0.02847744892721224</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2039,19 +2037,19 @@
         <v>31632</v>
       </c>
       <c r="B82">
-        <v>0.05714794520547967</v>
+        <v>0.05822191780821912</v>
       </c>
       <c r="C82">
-        <v>0.02634595909444215</v>
+        <v>0.02712060994122112</v>
       </c>
       <c r="D82">
         <v>2061400</v>
       </c>
       <c r="E82">
-        <v>265.0361754027707</v>
+        <v>265.2609373620998</v>
       </c>
       <c r="F82">
-        <v>0.02758889398928605</v>
+        <v>0.02860039693181705</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2059,19 +2057,19 @@
         <v>31646</v>
       </c>
       <c r="B83">
-        <v>0.05718630136986324</v>
+        <v>0.05827945205479446</v>
       </c>
       <c r="C83">
-        <v>0.02640602882013354</v>
+        <v>0.02730734902945642</v>
       </c>
       <c r="D83">
         <v>2061400</v>
       </c>
       <c r="E83">
-        <v>265.0625213618652</v>
+        <v>265.288057972041</v>
       </c>
       <c r="F83">
-        <v>0.02770745949399756</v>
+        <v>0.02872244862081584</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2079,19 +2077,19 @@
         <v>31660</v>
       </c>
       <c r="B84">
-        <v>0.0572246575342468</v>
+        <v>0.0583369863013698</v>
       </c>
       <c r="C84">
-        <v>0.02641056285699506</v>
+        <v>0.02735884653657195</v>
       </c>
       <c r="D84">
         <v>2061400</v>
       </c>
       <c r="E84">
-        <v>265.0889273906853</v>
+        <v>265.3153653210704</v>
       </c>
       <c r="F84">
-        <v>0.02782629533228573</v>
+        <v>0.02884534069729755</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2099,19 +2097,19 @@
         <v>31674</v>
       </c>
       <c r="B85">
-        <v>0.05726301369863037</v>
+        <v>0.05839452054794515</v>
       </c>
       <c r="C85">
-        <v>0.02646798273440254</v>
+        <v>0.02743050733533892</v>
       </c>
       <c r="D85">
         <v>2061400</v>
       </c>
       <c r="E85">
-        <v>265.1153379535423</v>
+        <v>265.342724167607</v>
       </c>
       <c r="F85">
-        <v>0.02794515157523496</v>
+        <v>0.02896846452954476</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2119,19 +2117,19 @@
         <v>31688</v>
       </c>
       <c r="B86">
-        <v>0.05730136986301394</v>
+        <v>0.05845205479452049</v>
       </c>
       <c r="C86">
-        <v>0.026550768981906</v>
+        <v>0.02748348568786696</v>
       </c>
       <c r="D86">
         <v>2061400</v>
       </c>
       <c r="E86">
-        <v>265.1418059362767</v>
+        <v>265.3701546749423</v>
       </c>
       <c r="F86">
-        <v>0.02806426622656935</v>
+        <v>0.02909191085901988</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2139,19 +2137,19 @@
         <v>31702</v>
       </c>
       <c r="B87">
-        <v>0.0573397260273975</v>
+        <v>0.05850958904109583</v>
       </c>
       <c r="C87">
-        <v>0.02651179139320448</v>
+        <v>0.02753346283520841</v>
       </c>
       <c r="D87">
         <v>2061400</v>
       </c>
       <c r="E87">
-        <v>265.1683567052586</v>
+        <v>265.3976381606302</v>
       </c>
       <c r="F87">
-        <v>0.02818375344332007</v>
+        <v>0.02921559560855365</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2159,19 +2157,19 @@
         <v>31716</v>
       </c>
       <c r="B88">
-        <v>0.05737808219178107</v>
+        <v>0.05856712328767117</v>
       </c>
       <c r="C88">
-        <v>0.02649387256326463</v>
+        <v>0.02754393530108246</v>
       </c>
       <c r="D88">
         <v>2061400</v>
       </c>
       <c r="E88">
-        <v>265.1948684966518</v>
+        <v>265.4251716234654</v>
       </c>
       <c r="F88">
-        <v>0.02830306524806689</v>
+        <v>0.0293395052717324</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2179,19 +2177,19 @@
         <v>31730</v>
       </c>
       <c r="B89">
-        <v>0.05741643835616463</v>
+        <v>0.05862465753424651</v>
       </c>
       <c r="C89">
-        <v>0.02664421466158728</v>
+        <v>0.02760879038487474</v>
       </c>
       <c r="D89">
         <v>2061400</v>
       </c>
       <c r="E89">
-        <v>265.2213623692151</v>
+        <v>265.4527155587665</v>
       </c>
       <c r="F89">
-        <v>0.0284222964121696</v>
+        <v>0.02946346206446146</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2199,19 +2197,19 @@
         <v>31744</v>
       </c>
       <c r="B90">
-        <v>0.0574547945205482</v>
+        <v>0.05868219178082185</v>
       </c>
       <c r="C90">
-        <v>0.02658711333310748</v>
+        <v>0.02730301451765627</v>
       </c>
       <c r="D90">
         <v>2061400</v>
       </c>
       <c r="E90">
-        <v>265.2480065838766</v>
+        <v>265.4803243491514</v>
       </c>
       <c r="F90">
-        <v>0.02854220416529675</v>
+        <v>0.02958771072645654</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2219,19 +2217,19 @@
         <v>31758</v>
       </c>
       <c r="B91">
-        <v>0.05749315068493176</v>
+        <v>0.05873972602739719</v>
       </c>
       <c r="C91">
-        <v>0.02659128489199247</v>
+        <v>0.02758871462992829</v>
       </c>
       <c r="D91">
         <v>2061400</v>
       </c>
       <c r="E91">
-        <v>265.2745936972098</v>
+        <v>265.507627363669</v>
       </c>
       <c r="F91">
-        <v>0.02866185494361409</v>
+        <v>0.02971058329620553</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2239,19 +2237,19 @@
         <v>31772</v>
       </c>
       <c r="B92">
-        <v>0.05753150684931533</v>
+        <v>0.05879726027397254</v>
       </c>
       <c r="C92">
-        <v>0.0267235857304513</v>
+        <v>0.02769619747141405</v>
       </c>
       <c r="D92">
         <v>2061400</v>
       </c>
       <c r="E92">
-        <v>265.3011849821017</v>
+        <v>265.535216078299</v>
       </c>
       <c r="F92">
-        <v>0.0287815244953222</v>
+        <v>0.0298347416106826</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2259,19 +2257,19 @@
         <v>31786</v>
       </c>
       <c r="B93">
-        <v>0.0575698630136989</v>
+        <v>0.05885479452054788</v>
       </c>
       <c r="C93">
-        <v>0.02667103503813451</v>
+        <v>0.02776546239374511</v>
       </c>
       <c r="D93">
         <v>2061400</v>
       </c>
       <c r="E93">
-        <v>265.3279085678322</v>
+        <v>265.5629122757704</v>
       </c>
       <c r="F93">
-        <v>0.02890178944443549</v>
+        <v>0.0299593836333935</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2279,19 +2277,19 @@
         <v>31800</v>
       </c>
       <c r="B94">
-        <v>0.05760821917808246</v>
+        <v>0.05891232876712322</v>
       </c>
       <c r="C94">
-        <v>0.02647278718404777</v>
+        <v>0.02777210533565722</v>
       </c>
       <c r="D94">
         <v>2061400</v>
       </c>
       <c r="E94">
-        <v>265.3545796028703</v>
+        <v>265.5906777381641</v>
       </c>
       <c r="F94">
-        <v>0.0290218178981026</v>
+        <v>0.03008433737109822</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2299,139 +2297,19 @@
         <v>31814</v>
       </c>
       <c r="B95">
-        <v>0.05764657534246603</v>
+        <v>0.05896986301369856</v>
       </c>
       <c r="C95">
-        <v>0.0267966727028579</v>
+        <v>0</v>
       </c>
       <c r="D95">
         <v>2061400</v>
       </c>
       <c r="E95">
-        <v>265.3810523900544</v>
+        <v>265.6184498434998</v>
       </c>
       <c r="F95">
-        <v>0.02914095417104481</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="2">
-        <v>31828</v>
-      </c>
-      <c r="B96">
-        <v>0.05768493150684959</v>
-      </c>
-      <c r="C96">
-        <v>0.02677101853601016</v>
-      </c>
-      <c r="D96">
-        <v>2061400</v>
-      </c>
-      <c r="E96">
-        <v>265.4078490627572</v>
-      </c>
-      <c r="F96">
-        <v>0.02926154803563775</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="2">
-        <v>31842</v>
-      </c>
-      <c r="B97">
-        <v>0.05772328767123316</v>
-      </c>
-      <c r="C97">
-        <v>0.0267437910379158</v>
-      </c>
-      <c r="D97">
-        <v>2061400</v>
-      </c>
-      <c r="E97">
-        <v>265.4346200812932</v>
-      </c>
-      <c r="F97">
-        <v>0.02938202644801948</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="2">
-        <v>31856</v>
-      </c>
-      <c r="B98">
-        <v>0.05776164383561672</v>
-      </c>
-      <c r="C98">
-        <v>0.02691598733485989</v>
-      </c>
-      <c r="D98">
-        <v>2061400</v>
-      </c>
-      <c r="E98">
-        <v>265.4613638723312</v>
-      </c>
-      <c r="F98">
-        <v>0.0295023823276801</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="2">
-        <v>31870</v>
-      </c>
-      <c r="B99">
-        <v>0.05780000000000029</v>
-      </c>
-      <c r="C99">
-        <v>0.02684710908283705</v>
-      </c>
-      <c r="D99">
-        <v>2061400</v>
-      </c>
-      <c r="E99">
-        <v>265.488279859666</v>
-      </c>
-      <c r="F99">
-        <v>0.02962351314746643</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="2">
-        <v>31884</v>
-      </c>
-      <c r="B100">
-        <v>0.05783835616438385</v>
-      </c>
-      <c r="C100">
-        <v>-1.61434195724496</v>
-      </c>
-      <c r="D100">
-        <v>2061400</v>
-      </c>
-      <c r="E100">
-        <v>265.5151269687489</v>
-      </c>
-      <c r="F100">
-        <v>0.02974433399240319</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="2">
-        <v>31926</v>
-      </c>
-      <c r="B101">
-        <v>0.05787671232876742</v>
-      </c>
-      <c r="C101">
-        <v>-0.04168089388781482</v>
-      </c>
-      <c r="D101">
-        <v>2061400</v>
-      </c>
-      <c r="E101">
-        <v>265.1234263876289</v>
-      </c>
-      <c r="F101">
-        <v>0.02798155219615635</v>
+        <v>0.03020932100423246</v>
       </c>
     </row>
   </sheetData>
@@ -2441,7 +2319,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2471,226 +2349,6 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2">
-        <v>31940</v>
-      </c>
-      <c r="B2">
-        <v>0.05791506849315099</v>
-      </c>
-      <c r="C2">
-        <v>0.01219700542469582</v>
-      </c>
-      <c r="D2">
-        <v>2061400</v>
-      </c>
-      <c r="E2">
-        <v>265.0817454937411</v>
-      </c>
-      <c r="F2">
-        <v>0.02779397442747739</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2">
-        <v>31968</v>
-      </c>
-      <c r="B3">
-        <v>0.05795342465753455</v>
-      </c>
-      <c r="C3">
-        <v>1.397272637671222</v>
-      </c>
-      <c r="D3">
-        <v>2061400</v>
-      </c>
-      <c r="E3">
-        <v>263.6251340075841</v>
-      </c>
-      <c r="F3">
-        <v>0.0212387423554185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
-        <v>31982</v>
-      </c>
-      <c r="B4">
-        <v>0.05799178082191812</v>
-      </c>
-      <c r="C4">
-        <v>0.1065011141836294</v>
-      </c>
-      <c r="D4">
-        <v>2061400</v>
-      </c>
-      <c r="E4">
-        <v>265.0224066452553</v>
-      </c>
-      <c r="F4">
-        <v>0.0275269300395881</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2">
-        <v>31996</v>
-      </c>
-      <c r="B5">
-        <v>0.05803013698630168</v>
-      </c>
-      <c r="C5">
-        <v>0.02546864820442352</v>
-      </c>
-      <c r="D5">
-        <v>2061400</v>
-      </c>
-      <c r="E5">
-        <v>265.1289077594389</v>
-      </c>
-      <c r="F5">
-        <v>0.02800622017703461</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2">
-        <v>32010</v>
-      </c>
-      <c r="B6">
-        <v>0.05806849315068525</v>
-      </c>
-      <c r="C6">
-        <v>0.02051737078022597</v>
-      </c>
-      <c r="D6">
-        <v>2061400</v>
-      </c>
-      <c r="E6">
-        <v>265.1543764076433</v>
-      </c>
-      <c r="F6">
-        <v>0.02812083749340794</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2">
-        <v>32024</v>
-      </c>
-      <c r="B7">
-        <v>0.05810684931506881</v>
-      </c>
-      <c r="C7">
-        <v>0.02027426297536294</v>
-      </c>
-      <c r="D7">
-        <v>2061400</v>
-      </c>
-      <c r="E7">
-        <v>265.1748937784236</v>
-      </c>
-      <c r="F7">
-        <v>0.0282131724284616</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2">
-        <v>32038</v>
-      </c>
-      <c r="B8">
-        <v>0.05814520547945238</v>
-      </c>
-      <c r="C8">
-        <v>0.02032734160820837</v>
-      </c>
-      <c r="D8">
-        <v>2061400</v>
-      </c>
-      <c r="E8">
-        <v>265.1951680413989</v>
-      </c>
-      <c r="F8">
-        <v>0.02830441329821746</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2">
-        <v>32052</v>
-      </c>
-      <c r="B9">
-        <v>0.05818356164383594</v>
-      </c>
-      <c r="C9">
-        <v>0.02035102909678699</v>
-      </c>
-      <c r="D9">
-        <v>2061400</v>
-      </c>
-      <c r="E9">
-        <v>265.2154953830071</v>
-      </c>
-      <c r="F9">
-        <v>0.02839589303932645</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2">
-        <v>32066</v>
-      </c>
-      <c r="B10">
-        <v>0.05822191780821951</v>
-      </c>
-      <c r="C10">
-        <v>0.02034816624893665</v>
-      </c>
-      <c r="D10">
-        <v>2061400</v>
-      </c>
-      <c r="E10">
-        <v>265.2358464121039</v>
-      </c>
-      <c r="F10">
-        <v>0.0284874793819459</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2">
-        <v>32080</v>
-      </c>
-      <c r="B11">
-        <v>0.05826027397260308</v>
-      </c>
-      <c r="C11">
-        <v>0.0203930734143114</v>
-      </c>
-      <c r="D11">
-        <v>2061400</v>
-      </c>
-      <c r="E11">
-        <v>265.2561945783528</v>
-      </c>
-      <c r="F11">
-        <v>0.02857905284080584</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2">
-        <v>32094</v>
-      </c>
-      <c r="B12">
-        <v>0.05829863013698664</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>2061400</v>
-      </c>
-      <c r="E12">
-        <v>265.2765876517672</v>
-      </c>
-      <c r="F12">
-        <v>0.02867082839672032</v>
       </c>
     </row>
   </sheetData>
@@ -2852,82 +2510,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="4" width="13.7109375" customWidth="1"/>
-    <col min="4" max="5" width="13.7109375" customWidth="1"/>
-    <col min="5" max="6" width="13.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="4" width="13.7109375" customWidth="1"/>
-    <col min="4" max="5" width="13.7109375" customWidth="1"/>
-    <col min="5" max="6" width="13.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/FACModel/Modelled RIHT2.xlsx
+++ b/FACModel/Modelled RIHT2.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -434,162 +434,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>30477</v>
+        <v>30414</v>
       </c>
       <c r="B2">
-        <v>0.06046027416438356</v>
+        <v>0.035</v>
       </c>
       <c r="C2">
-        <v>0.2297240643719078</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>2061400</v>
       </c>
       <c r="E2">
-        <v>262.3108460275721</v>
+        <v>260.8258482527681</v>
       </c>
       <c r="F2">
-        <v>0.0153240129987072</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2">
-        <v>30484</v>
-      </c>
-      <c r="B3">
-        <v>0.06049863032876712</v>
-      </c>
-      <c r="C3">
-        <v>0.05912997657048891</v>
-      </c>
-      <c r="D3">
-        <v>2061400</v>
-      </c>
-      <c r="E3">
-        <v>262.540570091944</v>
-      </c>
-      <c r="F3">
-        <v>0.01635784705041258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
-        <v>30491</v>
-      </c>
-      <c r="B4">
-        <v>0.06053698649315067</v>
-      </c>
-      <c r="C4">
-        <v>0.02178056795116845</v>
-      </c>
-      <c r="D4">
-        <v>2061400</v>
-      </c>
-      <c r="E4">
-        <v>262.5997000685145</v>
-      </c>
-      <c r="F4">
-        <v>0.01662395144579781</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2">
-        <v>30498</v>
-      </c>
-      <c r="B5">
-        <v>0.06057534265753423</v>
-      </c>
-      <c r="C5">
-        <v>0.01298175072281538</v>
-      </c>
-      <c r="D5">
-        <v>2061400</v>
-      </c>
-      <c r="E5">
-        <v>262.6214806364657</v>
-      </c>
-      <c r="F5">
-        <v>0.01672197118471806</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2">
-        <v>30505</v>
-      </c>
-      <c r="B6">
-        <v>0.06061369882191779</v>
-      </c>
-      <c r="C6">
-        <v>0.01041546893441136</v>
-      </c>
-      <c r="D6">
-        <v>2061400</v>
-      </c>
-      <c r="E6">
-        <v>262.6344623871885</v>
-      </c>
-      <c r="F6">
-        <v>0.01678039334429761</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2">
-        <v>30512</v>
-      </c>
-      <c r="B7">
-        <v>0.06065205498630135</v>
-      </c>
-      <c r="C7">
-        <v>0.009261817087804047</v>
-      </c>
-      <c r="D7">
-        <v>2061400</v>
-      </c>
-      <c r="E7">
-        <v>262.6448778561229</v>
-      </c>
-      <c r="F7">
-        <v>0.0168272663894802</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2">
-        <v>30519</v>
-      </c>
-      <c r="B8">
-        <v>0.06069041115068491</v>
-      </c>
-      <c r="C8">
-        <v>0.008743877345182227</v>
-      </c>
-      <c r="D8">
-        <v>2061400</v>
-      </c>
-      <c r="E8">
-        <v>262.6541396732107</v>
-      </c>
-      <c r="F8">
-        <v>0.01686894762088384</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2">
-        <v>30526</v>
-      </c>
-      <c r="B9">
-        <v>0.06072876731506847</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>2061400</v>
-      </c>
-      <c r="E9">
-        <v>262.6628835505559</v>
-      </c>
-      <c r="F9">
-        <v>0.01690829795263113</v>
+        <v>0.008641033266058135</v>
       </c>
     </row>
   </sheetData>

--- a/FACModel/Modelled RIHT2.xlsx
+++ b/FACModel/Modelled RIHT2.xlsx
@@ -446,10 +446,10 @@
         <v>2061400</v>
       </c>
       <c r="E2">
-        <v>260.8258482527681</v>
+        <v>261.7662441132131</v>
       </c>
       <c r="F2">
-        <v>0.008641033266058135</v>
+        <v>0.01287312477666711</v>
       </c>
     </row>
   </sheetData>

--- a/FACModel/Modelled RIHT2.xlsx
+++ b/FACModel/Modelled RIHT2.xlsx
@@ -446,10 +446,10 @@
         <v>2061400</v>
       </c>
       <c r="E2">
-        <v>261.7662441132131</v>
+        <v>261.7651854938841</v>
       </c>
       <c r="F2">
-        <v>0.01287312477666711</v>
+        <v>0.01286836064055835</v>
       </c>
     </row>
   </sheetData>

--- a/FACModel/Modelled RIHT2.xlsx
+++ b/FACModel/Modelled RIHT2.xlsx
@@ -446,10 +446,10 @@
         <v>2061400</v>
       </c>
       <c r="E2">
-        <v>261.7651854938841</v>
+        <v>262.6355143976893</v>
       </c>
       <c r="F2">
-        <v>0.01286836064055835</v>
+        <v>0.01678512773850001</v>
       </c>
     </row>
   </sheetData>

--- a/FACModel/Modelled RIHT2.xlsx
+++ b/FACModel/Modelled RIHT2.xlsx
@@ -446,10 +446,10 @@
         <v>2061400</v>
       </c>
       <c r="E2">
-        <v>262.6355143976893</v>
+        <v>262.6354771454063</v>
       </c>
       <c r="F2">
-        <v>0.01678512773850001</v>
+        <v>0.01678496009094076</v>
       </c>
     </row>
   </sheetData>

--- a/FACModel/Modelled RIHT2.xlsx
+++ b/FACModel/Modelled RIHT2.xlsx
@@ -446,10 +446,10 @@
         <v>2061400</v>
       </c>
       <c r="E2">
-        <v>262.6354771454063</v>
+        <v>262.6353826259896</v>
       </c>
       <c r="F2">
-        <v>0.01678496009094076</v>
+        <v>0.01678453472239336</v>
       </c>
     </row>
   </sheetData>

--- a/FACModel/Modelled RIHT2.xlsx
+++ b/FACModel/Modelled RIHT2.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,16 +440,3996 @@
         <v>0.035</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.09444866408693997</v>
       </c>
       <c r="D2">
         <v>2061400</v>
       </c>
       <c r="E2">
-        <v>262.6353826259896</v>
+        <v>261.6025145911725</v>
       </c>
       <c r="F2">
-        <v>0.01678453472239336</v>
+        <v>0.01213628793017545</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>30421</v>
+      </c>
+      <c r="B3">
+        <v>0.03503835616438356</v>
+      </c>
+      <c r="C3">
+        <v>0.02562045860599937</v>
+      </c>
+      <c r="D3">
+        <v>2061400</v>
+      </c>
+      <c r="E3">
+        <v>261.6969632552594</v>
+      </c>
+      <c r="F3">
+        <v>0.0125613380673395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>30428</v>
+      </c>
+      <c r="B4">
+        <v>0.03507671232876712</v>
+      </c>
+      <c r="C4">
+        <v>0.01222430009215714</v>
+      </c>
+      <c r="D4">
+        <v>2061400</v>
+      </c>
+      <c r="E4">
+        <v>261.7225837138654</v>
+      </c>
+      <c r="F4">
+        <v>0.01267663858058605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>30435</v>
+      </c>
+      <c r="B5">
+        <v>0.03511506849315068</v>
+      </c>
+      <c r="C5">
+        <v>0.00943162090777605</v>
+      </c>
+      <c r="D5">
+        <v>2061400</v>
+      </c>
+      <c r="E5">
+        <v>261.7348080139576</v>
+      </c>
+      <c r="F5">
+        <v>0.01273165196252363</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>30442</v>
+      </c>
+      <c r="B6">
+        <v>0.03515342465753424</v>
+      </c>
+      <c r="C6">
+        <v>0.005303115757214982</v>
+      </c>
+      <c r="D6">
+        <v>2061400</v>
+      </c>
+      <c r="E6">
+        <v>261.7442396348654</v>
+      </c>
+      <c r="F6">
+        <v>0.01277409736711772</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>30477</v>
+      </c>
+      <c r="B7">
+        <v>0.05003835616438356</v>
+      </c>
+      <c r="C7">
+        <v>0.5493685073903407</v>
+      </c>
+      <c r="D7">
+        <v>2061400</v>
+      </c>
+      <c r="E7">
+        <v>261.7774722756766</v>
+      </c>
+      <c r="F7">
+        <v>0.01292365521075344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>30484</v>
+      </c>
+      <c r="B8">
+        <v>0.05007671232876712</v>
+      </c>
+      <c r="C8">
+        <v>0.1174879826807</v>
+      </c>
+      <c r="D8">
+        <v>2061400</v>
+      </c>
+      <c r="E8">
+        <v>262.3268407830669</v>
+      </c>
+      <c r="F8">
+        <v>0.01539599467343718</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>30491</v>
+      </c>
+      <c r="B9">
+        <v>0.05011506849315068</v>
+      </c>
+      <c r="C9">
+        <v>0.03162988092344676</v>
+      </c>
+      <c r="D9">
+        <v>2061400</v>
+      </c>
+      <c r="E9">
+        <v>262.4443287657476</v>
+      </c>
+      <c r="F9">
+        <v>0.01592472934254359</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>30498</v>
+      </c>
+      <c r="B10">
+        <v>0.05015342465753424</v>
+      </c>
+      <c r="C10">
+        <v>0.01225454310906571</v>
+      </c>
+      <c r="D10">
+        <v>2061400</v>
+      </c>
+      <c r="E10">
+        <v>262.4759586466711</v>
+      </c>
+      <c r="F10">
+        <v>0.016067074238101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>30505</v>
+      </c>
+      <c r="B11">
+        <v>0.0501917808219178</v>
+      </c>
+      <c r="C11">
+        <v>0.01065460318613987</v>
+      </c>
+      <c r="D11">
+        <v>2061400</v>
+      </c>
+      <c r="E11">
+        <v>262.4882131897801</v>
+      </c>
+      <c r="F11">
+        <v>0.01612222372358873</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>30512</v>
+      </c>
+      <c r="B12">
+        <v>0.05023013698630135</v>
+      </c>
+      <c r="C12">
+        <v>0.009857630176384191</v>
+      </c>
+      <c r="D12">
+        <v>2061400</v>
+      </c>
+      <c r="E12">
+        <v>262.4988677929663</v>
+      </c>
+      <c r="F12">
+        <v>0.01617017295176984</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>30519</v>
+      </c>
+      <c r="B13">
+        <v>0.05026849315068491</v>
+      </c>
+      <c r="C13">
+        <v>0.01089614574243569</v>
+      </c>
+      <c r="D13">
+        <v>2061400</v>
+      </c>
+      <c r="E13">
+        <v>262.5087254231427</v>
+      </c>
+      <c r="F13">
+        <v>0.01621453553856851</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>30526</v>
+      </c>
+      <c r="B14">
+        <v>0.05030684931506847</v>
+      </c>
+      <c r="C14">
+        <v>0.01028171400730571</v>
+      </c>
+      <c r="D14">
+        <v>2061400</v>
+      </c>
+      <c r="E14">
+        <v>262.5196215688851</v>
+      </c>
+      <c r="F14">
+        <v>0.01626357178791269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
+        <v>30533</v>
+      </c>
+      <c r="B15">
+        <v>0.05034520547945203</v>
+      </c>
+      <c r="C15">
+        <v>0.01160468000216497</v>
+      </c>
+      <c r="D15">
+        <v>2061400</v>
+      </c>
+      <c r="E15">
+        <v>262.5299032828924</v>
+      </c>
+      <c r="F15">
+        <v>0.01630984289181161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
+        <v>30540</v>
+      </c>
+      <c r="B16">
+        <v>0.05038356164383559</v>
+      </c>
+      <c r="C16">
+        <v>0.0107853382154417</v>
+      </c>
+      <c r="D16">
+        <v>2061400</v>
+      </c>
+      <c r="E16">
+        <v>262.5415079628946</v>
+      </c>
+      <c r="F16">
+        <v>0.01636206777899599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
+        <v>30547</v>
+      </c>
+      <c r="B17">
+        <v>0.05042191780821915</v>
+      </c>
+      <c r="C17">
+        <v>0.01274156195097476</v>
+      </c>
+      <c r="D17">
+        <v>2061400</v>
+      </c>
+      <c r="E17">
+        <v>262.55229330111</v>
+      </c>
+      <c r="F17">
+        <v>0.01641060535792475</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
+        <v>30554</v>
+      </c>
+      <c r="B18">
+        <v>0.05046027397260271</v>
+      </c>
+      <c r="C18">
+        <v>0.01097131094024917</v>
+      </c>
+      <c r="D18">
+        <v>2061400</v>
+      </c>
+      <c r="E18">
+        <v>262.565034863061</v>
+      </c>
+      <c r="F18">
+        <v>0.01646794658881787</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2">
+        <v>30561</v>
+      </c>
+      <c r="B19">
+        <v>0.05049863013698627</v>
+      </c>
+      <c r="C19">
+        <v>0.01215071824071856</v>
+      </c>
+      <c r="D19">
+        <v>2061400</v>
+      </c>
+      <c r="E19">
+        <v>262.5760061740012</v>
+      </c>
+      <c r="F19">
+        <v>0.0165173211063412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2">
+        <v>30568</v>
+      </c>
+      <c r="B20">
+        <v>0.05053698630136982</v>
+      </c>
+      <c r="C20">
+        <v>0.01083284182186617</v>
+      </c>
+      <c r="D20">
+        <v>2061400</v>
+      </c>
+      <c r="E20">
+        <v>262.588156892242</v>
+      </c>
+      <c r="F20">
+        <v>0.01657200334568031</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2">
+        <v>30575</v>
+      </c>
+      <c r="B21">
+        <v>0.05057534246575338</v>
+      </c>
+      <c r="C21">
+        <v>0.01270330933948571</v>
+      </c>
+      <c r="D21">
+        <v>2061400</v>
+      </c>
+      <c r="E21">
+        <v>262.5989897340638</v>
+      </c>
+      <c r="F21">
+        <v>0.01662075470650444</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2">
+        <v>30582</v>
+      </c>
+      <c r="B22">
+        <v>0.05061369863013694</v>
+      </c>
+      <c r="C22">
+        <v>0.0111707578014375</v>
+      </c>
+      <c r="D22">
+        <v>2061400</v>
+      </c>
+      <c r="E22">
+        <v>262.6116930434033</v>
+      </c>
+      <c r="F22">
+        <v>0.01667792378803022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2">
+        <v>30589</v>
+      </c>
+      <c r="B23">
+        <v>0.0506520547945205</v>
+      </c>
+      <c r="C23">
+        <v>0.01227834632823033</v>
+      </c>
+      <c r="D23">
+        <v>2061400</v>
+      </c>
+      <c r="E23">
+        <v>262.6228638012047</v>
+      </c>
+      <c r="F23">
+        <v>0.01672819588220582</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2">
+        <v>30596</v>
+      </c>
+      <c r="B24">
+        <v>0.05069041095890406</v>
+      </c>
+      <c r="C24">
+        <v>0.01140307670391394</v>
+      </c>
+      <c r="D24">
+        <v>2061400</v>
+      </c>
+      <c r="E24">
+        <v>262.635142147533</v>
+      </c>
+      <c r="F24">
+        <v>0.01678345249002981</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2">
+        <v>30603</v>
+      </c>
+      <c r="B25">
+        <v>0.05072876712328762</v>
+      </c>
+      <c r="C25">
+        <v>0.01252423188509511</v>
+      </c>
+      <c r="D25">
+        <v>2061400</v>
+      </c>
+      <c r="E25">
+        <v>262.6465452242369</v>
+      </c>
+      <c r="F25">
+        <v>0.01683477009588428</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2">
+        <v>30610</v>
+      </c>
+      <c r="B26">
+        <v>0.05076712328767118</v>
+      </c>
+      <c r="C26">
+        <v>0.01171446578496216</v>
+      </c>
+      <c r="D26">
+        <v>2061400</v>
+      </c>
+      <c r="E26">
+        <v>262.659069456122</v>
+      </c>
+      <c r="F26">
+        <v>0.01689113326980636</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2">
+        <v>30617</v>
+      </c>
+      <c r="B27">
+        <v>0.05080547945205473</v>
+      </c>
+      <c r="C27">
+        <v>0.01280147211900839</v>
+      </c>
+      <c r="D27">
+        <v>2061400</v>
+      </c>
+      <c r="E27">
+        <v>262.6707839219069</v>
+      </c>
+      <c r="F27">
+        <v>0.0169438522292203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2">
+        <v>30624</v>
+      </c>
+      <c r="B28">
+        <v>0.05084383561643829</v>
+      </c>
+      <c r="C28">
+        <v>0.01191515721734504</v>
+      </c>
+      <c r="D28">
+        <v>2061400</v>
+      </c>
+      <c r="E28">
+        <v>262.683585394026</v>
+      </c>
+      <c r="F28">
+        <v>0.01700146307562752</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2">
+        <v>30631</v>
+      </c>
+      <c r="B29">
+        <v>0.05088219178082185</v>
+      </c>
+      <c r="C29">
+        <v>0.01292467766677419</v>
+      </c>
+      <c r="D29">
+        <v>2061400</v>
+      </c>
+      <c r="E29">
+        <v>262.6955005512433</v>
+      </c>
+      <c r="F29">
+        <v>0.01705508521267449</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2">
+        <v>30638</v>
+      </c>
+      <c r="B30">
+        <v>0.05092054794520541</v>
+      </c>
+      <c r="C30">
+        <v>0.01263034209841862</v>
+      </c>
+      <c r="D30">
+        <v>2061400</v>
+      </c>
+      <c r="E30">
+        <v>262.7084252289101</v>
+      </c>
+      <c r="F30">
+        <v>0.01711325052467935</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2">
+        <v>30645</v>
+      </c>
+      <c r="B31">
+        <v>0.05095890410958897</v>
+      </c>
+      <c r="C31">
+        <v>0.0131440812413075</v>
+      </c>
+      <c r="D31">
+        <v>2061400</v>
+      </c>
+      <c r="E31">
+        <v>262.7210555710085</v>
+      </c>
+      <c r="F31">
+        <v>0.01717009122955604</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2">
+        <v>30652</v>
+      </c>
+      <c r="B32">
+        <v>0.05099726027397253</v>
+      </c>
+      <c r="C32">
+        <v>0.01214312001968665</v>
+      </c>
+      <c r="D32">
+        <v>2061400</v>
+      </c>
+      <c r="E32">
+        <v>262.7341996522498</v>
+      </c>
+      <c r="F32">
+        <v>0.01722924393000477</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2">
+        <v>30659</v>
+      </c>
+      <c r="B33">
+        <v>0.05103561643835609</v>
+      </c>
+      <c r="C33">
+        <v>0.01309292523910699</v>
+      </c>
+      <c r="D33">
+        <v>2061400</v>
+      </c>
+      <c r="E33">
+        <v>262.7463427722695</v>
+      </c>
+      <c r="F33">
+        <v>0.0172838919748433</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2">
+        <v>30666</v>
+      </c>
+      <c r="B34">
+        <v>0.05107397260273965</v>
+      </c>
+      <c r="C34">
+        <v>0.01225268378425426</v>
+      </c>
+      <c r="D34">
+        <v>2061400</v>
+      </c>
+      <c r="E34">
+        <v>262.7594356975086</v>
+      </c>
+      <c r="F34">
+        <v>0.01734281445641096</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2">
+        <v>30673</v>
+      </c>
+      <c r="B35">
+        <v>0.0511123287671232</v>
+      </c>
+      <c r="C35">
+        <v>0.01215648073298325</v>
+      </c>
+      <c r="D35">
+        <v>2061400</v>
+      </c>
+      <c r="E35">
+        <v>262.7716883812928</v>
+      </c>
+      <c r="F35">
+        <v>0.01739795557432377</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2">
+        <v>30680</v>
+      </c>
+      <c r="B36">
+        <v>0.05115068493150676</v>
+      </c>
+      <c r="C36">
+        <v>0.01374534804813266</v>
+      </c>
+      <c r="D36">
+        <v>2061400</v>
+      </c>
+      <c r="E36">
+        <v>262.7838448620258</v>
+      </c>
+      <c r="F36">
+        <v>0.01745266374677854</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2">
+        <v>30687</v>
+      </c>
+      <c r="B37">
+        <v>0.05118904109589032</v>
+      </c>
+      <c r="C37">
+        <v>0.01270916380838116</v>
+      </c>
+      <c r="D37">
+        <v>2061400</v>
+      </c>
+      <c r="E37">
+        <v>262.797590210074</v>
+      </c>
+      <c r="F37">
+        <v>0.01751452234615318</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2">
+        <v>30694</v>
+      </c>
+      <c r="B38">
+        <v>0.05122739726027388</v>
+      </c>
+      <c r="C38">
+        <v>0.01241835958273896</v>
+      </c>
+      <c r="D38">
+        <v>2061400</v>
+      </c>
+      <c r="E38">
+        <v>262.8102993738823</v>
+      </c>
+      <c r="F38">
+        <v>0.01757171777471991</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2">
+        <v>30701</v>
+      </c>
+      <c r="B39">
+        <v>0.05126575342465744</v>
+      </c>
+      <c r="C39">
+        <v>0.01389993157249592</v>
+      </c>
+      <c r="D39">
+        <v>2061400</v>
+      </c>
+      <c r="E39">
+        <v>262.8227177334651</v>
+      </c>
+      <c r="F39">
+        <v>0.01762760448836496</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2">
+        <v>30708</v>
+      </c>
+      <c r="B40">
+        <v>0.051304109589041</v>
+      </c>
+      <c r="C40">
+        <v>0.01272175045687618</v>
+      </c>
+      <c r="D40">
+        <v>2061400</v>
+      </c>
+      <c r="E40">
+        <v>262.8366176650376</v>
+      </c>
+      <c r="F40">
+        <v>0.01769015876458025</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2">
+        <v>30715</v>
+      </c>
+      <c r="B41">
+        <v>0.05134246575342456</v>
+      </c>
+      <c r="C41">
+        <v>0.01249926470677565</v>
+      </c>
+      <c r="D41">
+        <v>2061400</v>
+      </c>
+      <c r="E41">
+        <v>262.8493394154945</v>
+      </c>
+      <c r="F41">
+        <v>0.01774741083721619</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2">
+        <v>30722</v>
+      </c>
+      <c r="B42">
+        <v>0.05138082191780811</v>
+      </c>
+      <c r="C42">
+        <v>0.01400512932912079</v>
+      </c>
+      <c r="D42">
+        <v>2061400</v>
+      </c>
+      <c r="E42">
+        <v>262.8618386802012</v>
+      </c>
+      <c r="F42">
+        <v>0.01780366165060162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2">
+        <v>30729</v>
+      </c>
+      <c r="B43">
+        <v>0.05141917808219167</v>
+      </c>
+      <c r="C43">
+        <v>0.01284108448987809</v>
+      </c>
+      <c r="D43">
+        <v>2061400</v>
+      </c>
+      <c r="E43">
+        <v>262.8758438095304</v>
+      </c>
+      <c r="F43">
+        <v>0.01786668935141557</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2">
+        <v>30736</v>
+      </c>
+      <c r="B44">
+        <v>0.05145753424657523</v>
+      </c>
+      <c r="C44">
+        <v>0.01261943877602789</v>
+      </c>
+      <c r="D44">
+        <v>2061400</v>
+      </c>
+      <c r="E44">
+        <v>262.8886848940202</v>
+      </c>
+      <c r="F44">
+        <v>0.01792447846655583</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2">
+        <v>30743</v>
+      </c>
+      <c r="B45">
+        <v>0.05149589041095879</v>
+      </c>
+      <c r="C45">
+        <v>0.01407331746088403</v>
+      </c>
+      <c r="D45">
+        <v>2061400</v>
+      </c>
+      <c r="E45">
+        <v>262.9013043327963</v>
+      </c>
+      <c r="F45">
+        <v>0.01798127010288572</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2">
+        <v>30750</v>
+      </c>
+      <c r="B46">
+        <v>0.05153424657534235</v>
+      </c>
+      <c r="C46">
+        <v>0.01295583604758122</v>
+      </c>
+      <c r="D46">
+        <v>2061400</v>
+      </c>
+      <c r="E46">
+        <v>262.9153776502571</v>
+      </c>
+      <c r="F46">
+        <v>0.01804460467278075</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2">
+        <v>30757</v>
+      </c>
+      <c r="B47">
+        <v>0.05157260273972591</v>
+      </c>
+      <c r="C47">
+        <v>0.01273282341458071</v>
+      </c>
+      <c r="D47">
+        <v>2061400</v>
+      </c>
+      <c r="E47">
+        <v>262.9283334863047</v>
+      </c>
+      <c r="F47">
+        <v>0.01810291020777521</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2">
+        <v>30764</v>
+      </c>
+      <c r="B48">
+        <v>0.05161095890410947</v>
+      </c>
+      <c r="C48">
+        <v>0.01416793925659476</v>
+      </c>
+      <c r="D48">
+        <v>2061400</v>
+      </c>
+      <c r="E48">
+        <v>262.9410663097193</v>
+      </c>
+      <c r="F48">
+        <v>0.01816021211237252</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2">
+        <v>30771</v>
+      </c>
+      <c r="B49">
+        <v>0.05164931506849302</v>
+      </c>
+      <c r="C49">
+        <v>0.01305917901902376</v>
+      </c>
+      <c r="D49">
+        <v>2061400</v>
+      </c>
+      <c r="E49">
+        <v>262.9552342489759</v>
+      </c>
+      <c r="F49">
+        <v>0.0182239725115541</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2">
+        <v>30778</v>
+      </c>
+      <c r="B50">
+        <v>0.05168767123287658</v>
+      </c>
+      <c r="C50">
+        <v>0.01280717308816293</v>
+      </c>
+      <c r="D50">
+        <v>2061400</v>
+      </c>
+      <c r="E50">
+        <v>262.9682934279949</v>
+      </c>
+      <c r="F50">
+        <v>0.01828274312400211</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2">
+        <v>30785</v>
+      </c>
+      <c r="B51">
+        <v>0.05172602739726014</v>
+      </c>
+      <c r="C51">
+        <v>0.01115593594545317</v>
+      </c>
+      <c r="D51">
+        <v>2061400</v>
+      </c>
+      <c r="E51">
+        <v>262.9811006010831</v>
+      </c>
+      <c r="F51">
+        <v>0.01834037962665073</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2">
+        <v>30827</v>
+      </c>
+      <c r="B52">
+        <v>0.06003835616438356</v>
+      </c>
+      <c r="C52">
+        <v>0.9724825088089801</v>
+      </c>
+      <c r="D52">
+        <v>2061400</v>
+      </c>
+      <c r="E52">
+        <v>262.17395156963</v>
+      </c>
+      <c r="F52">
+        <v>0.01470794279075058</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2">
+        <v>30834</v>
+      </c>
+      <c r="B53">
+        <v>0.06007671232876712</v>
+      </c>
+      <c r="C53">
+        <v>0.2229575254826841</v>
+      </c>
+      <c r="D53">
+        <v>2061400</v>
+      </c>
+      <c r="E53">
+        <v>263.146434078439</v>
+      </c>
+      <c r="F53">
+        <v>0.01908443480103907</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2">
+        <v>30841</v>
+      </c>
+      <c r="B54">
+        <v>0.06011506849315067</v>
+      </c>
+      <c r="C54">
+        <v>0.05893046465928364</v>
+      </c>
+      <c r="D54">
+        <v>2061400</v>
+      </c>
+      <c r="E54">
+        <v>263.3693916039217</v>
+      </c>
+      <c r="F54">
+        <v>0.02008781719616698</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2">
+        <v>30848</v>
+      </c>
+      <c r="B55">
+        <v>0.06015342465753423</v>
+      </c>
+      <c r="C55">
+        <v>0.02400060756667699</v>
+      </c>
+      <c r="D55">
+        <v>2061400</v>
+      </c>
+      <c r="E55">
+        <v>263.428322068581</v>
+      </c>
+      <c r="F55">
+        <v>0.02035302372215358</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2">
+        <v>30855</v>
+      </c>
+      <c r="B56">
+        <v>0.06019178082191779</v>
+      </c>
+      <c r="C56">
+        <v>0.01521987863065988</v>
+      </c>
+      <c r="D56">
+        <v>2061400</v>
+      </c>
+      <c r="E56">
+        <v>263.4523226761477</v>
+      </c>
+      <c r="F56">
+        <v>0.02046103437150316</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="2">
+        <v>30862</v>
+      </c>
+      <c r="B57">
+        <v>0.06023013698630135</v>
+      </c>
+      <c r="C57">
+        <v>0.01329925135155463</v>
+      </c>
+      <c r="D57">
+        <v>2061400</v>
+      </c>
+      <c r="E57">
+        <v>263.4675425547783</v>
+      </c>
+      <c r="F57">
+        <v>0.02052952884479333</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="2">
+        <v>30869</v>
+      </c>
+      <c r="B58">
+        <v>0.06026849315068491</v>
+      </c>
+      <c r="C58">
+        <v>0.01443158488882545</v>
+      </c>
+      <c r="D58">
+        <v>2061400</v>
+      </c>
+      <c r="E58">
+        <v>263.4808418061299</v>
+      </c>
+      <c r="F58">
+        <v>0.02058937986191245</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="2">
+        <v>30876</v>
+      </c>
+      <c r="B59">
+        <v>0.06030684931506847</v>
+      </c>
+      <c r="C59">
+        <v>0.01324191602941482</v>
+      </c>
+      <c r="D59">
+        <v>2061400</v>
+      </c>
+      <c r="E59">
+        <v>263.4952733910187</v>
+      </c>
+      <c r="F59">
+        <v>0.02065432675338841</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="2">
+        <v>30883</v>
+      </c>
+      <c r="B60">
+        <v>0.06034520547945203</v>
+      </c>
+      <c r="C60">
+        <v>0.01299961363599778</v>
+      </c>
+      <c r="D60">
+        <v>2061400</v>
+      </c>
+      <c r="E60">
+        <v>263.5085153070481</v>
+      </c>
+      <c r="F60">
+        <v>0.02071391974264902</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="2">
+        <v>30890</v>
+      </c>
+      <c r="B61">
+        <v>0.06038356164383558</v>
+      </c>
+      <c r="C61">
+        <v>0.01445079097607049</v>
+      </c>
+      <c r="D61">
+        <v>2061400</v>
+      </c>
+      <c r="E61">
+        <v>263.5215149206841</v>
+      </c>
+      <c r="F61">
+        <v>0.02077242229122901</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="2">
+        <v>30897</v>
+      </c>
+      <c r="B62">
+        <v>0.06042191780821914</v>
+      </c>
+      <c r="C62">
+        <v>0.01331568162561325</v>
+      </c>
+      <c r="D62">
+        <v>2061400</v>
+      </c>
+      <c r="E62">
+        <v>263.5359657116602</v>
+      </c>
+      <c r="F62">
+        <v>0.02083745561643158</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="2">
+        <v>30904</v>
+      </c>
+      <c r="B63">
+        <v>0.0604602739726027</v>
+      </c>
+      <c r="C63">
+        <v>0.01306146418608023</v>
+      </c>
+      <c r="D63">
+        <v>2061400</v>
+      </c>
+      <c r="E63">
+        <v>263.5492813932858</v>
+      </c>
+      <c r="F63">
+        <v>0.02089738057520271</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="2">
+        <v>30911</v>
+      </c>
+      <c r="B64">
+        <v>0.06049863013698626</v>
+      </c>
+      <c r="C64">
+        <v>0.01453672292973351</v>
+      </c>
+      <c r="D64">
+        <v>2061400</v>
+      </c>
+      <c r="E64">
+        <v>263.5623428574719</v>
+      </c>
+      <c r="F64">
+        <v>0.02095616147165599</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="2">
+        <v>30918</v>
+      </c>
+      <c r="B65">
+        <v>0.06053698630136982</v>
+      </c>
+      <c r="C65">
+        <v>0.01333527401811807</v>
+      </c>
+      <c r="D65">
+        <v>2061400</v>
+      </c>
+      <c r="E65">
+        <v>263.5768795804016</v>
+      </c>
+      <c r="F65">
+        <v>0.02102158151899007</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="2">
+        <v>30925</v>
+      </c>
+      <c r="B66">
+        <v>0.06057534246575338</v>
+      </c>
+      <c r="C66">
+        <v>0.01311259259955477</v>
+      </c>
+      <c r="D66">
+        <v>2061400</v>
+      </c>
+      <c r="E66">
+        <v>263.5902148544197</v>
+      </c>
+      <c r="F66">
+        <v>0.02108159464998899</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="2">
+        <v>30932</v>
+      </c>
+      <c r="B67">
+        <v>0.06061369863013694</v>
+      </c>
+      <c r="C67">
+        <v>0.0145778611863534</v>
+      </c>
+      <c r="D67">
+        <v>2061400</v>
+      </c>
+      <c r="E67">
+        <v>263.6033274470193</v>
+      </c>
+      <c r="F67">
+        <v>0.021140605641165</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="2">
+        <v>30939</v>
+      </c>
+      <c r="B68">
+        <v>0.06065205479452049</v>
+      </c>
+      <c r="C68">
+        <v>0.01340489208632789</v>
+      </c>
+      <c r="D68">
+        <v>2061400</v>
+      </c>
+      <c r="E68">
+        <v>263.6179053082056</v>
+      </c>
+      <c r="F68">
+        <v>0.02120621082422086</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="2">
+        <v>30946</v>
+      </c>
+      <c r="B69">
+        <v>0.06069041095890405</v>
+      </c>
+      <c r="C69">
+        <v>0.01317928598859908</v>
+      </c>
+      <c r="D69">
+        <v>2061400</v>
+      </c>
+      <c r="E69">
+        <v>263.631310200292</v>
+      </c>
+      <c r="F69">
+        <v>0.02126653725948659</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="2">
+        <v>30953</v>
+      </c>
+      <c r="B70">
+        <v>0.06072876712328761</v>
+      </c>
+      <c r="C70">
+        <v>0.01461190301142778</v>
+      </c>
+      <c r="D70">
+        <v>2061400</v>
+      </c>
+      <c r="E70">
+        <v>263.6444894862806</v>
+      </c>
+      <c r="F70">
+        <v>0.02132584839290837</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="2">
+        <v>30960</v>
+      </c>
+      <c r="B71">
+        <v>0.06076712328767117</v>
+      </c>
+      <c r="C71">
+        <v>0.01347078913738642</v>
+      </c>
+      <c r="D71">
+        <v>2061400</v>
+      </c>
+      <c r="E71">
+        <v>263.659101389292</v>
+      </c>
+      <c r="F71">
+        <v>0.0213916067754041</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="2">
+        <v>30967</v>
+      </c>
+      <c r="B72">
+        <v>0.06080547945205473</v>
+      </c>
+      <c r="C72">
+        <v>0.01322474049379707</v>
+      </c>
+      <c r="D72">
+        <v>2061400</v>
+      </c>
+      <c r="E72">
+        <v>263.6725721784294</v>
+      </c>
+      <c r="F72">
+        <v>0.02145222976913202</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="2">
+        <v>30974</v>
+      </c>
+      <c r="B73">
+        <v>0.06084383561643829</v>
+      </c>
+      <c r="C73">
+        <v>0.01501029039206969</v>
+      </c>
+      <c r="D73">
+        <v>2061400</v>
+      </c>
+      <c r="E73">
+        <v>263.6857969189232</v>
+      </c>
+      <c r="F73">
+        <v>0.02151174546281793</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="2">
+        <v>30981</v>
+      </c>
+      <c r="B74">
+        <v>0.06088219178082185</v>
+      </c>
+      <c r="C74">
+        <v>0.01359336802693178</v>
+      </c>
+      <c r="D74">
+        <v>2061400</v>
+      </c>
+      <c r="E74">
+        <v>263.7008072093153</v>
+      </c>
+      <c r="F74">
+        <v>0.02157929671991306</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="2">
+        <v>30988</v>
+      </c>
+      <c r="B75">
+        <v>0.06092054794520541</v>
+      </c>
+      <c r="C75">
+        <v>0.01325902154314917</v>
+      </c>
+      <c r="D75">
+        <v>2061400</v>
+      </c>
+      <c r="E75">
+        <v>263.7144005773422</v>
+      </c>
+      <c r="F75">
+        <v>0.02164047135906988</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="2">
+        <v>30995</v>
+      </c>
+      <c r="B76">
+        <v>0.06095890410958896</v>
+      </c>
+      <c r="C76">
+        <v>0.01489750516157073</v>
+      </c>
+      <c r="D76">
+        <v>2061400</v>
+      </c>
+      <c r="E76">
+        <v>263.7276595988853</v>
+      </c>
+      <c r="F76">
+        <v>0.02170014132878371</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="2">
+        <v>31002</v>
+      </c>
+      <c r="B77">
+        <v>0.06099726027397252</v>
+      </c>
+      <c r="C77">
+        <v>0.01360078034701928</v>
+      </c>
+      <c r="D77">
+        <v>2061400</v>
+      </c>
+      <c r="E77">
+        <v>263.7425571040469</v>
+      </c>
+      <c r="F77">
+        <v>0.02176718501514555</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="2">
+        <v>31009</v>
+      </c>
+      <c r="B78">
+        <v>0.06103561643835608</v>
+      </c>
+      <c r="C78">
+        <v>0.01331243808590443</v>
+      </c>
+      <c r="D78">
+        <v>2061400</v>
+      </c>
+      <c r="E78">
+        <v>263.7561578843939</v>
+      </c>
+      <c r="F78">
+        <v>0.02182839301218737</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="2">
+        <v>31016</v>
+      </c>
+      <c r="B79">
+        <v>0.06107397260273964</v>
+      </c>
+      <c r="C79">
+        <v>0.01476072558989472</v>
+      </c>
+      <c r="D79">
+        <v>2061400</v>
+      </c>
+      <c r="E79">
+        <v>263.7694703224798</v>
+      </c>
+      <c r="F79">
+        <v>0.02188830337395999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="2">
+        <v>31023</v>
+      </c>
+      <c r="B80">
+        <v>0.0611123287671232</v>
+      </c>
+      <c r="C80">
+        <v>0.01361637122874981</v>
+      </c>
+      <c r="D80">
+        <v>2061400</v>
+      </c>
+      <c r="E80">
+        <v>263.7842310480697</v>
+      </c>
+      <c r="F80">
+        <v>0.02195473150713997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="2">
+        <v>31030</v>
+      </c>
+      <c r="B81">
+        <v>0.06115068493150676</v>
+      </c>
+      <c r="C81">
+        <v>0.01334977928979697</v>
+      </c>
+      <c r="D81">
+        <v>2061400</v>
+      </c>
+      <c r="E81">
+        <v>263.7978474192985</v>
+      </c>
+      <c r="F81">
+        <v>0.02201600966829135</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="2">
+        <v>31037</v>
+      </c>
+      <c r="B82">
+        <v>0.06118904109589032</v>
+      </c>
+      <c r="C82">
+        <v>0.0147906117358616</v>
+      </c>
+      <c r="D82">
+        <v>2061400</v>
+      </c>
+      <c r="E82">
+        <v>263.8111971985883</v>
+      </c>
+      <c r="F82">
+        <v>0.02207608807779653</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="2">
+        <v>31044</v>
+      </c>
+      <c r="B83">
+        <v>0.06122739726027387</v>
+      </c>
+      <c r="C83">
+        <v>0.01365263172885989</v>
+      </c>
+      <c r="D83">
+        <v>2061400</v>
+      </c>
+      <c r="E83">
+        <v>263.8259878103241</v>
+      </c>
+      <c r="F83">
+        <v>0.02214265070848967</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="2">
+        <v>31051</v>
+      </c>
+      <c r="B84">
+        <v>0.06126575342465743</v>
+      </c>
+      <c r="C84">
+        <v>0.01338944710562373</v>
+      </c>
+      <c r="D84">
+        <v>2061400</v>
+      </c>
+      <c r="E84">
+        <v>263.839640442053</v>
+      </c>
+      <c r="F84">
+        <v>0.02220409205385012</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="2">
+        <v>31058</v>
+      </c>
+      <c r="B85">
+        <v>0.06130410958904099</v>
+      </c>
+      <c r="C85">
+        <v>0.01487273129885125</v>
+      </c>
+      <c r="D85">
+        <v>2061400</v>
+      </c>
+      <c r="E85">
+        <v>263.8530298891586</v>
+      </c>
+      <c r="F85">
+        <v>0.0222643489816088</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="2">
+        <v>31065</v>
+      </c>
+      <c r="B86">
+        <v>0.06134246575342455</v>
+      </c>
+      <c r="C86">
+        <v>0.01365172374846679</v>
+      </c>
+      <c r="D86">
+        <v>2061400</v>
+      </c>
+      <c r="E86">
+        <v>263.8679026204575</v>
+      </c>
+      <c r="F86">
+        <v>0.02233128117741812</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="2">
+        <v>31072</v>
+      </c>
+      <c r="B87">
+        <v>0.06138082191780811</v>
+      </c>
+      <c r="C87">
+        <v>0.01342210888947193</v>
+      </c>
+      <c r="D87">
+        <v>2061400</v>
+      </c>
+      <c r="E87">
+        <v>263.8815543442059</v>
+      </c>
+      <c r="F87">
+        <v>0.02239271843656735</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="2">
+        <v>31079</v>
+      </c>
+      <c r="B88">
+        <v>0.06141917808219167</v>
+      </c>
+      <c r="C88">
+        <v>0.01490600644933693</v>
+      </c>
+      <c r="D88">
+        <v>2061400</v>
+      </c>
+      <c r="E88">
+        <v>263.8949764530954</v>
+      </c>
+      <c r="F88">
+        <v>0.02245312235312505</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="2">
+        <v>31086</v>
+      </c>
+      <c r="B89">
+        <v>0.06145753424657523</v>
+      </c>
+      <c r="C89">
+        <v>0.01371386677647024</v>
+      </c>
+      <c r="D89">
+        <v>2061400</v>
+      </c>
+      <c r="E89">
+        <v>263.9098824595447</v>
+      </c>
+      <c r="F89">
+        <v>0.02252020429808553</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="2">
+        <v>31093</v>
+      </c>
+      <c r="B90">
+        <v>0.06149589041095879</v>
+      </c>
+      <c r="C90">
+        <v>0.0134229163800228</v>
+      </c>
+      <c r="D90">
+        <v>2061400</v>
+      </c>
+      <c r="E90">
+        <v>263.9235963263212</v>
+      </c>
+      <c r="F90">
+        <v>0.02258192122135516</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="2">
+        <v>31100</v>
+      </c>
+      <c r="B91">
+        <v>0.06153424657534234</v>
+      </c>
+      <c r="C91">
+        <v>0.01495001840748955</v>
+      </c>
+      <c r="D91">
+        <v>2061400</v>
+      </c>
+      <c r="E91">
+        <v>263.9370192427012</v>
+      </c>
+      <c r="F91">
+        <v>0.02264232877188682</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="2">
+        <v>31107</v>
+      </c>
+      <c r="B92">
+        <v>0.0615726027397259</v>
+      </c>
+      <c r="C92">
+        <v>0.01374619711441483</v>
+      </c>
+      <c r="D92">
+        <v>2061400</v>
+      </c>
+      <c r="E92">
+        <v>263.9519692611087</v>
+      </c>
+      <c r="F92">
+        <v>0.02270960878517372</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="2">
+        <v>31114</v>
+      </c>
+      <c r="B93">
+        <v>0.06161095890410946</v>
+      </c>
+      <c r="C93">
+        <v>0.01346391580318596</v>
+      </c>
+      <c r="D93">
+        <v>2061400</v>
+      </c>
+      <c r="E93">
+        <v>263.9657154582231</v>
+      </c>
+      <c r="F93">
+        <v>0.02277147120562686</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="2">
+        <v>31121</v>
+      </c>
+      <c r="B94">
+        <v>0.06164931506849302</v>
+      </c>
+      <c r="C94">
+        <v>0.01496600799350745</v>
+      </c>
+      <c r="D94">
+        <v>2061400</v>
+      </c>
+      <c r="E94">
+        <v>263.9791793740263</v>
+      </c>
+      <c r="F94">
+        <v>0.02283206326708405</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="2">
+        <v>31128</v>
+      </c>
+      <c r="B95">
+        <v>0.06168767123287658</v>
+      </c>
+      <c r="C95">
+        <v>0.01377191881601902</v>
+      </c>
+      <c r="D95">
+        <v>2061400</v>
+      </c>
+      <c r="E95">
+        <v>263.9941453820198</v>
+      </c>
+      <c r="F95">
+        <v>0.02289941523878147</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="2">
+        <v>31135</v>
+      </c>
+      <c r="B96">
+        <v>0.06172602739726014</v>
+      </c>
+      <c r="C96">
+        <v>0.01350264443703963</v>
+      </c>
+      <c r="D96">
+        <v>2061400</v>
+      </c>
+      <c r="E96">
+        <v>264.0079173008359</v>
+      </c>
+      <c r="F96">
+        <v>0.02296139341537454</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="2">
+        <v>31142</v>
+      </c>
+      <c r="B97">
+        <v>0.0617643835616437</v>
+      </c>
+      <c r="C97">
+        <v>0.01500398806274461</v>
+      </c>
+      <c r="D97">
+        <v>2061400</v>
+      </c>
+      <c r="E97">
+        <v>264.0214199452729</v>
+      </c>
+      <c r="F97">
+        <v>0.02302215976845651</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="2">
+        <v>31149</v>
+      </c>
+      <c r="B98">
+        <v>0.06180273972602725</v>
+      </c>
+      <c r="C98">
+        <v>0.01379130804116357</v>
+      </c>
+      <c r="D98">
+        <v>2061400</v>
+      </c>
+      <c r="E98">
+        <v>264.0364239333356</v>
+      </c>
+      <c r="F98">
+        <v>0.02308968266299125</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="2">
+        <v>31156</v>
+      </c>
+      <c r="B99">
+        <v>0.06184109589041081</v>
+      </c>
+      <c r="C99">
+        <v>0.01352080948038292</v>
+      </c>
+      <c r="D99">
+        <v>2061400</v>
+      </c>
+      <c r="E99">
+        <v>264.0502152413768</v>
+      </c>
+      <c r="F99">
+        <v>0.023151748097492</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="2">
+        <v>31163</v>
+      </c>
+      <c r="B100">
+        <v>0.06187945205479437</v>
+      </c>
+      <c r="C100">
+        <v>0.01507274487812538</v>
+      </c>
+      <c r="D100">
+        <v>2061400</v>
+      </c>
+      <c r="E100">
+        <v>264.0637360508572</v>
+      </c>
+      <c r="F100">
+        <v>0.02321259619925985</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="2">
+        <v>31170</v>
+      </c>
+      <c r="B101">
+        <v>0.06191780821917793</v>
+      </c>
+      <c r="C101">
+        <v>0.01380405082397829</v>
+      </c>
+      <c r="D101">
+        <v>2061400</v>
+      </c>
+      <c r="E101">
+        <v>264.0788087957353</v>
+      </c>
+      <c r="F101">
+        <v>0.02328042852213941</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="2">
+        <v>31177</v>
+      </c>
+      <c r="B102">
+        <v>0.06195616438356149</v>
+      </c>
+      <c r="C102">
+        <v>0.01353697778370133</v>
+      </c>
+      <c r="D102">
+        <v>2061400</v>
+      </c>
+      <c r="E102">
+        <v>264.0926128465593</v>
+      </c>
+      <c r="F102">
+        <v>0.02334255130336533</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="2">
+        <v>31184</v>
+      </c>
+      <c r="B103">
+        <v>0.06199452054794505</v>
+      </c>
+      <c r="C103">
+        <v>0.01508839482073654</v>
+      </c>
+      <c r="D103">
+        <v>2061400</v>
+      </c>
+      <c r="E103">
+        <v>264.106149824343</v>
+      </c>
+      <c r="F103">
+        <v>0.02340347216783042</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="2">
+        <v>31191</v>
+      </c>
+      <c r="B104">
+        <v>0.06203287671232861</v>
+      </c>
+      <c r="C104">
+        <v>0.01386089868867657</v>
+      </c>
+      <c r="D104">
+        <v>2061400</v>
+      </c>
+      <c r="E104">
+        <v>264.1212382191637</v>
+      </c>
+      <c r="F104">
+        <v>0.02347137492061304</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="2">
+        <v>31198</v>
+      </c>
+      <c r="B105">
+        <v>0.06207123287671217</v>
+      </c>
+      <c r="C105">
+        <v>0.01354399557851593</v>
+      </c>
+      <c r="D105">
+        <v>2061400</v>
+      </c>
+      <c r="E105">
+        <v>264.1350991178524</v>
+      </c>
+      <c r="F105">
+        <v>0.02353375353597824</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="2">
+        <v>31205</v>
+      </c>
+      <c r="B106">
+        <v>0.06210958904109572</v>
+      </c>
+      <c r="C106">
+        <v>0.01512494440453338</v>
+      </c>
+      <c r="D106">
+        <v>2061400</v>
+      </c>
+      <c r="E106">
+        <v>264.1486431134309</v>
+      </c>
+      <c r="F106">
+        <v>0.02359470598283438</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="2">
+        <v>31212</v>
+      </c>
+      <c r="B107">
+        <v>0.06214794520547928</v>
+      </c>
+      <c r="C107">
+        <v>0.01389035534953109</v>
+      </c>
+      <c r="D107">
+        <v>2061400</v>
+      </c>
+      <c r="E107">
+        <v>264.1637680578355</v>
+      </c>
+      <c r="F107">
+        <v>0.02366277322079804</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="2">
+        <v>31219</v>
+      </c>
+      <c r="B108">
+        <v>0.06218630136986284</v>
+      </c>
+      <c r="C108">
+        <v>0.01358691861946681</v>
+      </c>
+      <c r="D108">
+        <v>2061400</v>
+      </c>
+      <c r="E108">
+        <v>264.177658413185</v>
+      </c>
+      <c r="F108">
+        <v>0.02372528440085178</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="2">
+        <v>31226</v>
+      </c>
+      <c r="B109">
+        <v>0.0622246575342464</v>
+      </c>
+      <c r="C109">
+        <v>0.01513411227324468</v>
+      </c>
+      <c r="D109">
+        <v>2061400</v>
+      </c>
+      <c r="E109">
+        <v>264.1912453318045</v>
+      </c>
+      <c r="F109">
+        <v>0.02378643001554799</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="2">
+        <v>31233</v>
+      </c>
+      <c r="B110">
+        <v>0.06226301369862996</v>
+      </c>
+      <c r="C110">
+        <v>0.01389759680614588</v>
+      </c>
+      <c r="D110">
+        <v>2061400</v>
+      </c>
+      <c r="E110">
+        <v>264.2063794440777</v>
+      </c>
+      <c r="F110">
+        <v>0.02385453851194433</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="2">
+        <v>31240</v>
+      </c>
+      <c r="B111">
+        <v>0.06230136986301352</v>
+      </c>
+      <c r="C111">
+        <v>0.01361669914899721</v>
+      </c>
+      <c r="D111">
+        <v>2061400</v>
+      </c>
+      <c r="E111">
+        <v>264.2202770408838</v>
+      </c>
+      <c r="F111">
+        <v>0.02391708228094103</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="2">
+        <v>31247</v>
+      </c>
+      <c r="B112">
+        <v>0.06233972602739708</v>
+      </c>
+      <c r="C112">
+        <v>0.01517830423972555</v>
+      </c>
+      <c r="D112">
+        <v>2061400</v>
+      </c>
+      <c r="E112">
+        <v>264.2338937400328</v>
+      </c>
+      <c r="F112">
+        <v>0.0239783619178418</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="2">
+        <v>31254</v>
+      </c>
+      <c r="B113">
+        <v>0.06237808219178063</v>
+      </c>
+      <c r="C113">
+        <v>0.01391915311614866</v>
+      </c>
+      <c r="D113">
+        <v>2061400</v>
+      </c>
+      <c r="E113">
+        <v>264.2490720442726</v>
+      </c>
+      <c r="F113">
+        <v>0.02404666929266154</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="2">
+        <v>31261</v>
+      </c>
+      <c r="B114">
+        <v>0.06241643835616419</v>
+      </c>
+      <c r="C114">
+        <v>0.01363485124420549</v>
+      </c>
+      <c r="D114">
+        <v>2061400</v>
+      </c>
+      <c r="E114">
+        <v>264.2629911973887</v>
+      </c>
+      <c r="F114">
+        <v>0.02410931007216251</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="2">
+        <v>31268</v>
+      </c>
+      <c r="B115">
+        <v>0.06245479452054775</v>
+      </c>
+      <c r="C115">
+        <v>0.01523102603846382</v>
+      </c>
+      <c r="D115">
+        <v>2061400</v>
+      </c>
+      <c r="E115">
+        <v>264.2766260486329</v>
+      </c>
+      <c r="F115">
+        <v>0.02417067139947807</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="2">
+        <v>31275</v>
+      </c>
+      <c r="B116">
+        <v>0.06249315068493131</v>
+      </c>
+      <c r="C116">
+        <v>0.01393365841727245</v>
+      </c>
+      <c r="D116">
+        <v>2061400</v>
+      </c>
+      <c r="E116">
+        <v>264.2918570746714</v>
+      </c>
+      <c r="F116">
+        <v>0.02423921603977954</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="2">
+        <v>31282</v>
+      </c>
+      <c r="B117">
+        <v>0.06253150684931487</v>
+      </c>
+      <c r="C117">
+        <v>0.01364536931066596</v>
+      </c>
+      <c r="D117">
+        <v>2061400</v>
+      </c>
+      <c r="E117">
+        <v>264.3057907330887</v>
+      </c>
+      <c r="F117">
+        <v>0.02430192209791939</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="2">
+        <v>31289</v>
+      </c>
+      <c r="B118">
+        <v>0.06256986301369843</v>
+      </c>
+      <c r="C118">
+        <v>0.01526434168101787</v>
+      </c>
+      <c r="D118">
+        <v>2061400</v>
+      </c>
+      <c r="E118">
+        <v>264.3194361023993</v>
+      </c>
+      <c r="F118">
+        <v>0.02436333076000289</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="2">
+        <v>31296</v>
+      </c>
+      <c r="B119">
+        <v>0.062608219178082</v>
+      </c>
+      <c r="C119">
+        <v>0.01397474981376945</v>
+      </c>
+      <c r="D119">
+        <v>2061400</v>
+      </c>
+      <c r="E119">
+        <v>264.3347004440803</v>
+      </c>
+      <c r="F119">
+        <v>0.02443202533168313</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="2">
+        <v>31303</v>
+      </c>
+      <c r="B120">
+        <v>0.06264657534246557</v>
+      </c>
+      <c r="C120">
+        <v>0.01364972921874141</v>
+      </c>
+      <c r="D120">
+        <v>2061400</v>
+      </c>
+      <c r="E120">
+        <v>264.3486751938941</v>
+      </c>
+      <c r="F120">
+        <v>0.02449491631465896</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="2">
+        <v>31310</v>
+      </c>
+      <c r="B121">
+        <v>0.06268493150684913</v>
+      </c>
+      <c r="C121">
+        <v>0.01513861397484106</v>
+      </c>
+      <c r="D121">
+        <v>2061400</v>
+      </c>
+      <c r="E121">
+        <v>264.3623249231129</v>
+      </c>
+      <c r="F121">
+        <v>0.02455634459776673</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="2">
+        <v>31317</v>
+      </c>
+      <c r="B122">
+        <v>0.0627232876712327</v>
+      </c>
+      <c r="C122">
+        <v>0.01396303986518888</v>
+      </c>
+      <c r="D122">
+        <v>2061400</v>
+      </c>
+      <c r="E122">
+        <v>264.3774635370877</v>
+      </c>
+      <c r="F122">
+        <v>0.02462447335330477</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="2">
+        <v>31324</v>
+      </c>
+      <c r="B123">
+        <v>0.06276164383561626</v>
+      </c>
+      <c r="C123">
+        <v>0.0136593194112038</v>
+      </c>
+      <c r="D123">
+        <v>2061400</v>
+      </c>
+      <c r="E123">
+        <v>264.3914265769529</v>
+      </c>
+      <c r="F123">
+        <v>0.02468731163765004</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="2">
+        <v>31331</v>
+      </c>
+      <c r="B124">
+        <v>0.06279999999999983</v>
+      </c>
+      <c r="C124">
+        <v>0.01531547110801057</v>
+      </c>
+      <c r="D124">
+        <v>2061400</v>
+      </c>
+      <c r="E124">
+        <v>264.4050858963641</v>
+      </c>
+      <c r="F124">
+        <v>0.02474878307978672</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="2">
+        <v>31338</v>
+      </c>
+      <c r="B125">
+        <v>0.06283835616438339</v>
+      </c>
+      <c r="C125">
+        <v>0.01401674645046569</v>
+      </c>
+      <c r="D125">
+        <v>2061400</v>
+      </c>
+      <c r="E125">
+        <v>264.4204013674721</v>
+      </c>
+      <c r="F125">
+        <v>0.02481770775075087</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="2">
+        <v>31345</v>
+      </c>
+      <c r="B126">
+        <v>0.06287671232876696</v>
+      </c>
+      <c r="C126">
+        <v>0.01370898074378601</v>
+      </c>
+      <c r="D126">
+        <v>2061400</v>
+      </c>
+      <c r="E126">
+        <v>264.4344181139226</v>
+      </c>
+      <c r="F126">
+        <v>0.02488078773244195</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="2">
+        <v>31352</v>
+      </c>
+      <c r="B127">
+        <v>0.06291506849315052</v>
+      </c>
+      <c r="C127">
+        <v>0.01534183485500762</v>
+      </c>
+      <c r="D127">
+        <v>2061400</v>
+      </c>
+      <c r="E127">
+        <v>264.4481270946663</v>
+      </c>
+      <c r="F127">
+        <v>0.02494248266695341</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="2">
+        <v>31359</v>
+      </c>
+      <c r="B128">
+        <v>0.06295342465753409</v>
+      </c>
+      <c r="C128">
+        <v>0.01403369403305987</v>
+      </c>
+      <c r="D128">
+        <v>2061400</v>
+      </c>
+      <c r="E128">
+        <v>264.4634689295214</v>
+      </c>
+      <c r="F128">
+        <v>0.0250115259834736</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="2">
+        <v>31366</v>
+      </c>
+      <c r="B129">
+        <v>0.06299178082191766</v>
+      </c>
+      <c r="C129">
+        <v>0.01372190113681881</v>
+      </c>
+      <c r="D129">
+        <v>2061400</v>
+      </c>
+      <c r="E129">
+        <v>264.4775026235544</v>
+      </c>
+      <c r="F129">
+        <v>0.02507468223487583</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="2">
+        <v>31373</v>
+      </c>
+      <c r="B130">
+        <v>0.06303013698630122</v>
+      </c>
+      <c r="C130">
+        <v>0.01537561059149084</v>
+      </c>
+      <c r="D130">
+        <v>2061400</v>
+      </c>
+      <c r="E130">
+        <v>264.4912245246912</v>
+      </c>
+      <c r="F130">
+        <v>0.02513643531541684</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="2">
+        <v>31380</v>
+      </c>
+      <c r="B131">
+        <v>0.06306849315068479</v>
+      </c>
+      <c r="C131">
+        <v>0.01405835851198844</v>
+      </c>
+      <c r="D131">
+        <v>2061400</v>
+      </c>
+      <c r="E131">
+        <v>264.5066001352827</v>
+      </c>
+      <c r="F131">
+        <v>0.0252056306338904</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="2">
+        <v>31387</v>
+      </c>
+      <c r="B132">
+        <v>0.06310684931506835</v>
+      </c>
+      <c r="C132">
+        <v>0.01374391504919004</v>
+      </c>
+      <c r="D132">
+        <v>2061400</v>
+      </c>
+      <c r="E132">
+        <v>264.5206584937947</v>
+      </c>
+      <c r="F132">
+        <v>0.02526889788358192</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="2">
+        <v>31394</v>
+      </c>
+      <c r="B133">
+        <v>0.06314520547945192</v>
+      </c>
+      <c r="C133">
+        <v>0.01543156546972568</v>
+      </c>
+      <c r="D133">
+        <v>2061400</v>
+      </c>
+      <c r="E133">
+        <v>264.5344024088439</v>
+      </c>
+      <c r="F133">
+        <v>0.02533075003398879</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="2">
+        <v>31401</v>
+      </c>
+      <c r="B134">
+        <v>0.06318356164383548</v>
+      </c>
+      <c r="C134">
+        <v>0.01406118868771955</v>
+      </c>
+      <c r="D134">
+        <v>2061400</v>
+      </c>
+      <c r="E134">
+        <v>264.5498339743136</v>
+      </c>
+      <c r="F134">
+        <v>0.02540019716786809</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="2">
+        <v>31408</v>
+      </c>
+      <c r="B135">
+        <v>0.06322191780821905</v>
+      </c>
+      <c r="C135">
+        <v>0.01493592841143254</v>
+      </c>
+      <c r="D135">
+        <v>2061400</v>
+      </c>
+      <c r="E135">
+        <v>264.5638951630013</v>
+      </c>
+      <c r="F135">
+        <v>0.02546347715428374</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="2">
+        <v>31415</v>
+      </c>
+      <c r="B136">
+        <v>0.06326027397260262</v>
+      </c>
+      <c r="C136">
+        <v>0.01397477843534034</v>
+      </c>
+      <c r="D136">
+        <v>2061400</v>
+      </c>
+      <c r="E136">
+        <v>264.5788310914128</v>
+      </c>
+      <c r="F136">
+        <v>0.02553069375794164</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="2">
+        <v>31422</v>
+      </c>
+      <c r="B137">
+        <v>0.06329863013698618</v>
+      </c>
+      <c r="C137">
+        <v>0.01462519940469065</v>
+      </c>
+      <c r="D137">
+        <v>2061400</v>
+      </c>
+      <c r="E137">
+        <v>264.5928058698481</v>
+      </c>
+      <c r="F137">
+        <v>0.02559358486972394</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="2">
+        <v>31429</v>
+      </c>
+      <c r="B138">
+        <v>0.06333698630136975</v>
+      </c>
+      <c r="C138">
+        <v>0.01389044993038624</v>
+      </c>
+      <c r="D138">
+        <v>2061400</v>
+      </c>
+      <c r="E138">
+        <v>264.6074310692528</v>
+      </c>
+      <c r="F138">
+        <v>0.02565940309037449</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="2">
+        <v>31436</v>
+      </c>
+      <c r="B139">
+        <v>0.06337534246575331</v>
+      </c>
+      <c r="C139">
+        <v>0.01492383283175513</v>
+      </c>
+      <c r="D139">
+        <v>2061400</v>
+      </c>
+      <c r="E139">
+        <v>264.6213215191832</v>
+      </c>
+      <c r="F139">
+        <v>0.02572191469607326</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="2">
+        <v>31443</v>
+      </c>
+      <c r="B140">
+        <v>0.06341369863013688</v>
+      </c>
+      <c r="C140">
+        <v>0.01399258270862447</v>
+      </c>
+      <c r="D140">
+        <v>2061400</v>
+      </c>
+      <c r="E140">
+        <v>264.636245352015</v>
+      </c>
+      <c r="F140">
+        <v>0.02578907686563359</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="2">
+        <v>31450</v>
+      </c>
+      <c r="B141">
+        <v>0.06345205479452044</v>
+      </c>
+      <c r="C141">
+        <v>0.01495285479711583</v>
+      </c>
+      <c r="D141">
+        <v>2061400</v>
+      </c>
+      <c r="E141">
+        <v>264.6502379347236</v>
+      </c>
+      <c r="F141">
+        <v>0.02585204810251743</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="2">
+        <v>31457</v>
+      </c>
+      <c r="B142">
+        <v>0.06349041095890401</v>
+      </c>
+      <c r="C142">
+        <v>0.01400842865609775</v>
+      </c>
+      <c r="D142">
+        <v>2061400</v>
+      </c>
+      <c r="E142">
+        <v>264.6651907895207</v>
+      </c>
+      <c r="F142">
+        <v>0.02591934088049311</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="2">
+        <v>31464</v>
+      </c>
+      <c r="B143">
+        <v>0.06352876712328757</v>
+      </c>
+      <c r="C143">
+        <v>0.01498710202702114</v>
+      </c>
+      <c r="D143">
+        <v>2061400</v>
+      </c>
+      <c r="E143">
+        <v>264.6791992181768</v>
+      </c>
+      <c r="F143">
+        <v>0.02598238342936651</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="2">
+        <v>31471</v>
+      </c>
+      <c r="B144">
+        <v>0.06356712328767114</v>
+      </c>
+      <c r="C144">
+        <v>0.01402282847402603</v>
+      </c>
+      <c r="D144">
+        <v>2061400</v>
+      </c>
+      <c r="E144">
+        <v>264.6941863202038</v>
+      </c>
+      <c r="F144">
+        <v>0.02604983033117135</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="2">
+        <v>31478</v>
+      </c>
+      <c r="B145">
+        <v>0.06360547945205471</v>
+      </c>
+      <c r="C145">
+        <v>0.01498642829278651</v>
+      </c>
+      <c r="D145">
+        <v>2061400</v>
+      </c>
+      <c r="E145">
+        <v>264.7082091486778</v>
+      </c>
+      <c r="F145">
+        <v>0.0261129376839745</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="2">
+        <v>31485</v>
+      </c>
+      <c r="B146">
+        <v>0.06364383561643827</v>
+      </c>
+      <c r="C146">
+        <v>0.01403549455699249</v>
+      </c>
+      <c r="D146">
+        <v>2061400</v>
+      </c>
+      <c r="E146">
+        <v>264.7231955769706</v>
+      </c>
+      <c r="F146">
+        <v>0.0261803815537531</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="2">
+        <v>31492</v>
+      </c>
+      <c r="B147">
+        <v>0.06368219178082184</v>
+      </c>
+      <c r="C147">
+        <v>0.01502531195262691</v>
+      </c>
+      <c r="D147">
+        <v>2061400</v>
+      </c>
+      <c r="E147">
+        <v>264.7372310715276</v>
+      </c>
+      <c r="F147">
+        <v>0.02624354590810679</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="2">
+        <v>31499</v>
+      </c>
+      <c r="B148">
+        <v>0.0637205479452054</v>
+      </c>
+      <c r="C148">
+        <v>0.01405738566018044</v>
+      </c>
+      <c r="D148">
+        <v>2061400</v>
+      </c>
+      <c r="E148">
+        <v>264.7522563834802</v>
+      </c>
+      <c r="F148">
+        <v>0.02631116476717839</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="2">
+        <v>31506</v>
+      </c>
+      <c r="B149">
+        <v>0.06375890410958897</v>
+      </c>
+      <c r="C149">
+        <v>0.0150206802811681</v>
+      </c>
+      <c r="D149">
+        <v>2061400</v>
+      </c>
+      <c r="E149">
+        <v>264.7663137691404</v>
+      </c>
+      <c r="F149">
+        <v>0.02637442763871593</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="2">
+        <v>31513</v>
+      </c>
+      <c r="B150">
+        <v>0.06379726027397253</v>
+      </c>
+      <c r="C150">
+        <v>0.01405961147054313</v>
+      </c>
+      <c r="D150">
+        <v>2061400</v>
+      </c>
+      <c r="E150">
+        <v>264.7813344494216</v>
+      </c>
+      <c r="F150">
+        <v>0.02644202565373851</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="2">
+        <v>31520</v>
+      </c>
+      <c r="B151">
+        <v>0.0638356164383561</v>
+      </c>
+      <c r="C151">
+        <v>0.01187430958680125</v>
+      </c>
+      <c r="D151">
+        <v>2061400</v>
+      </c>
+      <c r="E151">
+        <v>264.7953940608921</v>
+      </c>
+      <c r="F151">
+        <v>0.02650529854215685</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="2">
+        <v>31555</v>
+      </c>
+      <c r="B152">
+        <v>0.06387397260273966</v>
+      </c>
+      <c r="C152">
+        <v>1.054975754991005</v>
+      </c>
+      <c r="D152">
+        <v>2061400</v>
+      </c>
+      <c r="E152">
+        <v>263.4348395414689</v>
+      </c>
+      <c r="F152">
+        <v>0.02038235449958442</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="2">
+        <v>31562</v>
+      </c>
+      <c r="B153">
+        <v>0.06391232876712323</v>
+      </c>
+      <c r="C153">
+        <v>0.2693182628355544</v>
+      </c>
+      <c r="D153">
+        <v>2061400</v>
+      </c>
+      <c r="E153">
+        <v>264.4898152964599</v>
+      </c>
+      <c r="F153">
+        <v>0.02513009332361845</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="2">
+        <v>31569</v>
+      </c>
+      <c r="B154">
+        <v>0.0639506849315068</v>
+      </c>
+      <c r="C154">
+        <v>0.07643432686040796</v>
+      </c>
+      <c r="D154">
+        <v>2061400</v>
+      </c>
+      <c r="E154">
+        <v>264.7591335592955</v>
+      </c>
+      <c r="F154">
+        <v>0.02634211432641065</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="2">
+        <v>31576</v>
+      </c>
+      <c r="B155">
+        <v>0.06398904109589036</v>
+      </c>
+      <c r="C155">
+        <v>0.02903156012803265</v>
+      </c>
+      <c r="D155">
+        <v>2061400</v>
+      </c>
+      <c r="E155">
+        <v>264.8355678861559</v>
+      </c>
+      <c r="F155">
+        <v>0.02668609400500266</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="2">
+        <v>31583</v>
+      </c>
+      <c r="B156">
+        <v>0.06402739726027393</v>
+      </c>
+      <c r="C156">
+        <v>0.01917083853720669</v>
+      </c>
+      <c r="D156">
+        <v>2061400</v>
+      </c>
+      <c r="E156">
+        <v>264.8645994462839</v>
+      </c>
+      <c r="F156">
+        <v>0.02681674560006549</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="2">
+        <v>31590</v>
+      </c>
+      <c r="B157">
+        <v>0.06406575342465749</v>
+      </c>
+      <c r="C157">
+        <v>0.01497711228853404</v>
+      </c>
+      <c r="D157">
+        <v>2061400</v>
+      </c>
+      <c r="E157">
+        <v>264.8837702848211</v>
+      </c>
+      <c r="F157">
+        <v>0.02690302069594497</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="2">
+        <v>31597</v>
+      </c>
+      <c r="B158">
+        <v>0.06410410958904106</v>
+      </c>
+      <c r="C158">
+        <v>0.01523204481839002</v>
+      </c>
+      <c r="D158">
+        <v>2061400</v>
+      </c>
+      <c r="E158">
+        <v>264.8987473971097</v>
+      </c>
+      <c r="F158">
+        <v>0.0269704226406321</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="2">
+        <v>31604</v>
+      </c>
+      <c r="B159">
+        <v>0.06414246575342462</v>
+      </c>
+      <c r="C159">
+        <v>0.01404807976837219</v>
+      </c>
+      <c r="D159">
+        <v>2061400</v>
+      </c>
+      <c r="E159">
+        <v>264.9139794419281</v>
+      </c>
+      <c r="F159">
+        <v>0.02703897186577919</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="2">
+        <v>31611</v>
+      </c>
+      <c r="B160">
+        <v>0.06418082191780819</v>
+      </c>
+      <c r="C160">
+        <v>0.01504627205940778</v>
+      </c>
+      <c r="D160">
+        <v>2061400</v>
+      </c>
+      <c r="E160">
+        <v>264.9280275216964</v>
+      </c>
+      <c r="F160">
+        <v>0.02710219285773455</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="2">
+        <v>31618</v>
+      </c>
+      <c r="B161">
+        <v>0.06421917808219176</v>
+      </c>
+      <c r="C161">
+        <v>0.01404745756735792</v>
+      </c>
+      <c r="D161">
+        <v>2061400</v>
+      </c>
+      <c r="E161">
+        <v>264.9430737937558</v>
+      </c>
+      <c r="F161">
+        <v>0.02716990604419925</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="2">
+        <v>31625</v>
+      </c>
+      <c r="B162">
+        <v>0.06425753424657532</v>
+      </c>
+      <c r="C162">
+        <v>0.0151125473337288</v>
+      </c>
+      <c r="D162">
+        <v>2061400</v>
+      </c>
+      <c r="E162">
+        <v>264.9571212513232</v>
+      </c>
+      <c r="F162">
+        <v>0.02723312423604501</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="2">
+        <v>31632</v>
+      </c>
+      <c r="B163">
+        <v>0.06429589041095889</v>
+      </c>
+      <c r="C163">
+        <v>0.01404306897757124</v>
+      </c>
+      <c r="D163">
+        <v>2061400</v>
+      </c>
+      <c r="E163">
+        <v>264.9722337986569</v>
+      </c>
+      <c r="F163">
+        <v>0.02730113568310139</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="2">
+        <v>31639</v>
+      </c>
+      <c r="B164">
+        <v>0.06433424657534245</v>
+      </c>
+      <c r="C164">
+        <v>0.01511264312057392</v>
+      </c>
+      <c r="D164">
+        <v>2061400</v>
+      </c>
+      <c r="E164">
+        <v>264.9862768676345</v>
+      </c>
+      <c r="F164">
+        <v>0.0273643341248456</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="2">
+        <v>31646</v>
+      </c>
+      <c r="B165">
+        <v>0.06437260273972602</v>
+      </c>
+      <c r="C165">
+        <v>0.0147943792778733</v>
+      </c>
+      <c r="D165">
+        <v>2061400</v>
+      </c>
+      <c r="E165">
+        <v>265.0013895107551</v>
+      </c>
+      <c r="F165">
+        <v>0.02743234600297444</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="2">
+        <v>31653</v>
+      </c>
+      <c r="B166">
+        <v>0.06441095890410958</v>
+      </c>
+      <c r="C166">
+        <v>0.01531690511023953</v>
+      </c>
+      <c r="D166">
+        <v>2061400</v>
+      </c>
+      <c r="E166">
+        <v>265.0161838900329</v>
+      </c>
+      <c r="F166">
+        <v>0.02749892558884912</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="2">
+        <v>31660</v>
+      </c>
+      <c r="B167">
+        <v>0.06444931506849315</v>
+      </c>
+      <c r="C167">
+        <v>0.01410186801103919</v>
+      </c>
+      <c r="D167">
+        <v>2061400</v>
+      </c>
+      <c r="E167">
+        <v>265.0315007951432</v>
+      </c>
+      <c r="F167">
+        <v>0.02756785671329616</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="2">
+        <v>31667</v>
+      </c>
+      <c r="B168">
+        <v>0.06448767123287671</v>
+      </c>
+      <c r="C168">
+        <v>0.01514847977807676</v>
+      </c>
+      <c r="D168">
+        <v>2061400</v>
+      </c>
+      <c r="E168">
+        <v>265.0456026631542</v>
+      </c>
+      <c r="F168">
+        <v>0.02763131977008269</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="2">
+        <v>31674</v>
+      </c>
+      <c r="B169">
+        <v>0.06452602739726028</v>
+      </c>
+      <c r="C169">
+        <v>0.01430752230714916</v>
+      </c>
+      <c r="D169">
+        <v>2061400</v>
+      </c>
+      <c r="E169">
+        <v>265.0607511429323</v>
+      </c>
+      <c r="F169">
+        <v>0.02769949292498906</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="2">
+        <v>31681</v>
+      </c>
+      <c r="B170">
+        <v>0.06456438356164385</v>
+      </c>
+      <c r="C170">
+        <v>0.01521600435944492</v>
+      </c>
+      <c r="D170">
+        <v>2061400</v>
+      </c>
+      <c r="E170">
+        <v>265.0750586652395</v>
+      </c>
+      <c r="F170">
+        <v>0.02776388149393205</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="2">
+        <v>31688</v>
+      </c>
+      <c r="B171">
+        <v>0.06460273972602741</v>
+      </c>
+      <c r="C171">
+        <v>0.0141478498081824</v>
+      </c>
+      <c r="D171">
+        <v>2061400</v>
+      </c>
+      <c r="E171">
+        <v>265.0902746695989</v>
+      </c>
+      <c r="F171">
+        <v>0.02783235853172389</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="2">
+        <v>31695</v>
+      </c>
+      <c r="B172">
+        <v>0.06464109589041098</v>
+      </c>
+      <c r="C172">
+        <v>0.0152157986912016</v>
+      </c>
+      <c r="D172">
+        <v>2061400</v>
+      </c>
+      <c r="E172">
+        <v>265.1044225194071</v>
+      </c>
+      <c r="F172">
+        <v>0.02789602852176222</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="2">
+        <v>31702</v>
+      </c>
+      <c r="B173">
+        <v>0.06467945205479454</v>
+      </c>
+      <c r="C173">
+        <v>0.01415561122621511</v>
+      </c>
+      <c r="D173">
+        <v>2061400</v>
+      </c>
+      <c r="E173">
+        <v>265.1196383180983</v>
+      </c>
+      <c r="F173">
+        <v>0.02796450463397912</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="2">
+        <v>31709</v>
+      </c>
+      <c r="B174">
+        <v>0.06471780821917811</v>
+      </c>
+      <c r="C174">
+        <v>0.01522454936389295</v>
+      </c>
+      <c r="D174">
+        <v>2061400</v>
+      </c>
+      <c r="E174">
+        <v>265.1337939293245</v>
+      </c>
+      <c r="F174">
+        <v>0.02802820955295827</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="2">
+        <v>31716</v>
+      </c>
+      <c r="B175">
+        <v>0.06475616438356167</v>
+      </c>
+      <c r="C175">
+        <v>0.01448994867598685</v>
+      </c>
+      <c r="D175">
+        <v>2061400</v>
+      </c>
+      <c r="E175">
+        <v>265.1490184786884</v>
+      </c>
+      <c r="F175">
+        <v>0.02809672504608819</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="2">
+        <v>31723</v>
+      </c>
+      <c r="B176">
+        <v>0.06479452054794524</v>
+      </c>
+      <c r="C176">
+        <v>0.01533276564612152</v>
+      </c>
+      <c r="D176">
+        <v>2061400</v>
+      </c>
+      <c r="E176">
+        <v>265.1635084273644</v>
+      </c>
+      <c r="F176">
+        <v>0.02816193459385425</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="2">
+        <v>31730</v>
+      </c>
+      <c r="B177">
+        <v>0.0648328767123288</v>
+      </c>
+      <c r="C177">
+        <v>0.01437032756405188</v>
+      </c>
+      <c r="D177">
+        <v>2061400</v>
+      </c>
+      <c r="E177">
+        <v>265.1788411930105</v>
+      </c>
+      <c r="F177">
+        <v>0.02823093709594353</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="2">
+        <v>31737</v>
+      </c>
+      <c r="B178">
+        <v>0.06487123287671237</v>
+      </c>
+      <c r="C178">
+        <v>0.01530165466726885</v>
+      </c>
+      <c r="D178">
+        <v>2061400</v>
+      </c>
+      <c r="E178">
+        <v>265.1932115205746</v>
+      </c>
+      <c r="F178">
+        <v>0.02829560830925562</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="2">
+        <v>31744</v>
+      </c>
+      <c r="B179">
+        <v>0.06490958904109594</v>
+      </c>
+      <c r="C179">
+        <v>0.01422118923846938</v>
+      </c>
+      <c r="D179">
+        <v>2061400</v>
+      </c>
+      <c r="E179">
+        <v>265.2085131752418</v>
+      </c>
+      <c r="F179">
+        <v>0.02836447080167965</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="2">
+        <v>31751</v>
+      </c>
+      <c r="B180">
+        <v>0.0649479452054795</v>
+      </c>
+      <c r="C180">
+        <v>0.01529893333326982</v>
+      </c>
+      <c r="D180">
+        <v>2061400</v>
+      </c>
+      <c r="E180">
+        <v>265.2227343644803</v>
+      </c>
+      <c r="F180">
+        <v>0.02842847084334128</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="2">
+        <v>31758</v>
+      </c>
+      <c r="B181">
+        <v>0.06498630136986307</v>
+      </c>
+      <c r="C181">
+        <v>0.01495475361343779</v>
+      </c>
+      <c r="D181">
+        <v>2061400</v>
+      </c>
+      <c r="E181">
+        <v>265.2380332978136</v>
+      </c>
+      <c r="F181">
+        <v>0.0284973210888651</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="2">
+        <v>31765</v>
+      </c>
+      <c r="B182">
+        <v>0.06502465753424663</v>
+      </c>
+      <c r="C182">
+        <v>0.01551362658233302</v>
+      </c>
+      <c r="D182">
+        <v>2061400</v>
+      </c>
+      <c r="E182">
+        <v>265.252988051427</v>
+      </c>
+      <c r="F182">
+        <v>0.02856462241214053</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="2">
+        <v>31772</v>
+      </c>
+      <c r="B183">
+        <v>0.0650630136986302</v>
+      </c>
+      <c r="C183">
+        <v>0.0142929182197804</v>
+      </c>
+      <c r="D183">
+        <v>2061400</v>
+      </c>
+      <c r="E183">
+        <v>265.2685016780093</v>
+      </c>
+      <c r="F183">
+        <v>0.02863443884808988</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="2">
+        <v>31779</v>
+      </c>
+      <c r="B184">
+        <v>0.06510136986301376</v>
+      </c>
+      <c r="C184">
+        <v>0.01535888887474357</v>
+      </c>
+      <c r="D184">
+        <v>2061400</v>
+      </c>
+      <c r="E184">
+        <v>265.2827945962291</v>
+      </c>
+      <c r="F184">
+        <v>0.02869876169382319</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="2">
+        <v>31786</v>
+      </c>
+      <c r="B185">
+        <v>0.06513972602739733</v>
+      </c>
+      <c r="C185">
+        <v>0.01424685316192154</v>
+      </c>
+      <c r="D185">
+        <v>2061400</v>
+      </c>
+      <c r="E185">
+        <v>265.2981534851039</v>
+      </c>
+      <c r="F185">
+        <v>0.02876788175905674</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="2">
+        <v>31793</v>
+      </c>
+      <c r="B186">
+        <v>0.0651780821917809</v>
+      </c>
+      <c r="C186">
+        <v>0.01536931458110757</v>
+      </c>
+      <c r="D186">
+        <v>2061400</v>
+      </c>
+      <c r="E186">
+        <v>265.3124003382658</v>
+      </c>
+      <c r="F186">
+        <v>0.02883199729683765</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="2">
+        <v>31800</v>
+      </c>
+      <c r="B187">
+        <v>0.06521643835616446</v>
+      </c>
+      <c r="C187">
+        <v>0.01428123728726405</v>
+      </c>
+      <c r="D187">
+        <v>2061400</v>
+      </c>
+      <c r="E187">
+        <v>265.3277696528469</v>
+      </c>
+      <c r="F187">
+        <v>0.02890116428118811</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="2">
+        <v>31807</v>
+      </c>
+      <c r="B188">
+        <v>0.06525479452054803</v>
+      </c>
+      <c r="C188">
+        <v>0.01536594326557861</v>
+      </c>
+      <c r="D188">
+        <v>2061400</v>
+      </c>
+      <c r="E188">
+        <v>265.3420508901341</v>
+      </c>
+      <c r="F188">
+        <v>0.02896543455887281</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="2">
+        <v>31814</v>
+      </c>
+      <c r="B189">
+        <v>0.06529315068493159</v>
+      </c>
+      <c r="C189">
+        <v>0.01429034729881096</v>
+      </c>
+      <c r="D189">
+        <v>2061400</v>
+      </c>
+      <c r="E189">
+        <v>265.3574168333997</v>
+      </c>
+      <c r="F189">
+        <v>0.02903458637119155</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="2">
+        <v>31821</v>
+      </c>
+      <c r="B190">
+        <v>0.06533150684931516</v>
+      </c>
+      <c r="C190">
+        <v>0.01541210764594325</v>
+      </c>
+      <c r="D190">
+        <v>2061400</v>
+      </c>
+      <c r="E190">
+        <v>265.3717071806985</v>
+      </c>
+      <c r="F190">
+        <v>0.02909889764693267</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="2">
+        <v>31828</v>
+      </c>
+      <c r="B191">
+        <v>0.06536986301369872</v>
+      </c>
+      <c r="C191">
+        <v>0.01431236751409415</v>
+      </c>
+      <c r="D191">
+        <v>2061400</v>
+      </c>
+      <c r="E191">
+        <v>265.3871192883445</v>
+      </c>
+      <c r="F191">
+        <v>0.0291682572141879</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="2">
+        <v>31835</v>
+      </c>
+      <c r="B192">
+        <v>0.06540821917808229</v>
+      </c>
+      <c r="C192">
+        <v>0.01541536786453435</v>
+      </c>
+      <c r="D192">
+        <v>2061400</v>
+      </c>
+      <c r="E192">
+        <v>265.4014316558586</v>
+      </c>
+      <c r="F192">
+        <v>0.02923266758816006</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="2">
+        <v>31842</v>
+      </c>
+      <c r="B193">
+        <v>0.06544657534246585</v>
+      </c>
+      <c r="C193">
+        <v>0.014316806865736</v>
+      </c>
+      <c r="D193">
+        <v>2061400</v>
+      </c>
+      <c r="E193">
+        <v>265.4168470237231</v>
+      </c>
+      <c r="F193">
+        <v>0.02930204182747391</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="2">
+        <v>31849</v>
+      </c>
+      <c r="B194">
+        <v>0.06548493150684942</v>
+      </c>
+      <c r="C194">
+        <v>0.01544945889008886</v>
+      </c>
+      <c r="D194">
+        <v>2061400</v>
+      </c>
+      <c r="E194">
+        <v>265.4311638305888</v>
+      </c>
+      <c r="F194">
+        <v>0.02936647217999254</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="2">
+        <v>31856</v>
+      </c>
+      <c r="B195">
+        <v>0.06552328767123299</v>
+      </c>
+      <c r="C195">
+        <v>0.01510267935918819</v>
+      </c>
+      <c r="D195">
+        <v>2061400</v>
+      </c>
+      <c r="E195">
+        <v>265.4466132894789</v>
+      </c>
+      <c r="F195">
+        <v>0.02943599984016464</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="2">
+        <v>31863</v>
+      </c>
+      <c r="B196">
+        <v>0.06556164383561655</v>
+      </c>
+      <c r="C196">
+        <v>0.01565371996207432</v>
+      </c>
+      <c r="D196">
+        <v>2061400</v>
+      </c>
+      <c r="E196">
+        <v>265.4617159688381</v>
+      </c>
+      <c r="F196">
+        <v>0.0295039668780813</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="2">
+        <v>31870</v>
+      </c>
+      <c r="B197">
+        <v>0.06560000000000012</v>
+      </c>
+      <c r="C197">
+        <v>0.01440906090806493</v>
+      </c>
+      <c r="D197">
+        <v>2061400</v>
+      </c>
+      <c r="E197">
+        <v>265.4773696888002</v>
+      </c>
+      <c r="F197">
+        <v>0.0295744137804418</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="2">
+        <v>31877</v>
+      </c>
+      <c r="B198">
+        <v>0.06563835616438368</v>
+      </c>
+      <c r="C198">
+        <v>0.01549933398996473</v>
+      </c>
+      <c r="D198">
+        <v>2061400</v>
+      </c>
+      <c r="E198">
+        <v>265.4917787497083</v>
+      </c>
+      <c r="F198">
+        <v>0.02963925930657585</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="2">
+        <v>31884</v>
+      </c>
+      <c r="B199">
+        <v>0.06567671232876725</v>
+      </c>
+      <c r="C199">
+        <v>0.0108099675280755</v>
+      </c>
+      <c r="D199">
+        <v>2061400</v>
+      </c>
+      <c r="E199">
+        <v>265.5072780836982</v>
+      </c>
+      <c r="F199">
+        <v>0.0297090114211459</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="2">
+        <v>31919</v>
+      </c>
+      <c r="B200">
+        <v>0.06571506849315081</v>
+      </c>
+      <c r="C200">
+        <v>1.220787010668232</v>
+      </c>
+      <c r="D200">
+        <v>2061400</v>
+      </c>
+      <c r="E200">
+        <v>263.8986619012298</v>
+      </c>
+      <c r="F200">
+        <v>0.02246970808517545</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="2">
+        <v>31926</v>
+      </c>
+      <c r="B201">
+        <v>0.06575342465753438</v>
+      </c>
+      <c r="C201">
+        <v>-0.101019662914041</v>
+      </c>
+      <c r="D201">
+        <v>2061400</v>
+      </c>
+      <c r="E201">
+        <v>265.1194489118981</v>
+      </c>
+      <c r="F201">
+        <v>0.02796365224361269</v>
       </c>
     </row>
   </sheetData>
@@ -459,7 +4439,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -489,6 +4469,1546 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>32080</v>
+      </c>
+      <c r="B2">
+        <v>0.06652054794520569</v>
+      </c>
+      <c r="C2">
+        <v>0.01255317915865817</v>
+      </c>
+      <c r="D2">
+        <v>2061400</v>
+      </c>
+      <c r="E2">
+        <v>265.2106674884704</v>
+      </c>
+      <c r="F2">
+        <v>0.02837416592169194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>32087</v>
+      </c>
+      <c r="B3">
+        <v>0.06655890410958926</v>
+      </c>
+      <c r="C3">
+        <v>0.01148281852783839</v>
+      </c>
+      <c r="D3">
+        <v>2061400</v>
+      </c>
+      <c r="E3">
+        <v>265.2232206676291</v>
+      </c>
+      <c r="F3">
+        <v>0.0284306593678917</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>32094</v>
+      </c>
+      <c r="B4">
+        <v>0.06659726027397282</v>
+      </c>
+      <c r="C4">
+        <v>0.01255505359426934</v>
+      </c>
+      <c r="D4">
+        <v>2061400</v>
+      </c>
+      <c r="E4">
+        <v>265.2347034861569</v>
+      </c>
+      <c r="F4">
+        <v>0.02848233583825229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>32101</v>
+      </c>
+      <c r="B5">
+        <v>0.06663561643835639</v>
+      </c>
+      <c r="C5">
+        <v>0.01149995788910019</v>
+      </c>
+      <c r="D5">
+        <v>2061400</v>
+      </c>
+      <c r="E5">
+        <v>265.2472585397512</v>
+      </c>
+      <c r="F5">
+        <v>0.02853883772003052</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>32108</v>
+      </c>
+      <c r="B6">
+        <v>0.06667397260273995</v>
+      </c>
+      <c r="C6">
+        <v>0.01259794885845622</v>
+      </c>
+      <c r="D6">
+        <v>2061400</v>
+      </c>
+      <c r="E6">
+        <v>265.2587584976403</v>
+      </c>
+      <c r="F6">
+        <v>0.02859059132316933</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>32115</v>
+      </c>
+      <c r="B7">
+        <v>0.06671232876712352</v>
+      </c>
+      <c r="C7">
+        <v>0.01151757405204989</v>
+      </c>
+      <c r="D7">
+        <v>2061400</v>
+      </c>
+      <c r="E7">
+        <v>265.2713564464988</v>
+      </c>
+      <c r="F7">
+        <v>0.02864728624778306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>32122</v>
+      </c>
+      <c r="B8">
+        <v>0.06675068493150708</v>
+      </c>
+      <c r="C8">
+        <v>0.01260904548757935</v>
+      </c>
+      <c r="D8">
+        <v>2061400</v>
+      </c>
+      <c r="E8">
+        <v>265.2828740205508</v>
+      </c>
+      <c r="F8">
+        <v>0.02869911912946474</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>32129</v>
+      </c>
+      <c r="B9">
+        <v>0.06678904109589065</v>
+      </c>
+      <c r="C9">
+        <v>0.01150096274955104</v>
+      </c>
+      <c r="D9">
+        <v>2061400</v>
+      </c>
+      <c r="E9">
+        <v>265.2954830660384</v>
+      </c>
+      <c r="F9">
+        <v>0.02875586399256911</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>32136</v>
+      </c>
+      <c r="B10">
+        <v>0.06682739726027422</v>
+      </c>
+      <c r="C10">
+        <v>0.01262025595246996</v>
+      </c>
+      <c r="D10">
+        <v>2061400</v>
+      </c>
+      <c r="E10">
+        <v>265.306984028788</v>
+      </c>
+      <c r="F10">
+        <v>0.02880762211791132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>32143</v>
+      </c>
+      <c r="B11">
+        <v>0.06686575342465778</v>
+      </c>
+      <c r="C11">
+        <v>0.01153031215335432</v>
+      </c>
+      <c r="D11">
+        <v>2061400</v>
+      </c>
+      <c r="E11">
+        <v>265.3196042847404</v>
+      </c>
+      <c r="F11">
+        <v>0.0288644174318048</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>32150</v>
+      </c>
+      <c r="B12">
+        <v>0.06690410958904135</v>
+      </c>
+      <c r="C12">
+        <v>0.0126443547302415</v>
+      </c>
+      <c r="D12">
+        <v>2061400</v>
+      </c>
+      <c r="E12">
+        <v>265.3311345968938</v>
+      </c>
+      <c r="F12">
+        <v>0.02891630763914343</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>32157</v>
+      </c>
+      <c r="B13">
+        <v>0.06694246575342491</v>
+      </c>
+      <c r="C13">
+        <v>0.01172088701230223</v>
+      </c>
+      <c r="D13">
+        <v>2061400</v>
+      </c>
+      <c r="E13">
+        <v>265.343778951624</v>
+      </c>
+      <c r="F13">
+        <v>0.02897321140548465</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>32164</v>
+      </c>
+      <c r="B14">
+        <v>0.06698082191780848</v>
+      </c>
+      <c r="C14">
+        <v>0.01269442557941147</v>
+      </c>
+      <c r="D14">
+        <v>2061400</v>
+      </c>
+      <c r="E14">
+        <v>265.3554998386363</v>
+      </c>
+      <c r="F14">
+        <v>0.02902595926253947</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
+        <v>32171</v>
+      </c>
+      <c r="B15">
+        <v>0.06701917808219204</v>
+      </c>
+      <c r="C15">
+        <v>0.01156354148440641</v>
+      </c>
+      <c r="D15">
+        <v>2061400</v>
+      </c>
+      <c r="E15">
+        <v>265.3681942642157</v>
+      </c>
+      <c r="F15">
+        <v>0.02908308836421497</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
+        <v>32178</v>
+      </c>
+      <c r="B16">
+        <v>0.06705753424657561</v>
+      </c>
+      <c r="C16">
+        <v>0.01267115481391556</v>
+      </c>
+      <c r="D16">
+        <v>2061400</v>
+      </c>
+      <c r="E16">
+        <v>265.3797578057001</v>
+      </c>
+      <c r="F16">
+        <v>0.02913512811450234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
+        <v>32185</v>
+      </c>
+      <c r="B17">
+        <v>0.06709589041095917</v>
+      </c>
+      <c r="C17">
+        <v>0.01156413962064562</v>
+      </c>
+      <c r="D17">
+        <v>2061400</v>
+      </c>
+      <c r="E17">
+        <v>265.3924289605141</v>
+      </c>
+      <c r="F17">
+        <v>0.02919215249005845</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
+        <v>32192</v>
+      </c>
+      <c r="B18">
+        <v>0.06713424657534274</v>
+      </c>
+      <c r="C18">
+        <v>0.01283523337292536</v>
+      </c>
+      <c r="D18">
+        <v>2061400</v>
+      </c>
+      <c r="E18">
+        <v>265.4039931001347</v>
+      </c>
+      <c r="F18">
+        <v>0.02924419493215605</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2">
+        <v>32199</v>
+      </c>
+      <c r="B19">
+        <v>0.06717260273972631</v>
+      </c>
+      <c r="C19">
+        <v>0.01161055417026091</v>
+      </c>
+      <c r="D19">
+        <v>2061400</v>
+      </c>
+      <c r="E19">
+        <v>265.4168283335076</v>
+      </c>
+      <c r="F19">
+        <v>0.02930195771534045</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2">
+        <v>32206</v>
+      </c>
+      <c r="B20">
+        <v>0.06721095890410987</v>
+      </c>
+      <c r="C20">
+        <v>0.01145895465447211</v>
+      </c>
+      <c r="D20">
+        <v>2061400</v>
+      </c>
+      <c r="E20">
+        <v>265.4284388876779</v>
+      </c>
+      <c r="F20">
+        <v>0.02935420903821848</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2">
+        <v>32283</v>
+      </c>
+      <c r="B21">
+        <v>0.0674027397260277</v>
+      </c>
+      <c r="C21">
+        <v>0.09036574707397449</v>
+      </c>
+      <c r="D21">
+        <v>2061400</v>
+      </c>
+      <c r="E21">
+        <v>265.3878309499936</v>
+      </c>
+      <c r="F21">
+        <v>0.02917145992631198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2">
+        <v>32290</v>
+      </c>
+      <c r="B22">
+        <v>0.06744109589041127</v>
+      </c>
+      <c r="C22">
+        <v>0.0318286945202999</v>
+      </c>
+      <c r="D22">
+        <v>2061400</v>
+      </c>
+      <c r="E22">
+        <v>265.4781966970676</v>
+      </c>
+      <c r="F22">
+        <v>0.02957813559038871</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2">
+        <v>32297</v>
+      </c>
+      <c r="B23">
+        <v>0.06747945205479483</v>
+      </c>
+      <c r="C23">
+        <v>0.01813304304664598</v>
+      </c>
+      <c r="D23">
+        <v>2061400</v>
+      </c>
+      <c r="E23">
+        <v>265.5100253915879</v>
+      </c>
+      <c r="F23">
+        <v>0.02972137521269994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2">
+        <v>32304</v>
+      </c>
+      <c r="B24">
+        <v>0.0675178082191784</v>
+      </c>
+      <c r="C24">
+        <v>0.01269844709759127</v>
+      </c>
+      <c r="D24">
+        <v>2061400</v>
+      </c>
+      <c r="E24">
+        <v>265.5281584346345</v>
+      </c>
+      <c r="F24">
+        <v>0.02980297988661128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2">
+        <v>32311</v>
+      </c>
+      <c r="B25">
+        <v>0.06755616438356196</v>
+      </c>
+      <c r="C25">
+        <v>0.01168455815741254</v>
+      </c>
+      <c r="D25">
+        <v>2061400</v>
+      </c>
+      <c r="E25">
+        <v>265.5408568817321</v>
+      </c>
+      <c r="F25">
+        <v>0.02986012708644498</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2">
+        <v>32374</v>
+      </c>
+      <c r="B26">
+        <v>0.06767123287671266</v>
+      </c>
+      <c r="C26">
+        <v>0.09308114555346947</v>
+      </c>
+      <c r="D26">
+        <v>2061400</v>
+      </c>
+      <c r="E26">
+        <v>265.4704309267225</v>
+      </c>
+      <c r="F26">
+        <v>0.02954318706271775</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2">
+        <v>32381</v>
+      </c>
+      <c r="B27">
+        <v>0.06770958904109622</v>
+      </c>
+      <c r="C27">
+        <v>0.03345589085404299</v>
+      </c>
+      <c r="D27">
+        <v>2061400</v>
+      </c>
+      <c r="E27">
+        <v>265.563512072276</v>
+      </c>
+      <c r="F27">
+        <v>0.02996208291547933</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2">
+        <v>32388</v>
+      </c>
+      <c r="B28">
+        <v>0.06774794520547979</v>
+      </c>
+      <c r="C28">
+        <v>0.01679647609250878</v>
+      </c>
+      <c r="D28">
+        <v>2061400</v>
+      </c>
+      <c r="E28">
+        <v>265.5969679631301</v>
+      </c>
+      <c r="F28">
+        <v>0.03011264545793473</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2">
+        <v>32395</v>
+      </c>
+      <c r="B29">
+        <v>0.06778630136986336</v>
+      </c>
+      <c r="C29">
+        <v>0.01261765768640544</v>
+      </c>
+      <c r="D29">
+        <v>2061400</v>
+      </c>
+      <c r="E29">
+        <v>265.6137644392226</v>
+      </c>
+      <c r="F29">
+        <v>0.03018823513975833</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2">
+        <v>32430</v>
+      </c>
+      <c r="B30">
+        <v>0.06786301369863049</v>
+      </c>
+      <c r="C30">
+        <v>0.3306991706135705</v>
+      </c>
+      <c r="D30">
+        <v>2061400</v>
+      </c>
+      <c r="E30">
+        <v>265.2107621517765</v>
+      </c>
+      <c r="F30">
+        <v>0.02837459193778888</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2">
+        <v>32437</v>
+      </c>
+      <c r="B31">
+        <v>0.06790136986301405</v>
+      </c>
+      <c r="C31">
+        <v>0.09498964846454783</v>
+      </c>
+      <c r="D31">
+        <v>2061400</v>
+      </c>
+      <c r="E31">
+        <v>265.5414613223901</v>
+      </c>
+      <c r="F31">
+        <v>0.02986284726874795</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2">
+        <v>32444</v>
+      </c>
+      <c r="B32">
+        <v>0.06793972602739762</v>
+      </c>
+      <c r="C32">
+        <v>0.03407698969670037</v>
+      </c>
+      <c r="D32">
+        <v>2061400</v>
+      </c>
+      <c r="E32">
+        <v>265.6364509708546</v>
+      </c>
+      <c r="F32">
+        <v>0.03029033201402558</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2">
+        <v>32451</v>
+      </c>
+      <c r="B33">
+        <v>0.06797808219178118</v>
+      </c>
+      <c r="C33">
+        <v>0.01682621479812951</v>
+      </c>
+      <c r="D33">
+        <v>2061400</v>
+      </c>
+      <c r="E33">
+        <v>265.6705279605513</v>
+      </c>
+      <c r="F33">
+        <v>0.03044368970610886</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2">
+        <v>32458</v>
+      </c>
+      <c r="B34">
+        <v>0.06801643835616475</v>
+      </c>
+      <c r="C34">
+        <v>0.01387306040851399</v>
+      </c>
+      <c r="D34">
+        <v>2061400</v>
+      </c>
+      <c r="E34">
+        <v>265.6873541753495</v>
+      </c>
+      <c r="F34">
+        <v>0.03051941322191546</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2">
+        <v>32465</v>
+      </c>
+      <c r="B35">
+        <v>0.06805479452054831</v>
+      </c>
+      <c r="C35">
+        <v>0.01159155068853579</v>
+      </c>
+      <c r="D35">
+        <v>2061400</v>
+      </c>
+      <c r="E35">
+        <v>265.701227235758</v>
+      </c>
+      <c r="F35">
+        <v>0.03058184656903081</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2">
+        <v>32472</v>
+      </c>
+      <c r="B36">
+        <v>0.06809315068493188</v>
+      </c>
+      <c r="C36">
+        <v>0.01260387477918812</v>
+      </c>
+      <c r="D36">
+        <v>2061400</v>
+      </c>
+      <c r="E36">
+        <v>265.7128187864465</v>
+      </c>
+      <c r="F36">
+        <v>0.03063401236997397</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2">
+        <v>32479</v>
+      </c>
+      <c r="B37">
+        <v>0.06813150684931545</v>
+      </c>
+      <c r="C37">
+        <v>0.01131550904210599</v>
+      </c>
+      <c r="D37">
+        <v>2061400</v>
+      </c>
+      <c r="E37">
+        <v>265.7254226612257</v>
+      </c>
+      <c r="F37">
+        <v>0.03069073396318528</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2">
+        <v>32486</v>
+      </c>
+      <c r="B38">
+        <v>0.06816986301369901</v>
+      </c>
+      <c r="C38">
+        <v>0.01256513467524201</v>
+      </c>
+      <c r="D38">
+        <v>2061400</v>
+      </c>
+      <c r="E38">
+        <v>265.7367381702678</v>
+      </c>
+      <c r="F38">
+        <v>0.03074165748568226</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2">
+        <v>32493</v>
+      </c>
+      <c r="B39">
+        <v>0.06820821917808258</v>
+      </c>
+      <c r="C39">
+        <v>0.01133521251131242</v>
+      </c>
+      <c r="D39">
+        <v>2061400</v>
+      </c>
+      <c r="E39">
+        <v>265.7493033049431</v>
+      </c>
+      <c r="F39">
+        <v>0.03079820473564952</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2">
+        <v>32500</v>
+      </c>
+      <c r="B40">
+        <v>0.06824657534246614</v>
+      </c>
+      <c r="C40">
+        <v>0.01261725843892236</v>
+      </c>
+      <c r="D40">
+        <v>2061400</v>
+      </c>
+      <c r="E40">
+        <v>265.7606385174544</v>
+      </c>
+      <c r="F40">
+        <v>0.03084921693025582</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2">
+        <v>32507</v>
+      </c>
+      <c r="B41">
+        <v>0.06828493150684971</v>
+      </c>
+      <c r="C41">
+        <v>0.01137087808319848</v>
+      </c>
+      <c r="D41">
+        <v>2061400</v>
+      </c>
+      <c r="E41">
+        <v>265.7732557758933</v>
+      </c>
+      <c r="F41">
+        <v>0.03090599875434985</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2">
+        <v>32514</v>
+      </c>
+      <c r="B42">
+        <v>0.06832328767123327</v>
+      </c>
+      <c r="C42">
+        <v>0.01264739567011475</v>
+      </c>
+      <c r="D42">
+        <v>2061400</v>
+      </c>
+      <c r="E42">
+        <v>265.7846266539765</v>
+      </c>
+      <c r="F42">
+        <v>0.03095717145579201</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2">
+        <v>32521</v>
+      </c>
+      <c r="B43">
+        <v>0.06836164383561684</v>
+      </c>
+      <c r="C43">
+        <v>0.0113792842962539</v>
+      </c>
+      <c r="D43">
+        <v>2061400</v>
+      </c>
+      <c r="E43">
+        <v>265.7972740496466</v>
+      </c>
+      <c r="F43">
+        <v>0.03101408890736562</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2">
+        <v>32528</v>
+      </c>
+      <c r="B44">
+        <v>0.0684000000000004</v>
+      </c>
+      <c r="C44">
+        <v>0.01266439717187495</v>
+      </c>
+      <c r="D44">
+        <v>2061400</v>
+      </c>
+      <c r="E44">
+        <v>265.8086533339429</v>
+      </c>
+      <c r="F44">
+        <v>0.0310652994395389</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2">
+        <v>32535</v>
+      </c>
+      <c r="B45">
+        <v>0.06843835616438397</v>
+      </c>
+      <c r="C45">
+        <v>0.01143413949205296</v>
+      </c>
+      <c r="D45">
+        <v>2061400</v>
+      </c>
+      <c r="E45">
+        <v>265.8213177311147</v>
+      </c>
+      <c r="F45">
+        <v>0.03112229340347738</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2">
+        <v>32542</v>
+      </c>
+      <c r="B46">
+        <v>0.06847671232876754</v>
+      </c>
+      <c r="C46">
+        <v>0.01350610745771519</v>
+      </c>
+      <c r="D46">
+        <v>2061400</v>
+      </c>
+      <c r="E46">
+        <v>265.8327518706068</v>
+      </c>
+      <c r="F46">
+        <v>0.03117375080212274</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2">
+        <v>32549</v>
+      </c>
+      <c r="B47">
+        <v>0.0685150684931511</v>
+      </c>
+      <c r="C47">
+        <v>0.0116842893660305</v>
+      </c>
+      <c r="D47">
+        <v>2061400</v>
+      </c>
+      <c r="E47">
+        <v>265.8462579780645</v>
+      </c>
+      <c r="F47">
+        <v>0.03123453273994001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2">
+        <v>32556</v>
+      </c>
+      <c r="B48">
+        <v>0.06855342465753467</v>
+      </c>
+      <c r="C48">
+        <v>0.01153956665552869</v>
+      </c>
+      <c r="D48">
+        <v>2061400</v>
+      </c>
+      <c r="E48">
+        <v>265.8579422674305</v>
+      </c>
+      <c r="F48">
+        <v>0.03128711589551675</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2">
+        <v>32619</v>
+      </c>
+      <c r="B49">
+        <v>0.0686301369863018</v>
+      </c>
+      <c r="C49">
+        <v>0.3521118461472952</v>
+      </c>
+      <c r="D49">
+        <v>2061400</v>
+      </c>
+      <c r="E49">
+        <v>265.4234225420325</v>
+      </c>
+      <c r="F49">
+        <v>0.02933163382844468</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2">
+        <v>32626</v>
+      </c>
+      <c r="B50">
+        <v>0.06866849315068536</v>
+      </c>
+      <c r="C50">
+        <v>0.1017365129641803</v>
+      </c>
+      <c r="D50">
+        <v>2061400</v>
+      </c>
+      <c r="E50">
+        <v>265.7755343881798</v>
+      </c>
+      <c r="F50">
+        <v>0.03091625326111614</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2">
+        <v>32633</v>
+      </c>
+      <c r="B51">
+        <v>0.06870684931506893</v>
+      </c>
+      <c r="C51">
+        <v>0.03466417766026098</v>
+      </c>
+      <c r="D51">
+        <v>2061400</v>
+      </c>
+      <c r="E51">
+        <v>265.877270901144</v>
+      </c>
+      <c r="F51">
+        <v>0.03137410112172972</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2">
+        <v>32640</v>
+      </c>
+      <c r="B52">
+        <v>0.0687452054794525</v>
+      </c>
+      <c r="C52">
+        <v>0.01935507175994644</v>
+      </c>
+      <c r="D52">
+        <v>2061400</v>
+      </c>
+      <c r="E52">
+        <v>265.9119350788043</v>
+      </c>
+      <c r="F52">
+        <v>0.03153010135330106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2">
+        <v>32647</v>
+      </c>
+      <c r="B53">
+        <v>0.06878356164383606</v>
+      </c>
+      <c r="C53">
+        <v>0.01315379547838802</v>
+      </c>
+      <c r="D53">
+        <v>2061400</v>
+      </c>
+      <c r="E53">
+        <v>265.9312901505642</v>
+      </c>
+      <c r="F53">
+        <v>0.03161720555944229</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2">
+        <v>32654</v>
+      </c>
+      <c r="B54">
+        <v>0.06882191780821963</v>
+      </c>
+      <c r="C54">
+        <v>0.01312680985245152</v>
+      </c>
+      <c r="D54">
+        <v>2061400</v>
+      </c>
+      <c r="E54">
+        <v>265.9444439460426</v>
+      </c>
+      <c r="F54">
+        <v>0.03167640197716158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2">
+        <v>32661</v>
+      </c>
+      <c r="B55">
+        <v>0.06886027397260319</v>
+      </c>
+      <c r="C55">
+        <v>0.01156050233635142</v>
+      </c>
+      <c r="D55">
+        <v>2061400</v>
+      </c>
+      <c r="E55">
+        <v>265.9575707558951</v>
+      </c>
+      <c r="F55">
+        <v>0.03173547695066437</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2">
+        <v>32668</v>
+      </c>
+      <c r="B56">
+        <v>0.06889863013698676</v>
+      </c>
+      <c r="C56">
+        <v>0.01276573542281767</v>
+      </c>
+      <c r="D56">
+        <v>2061400</v>
+      </c>
+      <c r="E56">
+        <v>265.9691312582314</v>
+      </c>
+      <c r="F56">
+        <v>0.03178750302378309</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="2">
+        <v>32675</v>
+      </c>
+      <c r="B57">
+        <v>0.06893698630137032</v>
+      </c>
+      <c r="C57">
+        <v>0.01151480402847938</v>
+      </c>
+      <c r="D57">
+        <v>2061400</v>
+      </c>
+      <c r="E57">
+        <v>265.9818969936542</v>
+      </c>
+      <c r="F57">
+        <v>0.03184495304327162</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="2">
+        <v>32682</v>
+      </c>
+      <c r="B58">
+        <v>0.06897534246575389</v>
+      </c>
+      <c r="C58">
+        <v>0.01281888782364149</v>
+      </c>
+      <c r="D58">
+        <v>2061400</v>
+      </c>
+      <c r="E58">
+        <v>265.9934117976827</v>
+      </c>
+      <c r="F58">
+        <v>0.0318967734589339</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="2">
+        <v>32689</v>
+      </c>
+      <c r="B59">
+        <v>0.06901369863013745</v>
+      </c>
+      <c r="C59">
+        <v>0.01153111103519677</v>
+      </c>
+      <c r="D59">
+        <v>2061400</v>
+      </c>
+      <c r="E59">
+        <v>266.0062306855064</v>
+      </c>
+      <c r="F59">
+        <v>0.03195446268175568</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="2">
+        <v>32696</v>
+      </c>
+      <c r="B60">
+        <v>0.06905205479452102</v>
+      </c>
+      <c r="C60">
+        <v>0.01281385156653414</v>
+      </c>
+      <c r="D60">
+        <v>2061400</v>
+      </c>
+      <c r="E60">
+        <v>266.0177617965415</v>
+      </c>
+      <c r="F60">
+        <v>0.03200635648432604</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="2">
+        <v>32703</v>
+      </c>
+      <c r="B61">
+        <v>0.06909041095890459</v>
+      </c>
+      <c r="C61">
+        <v>0.01152616331182799</v>
+      </c>
+      <c r="D61">
+        <v>2061400</v>
+      </c>
+      <c r="E61">
+        <v>266.0305756481081</v>
+      </c>
+      <c r="F61">
+        <v>0.03206402304232975</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="2">
+        <v>32710</v>
+      </c>
+      <c r="B62">
+        <v>0.06912876712328815</v>
+      </c>
+      <c r="C62">
+        <v>0.01284167499045452</v>
+      </c>
+      <c r="D62">
+        <v>2061400</v>
+      </c>
+      <c r="E62">
+        <v>266.0421018114199</v>
+      </c>
+      <c r="F62">
+        <v>0.03211589457851324</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="2">
+        <v>32717</v>
+      </c>
+      <c r="B63">
+        <v>0.06916712328767172</v>
+      </c>
+      <c r="C63">
+        <v>0.01154996761545135</v>
+      </c>
+      <c r="D63">
+        <v>2061400</v>
+      </c>
+      <c r="E63">
+        <v>266.0549434864104</v>
+      </c>
+      <c r="F63">
+        <v>0.03217368635110095</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="2">
+        <v>32724</v>
+      </c>
+      <c r="B64">
+        <v>0.06920547945205528</v>
+      </c>
+      <c r="C64">
+        <v>0.01367694405678321</v>
+      </c>
+      <c r="D64">
+        <v>2061400</v>
+      </c>
+      <c r="E64">
+        <v>266.0664934540258</v>
+      </c>
+      <c r="F64">
+        <v>0.03222566501450128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="2">
+        <v>32731</v>
+      </c>
+      <c r="B65">
+        <v>0.06924383561643885</v>
+      </c>
+      <c r="C65">
+        <v>0.01179241034833467</v>
+      </c>
+      <c r="D65">
+        <v>2061400</v>
+      </c>
+      <c r="E65">
+        <v>266.0801703980826</v>
+      </c>
+      <c r="F65">
+        <v>0.03228721577335555</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="2">
+        <v>32738</v>
+      </c>
+      <c r="B66">
+        <v>0.06928219178082241</v>
+      </c>
+      <c r="C66">
+        <v>0.01295332413610595</v>
+      </c>
+      <c r="D66">
+        <v>2061400</v>
+      </c>
+      <c r="E66">
+        <v>266.0919628084309</v>
+      </c>
+      <c r="F66">
+        <v>0.03234028550901042</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="2">
+        <v>32745</v>
+      </c>
+      <c r="B67">
+        <v>0.06932054794520598</v>
+      </c>
+      <c r="C67">
+        <v>0.01164030137749705</v>
+      </c>
+      <c r="D67">
+        <v>2061400</v>
+      </c>
+      <c r="E67">
+        <v>266.104916132567</v>
+      </c>
+      <c r="F67">
+        <v>0.03239857973957486</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="2">
+        <v>32752</v>
+      </c>
+      <c r="B68">
+        <v>0.06935890410958954</v>
+      </c>
+      <c r="C68">
+        <v>0.01293880436844574</v>
+      </c>
+      <c r="D68">
+        <v>2061400</v>
+      </c>
+      <c r="E68">
+        <v>266.1165564339445</v>
+      </c>
+      <c r="F68">
+        <v>0.03245096493469603</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="2">
+        <v>32759</v>
+      </c>
+      <c r="B69">
+        <v>0.06939726027397311</v>
+      </c>
+      <c r="C69">
+        <v>0.01163548433680717</v>
+      </c>
+      <c r="D69">
+        <v>2061400</v>
+      </c>
+      <c r="E69">
+        <v>266.129495238313</v>
+      </c>
+      <c r="F69">
+        <v>0.0325091938215175</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="2">
+        <v>32766</v>
+      </c>
+      <c r="B70">
+        <v>0.06943561643835668</v>
+      </c>
+      <c r="C70">
+        <v>0.01294837676493898</v>
+      </c>
+      <c r="D70">
+        <v>2061400</v>
+      </c>
+      <c r="E70">
+        <v>266.1411307226498</v>
+      </c>
+      <c r="F70">
+        <v>0.03256155733836695</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="2">
+        <v>32773</v>
+      </c>
+      <c r="B71">
+        <v>0.06947397260274024</v>
+      </c>
+      <c r="C71">
+        <v>0.01198750228070367</v>
+      </c>
+      <c r="D71">
+        <v>2061400</v>
+      </c>
+      <c r="E71">
+        <v>266.1540790994147</v>
+      </c>
+      <c r="F71">
+        <v>0.03261982930412934</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="2">
+        <v>32780</v>
+      </c>
+      <c r="B72">
+        <v>0.06951232876712381</v>
+      </c>
+      <c r="C72">
+        <v>0.01305249099016237</v>
+      </c>
+      <c r="D72">
+        <v>2061400</v>
+      </c>
+      <c r="E72">
+        <v>266.1660666016954</v>
+      </c>
+      <c r="F72">
+        <v>0.03267377701782048</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="2">
+        <v>32787</v>
+      </c>
+      <c r="B73">
+        <v>0.06955068493150737</v>
+      </c>
+      <c r="C73">
+        <v>0.01170407182269173</v>
+      </c>
+      <c r="D73">
+        <v>2061400</v>
+      </c>
+      <c r="E73">
+        <v>266.1791190926856</v>
+      </c>
+      <c r="F73">
+        <v>0.03273251753193306</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="2">
+        <v>32794</v>
+      </c>
+      <c r="B74">
+        <v>0.06958904109589094</v>
+      </c>
+      <c r="C74">
+        <v>0.01376302978496824</v>
+      </c>
+      <c r="D74">
+        <v>2061400</v>
+      </c>
+      <c r="E74">
+        <v>266.1908231645083</v>
+      </c>
+      <c r="F74">
+        <v>0.03278518971508885</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="2">
+        <v>32801</v>
+      </c>
+      <c r="B75">
+        <v>0.0696273972602745</v>
+      </c>
+      <c r="C75">
+        <v>0.01190692421482709</v>
+      </c>
+      <c r="D75">
+        <v>2061400</v>
+      </c>
+      <c r="E75">
+        <v>266.2045861942933</v>
+      </c>
+      <c r="F75">
+        <v>0.03284712788811071</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="2">
+        <v>32808</v>
+      </c>
+      <c r="B76">
+        <v>0.06966575342465807</v>
+      </c>
+      <c r="C76">
+        <v>0.01306065822154778</v>
+      </c>
+      <c r="D76">
+        <v>2061400</v>
+      </c>
+      <c r="E76">
+        <v>266.2164931185081</v>
+      </c>
+      <c r="F76">
+        <v>0.03290071297393105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="2">
+        <v>32815</v>
+      </c>
+      <c r="B77">
+        <v>0.06970410958904164</v>
+      </c>
+      <c r="C77">
+        <v>0.01172615008204048</v>
+      </c>
+      <c r="D77">
+        <v>2061400</v>
+      </c>
+      <c r="E77">
+        <v>266.2295537767296</v>
+      </c>
+      <c r="F77">
+        <v>0.03295949024327809</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="2">
+        <v>32822</v>
+      </c>
+      <c r="B78">
+        <v>0.0697424657534252</v>
+      </c>
+      <c r="C78">
+        <v>0.01174100348430329</v>
+      </c>
+      <c r="D78">
+        <v>2061400</v>
+      </c>
+      <c r="E78">
+        <v>266.2412799268117</v>
+      </c>
+      <c r="F78">
+        <v>0.03301226178588239</v>
       </c>
     </row>
   </sheetData>

--- a/FACModel/Modelled RIHT2.xlsx
+++ b/FACModel/Modelled RIHT2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="15960" windowHeight="5820"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Phase 1 Pre CPP" sheetId="1" r:id="rId1"/>
@@ -14,8 +14,7 @@
     <sheet name="Phase 4" sheetId="5" r:id="rId5"/>
     <sheet name="Phase 5" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A118:M134"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -43,11 +42,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm\-dd\-yyyy"/>
+    <numFmt numFmtId="164" formatCode="mm-dd-yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,14 +112,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -167,7 +158,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -199,10 +190,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,7 +224,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -410,20 +399,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F121"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C127" sqref="C127"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="4" width="13.7109375" customWidth="1"/>
+    <col min="4" max="5" width="13.7109375" customWidth="1"/>
+    <col min="5" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -443,132 +432,132 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>30414</v>
       </c>
       <c r="B2">
-        <v>3.5000000000000003E-2</v>
+        <v>0.035</v>
       </c>
       <c r="C2">
-        <v>9.4778935877002368E-2</v>
+        <v>0.09477893587700237</v>
       </c>
       <c r="D2">
         <v>2061400</v>
       </c>
       <c r="E2">
-        <v>261.60298689796781</v>
+        <v>261.6029868979678</v>
       </c>
       <c r="F2">
-        <v>1.213841346651881E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01213841346651881</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>30421</v>
       </c>
       <c r="B3">
-        <v>3.5038356164383562E-2</v>
+        <v>0.03503835616438356</v>
       </c>
       <c r="C3">
-        <v>2.592294882265378E-2</v>
+        <v>0.02592294882265378</v>
       </c>
       <c r="D3">
         <v>2061400</v>
       </c>
       <c r="E3">
-        <v>261.69776583384481</v>
+        <v>261.6977658338448</v>
       </c>
       <c r="F3">
-        <v>1.2564949935660369E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01256494993566037</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>30428</v>
       </c>
       <c r="B4">
-        <v>3.5076712328767121E-2</v>
+        <v>0.03507671232876712</v>
       </c>
       <c r="C4">
-        <v>1.2514677853914691E-2</v>
+        <v>0.01251467785391469</v>
       </c>
       <c r="D4">
         <v>2061400</v>
       </c>
       <c r="E4">
-        <v>261.72368878266741</v>
+        <v>261.7236887826674</v>
       </c>
       <c r="F4">
-        <v>1.268161175464208E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01268161175464208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>30435</v>
       </c>
       <c r="B5">
-        <v>3.5115068493150679E-2</v>
+        <v>0.03511506849315068</v>
       </c>
       <c r="C5">
-        <v>9.7278268954141822E-3</v>
+        <v>0.009727826895414182</v>
       </c>
       <c r="D5">
         <v>2061400</v>
       </c>
       <c r="E5">
-        <v>261.73620346052132</v>
+        <v>261.7362034605213</v>
       </c>
       <c r="F5">
-        <v>1.273793193227294E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01273793193227294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>30442</v>
       </c>
       <c r="B6">
-        <v>3.5153424657534238E-2</v>
+        <v>0.03515342465753424</v>
       </c>
       <c r="C6">
-        <v>5.3595875100427293E-3</v>
+        <v>0.005359587510042729</v>
       </c>
       <c r="D6">
         <v>2061400</v>
       </c>
       <c r="E6">
-        <v>261.74593128741668</v>
+        <v>261.7459312874167</v>
       </c>
       <c r="F6">
-        <v>1.278171036149873E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01278171036149873</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>30477</v>
       </c>
       <c r="B7">
-        <v>5.0038356164383561E-2</v>
+        <v>0.05003835616438356</v>
       </c>
       <c r="C7">
-        <v>0.55000641113929305</v>
+        <v>0.550006411139293</v>
       </c>
       <c r="D7">
         <v>2061400</v>
       </c>
       <c r="E7">
-        <v>261.77898368949928</v>
+        <v>261.7789836894993</v>
       </c>
       <c r="F7">
-        <v>1.293045707141385E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01293045707141385</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>30484</v>
       </c>
       <c r="B8">
-        <v>5.007671232876712E-2</v>
+        <v>0.05007671232876712</v>
       </c>
       <c r="C8">
         <v>0.1178691725489216</v>
@@ -577,261 +566,261 @@
         <v>2061400</v>
       </c>
       <c r="E8">
-        <v>262.32899010063858</v>
+        <v>262.3289901006386</v>
       </c>
       <c r="F8">
-        <v>1.540566731134573E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01540566731134573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>30491</v>
       </c>
       <c r="B9">
-        <v>5.0115068493150679E-2</v>
+        <v>0.05011506849315068</v>
       </c>
       <c r="C9">
-        <v>3.1944107038611953E-2</v>
+        <v>0.03194410703861195</v>
       </c>
       <c r="D9">
         <v>2061400</v>
       </c>
       <c r="E9">
-        <v>262.44685927318761</v>
+        <v>262.4468592731876</v>
       </c>
       <c r="F9">
-        <v>1.5936117460574151E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01593611746057415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>30498</v>
       </c>
       <c r="B10">
-        <v>5.0153424657534237E-2</v>
+        <v>0.05015342465753424</v>
       </c>
       <c r="C10">
-        <v>1.255423481461548E-2</v>
+        <v>0.01255423481461548</v>
       </c>
       <c r="D10">
         <v>2061400</v>
       </c>
       <c r="E10">
-        <v>262.47880338022622</v>
+        <v>262.4788033802262</v>
       </c>
       <c r="F10">
-        <v>1.6079876477280201E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.0160798764772802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <v>30505</v>
       </c>
       <c r="B11">
-        <v>5.0191780821917803E-2</v>
+        <v>0.0501917808219178</v>
       </c>
       <c r="C11">
-        <v>1.0946842660246149E-2</v>
+        <v>0.01094684266024615</v>
       </c>
       <c r="D11">
         <v>2061400</v>
       </c>
       <c r="E11">
-        <v>262.49135761504078</v>
+        <v>262.4913576150408</v>
       </c>
       <c r="F11">
-        <v>1.6136374674279981E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01613637467427998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2">
         <v>30512</v>
       </c>
       <c r="B12">
-        <v>5.0230136986301348E-2</v>
+        <v>0.05023013698630135</v>
       </c>
       <c r="C12">
-        <v>1.015158774680458E-2</v>
+        <v>0.01015158774680458</v>
       </c>
       <c r="D12">
         <v>2061400</v>
       </c>
       <c r="E12">
-        <v>262.50230445770097</v>
+        <v>262.502304457701</v>
       </c>
       <c r="F12">
-        <v>1.6185639076473701E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.0161856390764737</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
         <v>30519</v>
       </c>
       <c r="B13">
-        <v>5.0268493150684913E-2</v>
+        <v>0.05026849315068491</v>
       </c>
       <c r="C13">
-        <v>1.118801511972833E-2</v>
+        <v>0.01118801511972833</v>
       </c>
       <c r="D13">
         <v>2061400</v>
       </c>
       <c r="E13">
-        <v>262.51245604544778</v>
+        <v>262.5124560454478</v>
       </c>
       <c r="F13">
-        <v>1.6231324569285329E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01623132456928533</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="2">
         <v>30526</v>
       </c>
       <c r="B14">
-        <v>5.0306849315068472E-2</v>
+        <v>0.05030684931506847</v>
       </c>
       <c r="C14">
-        <v>1.045471691418243E-2</v>
+        <v>0.01045471691418243</v>
       </c>
       <c r="D14">
         <v>2061400</v>
       </c>
       <c r="E14">
-        <v>262.52364406056762</v>
+        <v>262.5236440605676</v>
       </c>
       <c r="F14">
-        <v>1.6281674327084609E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01628167432708461</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2">
         <v>30533</v>
       </c>
       <c r="B15">
-        <v>5.0345205479452031E-2</v>
+        <v>0.05034520547945203</v>
       </c>
       <c r="C15">
-        <v>1.1994905353617471E-2</v>
+        <v>0.01199490535361747</v>
       </c>
       <c r="D15">
         <v>2061400</v>
       </c>
       <c r="E15">
-        <v>262.53409877748169</v>
+        <v>262.5340987774817</v>
       </c>
       <c r="F15">
-        <v>1.6328724001120131E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01632872400112013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
         <v>30540</v>
       </c>
       <c r="B16">
-        <v>5.0383561643835589E-2</v>
+        <v>0.05038356164383559</v>
       </c>
       <c r="C16">
-        <v>1.1105270374969219E-2</v>
+        <v>0.01110527037496922</v>
       </c>
       <c r="D16">
         <v>2061400</v>
       </c>
       <c r="E16">
-        <v>262.54609368283542</v>
+        <v>262.5460936828354</v>
       </c>
       <c r="F16">
-        <v>1.638270503108083E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01638270503108083</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="2">
         <v>30547</v>
       </c>
       <c r="B17">
-        <v>5.0421917808219148E-2</v>
+        <v>0.05042191780821915</v>
       </c>
       <c r="C17">
-        <v>1.304489748849846E-2</v>
+        <v>0.01304489748849846</v>
       </c>
       <c r="D17">
         <v>2061400</v>
       </c>
       <c r="E17">
-        <v>262.55719895321027</v>
+        <v>262.5571989532103</v>
       </c>
       <c r="F17">
-        <v>1.643268241023968E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01643268241023968</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="2">
         <v>30554</v>
       </c>
       <c r="B18">
-        <v>5.0460273972602707E-2</v>
+        <v>0.05046027397260271</v>
       </c>
       <c r="C18">
-        <v>1.127896888556279E-2</v>
+        <v>0.01127896888556279</v>
       </c>
       <c r="D18">
         <v>2061400</v>
       </c>
       <c r="E18">
-        <v>262.57024385069877</v>
+        <v>262.5702438506988</v>
       </c>
       <c r="F18">
-        <v>1.6491388751090321E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01649138875109032</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="2">
         <v>30561</v>
       </c>
       <c r="B19">
-        <v>5.0498630136986272E-2</v>
+        <v>0.05049863013698627</v>
       </c>
       <c r="C19">
-        <v>1.2434217635245661E-2</v>
+        <v>0.01243421763524566</v>
       </c>
       <c r="D19">
         <v>2061400</v>
       </c>
       <c r="E19">
-        <v>262.58152281958439</v>
+        <v>262.5815228195844</v>
       </c>
       <c r="F19">
-        <v>1.6542147830832028E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01654214783083203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="2">
         <v>30568</v>
       </c>
       <c r="B20">
-        <v>5.0536986301369817E-2</v>
+        <v>0.05053698630136982</v>
       </c>
       <c r="C20">
-        <v>1.11187546376641E-2</v>
+        <v>0.0111187546376641</v>
       </c>
       <c r="D20">
         <v>2061400</v>
       </c>
       <c r="E20">
-        <v>262.59395703721958</v>
+        <v>262.5939570372196</v>
       </c>
       <c r="F20">
-        <v>1.659810591094333E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01659810591094333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2">
         <v>30575</v>
       </c>
       <c r="B21">
-        <v>5.0575342465753383E-2</v>
+        <v>0.05057534246575338</v>
       </c>
       <c r="C21">
-        <v>1.301169004614167E-2</v>
+        <v>0.01301169004614167</v>
       </c>
       <c r="D21">
         <v>2061400</v>
@@ -840,198 +829,198 @@
         <v>262.6050757918573</v>
       </c>
       <c r="F21">
-        <v>1.6648143973731419E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01664814397373142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="2">
         <v>30582</v>
       </c>
       <c r="B22">
-        <v>5.0613698630136941E-2</v>
+        <v>0.05061369863013694</v>
       </c>
       <c r="C22">
-        <v>1.148152476548603E-2</v>
+        <v>0.01148152476548603</v>
       </c>
       <c r="D22">
         <v>2061400</v>
       </c>
       <c r="E22">
-        <v>262.61808748190339</v>
+        <v>262.6180874819034</v>
       </c>
       <c r="F22">
-        <v>1.6706700870139899E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.0167067008701399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2">
         <v>30589</v>
       </c>
       <c r="B23">
-        <v>5.06520547945205E-2</v>
+        <v>0.0506520547945205</v>
       </c>
       <c r="C23">
-        <v>1.255872576450656E-2</v>
+        <v>0.01255872576450656</v>
       </c>
       <c r="D23">
         <v>2061400</v>
       </c>
       <c r="E23">
-        <v>262.62956900666887</v>
+        <v>262.6295690066689</v>
       </c>
       <c r="F23">
-        <v>1.6758371518143179E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01675837151814318</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="2">
         <v>30596</v>
       </c>
       <c r="B24">
-        <v>5.0690410958904059E-2</v>
+        <v>0.05069041095890406</v>
       </c>
       <c r="C24">
-        <v>1.169971727711072E-2</v>
+        <v>0.01169971727711072</v>
       </c>
       <c r="D24">
         <v>2061400</v>
       </c>
       <c r="E24">
-        <v>262.64212773243338</v>
+        <v>262.6421277324334</v>
       </c>
       <c r="F24">
-        <v>1.6814889925898462E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01681488992589846</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="2">
         <v>30603</v>
       </c>
       <c r="B25">
-        <v>5.0728767123287617E-2</v>
+        <v>0.05072876712328762</v>
       </c>
       <c r="C25">
-        <v>1.282124783142535E-2</v>
+        <v>0.01282124783142535</v>
       </c>
       <c r="D25">
         <v>2061400</v>
       </c>
       <c r="E25">
-        <v>262.65382744971049</v>
+        <v>262.6538274497105</v>
       </c>
       <c r="F25">
-        <v>1.686754251216321E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01686754251216321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="2">
         <v>30610</v>
       </c>
       <c r="B26">
-        <v>5.0767123287671183E-2</v>
+        <v>0.05076712328767118</v>
       </c>
       <c r="C26">
-        <v>1.203399691553386E-2</v>
+        <v>0.01203399691553386</v>
       </c>
       <c r="D26">
         <v>2061400</v>
       </c>
       <c r="E26">
-        <v>262.66664869754197</v>
+        <v>262.666648697542</v>
       </c>
       <c r="F26">
-        <v>1.6925242355798311E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01692524235579831</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="2">
         <v>30617</v>
       </c>
       <c r="B27">
-        <v>5.0805479452054728E-2</v>
+        <v>0.05080547945205473</v>
       </c>
       <c r="C27">
-        <v>1.30861347103064E-2</v>
+        <v>0.0130861347103064</v>
       </c>
       <c r="D27">
         <v>2061400</v>
       </c>
       <c r="E27">
-        <v>262.67868269445751</v>
+        <v>262.6786826944575</v>
       </c>
       <c r="F27">
-        <v>1.6979399310679748E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01697939931067975</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="2">
         <v>30624</v>
       </c>
       <c r="B28">
-        <v>5.0843835616438293E-2</v>
+        <v>0.05084383561643829</v>
       </c>
       <c r="C28">
-        <v>1.2210189248321511E-2</v>
+        <v>0.01221018924832151</v>
       </c>
       <c r="D28">
         <v>2061400</v>
       </c>
       <c r="E28">
-        <v>262.69176882916781</v>
+        <v>262.6917688291678</v>
       </c>
       <c r="F28">
-        <v>1.703829123262849E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01703829123262849</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="2">
         <v>30631</v>
       </c>
       <c r="B29">
-        <v>5.0882191780821852E-2</v>
+        <v>0.05088219178082185</v>
       </c>
       <c r="C29">
-        <v>1.3219023348483461E-2</v>
+        <v>0.01321902334848346</v>
       </c>
       <c r="D29">
         <v>2061400</v>
       </c>
       <c r="E29">
-        <v>262.70397901841608</v>
+        <v>262.7039790184161</v>
       </c>
       <c r="F29">
-        <v>1.7093241111115029E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01709324111111503</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="2">
         <v>30638</v>
       </c>
       <c r="B30">
-        <v>5.0920547945205411E-2</v>
+        <v>0.05092054794520541</v>
       </c>
       <c r="C30">
-        <v>1.295600991147694E-2</v>
+        <v>0.01295600991147694</v>
       </c>
       <c r="D30">
         <v>2061400</v>
       </c>
       <c r="E30">
-        <v>262.71719804176462</v>
+        <v>262.7171980417646</v>
       </c>
       <c r="F30">
-        <v>1.7152731075761589E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01715273107576159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="2">
         <v>30645</v>
       </c>
       <c r="B31">
-        <v>5.0958904109588969E-2</v>
+        <v>0.05095890410958897</v>
       </c>
       <c r="C31">
-        <v>1.3431552377937811E-2</v>
+        <v>0.01343155237793781</v>
       </c>
       <c r="D31">
         <v>2061400</v>
@@ -1040,158 +1029,158 @@
         <v>262.7301540516761</v>
       </c>
       <c r="F31">
-        <v>1.7211037393201029E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01721103739320103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="2">
         <v>30652</v>
       </c>
       <c r="B32">
-        <v>5.0997260273972528E-2</v>
+        <v>0.05099726027397253</v>
       </c>
       <c r="C32">
-        <v>1.245153843831304E-2</v>
+        <v>0.01245153843831304</v>
       </c>
       <c r="D32">
         <v>2061400</v>
       </c>
       <c r="E32">
-        <v>262.74358560405398</v>
+        <v>262.743585604054</v>
       </c>
       <c r="F32">
-        <v>1.7271483808571329E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01727148380857133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="2">
         <v>30659</v>
       </c>
       <c r="B33">
-        <v>5.1035616438356093E-2</v>
+        <v>0.05103561643835609</v>
       </c>
       <c r="C33">
-        <v>1.338453091500469E-2</v>
+        <v>0.01338453091500469</v>
       </c>
       <c r="D33">
         <v>2061400</v>
       </c>
       <c r="E33">
-        <v>262.75603714249229</v>
+        <v>262.7560371424923</v>
       </c>
       <c r="F33">
-        <v>1.732751983800878E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01732751983800878</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="2">
         <v>30666</v>
       </c>
       <c r="B34">
-        <v>5.1073972602739652E-2</v>
+        <v>0.05107397260273965</v>
       </c>
       <c r="C34">
-        <v>1.2571314512683779E-2</v>
+        <v>0.01257131451268378</v>
       </c>
       <c r="D34">
         <v>2061400</v>
       </c>
       <c r="E34">
-        <v>262.76942167340741</v>
+        <v>262.7694216734074</v>
       </c>
       <c r="F34">
-        <v>1.7387754641288479E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01738775464128848</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="2">
         <v>30673</v>
       </c>
       <c r="B35">
-        <v>5.1112328767123197E-2</v>
+        <v>0.0511123287671232</v>
       </c>
       <c r="C35">
-        <v>1.2445800567547851E-2</v>
+        <v>0.01244580056754785</v>
       </c>
       <c r="D35">
         <v>2061400</v>
       </c>
       <c r="E35">
-        <v>262.78199298791998</v>
+        <v>262.78199298792</v>
       </c>
       <c r="F35">
-        <v>1.7444329702562249E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01744432970256225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="2">
         <v>30680</v>
       </c>
       <c r="B36">
-        <v>5.1150684931506762E-2</v>
+        <v>0.05115068493150676</v>
       </c>
       <c r="C36">
-        <v>1.418991814671244E-2</v>
+        <v>0.01418991814671244</v>
       </c>
       <c r="D36">
         <v>2061400</v>
       </c>
       <c r="E36">
-        <v>262.79443878848758</v>
+        <v>262.7944387884876</v>
       </c>
       <c r="F36">
-        <v>1.7500339909689029E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01750033990968903</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="2">
         <v>30687</v>
       </c>
       <c r="B37">
-        <v>5.1189041095890321E-2</v>
+        <v>0.05118904109589032</v>
       </c>
       <c r="C37">
-        <v>1.2923997110192429E-2</v>
+        <v>0.01292399711019243</v>
       </c>
       <c r="D37">
         <v>2061400</v>
       </c>
       <c r="E37">
-        <v>262.80862870663429</v>
+        <v>262.8086287066343</v>
       </c>
       <c r="F37">
-        <v>1.7564199221124548E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01756419922112455</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="2">
         <v>30694</v>
       </c>
       <c r="B38">
-        <v>5.122739726027388E-2</v>
+        <v>0.05122739726027388</v>
       </c>
       <c r="C38">
-        <v>1.267791478881009E-2</v>
+        <v>0.01267791478881009</v>
       </c>
       <c r="D38">
         <v>2061400</v>
       </c>
       <c r="E38">
-        <v>262.82155270374449</v>
+        <v>262.8215527037445</v>
       </c>
       <c r="F38">
-        <v>1.762236147040043E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01762236147040043</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="2">
         <v>30701</v>
       </c>
       <c r="B39">
-        <v>5.1265753424657438E-2</v>
+        <v>0.05126575342465744</v>
       </c>
       <c r="C39">
-        <v>1.419971375071327E-2</v>
+        <v>0.01419971375071327</v>
       </c>
       <c r="D39">
         <v>2061400</v>
@@ -1200,98 +1189,98 @@
         <v>262.8342306185333</v>
       </c>
       <c r="F39">
-        <v>1.7679416268073199E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.0176794162680732</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="2">
         <v>30708</v>
       </c>
       <c r="B40">
-        <v>5.1304109589040997E-2</v>
+        <v>0.051304109589041</v>
       </c>
       <c r="C40">
-        <v>1.30215250630954E-2</v>
+        <v>0.0130215250630954</v>
       </c>
       <c r="D40">
         <v>2061400</v>
       </c>
       <c r="E40">
-        <v>262.84843033228401</v>
+        <v>262.848430332284</v>
       </c>
       <c r="F40">
-        <v>1.774331966295738E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01774331966295738</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="2">
         <v>30715</v>
       </c>
       <c r="B41">
-        <v>5.1342465753424563E-2</v>
+        <v>0.05134246575342456</v>
       </c>
       <c r="C41">
-        <v>1.281799530124772E-2</v>
+        <v>0.01281799530124772</v>
       </c>
       <c r="D41">
         <v>2061400</v>
       </c>
       <c r="E41">
-        <v>262.86145185734711</v>
+        <v>262.8614518573471</v>
       </c>
       <c r="F41">
-        <v>1.780192082018546E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01780192082018546</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="2">
         <v>30722</v>
       </c>
       <c r="B42">
-        <v>5.1380821917808107E-2</v>
+        <v>0.05138082191780811</v>
       </c>
       <c r="C42">
-        <v>1.4309579177051999E-2</v>
+        <v>0.014309579177052</v>
       </c>
       <c r="D42">
         <v>2061400</v>
       </c>
       <c r="E42">
-        <v>262.87426985264841</v>
+        <v>262.8742698526484</v>
       </c>
       <c r="F42">
-        <v>1.7859606026362222E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01785960602636222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="2">
         <v>30729</v>
       </c>
       <c r="B43">
-        <v>5.1419178082191673E-2</v>
+        <v>0.05141917808219167</v>
       </c>
       <c r="C43">
-        <v>1.314083749389283E-2</v>
+        <v>0.01314083749389283</v>
       </c>
       <c r="D43">
         <v>2061400</v>
       </c>
       <c r="E43">
-        <v>262.88857943182541</v>
+        <v>262.8885794318254</v>
       </c>
       <c r="F43">
-        <v>1.7924003851898129E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01792400385189813</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="2">
         <v>30736</v>
       </c>
       <c r="B44">
-        <v>5.1457534246575232E-2</v>
+        <v>0.05145753424657523</v>
       </c>
       <c r="C44">
-        <v>1.291786952867824E-2</v>
+        <v>0.01291786952867824</v>
       </c>
       <c r="D44">
         <v>2061400</v>
@@ -1300,38 +1289,38 @@
         <v>262.9017202693193</v>
       </c>
       <c r="F44">
-        <v>1.7983141954413681E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01798314195441368</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="2">
         <v>30743</v>
       </c>
       <c r="B45">
-        <v>5.149589041095879E-2</v>
+        <v>0.05149589041095879</v>
       </c>
       <c r="C45">
-        <v>1.439983217312601E-2</v>
+        <v>0.01439983217312601</v>
       </c>
       <c r="D45">
         <v>2061400</v>
       </c>
       <c r="E45">
-        <v>262.91463813884798</v>
+        <v>262.914638138848</v>
       </c>
       <c r="F45">
-        <v>1.804127662755186E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01804127662755186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="2">
         <v>30750</v>
       </c>
       <c r="B46">
-        <v>5.1534246575342349E-2</v>
+        <v>0.05153424657534235</v>
       </c>
       <c r="C46">
-        <v>1.325714247514043E-2</v>
+        <v>0.01325714247514043</v>
       </c>
       <c r="D46">
         <v>2061400</v>
@@ -1340,38 +1329,38 @@
         <v>262.9290379710211</v>
       </c>
       <c r="F46">
-        <v>1.810608062133507E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01810608062133507</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="2">
         <v>30757</v>
       </c>
       <c r="B47">
-        <v>5.1572602739725908E-2</v>
+        <v>0.05157260273972591</v>
       </c>
       <c r="C47">
-        <v>1.303854381956171E-2</v>
+        <v>0.01303854381956171</v>
       </c>
       <c r="D47">
         <v>2061400</v>
       </c>
       <c r="E47">
-        <v>262.94229511349619</v>
+        <v>262.9422951134962</v>
       </c>
       <c r="F47">
-        <v>1.816574213462312E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01816574213462312</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="2">
         <v>30764</v>
       </c>
       <c r="B48">
-        <v>5.1610958904109473E-2</v>
+        <v>0.05161095890410947</v>
       </c>
       <c r="C48">
-        <v>1.448808501061194E-2</v>
+        <v>0.01448808501061194</v>
       </c>
       <c r="D48">
         <v>2061400</v>
@@ -1380,138 +1369,138 @@
         <v>262.9553336573158</v>
       </c>
       <c r="F48">
-        <v>1.8224419881868192E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01822441988186819</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="2">
         <v>30771</v>
       </c>
       <c r="B49">
-        <v>5.1649315068493018E-2</v>
+        <v>0.05164931506849302</v>
       </c>
       <c r="C49">
-        <v>1.332890590026636E-2</v>
+        <v>0.01332890590026636</v>
       </c>
       <c r="D49">
         <v>2061400</v>
       </c>
       <c r="E49">
-        <v>262.96982174232642</v>
+        <v>262.9698217423264</v>
       </c>
       <c r="F49">
-        <v>1.828962104252544E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01828962104252544</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="2">
         <v>30778</v>
       </c>
       <c r="B50">
-        <v>5.1687671232876577E-2</v>
+        <v>0.05168767123287658</v>
       </c>
       <c r="C50">
-        <v>1.3123234435738601E-2</v>
+        <v>0.0131232344357386</v>
       </c>
       <c r="D50">
         <v>2061400</v>
       </c>
       <c r="E50">
-        <v>262.98315064822668</v>
+        <v>262.9831506482267</v>
       </c>
       <c r="F50">
-        <v>1.834960551489391E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01834960551489391</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="2">
         <v>30785</v>
       </c>
       <c r="B51">
-        <v>5.1726027397260142E-2</v>
+        <v>0.05172602739726014</v>
       </c>
       <c r="C51">
-        <v>1.124164706266129E-2</v>
+        <v>0.01124164706266129</v>
       </c>
       <c r="D51">
         <v>2061400</v>
       </c>
       <c r="E51">
-        <v>262.99627388266242</v>
+        <v>262.9962738826624</v>
       </c>
       <c r="F51">
-        <v>1.840866439784241E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01840866439784241</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="2">
         <v>30827</v>
       </c>
       <c r="B52">
-        <v>6.0038356164383563E-2</v>
+        <v>0.06003835616438356</v>
       </c>
       <c r="C52">
-        <v>0.97580249220413862</v>
+        <v>0.9758024922041386</v>
       </c>
       <c r="D52">
         <v>2061400</v>
       </c>
       <c r="E52">
-        <v>262.18513848770601</v>
+        <v>262.185138487706</v>
       </c>
       <c r="F52">
-        <v>1.475828761149094E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01475828761149094</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="2">
         <v>30834</v>
       </c>
       <c r="B53">
-        <v>6.0076712328767122E-2</v>
+        <v>0.06007671232876712</v>
       </c>
       <c r="C53">
-        <v>0.22406020282824099</v>
+        <v>0.224060202828241</v>
       </c>
       <c r="D53">
         <v>2061400</v>
       </c>
       <c r="E53">
-        <v>263.16094097991021</v>
+        <v>263.1609409799102</v>
       </c>
       <c r="F53">
-        <v>1.9149720641974479E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01914972064197448</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="2">
         <v>30841</v>
       </c>
       <c r="B54">
-        <v>6.0115068493150667E-2</v>
+        <v>0.06011506849315067</v>
       </c>
       <c r="C54">
-        <v>5.9609303215211178E-2</v>
+        <v>0.05960930321521118</v>
       </c>
       <c r="D54">
         <v>2061400</v>
       </c>
       <c r="E54">
-        <v>263.38500118273839</v>
+        <v>263.3850011827384</v>
       </c>
       <c r="F54">
-        <v>2.015806544881556E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02015806544881556</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="2">
         <v>30848</v>
       </c>
       <c r="B55">
-        <v>6.0153424657534232E-2</v>
+        <v>0.06015342465753423</v>
       </c>
       <c r="C55">
-        <v>2.439779989731505E-2</v>
+        <v>0.02439779989731505</v>
       </c>
       <c r="D55">
         <v>2061400</v>
@@ -1520,138 +1509,138 @@
         <v>263.4446104859536</v>
       </c>
       <c r="F55">
-        <v>2.0426326972181909E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02042632697218191</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="2">
         <v>30855</v>
       </c>
       <c r="B56">
-        <v>6.0191780821917791E-2</v>
+        <v>0.06019178082191779</v>
       </c>
       <c r="C56">
-        <v>1.55477677210456E-2</v>
+        <v>0.0155477677210456</v>
       </c>
       <c r="D56">
         <v>2061400</v>
       </c>
       <c r="E56">
-        <v>263.46900828585092</v>
+        <v>263.4690082858509</v>
       </c>
       <c r="F56">
-        <v>2.0536125118011849E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02053612511801185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="2">
         <v>30862</v>
       </c>
       <c r="B57">
-        <v>6.023013698630135E-2</v>
+        <v>0.06023013698630135</v>
       </c>
       <c r="C57">
-        <v>1.364855712108692E-2</v>
+        <v>0.01364855712108692</v>
       </c>
       <c r="D57">
         <v>2061400</v>
       </c>
       <c r="E57">
-        <v>263.48455605357202</v>
+        <v>263.484556053572</v>
       </c>
       <c r="F57">
-        <v>2.0606095200345051E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02060609520034505</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="2">
         <v>30869</v>
       </c>
       <c r="B58">
-        <v>6.0268493150684908E-2</v>
+        <v>0.06026849315068491</v>
       </c>
       <c r="C58">
-        <v>1.476061185053368E-2</v>
+        <v>0.01476061185053368</v>
       </c>
       <c r="D58">
         <v>2061400</v>
       </c>
       <c r="E58">
-        <v>263.49820461069311</v>
+        <v>263.4982046106931</v>
       </c>
       <c r="F58">
-        <v>2.0667518208626879E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02066751820862688</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="2">
         <v>30876</v>
       </c>
       <c r="B59">
-        <v>6.0306849315068467E-2</v>
+        <v>0.06030684931506847</v>
       </c>
       <c r="C59">
-        <v>1.3528974912333069E-2</v>
+        <v>0.01352897491233307</v>
       </c>
       <c r="D59">
         <v>2061400</v>
       </c>
       <c r="E59">
-        <v>263.51296522254358</v>
+        <v>263.5129652225436</v>
       </c>
       <c r="F59">
-        <v>2.073394582994208E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02073394582994208</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="2">
         <v>30883</v>
       </c>
       <c r="B60">
-        <v>6.0345205479452033E-2</v>
+        <v>0.06034520547945203</v>
       </c>
       <c r="C60">
-        <v>1.329861522276587E-2</v>
+        <v>0.01329861522276587</v>
       </c>
       <c r="D60">
         <v>2061400</v>
       </c>
       <c r="E60">
-        <v>263.52649419745592</v>
+        <v>263.5264941974559</v>
       </c>
       <c r="F60">
-        <v>2.0794830678846701E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.0207948306788467</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="2">
         <v>30890</v>
       </c>
       <c r="B61">
-        <v>6.0383561643835577E-2</v>
+        <v>0.06038356164383558</v>
       </c>
       <c r="C61">
-        <v>1.4791877853213011E-2</v>
+        <v>0.01479187785321301</v>
       </c>
       <c r="D61">
         <v>2061400</v>
       </c>
       <c r="E61">
-        <v>263.53979281267868</v>
+        <v>263.5397928126787</v>
       </c>
       <c r="F61">
-        <v>2.0854678833176609E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02085467883317661</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="2">
         <v>30897</v>
       </c>
       <c r="B62">
-        <v>6.0421917808219143E-2</v>
+        <v>0.06042191780821914</v>
       </c>
       <c r="C62">
-        <v>1.362628041988501E-2</v>
+        <v>0.01362628041988501</v>
       </c>
       <c r="D62">
         <v>2061400</v>
@@ -1660,98 +1649,98 @@
         <v>263.5545846905319</v>
       </c>
       <c r="F62">
-        <v>2.0921247161815239E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02092124716181524</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="2">
         <v>30904</v>
       </c>
       <c r="B63">
-        <v>6.0460273972602702E-2</v>
+        <v>0.0604602739726027</v>
       </c>
       <c r="C63">
-        <v>1.335757115282377E-2</v>
+        <v>0.01335757115282377</v>
       </c>
       <c r="D63">
         <v>2061400</v>
       </c>
       <c r="E63">
-        <v>263.56821097095178</v>
+        <v>263.5682109709518</v>
       </c>
       <c r="F63">
-        <v>2.0982569917594809E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02098256991759481</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="2">
         <v>30911</v>
       </c>
       <c r="B64">
-        <v>6.049863013698626E-2</v>
+        <v>0.06049863013698626</v>
       </c>
       <c r="C64">
-        <v>1.4867374957816541E-2</v>
+        <v>0.01486737495781654</v>
       </c>
       <c r="D64">
         <v>2061400</v>
       </c>
       <c r="E64">
-        <v>263.58156854210461</v>
+        <v>263.5815685421046</v>
       </c>
       <c r="F64">
-        <v>2.1042683393053291E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02104268339305329</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="2">
         <v>30918</v>
       </c>
       <c r="B65">
-        <v>6.0536986301369819E-2</v>
+        <v>0.06053698630136982</v>
       </c>
       <c r="C65">
-        <v>1.366923519810825E-2</v>
+        <v>0.01366923519810825</v>
       </c>
       <c r="D65">
         <v>2061400</v>
       </c>
       <c r="E65">
-        <v>263.59643591706242</v>
+        <v>263.5964359170624</v>
       </c>
       <c r="F65">
-        <v>2.110959148356141E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02110959148356141</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="2">
         <v>30925</v>
       </c>
       <c r="B66">
-        <v>6.0575342465753378E-2</v>
+        <v>0.06057534246575338</v>
       </c>
       <c r="C66">
-        <v>1.34096234048684E-2</v>
+        <v>0.0134096234048684</v>
       </c>
       <c r="D66">
         <v>2061400</v>
       </c>
       <c r="E66">
-        <v>263.61010515226047</v>
+        <v>263.6101051522605</v>
       </c>
       <c r="F66">
-        <v>2.1171107550009151E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02117110755000915</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="2">
         <v>30932</v>
       </c>
       <c r="B67">
-        <v>6.0613698630136943E-2</v>
+        <v>0.06061369863013694</v>
       </c>
       <c r="C67">
-        <v>1.4915257513735011E-2</v>
+        <v>0.01491525751373501</v>
       </c>
       <c r="D67">
         <v>2061400</v>
@@ -1760,38 +1749,38 @@
         <v>263.6235147756654</v>
       </c>
       <c r="F67">
-        <v>2.123145527776869E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02123145527776869</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="2">
         <v>30939</v>
       </c>
       <c r="B68">
-        <v>6.0652054794520488E-2</v>
+        <v>0.06065205479452049</v>
       </c>
       <c r="C68">
-        <v>1.370887203756865E-2</v>
+        <v>0.01370887203756865</v>
       </c>
       <c r="D68">
         <v>2061400</v>
       </c>
       <c r="E68">
-        <v>263.63843003317908</v>
+        <v>263.6384300331791</v>
       </c>
       <c r="F68">
-        <v>2.1298578855569659E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02129857885556966</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="2">
         <v>30946</v>
       </c>
       <c r="B69">
-        <v>6.0690410958904047E-2</v>
+        <v>0.06069041095890405</v>
       </c>
       <c r="C69">
-        <v>1.347191237789502E-2</v>
+        <v>0.01347191237789502</v>
       </c>
       <c r="D69">
         <v>2061400</v>
@@ -1800,18 +1789,18 @@
         <v>263.6521389052167</v>
       </c>
       <c r="F69">
-        <v>2.1360273300867288E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02136027330086729</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="2">
         <v>30953</v>
       </c>
       <c r="B70">
-        <v>6.0728767123287612E-2</v>
+        <v>0.06072876712328761</v>
       </c>
       <c r="C70">
-        <v>1.526023171129509E-2</v>
+        <v>0.01526023171129509</v>
       </c>
       <c r="D70">
         <v>2061400</v>
@@ -1820,118 +1809,118 @@
         <v>263.6656108175946</v>
       </c>
       <c r="F70">
-        <v>2.14209013495479E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.0214209013495479</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="2">
         <v>30960</v>
       </c>
       <c r="B71">
-        <v>6.0767123287671171E-2</v>
+        <v>0.06076712328767117</v>
       </c>
       <c r="C71">
-        <v>1.387267351879018E-2</v>
+        <v>0.01387267351879018</v>
       </c>
       <c r="D71">
         <v>2061400</v>
       </c>
       <c r="E71">
-        <v>263.68087104930589</v>
+        <v>263.6808710493059</v>
       </c>
       <c r="F71">
-        <v>2.1489577425009058E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02148957742500906</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="2">
         <v>30967</v>
       </c>
       <c r="B72">
-        <v>6.080547945205473E-2</v>
+        <v>0.06080547945205473</v>
       </c>
       <c r="C72">
-        <v>1.355701195279835E-2</v>
+        <v>0.01355701195279835</v>
       </c>
       <c r="D72">
         <v>2061400</v>
       </c>
       <c r="E72">
-        <v>263.69474372282468</v>
+        <v>263.6947437228247</v>
       </c>
       <c r="F72">
-        <v>2.155200903099307E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02155200903099307</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="2">
         <v>30974</v>
       </c>
       <c r="B73">
-        <v>6.0843835616438288E-2</v>
+        <v>0.06084383561643829</v>
       </c>
       <c r="C73">
-        <v>1.5140466403977371E-2</v>
+        <v>0.01514046640397737</v>
       </c>
       <c r="D73">
         <v>2061400</v>
       </c>
       <c r="E73">
-        <v>263.70830073477748</v>
+        <v>263.7083007347775</v>
       </c>
       <c r="F73">
-        <v>2.161302005582634E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02161302005582634</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="2">
         <v>30981</v>
       </c>
       <c r="B74">
-        <v>6.0882191780821847E-2</v>
+        <v>0.06088219178082185</v>
       </c>
       <c r="C74">
-        <v>1.388598709775124E-2</v>
+        <v>0.01388598709775124</v>
       </c>
       <c r="D74">
         <v>2061400</v>
       </c>
       <c r="E74">
-        <v>263.72344120118152</v>
+        <v>263.7234412011815</v>
       </c>
       <c r="F74">
-        <v>2.168115714790636E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02168115714790636</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="2">
         <v>30988</v>
       </c>
       <c r="B75">
-        <v>6.0920547945205412E-2</v>
+        <v>0.06092054794520541</v>
       </c>
       <c r="C75">
-        <v>1.359623443079272E-2</v>
+        <v>0.01359623443079272</v>
       </c>
       <c r="D75">
         <v>2061400</v>
       </c>
       <c r="E75">
-        <v>263.73732718827921</v>
+        <v>263.7373271882792</v>
       </c>
       <c r="F75">
-        <v>2.1743648669386582E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02174364866938658</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="2">
         <v>30995</v>
       </c>
       <c r="B76">
-        <v>6.0958904109588957E-2</v>
+        <v>0.06095890410958896</v>
       </c>
       <c r="C76">
-        <v>1.506496233434973E-2</v>
+        <v>0.01506496233434973</v>
       </c>
       <c r="D76">
         <v>2061400</v>
@@ -1940,138 +1929,138 @@
         <v>263.75092342271</v>
       </c>
       <c r="F76">
-        <v>2.1804836208306089E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02180483620830609</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="2">
         <v>31002</v>
       </c>
       <c r="B77">
-        <v>6.0997260273972523E-2</v>
+        <v>0.06099726027397252</v>
       </c>
       <c r="C77">
-        <v>1.3865395850871209E-2</v>
+        <v>0.01386539585087121</v>
       </c>
       <c r="D77">
         <v>2061400</v>
       </c>
       <c r="E77">
-        <v>263.76598838504441</v>
+        <v>263.7659883850444</v>
       </c>
       <c r="F77">
-        <v>2.1872633507172001E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.021872633507172</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="2">
         <v>31009</v>
       </c>
       <c r="B78">
-        <v>6.1035616438356081E-2</v>
+        <v>0.06103561643835608</v>
       </c>
       <c r="C78">
-        <v>1.363448620895724E-2</v>
+        <v>0.01363448620895724</v>
       </c>
       <c r="D78">
         <v>2061400</v>
       </c>
       <c r="E78">
-        <v>263.77985378089522</v>
+        <v>263.7798537808952</v>
       </c>
       <c r="F78">
-        <v>2.1935032361250419E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02193503236125042</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="2">
         <v>31016</v>
       </c>
       <c r="B79">
-        <v>6.107397260273964E-2</v>
+        <v>0.06107397260273964</v>
       </c>
       <c r="C79">
-        <v>1.5111210975987889E-2</v>
+        <v>0.01511121097598789</v>
       </c>
       <c r="D79">
         <v>2061400</v>
       </c>
       <c r="E79">
-        <v>263.79348826710418</v>
+        <v>263.7934882671042</v>
       </c>
       <c r="F79">
-        <v>2.1996392045786999E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.021996392045787</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="2">
         <v>31023</v>
       </c>
       <c r="B80">
-        <v>6.1112328767123199E-2</v>
+        <v>0.0611123287671232</v>
       </c>
       <c r="C80">
-        <v>1.38972483661064E-2</v>
+        <v>0.0138972483661064</v>
       </c>
       <c r="D80">
         <v>2061400</v>
       </c>
       <c r="E80">
-        <v>263.80859947808023</v>
+        <v>263.8085994780802</v>
       </c>
       <c r="F80">
-        <v>2.2064397478792779E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02206439747879278</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="2">
         <v>31030</v>
       </c>
       <c r="B81">
-        <v>6.1150684931506757E-2</v>
+        <v>0.06115068493150676</v>
       </c>
       <c r="C81">
-        <v>1.367157842241795E-2</v>
+        <v>0.01367157842241795</v>
       </c>
       <c r="D81">
         <v>2061400</v>
       </c>
       <c r="E81">
-        <v>263.82249672644627</v>
+        <v>263.8224967264463</v>
       </c>
       <c r="F81">
-        <v>2.2126939679694379E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02212693967969438</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="2">
         <v>31037</v>
       </c>
       <c r="B82">
-        <v>6.1189041095890323E-2</v>
+        <v>0.06118904109589032</v>
       </c>
       <c r="C82">
-        <v>1.5163157349206809E-2</v>
+        <v>0.01516315734920681</v>
       </c>
       <c r="D82">
         <v>2061400</v>
       </c>
       <c r="E82">
-        <v>263.83616830486869</v>
+        <v>263.8361683048687</v>
       </c>
       <c r="F82">
-        <v>2.218846629142442E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02218846629142442</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="2">
         <v>31044</v>
       </c>
       <c r="B83">
-        <v>6.1227397260273868E-2</v>
+        <v>0.06122739726027387</v>
       </c>
       <c r="C83">
-        <v>1.3969940447964291E-2</v>
+        <v>0.01396994044796429</v>
       </c>
       <c r="D83">
         <v>2061400</v>
@@ -2080,338 +2069,338 @@
         <v>263.8513314622179</v>
       </c>
       <c r="F83">
-        <v>2.2256705500241631E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02225670550024163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="2">
         <v>31051</v>
       </c>
       <c r="B84">
-        <v>6.1265753424657433E-2</v>
+        <v>0.06126575342465743</v>
       </c>
       <c r="C84">
-        <v>1.367651704697437E-2</v>
+        <v>0.01367651704697437</v>
       </c>
       <c r="D84">
         <v>2061400</v>
       </c>
       <c r="E84">
-        <v>263.86530140266592</v>
+        <v>263.8653014026659</v>
       </c>
       <c r="F84">
-        <v>2.2319574839485112E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02231957483948511</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="2">
         <v>31058</v>
       </c>
       <c r="B85">
-        <v>6.1304109589040992E-2</v>
+        <v>0.06130410958904099</v>
       </c>
       <c r="C85">
-        <v>1.5201070361399621E-2</v>
+        <v>0.01520107036139962</v>
       </c>
       <c r="D85">
         <v>2061400</v>
       </c>
       <c r="E85">
-        <v>263.87897791971278</v>
+        <v>263.8789779197128</v>
       </c>
       <c r="F85">
-        <v>2.2381123676654301E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.0223811236766543</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="2">
         <v>31065</v>
       </c>
       <c r="B86">
-        <v>6.1342465753424551E-2</v>
+        <v>0.06134246575342455</v>
       </c>
       <c r="C86">
-        <v>1.400889471938171E-2</v>
+        <v>0.01400889471938171</v>
       </c>
       <c r="D86">
         <v>2061400</v>
       </c>
       <c r="E86">
-        <v>263.89417899007418</v>
+        <v>263.8941789900742</v>
       </c>
       <c r="F86">
-        <v>2.244953350652993E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02244953350652993</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="2">
         <v>31072</v>
       </c>
       <c r="B87">
-        <v>6.1380821917808109E-2</v>
+        <v>0.06138082191780811</v>
       </c>
       <c r="C87">
-        <v>1.373043705984855E-2</v>
+        <v>0.01373043705984855</v>
       </c>
       <c r="D87">
         <v>2061400</v>
       </c>
       <c r="E87">
-        <v>263.90818788479362</v>
+        <v>263.9081878847936</v>
       </c>
       <c r="F87">
-        <v>2.2512578152841731E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02251257815284173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="2">
         <v>31079</v>
       </c>
       <c r="B88">
-        <v>6.1419178082191668E-2</v>
+        <v>0.06141917808219167</v>
       </c>
       <c r="C88">
-        <v>1.523171492544861E-2</v>
+        <v>0.01523171492544861</v>
       </c>
       <c r="D88">
         <v>2061400</v>
       </c>
       <c r="E88">
-        <v>263.92191832185352</v>
+        <v>263.9219183218535</v>
       </c>
       <c r="F88">
-        <v>2.257436964785154E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02257436964785154</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="2">
         <v>31086</v>
       </c>
       <c r="B89">
-        <v>6.1457534246575227E-2</v>
+        <v>0.06145753424657523</v>
       </c>
       <c r="C89">
-        <v>1.404026245074874E-2</v>
+        <v>0.01404026245074874</v>
       </c>
       <c r="D89">
         <v>2061400</v>
       </c>
       <c r="E89">
-        <v>263.93715003677892</v>
+        <v>263.9371500367789</v>
       </c>
       <c r="F89">
-        <v>2.2642917388371681E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02264291738837168</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="2">
         <v>31093</v>
       </c>
       <c r="B90">
-        <v>6.1495890410958792E-2</v>
+        <v>0.06149589041095879</v>
       </c>
       <c r="C90">
-        <v>1.376019196140987E-2</v>
+        <v>0.01376019196140987</v>
       </c>
       <c r="D90">
         <v>2061400</v>
       </c>
       <c r="E90">
-        <v>263.95119029922972</v>
+        <v>263.9511902992297</v>
       </c>
       <c r="F90">
-        <v>2.2706103199819649E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02270610319981965</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="2">
         <v>31100</v>
       </c>
       <c r="B91">
-        <v>6.1534246575342337E-2</v>
+        <v>0.06153424657534234</v>
       </c>
       <c r="C91">
-        <v>1.526320986624796E-2</v>
+        <v>0.01526320986624796</v>
       </c>
       <c r="D91">
         <v>2061400</v>
       </c>
       <c r="E91">
-        <v>263.96495049119108</v>
+        <v>263.9649504911911</v>
       </c>
       <c r="F91">
-        <v>2.276802860169946E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02276802860169946</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="2">
         <v>31107</v>
       </c>
       <c r="B92">
-        <v>6.1572602739725903E-2</v>
+        <v>0.0615726027397259</v>
       </c>
       <c r="C92">
-        <v>1.4067389554611511E-2</v>
+        <v>0.01406738955461151</v>
       </c>
       <c r="D92">
         <v>2061400</v>
       </c>
       <c r="E92">
-        <v>263.98021370105732</v>
+        <v>263.9802137010573</v>
       </c>
       <c r="F92">
-        <v>2.2836718079840151E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02283671807984015</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="2">
         <v>31114</v>
       </c>
       <c r="B93">
-        <v>6.1610958904109461E-2</v>
+        <v>0.06161095890410946</v>
       </c>
       <c r="C93">
-        <v>1.380232407223048E-2</v>
+        <v>0.01380232407223048</v>
       </c>
       <c r="D93">
         <v>2061400</v>
       </c>
       <c r="E93">
-        <v>263.99428109061188</v>
+        <v>263.9942810906119</v>
       </c>
       <c r="F93">
-        <v>2.2900025972202011E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02290002597220201</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="2">
         <v>31121</v>
       </c>
       <c r="B94">
-        <v>6.164931506849302E-2</v>
+        <v>0.06164931506849302</v>
       </c>
       <c r="C94">
-        <v>1.532152587765268E-2</v>
+        <v>0.01532152587765268</v>
       </c>
       <c r="D94">
         <v>2061400</v>
       </c>
       <c r="E94">
-        <v>264.00808341468422</v>
+        <v>264.0080834146842</v>
       </c>
       <c r="F94">
-        <v>2.2962140982475471E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02296214098247547</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="2">
         <v>31128</v>
       </c>
       <c r="B95">
-        <v>6.1687671232876579E-2</v>
+        <v>0.06168767123287658</v>
       </c>
       <c r="C95">
-        <v>1.4078639816034411E-2</v>
+        <v>0.01407863981603441</v>
       </c>
       <c r="D95">
         <v>2061400</v>
       </c>
       <c r="E95">
-        <v>264.02340494056182</v>
+        <v>264.0234049405618</v>
       </c>
       <c r="F95">
-        <v>2.3031092901899908E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02303109290189991</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="2">
         <v>31135</v>
       </c>
       <c r="B96">
-        <v>6.1726027397260137E-2</v>
+        <v>0.06172602739726014</v>
       </c>
       <c r="C96">
-        <v>1.381933345328434E-2</v>
+        <v>0.01381933345328434</v>
       </c>
       <c r="D96">
         <v>2061400</v>
       </c>
       <c r="E96">
-        <v>264.03748358037791</v>
+        <v>264.0374835803779</v>
       </c>
       <c r="F96">
-        <v>2.309445142414834E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02309445142414834</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="2">
         <v>31142</v>
       </c>
       <c r="B97">
-        <v>6.1764383561643703E-2</v>
+        <v>0.0617643835616437</v>
       </c>
       <c r="C97">
-        <v>1.536179250922487E-2</v>
+        <v>0.01536179250922487</v>
       </c>
       <c r="D97">
         <v>2061400</v>
       </c>
       <c r="E97">
-        <v>264.05130291383108</v>
+        <v>264.0513029138311</v>
       </c>
       <c r="F97">
-        <v>2.3156642982246241E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02315664298224624</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="2">
         <v>31149</v>
       </c>
       <c r="B98">
-        <v>6.1802739726027248E-2</v>
+        <v>0.06180273972602725</v>
       </c>
       <c r="C98">
-        <v>1.411693140971693E-2</v>
+        <v>0.01411693140971693</v>
       </c>
       <c r="D98">
         <v>2061400</v>
       </c>
       <c r="E98">
-        <v>264.06666470634042</v>
+        <v>264.0666647063404</v>
       </c>
       <c r="F98">
-        <v>2.3225776114792498E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.0232257761147925</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="2">
         <v>31156</v>
       </c>
       <c r="B99">
-        <v>6.1841095890410813E-2</v>
+        <v>0.06184109589041081</v>
       </c>
       <c r="C99">
-        <v>1.3843213300219761E-2</v>
+        <v>0.01384321330021976</v>
       </c>
       <c r="D99">
         <v>2061400</v>
       </c>
       <c r="E99">
-        <v>264.08078163775008</v>
+        <v>264.0807816377501</v>
       </c>
       <c r="F99">
-        <v>2.328930696184086E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02328930696184086</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="2">
         <v>31163</v>
       </c>
       <c r="B100">
-        <v>6.1879452054794372E-2</v>
+        <v>0.06187945205479437</v>
       </c>
       <c r="C100">
-        <v>1.5393375079156609E-2</v>
+        <v>0.01539337507915661</v>
       </c>
       <c r="D100">
         <v>2061400</v>
@@ -2420,427 +2409,2027 @@
         <v>264.0946248510503</v>
       </c>
       <c r="F100">
-        <v>2.3351605987125441E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02335160598712544</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="2">
         <v>31170</v>
       </c>
       <c r="B101">
-        <v>6.1917808219177931E-2</v>
+        <v>0.06191780821917793</v>
       </c>
       <c r="C101">
-        <v>1.416648086910755E-2</v>
+        <v>0.01416648086910755</v>
       </c>
       <c r="D101">
         <v>2061400</v>
       </c>
       <c r="E101">
-        <v>264.11001822612951</v>
+        <v>264.1100182261295</v>
       </c>
       <c r="F101">
-        <v>2.3420881251652051E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02342088125165205</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="2">
         <v>31177</v>
       </c>
       <c r="B102">
-        <v>6.1956164383561489E-2</v>
+        <v>0.06195616438356149</v>
       </c>
       <c r="C102">
-        <v>1.3852691332886019E-2</v>
+        <v>0.01385269133288602</v>
       </c>
       <c r="D102">
         <v>2061400</v>
       </c>
       <c r="E102">
-        <v>264.12418470699862</v>
+        <v>264.1241847069986</v>
       </c>
       <c r="F102">
-        <v>2.3484635087608979E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02348463508760898</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="2">
         <v>31184</v>
       </c>
       <c r="B103">
-        <v>6.1994520547945048E-2</v>
+        <v>0.06199452054794505</v>
       </c>
       <c r="C103">
-        <v>1.5429103818860311E-2</v>
+        <v>0.01542910381886031</v>
       </c>
       <c r="D103">
         <v>2061400</v>
       </c>
       <c r="E103">
-        <v>264.13803739833139</v>
+        <v>264.1380373983314</v>
       </c>
       <c r="F103">
-        <v>2.3546976767166539E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02354697676716654</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="2">
         <v>31191</v>
       </c>
       <c r="B104">
-        <v>6.2032876712328613E-2</v>
+        <v>0.06203287671232861</v>
       </c>
       <c r="C104">
-        <v>1.4190407041837719E-2</v>
+        <v>0.01419040704183772</v>
       </c>
       <c r="D104">
         <v>2061400</v>
       </c>
       <c r="E104">
-        <v>264.15346650215031</v>
+        <v>264.1534665021503</v>
       </c>
       <c r="F104">
-        <v>2.36164128228049E-2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.0236164128228049</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" s="2">
         <v>31198</v>
       </c>
       <c r="B105">
-        <v>6.2071232876712172E-2</v>
+        <v>0.06207123287671217</v>
       </c>
       <c r="C105">
-        <v>1.3899640605586679E-2</v>
+        <v>0.01389964060558668</v>
       </c>
       <c r="D105">
         <v>2061400</v>
       </c>
       <c r="E105">
-        <v>264.16765690919209</v>
+        <v>264.1676569091921</v>
       </c>
       <c r="F105">
-        <v>2.3680274334429891E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02368027433442989</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" s="2">
         <v>31205</v>
       </c>
       <c r="B106">
-        <v>6.2109589041095717E-2</v>
+        <v>0.06210958904109572</v>
       </c>
       <c r="C106">
-        <v>1.5444556348597869E-2</v>
+        <v>0.01544455634859787</v>
       </c>
       <c r="D106">
         <v>2061400</v>
       </c>
       <c r="E106">
-        <v>264.18155654979768</v>
+        <v>264.1815565497977</v>
       </c>
       <c r="F106">
-        <v>2.3742827301198109E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02374282730119811</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" s="2">
         <v>31212</v>
       </c>
       <c r="B107">
-        <v>6.2147945205479282E-2</v>
+        <v>0.06214794520547928</v>
       </c>
       <c r="C107">
-        <v>1.4207757157237211E-2</v>
+        <v>0.01420775715723721</v>
       </c>
       <c r="D107">
         <v>2061400</v>
       </c>
       <c r="E107">
-        <v>264.19700110614627</v>
+        <v>264.1970011061463</v>
       </c>
       <c r="F107">
-        <v>2.381233289831676E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02381233289831676</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" s="2">
         <v>31219</v>
       </c>
       <c r="B108">
-        <v>6.2186301369862841E-2</v>
+        <v>0.06218630136986284</v>
       </c>
       <c r="C108">
-        <v>1.392749743990862E-2</v>
+        <v>0.01392749743990862</v>
       </c>
       <c r="D108">
         <v>2061400</v>
       </c>
       <c r="E108">
-        <v>264.21120886330363</v>
+        <v>264.2112088633036</v>
       </c>
       <c r="F108">
-        <v>2.3876272491182949E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02387627249118295</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" s="2">
         <v>31226</v>
       </c>
       <c r="B109">
-        <v>6.22246575342464E-2</v>
+        <v>0.0622246575342464</v>
       </c>
       <c r="C109">
-        <v>1.548857513523672E-2</v>
+        <v>0.01548857513523672</v>
       </c>
       <c r="D109">
         <v>2061400</v>
       </c>
       <c r="E109">
-        <v>264.22513636074348</v>
+        <v>264.2251363607435</v>
       </c>
       <c r="F109">
-        <v>2.3938950822892709E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02393895082289271</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" s="2">
         <v>31233</v>
       </c>
       <c r="B110">
-        <v>6.2263013698629958E-2</v>
+        <v>0.06226301369862996</v>
       </c>
       <c r="C110">
-        <v>1.422917854586103E-2</v>
+        <v>0.01422917854586103</v>
       </c>
       <c r="D110">
         <v>2061400</v>
       </c>
       <c r="E110">
-        <v>264.24062493587871</v>
+        <v>264.2406249358787</v>
       </c>
       <c r="F110">
-        <v>2.4008654519068289E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02400865451906829</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" s="2">
         <v>31240</v>
       </c>
       <c r="B111">
-        <v>6.2301369863013517E-2</v>
+        <v>0.06230136986301352</v>
       </c>
       <c r="C111">
-        <v>1.394748089205677E-2</v>
+        <v>0.01394748089205677</v>
       </c>
       <c r="D111">
         <v>2061400</v>
       </c>
       <c r="E111">
-        <v>264.25485411442457</v>
+        <v>264.2548541144246</v>
       </c>
       <c r="F111">
-        <v>2.407269051524806E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02407269051524806</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" s="2">
         <v>31247</v>
       </c>
       <c r="B112">
-        <v>6.2339726027397083E-2</v>
+        <v>0.06233972602739708</v>
       </c>
       <c r="C112">
-        <v>1.554240576422217E-2</v>
+        <v>0.01554240576422217</v>
       </c>
       <c r="D112">
         <v>2061400</v>
       </c>
       <c r="E112">
-        <v>264.26880159531657</v>
+        <v>264.2688015953166</v>
       </c>
       <c r="F112">
-        <v>2.4135458779082901E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.0241354587790829</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" s="2">
         <v>31254</v>
       </c>
       <c r="B113">
-        <v>6.2378082191780627E-2</v>
+        <v>0.06237808219178063</v>
       </c>
       <c r="C113">
-        <v>1.424838803109196E-2</v>
+        <v>0.01424838803109196</v>
       </c>
       <c r="D113">
         <v>2061400</v>
       </c>
       <c r="E113">
-        <v>264.28434400108091</v>
+        <v>264.2843440010809</v>
       </c>
       <c r="F113">
-        <v>2.4205404730842098E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.0242054047308421</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" s="2">
         <v>31261</v>
       </c>
       <c r="B114">
-        <v>6.2416438356164193E-2</v>
+        <v>0.06241643835616419</v>
       </c>
       <c r="C114">
-        <v>1.395996051530801E-2</v>
+        <v>0.01395996051530801</v>
       </c>
       <c r="D114">
         <v>2061400</v>
       </c>
       <c r="E114">
-        <v>264.29859238911189</v>
+        <v>264.2985923891119</v>
       </c>
       <c r="F114">
-        <v>2.426952717604058E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02426952717604058</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" s="2">
         <v>31268</v>
       </c>
       <c r="B115">
-        <v>6.2454794520547752E-2</v>
+        <v>0.06245479452054775</v>
       </c>
       <c r="C115">
-        <v>1.5576763071976529E-2</v>
+        <v>0.01557676307197653</v>
       </c>
       <c r="D115">
         <v>2061400</v>
       </c>
       <c r="E115">
-        <v>264.31255234962731</v>
+        <v>264.3125523496273</v>
       </c>
       <c r="F115">
-        <v>2.4332351602295708E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02433235160229571</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" s="2">
         <v>31275</v>
       </c>
       <c r="B116">
-        <v>6.249315068493131E-2</v>
+        <v>0.06249315068493131</v>
       </c>
       <c r="C116">
-        <v>1.426716442608722E-2</v>
+        <v>0.01426716442608722</v>
       </c>
       <c r="D116">
         <v>2061400</v>
       </c>
       <c r="E116">
-        <v>264.32812911269917</v>
+        <v>264.3281291126992</v>
       </c>
       <c r="F116">
-        <v>2.4402452173270719E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02440245217327072</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" s="2">
         <v>31282</v>
       </c>
       <c r="B117">
-        <v>6.2531506849314869E-2</v>
+        <v>0.06253150684931487</v>
       </c>
       <c r="C117">
-        <v>1.3983911147875011E-2</v>
+        <v>0.01398391114787501</v>
       </c>
       <c r="D117">
         <v>2061400</v>
       </c>
       <c r="E117">
-        <v>264.34239627712532</v>
+        <v>264.3423962771253</v>
       </c>
       <c r="F117">
-        <v>2.4466659118439021E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02446665911843902</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" s="2">
         <v>31289</v>
       </c>
       <c r="B118">
-        <v>6.2569863013698435E-2</v>
+        <v>0.06256986301369843</v>
       </c>
       <c r="C118">
-        <v>1.5458718935178689E-2</v>
+        <v>0.01545871893517869</v>
       </c>
       <c r="D118">
         <v>2061400</v>
       </c>
       <c r="E118">
-        <v>264.35638018827319</v>
+        <v>264.3563801882732</v>
       </c>
       <c r="F118">
-        <v>2.4529591330439721E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02452959133043972</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" s="2">
         <v>31296</v>
       </c>
       <c r="B119">
-        <v>6.2608219178082E-2</v>
+        <v>0.062608219178082</v>
       </c>
       <c r="C119">
-        <v>1.428005225579909E-2</v>
+        <v>0.01428005225579909</v>
       </c>
       <c r="D119">
         <v>2061400</v>
       </c>
       <c r="E119">
-        <v>264.37183890720843</v>
+        <v>264.3718389072084</v>
       </c>
       <c r="F119">
-        <v>2.4599160663868611E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02459916066386861</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" s="2">
         <v>31303</v>
       </c>
       <c r="B120">
-        <v>6.2646575342465566E-2</v>
+        <v>0.06264657534246557</v>
       </c>
       <c r="C120">
-        <v>1.397103828298896E-2</v>
+        <v>0.01397103828298896</v>
       </c>
       <c r="D120">
         <v>2061400</v>
       </c>
       <c r="E120">
-        <v>264.38611895946423</v>
+        <v>264.3861189594642</v>
       </c>
       <c r="F120">
-        <v>2.4663425608520861E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02466342560852086</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" s="2">
         <v>31310</v>
       </c>
       <c r="B121">
-        <v>6.2684931506849131E-2</v>
+        <v>0.06268493150684913</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>0.01563882348068546</v>
       </c>
       <c r="D121">
         <v>2061400</v>
       </c>
       <c r="E121">
-        <v>264.40008999774722</v>
+        <v>264.4000899977472</v>
       </c>
       <c r="F121">
-        <v>2.4726299888384231E-2</v>
+        <v>0.02472629988838423</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="2">
+        <v>31317</v>
+      </c>
+      <c r="B122">
+        <v>0.0627232876712327</v>
+      </c>
+      <c r="C122">
+        <v>0.01433657033328473</v>
+      </c>
+      <c r="D122">
+        <v>2061400</v>
+      </c>
+      <c r="E122">
+        <v>264.4157288212278</v>
+      </c>
+      <c r="F122">
+        <v>0.02479667975166557</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="2">
+        <v>31324</v>
+      </c>
+      <c r="B123">
+        <v>0.06276164383561626</v>
+      </c>
+      <c r="C123">
+        <v>0.01403005459940232</v>
+      </c>
+      <c r="D123">
+        <v>2061400</v>
+      </c>
+      <c r="E123">
+        <v>264.4300653915611</v>
+      </c>
+      <c r="F123">
+        <v>0.02486119904630605</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="2">
+        <v>31331</v>
+      </c>
+      <c r="B124">
+        <v>0.06279999999999983</v>
+      </c>
+      <c r="C124">
+        <v>0.01565667868055698</v>
+      </c>
+      <c r="D124">
+        <v>2061400</v>
+      </c>
+      <c r="E124">
+        <v>264.4440954461605</v>
+      </c>
+      <c r="F124">
+        <v>0.02492433891905652</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="2">
+        <v>31338</v>
+      </c>
+      <c r="B125">
+        <v>0.06283835616438339</v>
+      </c>
+      <c r="C125">
+        <v>0.01435319309553051</v>
+      </c>
+      <c r="D125">
+        <v>2061400</v>
+      </c>
+      <c r="E125">
+        <v>264.4597521248411</v>
+      </c>
+      <c r="F125">
+        <v>0.02499479913662583</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="2">
+        <v>31345</v>
+      </c>
+      <c r="B126">
+        <v>0.06287671232876696</v>
+      </c>
+      <c r="C126">
+        <v>0.01404808767722443</v>
+      </c>
+      <c r="D126">
+        <v>2061400</v>
+      </c>
+      <c r="E126">
+        <v>264.4741053179366</v>
+      </c>
+      <c r="F126">
+        <v>0.0250593932391786</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="2">
+        <v>31352</v>
+      </c>
+      <c r="B127">
+        <v>0.06291506849315052</v>
+      </c>
+      <c r="C127">
+        <v>0.01569775951497832</v>
+      </c>
+      <c r="D127">
+        <v>2061400</v>
+      </c>
+      <c r="E127">
+        <v>264.4881534056138</v>
+      </c>
+      <c r="F127">
+        <v>0.02512261426672634</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="2">
+        <v>31359</v>
+      </c>
+      <c r="B128">
+        <v>0.06295342465753409</v>
+      </c>
+      <c r="C128">
+        <v>0.01437661944078172</v>
+      </c>
+      <c r="D128">
+        <v>2061400</v>
+      </c>
+      <c r="E128">
+        <v>264.5038511651288</v>
+      </c>
+      <c r="F128">
+        <v>0.02519325936159899</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="2">
+        <v>31366</v>
+      </c>
+      <c r="B129">
+        <v>0.06299178082191766</v>
+      </c>
+      <c r="C129">
+        <v>0.01523658213727686</v>
+      </c>
+      <c r="D129">
+        <v>2061400</v>
+      </c>
+      <c r="E129">
+        <v>264.5182277845696</v>
+      </c>
+      <c r="F129">
+        <v>0.02525795889043131</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="2">
+        <v>31373</v>
+      </c>
+      <c r="B130">
+        <v>0.06303013698630122</v>
+      </c>
+      <c r="C130">
+        <v>0.01427552188238224</v>
+      </c>
+      <c r="D130">
+        <v>2061400</v>
+      </c>
+      <c r="E130">
+        <v>264.5334643667069</v>
+      </c>
+      <c r="F130">
+        <v>0.02532652853500976</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="2">
+        <v>31380</v>
+      </c>
+      <c r="B131">
+        <v>0.06306849315068479</v>
+      </c>
+      <c r="C131">
+        <v>0.01520416847415618</v>
+      </c>
+      <c r="D131">
+        <v>2061400</v>
+      </c>
+      <c r="E131">
+        <v>264.5477398885893</v>
+      </c>
+      <c r="F131">
+        <v>0.02539077309148775</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="2">
+        <v>31387</v>
+      </c>
+      <c r="B132">
+        <v>0.06310684931506835</v>
+      </c>
+      <c r="C132">
+        <v>0.01397166797096361</v>
+      </c>
+      <c r="D132">
+        <v>2061400</v>
+      </c>
+      <c r="E132">
+        <v>264.5629440570634</v>
+      </c>
+      <c r="F132">
+        <v>0.02545919686389238</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="2">
+        <v>31394</v>
+      </c>
+      <c r="B133">
+        <v>0.06314520547945192</v>
+      </c>
+      <c r="C133">
+        <v>0.01517386854470715</v>
+      </c>
+      <c r="D133">
+        <v>2061400</v>
+      </c>
+      <c r="E133">
+        <v>264.5769157250344</v>
+      </c>
+      <c r="F133">
+        <v>0.0255220739775591</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="2">
+        <v>31401</v>
+      </c>
+      <c r="B134">
+        <v>0.06318356164383548</v>
+      </c>
+      <c r="C134">
+        <v>0.01426449011273689</v>
+      </c>
+      <c r="D134">
+        <v>2061400</v>
+      </c>
+      <c r="E134">
+        <v>264.5920895935791</v>
+      </c>
+      <c r="F134">
+        <v>0.02559036139028834</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="2">
+        <v>31408</v>
+      </c>
+      <c r="B135">
+        <v>0.06322191780821905</v>
+      </c>
+      <c r="C135">
+        <v>0.01525367215685947</v>
+      </c>
+      <c r="D135">
+        <v>2061400</v>
+      </c>
+      <c r="E135">
+        <v>264.6063540836918</v>
+      </c>
+      <c r="F135">
+        <v>0.02565455630016467</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="2">
+        <v>31415</v>
+      </c>
+      <c r="B136">
+        <v>0.06326027397260262</v>
+      </c>
+      <c r="C136">
+        <v>0.01431776556580644</v>
+      </c>
+      <c r="D136">
+        <v>2061400</v>
+      </c>
+      <c r="E136">
+        <v>264.6216077558487</v>
+      </c>
+      <c r="F136">
+        <v>0.02572320285546746</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="2">
+        <v>31422</v>
+      </c>
+      <c r="B137">
+        <v>0.06329863013698618</v>
+      </c>
+      <c r="C137">
+        <v>0.01528653822356318</v>
+      </c>
+      <c r="D137">
+        <v>2061400</v>
+      </c>
+      <c r="E137">
+        <v>264.6359255214145</v>
+      </c>
+      <c r="F137">
+        <v>0.02578763752245273</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="2">
+        <v>31429</v>
+      </c>
+      <c r="B138">
+        <v>0.06333698630136975</v>
+      </c>
+      <c r="C138">
+        <v>0.01431483191129246</v>
+      </c>
+      <c r="D138">
+        <v>2061400</v>
+      </c>
+      <c r="E138">
+        <v>264.6512120596381</v>
+      </c>
+      <c r="F138">
+        <v>0.02585643198589479</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="2">
+        <v>31436</v>
+      </c>
+      <c r="B139">
+        <v>0.06337534246575331</v>
+      </c>
+      <c r="C139">
+        <v>0.01530223137001485</v>
+      </c>
+      <c r="D139">
+        <v>2061400</v>
+      </c>
+      <c r="E139">
+        <v>264.6655268915493</v>
+      </c>
+      <c r="F139">
+        <v>0.02592085345046702</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="2">
+        <v>31443</v>
+      </c>
+      <c r="B140">
+        <v>0.06341369863013688</v>
+      </c>
+      <c r="C140">
+        <v>0.01434298152958036</v>
+      </c>
+      <c r="D140">
+        <v>2061400</v>
+      </c>
+      <c r="E140">
+        <v>264.6808291229194</v>
+      </c>
+      <c r="F140">
+        <v>0.0259897185382439</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="2">
+        <v>31450</v>
+      </c>
+      <c r="B141">
+        <v>0.06345205479452044</v>
+      </c>
+      <c r="C141">
+        <v>0.01530573600325624</v>
+      </c>
+      <c r="D141">
+        <v>2061400</v>
+      </c>
+      <c r="E141">
+        <v>264.6951721044489</v>
+      </c>
+      <c r="F141">
+        <v>0.02605426668538201</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="2">
+        <v>31457</v>
+      </c>
+      <c r="B142">
+        <v>0.06349041095890401</v>
+      </c>
+      <c r="C142">
+        <v>0.01435958102638324</v>
+      </c>
+      <c r="D142">
+        <v>2061400</v>
+      </c>
+      <c r="E142">
+        <v>264.7104778404522</v>
+      </c>
+      <c r="F142">
+        <v>0.02612314754516412</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="2">
+        <v>31464</v>
+      </c>
+      <c r="B143">
+        <v>0.06352876712328757</v>
+      </c>
+      <c r="C143">
+        <v>0.01534398054741359</v>
+      </c>
+      <c r="D143">
+        <v>2061400</v>
+      </c>
+      <c r="E143">
+        <v>264.7248374214786</v>
+      </c>
+      <c r="F143">
+        <v>0.02618777039551237</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="2">
+        <v>31471</v>
+      </c>
+      <c r="B144">
+        <v>0.06356712328767114</v>
+      </c>
+      <c r="C144">
+        <v>0.01438025100435425</v>
+      </c>
+      <c r="D144">
+        <v>2061400</v>
+      </c>
+      <c r="E144">
+        <v>264.740181402026</v>
+      </c>
+      <c r="F144">
+        <v>0.02625682336835604</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="2">
+        <v>31478</v>
+      </c>
+      <c r="B145">
+        <v>0.06360547945205471</v>
+      </c>
+      <c r="C145">
+        <v>0.01534239985073782</v>
+      </c>
+      <c r="D145">
+        <v>2061400</v>
+      </c>
+      <c r="E145">
+        <v>264.7545616530304</v>
+      </c>
+      <c r="F145">
+        <v>0.02632153924042218</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="2">
+        <v>31485</v>
+      </c>
+      <c r="B146">
+        <v>0.06364383561643827</v>
+      </c>
+      <c r="C146">
+        <v>0.01509363848799694</v>
+      </c>
+      <c r="D146">
+        <v>2061400</v>
+      </c>
+      <c r="E146">
+        <v>264.7699040528811</v>
+      </c>
+      <c r="F146">
+        <v>0.02639058509960944</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="2">
+        <v>31492</v>
+      </c>
+      <c r="B147">
+        <v>0.06368219178082184</v>
+      </c>
+      <c r="C147">
+        <v>0.01556282655383256</v>
+      </c>
+      <c r="D147">
+        <v>2061400</v>
+      </c>
+      <c r="E147">
+        <v>264.7849976913691</v>
+      </c>
+      <c r="F147">
+        <v>0.02645851145062406</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="2">
+        <v>31499</v>
+      </c>
+      <c r="B148">
+        <v>0.0637205479452054</v>
+      </c>
+      <c r="C148">
+        <v>0.01442895808145295</v>
+      </c>
+      <c r="D148">
+        <v>2061400</v>
+      </c>
+      <c r="E148">
+        <v>264.8005605179229</v>
+      </c>
+      <c r="F148">
+        <v>0.02652854930267111</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="2">
+        <v>31506</v>
+      </c>
+      <c r="B149">
+        <v>0.06375890410958897</v>
+      </c>
+      <c r="C149">
+        <v>0.0154091268184402</v>
+      </c>
+      <c r="D149">
+        <v>2061400</v>
+      </c>
+      <c r="E149">
+        <v>264.8149894760044</v>
+      </c>
+      <c r="F149">
+        <v>0.02659348437264748</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="2">
+        <v>31513</v>
+      </c>
+      <c r="B150">
+        <v>0.06379726027397253</v>
+      </c>
+      <c r="C150">
+        <v>0.01442116421378614</v>
+      </c>
+      <c r="D150">
+        <v>2061400</v>
+      </c>
+      <c r="E150">
+        <v>264.8303986028228</v>
+      </c>
+      <c r="F150">
+        <v>0.02666283052519578</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="2">
+        <v>31520</v>
+      </c>
+      <c r="B151">
+        <v>0.0638356164383561</v>
+      </c>
+      <c r="C151">
+        <v>0.01198633208321098</v>
+      </c>
+      <c r="D151">
+        <v>2061400</v>
+      </c>
+      <c r="E151">
+        <v>264.8448197670366</v>
+      </c>
+      <c r="F151">
+        <v>0.02672773052019729</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="2">
+        <v>31555</v>
+      </c>
+      <c r="B152">
+        <v>0.06387397260273966</v>
+      </c>
+      <c r="C152">
+        <v>1.066736322752718</v>
+      </c>
+      <c r="D152">
+        <v>2061400</v>
+      </c>
+      <c r="E152">
+        <v>263.4678370223616</v>
+      </c>
+      <c r="F152">
+        <v>0.02053085404603196</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="2">
+        <v>31562</v>
+      </c>
+      <c r="B153">
+        <v>0.06391232876712323</v>
+      </c>
+      <c r="C153">
+        <v>0.2731268588277089</v>
+      </c>
+      <c r="D153">
+        <v>2061400</v>
+      </c>
+      <c r="E153">
+        <v>264.5345733451143</v>
+      </c>
+      <c r="F153">
+        <v>0.02533151930357948</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="2">
+        <v>31569</v>
+      </c>
+      <c r="B154">
+        <v>0.0639506849315068</v>
+      </c>
+      <c r="C154">
+        <v>0.0782005753684416</v>
+      </c>
+      <c r="D154">
+        <v>2061400</v>
+      </c>
+      <c r="E154">
+        <v>264.807700203942</v>
+      </c>
+      <c r="F154">
+        <v>0.02656068024439539</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="2">
+        <v>31576</v>
+      </c>
+      <c r="B155">
+        <v>0.06398904109589036</v>
+      </c>
+      <c r="C155">
+        <v>0.0297876462750537</v>
+      </c>
+      <c r="D155">
+        <v>2061400</v>
+      </c>
+      <c r="E155">
+        <v>264.8859007793104</v>
+      </c>
+      <c r="F155">
+        <v>0.02691260862377472</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="2">
+        <v>31583</v>
+      </c>
+      <c r="B156">
+        <v>0.06402739726027393</v>
+      </c>
+      <c r="C156">
+        <v>0.01967223455994827</v>
+      </c>
+      <c r="D156">
+        <v>2061400</v>
+      </c>
+      <c r="E156">
+        <v>264.9156884255855</v>
+      </c>
+      <c r="F156">
+        <v>0.02704666285585322</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="2">
+        <v>31590</v>
+      </c>
+      <c r="B157">
+        <v>0.06406575342465749</v>
+      </c>
+      <c r="C157">
+        <v>0.01536390396574916</v>
+      </c>
+      <c r="D157">
+        <v>2061400</v>
+      </c>
+      <c r="E157">
+        <v>264.9353606601454</v>
+      </c>
+      <c r="F157">
+        <v>0.02713519439919343</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="2">
+        <v>31597</v>
+      </c>
+      <c r="B158">
+        <v>0.06410410958904106</v>
+      </c>
+      <c r="C158">
+        <v>0.01560807182715962</v>
+      </c>
+      <c r="D158">
+        <v>2061400</v>
+      </c>
+      <c r="E158">
+        <v>264.9507245641112</v>
+      </c>
+      <c r="F158">
+        <v>0.02720433703399024</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="2">
+        <v>31604</v>
+      </c>
+      <c r="B159">
+        <v>0.06414246575342462</v>
+      </c>
+      <c r="C159">
+        <v>0.01438483882520813</v>
+      </c>
+      <c r="D159">
+        <v>2061400</v>
+      </c>
+      <c r="E159">
+        <v>264.9663326359383</v>
+      </c>
+      <c r="F159">
+        <v>0.027274578504689</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="2">
+        <v>31611</v>
+      </c>
+      <c r="B160">
+        <v>0.06418082191780819</v>
+      </c>
+      <c r="C160">
+        <v>0.0154282851709695</v>
+      </c>
+      <c r="D160">
+        <v>2061400</v>
+      </c>
+      <c r="E160">
+        <v>264.9807174747635</v>
+      </c>
+      <c r="F160">
+        <v>0.02733931502346196</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="2">
+        <v>31618</v>
+      </c>
+      <c r="B161">
+        <v>0.06421917808219176</v>
+      </c>
+      <c r="C161">
+        <v>0.01440938687585458</v>
+      </c>
+      <c r="D161">
+        <v>2061400</v>
+      </c>
+      <c r="E161">
+        <v>264.9961457599345</v>
+      </c>
+      <c r="F161">
+        <v>0.02740874739491499</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="2">
+        <v>31625</v>
+      </c>
+      <c r="B162">
+        <v>0.06425753424657532</v>
+      </c>
+      <c r="C162">
+        <v>0.01545874326507146</v>
+      </c>
+      <c r="D162">
+        <v>2061400</v>
+      </c>
+      <c r="E162">
+        <v>265.0105551468104</v>
+      </c>
+      <c r="F162">
+        <v>0.02747359438801164</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="2">
+        <v>31632</v>
+      </c>
+      <c r="B163">
+        <v>0.06429589041095889</v>
+      </c>
+      <c r="C163">
+        <v>0.01441761653029516</v>
+      </c>
+      <c r="D163">
+        <v>2061400</v>
+      </c>
+      <c r="E163">
+        <v>265.0260138900754</v>
+      </c>
+      <c r="F163">
+        <v>0.02754316383093304</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="2">
+        <v>31639</v>
+      </c>
+      <c r="B164">
+        <v>0.06433424657534245</v>
+      </c>
+      <c r="C164">
+        <v>0.01568330671307194</v>
+      </c>
+      <c r="D164">
+        <v>2061400</v>
+      </c>
+      <c r="E164">
+        <v>265.0404315066057</v>
+      </c>
+      <c r="F164">
+        <v>0.02760804786018878</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="2">
+        <v>31646</v>
+      </c>
+      <c r="B165">
+        <v>0.06437260273972602</v>
+      </c>
+      <c r="C165">
+        <v>0.014472874855187</v>
+      </c>
+      <c r="D165">
+        <v>2061400</v>
+      </c>
+      <c r="E165">
+        <v>265.0561148133188</v>
+      </c>
+      <c r="F165">
+        <v>0.02767862791268622</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="2">
+        <v>31653</v>
+      </c>
+      <c r="B166">
+        <v>0.06441095890410958</v>
+      </c>
+      <c r="C166">
+        <v>0.01549442370446741</v>
+      </c>
+      <c r="D166">
+        <v>2061400</v>
+      </c>
+      <c r="E166">
+        <v>265.070587688174</v>
+      </c>
+      <c r="F166">
+        <v>0.02774376062262785</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="2">
+        <v>31660</v>
+      </c>
+      <c r="B167">
+        <v>0.06444931506849315</v>
+      </c>
+      <c r="C167">
+        <v>0.01443591461429605</v>
+      </c>
+      <c r="D167">
+        <v>2061400</v>
+      </c>
+      <c r="E167">
+        <v>265.0860821118785</v>
+      </c>
+      <c r="F167">
+        <v>0.02781349063929398</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="2">
+        <v>31667</v>
+      </c>
+      <c r="B168">
+        <v>0.06448767123287671</v>
+      </c>
+      <c r="C168">
+        <v>0.01550820852639845</v>
+      </c>
+      <c r="D168">
+        <v>2061400</v>
+      </c>
+      <c r="E168">
+        <v>265.1005180264928</v>
+      </c>
+      <c r="F168">
+        <v>0.02787845701596238</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="2">
+        <v>31674</v>
+      </c>
+      <c r="B169">
+        <v>0.06452602739726028</v>
+      </c>
+      <c r="C169">
+        <v>0.01476260592266954</v>
+      </c>
+      <c r="D169">
+        <v>2061400</v>
+      </c>
+      <c r="E169">
+        <v>265.1160262350191</v>
+      </c>
+      <c r="F169">
+        <v>0.0279482490688731</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="2">
+        <v>31681</v>
+      </c>
+      <c r="B170">
+        <v>0.06456438356164385</v>
+      </c>
+      <c r="C170">
+        <v>0.01562567014855176</v>
+      </c>
+      <c r="D170">
+        <v>2061400</v>
+      </c>
+      <c r="E170">
+        <v>265.1307888409418</v>
+      </c>
+      <c r="F170">
+        <v>0.02801468566417055</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="2">
+        <v>31688</v>
+      </c>
+      <c r="B171">
+        <v>0.06460273972602741</v>
+      </c>
+      <c r="C171">
+        <v>0.01451209444269352</v>
+      </c>
+      <c r="D171">
+        <v>2061400</v>
+      </c>
+      <c r="E171">
+        <v>265.1464145110904</v>
+      </c>
+      <c r="F171">
+        <v>0.02808500633311948</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="2">
+        <v>31695</v>
+      </c>
+      <c r="B172">
+        <v>0.06464109589041098</v>
+      </c>
+      <c r="C172">
+        <v>0.01574752296141924</v>
+      </c>
+      <c r="D172">
+        <v>2061400</v>
+      </c>
+      <c r="E172">
+        <v>265.1609266055331</v>
+      </c>
+      <c r="F172">
+        <v>0.0281503155441394</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="2">
+        <v>31702</v>
+      </c>
+      <c r="B173">
+        <v>0.06467945205479454</v>
+      </c>
+      <c r="C173">
+        <v>0.01454304546973617</v>
+      </c>
+      <c r="D173">
+        <v>2061400</v>
+      </c>
+      <c r="E173">
+        <v>265.1766741284945</v>
+      </c>
+      <c r="F173">
+        <v>0.02822118459093283</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="2">
+        <v>31709</v>
+      </c>
+      <c r="B174">
+        <v>0.06471780821917811</v>
+      </c>
+      <c r="C174">
+        <v>0.0163532855503945</v>
+      </c>
+      <c r="D174">
+        <v>2061400</v>
+      </c>
+      <c r="E174">
+        <v>265.1912171739642</v>
+      </c>
+      <c r="F174">
+        <v>0.02828663309178189</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="2">
+        <v>31716</v>
+      </c>
+      <c r="B175">
+        <v>0.06475616438356167</v>
+      </c>
+      <c r="C175">
+        <v>0.01472328128272693</v>
+      </c>
+      <c r="D175">
+        <v>2061400</v>
+      </c>
+      <c r="E175">
+        <v>265.2075704595146</v>
+      </c>
+      <c r="F175">
+        <v>0.02836022827000367</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="2">
+        <v>31723</v>
+      </c>
+      <c r="B176">
+        <v>0.06479452054794524</v>
+      </c>
+      <c r="C176">
+        <v>0.01566154863860447</v>
+      </c>
+      <c r="D176">
+        <v>2061400</v>
+      </c>
+      <c r="E176">
+        <v>265.2222937407973</v>
+      </c>
+      <c r="F176">
+        <v>0.02842648789145224</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="2">
+        <v>31730</v>
+      </c>
+      <c r="B177">
+        <v>0.0648328767123288</v>
+      </c>
+      <c r="C177">
+        <v>0.0145633596728203</v>
+      </c>
+      <c r="D177">
+        <v>2061400</v>
+      </c>
+      <c r="E177">
+        <v>265.2379552894359</v>
+      </c>
+      <c r="F177">
+        <v>0.028496970025439</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="2">
+        <v>31737</v>
+      </c>
+      <c r="B178">
+        <v>0.06487123287671237</v>
+      </c>
+      <c r="C178">
+        <v>0.01565412386162279</v>
+      </c>
+      <c r="D178">
+        <v>2061400</v>
+      </c>
+      <c r="E178">
+        <v>265.2525186491088</v>
+      </c>
+      <c r="F178">
+        <v>0.02856250994690139</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="2">
+        <v>31744</v>
+      </c>
+      <c r="B179">
+        <v>0.06490958904109594</v>
+      </c>
+      <c r="C179">
+        <v>0.01457507288705528</v>
+      </c>
+      <c r="D179">
+        <v>2061400</v>
+      </c>
+      <c r="E179">
+        <v>265.2681727729704</v>
+      </c>
+      <c r="F179">
+        <v>0.02863295866694317</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="2">
+        <v>31751</v>
+      </c>
+      <c r="B180">
+        <v>0.0649479452054795</v>
+      </c>
+      <c r="C180">
+        <v>0.01565781055546722</v>
+      </c>
+      <c r="D180">
+        <v>2061400</v>
+      </c>
+      <c r="E180">
+        <v>265.2827478458574</v>
+      </c>
+      <c r="F180">
+        <v>0.02869855130173261</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="2">
+        <v>31758</v>
+      </c>
+      <c r="B181">
+        <v>0.06498630136986307</v>
+      </c>
+      <c r="C181">
+        <v>0.0145929098500801</v>
+      </c>
+      <c r="D181">
+        <v>2061400</v>
+      </c>
+      <c r="E181">
+        <v>265.2984056564129</v>
+      </c>
+      <c r="F181">
+        <v>0.02876901661311249</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="2">
+        <v>31765</v>
+      </c>
+      <c r="B182">
+        <v>0.06502465753424663</v>
+      </c>
+      <c r="C182">
+        <v>0.01570335432074899</v>
+      </c>
+      <c r="D182">
+        <v>2061400</v>
+      </c>
+      <c r="E182">
+        <v>265.312998566263</v>
+      </c>
+      <c r="F182">
+        <v>0.02883468952011828</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="2">
+        <v>31772</v>
+      </c>
+      <c r="B183">
+        <v>0.0650630136986302</v>
+      </c>
+      <c r="C183">
+        <v>0.01461071808978431</v>
+      </c>
+      <c r="D183">
+        <v>2061400</v>
+      </c>
+      <c r="E183">
+        <v>265.3287019205837</v>
+      </c>
+      <c r="F183">
+        <v>0.02890535979346185</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="2">
+        <v>31779</v>
+      </c>
+      <c r="B184">
+        <v>0.06510136986301376</v>
+      </c>
+      <c r="C184">
+        <v>0.01570820180188548</v>
+      </c>
+      <c r="D184">
+        <v>2061400</v>
+      </c>
+      <c r="E184">
+        <v>265.3433126386735</v>
+      </c>
+      <c r="F184">
+        <v>0.02897111284341935</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="2">
+        <v>31786</v>
+      </c>
+      <c r="B185">
+        <v>0.06513972602739733</v>
+      </c>
+      <c r="C185">
+        <v>0.014629236126666</v>
+      </c>
+      <c r="D185">
+        <v>2061400</v>
+      </c>
+      <c r="E185">
+        <v>265.3590208404754</v>
+      </c>
+      <c r="F185">
+        <v>0.02904180493202686</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="2">
+        <v>31793</v>
+      </c>
+      <c r="B186">
+        <v>0.0651780821917809</v>
+      </c>
+      <c r="C186">
+        <v>0.01575195764075943</v>
+      </c>
+      <c r="D186">
+        <v>2061400</v>
+      </c>
+      <c r="E186">
+        <v>265.3736500766021</v>
+      </c>
+      <c r="F186">
+        <v>0.02910764131925761</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="2">
+        <v>31800</v>
+      </c>
+      <c r="B187">
+        <v>0.06521643835616446</v>
+      </c>
+      <c r="C187">
+        <v>0.0146247445127301</v>
+      </c>
+      <c r="D187">
+        <v>2061400</v>
+      </c>
+      <c r="E187">
+        <v>265.3894020342428</v>
+      </c>
+      <c r="F187">
+        <v>0.02917853032357052</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="2">
+        <v>31807</v>
+      </c>
+      <c r="B188">
+        <v>0.06525479452054803</v>
+      </c>
+      <c r="C188">
+        <v>0.01653364620869979</v>
+      </c>
+      <c r="D188">
+        <v>2061400</v>
+      </c>
+      <c r="E188">
+        <v>265.4040267787556</v>
+      </c>
+      <c r="F188">
+        <v>0.02924434649705708</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="2">
+        <v>31814</v>
+      </c>
+      <c r="B189">
+        <v>0.06529315068493159</v>
+      </c>
+      <c r="C189">
+        <v>0.01486246619924714</v>
+      </c>
+      <c r="D189">
+        <v>2061400</v>
+      </c>
+      <c r="E189">
+        <v>265.4205604249643</v>
+      </c>
+      <c r="F189">
+        <v>0.0293187533577234</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="2">
+        <v>31821</v>
+      </c>
+      <c r="B190">
+        <v>0.06533150684931516</v>
+      </c>
+      <c r="C190">
+        <v>0.0158305986360574</v>
+      </c>
+      <c r="D190">
+        <v>2061400</v>
+      </c>
+      <c r="E190">
+        <v>265.4354228911635</v>
+      </c>
+      <c r="F190">
+        <v>0.02938563935719897</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="2">
+        <v>31828</v>
+      </c>
+      <c r="B191">
+        <v>0.06536986301369872</v>
+      </c>
+      <c r="C191">
+        <v>0.01469273114082625</v>
+      </c>
+      <c r="D191">
+        <v>2061400</v>
+      </c>
+      <c r="E191">
+        <v>265.4512534897996</v>
+      </c>
+      <c r="F191">
+        <v>0.02945688227192621</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="2">
+        <v>31835</v>
+      </c>
+      <c r="B192">
+        <v>0.06540821917808229</v>
+      </c>
+      <c r="C192">
+        <v>0.0158186027664442</v>
+      </c>
+      <c r="D192">
+        <v>2061400</v>
+      </c>
+      <c r="E192">
+        <v>265.4659462209404</v>
+      </c>
+      <c r="F192">
+        <v>0.02952300440766095</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="2">
+        <v>31842</v>
+      </c>
+      <c r="B193">
+        <v>0.06544657534246585</v>
+      </c>
+      <c r="C193">
+        <v>0.01438960512791709</v>
+      </c>
+      <c r="D193">
+        <v>2061400</v>
+      </c>
+      <c r="E193">
+        <v>265.4817648237068</v>
+      </c>
+      <c r="F193">
+        <v>0.02959419333701857</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="2">
+        <v>31849</v>
+      </c>
+      <c r="B194">
+        <v>0.06548493150684942</v>
+      </c>
+      <c r="C194">
+        <v>0.01575039529211608</v>
+      </c>
+      <c r="D194">
+        <v>2061400</v>
+      </c>
+      <c r="E194">
+        <v>265.4961544288348</v>
+      </c>
+      <c r="F194">
+        <v>0.0296589513057257</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="2">
+        <v>31856</v>
+      </c>
+      <c r="B195">
+        <v>0.06552328767123299</v>
+      </c>
+      <c r="C195">
+        <v>0.01469715346843259</v>
+      </c>
+      <c r="D195">
+        <v>2061400</v>
+      </c>
+      <c r="E195">
+        <v>265.5119048241269</v>
+      </c>
+      <c r="F195">
+        <v>0.02972983327895442</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="2">
+        <v>31863</v>
+      </c>
+      <c r="B196">
+        <v>0.06556164383561655</v>
+      </c>
+      <c r="C196">
+        <v>0.01586043636075374</v>
+      </c>
+      <c r="D196">
+        <v>2061400</v>
+      </c>
+      <c r="E196">
+        <v>265.5266019775953</v>
+      </c>
+      <c r="F196">
+        <v>0.02979597531662189</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="2">
+        <v>31870</v>
+      </c>
+      <c r="B197">
+        <v>0.06560000000000012</v>
+      </c>
+      <c r="C197">
+        <v>0.01473466139736956</v>
+      </c>
+      <c r="D197">
+        <v>2061400</v>
+      </c>
+      <c r="E197">
+        <v>265.5424624139561</v>
+      </c>
+      <c r="F197">
+        <v>0.02986735251095054</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="2">
+        <v>31877</v>
+      </c>
+      <c r="B198">
+        <v>0.06563835616438368</v>
+      </c>
+      <c r="C198">
+        <v>0.01587870782509526</v>
+      </c>
+      <c r="D198">
+        <v>2061400</v>
+      </c>
+      <c r="E198">
+        <v>265.5571970753534</v>
+      </c>
+      <c r="F198">
+        <v>0.02993366334666813</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="2">
+        <v>31884</v>
+      </c>
+      <c r="B199">
+        <v>0.06567671232876725</v>
+      </c>
+      <c r="C199">
+        <v>0.0112406335116475</v>
+      </c>
+      <c r="D199">
+        <v>2061400</v>
+      </c>
+      <c r="E199">
+        <v>265.5730757831785</v>
+      </c>
+      <c r="F199">
+        <v>0.03000512276861219</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="2">
+        <v>31919</v>
+      </c>
+      <c r="B200">
+        <v>0.06571506849315081</v>
+      </c>
+      <c r="C200">
+        <v>1.237061470791673</v>
+      </c>
+      <c r="D200">
+        <v>2061400</v>
+      </c>
+      <c r="E200">
+        <v>263.9411686841376</v>
+      </c>
+      <c r="F200">
+        <v>0.02266100262681849</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="2">
+        <v>31926</v>
+      </c>
+      <c r="B201">
+        <v>0.06575342465753438</v>
+      </c>
+      <c r="C201">
+        <v>0.3317252283073913</v>
+      </c>
+      <c r="D201">
+        <v>2061400</v>
+      </c>
+      <c r="E201">
+        <v>265.1782301549292</v>
+      </c>
+      <c r="F201">
+        <v>0.0282281872230601</v>
       </c>
     </row>
   </sheetData>
@@ -2849,18 +4438,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="4" width="13.7109375" customWidth="1"/>
+    <col min="4" max="5" width="13.7109375" customWidth="1"/>
+    <col min="5" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -2878,6 +4469,1246 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>31933</v>
+      </c>
+      <c r="B2">
+        <v>0.06579178082191794</v>
+      </c>
+      <c r="C2">
+        <v>0.09812014744841235</v>
+      </c>
+      <c r="D2">
+        <v>2061400</v>
+      </c>
+      <c r="E2">
+        <v>265.5099553832366</v>
+      </c>
+      <c r="F2">
+        <v>0.02972106015203088</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>31940</v>
+      </c>
+      <c r="B3">
+        <v>0.06583013698630151</v>
+      </c>
+      <c r="C3">
+        <v>0.03604458701613567</v>
+      </c>
+      <c r="D3">
+        <v>2061400</v>
+      </c>
+      <c r="E3">
+        <v>265.608075530685</v>
+      </c>
+      <c r="F3">
+        <v>0.03016263317516129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>31947</v>
+      </c>
+      <c r="B4">
+        <v>0.06586849315068508</v>
+      </c>
+      <c r="C4">
+        <v>0.01780546759391655</v>
+      </c>
+      <c r="D4">
+        <v>2061400</v>
+      </c>
+      <c r="E4">
+        <v>265.6441201177012</v>
+      </c>
+      <c r="F4">
+        <v>0.0303248457040873</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>31975</v>
+      </c>
+      <c r="B5">
+        <v>0.06594520547945221</v>
+      </c>
+      <c r="C5">
+        <v>0.3382425113526324</v>
+      </c>
+      <c r="D5">
+        <v>2061400</v>
+      </c>
+      <c r="E5">
+        <v>265.2481677970266</v>
+      </c>
+      <c r="F5">
+        <v>0.02854292967763871</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>31982</v>
+      </c>
+      <c r="B6">
+        <v>0.06598356164383577</v>
+      </c>
+      <c r="C6">
+        <v>0.0989611060832658</v>
+      </c>
+      <c r="D6">
+        <v>2061400</v>
+      </c>
+      <c r="E6">
+        <v>265.5864103083792</v>
+      </c>
+      <c r="F6">
+        <v>0.03006513252968563</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>31989</v>
+      </c>
+      <c r="B7">
+        <v>0.06602191780821934</v>
+      </c>
+      <c r="C7">
+        <v>0.03764702923967889</v>
+      </c>
+      <c r="D7">
+        <v>2061400</v>
+      </c>
+      <c r="E7">
+        <v>265.6853714144625</v>
+      </c>
+      <c r="F7">
+        <v>0.03051049014401758</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>31996</v>
+      </c>
+      <c r="B8">
+        <v>0.0660602739726029</v>
+      </c>
+      <c r="C8">
+        <v>0.02056468694684099</v>
+      </c>
+      <c r="D8">
+        <v>2061400</v>
+      </c>
+      <c r="E8">
+        <v>265.7230184437021</v>
+      </c>
+      <c r="F8">
+        <v>0.0306799141914283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>32003</v>
+      </c>
+      <c r="B9">
+        <v>0.06609863013698647</v>
+      </c>
+      <c r="C9">
+        <v>0.01729827908025072</v>
+      </c>
+      <c r="D9">
+        <v>2061400</v>
+      </c>
+      <c r="E9">
+        <v>265.743583130649</v>
+      </c>
+      <c r="F9">
+        <v>0.03077246206483663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>32010</v>
+      </c>
+      <c r="B10">
+        <v>0.06613698630137003</v>
+      </c>
+      <c r="C10">
+        <v>0.01491998017831975</v>
+      </c>
+      <c r="D10">
+        <v>2061400</v>
+      </c>
+      <c r="E10">
+        <v>265.7608814097292</v>
+      </c>
+      <c r="F10">
+        <v>0.03085031002559759</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>32017</v>
+      </c>
+      <c r="B11">
+        <v>0.0661753424657536</v>
+      </c>
+      <c r="C11">
+        <v>0.01589081119982438</v>
+      </c>
+      <c r="D11">
+        <v>2061400</v>
+      </c>
+      <c r="E11">
+        <v>265.7758013899075</v>
+      </c>
+      <c r="F11">
+        <v>0.0309174548569468</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>32024</v>
+      </c>
+      <c r="B12">
+        <v>0.06621369863013717</v>
+      </c>
+      <c r="C12">
+        <v>0.01541437371338361</v>
+      </c>
+      <c r="D12">
+        <v>2061400</v>
+      </c>
+      <c r="E12">
+        <v>265.7916922011074</v>
+      </c>
+      <c r="F12">
+        <v>0.03098896874806885</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>32031</v>
+      </c>
+      <c r="B13">
+        <v>0.06625205479452073</v>
+      </c>
+      <c r="C13">
+        <v>0.01607196134273181</v>
+      </c>
+      <c r="D13">
+        <v>2061400</v>
+      </c>
+      <c r="E13">
+        <v>265.8071065748208</v>
+      </c>
+      <c r="F13">
+        <v>0.03105833851337485</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>32038</v>
+      </c>
+      <c r="B14">
+        <v>0.0662904109589043</v>
+      </c>
+      <c r="C14">
+        <v>0.01466668921773362</v>
+      </c>
+      <c r="D14">
+        <v>2061400</v>
+      </c>
+      <c r="E14">
+        <v>265.8231785361635</v>
+      </c>
+      <c r="F14">
+        <v>0.03113066763988235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
+        <v>32045</v>
+      </c>
+      <c r="B15">
+        <v>0.06632876712328786</v>
+      </c>
+      <c r="C15">
+        <v>0.01590858150768781</v>
+      </c>
+      <c r="D15">
+        <v>2061400</v>
+      </c>
+      <c r="E15">
+        <v>265.8378452253812</v>
+      </c>
+      <c r="F15">
+        <v>0.0311966725783747</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
+        <v>32052</v>
+      </c>
+      <c r="B16">
+        <v>0.06636712328767143</v>
+      </c>
+      <c r="C16">
+        <v>0.01466077356849382</v>
+      </c>
+      <c r="D16">
+        <v>2061400</v>
+      </c>
+      <c r="E16">
+        <v>265.8537538068889</v>
+      </c>
+      <c r="F16">
+        <v>0.03126826644174265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
+        <v>32059</v>
+      </c>
+      <c r="B17">
+        <v>0.06640547945205499</v>
+      </c>
+      <c r="C17">
+        <v>0.01590410417861676</v>
+      </c>
+      <c r="D17">
+        <v>2061400</v>
+      </c>
+      <c r="E17">
+        <v>265.8684145804574</v>
+      </c>
+      <c r="F17">
+        <v>0.0313342447578626</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
+        <v>32066</v>
+      </c>
+      <c r="B18">
+        <v>0.06644383561643856</v>
+      </c>
+      <c r="C18">
+        <v>0.01436727420718853</v>
+      </c>
+      <c r="D18">
+        <v>2061400</v>
+      </c>
+      <c r="E18">
+        <v>265.884318684636</v>
+      </c>
+      <c r="F18">
+        <v>0.03140581847177316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2">
+        <v>32073</v>
+      </c>
+      <c r="B19">
+        <v>0.06648219178082213</v>
+      </c>
+      <c r="C19">
+        <v>0.01588070383672857</v>
+      </c>
+      <c r="D19">
+        <v>2061400</v>
+      </c>
+      <c r="E19">
+        <v>265.8986859588432</v>
+      </c>
+      <c r="F19">
+        <v>0.03147047594397214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2">
+        <v>32080</v>
+      </c>
+      <c r="B20">
+        <v>0.06652054794520569</v>
+      </c>
+      <c r="C20">
+        <v>0.01549982814276518</v>
+      </c>
+      <c r="D20">
+        <v>2061400</v>
+      </c>
+      <c r="E20">
+        <v>265.9145666626799</v>
+      </c>
+      <c r="F20">
+        <v>0.03154194434862682</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2">
+        <v>32087</v>
+      </c>
+      <c r="B21">
+        <v>0.06655890410958926</v>
+      </c>
+      <c r="C21">
+        <v>0.01619955956232388</v>
+      </c>
+      <c r="D21">
+        <v>2061400</v>
+      </c>
+      <c r="E21">
+        <v>265.9300664908227</v>
+      </c>
+      <c r="F21">
+        <v>0.03161169868704752</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2">
+        <v>32094</v>
+      </c>
+      <c r="B22">
+        <v>0.06659726027397282</v>
+      </c>
+      <c r="C22">
+        <v>0.01483155107428047</v>
+      </c>
+      <c r="D22">
+        <v>2061400</v>
+      </c>
+      <c r="E22">
+        <v>265.946266050385</v>
+      </c>
+      <c r="F22">
+        <v>0.03168460204762463</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2">
+        <v>32101</v>
+      </c>
+      <c r="B23">
+        <v>0.06663561643835639</v>
+      </c>
+      <c r="C23">
+        <v>0.01607051311168561</v>
+      </c>
+      <c r="D23">
+        <v>2061400</v>
+      </c>
+      <c r="E23">
+        <v>265.9610976014593</v>
+      </c>
+      <c r="F23">
+        <v>0.03175134891884218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2">
+        <v>32108</v>
+      </c>
+      <c r="B24">
+        <v>0.06667397260273995</v>
+      </c>
+      <c r="C24">
+        <v>0.01479822667727149</v>
+      </c>
+      <c r="D24">
+        <v>2061400</v>
+      </c>
+      <c r="E24">
+        <v>265.977168114571</v>
+      </c>
+      <c r="F24">
+        <v>0.03182367152783268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2">
+        <v>32115</v>
+      </c>
+      <c r="B25">
+        <v>0.06671232876712352</v>
+      </c>
+      <c r="C25">
+        <v>0.01639477205594631</v>
+      </c>
+      <c r="D25">
+        <v>2061400</v>
+      </c>
+      <c r="E25">
+        <v>265.9919663412483</v>
+      </c>
+      <c r="F25">
+        <v>0.0318902684282733</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2">
+        <v>32122</v>
+      </c>
+      <c r="B26">
+        <v>0.06675068493150708</v>
+      </c>
+      <c r="C26">
+        <v>0.01491175692456181</v>
+      </c>
+      <c r="D26">
+        <v>2061400</v>
+      </c>
+      <c r="E26">
+        <v>266.0083611133042</v>
+      </c>
+      <c r="F26">
+        <v>0.03196405030945207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2">
+        <v>32129</v>
+      </c>
+      <c r="B27">
+        <v>0.06678904109589065</v>
+      </c>
+      <c r="C27">
+        <v>0.01611650758229644</v>
+      </c>
+      <c r="D27">
+        <v>2061400</v>
+      </c>
+      <c r="E27">
+        <v>266.0232728702288</v>
+      </c>
+      <c r="F27">
+        <v>0.03203115813344744</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2">
+        <v>32136</v>
+      </c>
+      <c r="B28">
+        <v>0.06682739726027422</v>
+      </c>
+      <c r="C28">
+        <v>0.01560037108686174</v>
+      </c>
+      <c r="D28">
+        <v>2061400</v>
+      </c>
+      <c r="E28">
+        <v>266.0393893778111</v>
+      </c>
+      <c r="F28">
+        <v>0.0321036877327243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2">
+        <v>32143</v>
+      </c>
+      <c r="B29">
+        <v>0.06686575342465778</v>
+      </c>
+      <c r="C29">
+        <v>0.0163272337398439</v>
+      </c>
+      <c r="D29">
+        <v>2061400</v>
+      </c>
+      <c r="E29">
+        <v>266.0549897488979</v>
+      </c>
+      <c r="F29">
+        <v>0.03217389454755207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2">
+        <v>32150</v>
+      </c>
+      <c r="B30">
+        <v>0.06690410958904135</v>
+      </c>
+      <c r="C30">
+        <v>0.01462444627645709</v>
+      </c>
+      <c r="D30">
+        <v>2061400</v>
+      </c>
+      <c r="E30">
+        <v>266.0713169826378</v>
+      </c>
+      <c r="F30">
+        <v>0.03224737248403451</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2">
+        <v>32157</v>
+      </c>
+      <c r="B31">
+        <v>0.06694246575342491</v>
+      </c>
+      <c r="C31">
+        <v>0.01609349888667566</v>
+      </c>
+      <c r="D31">
+        <v>2061400</v>
+      </c>
+      <c r="E31">
+        <v>266.0859414289142</v>
+      </c>
+      <c r="F31">
+        <v>0.03231318731535946</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2">
+        <v>32164</v>
+      </c>
+      <c r="B32">
+        <v>0.06698082191780848</v>
+      </c>
+      <c r="C32">
+        <v>0.01490705955711746</v>
+      </c>
+      <c r="D32">
+        <v>2061400</v>
+      </c>
+      <c r="E32">
+        <v>266.1020349278009</v>
+      </c>
+      <c r="F32">
+        <v>0.03238561336791791</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2">
+        <v>32171</v>
+      </c>
+      <c r="B33">
+        <v>0.06701917808219204</v>
+      </c>
+      <c r="C33">
+        <v>0.01621170531620919</v>
+      </c>
+      <c r="D33">
+        <v>2061400</v>
+      </c>
+      <c r="E33">
+        <v>266.116941987358</v>
+      </c>
+      <c r="F33">
+        <v>0.03245270005221057</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2">
+        <v>32178</v>
+      </c>
+      <c r="B34">
+        <v>0.06705753424657561</v>
+      </c>
+      <c r="C34">
+        <v>0.01522690929436976</v>
+      </c>
+      <c r="D34">
+        <v>2061400</v>
+      </c>
+      <c r="E34">
+        <v>266.1331536926742</v>
+      </c>
+      <c r="F34">
+        <v>0.03252565807268593</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2">
+        <v>32185</v>
+      </c>
+      <c r="B35">
+        <v>0.06709589041095917</v>
+      </c>
+      <c r="C35">
+        <v>0.01610635998713406</v>
+      </c>
+      <c r="D35">
+        <v>2061400</v>
+      </c>
+      <c r="E35">
+        <v>266.1483806019686</v>
+      </c>
+      <c r="F35">
+        <v>0.03259418418628127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2">
+        <v>32192</v>
+      </c>
+      <c r="B36">
+        <v>0.06713424657534274</v>
+      </c>
+      <c r="C36">
+        <v>0.01540621677258969</v>
+      </c>
+      <c r="D36">
+        <v>2061400</v>
+      </c>
+      <c r="E36">
+        <v>266.1644869619557</v>
+      </c>
+      <c r="F36">
+        <v>0.03266666811803334</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2">
+        <v>32199</v>
+      </c>
+      <c r="B37">
+        <v>0.06717260273972631</v>
+      </c>
+      <c r="C37">
+        <v>0.01641415606513874</v>
+      </c>
+      <c r="D37">
+        <v>2061400</v>
+      </c>
+      <c r="E37">
+        <v>266.1798931787283</v>
+      </c>
+      <c r="F37">
+        <v>0.03273600117441548</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2">
+        <v>32206</v>
+      </c>
+      <c r="B38">
+        <v>0.06721095890410987</v>
+      </c>
+      <c r="C38">
+        <v>0.01145874246140011</v>
+      </c>
+      <c r="D38">
+        <v>2061400</v>
+      </c>
+      <c r="E38">
+        <v>266.1963073347935</v>
+      </c>
+      <c r="F38">
+        <v>0.03280987029002851</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2">
+        <v>32283</v>
+      </c>
+      <c r="B39">
+        <v>0.0674027397260277</v>
+      </c>
+      <c r="C39">
+        <v>0.08741444595477788</v>
+      </c>
+      <c r="D39">
+        <v>2061400</v>
+      </c>
+      <c r="E39">
+        <v>265.2996355066183</v>
+      </c>
+      <c r="F39">
+        <v>0.02877455134463614</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2">
+        <v>32290</v>
+      </c>
+      <c r="B40">
+        <v>0.06744109589041127</v>
+      </c>
+      <c r="C40">
+        <v>0.03213251149736607</v>
+      </c>
+      <c r="D40">
+        <v>2061400</v>
+      </c>
+      <c r="E40">
+        <v>265.3870499525731</v>
+      </c>
+      <c r="F40">
+        <v>0.02916794518034992</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2">
+        <v>32297</v>
+      </c>
+      <c r="B41">
+        <v>0.06747945205479483</v>
+      </c>
+      <c r="C41">
+        <v>0.01598727522753052</v>
+      </c>
+      <c r="D41">
+        <v>2061400</v>
+      </c>
+      <c r="E41">
+        <v>265.4191824640704</v>
+      </c>
+      <c r="F41">
+        <v>0.02931255207925549</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2">
+        <v>32304</v>
+      </c>
+      <c r="B42">
+        <v>0.0675178082191784</v>
+      </c>
+      <c r="C42">
+        <v>0.01317945865503134</v>
+      </c>
+      <c r="D42">
+        <v>2061400</v>
+      </c>
+      <c r="E42">
+        <v>265.435169739298</v>
+      </c>
+      <c r="F42">
+        <v>0.02938450009031552</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2">
+        <v>32311</v>
+      </c>
+      <c r="B43">
+        <v>0.06755616438356196</v>
+      </c>
+      <c r="C43">
+        <v>0.01059102346630425</v>
+      </c>
+      <c r="D43">
+        <v>2061400</v>
+      </c>
+      <c r="E43">
+        <v>265.448349197953</v>
+      </c>
+      <c r="F43">
+        <v>0.02944381200079339</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2">
+        <v>32374</v>
+      </c>
+      <c r="B44">
+        <v>0.06767123287671266</v>
+      </c>
+      <c r="C44">
+        <v>0.08974766145115609</v>
+      </c>
+      <c r="D44">
+        <v>2061400</v>
+      </c>
+      <c r="E44">
+        <v>265.378966977884</v>
+      </c>
+      <c r="F44">
+        <v>0.02913156912851808</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2">
+        <v>32381</v>
+      </c>
+      <c r="B45">
+        <v>0.06770958904109622</v>
+      </c>
+      <c r="C45">
+        <v>0.03275913298011801</v>
+      </c>
+      <c r="D45">
+        <v>2061400</v>
+      </c>
+      <c r="E45">
+        <v>265.4687146393352</v>
+      </c>
+      <c r="F45">
+        <v>0.02953546320345018</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2">
+        <v>32388</v>
+      </c>
+      <c r="B46">
+        <v>0.06774794520547979</v>
+      </c>
+      <c r="C46">
+        <v>0.01604575019143795</v>
+      </c>
+      <c r="D46">
+        <v>2061400</v>
+      </c>
+      <c r="E46">
+        <v>265.5014737723153</v>
+      </c>
+      <c r="F46">
+        <v>0.02968289010568527</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2">
+        <v>32395</v>
+      </c>
+      <c r="B47">
+        <v>0.06778630136986336</v>
+      </c>
+      <c r="C47">
+        <v>0.01248097722270813</v>
+      </c>
+      <c r="D47">
+        <v>2061400</v>
+      </c>
+      <c r="E47">
+        <v>265.5175195225067</v>
+      </c>
+      <c r="F47">
+        <v>0.02975510127336776</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2">
+        <v>32437</v>
+      </c>
+      <c r="B48">
+        <v>0.06790136986301405</v>
+      </c>
+      <c r="C48">
+        <v>0.09161880734484384</v>
+      </c>
+      <c r="D48">
+        <v>2061400</v>
+      </c>
+      <c r="E48">
+        <v>265.4475188075193</v>
+      </c>
+      <c r="F48">
+        <v>0.02944007496998217</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2">
+        <v>32444</v>
+      </c>
+      <c r="B49">
+        <v>0.06793972602739762</v>
+      </c>
+      <c r="C49">
+        <v>0.03159764667691434</v>
+      </c>
+      <c r="D49">
+        <v>2061400</v>
+      </c>
+      <c r="E49">
+        <v>265.5391376148641</v>
+      </c>
+      <c r="F49">
+        <v>0.02985238981853207</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2">
+        <v>32451</v>
+      </c>
+      <c r="B50">
+        <v>0.06797808219178118</v>
+      </c>
+      <c r="C50">
+        <v>0.01778057094929864</v>
+      </c>
+      <c r="D50">
+        <v>2061400</v>
+      </c>
+      <c r="E50">
+        <v>265.570735261541</v>
+      </c>
+      <c r="F50">
+        <v>0.02999458964934933</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2">
+        <v>32458</v>
+      </c>
+      <c r="B51">
+        <v>0.06801643835616475</v>
+      </c>
+      <c r="C51">
+        <v>0.01217363924831716</v>
+      </c>
+      <c r="D51">
+        <v>2061400</v>
+      </c>
+      <c r="E51">
+        <v>265.5885158324903</v>
+      </c>
+      <c r="F51">
+        <v>0.0300746080825787</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2">
+        <v>32465</v>
+      </c>
+      <c r="B52">
+        <v>0.06805479452054831</v>
+      </c>
+      <c r="C52">
+        <v>0.01221450946673031</v>
+      </c>
+      <c r="D52">
+        <v>2061400</v>
+      </c>
+      <c r="E52">
+        <v>265.6006894717386</v>
+      </c>
+      <c r="F52">
+        <v>0.03012939347401138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2">
+        <v>32472</v>
+      </c>
+      <c r="B53">
+        <v>0.06809315068493188</v>
+      </c>
+      <c r="C53">
+        <v>0.01076624519566849</v>
+      </c>
+      <c r="D53">
+        <v>2061400</v>
+      </c>
+      <c r="E53">
+        <v>265.6129039812054</v>
+      </c>
+      <c r="F53">
+        <v>0.03018436279490547</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2">
+        <v>32479</v>
+      </c>
+      <c r="B54">
+        <v>0.06813150684931545</v>
+      </c>
+      <c r="C54">
+        <v>0.01193097616692285</v>
+      </c>
+      <c r="D54">
+        <v>2061400</v>
+      </c>
+      <c r="E54">
+        <v>265.623670226401</v>
+      </c>
+      <c r="F54">
+        <v>0.03023281444894844</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2">
+        <v>32486</v>
+      </c>
+      <c r="B55">
+        <v>0.06816986301369901</v>
+      </c>
+      <c r="C55">
+        <v>0.01072657528743548</v>
+      </c>
+      <c r="D55">
+        <v>2061400</v>
+      </c>
+      <c r="E55">
+        <v>265.635601202568</v>
+      </c>
+      <c r="F55">
+        <v>0.0302865077764855</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2">
+        <v>32493</v>
+      </c>
+      <c r="B56">
+        <v>0.06820821917808258</v>
+      </c>
+      <c r="C56">
+        <v>0.01194902206520965</v>
+      </c>
+      <c r="D56">
+        <v>2061400</v>
+      </c>
+      <c r="E56">
+        <v>265.6463277778554</v>
+      </c>
+      <c r="F56">
+        <v>0.03033478090285846</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="2">
+        <v>32500</v>
+      </c>
+      <c r="B57">
+        <v>0.06824657534246614</v>
+      </c>
+      <c r="C57">
+        <v>0.01072546466355107</v>
+      </c>
+      <c r="D57">
+        <v>2061400</v>
+      </c>
+      <c r="E57">
+        <v>265.6582767999206</v>
+      </c>
+      <c r="F57">
+        <v>0.03038855544288928</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="2">
+        <v>32507</v>
+      </c>
+      <c r="B58">
+        <v>0.06828493150684971</v>
+      </c>
+      <c r="C58">
+        <v>0.01196348037149164</v>
+      </c>
+      <c r="D58">
+        <v>2061400</v>
+      </c>
+      <c r="E58">
+        <v>265.6690022645842</v>
+      </c>
+      <c r="F58">
+        <v>0.0304368235710885</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="2">
+        <v>32514</v>
+      </c>
+      <c r="B59">
+        <v>0.06832328767123327</v>
+      </c>
+      <c r="C59">
+        <v>0.01075163000211887</v>
+      </c>
+      <c r="D59">
+        <v>2061400</v>
+      </c>
+      <c r="E59">
+        <v>265.6809657449556</v>
+      </c>
+      <c r="F59">
+        <v>0.03049066317826579</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="2">
+        <v>32521</v>
+      </c>
+      <c r="B60">
+        <v>0.06836164383561684</v>
+      </c>
+      <c r="C60">
+        <v>0.01197922140011087</v>
+      </c>
+      <c r="D60">
+        <v>2061400</v>
+      </c>
+      <c r="E60">
+        <v>265.6917173749578</v>
+      </c>
+      <c r="F60">
+        <v>0.03053904905911767</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="2">
+        <v>32528</v>
+      </c>
+      <c r="B61">
+        <v>0.0684000000000004</v>
+      </c>
+      <c r="C61">
+        <v>0.0107803688237027</v>
+      </c>
+      <c r="D61">
+        <v>2061400</v>
+      </c>
+      <c r="E61">
+        <v>265.7036965963579</v>
+      </c>
+      <c r="F61">
+        <v>0.03059295950611514</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="2">
+        <v>32535</v>
+      </c>
+      <c r="B62">
+        <v>0.06843835616438397</v>
+      </c>
+      <c r="C62">
+        <v>0.01198629280747809</v>
+      </c>
+      <c r="D62">
+        <v>2061400</v>
+      </c>
+      <c r="E62">
+        <v>265.7144769651816</v>
+      </c>
+      <c r="F62">
+        <v>0.03064147472114217</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="2">
+        <v>32542</v>
+      </c>
+      <c r="B63">
+        <v>0.06847671232876754</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>2061400</v>
+      </c>
+      <c r="E63">
+        <v>265.7264632579891</v>
+      </c>
+      <c r="F63">
+        <v>0.03069541699180485</v>
       </c>
     </row>
   </sheetData>
@@ -2886,18 +5717,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="4" width="13.7109375" customWidth="1"/>
+    <col min="4" max="5" width="13.7109375" customWidth="1"/>
+    <col min="5" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -2923,18 +5756,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="4" width="13.7109375" customWidth="1"/>
+    <col min="4" max="5" width="13.7109375" customWidth="1"/>
+    <col min="5" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -2960,18 +5795,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="4" width="13.7109375" customWidth="1"/>
+    <col min="4" max="5" width="13.7109375" customWidth="1"/>
+    <col min="5" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -2997,18 +5834,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="4" width="13.7109375" customWidth="1"/>
+    <col min="4" max="5" width="13.7109375" customWidth="1"/>
+    <col min="5" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>

--- a/FACModel/Modelled RIHT2.xlsx
+++ b/FACModel/Modelled RIHT2.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -430,6 +430,266 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>30414</v>
+      </c>
+      <c r="B2">
+        <v>0.03507671232876713</v>
+      </c>
+      <c r="C2">
+        <v>0.09775300847218205</v>
+      </c>
+      <c r="D2">
+        <v>2061400</v>
+      </c>
+      <c r="E2">
+        <v>261.6055012161822</v>
+      </c>
+      <c r="F2">
+        <v>0.01214972872769548</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>30421</v>
+      </c>
+      <c r="B3">
+        <v>0.03515342465753425</v>
+      </c>
+      <c r="C3">
+        <v>0.02691860832419479</v>
+      </c>
+      <c r="D3">
+        <v>2061400</v>
+      </c>
+      <c r="E3">
+        <v>261.7032542246544</v>
+      </c>
+      <c r="F3">
+        <v>0.01258964950435209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>30428</v>
+      </c>
+      <c r="B4">
+        <v>0.03523013698630138</v>
+      </c>
+      <c r="C4">
+        <v>0.01348364722775841</v>
+      </c>
+      <c r="D4">
+        <v>2061400</v>
+      </c>
+      <c r="E4">
+        <v>261.7301728329786</v>
+      </c>
+      <c r="F4">
+        <v>0.01271079211945501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>30435</v>
+      </c>
+      <c r="B5">
+        <v>0.0353068493150685</v>
+      </c>
+      <c r="C5">
+        <v>0.01006806763882651</v>
+      </c>
+      <c r="D5">
+        <v>2061400</v>
+      </c>
+      <c r="E5">
+        <v>261.7436564802064</v>
+      </c>
+      <c r="F5">
+        <v>0.01277147297883006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>30442</v>
+      </c>
+      <c r="B6">
+        <v>0.03538356164383562</v>
+      </c>
+      <c r="C6">
+        <v>0.005773520527213805</v>
+      </c>
+      <c r="D6">
+        <v>2061400</v>
+      </c>
+      <c r="E6">
+        <v>261.7537245478452</v>
+      </c>
+      <c r="F6">
+        <v>0.01281678260361123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>30477</v>
+      </c>
+      <c r="B7">
+        <v>0.05007671232876713</v>
+      </c>
+      <c r="C7">
+        <v>0.5486457479805722</v>
+      </c>
+      <c r="D7">
+        <v>2061400</v>
+      </c>
+      <c r="E7">
+        <v>261.7772524173773</v>
+      </c>
+      <c r="F7">
+        <v>0.01292266577589849</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>30484</v>
+      </c>
+      <c r="B8">
+        <v>0.05015342465753425</v>
+      </c>
+      <c r="C8">
+        <v>0.1177744491453723</v>
+      </c>
+      <c r="D8">
+        <v>2061400</v>
+      </c>
+      <c r="E8">
+        <v>262.3258981653579</v>
+      </c>
+      <c r="F8">
+        <v>0.01539175258287509</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>30491</v>
+      </c>
+      <c r="B9">
+        <v>0.05023013698630138</v>
+      </c>
+      <c r="C9">
+        <v>0.03045935413138068</v>
+      </c>
+      <c r="D9">
+        <v>2061400</v>
+      </c>
+      <c r="E9">
+        <v>262.4436726145033</v>
+      </c>
+      <c r="F9">
+        <v>0.01592177644554819</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>30498</v>
+      </c>
+      <c r="B10">
+        <v>0.0503068493150685</v>
+      </c>
+      <c r="C10">
+        <v>0.01318822766370431</v>
+      </c>
+      <c r="D10">
+        <v>2061400</v>
+      </c>
+      <c r="E10">
+        <v>262.4741319686347</v>
+      </c>
+      <c r="F10">
+        <v>0.01605885358450647</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>30505</v>
+      </c>
+      <c r="B11">
+        <v>0.05038356164383562</v>
+      </c>
+      <c r="C11">
+        <v>0.01121036431754874</v>
+      </c>
+      <c r="D11">
+        <v>2061400</v>
+      </c>
+      <c r="E11">
+        <v>262.4873201962984</v>
+      </c>
+      <c r="F11">
+        <v>0.01611820495841521</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>30512</v>
+      </c>
+      <c r="B12">
+        <v>0.05046027397260275</v>
+      </c>
+      <c r="C12">
+        <v>0.01019256660379142</v>
+      </c>
+      <c r="D12">
+        <v>2061400</v>
+      </c>
+      <c r="E12">
+        <v>262.4985305606159</v>
+      </c>
+      <c r="F12">
+        <v>0.01616865529497527</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>30519</v>
+      </c>
+      <c r="B13">
+        <v>0.05053698630136987</v>
+      </c>
+      <c r="C13">
+        <v>0.01017217838966644</v>
+      </c>
+      <c r="D13">
+        <v>2061400</v>
+      </c>
+      <c r="E13">
+        <v>262.5087231272197</v>
+      </c>
+      <c r="F13">
+        <v>0.01621452520615798</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>30526</v>
+      </c>
+      <c r="B14">
+        <v>0.050613698630137</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>2061400</v>
+      </c>
+      <c r="E14">
+        <v>262.5188953056094</v>
+      </c>
+      <c r="F14">
+        <v>0.01626030336365317</v>
       </c>
     </row>
   </sheetData>
@@ -478,7 +738,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -508,26 +768,6 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2">
-        <v>34796</v>
-      </c>
-      <c r="B2">
-        <v>0.0792164383561659</v>
-      </c>
-      <c r="C2">
-        <v>-1.585119896638389</v>
-      </c>
-      <c r="D2">
-        <v>2061400</v>
-      </c>
-      <c r="E2">
-        <v>267.1615689938457</v>
-      </c>
-      <c r="F2">
-        <v>0.0371538660950056</v>
       </c>
     </row>
   </sheetData>

--- a/FACModel/Modelled RIHT2.xlsx
+++ b/FACModel/Modelled RIHT2.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,256 +440,16 @@
         <v>0.03507671232876713</v>
       </c>
       <c r="C2">
-        <v>0.09775300847218205</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>2061400</v>
       </c>
       <c r="E2">
-        <v>261.6055012161822</v>
+        <v>261.6063956874585</v>
       </c>
       <c r="F2">
-        <v>0.01214972872769548</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2">
-        <v>30421</v>
-      </c>
-      <c r="B3">
-        <v>0.03515342465753425</v>
-      </c>
-      <c r="C3">
-        <v>0.02691860832419479</v>
-      </c>
-      <c r="D3">
-        <v>2061400</v>
-      </c>
-      <c r="E3">
-        <v>261.7032542246544</v>
-      </c>
-      <c r="F3">
-        <v>0.01258964950435209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
-        <v>30428</v>
-      </c>
-      <c r="B4">
-        <v>0.03523013698630138</v>
-      </c>
-      <c r="C4">
-        <v>0.01348364722775841</v>
-      </c>
-      <c r="D4">
-        <v>2061400</v>
-      </c>
-      <c r="E4">
-        <v>261.7301728329786</v>
-      </c>
-      <c r="F4">
-        <v>0.01271079211945501</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2">
-        <v>30435</v>
-      </c>
-      <c r="B5">
-        <v>0.0353068493150685</v>
-      </c>
-      <c r="C5">
-        <v>0.01006806763882651</v>
-      </c>
-      <c r="D5">
-        <v>2061400</v>
-      </c>
-      <c r="E5">
-        <v>261.7436564802064</v>
-      </c>
-      <c r="F5">
-        <v>0.01277147297883006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2">
-        <v>30442</v>
-      </c>
-      <c r="B6">
-        <v>0.03538356164383562</v>
-      </c>
-      <c r="C6">
-        <v>0.005773520527213805</v>
-      </c>
-      <c r="D6">
-        <v>2061400</v>
-      </c>
-      <c r="E6">
-        <v>261.7537245478452</v>
-      </c>
-      <c r="F6">
-        <v>0.01281678260361123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2">
-        <v>30477</v>
-      </c>
-      <c r="B7">
-        <v>0.05007671232876713</v>
-      </c>
-      <c r="C7">
-        <v>0.5486457479805722</v>
-      </c>
-      <c r="D7">
-        <v>2061400</v>
-      </c>
-      <c r="E7">
-        <v>261.7772524173773</v>
-      </c>
-      <c r="F7">
-        <v>0.01292266577589849</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2">
-        <v>30484</v>
-      </c>
-      <c r="B8">
-        <v>0.05015342465753425</v>
-      </c>
-      <c r="C8">
-        <v>0.1177744491453723</v>
-      </c>
-      <c r="D8">
-        <v>2061400</v>
-      </c>
-      <c r="E8">
-        <v>262.3258981653579</v>
-      </c>
-      <c r="F8">
-        <v>0.01539175258287509</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2">
-        <v>30491</v>
-      </c>
-      <c r="B9">
-        <v>0.05023013698630138</v>
-      </c>
-      <c r="C9">
-        <v>0.03045935413138068</v>
-      </c>
-      <c r="D9">
-        <v>2061400</v>
-      </c>
-      <c r="E9">
-        <v>262.4436726145033</v>
-      </c>
-      <c r="F9">
-        <v>0.01592177644554819</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2">
-        <v>30498</v>
-      </c>
-      <c r="B10">
-        <v>0.0503068493150685</v>
-      </c>
-      <c r="C10">
-        <v>0.01318822766370431</v>
-      </c>
-      <c r="D10">
-        <v>2061400</v>
-      </c>
-      <c r="E10">
-        <v>262.4741319686347</v>
-      </c>
-      <c r="F10">
-        <v>0.01605885358450647</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2">
-        <v>30505</v>
-      </c>
-      <c r="B11">
-        <v>0.05038356164383562</v>
-      </c>
-      <c r="C11">
-        <v>0.01121036431754874</v>
-      </c>
-      <c r="D11">
-        <v>2061400</v>
-      </c>
-      <c r="E11">
-        <v>262.4873201962984</v>
-      </c>
-      <c r="F11">
-        <v>0.01611820495841521</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2">
-        <v>30512</v>
-      </c>
-      <c r="B12">
-        <v>0.05046027397260275</v>
-      </c>
-      <c r="C12">
-        <v>0.01019256660379142</v>
-      </c>
-      <c r="D12">
-        <v>2061400</v>
-      </c>
-      <c r="E12">
-        <v>262.4985305606159</v>
-      </c>
-      <c r="F12">
-        <v>0.01616865529497527</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2">
-        <v>30519</v>
-      </c>
-      <c r="B13">
-        <v>0.05053698630136987</v>
-      </c>
-      <c r="C13">
-        <v>0.01017217838966644</v>
-      </c>
-      <c r="D13">
-        <v>2061400</v>
-      </c>
-      <c r="E13">
-        <v>262.5087231272197</v>
-      </c>
-      <c r="F13">
-        <v>0.01621452520615798</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2">
-        <v>30526</v>
-      </c>
-      <c r="B14">
-        <v>0.050613698630137</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>2061400</v>
-      </c>
-      <c r="E14">
-        <v>262.5188953056094</v>
-      </c>
-      <c r="F14">
-        <v>0.01626030336365317</v>
+        <v>0.01215375414343174</v>
       </c>
     </row>
   </sheetData>

--- a/FACModel/Modelled RIHT2.xlsx
+++ b/FACModel/Modelled RIHT2.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -437,19 +437,899 @@
         <v>30414</v>
       </c>
       <c r="B2">
-        <v>0.03507671232876713</v>
+        <v>0.03509589041095891</v>
       </c>
       <c r="C2">
+        <v>0.09859975109270636</v>
+      </c>
+      <c r="D2">
+        <v>2061400</v>
+      </c>
+      <c r="E2">
+        <v>261.6060874113738</v>
+      </c>
+      <c r="F2">
+        <v>0.01215236679938224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>30421</v>
+      </c>
+      <c r="B3">
+        <v>0.03519178082191782</v>
+      </c>
+      <c r="C3">
+        <v>0.02793026466270021</v>
+      </c>
+      <c r="D3">
+        <v>2061400</v>
+      </c>
+      <c r="E3">
+        <v>261.7046871624665</v>
+      </c>
+      <c r="F3">
+        <v>0.01259609819708331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>30428</v>
+      </c>
+      <c r="B4">
+        <v>0.03528767123287672</v>
+      </c>
+      <c r="C4">
+        <v>0.01466782402314948</v>
+      </c>
+      <c r="D4">
+        <v>2061400</v>
+      </c>
+      <c r="E4">
+        <v>261.7326174271292</v>
+      </c>
+      <c r="F4">
+        <v>0.01272179359934941</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>30435</v>
+      </c>
+      <c r="B5">
+        <v>0.03538356164383563</v>
+      </c>
+      <c r="C5">
+        <v>0.01096094085903587</v>
+      </c>
+      <c r="D5">
+        <v>2061400</v>
+      </c>
+      <c r="E5">
+        <v>261.7472852511523</v>
+      </c>
+      <c r="F5">
+        <v>0.01278780364484049</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>30442</v>
+      </c>
+      <c r="B6">
+        <v>0.03547945205479454</v>
+      </c>
+      <c r="C6">
+        <v>0.007776986594194568</v>
+      </c>
+      <c r="D6">
+        <v>2061400</v>
+      </c>
+      <c r="E6">
+        <v>261.7582461920114</v>
+      </c>
+      <c r="F6">
+        <v>0.01283713149357829</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>30477</v>
+      </c>
+      <c r="B7">
+        <v>0.05009589041095891</v>
+      </c>
+      <c r="C7">
+        <v>0.5501010033279954</v>
+      </c>
+      <c r="D7">
+        <v>2061400</v>
+      </c>
+      <c r="E7">
+        <v>261.7791361342943</v>
+      </c>
+      <c r="F7">
+        <v>0.01293114312326659</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>30484</v>
+      </c>
+      <c r="B8">
+        <v>0.05019178082191782</v>
+      </c>
+      <c r="C8">
+        <v>0.1194152344637587</v>
+      </c>
+      <c r="D8">
+        <v>2061400</v>
+      </c>
+      <c r="E8">
+        <v>262.3292371376223</v>
+      </c>
+      <c r="F8">
+        <v>0.01540677905924382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>30491</v>
+      </c>
+      <c r="B9">
+        <v>0.05028767123287672</v>
+      </c>
+      <c r="C9">
+        <v>0.03169590001652978</v>
+      </c>
+      <c r="D9">
+        <v>2061400</v>
+      </c>
+      <c r="E9">
+        <v>262.448652372086</v>
+      </c>
+      <c r="F9">
+        <v>0.01594418699697362</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>30498</v>
+      </c>
+      <c r="B10">
+        <v>0.05038356164383563</v>
+      </c>
+      <c r="C10">
+        <v>0.01593344872708258</v>
+      </c>
+      <c r="D10">
+        <v>2061400</v>
+      </c>
+      <c r="E10">
+        <v>262.4803482721026</v>
+      </c>
+      <c r="F10">
+        <v>0.01608682900022278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>30505</v>
+      </c>
+      <c r="B11">
+        <v>0.05047945205479454</v>
+      </c>
+      <c r="C11">
+        <v>0.01150208359695171</v>
+      </c>
+      <c r="D11">
+        <v>2061400</v>
+      </c>
+      <c r="E11">
+        <v>262.4962817208296</v>
+      </c>
+      <c r="F11">
+        <v>0.01615853477427912</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>30512</v>
+      </c>
+      <c r="B12">
+        <v>0.05057534246575345</v>
+      </c>
+      <c r="C12">
+        <v>0.01091964774695953</v>
+      </c>
+      <c r="D12">
+        <v>2061400</v>
+      </c>
+      <c r="E12">
+        <v>262.5077838044266</v>
+      </c>
+      <c r="F12">
+        <v>0.01621029794380438</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>30519</v>
+      </c>
+      <c r="B13">
+        <v>0.05067123287671235</v>
+      </c>
+      <c r="C13">
+        <v>0.01296659871127304</v>
+      </c>
+      <c r="D13">
+        <v>2061400</v>
+      </c>
+      <c r="E13">
+        <v>262.5187034521736</v>
+      </c>
+      <c r="F13">
+        <v>0.01625943995991954</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>30526</v>
+      </c>
+      <c r="B14">
+        <v>0.05076712328767126</v>
+      </c>
+      <c r="C14">
+        <v>0.01230564148090707</v>
+      </c>
+      <c r="D14">
+        <v>2061400</v>
+      </c>
+      <c r="E14">
+        <v>262.5316700508848</v>
+      </c>
+      <c r="F14">
+        <v>0.01631779393045008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
+        <v>30533</v>
+      </c>
+      <c r="B15">
+        <v>0.05086301369863017</v>
+      </c>
+      <c r="C15">
+        <v>0.01239144172700435</v>
+      </c>
+      <c r="D15">
+        <v>2061400</v>
+      </c>
+      <c r="E15">
+        <v>262.5439756923657</v>
+      </c>
+      <c r="F15">
+        <v>0.01637317337546323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
+        <v>30540</v>
+      </c>
+      <c r="B16">
+        <v>0.05095890410958907</v>
+      </c>
+      <c r="C16">
+        <v>0.0139275113099302</v>
+      </c>
+      <c r="D16">
+        <v>2061400</v>
+      </c>
+      <c r="E16">
+        <v>262.5563671340927</v>
+      </c>
+      <c r="F16">
+        <v>0.01642893894988007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
+        <v>30547</v>
+      </c>
+      <c r="B17">
+        <v>0.05105479452054798</v>
+      </c>
+      <c r="C17">
+        <v>0.01278564497260959</v>
+      </c>
+      <c r="D17">
+        <v>2061400</v>
+      </c>
+      <c r="E17">
+        <v>262.5702946454027</v>
+      </c>
+      <c r="F17">
+        <v>0.0164916173440096</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
+        <v>30554</v>
+      </c>
+      <c r="B18">
+        <v>0.05115068493150689</v>
+      </c>
+      <c r="C18">
+        <v>0.01364005245795852</v>
+      </c>
+      <c r="D18">
+        <v>2061400</v>
+      </c>
+      <c r="E18">
+        <v>262.5830802903753</v>
+      </c>
+      <c r="F18">
+        <v>0.01654915696303825</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2">
+        <v>30561</v>
+      </c>
+      <c r="B19">
+        <v>0.05124657534246579</v>
+      </c>
+      <c r="C19">
+        <v>0.01323538896258469</v>
+      </c>
+      <c r="D19">
+        <v>2061400</v>
+      </c>
+      <c r="E19">
+        <v>262.5967203428332</v>
+      </c>
+      <c r="F19">
+        <v>0.01661054169753112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2">
+        <v>30568</v>
+      </c>
+      <c r="B20">
+        <v>0.0513424657534247</v>
+      </c>
+      <c r="C20">
+        <v>0.01364734072581086</v>
+      </c>
+      <c r="D20">
+        <v>2061400</v>
+      </c>
+      <c r="E20">
+        <v>262.6099557317958</v>
+      </c>
+      <c r="F20">
+        <v>0.01667010531283856</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2">
+        <v>30575</v>
+      </c>
+      <c r="B21">
+        <v>0.05143835616438361</v>
+      </c>
+      <c r="C21">
+        <v>0.01274501966418029</v>
+      </c>
+      <c r="D21">
+        <v>2061400</v>
+      </c>
+      <c r="E21">
+        <v>262.6236030725216</v>
+      </c>
+      <c r="F21">
+        <v>0.01673152284694026</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2">
+        <v>30582</v>
+      </c>
+      <c r="B22">
+        <v>0.05153424657534252</v>
+      </c>
+      <c r="C22">
+        <v>0.0124761112537044</v>
+      </c>
+      <c r="D22">
+        <v>2061400</v>
+      </c>
+      <c r="E22">
+        <v>262.6363480921858</v>
+      </c>
+      <c r="F22">
+        <v>0.01678887963868313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2">
+        <v>30589</v>
+      </c>
+      <c r="B23">
+        <v>0.05163013698630142</v>
+      </c>
+      <c r="C23">
+        <v>0.01427151121436054</v>
+      </c>
+      <c r="D23">
+        <v>2061400</v>
+      </c>
+      <c r="E23">
+        <v>262.6488242034395</v>
+      </c>
+      <c r="F23">
+        <v>0.01684502625389384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2">
+        <v>30596</v>
+      </c>
+      <c r="B24">
+        <v>0.05172602739726033</v>
+      </c>
+      <c r="C24">
+        <v>0.01313791919847063</v>
+      </c>
+      <c r="D24">
+        <v>2061400</v>
+      </c>
+      <c r="E24">
+        <v>262.6630957146539</v>
+      </c>
+      <c r="F24">
+        <v>0.01690925276104295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2">
+        <v>30603</v>
+      </c>
+      <c r="B25">
+        <v>0.05182191780821924</v>
+      </c>
+      <c r="C25">
+        <v>0.01342273369471059</v>
+      </c>
+      <c r="D25">
+        <v>2061400</v>
+      </c>
+      <c r="E25">
+        <v>262.6762336338523</v>
+      </c>
+      <c r="F25">
+        <v>0.01696837773026678</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2">
+        <v>30610</v>
+      </c>
+      <c r="B26">
+        <v>0.05191780821917814</v>
+      </c>
+      <c r="C26">
+        <v>0.01433513209792636</v>
+      </c>
+      <c r="D26">
+        <v>2061400</v>
+      </c>
+      <c r="E26">
+        <v>262.6896563675471</v>
+      </c>
+      <c r="F26">
+        <v>0.01702878445865402</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2">
+        <v>30617</v>
+      </c>
+      <c r="B27">
+        <v>0.05201369863013705</v>
+      </c>
+      <c r="C27">
+        <v>0.01386727199496818</v>
+      </c>
+      <c r="D27">
+        <v>2061400</v>
+      </c>
+      <c r="E27">
+        <v>262.703991499645</v>
+      </c>
+      <c r="F27">
+        <v>0.01709329728076115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2">
+        <v>30624</v>
+      </c>
+      <c r="B28">
+        <v>0.05210958904109596</v>
+      </c>
+      <c r="C28">
+        <v>0.01344615223217716</v>
+      </c>
+      <c r="D28">
+        <v>2061400</v>
+      </c>
+      <c r="E28">
+        <v>262.71785877164</v>
+      </c>
+      <c r="F28">
+        <v>0.01715570457810667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2">
+        <v>30631</v>
+      </c>
+      <c r="B29">
+        <v>0.05220547945205486</v>
+      </c>
+      <c r="C29">
+        <v>0.01488886179299698</v>
+      </c>
+      <c r="D29">
+        <v>2061400</v>
+      </c>
+      <c r="E29">
+        <v>262.7313049238721</v>
+      </c>
+      <c r="F29">
+        <v>0.01721621669763598</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2">
+        <v>30638</v>
+      </c>
+      <c r="B30">
+        <v>0.05230136986301377</v>
+      </c>
+      <c r="C30">
+        <v>0.01376412211482148</v>
+      </c>
+      <c r="D30">
+        <v>2061400</v>
+      </c>
+      <c r="E30">
+        <v>262.7461937856651</v>
+      </c>
+      <c r="F30">
+        <v>0.01728322148598859</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2">
+        <v>30645</v>
+      </c>
+      <c r="B31">
+        <v>0.05239726027397268</v>
+      </c>
+      <c r="C31">
+        <v>0.01391545029173358</v>
+      </c>
+      <c r="D31">
+        <v>2061400</v>
+      </c>
+      <c r="E31">
+        <v>262.7599579077799</v>
+      </c>
+      <c r="F31">
+        <v>0.01734516457485483</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2">
+        <v>30652</v>
+      </c>
+      <c r="B32">
+        <v>0.05249315068493159</v>
+      </c>
+      <c r="C32">
+        <v>0.01364077628841187</v>
+      </c>
+      <c r="D32">
+        <v>2061400</v>
+      </c>
+      <c r="E32">
+        <v>262.7738733580717</v>
+      </c>
+      <c r="F32">
+        <v>0.01740778869042485</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2">
+        <v>30659</v>
+      </c>
+      <c r="B33">
+        <v>0.05258904109589049</v>
+      </c>
+      <c r="C33">
+        <v>0.01551389475287124</v>
+      </c>
+      <c r="D33">
+        <v>2061400</v>
+      </c>
+      <c r="E33">
+        <v>262.7875141343601</v>
+      </c>
+      <c r="F33">
+        <v>0.01746917668239342</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2">
+        <v>30666</v>
+      </c>
+      <c r="B34">
+        <v>0.0526849315068494</v>
+      </c>
+      <c r="C34">
+        <v>0.01413923138170503</v>
+      </c>
+      <c r="D34">
+        <v>2061400</v>
+      </c>
+      <c r="E34">
+        <v>262.803028029113</v>
+      </c>
+      <c r="F34">
+        <v>0.01753899432519856</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2">
+        <v>30673</v>
+      </c>
+      <c r="B35">
+        <v>0.05278082191780831</v>
+      </c>
+      <c r="C35">
+        <v>0.0142525578629602</v>
+      </c>
+      <c r="D35">
+        <v>2061400</v>
+      </c>
+      <c r="E35">
+        <v>262.8171672604947</v>
+      </c>
+      <c r="F35">
+        <v>0.01760262552947541</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2">
+        <v>30680</v>
+      </c>
+      <c r="B36">
+        <v>0.05287671232876721</v>
+      </c>
+      <c r="C36">
+        <v>0.01400891625007716</v>
+      </c>
+      <c r="D36">
+        <v>2061400</v>
+      </c>
+      <c r="E36">
+        <v>262.8314198183576</v>
+      </c>
+      <c r="F36">
+        <v>0.01766676674029256</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2">
+        <v>30687</v>
+      </c>
+      <c r="B37">
+        <v>0.05297260273972612</v>
+      </c>
+      <c r="C37">
+        <v>0.01553232033074892</v>
+      </c>
+      <c r="D37">
+        <v>2061400</v>
+      </c>
+      <c r="E37">
+        <v>262.8454287346077</v>
+      </c>
+      <c r="F37">
+        <v>0.0177298114834997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2">
+        <v>30694</v>
+      </c>
+      <c r="B38">
+        <v>0.05306849315068503</v>
+      </c>
+      <c r="C38">
+        <v>0.01441027858959387</v>
+      </c>
+      <c r="D38">
+        <v>2061400</v>
+      </c>
+      <c r="E38">
+        <v>262.8609610549385</v>
+      </c>
+      <c r="F38">
+        <v>0.01779971204748199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2">
+        <v>30701</v>
+      </c>
+      <c r="B39">
+        <v>0.05316438356164394</v>
+      </c>
+      <c r="C39">
+        <v>0.0145422738430625</v>
+      </c>
+      <c r="D39">
+        <v>2061400</v>
+      </c>
+      <c r="E39">
+        <v>262.8753713335281</v>
+      </c>
+      <c r="F39">
+        <v>0.01786456305358462</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2">
+        <v>30708</v>
+      </c>
+      <c r="B40">
+        <v>0.05326027397260284</v>
+      </c>
+      <c r="C40">
+        <v>0.01427650402183644</v>
+      </c>
+      <c r="D40">
+        <v>2061400</v>
+      </c>
+      <c r="E40">
+        <v>262.8899136073711</v>
+      </c>
+      <c r="F40">
+        <v>0.01793000808185929</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2">
+        <v>30715</v>
+      </c>
+      <c r="B41">
+        <v>0.05335616438356175</v>
+      </c>
+      <c r="C41">
+        <v>0.01569610638534868</v>
+      </c>
+      <c r="D41">
+        <v>2061400</v>
+      </c>
+      <c r="E41">
+        <v>262.9041901113929</v>
+      </c>
+      <c r="F41">
+        <v>0.01799425705828866</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2">
+        <v>30722</v>
+      </c>
+      <c r="B42">
+        <v>0.05345205479452066</v>
+      </c>
+      <c r="C42">
+        <v>0.01459821352341351</v>
+      </c>
+      <c r="D42">
+        <v>2061400</v>
+      </c>
+      <c r="E42">
+        <v>262.9198862177783</v>
+      </c>
+      <c r="F42">
+        <v>0.01806489471353261</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2">
+        <v>30729</v>
+      </c>
+      <c r="B43">
+        <v>0.05354794520547956</v>
+      </c>
+      <c r="C43">
+        <v>0.01475117370569023</v>
+      </c>
+      <c r="D43">
+        <v>2061400</v>
+      </c>
+      <c r="E43">
+        <v>262.9344844313017</v>
+      </c>
+      <c r="F43">
+        <v>0.01813059148881744</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2">
+        <v>30736</v>
+      </c>
+      <c r="B44">
+        <v>0.05364383561643847</v>
+      </c>
+      <c r="C44">
+        <v>0.01447922536272017</v>
+      </c>
+      <c r="D44">
+        <v>2061400</v>
+      </c>
+      <c r="E44">
+        <v>262.9492356050074</v>
+      </c>
+      <c r="F44">
+        <v>0.01819697663536827</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2">
+        <v>30743</v>
+      </c>
+      <c r="B45">
+        <v>0.05373972602739738</v>
+      </c>
+      <c r="C45">
+        <v>0.01478233413808994</v>
+      </c>
+      <c r="D45">
+        <v>2061400</v>
+      </c>
+      <c r="E45">
+        <v>262.9637148303701</v>
+      </c>
+      <c r="F45">
+        <v>0.01826213792468816</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2">
+        <v>30750</v>
+      </c>
+      <c r="B46">
+        <v>0.05383561643835628</v>
+      </c>
+      <c r="C46">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>2061400</v>
-      </c>
-      <c r="E2">
-        <v>261.6063956874585</v>
-      </c>
-      <c r="F2">
-        <v>0.01215375414343174</v>
+      <c r="D46">
+        <v>2061400</v>
+      </c>
+      <c r="E46">
+        <v>262.9784971645082</v>
+      </c>
+      <c r="F46">
+        <v>0.01832866330346142</v>
       </c>
     </row>
   </sheetData>

--- a/FACModel/Modelled RIHT2.xlsx
+++ b/FACModel/Modelled RIHT2.xlsx
@@ -43,9 +43,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm-dd-yyyy"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -98,12 +95,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -400,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -430,26 +424,6 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2">
-        <v>30414</v>
-      </c>
-      <c r="B2">
-        <v>0.03509589041095891</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>2061400</v>
-      </c>
-      <c r="E2">
-        <v>261.6049158331831</v>
-      </c>
-      <c r="F2">
-        <v>0.01214709431114265</v>
       </c>
     </row>
   </sheetData>
